--- a/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBAE75F-206E-484C-BFCE-959B7C1CB769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68648FF-B69A-40D9-AA5D-8040117EC996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="180">
   <si>
     <t>業　　主：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,112 +194,6 @@
   </si>
   <si>
     <t>F3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>星期</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>一</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>二</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>三</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>四</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>五</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>六</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -897,26 +791,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">        有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       事務所</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程名稱：                 工程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        建築師事務所</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>工程名稱：                         工程</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -940,6 +814,18 @@
   </si>
   <si>
     <t>工期計算表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程名稱：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  星期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -951,7 +837,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -1040,12 +926,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1064,6 +944,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -1101,7 +987,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="87">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -2203,6 +2089,26 @@
       <bottom style="hair">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2289,7 +2195,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2305,10 +2211,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2327,12 +2233,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2377,36 +2283,9 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2503,9 +2382,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2596,16 +2472,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2628,15 +2500,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2645,6 +2508,351 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2663,162 +2871,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2843,11 +2910,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -2891,173 +2961,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3160,7 +3068,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2483427" y="16293811"/>
+          <a:off x="2438400" y="16363950"/>
           <a:ext cx="238125" cy="257175"/>
           <a:chOff x="342901" y="11210925"/>
           <a:chExt cx="235895" cy="230951"/>
@@ -3315,7 +3223,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8837468" y="16284286"/>
+          <a:off x="8667750" y="16354425"/>
           <a:ext cx="238125" cy="247650"/>
           <a:chOff x="1905001" y="11182350"/>
           <a:chExt cx="235895" cy="240476"/>
@@ -3470,7 +3378,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4076700" y="16284286"/>
+          <a:off x="4000500" y="16354425"/>
           <a:ext cx="238125" cy="247650"/>
           <a:chOff x="1524001" y="10115550"/>
           <a:chExt cx="235895" cy="240476"/>
@@ -3699,7 +3607,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10440266" y="16284286"/>
+          <a:off x="10239375" y="16354425"/>
           <a:ext cx="238125" cy="228600"/>
           <a:chOff x="742951" y="9877425"/>
           <a:chExt cx="235895" cy="240476"/>
@@ -3854,7 +3762,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10459316" y="15610609"/>
+          <a:off x="10258425" y="15668625"/>
           <a:ext cx="238125" cy="238125"/>
           <a:chOff x="9526" y="10410825"/>
           <a:chExt cx="235895" cy="230951"/>
@@ -4157,7 +4065,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7253720" y="16284286"/>
+          <a:off x="7115175" y="16354425"/>
           <a:ext cx="238125" cy="247650"/>
           <a:chOff x="3943351" y="9629775"/>
           <a:chExt cx="235895" cy="240476"/>
@@ -4312,7 +4220,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5669973" y="16284286"/>
+          <a:off x="5562600" y="16354425"/>
           <a:ext cx="238125" cy="257175"/>
           <a:chOff x="4819651" y="9553575"/>
           <a:chExt cx="235895" cy="240476"/>
@@ -4541,7 +4449,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2492952" y="16630650"/>
+          <a:off x="2447925" y="16706850"/>
           <a:ext cx="219075" cy="219075"/>
           <a:chOff x="6715125" y="5295900"/>
           <a:chExt cx="266700" cy="285750"/>
@@ -4844,7 +4752,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4086225" y="17304327"/>
+          <a:off x="4010025" y="17392650"/>
           <a:ext cx="257175" cy="266700"/>
           <a:chOff x="4879731" y="12448442"/>
           <a:chExt cx="304984" cy="307273"/>
@@ -4954,7 +4862,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5650923" y="17323377"/>
+          <a:off x="5543550" y="17411700"/>
           <a:ext cx="266700" cy="257175"/>
           <a:chOff x="5478249" y="12555140"/>
           <a:chExt cx="304984" cy="307273"/>
@@ -5066,7 +4974,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7234670" y="17332902"/>
+          <a:off x="7096125" y="17421225"/>
           <a:ext cx="257175" cy="247650"/>
           <a:chOff x="7148696" y="12475368"/>
           <a:chExt cx="304984" cy="307273"/>
@@ -5219,7 +5127,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8846993" y="17323377"/>
+          <a:off x="8677275" y="17411700"/>
           <a:ext cx="266700" cy="247650"/>
           <a:chOff x="8671084" y="12102363"/>
           <a:chExt cx="265325" cy="244078"/>
@@ -5665,13 +5573,13 @@
   </sheetPr>
   <dimension ref="A1:BP65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC8" sqref="AC8:AC10"/>
-      <selection pane="bottomLeft" activeCell="BP64" sqref="A1:BP64"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U2:V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.375" style="4" customWidth="1"/>
     <col min="2" max="15" width="5.125" style="15" customWidth="1"/>
@@ -5691,123 +5599,125 @@
     <col min="69" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="166"/>
-      <c r="AC1" s="166"/>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="166"/>
-      <c r="AG1" s="166"/>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="166"/>
-      <c r="AJ1" s="166"/>
-      <c r="AK1" s="166"/>
-      <c r="AL1" s="167"/>
-      <c r="AM1" s="170" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN1" s="171"/>
-      <c r="AO1" s="171"/>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="171"/>
-      <c r="AR1" s="171"/>
-      <c r="AS1" s="171"/>
-      <c r="AT1" s="171"/>
-      <c r="AU1" s="171"/>
-      <c r="AV1" s="171"/>
-      <c r="AW1" s="171"/>
-      <c r="AX1" s="171"/>
-      <c r="AY1" s="171"/>
-      <c r="AZ1" s="171"/>
-      <c r="BA1" s="171"/>
-      <c r="BB1" s="171"/>
-      <c r="BC1" s="171"/>
-      <c r="BD1" s="171"/>
-      <c r="BE1" s="171"/>
-      <c r="BF1" s="171"/>
-      <c r="BG1" s="171"/>
-      <c r="BH1" s="171"/>
-      <c r="BI1" s="171"/>
-      <c r="BJ1" s="171"/>
-      <c r="BK1" s="171"/>
-      <c r="BL1" s="171"/>
-      <c r="BM1" s="171"/>
-      <c r="BN1" s="171"/>
-      <c r="BO1" s="171"/>
-      <c r="BP1" s="172"/>
+    <row r="1" spans="1:68" s="1" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A1" s="238" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="239"/>
+      <c r="P1" s="239"/>
+      <c r="Q1" s="239"/>
+      <c r="R1" s="239"/>
+      <c r="S1" s="239"/>
+      <c r="T1" s="239"/>
+      <c r="U1" s="239"/>
+      <c r="V1" s="239"/>
+      <c r="W1" s="239"/>
+      <c r="X1" s="239"/>
+      <c r="Y1" s="239"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="239"/>
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="239"/>
+      <c r="AD1" s="239"/>
+      <c r="AE1" s="239"/>
+      <c r="AF1" s="239"/>
+      <c r="AG1" s="239"/>
+      <c r="AH1" s="239"/>
+      <c r="AI1" s="239"/>
+      <c r="AJ1" s="239"/>
+      <c r="AK1" s="239"/>
+      <c r="AL1" s="240"/>
+      <c r="AM1" s="241" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN1" s="242"/>
+      <c r="AO1" s="242"/>
+      <c r="AP1" s="242"/>
+      <c r="AQ1" s="242"/>
+      <c r="AR1" s="242"/>
+      <c r="AS1" s="242"/>
+      <c r="AT1" s="242"/>
+      <c r="AU1" s="242"/>
+      <c r="AV1" s="242"/>
+      <c r="AW1" s="242"/>
+      <c r="AX1" s="242"/>
+      <c r="AY1" s="242"/>
+      <c r="AZ1" s="242"/>
+      <c r="BA1" s="242"/>
+      <c r="BB1" s="242"/>
+      <c r="BC1" s="242"/>
+      <c r="BD1" s="242"/>
+      <c r="BE1" s="242"/>
+      <c r="BF1" s="242"/>
+      <c r="BG1" s="242"/>
+      <c r="BH1" s="242"/>
+      <c r="BI1" s="242"/>
+      <c r="BJ1" s="242"/>
+      <c r="BK1" s="242"/>
+      <c r="BL1" s="242"/>
+      <c r="BM1" s="242"/>
+      <c r="BN1" s="242"/>
+      <c r="BO1" s="242"/>
+      <c r="BP1" s="243"/>
     </row>
-    <row r="2" spans="1:68" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="168" t="s">
+    <row r="2" spans="1:68" ht="24.75" customHeight="1">
+      <c r="A2" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="249"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="168"/>
-      <c r="X2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AG2" s="168" t="s">
+      <c r="V2" s="249"/>
+      <c r="W2" s="249"/>
+      <c r="X2" s="249"/>
+      <c r="Y2" s="249"/>
+      <c r="Z2" s="249"/>
+      <c r="AA2" s="249"/>
+      <c r="AB2" s="249"/>
+      <c r="AC2" s="249"/>
+      <c r="AD2" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ2" s="135"/>
-      <c r="AL2" s="137"/>
+      <c r="AE2" s="249"/>
+      <c r="AF2" s="249"/>
+      <c r="AG2" s="249"/>
+      <c r="AH2" s="249"/>
+      <c r="AI2" s="249"/>
+      <c r="AJ2" s="249"/>
+      <c r="AK2" s="249"/>
+      <c r="AL2" s="251"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
@@ -5833,61 +5743,65 @@
       <c r="BG2" s="3"/>
       <c r="BH2" s="3"/>
       <c r="BI2" s="5"/>
-      <c r="BJ2" s="156" t="s">
+      <c r="BJ2" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="BK2" s="156"/>
+      <c r="BK2" s="256"/>
       <c r="BL2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
-      <c r="BP2" s="138"/>
+      <c r="BP2" s="126"/>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="V3" s="169" t="s">
+    <row r="3" spans="1:68" s="1" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A3" s="125" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="250"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="250"/>
+      <c r="S3" s="250"/>
+      <c r="T3" s="250"/>
+      <c r="U3" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="169"/>
-      <c r="X3" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AG3" s="169" t="s">
+      <c r="V3" s="250"/>
+      <c r="W3" s="250"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="250"/>
+      <c r="Z3" s="250"/>
+      <c r="AA3" s="250"/>
+      <c r="AB3" s="250"/>
+      <c r="AC3" s="250"/>
+      <c r="AD3" s="250" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ3" s="7"/>
-      <c r="AL3" s="138"/>
+      <c r="AE3" s="250"/>
+      <c r="AF3" s="250"/>
+      <c r="AG3" s="250"/>
+      <c r="AH3" s="250"/>
+      <c r="AI3" s="250"/>
+      <c r="AJ3" s="250"/>
+      <c r="AK3" s="250"/>
+      <c r="AL3" s="252"/>
       <c r="AM3" s="6" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
@@ -5911,283 +5825,283 @@
       </c>
       <c r="BG3" s="7"/>
       <c r="BI3" s="8"/>
-      <c r="BJ3" s="157" t="s">
+      <c r="BJ3" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="BK3" s="157"/>
+      <c r="BK3" s="257"/>
       <c r="BL3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="BM3" s="7"/>
       <c r="BN3" s="7"/>
       <c r="BO3" s="7"/>
-      <c r="BP3" s="145"/>
+      <c r="BP3" s="133"/>
     </row>
-    <row r="4" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="133"/>
-      <c r="B4" s="289"/>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289"/>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
-      <c r="M4" s="289"/>
-      <c r="N4" s="289"/>
-      <c r="O4" s="289"/>
-      <c r="P4" s="289"/>
-      <c r="Q4" s="289"/>
-      <c r="R4" s="289"/>
-      <c r="S4" s="289"/>
-      <c r="T4" s="289"/>
-      <c r="U4" s="289"/>
-      <c r="V4" s="289"/>
-      <c r="W4" s="289"/>
-      <c r="X4" s="289"/>
-      <c r="Y4" s="289"/>
-      <c r="Z4" s="289"/>
-      <c r="AA4" s="289"/>
-      <c r="AB4" s="289"/>
-      <c r="AC4" s="289"/>
-      <c r="AD4" s="289"/>
-      <c r="AE4" s="289"/>
-      <c r="AF4" s="289"/>
-      <c r="AG4" s="289"/>
-      <c r="AH4" s="289"/>
-      <c r="AI4" s="289"/>
-      <c r="AJ4" s="289"/>
-      <c r="AK4" s="289"/>
-      <c r="AL4" s="290"/>
-      <c r="AM4" s="173" t="s">
+    <row r="4" spans="1:68" ht="18.75" customHeight="1">
+      <c r="A4" s="123"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="151"/>
+      <c r="AF4" s="151"/>
+      <c r="AG4" s="151"/>
+      <c r="AH4" s="151"/>
+      <c r="AI4" s="151"/>
+      <c r="AJ4" s="151"/>
+      <c r="AK4" s="151"/>
+      <c r="AL4" s="152"/>
+      <c r="AM4" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="AN4" s="174" t="s">
+      <c r="AN4" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="175"/>
-      <c r="AP4" s="175"/>
-      <c r="AQ4" s="176"/>
-      <c r="AR4" s="174" t="s">
+      <c r="AO4" s="217"/>
+      <c r="AP4" s="217"/>
+      <c r="AQ4" s="218"/>
+      <c r="AR4" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="AS4" s="175"/>
-      <c r="AT4" s="175"/>
-      <c r="AU4" s="175"/>
-      <c r="AV4" s="175"/>
-      <c r="AW4" s="175"/>
-      <c r="AX4" s="175"/>
-      <c r="AY4" s="175"/>
-      <c r="AZ4" s="175"/>
-      <c r="BA4" s="176"/>
-      <c r="BB4" s="174" t="s">
+      <c r="AS4" s="217"/>
+      <c r="AT4" s="217"/>
+      <c r="AU4" s="217"/>
+      <c r="AV4" s="217"/>
+      <c r="AW4" s="217"/>
+      <c r="AX4" s="217"/>
+      <c r="AY4" s="217"/>
+      <c r="AZ4" s="217"/>
+      <c r="BA4" s="218"/>
+      <c r="BB4" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="BC4" s="177"/>
-      <c r="BD4" s="175"/>
-      <c r="BE4" s="175"/>
-      <c r="BF4" s="175"/>
-      <c r="BG4" s="176"/>
-      <c r="BH4" s="178" t="s">
+      <c r="BC4" s="245"/>
+      <c r="BD4" s="217"/>
+      <c r="BE4" s="217"/>
+      <c r="BF4" s="217"/>
+      <c r="BG4" s="218"/>
+      <c r="BH4" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="BI4" s="179"/>
-      <c r="BJ4" s="179"/>
-      <c r="BK4" s="180"/>
-      <c r="BL4" s="178" t="s">
+      <c r="BI4" s="247"/>
+      <c r="BJ4" s="247"/>
+      <c r="BK4" s="248"/>
+      <c r="BL4" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="BM4" s="179"/>
-      <c r="BN4" s="180"/>
+      <c r="BM4" s="247"/>
+      <c r="BN4" s="248"/>
       <c r="BO4" s="9"/>
       <c r="BP4" s="51"/>
     </row>
-    <row r="5" spans="1:68" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="131"/>
-      <c r="B5" s="289"/>
-      <c r="C5" s="289"/>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="289"/>
-      <c r="I5" s="289"/>
-      <c r="J5" s="289"/>
-      <c r="K5" s="289"/>
-      <c r="L5" s="289"/>
-      <c r="M5" s="289"/>
-      <c r="N5" s="289"/>
-      <c r="O5" s="289"/>
-      <c r="P5" s="289"/>
-      <c r="Q5" s="289"/>
-      <c r="R5" s="289"/>
-      <c r="S5" s="289"/>
-      <c r="T5" s="289"/>
-      <c r="U5" s="289"/>
-      <c r="V5" s="289"/>
-      <c r="W5" s="289"/>
-      <c r="X5" s="289"/>
-      <c r="Y5" s="289"/>
-      <c r="Z5" s="289"/>
-      <c r="AA5" s="289"/>
-      <c r="AB5" s="289"/>
-      <c r="AC5" s="289"/>
-      <c r="AD5" s="289"/>
-      <c r="AE5" s="289"/>
-      <c r="AF5" s="289"/>
-      <c r="AG5" s="289"/>
-      <c r="AH5" s="289"/>
-      <c r="AI5" s="289"/>
-      <c r="AJ5" s="289"/>
-      <c r="AK5" s="289"/>
-      <c r="AL5" s="290"/>
-      <c r="AM5" s="173"/>
-      <c r="AN5" s="174" t="s">
+    <row r="5" spans="1:68" ht="17.25" customHeight="1">
+      <c r="A5" s="121"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="151"/>
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="151"/>
+      <c r="AG5" s="151"/>
+      <c r="AH5" s="151"/>
+      <c r="AI5" s="151"/>
+      <c r="AJ5" s="151"/>
+      <c r="AK5" s="151"/>
+      <c r="AL5" s="152"/>
+      <c r="AM5" s="244"/>
+      <c r="AN5" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="AO5" s="175"/>
-      <c r="AP5" s="175"/>
-      <c r="AQ5" s="176"/>
-      <c r="AR5" s="174" t="s">
+      <c r="AO5" s="217"/>
+      <c r="AP5" s="217"/>
+      <c r="AQ5" s="218"/>
+      <c r="AR5" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="AS5" s="175"/>
-      <c r="AT5" s="175"/>
-      <c r="AU5" s="175"/>
-      <c r="AV5" s="175"/>
-      <c r="AW5" s="175"/>
-      <c r="AX5" s="175"/>
-      <c r="AY5" s="175"/>
-      <c r="AZ5" s="175"/>
-      <c r="BA5" s="176"/>
-      <c r="BB5" s="174" t="s">
+      <c r="AS5" s="217"/>
+      <c r="AT5" s="217"/>
+      <c r="AU5" s="217"/>
+      <c r="AV5" s="217"/>
+      <c r="AW5" s="217"/>
+      <c r="AX5" s="217"/>
+      <c r="AY5" s="217"/>
+      <c r="AZ5" s="217"/>
+      <c r="BA5" s="218"/>
+      <c r="BB5" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="BC5" s="177"/>
-      <c r="BD5" s="175"/>
-      <c r="BE5" s="175"/>
-      <c r="BF5" s="175"/>
-      <c r="BG5" s="176"/>
-      <c r="BH5" s="178"/>
-      <c r="BI5" s="179"/>
-      <c r="BJ5" s="179"/>
-      <c r="BK5" s="180"/>
-      <c r="BL5" s="178"/>
-      <c r="BM5" s="179"/>
-      <c r="BN5" s="180"/>
+      <c r="BC5" s="245"/>
+      <c r="BD5" s="217"/>
+      <c r="BE5" s="217"/>
+      <c r="BF5" s="217"/>
+      <c r="BG5" s="218"/>
+      <c r="BH5" s="246"/>
+      <c r="BI5" s="247"/>
+      <c r="BJ5" s="247"/>
+      <c r="BK5" s="248"/>
+      <c r="BL5" s="246"/>
+      <c r="BM5" s="247"/>
+      <c r="BN5" s="248"/>
       <c r="BO5" s="9"/>
       <c r="BP5" s="51"/>
     </row>
-    <row r="6" spans="1:68" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="132"/>
-      <c r="B6" s="287" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="287"/>
-      <c r="I6" s="287" t="s">
-        <v>184</v>
-      </c>
-      <c r="J6" s="287"/>
-      <c r="K6" s="287"/>
-      <c r="L6" s="287"/>
-      <c r="M6" s="287"/>
-      <c r="N6" s="287"/>
-      <c r="O6" s="287"/>
-      <c r="P6" s="287" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q6" s="287"/>
-      <c r="R6" s="287"/>
-      <c r="S6" s="287"/>
-      <c r="T6" s="287"/>
-      <c r="U6" s="287"/>
-      <c r="V6" s="287"/>
-      <c r="W6" s="287" t="s">
-        <v>186</v>
-      </c>
-      <c r="X6" s="287"/>
-      <c r="Y6" s="287"/>
-      <c r="Z6" s="287"/>
-      <c r="AA6" s="287"/>
-      <c r="AB6" s="287"/>
-      <c r="AC6" s="287"/>
-      <c r="AD6" s="287" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE6" s="287"/>
-      <c r="AF6" s="287"/>
-      <c r="AG6" s="287"/>
-      <c r="AH6" s="287"/>
-      <c r="AI6" s="287"/>
-      <c r="AJ6" s="287"/>
-      <c r="AK6" s="287" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL6" s="288"/>
-      <c r="AM6" s="205" t="s">
+    <row r="6" spans="1:68" s="15" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A6" s="122"/>
+      <c r="B6" s="151" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="151"/>
+      <c r="T6" s="151"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="151" t="s">
+        <v>173</v>
+      </c>
+      <c r="X6" s="151"/>
+      <c r="Y6" s="151"/>
+      <c r="Z6" s="151"/>
+      <c r="AA6" s="151"/>
+      <c r="AB6" s="151"/>
+      <c r="AC6" s="151"/>
+      <c r="AD6" s="151" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE6" s="151"/>
+      <c r="AF6" s="151"/>
+      <c r="AG6" s="151"/>
+      <c r="AH6" s="151"/>
+      <c r="AI6" s="151"/>
+      <c r="AJ6" s="151"/>
+      <c r="AK6" s="151" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL6" s="152"/>
+      <c r="AM6" s="237" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="158" t="s">
+      <c r="AN6" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="AO6" s="159" t="s">
+      <c r="AO6" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="AP6" s="159" t="s">
+      <c r="AP6" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="AQ6" s="197" t="s">
+      <c r="AQ6" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="AR6" s="160" t="s">
+      <c r="AR6" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="AS6" s="161" t="s">
+      <c r="AS6" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="AT6" s="162"/>
-      <c r="AU6" s="161" t="s">
+      <c r="AT6" s="229"/>
+      <c r="AU6" s="260" t="s">
         <v>23</v>
       </c>
-      <c r="AV6" s="162"/>
-      <c r="AW6" s="159" t="s">
+      <c r="AV6" s="229"/>
+      <c r="AW6" s="226" t="s">
         <v>24</v>
       </c>
-      <c r="AX6" s="195" t="s">
+      <c r="AX6" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="AY6" s="195" t="s">
+      <c r="AY6" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="159" t="s">
+      <c r="AZ6" s="226" t="s">
         <v>27</v>
       </c>
-      <c r="BA6" s="197" t="s">
+      <c r="BA6" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="BB6" s="198" t="s">
+      <c r="BB6" s="228" t="s">
         <v>29</v>
       </c>
-      <c r="BC6" s="162"/>
-      <c r="BD6" s="200" t="s">
+      <c r="BC6" s="229"/>
+      <c r="BD6" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="BE6" s="201"/>
-      <c r="BF6" s="204" t="s">
+      <c r="BE6" s="233"/>
+      <c r="BF6" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="BG6" s="225" t="s">
+      <c r="BG6" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="BH6" s="226" t="s">
+      <c r="BH6" s="280" t="s">
         <v>33</v>
       </c>
       <c r="BI6" s="10" t="s">
@@ -6202,7 +6116,7 @@
       <c r="BL6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="BM6" s="190" t="s">
+      <c r="BM6" s="219" t="s">
         <v>38</v>
       </c>
       <c r="BN6" s="13" t="s">
@@ -6211,2979 +6125,2979 @@
       <c r="BO6" s="14"/>
       <c r="BP6" s="52"/>
     </row>
-    <row r="7" spans="1:68" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:68" ht="18.75" customHeight="1">
+      <c r="A7" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="221" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="156" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="156" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="156" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="156" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="156" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="159" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="156" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="156" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="156" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="156" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="156" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="159" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q7" s="156" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="156" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="156" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="156" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" s="156" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" s="159" t="s">
+        <v>69</v>
+      </c>
+      <c r="W7" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="X7" s="156" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="156" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z7" s="156" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA7" s="156" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB7" s="156" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC7" s="159" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD7" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE7" s="156" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF7" s="156" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG7" s="156" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH7" s="156" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI7" s="156" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ7" s="159" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK7" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL7" s="272" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM7" s="237"/>
+      <c r="AN7" s="258"/>
+      <c r="AO7" s="226"/>
+      <c r="AP7" s="226"/>
+      <c r="AQ7" s="227"/>
+      <c r="AR7" s="259"/>
+      <c r="AS7" s="261"/>
+      <c r="AT7" s="231"/>
+      <c r="AU7" s="261"/>
+      <c r="AV7" s="231"/>
+      <c r="AW7" s="226"/>
+      <c r="AX7" s="225"/>
+      <c r="AY7" s="225"/>
+      <c r="AZ7" s="226"/>
+      <c r="BA7" s="227"/>
+      <c r="BB7" s="230"/>
+      <c r="BC7" s="231"/>
+      <c r="BD7" s="234"/>
+      <c r="BE7" s="235"/>
+      <c r="BF7" s="236"/>
+      <c r="BG7" s="279"/>
+      <c r="BH7" s="280"/>
+      <c r="BI7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="192" t="s">
+      <c r="BJ7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="187" t="s">
+      <c r="BK7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="187" t="s">
+      <c r="BL7" s="18"/>
+      <c r="BM7" s="220"/>
+      <c r="BN7" s="19" t="s">
         <v>43</v>
-      </c>
-      <c r="E7" s="187" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="187" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="187" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="181" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="184" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="187" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="187" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="187" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="187" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="187" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="181" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="184" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="187" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="187" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="187" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="187" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" s="187" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" s="181" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" s="184" t="s">
-        <v>41</v>
-      </c>
-      <c r="X7" s="187" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y7" s="187" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z7" s="187" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" s="187" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB7" s="187" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC7" s="181" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD7" s="184" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE7" s="187" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF7" s="187" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG7" s="187" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH7" s="187" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI7" s="187" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ7" s="181" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK7" s="184" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL7" s="208" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM7" s="205"/>
-      <c r="AN7" s="158"/>
-      <c r="AO7" s="159"/>
-      <c r="AP7" s="159"/>
-      <c r="AQ7" s="197"/>
-      <c r="AR7" s="160"/>
-      <c r="AS7" s="163"/>
-      <c r="AT7" s="164"/>
-      <c r="AU7" s="163"/>
-      <c r="AV7" s="164"/>
-      <c r="AW7" s="159"/>
-      <c r="AX7" s="196"/>
-      <c r="AY7" s="196"/>
-      <c r="AZ7" s="159"/>
-      <c r="BA7" s="197"/>
-      <c r="BB7" s="199"/>
-      <c r="BC7" s="164"/>
-      <c r="BD7" s="202"/>
-      <c r="BE7" s="203"/>
-      <c r="BF7" s="204"/>
-      <c r="BG7" s="225"/>
-      <c r="BH7" s="226"/>
-      <c r="BI7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="BJ7" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="BK7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="BL7" s="18"/>
-      <c r="BM7" s="191"/>
-      <c r="BN7" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="BO7" s="20"/>
       <c r="BP7" s="52"/>
     </row>
-    <row r="8" spans="1:68" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="193"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="182"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="188"/>
-      <c r="S8" s="188"/>
-      <c r="T8" s="188"/>
-      <c r="U8" s="188"/>
-      <c r="V8" s="182"/>
-      <c r="W8" s="185"/>
-      <c r="X8" s="188"/>
-      <c r="Y8" s="188"/>
-      <c r="Z8" s="188"/>
-      <c r="AA8" s="188"/>
-      <c r="AB8" s="188"/>
-      <c r="AC8" s="182"/>
-      <c r="AD8" s="185"/>
-      <c r="AE8" s="188"/>
-      <c r="AF8" s="188"/>
-      <c r="AG8" s="188"/>
-      <c r="AH8" s="188"/>
-      <c r="AI8" s="188"/>
-      <c r="AJ8" s="182"/>
-      <c r="AK8" s="185"/>
-      <c r="AL8" s="209"/>
-      <c r="AM8" s="211"/>
-      <c r="AN8" s="213" t="s">
+    <row r="8" spans="1:68" ht="78.75" customHeight="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="222"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="157"/>
+      <c r="R8" s="157"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="157"/>
+      <c r="U8" s="157"/>
+      <c r="V8" s="160"/>
+      <c r="W8" s="163"/>
+      <c r="X8" s="157"/>
+      <c r="Y8" s="157"/>
+      <c r="Z8" s="157"/>
+      <c r="AA8" s="157"/>
+      <c r="AB8" s="157"/>
+      <c r="AC8" s="160"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="157"/>
+      <c r="AF8" s="157"/>
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="157"/>
+      <c r="AI8" s="157"/>
+      <c r="AJ8" s="160"/>
+      <c r="AK8" s="163"/>
+      <c r="AL8" s="273"/>
+      <c r="AM8" s="264"/>
+      <c r="AN8" s="266" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO8" s="268" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP8" s="268" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ8" s="277" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR8" s="262" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS8" s="270" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT8" s="271"/>
+      <c r="AU8" s="270" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV8" s="271"/>
+      <c r="AW8" s="204" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX8" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AO8" s="215" t="s">
+      <c r="AY8" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="AP8" s="215" t="s">
+      <c r="AZ8" s="204" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA8" s="206" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB8" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="AQ8" s="223" t="s">
+      <c r="BC8" s="209"/>
+      <c r="BD8" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="AR8" s="206" t="s">
+      <c r="BE8" s="211"/>
+      <c r="BF8" s="212" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG8" s="214" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH8" s="287" t="s">
         <v>56</v>
       </c>
-      <c r="AS8" s="217" t="s">
+      <c r="BI8" s="198" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ8" s="198" t="s">
         <v>57</v>
       </c>
-      <c r="AT8" s="218"/>
-      <c r="AU8" s="217" t="s">
+      <c r="BK8" s="200" t="s">
         <v>58</v>
       </c>
-      <c r="AV8" s="218"/>
-      <c r="AW8" s="219" t="s">
+      <c r="BL8" s="275" t="s">
         <v>59</v>
       </c>
-      <c r="AX8" s="219" t="s">
+      <c r="BM8" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="AY8" s="219" t="s">
+      <c r="BN8" s="281" t="s">
         <v>61</v>
       </c>
-      <c r="AZ8" s="219" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA8" s="241" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB8" s="243" t="s">
+      <c r="BO8" s="283"/>
+      <c r="BP8" s="285"/>
+    </row>
+    <row r="9" spans="1:68" s="24" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A9" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="BC8" s="244"/>
-      <c r="BD8" s="245" t="s">
-        <v>63</v>
-      </c>
-      <c r="BE8" s="246"/>
-      <c r="BF8" s="247" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG8" s="249" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH8" s="233" t="s">
+      <c r="B9" s="223"/>
+      <c r="C9" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="BI8" s="235" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ8" s="235" t="s">
+      <c r="D9" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="BK8" s="237" t="s">
+      <c r="E9" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="BL8" s="221" t="s">
+      <c r="F9" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="BM8" s="239" t="s">
+      <c r="G9" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="BN8" s="227" t="s">
+      <c r="H9" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="BO8" s="229"/>
-      <c r="BP8" s="231"/>
-    </row>
-    <row r="9" spans="1:68" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="189" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="189" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="189" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="189" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="189" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="183" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="186" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="189" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="189" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="189" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="189" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="189" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="183" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="186" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="189" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="189" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" s="189" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" s="189" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="189" t="s">
-        <v>46</v>
-      </c>
-      <c r="V9" s="183" t="s">
-        <v>47</v>
-      </c>
-      <c r="W9" s="186" t="s">
-        <v>41</v>
-      </c>
-      <c r="X9" s="189" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y9" s="189" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z9" s="189" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA9" s="189" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB9" s="189" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC9" s="183" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD9" s="186" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE9" s="189" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF9" s="189" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="189" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH9" s="189" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI9" s="189" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ9" s="183" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK9" s="186" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL9" s="210" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM9" s="212"/>
-      <c r="AN9" s="214"/>
-      <c r="AO9" s="216"/>
-      <c r="AP9" s="216"/>
-      <c r="AQ9" s="224"/>
-      <c r="AR9" s="207"/>
+      <c r="I9" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="158" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="158" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="158" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="158" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="158" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="161" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q9" s="158" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="158" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="158" t="s">
+        <v>66</v>
+      </c>
+      <c r="T9" s="158" t="s">
+        <v>67</v>
+      </c>
+      <c r="U9" s="158" t="s">
+        <v>68</v>
+      </c>
+      <c r="V9" s="161" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="X9" s="158" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="158" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z9" s="158" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA9" s="158" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB9" s="158" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC9" s="161" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD9" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE9" s="158" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF9" s="158" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG9" s="158" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH9" s="158" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI9" s="158" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ9" s="161" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK9" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL9" s="274" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM9" s="265"/>
+      <c r="AN9" s="267"/>
+      <c r="AO9" s="269"/>
+      <c r="AP9" s="269"/>
+      <c r="AQ9" s="278"/>
+      <c r="AR9" s="263"/>
       <c r="AS9" s="21"/>
       <c r="AT9" s="22" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="AU9" s="21"/>
       <c r="AV9" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW9" s="220"/>
-      <c r="AX9" s="220"/>
-      <c r="AY9" s="220"/>
-      <c r="AZ9" s="220"/>
-      <c r="BA9" s="242"/>
+        <v>63</v>
+      </c>
+      <c r="AW9" s="205"/>
+      <c r="AX9" s="205"/>
+      <c r="AY9" s="205"/>
+      <c r="AZ9" s="205"/>
+      <c r="BA9" s="207"/>
       <c r="BB9" s="23"/>
       <c r="BC9" s="22" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="BD9" s="21"/>
       <c r="BE9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF9" s="213"/>
+      <c r="BG9" s="215"/>
+      <c r="BH9" s="288"/>
+      <c r="BI9" s="199"/>
+      <c r="BJ9" s="199"/>
+      <c r="BK9" s="201"/>
+      <c r="BL9" s="276"/>
+      <c r="BM9" s="203"/>
+      <c r="BN9" s="282"/>
+      <c r="BO9" s="284"/>
+      <c r="BP9" s="286"/>
+    </row>
+    <row r="10" spans="1:68" ht="30" customHeight="1">
+      <c r="A10" s="154" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="85"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="85"/>
+      <c r="AI10" s="85"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="63"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="67"/>
+      <c r="AT10" s="67"/>
+      <c r="AU10" s="67"/>
+      <c r="AV10" s="67"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="64"/>
+      <c r="AZ10" s="64"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="66"/>
+      <c r="BC10" s="64"/>
+      <c r="BD10" s="67"/>
+      <c r="BE10" s="67"/>
+      <c r="BF10" s="64"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="66"/>
+      <c r="BI10" s="64"/>
+      <c r="BJ10" s="64"/>
+      <c r="BK10" s="65"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="64"/>
+      <c r="BN10" s="65"/>
+      <c r="BO10" s="68"/>
+      <c r="BP10" s="69"/>
+    </row>
+    <row r="11" spans="1:68" s="25" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="154"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="142"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="142"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="141"/>
+      <c r="Y11" s="141"/>
+      <c r="Z11" s="141"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="141"/>
+      <c r="AC11" s="142"/>
+      <c r="AD11" s="140"/>
+      <c r="AE11" s="141"/>
+      <c r="AF11" s="141"/>
+      <c r="AG11" s="141"/>
+      <c r="AH11" s="141"/>
+      <c r="AI11" s="141"/>
+      <c r="AJ11" s="142"/>
+      <c r="AK11" s="143"/>
+      <c r="AL11" s="144"/>
+      <c r="AM11" s="135"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="75"/>
+      <c r="AP11" s="76"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="76"/>
+      <c r="AT11" s="76"/>
+      <c r="AU11" s="76"/>
+      <c r="AV11" s="76"/>
+      <c r="AW11" s="76"/>
+      <c r="AX11" s="76"/>
+      <c r="AY11" s="76"/>
+      <c r="AZ11" s="76"/>
+      <c r="BA11" s="77"/>
+      <c r="BB11" s="78"/>
+      <c r="BC11" s="76"/>
+      <c r="BD11" s="76"/>
+      <c r="BE11" s="76"/>
+      <c r="BF11" s="76"/>
+      <c r="BG11" s="77"/>
+      <c r="BH11" s="78"/>
+      <c r="BI11" s="76"/>
+      <c r="BJ11" s="76"/>
+      <c r="BK11" s="77"/>
+      <c r="BL11" s="78"/>
+      <c r="BM11" s="76"/>
+      <c r="BN11" s="77"/>
+      <c r="BO11" s="79"/>
+      <c r="BP11" s="80"/>
+    </row>
+    <row r="12" spans="1:68" s="25" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="155"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="105"/>
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="105"/>
+      <c r="AJ12" s="106"/>
+      <c r="AK12" s="107"/>
+      <c r="AL12" s="108"/>
+      <c r="AM12" s="253"/>
+      <c r="AN12" s="254"/>
+      <c r="AO12" s="254"/>
+      <c r="AP12" s="254"/>
+      <c r="AQ12" s="254"/>
+      <c r="AR12" s="254"/>
+      <c r="AS12" s="254"/>
+      <c r="AT12" s="254"/>
+      <c r="AU12" s="254"/>
+      <c r="AV12" s="254"/>
+      <c r="AW12" s="254"/>
+      <c r="AX12" s="254"/>
+      <c r="AY12" s="254"/>
+      <c r="AZ12" s="254"/>
+      <c r="BA12" s="254"/>
+      <c r="BB12" s="254"/>
+      <c r="BC12" s="254"/>
+      <c r="BD12" s="254"/>
+      <c r="BE12" s="254"/>
+      <c r="BF12" s="254"/>
+      <c r="BG12" s="254"/>
+      <c r="BH12" s="254"/>
+      <c r="BI12" s="254"/>
+      <c r="BJ12" s="254"/>
+      <c r="BK12" s="254"/>
+      <c r="BL12" s="254"/>
+      <c r="BM12" s="254"/>
+      <c r="BN12" s="254"/>
+      <c r="BO12" s="254"/>
+      <c r="BP12" s="255"/>
+    </row>
+    <row r="13" spans="1:68" ht="30" customHeight="1">
+      <c r="A13" s="153" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="90"/>
+      <c r="AJ13" s="91"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="62"/>
+      <c r="AO13" s="63"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="67"/>
+      <c r="AT13" s="67"/>
+      <c r="AU13" s="67"/>
+      <c r="AV13" s="67"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="64"/>
+      <c r="AZ13" s="64"/>
+      <c r="BA13" s="65"/>
+      <c r="BB13" s="66"/>
+      <c r="BC13" s="64"/>
+      <c r="BD13" s="67"/>
+      <c r="BE13" s="67"/>
+      <c r="BF13" s="64"/>
+      <c r="BG13" s="65"/>
+      <c r="BH13" s="66"/>
+      <c r="BI13" s="64"/>
+      <c r="BJ13" s="64"/>
+      <c r="BK13" s="65"/>
+      <c r="BL13" s="66"/>
+      <c r="BM13" s="64"/>
+      <c r="BN13" s="65"/>
+      <c r="BO13" s="68"/>
+      <c r="BP13" s="69"/>
+    </row>
+    <row r="14" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="154"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="146"/>
+      <c r="S14" s="146"/>
+      <c r="T14" s="146"/>
+      <c r="U14" s="146"/>
+      <c r="V14" s="147"/>
+      <c r="W14" s="145"/>
+      <c r="X14" s="146"/>
+      <c r="Y14" s="146"/>
+      <c r="Z14" s="146"/>
+      <c r="AA14" s="146"/>
+      <c r="AB14" s="146"/>
+      <c r="AC14" s="147"/>
+      <c r="AD14" s="148"/>
+      <c r="AE14" s="146"/>
+      <c r="AF14" s="146"/>
+      <c r="AG14" s="146"/>
+      <c r="AH14" s="146"/>
+      <c r="AI14" s="146"/>
+      <c r="AJ14" s="147"/>
+      <c r="AK14" s="149"/>
+      <c r="AL14" s="150"/>
+      <c r="AM14" s="132"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="76"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="78"/>
+      <c r="AS14" s="76"/>
+      <c r="AT14" s="76"/>
+      <c r="AU14" s="76"/>
+      <c r="AV14" s="76"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="76"/>
+      <c r="AY14" s="76"/>
+      <c r="AZ14" s="76"/>
+      <c r="BA14" s="77"/>
+      <c r="BB14" s="78"/>
+      <c r="BC14" s="76"/>
+      <c r="BD14" s="76"/>
+      <c r="BE14" s="76"/>
+      <c r="BF14" s="76"/>
+      <c r="BG14" s="77"/>
+      <c r="BH14" s="78"/>
+      <c r="BI14" s="76"/>
+      <c r="BJ14" s="76"/>
+      <c r="BK14" s="77"/>
+      <c r="BL14" s="78"/>
+      <c r="BM14" s="76"/>
+      <c r="BN14" s="77"/>
+      <c r="BO14" s="79"/>
+      <c r="BP14" s="80"/>
+    </row>
+    <row r="15" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="154"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="110"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="112"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="111"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="114"/>
+      <c r="AM15" s="253"/>
+      <c r="AN15" s="254"/>
+      <c r="AO15" s="254"/>
+      <c r="AP15" s="254"/>
+      <c r="AQ15" s="254"/>
+      <c r="AR15" s="254"/>
+      <c r="AS15" s="254"/>
+      <c r="AT15" s="254"/>
+      <c r="AU15" s="254"/>
+      <c r="AV15" s="254"/>
+      <c r="AW15" s="254"/>
+      <c r="AX15" s="254"/>
+      <c r="AY15" s="254"/>
+      <c r="AZ15" s="254"/>
+      <c r="BA15" s="254"/>
+      <c r="BB15" s="254"/>
+      <c r="BC15" s="254"/>
+      <c r="BD15" s="254"/>
+      <c r="BE15" s="254"/>
+      <c r="BF15" s="254"/>
+      <c r="BG15" s="254"/>
+      <c r="BH15" s="254"/>
+      <c r="BI15" s="254"/>
+      <c r="BJ15" s="254"/>
+      <c r="BK15" s="254"/>
+      <c r="BL15" s="254"/>
+      <c r="BM15" s="254"/>
+      <c r="BN15" s="254"/>
+      <c r="BO15" s="254"/>
+      <c r="BP15" s="255"/>
+    </row>
+    <row r="16" spans="1:68" ht="30" customHeight="1">
+      <c r="A16" s="153" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="92"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="90"/>
+      <c r="AJ16" s="91"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="82"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="64"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="67"/>
+      <c r="AU16" s="67"/>
+      <c r="AV16" s="67"/>
+      <c r="AW16" s="64"/>
+      <c r="AX16" s="64"/>
+      <c r="AY16" s="64"/>
+      <c r="AZ16" s="64"/>
+      <c r="BA16" s="65"/>
+      <c r="BB16" s="66"/>
+      <c r="BC16" s="64"/>
+      <c r="BD16" s="67"/>
+      <c r="BE16" s="67"/>
+      <c r="BF16" s="64"/>
+      <c r="BG16" s="65"/>
+      <c r="BH16" s="66"/>
+      <c r="BI16" s="64"/>
+      <c r="BJ16" s="64"/>
+      <c r="BK16" s="65"/>
+      <c r="BL16" s="66"/>
+      <c r="BM16" s="64"/>
+      <c r="BN16" s="65"/>
+      <c r="BO16" s="68"/>
+      <c r="BP16" s="69"/>
+    </row>
+    <row r="17" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A17" s="154"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="146"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="146"/>
+      <c r="S17" s="146"/>
+      <c r="T17" s="146"/>
+      <c r="U17" s="146"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="146"/>
+      <c r="Y17" s="146"/>
+      <c r="Z17" s="146"/>
+      <c r="AA17" s="146"/>
+      <c r="AB17" s="146"/>
+      <c r="AC17" s="147"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="146"/>
+      <c r="AF17" s="146"/>
+      <c r="AG17" s="146"/>
+      <c r="AH17" s="146"/>
+      <c r="AI17" s="146"/>
+      <c r="AJ17" s="147"/>
+      <c r="AK17" s="149"/>
+      <c r="AL17" s="150"/>
+      <c r="AM17" s="132"/>
+      <c r="AN17" s="74"/>
+      <c r="AO17" s="75"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="76"/>
+      <c r="AT17" s="76"/>
+      <c r="AU17" s="76"/>
+      <c r="AV17" s="76"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="76"/>
+      <c r="AY17" s="76"/>
+      <c r="AZ17" s="76"/>
+      <c r="BA17" s="77"/>
+      <c r="BB17" s="78"/>
+      <c r="BC17" s="76"/>
+      <c r="BD17" s="76"/>
+      <c r="BE17" s="76"/>
+      <c r="BF17" s="76"/>
+      <c r="BG17" s="77"/>
+      <c r="BH17" s="78"/>
+      <c r="BI17" s="76"/>
+      <c r="BJ17" s="76"/>
+      <c r="BK17" s="77"/>
+      <c r="BL17" s="78"/>
+      <c r="BM17" s="76"/>
+      <c r="BN17" s="77"/>
+      <c r="BO17" s="79"/>
+      <c r="BP17" s="80"/>
+    </row>
+    <row r="18" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="155"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="115"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="116"/>
+      <c r="AB18" s="116"/>
+      <c r="AC18" s="117"/>
+      <c r="AD18" s="115"/>
+      <c r="AE18" s="116"/>
+      <c r="AF18" s="116"/>
+      <c r="AG18" s="116"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="116"/>
+      <c r="AJ18" s="117"/>
+      <c r="AK18" s="118"/>
+      <c r="AL18" s="119"/>
+      <c r="AM18" s="253"/>
+      <c r="AN18" s="254"/>
+      <c r="AO18" s="254"/>
+      <c r="AP18" s="254"/>
+      <c r="AQ18" s="254"/>
+      <c r="AR18" s="254"/>
+      <c r="AS18" s="254"/>
+      <c r="AT18" s="254"/>
+      <c r="AU18" s="254"/>
+      <c r="AV18" s="254"/>
+      <c r="AW18" s="254"/>
+      <c r="AX18" s="254"/>
+      <c r="AY18" s="254"/>
+      <c r="AZ18" s="254"/>
+      <c r="BA18" s="254"/>
+      <c r="BB18" s="254"/>
+      <c r="BC18" s="254"/>
+      <c r="BD18" s="254"/>
+      <c r="BE18" s="254"/>
+      <c r="BF18" s="254"/>
+      <c r="BG18" s="254"/>
+      <c r="BH18" s="254"/>
+      <c r="BI18" s="254"/>
+      <c r="BJ18" s="254"/>
+      <c r="BK18" s="254"/>
+      <c r="BL18" s="254"/>
+      <c r="BM18" s="254"/>
+      <c r="BN18" s="254"/>
+      <c r="BO18" s="254"/>
+      <c r="BP18" s="255"/>
+    </row>
+    <row r="19" spans="1:68" ht="30" customHeight="1">
+      <c r="A19" s="154" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="87"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="85"/>
+      <c r="Y19" s="85"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="85"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="85"/>
+      <c r="AH19" s="85"/>
+      <c r="AI19" s="85"/>
+      <c r="AJ19" s="86"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="88"/>
+      <c r="AM19" s="82"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="67"/>
+      <c r="AT19" s="67"/>
+      <c r="AU19" s="67"/>
+      <c r="AV19" s="67"/>
+      <c r="AW19" s="64"/>
+      <c r="AX19" s="64"/>
+      <c r="AY19" s="64"/>
+      <c r="AZ19" s="64"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="66"/>
+      <c r="BC19" s="64"/>
+      <c r="BD19" s="67"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="64"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="66"/>
+      <c r="BI19" s="64"/>
+      <c r="BJ19" s="64"/>
+      <c r="BK19" s="65"/>
+      <c r="BL19" s="66"/>
+      <c r="BM19" s="64"/>
+      <c r="BN19" s="65"/>
+      <c r="BO19" s="68"/>
+      <c r="BP19" s="69"/>
+    </row>
+    <row r="20" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="154"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="146"/>
+      <c r="T20" s="146"/>
+      <c r="U20" s="146"/>
+      <c r="V20" s="147"/>
+      <c r="W20" s="145"/>
+      <c r="X20" s="146"/>
+      <c r="Y20" s="146"/>
+      <c r="Z20" s="146"/>
+      <c r="AA20" s="146"/>
+      <c r="AB20" s="146"/>
+      <c r="AC20" s="147"/>
+      <c r="AD20" s="145"/>
+      <c r="AE20" s="146"/>
+      <c r="AF20" s="146"/>
+      <c r="AG20" s="146"/>
+      <c r="AH20" s="146"/>
+      <c r="AI20" s="146"/>
+      <c r="AJ20" s="147"/>
+      <c r="AK20" s="149"/>
+      <c r="AL20" s="150"/>
+      <c r="AM20" s="134"/>
+      <c r="AN20" s="70"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="78"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="76"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="77"/>
+      <c r="BB20" s="78"/>
+      <c r="BC20" s="76"/>
+      <c r="BD20" s="76"/>
+      <c r="BE20" s="76"/>
+      <c r="BF20" s="76"/>
+      <c r="BG20" s="77"/>
+      <c r="BH20" s="78"/>
+      <c r="BI20" s="76"/>
+      <c r="BJ20" s="76"/>
+      <c r="BK20" s="77"/>
+      <c r="BL20" s="78"/>
+      <c r="BM20" s="76"/>
+      <c r="BN20" s="77"/>
+      <c r="BO20" s="79"/>
+      <c r="BP20" s="80"/>
+    </row>
+    <row r="21" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="155"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="110"/>
+      <c r="Y21" s="110"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="110"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="110"/>
+      <c r="AH21" s="110"/>
+      <c r="AI21" s="110"/>
+      <c r="AJ21" s="111"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="114"/>
+      <c r="AM21" s="253"/>
+      <c r="AN21" s="254"/>
+      <c r="AO21" s="254"/>
+      <c r="AP21" s="254"/>
+      <c r="AQ21" s="254"/>
+      <c r="AR21" s="254"/>
+      <c r="AS21" s="254"/>
+      <c r="AT21" s="254"/>
+      <c r="AU21" s="254"/>
+      <c r="AV21" s="254"/>
+      <c r="AW21" s="254"/>
+      <c r="AX21" s="254"/>
+      <c r="AY21" s="254"/>
+      <c r="AZ21" s="254"/>
+      <c r="BA21" s="254"/>
+      <c r="BB21" s="254"/>
+      <c r="BC21" s="254"/>
+      <c r="BD21" s="254"/>
+      <c r="BE21" s="254"/>
+      <c r="BF21" s="254"/>
+      <c r="BG21" s="254"/>
+      <c r="BH21" s="254"/>
+      <c r="BI21" s="254"/>
+      <c r="BJ21" s="254"/>
+      <c r="BK21" s="254"/>
+      <c r="BL21" s="254"/>
+      <c r="BM21" s="254"/>
+      <c r="BN21" s="254"/>
+      <c r="BO21" s="254"/>
+      <c r="BP21" s="255"/>
+    </row>
+    <row r="22" spans="1:68" ht="30" customHeight="1">
+      <c r="A22" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="92"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="91"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="90"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="91"/>
+      <c r="AK22" s="92"/>
+      <c r="AL22" s="93"/>
+      <c r="AM22" s="82"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="63"/>
+      <c r="AP22" s="64"/>
+      <c r="AQ22" s="65"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="67"/>
+      <c r="AT22" s="67"/>
+      <c r="AU22" s="67"/>
+      <c r="AV22" s="67"/>
+      <c r="AW22" s="64"/>
+      <c r="AX22" s="64"/>
+      <c r="AY22" s="64"/>
+      <c r="AZ22" s="64"/>
+      <c r="BA22" s="65"/>
+      <c r="BB22" s="66"/>
+      <c r="BC22" s="64"/>
+      <c r="BD22" s="67"/>
+      <c r="BE22" s="67"/>
+      <c r="BF22" s="64"/>
+      <c r="BG22" s="65"/>
+      <c r="BH22" s="66"/>
+      <c r="BI22" s="64"/>
+      <c r="BJ22" s="64"/>
+      <c r="BK22" s="65"/>
+      <c r="BL22" s="66"/>
+      <c r="BM22" s="64"/>
+      <c r="BN22" s="65"/>
+      <c r="BO22" s="68"/>
+      <c r="BP22" s="69"/>
+    </row>
+    <row r="23" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="154"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="146"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="146"/>
+      <c r="S23" s="146"/>
+      <c r="T23" s="146"/>
+      <c r="U23" s="146"/>
+      <c r="V23" s="147"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="146"/>
+      <c r="Y23" s="146"/>
+      <c r="Z23" s="146"/>
+      <c r="AA23" s="146"/>
+      <c r="AB23" s="146"/>
+      <c r="AC23" s="147"/>
+      <c r="AD23" s="145"/>
+      <c r="AE23" s="146"/>
+      <c r="AF23" s="146"/>
+      <c r="AG23" s="146"/>
+      <c r="AH23" s="146"/>
+      <c r="AI23" s="146"/>
+      <c r="AJ23" s="147"/>
+      <c r="AK23" s="149"/>
+      <c r="AL23" s="150"/>
+      <c r="AM23" s="81"/>
+      <c r="AN23" s="74"/>
+      <c r="AO23" s="75"/>
+      <c r="AP23" s="76"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="78"/>
+      <c r="AS23" s="76"/>
+      <c r="AT23" s="76"/>
+      <c r="AU23" s="76"/>
+      <c r="AV23" s="76"/>
+      <c r="AW23" s="76"/>
+      <c r="AX23" s="76"/>
+      <c r="AY23" s="76"/>
+      <c r="AZ23" s="76"/>
+      <c r="BA23" s="77"/>
+      <c r="BB23" s="78"/>
+      <c r="BC23" s="76"/>
+      <c r="BD23" s="76"/>
+      <c r="BE23" s="76"/>
+      <c r="BF23" s="76"/>
+      <c r="BG23" s="77"/>
+      <c r="BH23" s="78"/>
+      <c r="BI23" s="76"/>
+      <c r="BJ23" s="76"/>
+      <c r="BK23" s="77"/>
+      <c r="BL23" s="78"/>
+      <c r="BM23" s="76"/>
+      <c r="BN23" s="77"/>
+      <c r="BO23" s="79"/>
+      <c r="BP23" s="80"/>
+    </row>
+    <row r="24" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="155"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="110"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="110"/>
+      <c r="AB24" s="110"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="109"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="110"/>
+      <c r="AG24" s="110"/>
+      <c r="AH24" s="110"/>
+      <c r="AI24" s="110"/>
+      <c r="AJ24" s="111"/>
+      <c r="AK24" s="113"/>
+      <c r="AL24" s="114"/>
+      <c r="AM24" s="253"/>
+      <c r="AN24" s="254"/>
+      <c r="AO24" s="254"/>
+      <c r="AP24" s="254"/>
+      <c r="AQ24" s="254"/>
+      <c r="AR24" s="254"/>
+      <c r="AS24" s="254"/>
+      <c r="AT24" s="254"/>
+      <c r="AU24" s="254"/>
+      <c r="AV24" s="254"/>
+      <c r="AW24" s="254"/>
+      <c r="AX24" s="254"/>
+      <c r="AY24" s="254"/>
+      <c r="AZ24" s="254"/>
+      <c r="BA24" s="254"/>
+      <c r="BB24" s="254"/>
+      <c r="BC24" s="254"/>
+      <c r="BD24" s="254"/>
+      <c r="BE24" s="254"/>
+      <c r="BF24" s="254"/>
+      <c r="BG24" s="254"/>
+      <c r="BH24" s="254"/>
+      <c r="BI24" s="254"/>
+      <c r="BJ24" s="254"/>
+      <c r="BK24" s="254"/>
+      <c r="BL24" s="254"/>
+      <c r="BM24" s="254"/>
+      <c r="BN24" s="254"/>
+      <c r="BO24" s="254"/>
+      <c r="BP24" s="255"/>
+    </row>
+    <row r="25" spans="1:68" ht="30" customHeight="1">
+      <c r="A25" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="92"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="91"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="91"/>
+      <c r="AK25" s="92"/>
+      <c r="AL25" s="93"/>
+      <c r="AM25" s="82"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="64"/>
+      <c r="AQ25" s="65"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="67"/>
+      <c r="AU25" s="67"/>
+      <c r="AV25" s="67"/>
+      <c r="AW25" s="64"/>
+      <c r="AX25" s="64"/>
+      <c r="AY25" s="64"/>
+      <c r="AZ25" s="64"/>
+      <c r="BA25" s="65"/>
+      <c r="BB25" s="66"/>
+      <c r="BC25" s="64"/>
+      <c r="BD25" s="67"/>
+      <c r="BE25" s="67"/>
+      <c r="BF25" s="64"/>
+      <c r="BG25" s="65"/>
+      <c r="BH25" s="66"/>
+      <c r="BI25" s="64"/>
+      <c r="BJ25" s="64"/>
+      <c r="BK25" s="65"/>
+      <c r="BL25" s="66"/>
+      <c r="BM25" s="64"/>
+      <c r="BN25" s="65"/>
+      <c r="BO25" s="68"/>
+      <c r="BP25" s="69"/>
+    </row>
+    <row r="26" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="154"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="146"/>
+      <c r="O26" s="147"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="141"/>
+      <c r="R26" s="146"/>
+      <c r="S26" s="146"/>
+      <c r="T26" s="146"/>
+      <c r="U26" s="146"/>
+      <c r="V26" s="147"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="146"/>
+      <c r="Y26" s="146"/>
+      <c r="Z26" s="146"/>
+      <c r="AA26" s="146"/>
+      <c r="AB26" s="146"/>
+      <c r="AC26" s="147"/>
+      <c r="AD26" s="145"/>
+      <c r="AE26" s="146"/>
+      <c r="AF26" s="146"/>
+      <c r="AG26" s="146"/>
+      <c r="AH26" s="146"/>
+      <c r="AI26" s="146"/>
+      <c r="AJ26" s="147"/>
+      <c r="AK26" s="149"/>
+      <c r="AL26" s="150"/>
+      <c r="AM26" s="81"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="75"/>
+      <c r="AP26" s="76"/>
+      <c r="AQ26" s="77"/>
+      <c r="AR26" s="78"/>
+      <c r="AS26" s="76"/>
+      <c r="AT26" s="76"/>
+      <c r="AU26" s="76"/>
+      <c r="AV26" s="76"/>
+      <c r="AW26" s="76"/>
+      <c r="AX26" s="76"/>
+      <c r="AY26" s="76"/>
+      <c r="AZ26" s="76"/>
+      <c r="BA26" s="77"/>
+      <c r="BB26" s="78"/>
+      <c r="BC26" s="76"/>
+      <c r="BD26" s="76"/>
+      <c r="BE26" s="76"/>
+      <c r="BF26" s="76"/>
+      <c r="BG26" s="77"/>
+      <c r="BH26" s="78"/>
+      <c r="BI26" s="76"/>
+      <c r="BJ26" s="76"/>
+      <c r="BK26" s="77"/>
+      <c r="BL26" s="78"/>
+      <c r="BM26" s="76"/>
+      <c r="BN26" s="77"/>
+      <c r="BO26" s="79"/>
+      <c r="BP26" s="80"/>
+    </row>
+    <row r="27" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="155"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="117"/>
+      <c r="W27" s="115"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="116"/>
+      <c r="Z27" s="116"/>
+      <c r="AA27" s="116"/>
+      <c r="AB27" s="116"/>
+      <c r="AC27" s="117"/>
+      <c r="AD27" s="115"/>
+      <c r="AE27" s="116"/>
+      <c r="AF27" s="116"/>
+      <c r="AG27" s="116"/>
+      <c r="AH27" s="116"/>
+      <c r="AI27" s="116"/>
+      <c r="AJ27" s="117"/>
+      <c r="AK27" s="118"/>
+      <c r="AL27" s="119"/>
+      <c r="AM27" s="253"/>
+      <c r="AN27" s="254"/>
+      <c r="AO27" s="254"/>
+      <c r="AP27" s="254"/>
+      <c r="AQ27" s="254"/>
+      <c r="AR27" s="254"/>
+      <c r="AS27" s="254"/>
+      <c r="AT27" s="254"/>
+      <c r="AU27" s="254"/>
+      <c r="AV27" s="254"/>
+      <c r="AW27" s="254"/>
+      <c r="AX27" s="254"/>
+      <c r="AY27" s="254"/>
+      <c r="AZ27" s="254"/>
+      <c r="BA27" s="254"/>
+      <c r="BB27" s="254"/>
+      <c r="BC27" s="254"/>
+      <c r="BD27" s="254"/>
+      <c r="BE27" s="254"/>
+      <c r="BF27" s="254"/>
+      <c r="BG27" s="254"/>
+      <c r="BH27" s="254"/>
+      <c r="BI27" s="254"/>
+      <c r="BJ27" s="254"/>
+      <c r="BK27" s="254"/>
+      <c r="BL27" s="254"/>
+      <c r="BM27" s="254"/>
+      <c r="BN27" s="254"/>
+      <c r="BO27" s="254"/>
+      <c r="BP27" s="255"/>
+    </row>
+    <row r="28" spans="1:68" ht="30" customHeight="1">
+      <c r="A28" s="153" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="87"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="85"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="84"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="85"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="85"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="84"/>
+      <c r="AE28" s="85"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="85"/>
+      <c r="AH28" s="85"/>
+      <c r="AI28" s="85"/>
+      <c r="AJ28" s="86"/>
+      <c r="AK28" s="87"/>
+      <c r="AL28" s="88"/>
+      <c r="AM28" s="82"/>
+      <c r="AN28" s="62"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="65"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="67"/>
+      <c r="AT28" s="67"/>
+      <c r="AU28" s="67"/>
+      <c r="AV28" s="67"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="64"/>
+      <c r="AZ28" s="64"/>
+      <c r="BA28" s="65"/>
+      <c r="BB28" s="66"/>
+      <c r="BC28" s="64"/>
+      <c r="BD28" s="67"/>
+      <c r="BE28" s="67"/>
+      <c r="BF28" s="64"/>
+      <c r="BG28" s="65"/>
+      <c r="BH28" s="66"/>
+      <c r="BI28" s="64"/>
+      <c r="BJ28" s="64"/>
+      <c r="BK28" s="65"/>
+      <c r="BL28" s="66"/>
+      <c r="BM28" s="64"/>
+      <c r="BN28" s="65"/>
+      <c r="BO28" s="68"/>
+      <c r="BP28" s="69"/>
+    </row>
+    <row r="29" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="154"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="146"/>
+      <c r="S29" s="146"/>
+      <c r="T29" s="146"/>
+      <c r="U29" s="146"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="146"/>
+      <c r="Y29" s="146"/>
+      <c r="Z29" s="146"/>
+      <c r="AA29" s="146"/>
+      <c r="AB29" s="146"/>
+      <c r="AC29" s="147"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="146"/>
+      <c r="AF29" s="146"/>
+      <c r="AG29" s="146"/>
+      <c r="AH29" s="146"/>
+      <c r="AI29" s="146"/>
+      <c r="AJ29" s="147"/>
+      <c r="AK29" s="149"/>
+      <c r="AL29" s="150"/>
+      <c r="AM29" s="81"/>
+      <c r="AN29" s="74"/>
+      <c r="AO29" s="75"/>
+      <c r="AP29" s="76"/>
+      <c r="AQ29" s="77"/>
+      <c r="AR29" s="78"/>
+      <c r="AS29" s="76"/>
+      <c r="AT29" s="76"/>
+      <c r="AU29" s="76"/>
+      <c r="AV29" s="76"/>
+      <c r="AW29" s="76"/>
+      <c r="AX29" s="76"/>
+      <c r="AY29" s="76"/>
+      <c r="AZ29" s="76"/>
+      <c r="BA29" s="77"/>
+      <c r="BB29" s="78"/>
+      <c r="BC29" s="76"/>
+      <c r="BD29" s="76"/>
+      <c r="BE29" s="76"/>
+      <c r="BF29" s="76"/>
+      <c r="BG29" s="77"/>
+      <c r="BH29" s="78"/>
+      <c r="BI29" s="76"/>
+      <c r="BJ29" s="76"/>
+      <c r="BK29" s="77"/>
+      <c r="BL29" s="78"/>
+      <c r="BM29" s="76"/>
+      <c r="BN29" s="77"/>
+      <c r="BO29" s="79"/>
+      <c r="BP29" s="80"/>
+    </row>
+    <row r="30" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="155"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="110"/>
+      <c r="S30" s="110"/>
+      <c r="T30" s="110"/>
+      <c r="U30" s="110"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="110"/>
+      <c r="Y30" s="110"/>
+      <c r="Z30" s="110"/>
+      <c r="AA30" s="110"/>
+      <c r="AB30" s="110"/>
+      <c r="AC30" s="111"/>
+      <c r="AD30" s="109"/>
+      <c r="AE30" s="110"/>
+      <c r="AF30" s="110"/>
+      <c r="AG30" s="110"/>
+      <c r="AH30" s="110"/>
+      <c r="AI30" s="110"/>
+      <c r="AJ30" s="111"/>
+      <c r="AK30" s="113"/>
+      <c r="AL30" s="114"/>
+      <c r="AM30" s="253"/>
+      <c r="AN30" s="254"/>
+      <c r="AO30" s="254"/>
+      <c r="AP30" s="254"/>
+      <c r="AQ30" s="254"/>
+      <c r="AR30" s="254"/>
+      <c r="AS30" s="254"/>
+      <c r="AT30" s="254"/>
+      <c r="AU30" s="254"/>
+      <c r="AV30" s="254"/>
+      <c r="AW30" s="254"/>
+      <c r="AX30" s="254"/>
+      <c r="AY30" s="254"/>
+      <c r="AZ30" s="254"/>
+      <c r="BA30" s="254"/>
+      <c r="BB30" s="254"/>
+      <c r="BC30" s="254"/>
+      <c r="BD30" s="254"/>
+      <c r="BE30" s="254"/>
+      <c r="BF30" s="254"/>
+      <c r="BG30" s="254"/>
+      <c r="BH30" s="254"/>
+      <c r="BI30" s="254"/>
+      <c r="BJ30" s="254"/>
+      <c r="BK30" s="254"/>
+      <c r="BL30" s="254"/>
+      <c r="BM30" s="254"/>
+      <c r="BN30" s="254"/>
+      <c r="BO30" s="254"/>
+      <c r="BP30" s="255"/>
+    </row>
+    <row r="31" spans="1:68" ht="30" customHeight="1">
+      <c r="A31" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="BF9" s="248"/>
-      <c r="BG9" s="250"/>
-      <c r="BH9" s="234"/>
-      <c r="BI9" s="236"/>
-      <c r="BJ9" s="236"/>
-      <c r="BK9" s="238"/>
-      <c r="BL9" s="222"/>
-      <c r="BM9" s="240"/>
-      <c r="BN9" s="228"/>
-      <c r="BO9" s="230"/>
-      <c r="BP9" s="232"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="90"/>
+      <c r="AJ31" s="91"/>
+      <c r="AK31" s="92"/>
+      <c r="AL31" s="93"/>
+      <c r="AM31" s="82"/>
+      <c r="AN31" s="62"/>
+      <c r="AO31" s="63"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="65"/>
+      <c r="AR31" s="66"/>
+      <c r="AS31" s="67"/>
+      <c r="AT31" s="67"/>
+      <c r="AU31" s="67"/>
+      <c r="AV31" s="67"/>
+      <c r="AW31" s="64"/>
+      <c r="AX31" s="64"/>
+      <c r="AY31" s="64"/>
+      <c r="AZ31" s="64"/>
+      <c r="BA31" s="65"/>
+      <c r="BB31" s="66"/>
+      <c r="BC31" s="64"/>
+      <c r="BD31" s="67"/>
+      <c r="BE31" s="67"/>
+      <c r="BF31" s="64"/>
+      <c r="BG31" s="65"/>
+      <c r="BH31" s="66"/>
+      <c r="BI31" s="64"/>
+      <c r="BJ31" s="64"/>
+      <c r="BK31" s="65"/>
+      <c r="BL31" s="66"/>
+      <c r="BM31" s="64"/>
+      <c r="BN31" s="65"/>
+      <c r="BO31" s="68"/>
+      <c r="BP31" s="69"/>
     </row>
-    <row r="10" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="281" t="s">
+    <row r="32" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="167"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="146"/>
+      <c r="T32" s="146"/>
+      <c r="U32" s="146"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="146"/>
+      <c r="Y32" s="146"/>
+      <c r="Z32" s="146"/>
+      <c r="AA32" s="146"/>
+      <c r="AB32" s="146"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="146"/>
+      <c r="AF32" s="146"/>
+      <c r="AG32" s="146"/>
+      <c r="AH32" s="146"/>
+      <c r="AI32" s="146"/>
+      <c r="AJ32" s="147"/>
+      <c r="AK32" s="149"/>
+      <c r="AL32" s="150"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="74"/>
+      <c r="AO32" s="75"/>
+      <c r="AP32" s="76"/>
+      <c r="AQ32" s="77"/>
+      <c r="AR32" s="78"/>
+      <c r="AS32" s="76"/>
+      <c r="AT32" s="76"/>
+      <c r="AU32" s="76"/>
+      <c r="AV32" s="76"/>
+      <c r="AW32" s="76"/>
+      <c r="AX32" s="76"/>
+      <c r="AY32" s="76"/>
+      <c r="AZ32" s="76"/>
+      <c r="BA32" s="77"/>
+      <c r="BB32" s="78"/>
+      <c r="BC32" s="76"/>
+      <c r="BD32" s="76"/>
+      <c r="BE32" s="76"/>
+      <c r="BF32" s="76"/>
+      <c r="BG32" s="77"/>
+      <c r="BH32" s="78"/>
+      <c r="BI32" s="76"/>
+      <c r="BJ32" s="76"/>
+      <c r="BK32" s="77"/>
+      <c r="BL32" s="78"/>
+      <c r="BM32" s="76"/>
+      <c r="BN32" s="77"/>
+      <c r="BO32" s="79"/>
+      <c r="BP32" s="80"/>
+    </row>
+    <row r="33" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A33" s="168"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="116"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="116"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="115"/>
+      <c r="X33" s="116"/>
+      <c r="Y33" s="116"/>
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="116"/>
+      <c r="AB33" s="116"/>
+      <c r="AC33" s="117"/>
+      <c r="AD33" s="115"/>
+      <c r="AE33" s="116"/>
+      <c r="AF33" s="116"/>
+      <c r="AG33" s="116"/>
+      <c r="AH33" s="116"/>
+      <c r="AI33" s="116"/>
+      <c r="AJ33" s="117"/>
+      <c r="AK33" s="118"/>
+      <c r="AL33" s="119"/>
+      <c r="AM33" s="253"/>
+      <c r="AN33" s="254"/>
+      <c r="AO33" s="254"/>
+      <c r="AP33" s="254"/>
+      <c r="AQ33" s="254"/>
+      <c r="AR33" s="254"/>
+      <c r="AS33" s="254"/>
+      <c r="AT33" s="254"/>
+      <c r="AU33" s="254"/>
+      <c r="AV33" s="254"/>
+      <c r="AW33" s="254"/>
+      <c r="AX33" s="254"/>
+      <c r="AY33" s="254"/>
+      <c r="AZ33" s="254"/>
+      <c r="BA33" s="254"/>
+      <c r="BB33" s="254"/>
+      <c r="BC33" s="254"/>
+      <c r="BD33" s="254"/>
+      <c r="BE33" s="254"/>
+      <c r="BF33" s="254"/>
+      <c r="BG33" s="254"/>
+      <c r="BH33" s="254"/>
+      <c r="BI33" s="254"/>
+      <c r="BJ33" s="254"/>
+      <c r="BK33" s="254"/>
+      <c r="BL33" s="254"/>
+      <c r="BM33" s="254"/>
+      <c r="BN33" s="254"/>
+      <c r="BO33" s="254"/>
+      <c r="BP33" s="255"/>
+    </row>
+    <row r="34" spans="1:68" ht="30" customHeight="1">
+      <c r="A34" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="94"/>
-      <c r="AG10" s="94"/>
-      <c r="AH10" s="94"/>
-      <c r="AI10" s="94"/>
-      <c r="AJ10" s="95"/>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="73"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="73"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="76"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="73"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="75"/>
-      <c r="BI10" s="73"/>
-      <c r="BJ10" s="73"/>
-      <c r="BK10" s="74"/>
-      <c r="BL10" s="75"/>
-      <c r="BM10" s="73"/>
-      <c r="BN10" s="74"/>
-      <c r="BO10" s="77"/>
-      <c r="BP10" s="78"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="86"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="85"/>
+      <c r="Y34" s="85"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="85"/>
+      <c r="AB34" s="85"/>
+      <c r="AC34" s="86"/>
+      <c r="AD34" s="84"/>
+      <c r="AE34" s="85"/>
+      <c r="AF34" s="85"/>
+      <c r="AG34" s="85"/>
+      <c r="AH34" s="85"/>
+      <c r="AI34" s="85"/>
+      <c r="AJ34" s="86"/>
+      <c r="AK34" s="87"/>
+      <c r="AL34" s="88"/>
+      <c r="AM34" s="82"/>
+      <c r="AN34" s="62"/>
+      <c r="AO34" s="63"/>
+      <c r="AP34" s="64"/>
+      <c r="AQ34" s="65"/>
+      <c r="AR34" s="66"/>
+      <c r="AS34" s="67"/>
+      <c r="AT34" s="67"/>
+      <c r="AU34" s="67"/>
+      <c r="AV34" s="67"/>
+      <c r="AW34" s="64"/>
+      <c r="AX34" s="64"/>
+      <c r="AY34" s="64"/>
+      <c r="AZ34" s="64"/>
+      <c r="BA34" s="65"/>
+      <c r="BB34" s="66"/>
+      <c r="BC34" s="64"/>
+      <c r="BD34" s="67"/>
+      <c r="BE34" s="67"/>
+      <c r="BF34" s="64"/>
+      <c r="BG34" s="65"/>
+      <c r="BH34" s="66"/>
+      <c r="BI34" s="64"/>
+      <c r="BJ34" s="64"/>
+      <c r="BK34" s="65"/>
+      <c r="BL34" s="66"/>
+      <c r="BM34" s="64"/>
+      <c r="BN34" s="65"/>
+      <c r="BO34" s="68"/>
+      <c r="BP34" s="69"/>
     </row>
-    <row r="11" spans="1:68" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="281"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="146"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="146"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="146"/>
-      <c r="AK11" s="147"/>
-      <c r="AL11" s="148"/>
-      <c r="AM11" s="150"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="85"/>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="87"/>
-      <c r="AS11" s="85"/>
-      <c r="AT11" s="85"/>
-      <c r="AU11" s="85"/>
-      <c r="AV11" s="85"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="85"/>
-      <c r="AY11" s="85"/>
-      <c r="AZ11" s="85"/>
-      <c r="BA11" s="86"/>
-      <c r="BB11" s="87"/>
-      <c r="BC11" s="85"/>
-      <c r="BD11" s="85"/>
-      <c r="BE11" s="85"/>
-      <c r="BF11" s="85"/>
-      <c r="BG11" s="86"/>
-      <c r="BH11" s="87"/>
-      <c r="BI11" s="85"/>
-      <c r="BJ11" s="85"/>
-      <c r="BK11" s="86"/>
-      <c r="BL11" s="87"/>
-      <c r="BM11" s="85"/>
-      <c r="BN11" s="86"/>
-      <c r="BO11" s="88"/>
-      <c r="BP11" s="89"/>
+    <row r="35" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="167"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="146"/>
+      <c r="O35" s="147"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="146"/>
+      <c r="R35" s="146"/>
+      <c r="S35" s="146"/>
+      <c r="T35" s="146"/>
+      <c r="U35" s="146"/>
+      <c r="V35" s="147"/>
+      <c r="W35" s="145"/>
+      <c r="X35" s="146"/>
+      <c r="Y35" s="146"/>
+      <c r="Z35" s="146"/>
+      <c r="AA35" s="146"/>
+      <c r="AB35" s="146"/>
+      <c r="AC35" s="147"/>
+      <c r="AD35" s="145"/>
+      <c r="AE35" s="146"/>
+      <c r="AF35" s="146"/>
+      <c r="AG35" s="146"/>
+      <c r="AH35" s="146"/>
+      <c r="AI35" s="146"/>
+      <c r="AJ35" s="147"/>
+      <c r="AK35" s="149"/>
+      <c r="AL35" s="150"/>
+      <c r="AM35" s="81"/>
+      <c r="AN35" s="74"/>
+      <c r="AO35" s="75"/>
+      <c r="AP35" s="76"/>
+      <c r="AQ35" s="77"/>
+      <c r="AR35" s="78"/>
+      <c r="AS35" s="76"/>
+      <c r="AT35" s="76"/>
+      <c r="AU35" s="76"/>
+      <c r="AV35" s="76"/>
+      <c r="AW35" s="76"/>
+      <c r="AX35" s="76"/>
+      <c r="AY35" s="76"/>
+      <c r="AZ35" s="76"/>
+      <c r="BA35" s="77"/>
+      <c r="BB35" s="78"/>
+      <c r="BC35" s="76"/>
+      <c r="BD35" s="76"/>
+      <c r="BE35" s="76"/>
+      <c r="BF35" s="76"/>
+      <c r="BG35" s="77"/>
+      <c r="BH35" s="78"/>
+      <c r="BI35" s="76"/>
+      <c r="BJ35" s="76"/>
+      <c r="BK35" s="77"/>
+      <c r="BL35" s="78"/>
+      <c r="BM35" s="76"/>
+      <c r="BN35" s="77"/>
+      <c r="BO35" s="79"/>
+      <c r="BP35" s="80"/>
     </row>
-    <row r="12" spans="1:68" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="283"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="115"/>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="115"/>
-      <c r="Y12" s="115"/>
-      <c r="Z12" s="115"/>
-      <c r="AA12" s="115"/>
-      <c r="AB12" s="115"/>
-      <c r="AC12" s="116"/>
-      <c r="AD12" s="114"/>
-      <c r="AE12" s="115"/>
-      <c r="AF12" s="115"/>
-      <c r="AG12" s="115"/>
-      <c r="AH12" s="115"/>
-      <c r="AI12" s="115"/>
-      <c r="AJ12" s="116"/>
-      <c r="AK12" s="117"/>
-      <c r="AL12" s="118"/>
-      <c r="AM12" s="153"/>
-      <c r="AN12" s="154"/>
-      <c r="AO12" s="154"/>
-      <c r="AP12" s="154"/>
-      <c r="AQ12" s="154"/>
-      <c r="AR12" s="154"/>
-      <c r="AS12" s="154"/>
-      <c r="AT12" s="154"/>
-      <c r="AU12" s="154"/>
-      <c r="AV12" s="154"/>
-      <c r="AW12" s="154"/>
-      <c r="AX12" s="154"/>
-      <c r="AY12" s="154"/>
-      <c r="AZ12" s="154"/>
-      <c r="BA12" s="154"/>
-      <c r="BB12" s="154"/>
-      <c r="BC12" s="154"/>
-      <c r="BD12" s="154"/>
-      <c r="BE12" s="154"/>
-      <c r="BF12" s="154"/>
-      <c r="BG12" s="154"/>
-      <c r="BH12" s="154"/>
-      <c r="BI12" s="154"/>
-      <c r="BJ12" s="154"/>
-      <c r="BK12" s="154"/>
-      <c r="BL12" s="154"/>
-      <c r="BM12" s="154"/>
-      <c r="BN12" s="154"/>
-      <c r="BO12" s="154"/>
-      <c r="BP12" s="155"/>
+    <row r="36" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="168"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
+      <c r="N36" s="110"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="110"/>
+      <c r="R36" s="110"/>
+      <c r="S36" s="110"/>
+      <c r="T36" s="110"/>
+      <c r="U36" s="110"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="110"/>
+      <c r="Y36" s="110"/>
+      <c r="Z36" s="110"/>
+      <c r="AA36" s="110"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="111"/>
+      <c r="AD36" s="109"/>
+      <c r="AE36" s="110"/>
+      <c r="AF36" s="110"/>
+      <c r="AG36" s="110"/>
+      <c r="AH36" s="110"/>
+      <c r="AI36" s="110"/>
+      <c r="AJ36" s="111"/>
+      <c r="AK36" s="113"/>
+      <c r="AL36" s="114"/>
+      <c r="AM36" s="253"/>
+      <c r="AN36" s="254"/>
+      <c r="AO36" s="254"/>
+      <c r="AP36" s="254"/>
+      <c r="AQ36" s="254"/>
+      <c r="AR36" s="254"/>
+      <c r="AS36" s="254"/>
+      <c r="AT36" s="254"/>
+      <c r="AU36" s="254"/>
+      <c r="AV36" s="254"/>
+      <c r="AW36" s="254"/>
+      <c r="AX36" s="254"/>
+      <c r="AY36" s="254"/>
+      <c r="AZ36" s="254"/>
+      <c r="BA36" s="254"/>
+      <c r="BB36" s="254"/>
+      <c r="BC36" s="254"/>
+      <c r="BD36" s="254"/>
+      <c r="BE36" s="254"/>
+      <c r="BF36" s="254"/>
+      <c r="BG36" s="254"/>
+      <c r="BH36" s="254"/>
+      <c r="BI36" s="254"/>
+      <c r="BJ36" s="254"/>
+      <c r="BK36" s="254"/>
+      <c r="BL36" s="254"/>
+      <c r="BM36" s="254"/>
+      <c r="BN36" s="254"/>
+      <c r="BO36" s="254"/>
+      <c r="BP36" s="255"/>
     </row>
-    <row r="13" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="280" t="s">
+    <row r="37" spans="1:68" ht="30" customHeight="1">
+      <c r="A37" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="99"/>
-      <c r="AI13" s="99"/>
-      <c r="AJ13" s="100"/>
-      <c r="AK13" s="101"/>
-      <c r="AL13" s="102"/>
-      <c r="AM13" s="91"/>
-      <c r="AN13" s="71"/>
-      <c r="AO13" s="72"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="74"/>
-      <c r="AR13" s="75"/>
-      <c r="AS13" s="76"/>
-      <c r="AT13" s="76"/>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="76"/>
-      <c r="AW13" s="73"/>
-      <c r="AX13" s="73"/>
-      <c r="AY13" s="73"/>
-      <c r="AZ13" s="73"/>
-      <c r="BA13" s="74"/>
-      <c r="BB13" s="75"/>
-      <c r="BC13" s="73"/>
-      <c r="BD13" s="76"/>
-      <c r="BE13" s="76"/>
-      <c r="BF13" s="73"/>
-      <c r="BG13" s="74"/>
-      <c r="BH13" s="75"/>
-      <c r="BI13" s="73"/>
-      <c r="BJ13" s="73"/>
-      <c r="BK13" s="74"/>
-      <c r="BL13" s="75"/>
-      <c r="BM13" s="73"/>
-      <c r="BN13" s="74"/>
-      <c r="BO13" s="77"/>
-      <c r="BP13" s="78"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="95"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="97"/>
+      <c r="X37" s="95"/>
+      <c r="Y37" s="95"/>
+      <c r="Z37" s="95"/>
+      <c r="AA37" s="95"/>
+      <c r="AB37" s="95"/>
+      <c r="AC37" s="96"/>
+      <c r="AD37" s="97"/>
+      <c r="AE37" s="95"/>
+      <c r="AF37" s="95"/>
+      <c r="AG37" s="95"/>
+      <c r="AH37" s="95"/>
+      <c r="AI37" s="95"/>
+      <c r="AJ37" s="96"/>
+      <c r="AK37" s="94"/>
+      <c r="AL37" s="98"/>
+      <c r="AM37" s="82"/>
+      <c r="AN37" s="62"/>
+      <c r="AO37" s="63"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="65"/>
+      <c r="AR37" s="66"/>
+      <c r="AS37" s="67"/>
+      <c r="AT37" s="67"/>
+      <c r="AU37" s="67"/>
+      <c r="AV37" s="67"/>
+      <c r="AW37" s="64"/>
+      <c r="AX37" s="64"/>
+      <c r="AY37" s="64"/>
+      <c r="AZ37" s="64"/>
+      <c r="BA37" s="65"/>
+      <c r="BB37" s="66"/>
+      <c r="BC37" s="64"/>
+      <c r="BD37" s="67"/>
+      <c r="BE37" s="67"/>
+      <c r="BF37" s="64"/>
+      <c r="BG37" s="65"/>
+      <c r="BH37" s="66"/>
+      <c r="BI37" s="64"/>
+      <c r="BJ37" s="64"/>
+      <c r="BK37" s="65"/>
+      <c r="BL37" s="66"/>
+      <c r="BM37" s="64"/>
+      <c r="BN37" s="65"/>
+      <c r="BO37" s="68"/>
+      <c r="BP37" s="69"/>
     </row>
-    <row r="14" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="281"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="70"/>
-      <c r="AM14" s="144"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="85"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="87"/>
-      <c r="AS14" s="85"/>
-      <c r="AT14" s="85"/>
-      <c r="AU14" s="85"/>
-      <c r="AV14" s="85"/>
-      <c r="AW14" s="85"/>
-      <c r="AX14" s="85"/>
-      <c r="AY14" s="85"/>
-      <c r="AZ14" s="85"/>
-      <c r="BA14" s="86"/>
-      <c r="BB14" s="87"/>
-      <c r="BC14" s="85"/>
-      <c r="BD14" s="85"/>
-      <c r="BE14" s="85"/>
-      <c r="BF14" s="85"/>
-      <c r="BG14" s="86"/>
-      <c r="BH14" s="87"/>
-      <c r="BI14" s="85"/>
-      <c r="BJ14" s="85"/>
-      <c r="BK14" s="86"/>
-      <c r="BL14" s="87"/>
-      <c r="BM14" s="85"/>
-      <c r="BN14" s="86"/>
-      <c r="BO14" s="88"/>
-      <c r="BP14" s="89"/>
+    <row r="38" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A38" s="154"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="146"/>
+      <c r="K38" s="146"/>
+      <c r="L38" s="146"/>
+      <c r="M38" s="146"/>
+      <c r="N38" s="146"/>
+      <c r="O38" s="147"/>
+      <c r="P38" s="145"/>
+      <c r="Q38" s="146"/>
+      <c r="R38" s="146"/>
+      <c r="S38" s="146"/>
+      <c r="T38" s="146"/>
+      <c r="U38" s="146"/>
+      <c r="V38" s="147"/>
+      <c r="W38" s="145"/>
+      <c r="X38" s="146"/>
+      <c r="Y38" s="146"/>
+      <c r="Z38" s="146"/>
+      <c r="AA38" s="146"/>
+      <c r="AB38" s="146"/>
+      <c r="AC38" s="147"/>
+      <c r="AD38" s="145"/>
+      <c r="AE38" s="146"/>
+      <c r="AF38" s="146"/>
+      <c r="AG38" s="146"/>
+      <c r="AH38" s="146"/>
+      <c r="AI38" s="146"/>
+      <c r="AJ38" s="147"/>
+      <c r="AK38" s="149"/>
+      <c r="AL38" s="150"/>
+      <c r="AM38" s="81"/>
+      <c r="AN38" s="74"/>
+      <c r="AO38" s="75"/>
+      <c r="AP38" s="76"/>
+      <c r="AQ38" s="77"/>
+      <c r="AR38" s="78"/>
+      <c r="AS38" s="76"/>
+      <c r="AT38" s="76"/>
+      <c r="AU38" s="76"/>
+      <c r="AV38" s="76"/>
+      <c r="AW38" s="76"/>
+      <c r="AX38" s="76"/>
+      <c r="AY38" s="76"/>
+      <c r="AZ38" s="76"/>
+      <c r="BA38" s="77"/>
+      <c r="BB38" s="78"/>
+      <c r="BC38" s="76"/>
+      <c r="BD38" s="76"/>
+      <c r="BE38" s="76"/>
+      <c r="BF38" s="76"/>
+      <c r="BG38" s="77"/>
+      <c r="BH38" s="78"/>
+      <c r="BI38" s="76"/>
+      <c r="BJ38" s="76"/>
+      <c r="BK38" s="77"/>
+      <c r="BL38" s="78"/>
+      <c r="BM38" s="76"/>
+      <c r="BN38" s="77"/>
+      <c r="BO38" s="79"/>
+      <c r="BP38" s="80"/>
     </row>
-    <row r="15" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="281"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="120"/>
-      <c r="T15" s="120"/>
-      <c r="U15" s="120"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="120"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="120"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="122"/>
-      <c r="AE15" s="120"/>
-      <c r="AF15" s="120"/>
-      <c r="AG15" s="120"/>
-      <c r="AH15" s="120"/>
-      <c r="AI15" s="120"/>
-      <c r="AJ15" s="121"/>
-      <c r="AK15" s="123"/>
-      <c r="AL15" s="124"/>
-      <c r="AM15" s="153"/>
-      <c r="AN15" s="154"/>
-      <c r="AO15" s="154"/>
-      <c r="AP15" s="154"/>
-      <c r="AQ15" s="154"/>
-      <c r="AR15" s="154"/>
-      <c r="AS15" s="154"/>
-      <c r="AT15" s="154"/>
-      <c r="AU15" s="154"/>
-      <c r="AV15" s="154"/>
-      <c r="AW15" s="154"/>
-      <c r="AX15" s="154"/>
-      <c r="AY15" s="154"/>
-      <c r="AZ15" s="154"/>
-      <c r="BA15" s="154"/>
-      <c r="BB15" s="154"/>
-      <c r="BC15" s="154"/>
-      <c r="BD15" s="154"/>
-      <c r="BE15" s="154"/>
-      <c r="BF15" s="154"/>
-      <c r="BG15" s="154"/>
-      <c r="BH15" s="154"/>
-      <c r="BI15" s="154"/>
-      <c r="BJ15" s="154"/>
-      <c r="BK15" s="154"/>
-      <c r="BL15" s="154"/>
-      <c r="BM15" s="154"/>
-      <c r="BN15" s="154"/>
-      <c r="BO15" s="154"/>
-      <c r="BP15" s="155"/>
+    <row r="39" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A39" s="155"/>
+      <c r="B39" s="118"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="116"/>
+      <c r="R39" s="116"/>
+      <c r="S39" s="116"/>
+      <c r="T39" s="116"/>
+      <c r="U39" s="116"/>
+      <c r="V39" s="117"/>
+      <c r="W39" s="115"/>
+      <c r="X39" s="116"/>
+      <c r="Y39" s="116"/>
+      <c r="Z39" s="116"/>
+      <c r="AA39" s="116"/>
+      <c r="AB39" s="116"/>
+      <c r="AC39" s="117"/>
+      <c r="AD39" s="115"/>
+      <c r="AE39" s="116"/>
+      <c r="AF39" s="116"/>
+      <c r="AG39" s="116"/>
+      <c r="AH39" s="116"/>
+      <c r="AI39" s="116"/>
+      <c r="AJ39" s="117"/>
+      <c r="AK39" s="118"/>
+      <c r="AL39" s="119"/>
+      <c r="AM39" s="253"/>
+      <c r="AN39" s="254"/>
+      <c r="AO39" s="254"/>
+      <c r="AP39" s="254"/>
+      <c r="AQ39" s="254"/>
+      <c r="AR39" s="254"/>
+      <c r="AS39" s="254"/>
+      <c r="AT39" s="254"/>
+      <c r="AU39" s="254"/>
+      <c r="AV39" s="254"/>
+      <c r="AW39" s="254"/>
+      <c r="AX39" s="254"/>
+      <c r="AY39" s="254"/>
+      <c r="AZ39" s="254"/>
+      <c r="BA39" s="254"/>
+      <c r="BB39" s="254"/>
+      <c r="BC39" s="254"/>
+      <c r="BD39" s="254"/>
+      <c r="BE39" s="254"/>
+      <c r="BF39" s="254"/>
+      <c r="BG39" s="254"/>
+      <c r="BH39" s="254"/>
+      <c r="BI39" s="254"/>
+      <c r="BJ39" s="254"/>
+      <c r="BK39" s="254"/>
+      <c r="BL39" s="254"/>
+      <c r="BM39" s="254"/>
+      <c r="BN39" s="254"/>
+      <c r="BO39" s="254"/>
+      <c r="BP39" s="255"/>
     </row>
-    <row r="16" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="280" t="s">
+    <row r="40" spans="1:68" ht="30" customHeight="1">
+      <c r="A40" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="99"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="99"/>
-      <c r="AJ16" s="100"/>
-      <c r="AK16" s="101"/>
-      <c r="AL16" s="102"/>
-      <c r="AM16" s="91"/>
-      <c r="AN16" s="71"/>
-      <c r="AO16" s="72"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="74"/>
-      <c r="AR16" s="75"/>
-      <c r="AS16" s="76"/>
-      <c r="AT16" s="76"/>
-      <c r="AU16" s="76"/>
-      <c r="AV16" s="76"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="74"/>
-      <c r="BB16" s="75"/>
-      <c r="BC16" s="73"/>
-      <c r="BD16" s="76"/>
-      <c r="BE16" s="76"/>
-      <c r="BF16" s="73"/>
-      <c r="BG16" s="74"/>
-      <c r="BH16" s="75"/>
-      <c r="BI16" s="73"/>
-      <c r="BJ16" s="73"/>
-      <c r="BK16" s="74"/>
-      <c r="BL16" s="75"/>
-      <c r="BM16" s="73"/>
-      <c r="BN16" s="74"/>
-      <c r="BO16" s="77"/>
-      <c r="BP16" s="78"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="100"/>
+      <c r="U40" s="100"/>
+      <c r="V40" s="101"/>
+      <c r="W40" s="102"/>
+      <c r="X40" s="100"/>
+      <c r="Y40" s="100"/>
+      <c r="Z40" s="100"/>
+      <c r="AA40" s="100"/>
+      <c r="AB40" s="100"/>
+      <c r="AC40" s="101"/>
+      <c r="AD40" s="102"/>
+      <c r="AE40" s="100"/>
+      <c r="AF40" s="100"/>
+      <c r="AG40" s="100"/>
+      <c r="AH40" s="100"/>
+      <c r="AI40" s="100"/>
+      <c r="AJ40" s="101"/>
+      <c r="AK40" s="99"/>
+      <c r="AL40" s="103"/>
+      <c r="AM40" s="82"/>
+      <c r="AN40" s="62"/>
+      <c r="AO40" s="63"/>
+      <c r="AP40" s="64"/>
+      <c r="AQ40" s="65"/>
+      <c r="AR40" s="66"/>
+      <c r="AS40" s="67"/>
+      <c r="AT40" s="67"/>
+      <c r="AU40" s="67"/>
+      <c r="AV40" s="67"/>
+      <c r="AW40" s="64"/>
+      <c r="AX40" s="64"/>
+      <c r="AY40" s="64"/>
+      <c r="AZ40" s="64"/>
+      <c r="BA40" s="65"/>
+      <c r="BB40" s="66"/>
+      <c r="BC40" s="64"/>
+      <c r="BD40" s="67"/>
+      <c r="BE40" s="67"/>
+      <c r="BF40" s="64"/>
+      <c r="BG40" s="65"/>
+      <c r="BH40" s="66"/>
+      <c r="BI40" s="64"/>
+      <c r="BJ40" s="64"/>
+      <c r="BK40" s="65"/>
+      <c r="BL40" s="66"/>
+      <c r="BM40" s="64"/>
+      <c r="BN40" s="65"/>
+      <c r="BO40" s="68"/>
+      <c r="BP40" s="69"/>
     </row>
-    <row r="17" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="281"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="64"/>
-      <c r="AF17" s="64"/>
-      <c r="AG17" s="64"/>
-      <c r="AH17" s="64"/>
-      <c r="AI17" s="64"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="67"/>
-      <c r="AL17" s="70"/>
-      <c r="AM17" s="144"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="84"/>
-      <c r="AP17" s="85"/>
-      <c r="AQ17" s="86"/>
-      <c r="AR17" s="87"/>
-      <c r="AS17" s="85"/>
-      <c r="AT17" s="85"/>
-      <c r="AU17" s="85"/>
-      <c r="AV17" s="85"/>
-      <c r="AW17" s="85"/>
-      <c r="AX17" s="85"/>
-      <c r="AY17" s="85"/>
-      <c r="AZ17" s="85"/>
-      <c r="BA17" s="86"/>
-      <c r="BB17" s="87"/>
-      <c r="BC17" s="85"/>
-      <c r="BD17" s="85"/>
-      <c r="BE17" s="85"/>
-      <c r="BF17" s="85"/>
-      <c r="BG17" s="86"/>
-      <c r="BH17" s="87"/>
-      <c r="BI17" s="85"/>
-      <c r="BJ17" s="85"/>
-      <c r="BK17" s="86"/>
-      <c r="BL17" s="87"/>
-      <c r="BM17" s="85"/>
-      <c r="BN17" s="86"/>
-      <c r="BO17" s="88"/>
-      <c r="BP17" s="89"/>
+    <row r="41" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A41" s="154"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="146"/>
+      <c r="L41" s="146"/>
+      <c r="M41" s="146"/>
+      <c r="N41" s="146"/>
+      <c r="O41" s="147"/>
+      <c r="P41" s="145"/>
+      <c r="Q41" s="146"/>
+      <c r="R41" s="146"/>
+      <c r="S41" s="146"/>
+      <c r="T41" s="146"/>
+      <c r="U41" s="146"/>
+      <c r="V41" s="147"/>
+      <c r="W41" s="145"/>
+      <c r="X41" s="146"/>
+      <c r="Y41" s="146"/>
+      <c r="Z41" s="146"/>
+      <c r="AA41" s="146"/>
+      <c r="AB41" s="146"/>
+      <c r="AC41" s="147"/>
+      <c r="AD41" s="145"/>
+      <c r="AE41" s="146"/>
+      <c r="AF41" s="146"/>
+      <c r="AG41" s="146"/>
+      <c r="AH41" s="146"/>
+      <c r="AI41" s="146"/>
+      <c r="AJ41" s="147"/>
+      <c r="AK41" s="149"/>
+      <c r="AL41" s="150"/>
+      <c r="AM41" s="132"/>
+      <c r="AN41" s="74"/>
+      <c r="AO41" s="75"/>
+      <c r="AP41" s="76"/>
+      <c r="AQ41" s="77"/>
+      <c r="AR41" s="78"/>
+      <c r="AS41" s="76"/>
+      <c r="AT41" s="76"/>
+      <c r="AU41" s="76"/>
+      <c r="AV41" s="76"/>
+      <c r="AW41" s="76"/>
+      <c r="AX41" s="76"/>
+      <c r="AY41" s="76"/>
+      <c r="AZ41" s="76"/>
+      <c r="BA41" s="77"/>
+      <c r="BB41" s="78"/>
+      <c r="BC41" s="76"/>
+      <c r="BD41" s="76"/>
+      <c r="BE41" s="76"/>
+      <c r="BF41" s="76"/>
+      <c r="BG41" s="77"/>
+      <c r="BH41" s="78"/>
+      <c r="BI41" s="76"/>
+      <c r="BJ41" s="76"/>
+      <c r="BK41" s="77"/>
+      <c r="BL41" s="78"/>
+      <c r="BM41" s="76"/>
+      <c r="BN41" s="77"/>
+      <c r="BO41" s="79"/>
+      <c r="BP41" s="80"/>
     </row>
-    <row r="18" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="283"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="126"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126"/>
-      <c r="S18" s="126"/>
-      <c r="T18" s="126"/>
-      <c r="U18" s="126"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="125"/>
-      <c r="X18" s="126"/>
-      <c r="Y18" s="126"/>
-      <c r="Z18" s="126"/>
-      <c r="AA18" s="126"/>
-      <c r="AB18" s="126"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="125"/>
-      <c r="AE18" s="126"/>
-      <c r="AF18" s="126"/>
-      <c r="AG18" s="126"/>
-      <c r="AH18" s="126"/>
-      <c r="AI18" s="126"/>
-      <c r="AJ18" s="127"/>
-      <c r="AK18" s="128"/>
-      <c r="AL18" s="129"/>
-      <c r="AM18" s="153"/>
-      <c r="AN18" s="154"/>
-      <c r="AO18" s="154"/>
-      <c r="AP18" s="154"/>
-      <c r="AQ18" s="154"/>
-      <c r="AR18" s="154"/>
-      <c r="AS18" s="154"/>
-      <c r="AT18" s="154"/>
-      <c r="AU18" s="154"/>
-      <c r="AV18" s="154"/>
-      <c r="AW18" s="154"/>
-      <c r="AX18" s="154"/>
-      <c r="AY18" s="154"/>
-      <c r="AZ18" s="154"/>
-      <c r="BA18" s="154"/>
-      <c r="BB18" s="154"/>
-      <c r="BC18" s="154"/>
-      <c r="BD18" s="154"/>
-      <c r="BE18" s="154"/>
-      <c r="BF18" s="154"/>
-      <c r="BG18" s="154"/>
-      <c r="BH18" s="154"/>
-      <c r="BI18" s="154"/>
-      <c r="BJ18" s="154"/>
-      <c r="BK18" s="154"/>
-      <c r="BL18" s="154"/>
-      <c r="BM18" s="154"/>
-      <c r="BN18" s="154"/>
-      <c r="BO18" s="154"/>
-      <c r="BP18" s="155"/>
+    <row r="42" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A42" s="155"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="110"/>
+      <c r="M42" s="110"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="109"/>
+      <c r="Q42" s="110"/>
+      <c r="R42" s="110"/>
+      <c r="S42" s="110"/>
+      <c r="T42" s="110"/>
+      <c r="U42" s="110"/>
+      <c r="V42" s="111"/>
+      <c r="W42" s="109"/>
+      <c r="X42" s="110"/>
+      <c r="Y42" s="110"/>
+      <c r="Z42" s="110"/>
+      <c r="AA42" s="110"/>
+      <c r="AB42" s="110"/>
+      <c r="AC42" s="111"/>
+      <c r="AD42" s="109"/>
+      <c r="AE42" s="110"/>
+      <c r="AF42" s="110"/>
+      <c r="AG42" s="110"/>
+      <c r="AH42" s="110"/>
+      <c r="AI42" s="110"/>
+      <c r="AJ42" s="111"/>
+      <c r="AK42" s="113"/>
+      <c r="AL42" s="114"/>
+      <c r="AM42" s="253"/>
+      <c r="AN42" s="254"/>
+      <c r="AO42" s="254"/>
+      <c r="AP42" s="254"/>
+      <c r="AQ42" s="254"/>
+      <c r="AR42" s="254"/>
+      <c r="AS42" s="254"/>
+      <c r="AT42" s="254"/>
+      <c r="AU42" s="254"/>
+      <c r="AV42" s="254"/>
+      <c r="AW42" s="254"/>
+      <c r="AX42" s="254"/>
+      <c r="AY42" s="254"/>
+      <c r="AZ42" s="254"/>
+      <c r="BA42" s="254"/>
+      <c r="BB42" s="254"/>
+      <c r="BC42" s="254"/>
+      <c r="BD42" s="254"/>
+      <c r="BE42" s="254"/>
+      <c r="BF42" s="254"/>
+      <c r="BG42" s="254"/>
+      <c r="BH42" s="254"/>
+      <c r="BI42" s="254"/>
+      <c r="BJ42" s="254"/>
+      <c r="BK42" s="254"/>
+      <c r="BL42" s="254"/>
+      <c r="BM42" s="254"/>
+      <c r="BN42" s="254"/>
+      <c r="BO42" s="254"/>
+      <c r="BP42" s="255"/>
     </row>
-    <row r="19" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="281" t="s">
+    <row r="43" spans="1:68" ht="30" customHeight="1">
+      <c r="A43" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="94"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="96"/>
-      <c r="AL19" s="97"/>
-      <c r="AM19" s="91"/>
-      <c r="AN19" s="71"/>
-      <c r="AO19" s="72"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="74"/>
-      <c r="AR19" s="75"/>
-      <c r="AS19" s="76"/>
-      <c r="AT19" s="76"/>
-      <c r="AU19" s="76"/>
-      <c r="AV19" s="76"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="73"/>
-      <c r="AZ19" s="73"/>
-      <c r="BA19" s="74"/>
-      <c r="BB19" s="75"/>
-      <c r="BC19" s="73"/>
-      <c r="BD19" s="76"/>
-      <c r="BE19" s="76"/>
-      <c r="BF19" s="73"/>
-      <c r="BG19" s="74"/>
-      <c r="BH19" s="75"/>
-      <c r="BI19" s="73"/>
-      <c r="BJ19" s="73"/>
-      <c r="BK19" s="74"/>
-      <c r="BL19" s="75"/>
-      <c r="BM19" s="73"/>
-      <c r="BN19" s="74"/>
-      <c r="BO19" s="77"/>
-      <c r="BP19" s="78"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="90"/>
+      <c r="U43" s="90"/>
+      <c r="V43" s="91"/>
+      <c r="W43" s="89"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="90"/>
+      <c r="Z43" s="90"/>
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="91"/>
+      <c r="AD43" s="89"/>
+      <c r="AE43" s="90"/>
+      <c r="AF43" s="90"/>
+      <c r="AG43" s="90"/>
+      <c r="AH43" s="90"/>
+      <c r="AI43" s="90"/>
+      <c r="AJ43" s="91"/>
+      <c r="AK43" s="92"/>
+      <c r="AL43" s="93"/>
+      <c r="AM43" s="82"/>
+      <c r="AN43" s="62"/>
+      <c r="AO43" s="63"/>
+      <c r="AP43" s="64"/>
+      <c r="AQ43" s="65"/>
+      <c r="AR43" s="66"/>
+      <c r="AS43" s="67"/>
+      <c r="AT43" s="67"/>
+      <c r="AU43" s="67"/>
+      <c r="AV43" s="67"/>
+      <c r="AW43" s="64"/>
+      <c r="AX43" s="64"/>
+      <c r="AY43" s="64"/>
+      <c r="AZ43" s="64"/>
+      <c r="BA43" s="65"/>
+      <c r="BB43" s="66"/>
+      <c r="BC43" s="64"/>
+      <c r="BD43" s="67"/>
+      <c r="BE43" s="67"/>
+      <c r="BF43" s="64"/>
+      <c r="BG43" s="65"/>
+      <c r="BH43" s="66"/>
+      <c r="BI43" s="64"/>
+      <c r="BJ43" s="64"/>
+      <c r="BK43" s="65"/>
+      <c r="BL43" s="66"/>
+      <c r="BM43" s="64"/>
+      <c r="BN43" s="65"/>
+      <c r="BO43" s="68"/>
+      <c r="BP43" s="69"/>
     </row>
-    <row r="20" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="281"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="64"/>
-      <c r="AA20" s="64"/>
-      <c r="AB20" s="64"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="64"/>
-      <c r="AF20" s="64"/>
-      <c r="AG20" s="64"/>
-      <c r="AH20" s="64"/>
-      <c r="AI20" s="64"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="67"/>
-      <c r="AL20" s="70"/>
-      <c r="AM20" s="149"/>
-      <c r="AN20" s="79"/>
-      <c r="AO20" s="80"/>
-      <c r="AP20" s="81"/>
-      <c r="AQ20" s="82"/>
-      <c r="AR20" s="87"/>
-      <c r="AS20" s="85"/>
-      <c r="AT20" s="85"/>
-      <c r="AU20" s="85"/>
-      <c r="AV20" s="85"/>
-      <c r="AW20" s="85"/>
-      <c r="AX20" s="85"/>
-      <c r="AY20" s="85"/>
-      <c r="AZ20" s="85"/>
-      <c r="BA20" s="86"/>
-      <c r="BB20" s="87"/>
-      <c r="BC20" s="85"/>
-      <c r="BD20" s="85"/>
-      <c r="BE20" s="85"/>
-      <c r="BF20" s="85"/>
-      <c r="BG20" s="86"/>
-      <c r="BH20" s="87"/>
-      <c r="BI20" s="85"/>
-      <c r="BJ20" s="85"/>
-      <c r="BK20" s="86"/>
-      <c r="BL20" s="87"/>
-      <c r="BM20" s="85"/>
-      <c r="BN20" s="86"/>
-      <c r="BO20" s="88"/>
-      <c r="BP20" s="89"/>
+    <row r="44" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1">
+      <c r="A44" s="154"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="146"/>
+      <c r="N44" s="146"/>
+      <c r="O44" s="147"/>
+      <c r="P44" s="145"/>
+      <c r="Q44" s="146"/>
+      <c r="R44" s="146"/>
+      <c r="S44" s="146"/>
+      <c r="T44" s="146"/>
+      <c r="U44" s="146"/>
+      <c r="V44" s="147"/>
+      <c r="W44" s="145"/>
+      <c r="X44" s="146"/>
+      <c r="Y44" s="146"/>
+      <c r="Z44" s="146"/>
+      <c r="AA44" s="146"/>
+      <c r="AB44" s="146"/>
+      <c r="AC44" s="147"/>
+      <c r="AD44" s="145"/>
+      <c r="AE44" s="146"/>
+      <c r="AF44" s="146"/>
+      <c r="AG44" s="146"/>
+      <c r="AH44" s="146"/>
+      <c r="AI44" s="146"/>
+      <c r="AJ44" s="147"/>
+      <c r="AK44" s="149"/>
+      <c r="AL44" s="150"/>
+      <c r="AM44" s="81"/>
+      <c r="AN44" s="74"/>
+      <c r="AO44" s="75"/>
+      <c r="AP44" s="76"/>
+      <c r="AQ44" s="77"/>
+      <c r="AR44" s="78"/>
+      <c r="AS44" s="76"/>
+      <c r="AT44" s="76"/>
+      <c r="AU44" s="76"/>
+      <c r="AV44" s="76"/>
+      <c r="AW44" s="76"/>
+      <c r="AX44" s="76"/>
+      <c r="AY44" s="76"/>
+      <c r="AZ44" s="76"/>
+      <c r="BA44" s="77"/>
+      <c r="BB44" s="78"/>
+      <c r="BC44" s="76"/>
+      <c r="BD44" s="76"/>
+      <c r="BE44" s="76"/>
+      <c r="BF44" s="76"/>
+      <c r="BG44" s="77"/>
+      <c r="BH44" s="78"/>
+      <c r="BI44" s="76"/>
+      <c r="BJ44" s="76"/>
+      <c r="BK44" s="77"/>
+      <c r="BL44" s="78"/>
+      <c r="BM44" s="76"/>
+      <c r="BN44" s="77"/>
+      <c r="BO44" s="79"/>
+      <c r="BP44" s="80"/>
     </row>
-    <row r="21" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="283"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="120"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="120"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="120"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="120"/>
-      <c r="AC21" s="121"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="120"/>
-      <c r="AF21" s="120"/>
-      <c r="AG21" s="120"/>
-      <c r="AH21" s="120"/>
-      <c r="AI21" s="120"/>
-      <c r="AJ21" s="121"/>
-      <c r="AK21" s="123"/>
-      <c r="AL21" s="124"/>
-      <c r="AM21" s="153"/>
-      <c r="AN21" s="154"/>
-      <c r="AO21" s="154"/>
-      <c r="AP21" s="154"/>
-      <c r="AQ21" s="154"/>
-      <c r="AR21" s="154"/>
-      <c r="AS21" s="154"/>
-      <c r="AT21" s="154"/>
-      <c r="AU21" s="154"/>
-      <c r="AV21" s="154"/>
-      <c r="AW21" s="154"/>
-      <c r="AX21" s="154"/>
-      <c r="AY21" s="154"/>
-      <c r="AZ21" s="154"/>
-      <c r="BA21" s="154"/>
-      <c r="BB21" s="154"/>
-      <c r="BC21" s="154"/>
-      <c r="BD21" s="154"/>
-      <c r="BE21" s="154"/>
-      <c r="BF21" s="154"/>
-      <c r="BG21" s="154"/>
-      <c r="BH21" s="154"/>
-      <c r="BI21" s="154"/>
-      <c r="BJ21" s="154"/>
-      <c r="BK21" s="154"/>
-      <c r="BL21" s="154"/>
-      <c r="BM21" s="154"/>
-      <c r="BN21" s="154"/>
-      <c r="BO21" s="154"/>
-      <c r="BP21" s="155"/>
+    <row r="45" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A45" s="165"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="128"/>
+      <c r="L45" s="128"/>
+      <c r="M45" s="128"/>
+      <c r="N45" s="128"/>
+      <c r="O45" s="129"/>
+      <c r="P45" s="127"/>
+      <c r="Q45" s="128"/>
+      <c r="R45" s="128"/>
+      <c r="S45" s="128"/>
+      <c r="T45" s="128"/>
+      <c r="U45" s="128"/>
+      <c r="V45" s="129"/>
+      <c r="W45" s="127"/>
+      <c r="X45" s="128"/>
+      <c r="Y45" s="128"/>
+      <c r="Z45" s="128"/>
+      <c r="AA45" s="128"/>
+      <c r="AB45" s="128"/>
+      <c r="AC45" s="129"/>
+      <c r="AD45" s="127"/>
+      <c r="AE45" s="128"/>
+      <c r="AF45" s="128"/>
+      <c r="AG45" s="128"/>
+      <c r="AH45" s="128"/>
+      <c r="AI45" s="128"/>
+      <c r="AJ45" s="130"/>
+      <c r="AK45" s="127"/>
+      <c r="AL45" s="131"/>
+      <c r="AM45" s="253"/>
+      <c r="AN45" s="254"/>
+      <c r="AO45" s="254"/>
+      <c r="AP45" s="254"/>
+      <c r="AQ45" s="254"/>
+      <c r="AR45" s="254"/>
+      <c r="AS45" s="254"/>
+      <c r="AT45" s="254"/>
+      <c r="AU45" s="254"/>
+      <c r="AV45" s="254"/>
+      <c r="AW45" s="254"/>
+      <c r="AX45" s="254"/>
+      <c r="AY45" s="254"/>
+      <c r="AZ45" s="254"/>
+      <c r="BA45" s="254"/>
+      <c r="BB45" s="254"/>
+      <c r="BC45" s="254"/>
+      <c r="BD45" s="254"/>
+      <c r="BE45" s="254"/>
+      <c r="BF45" s="254"/>
+      <c r="BG45" s="254"/>
+      <c r="BH45" s="254"/>
+      <c r="BI45" s="254"/>
+      <c r="BJ45" s="254"/>
+      <c r="BK45" s="254"/>
+      <c r="BL45" s="254"/>
+      <c r="BM45" s="254"/>
+      <c r="BN45" s="254"/>
+      <c r="BO45" s="254"/>
+      <c r="BP45" s="255"/>
     </row>
-    <row r="22" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="280" t="s">
+    <row r="46" spans="1:68" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A46" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="100"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="99"/>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="99"/>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="100"/>
-      <c r="AK22" s="101"/>
-      <c r="AL22" s="102"/>
-      <c r="AM22" s="91"/>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="72"/>
-      <c r="AP22" s="73"/>
-      <c r="AQ22" s="74"/>
-      <c r="AR22" s="75"/>
-      <c r="AS22" s="76"/>
-      <c r="AT22" s="76"/>
-      <c r="AU22" s="76"/>
-      <c r="AV22" s="76"/>
-      <c r="AW22" s="73"/>
-      <c r="AX22" s="73"/>
-      <c r="AY22" s="73"/>
-      <c r="AZ22" s="73"/>
-      <c r="BA22" s="74"/>
-      <c r="BB22" s="75"/>
-      <c r="BC22" s="73"/>
-      <c r="BD22" s="76"/>
-      <c r="BE22" s="76"/>
-      <c r="BF22" s="73"/>
-      <c r="BG22" s="74"/>
-      <c r="BH22" s="75"/>
-      <c r="BI22" s="73"/>
-      <c r="BJ22" s="73"/>
-      <c r="BK22" s="74"/>
-      <c r="BL22" s="75"/>
-      <c r="BM22" s="73"/>
-      <c r="BN22" s="74"/>
-      <c r="BO22" s="77"/>
-      <c r="BP22" s="78"/>
-    </row>
-    <row r="23" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="281"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="64"/>
-      <c r="AF23" s="64"/>
-      <c r="AG23" s="64"/>
-      <c r="AH23" s="64"/>
-      <c r="AI23" s="64"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="67"/>
-      <c r="AL23" s="70"/>
-      <c r="AM23" s="90"/>
-      <c r="AN23" s="83"/>
-      <c r="AO23" s="84"/>
-      <c r="AP23" s="85"/>
-      <c r="AQ23" s="86"/>
-      <c r="AR23" s="87"/>
-      <c r="AS23" s="85"/>
-      <c r="AT23" s="85"/>
-      <c r="AU23" s="85"/>
-      <c r="AV23" s="85"/>
-      <c r="AW23" s="85"/>
-      <c r="AX23" s="85"/>
-      <c r="AY23" s="85"/>
-      <c r="AZ23" s="85"/>
-      <c r="BA23" s="86"/>
-      <c r="BB23" s="87"/>
-      <c r="BC23" s="85"/>
-      <c r="BD23" s="85"/>
-      <c r="BE23" s="85"/>
-      <c r="BF23" s="85"/>
-      <c r="BG23" s="86"/>
-      <c r="BH23" s="87"/>
-      <c r="BI23" s="85"/>
-      <c r="BJ23" s="85"/>
-      <c r="BK23" s="86"/>
-      <c r="BL23" s="87"/>
-      <c r="BM23" s="85"/>
-      <c r="BN23" s="86"/>
-      <c r="BO23" s="88"/>
-      <c r="BP23" s="89"/>
-    </row>
-    <row r="24" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="283"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="119"/>
-      <c r="X24" s="120"/>
-      <c r="Y24" s="120"/>
-      <c r="Z24" s="120"/>
-      <c r="AA24" s="120"/>
-      <c r="AB24" s="120"/>
-      <c r="AC24" s="121"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="120"/>
-      <c r="AF24" s="120"/>
-      <c r="AG24" s="120"/>
-      <c r="AH24" s="120"/>
-      <c r="AI24" s="120"/>
-      <c r="AJ24" s="121"/>
-      <c r="AK24" s="123"/>
-      <c r="AL24" s="124"/>
-      <c r="AM24" s="153"/>
-      <c r="AN24" s="154"/>
-      <c r="AO24" s="154"/>
-      <c r="AP24" s="154"/>
-      <c r="AQ24" s="154"/>
-      <c r="AR24" s="154"/>
-      <c r="AS24" s="154"/>
-      <c r="AT24" s="154"/>
-      <c r="AU24" s="154"/>
-      <c r="AV24" s="154"/>
-      <c r="AW24" s="154"/>
-      <c r="AX24" s="154"/>
-      <c r="AY24" s="154"/>
-      <c r="AZ24" s="154"/>
-      <c r="BA24" s="154"/>
-      <c r="BB24" s="154"/>
-      <c r="BC24" s="154"/>
-      <c r="BD24" s="154"/>
-      <c r="BE24" s="154"/>
-      <c r="BF24" s="154"/>
-      <c r="BG24" s="154"/>
-      <c r="BH24" s="154"/>
-      <c r="BI24" s="154"/>
-      <c r="BJ24" s="154"/>
-      <c r="BK24" s="154"/>
-      <c r="BL24" s="154"/>
-      <c r="BM24" s="154"/>
-      <c r="BN24" s="154"/>
-      <c r="BO24" s="154"/>
-      <c r="BP24" s="155"/>
-    </row>
-    <row r="25" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="280" t="s">
+      <c r="B46" s="194"/>
+      <c r="C46" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="99"/>
-      <c r="U25" s="99"/>
-      <c r="V25" s="100"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="100"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="99"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="99"/>
-      <c r="AI25" s="99"/>
-      <c r="AJ25" s="100"/>
-      <c r="AK25" s="101"/>
-      <c r="AL25" s="102"/>
-      <c r="AM25" s="91"/>
-      <c r="AN25" s="71"/>
-      <c r="AO25" s="72"/>
-      <c r="AP25" s="73"/>
-      <c r="AQ25" s="74"/>
-      <c r="AR25" s="75"/>
-      <c r="AS25" s="76"/>
-      <c r="AT25" s="76"/>
-      <c r="AU25" s="76"/>
-      <c r="AV25" s="76"/>
-      <c r="AW25" s="73"/>
-      <c r="AX25" s="73"/>
-      <c r="AY25" s="73"/>
-      <c r="AZ25" s="73"/>
-      <c r="BA25" s="74"/>
-      <c r="BB25" s="75"/>
-      <c r="BC25" s="73"/>
-      <c r="BD25" s="76"/>
-      <c r="BE25" s="76"/>
-      <c r="BF25" s="73"/>
-      <c r="BG25" s="74"/>
-      <c r="BH25" s="75"/>
-      <c r="BI25" s="73"/>
-      <c r="BJ25" s="73"/>
-      <c r="BK25" s="74"/>
-      <c r="BL25" s="75"/>
-      <c r="BM25" s="73"/>
-      <c r="BN25" s="74"/>
-      <c r="BO25" s="77"/>
-      <c r="BP25" s="78"/>
-    </row>
-    <row r="26" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="281"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="64"/>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="64"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="70"/>
-      <c r="AM26" s="90"/>
-      <c r="AN26" s="83"/>
-      <c r="AO26" s="84"/>
-      <c r="AP26" s="85"/>
-      <c r="AQ26" s="86"/>
-      <c r="AR26" s="87"/>
-      <c r="AS26" s="85"/>
-      <c r="AT26" s="85"/>
-      <c r="AU26" s="85"/>
-      <c r="AV26" s="85"/>
-      <c r="AW26" s="85"/>
-      <c r="AX26" s="85"/>
-      <c r="AY26" s="85"/>
-      <c r="AZ26" s="85"/>
-      <c r="BA26" s="86"/>
-      <c r="BB26" s="87"/>
-      <c r="BC26" s="85"/>
-      <c r="BD26" s="85"/>
-      <c r="BE26" s="85"/>
-      <c r="BF26" s="85"/>
-      <c r="BG26" s="86"/>
-      <c r="BH26" s="87"/>
-      <c r="BI26" s="85"/>
-      <c r="BJ26" s="85"/>
-      <c r="BK26" s="86"/>
-      <c r="BL26" s="87"/>
-      <c r="BM26" s="85"/>
-      <c r="BN26" s="86"/>
-      <c r="BO26" s="88"/>
-      <c r="BP26" s="89"/>
-    </row>
-    <row r="27" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="283"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="125"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="126"/>
-      <c r="Z27" s="126"/>
-      <c r="AA27" s="126"/>
-      <c r="AB27" s="126"/>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="125"/>
-      <c r="AE27" s="126"/>
-      <c r="AF27" s="126"/>
-      <c r="AG27" s="126"/>
-      <c r="AH27" s="126"/>
-      <c r="AI27" s="126"/>
-      <c r="AJ27" s="127"/>
-      <c r="AK27" s="128"/>
-      <c r="AL27" s="129"/>
-      <c r="AM27" s="153"/>
-      <c r="AN27" s="154"/>
-      <c r="AO27" s="154"/>
-      <c r="AP27" s="154"/>
-      <c r="AQ27" s="154"/>
-      <c r="AR27" s="154"/>
-      <c r="AS27" s="154"/>
-      <c r="AT27" s="154"/>
-      <c r="AU27" s="154"/>
-      <c r="AV27" s="154"/>
-      <c r="AW27" s="154"/>
-      <c r="AX27" s="154"/>
-      <c r="AY27" s="154"/>
-      <c r="AZ27" s="154"/>
-      <c r="BA27" s="154"/>
-      <c r="BB27" s="154"/>
-      <c r="BC27" s="154"/>
-      <c r="BD27" s="154"/>
-      <c r="BE27" s="154"/>
-      <c r="BF27" s="154"/>
-      <c r="BG27" s="154"/>
-      <c r="BH27" s="154"/>
-      <c r="BI27" s="154"/>
-      <c r="BJ27" s="154"/>
-      <c r="BK27" s="154"/>
-      <c r="BL27" s="154"/>
-      <c r="BM27" s="154"/>
-      <c r="BN27" s="154"/>
-      <c r="BO27" s="154"/>
-      <c r="BP27" s="155"/>
-    </row>
-    <row r="28" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="280" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="93"/>
-      <c r="AE28" s="94"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="94"/>
-      <c r="AH28" s="94"/>
-      <c r="AI28" s="94"/>
-      <c r="AJ28" s="95"/>
-      <c r="AK28" s="96"/>
-      <c r="AL28" s="97"/>
-      <c r="AM28" s="91"/>
-      <c r="AN28" s="71"/>
-      <c r="AO28" s="72"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="74"/>
-      <c r="AR28" s="75"/>
-      <c r="AS28" s="76"/>
-      <c r="AT28" s="76"/>
-      <c r="AU28" s="76"/>
-      <c r="AV28" s="76"/>
-      <c r="AW28" s="73"/>
-      <c r="AX28" s="73"/>
-      <c r="AY28" s="73"/>
-      <c r="AZ28" s="73"/>
-      <c r="BA28" s="74"/>
-      <c r="BB28" s="75"/>
-      <c r="BC28" s="73"/>
-      <c r="BD28" s="76"/>
-      <c r="BE28" s="76"/>
-      <c r="BF28" s="73"/>
-      <c r="BG28" s="74"/>
-      <c r="BH28" s="75"/>
-      <c r="BI28" s="73"/>
-      <c r="BJ28" s="73"/>
-      <c r="BK28" s="74"/>
-      <c r="BL28" s="75"/>
-      <c r="BM28" s="73"/>
-      <c r="BN28" s="74"/>
-      <c r="BO28" s="77"/>
-      <c r="BP28" s="78"/>
-    </row>
-    <row r="29" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="281"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="67"/>
-      <c r="AL29" s="70"/>
-      <c r="AM29" s="90"/>
-      <c r="AN29" s="83"/>
-      <c r="AO29" s="84"/>
-      <c r="AP29" s="85"/>
-      <c r="AQ29" s="86"/>
-      <c r="AR29" s="87"/>
-      <c r="AS29" s="85"/>
-      <c r="AT29" s="85"/>
-      <c r="AU29" s="85"/>
-      <c r="AV29" s="85"/>
-      <c r="AW29" s="85"/>
-      <c r="AX29" s="85"/>
-      <c r="AY29" s="85"/>
-      <c r="AZ29" s="85"/>
-      <c r="BA29" s="86"/>
-      <c r="BB29" s="87"/>
-      <c r="BC29" s="85"/>
-      <c r="BD29" s="85"/>
-      <c r="BE29" s="85"/>
-      <c r="BF29" s="85"/>
-      <c r="BG29" s="86"/>
-      <c r="BH29" s="87"/>
-      <c r="BI29" s="85"/>
-      <c r="BJ29" s="85"/>
-      <c r="BK29" s="86"/>
-      <c r="BL29" s="87"/>
-      <c r="BM29" s="85"/>
-      <c r="BN29" s="86"/>
-      <c r="BO29" s="88"/>
-      <c r="BP29" s="89"/>
-    </row>
-    <row r="30" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="283"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="119"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="120"/>
-      <c r="AC30" s="121"/>
-      <c r="AD30" s="119"/>
-      <c r="AE30" s="120"/>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="120"/>
-      <c r="AH30" s="120"/>
-      <c r="AI30" s="120"/>
-      <c r="AJ30" s="121"/>
-      <c r="AK30" s="123"/>
-      <c r="AL30" s="124"/>
-      <c r="AM30" s="153"/>
-      <c r="AN30" s="154"/>
-      <c r="AO30" s="154"/>
-      <c r="AP30" s="154"/>
-      <c r="AQ30" s="154"/>
-      <c r="AR30" s="154"/>
-      <c r="AS30" s="154"/>
-      <c r="AT30" s="154"/>
-      <c r="AU30" s="154"/>
-      <c r="AV30" s="154"/>
-      <c r="AW30" s="154"/>
-      <c r="AX30" s="154"/>
-      <c r="AY30" s="154"/>
-      <c r="AZ30" s="154"/>
-      <c r="BA30" s="154"/>
-      <c r="BB30" s="154"/>
-      <c r="BC30" s="154"/>
-      <c r="BD30" s="154"/>
-      <c r="BE30" s="154"/>
-      <c r="BF30" s="154"/>
-      <c r="BG30" s="154"/>
-      <c r="BH30" s="154"/>
-      <c r="BI30" s="154"/>
-      <c r="BJ30" s="154"/>
-      <c r="BK30" s="154"/>
-      <c r="BL30" s="154"/>
-      <c r="BM30" s="154"/>
-      <c r="BN30" s="154"/>
-      <c r="BO30" s="154"/>
-      <c r="BP30" s="155"/>
-    </row>
-    <row r="31" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="284" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="99"/>
-      <c r="U31" s="99"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="99"/>
-      <c r="Y31" s="99"/>
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="99"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="98"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="99"/>
-      <c r="AG31" s="99"/>
-      <c r="AH31" s="99"/>
-      <c r="AI31" s="99"/>
-      <c r="AJ31" s="100"/>
-      <c r="AK31" s="101"/>
-      <c r="AL31" s="102"/>
-      <c r="AM31" s="91"/>
-      <c r="AN31" s="71"/>
-      <c r="AO31" s="72"/>
-      <c r="AP31" s="73"/>
-      <c r="AQ31" s="74"/>
-      <c r="AR31" s="75"/>
-      <c r="AS31" s="76"/>
-      <c r="AT31" s="76"/>
-      <c r="AU31" s="76"/>
-      <c r="AV31" s="76"/>
-      <c r="AW31" s="73"/>
-      <c r="AX31" s="73"/>
-      <c r="AY31" s="73"/>
-      <c r="AZ31" s="73"/>
-      <c r="BA31" s="74"/>
-      <c r="BB31" s="75"/>
-      <c r="BC31" s="73"/>
-      <c r="BD31" s="76"/>
-      <c r="BE31" s="76"/>
-      <c r="BF31" s="73"/>
-      <c r="BG31" s="74"/>
-      <c r="BH31" s="75"/>
-      <c r="BI31" s="73"/>
-      <c r="BJ31" s="73"/>
-      <c r="BK31" s="74"/>
-      <c r="BL31" s="75"/>
-      <c r="BM31" s="73"/>
-      <c r="BN31" s="74"/>
-      <c r="BO31" s="77"/>
-      <c r="BP31" s="78"/>
-    </row>
-    <row r="32" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="285"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="65"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="70"/>
-      <c r="AM32" s="90"/>
-      <c r="AN32" s="83"/>
-      <c r="AO32" s="84"/>
-      <c r="AP32" s="85"/>
-      <c r="AQ32" s="86"/>
-      <c r="AR32" s="87"/>
-      <c r="AS32" s="85"/>
-      <c r="AT32" s="85"/>
-      <c r="AU32" s="85"/>
-      <c r="AV32" s="85"/>
-      <c r="AW32" s="85"/>
-      <c r="AX32" s="85"/>
-      <c r="AY32" s="85"/>
-      <c r="AZ32" s="85"/>
-      <c r="BA32" s="86"/>
-      <c r="BB32" s="87"/>
-      <c r="BC32" s="85"/>
-      <c r="BD32" s="85"/>
-      <c r="BE32" s="85"/>
-      <c r="BF32" s="85"/>
-      <c r="BG32" s="86"/>
-      <c r="BH32" s="87"/>
-      <c r="BI32" s="85"/>
-      <c r="BJ32" s="85"/>
-      <c r="BK32" s="86"/>
-      <c r="BL32" s="87"/>
-      <c r="BM32" s="85"/>
-      <c r="BN32" s="86"/>
-      <c r="BO32" s="88"/>
-      <c r="BP32" s="89"/>
-    </row>
-    <row r="33" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="286"/>
-      <c r="B33" s="125"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="125"/>
-      <c r="Q33" s="126"/>
-      <c r="R33" s="126"/>
-      <c r="S33" s="126"/>
-      <c r="T33" s="126"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="125"/>
-      <c r="X33" s="126"/>
-      <c r="Y33" s="126"/>
-      <c r="Z33" s="126"/>
-      <c r="AA33" s="126"/>
-      <c r="AB33" s="126"/>
-      <c r="AC33" s="127"/>
-      <c r="AD33" s="125"/>
-      <c r="AE33" s="126"/>
-      <c r="AF33" s="126"/>
-      <c r="AG33" s="126"/>
-      <c r="AH33" s="126"/>
-      <c r="AI33" s="126"/>
-      <c r="AJ33" s="127"/>
-      <c r="AK33" s="128"/>
-      <c r="AL33" s="129"/>
-      <c r="AM33" s="153"/>
-      <c r="AN33" s="154"/>
-      <c r="AO33" s="154"/>
-      <c r="AP33" s="154"/>
-      <c r="AQ33" s="154"/>
-      <c r="AR33" s="154"/>
-      <c r="AS33" s="154"/>
-      <c r="AT33" s="154"/>
-      <c r="AU33" s="154"/>
-      <c r="AV33" s="154"/>
-      <c r="AW33" s="154"/>
-      <c r="AX33" s="154"/>
-      <c r="AY33" s="154"/>
-      <c r="AZ33" s="154"/>
-      <c r="BA33" s="154"/>
-      <c r="BB33" s="154"/>
-      <c r="BC33" s="154"/>
-      <c r="BD33" s="154"/>
-      <c r="BE33" s="154"/>
-      <c r="BF33" s="154"/>
-      <c r="BG33" s="154"/>
-      <c r="BH33" s="154"/>
-      <c r="BI33" s="154"/>
-      <c r="BJ33" s="154"/>
-      <c r="BK33" s="154"/>
-      <c r="BL33" s="154"/>
-      <c r="BM33" s="154"/>
-      <c r="BN33" s="154"/>
-      <c r="BO33" s="154"/>
-      <c r="BP33" s="155"/>
-    </row>
-    <row r="34" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="284" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="96"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="94"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="93"/>
-      <c r="AE34" s="94"/>
-      <c r="AF34" s="94"/>
-      <c r="AG34" s="94"/>
-      <c r="AH34" s="94"/>
-      <c r="AI34" s="94"/>
-      <c r="AJ34" s="95"/>
-      <c r="AK34" s="96"/>
-      <c r="AL34" s="97"/>
-      <c r="AM34" s="91"/>
-      <c r="AN34" s="71"/>
-      <c r="AO34" s="72"/>
-      <c r="AP34" s="73"/>
-      <c r="AQ34" s="74"/>
-      <c r="AR34" s="75"/>
-      <c r="AS34" s="76"/>
-      <c r="AT34" s="76"/>
-      <c r="AU34" s="76"/>
-      <c r="AV34" s="76"/>
-      <c r="AW34" s="73"/>
-      <c r="AX34" s="73"/>
-      <c r="AY34" s="73"/>
-      <c r="AZ34" s="73"/>
-      <c r="BA34" s="74"/>
-      <c r="BB34" s="75"/>
-      <c r="BC34" s="73"/>
-      <c r="BD34" s="76"/>
-      <c r="BE34" s="76"/>
-      <c r="BF34" s="73"/>
-      <c r="BG34" s="74"/>
-      <c r="BH34" s="75"/>
-      <c r="BI34" s="73"/>
-      <c r="BJ34" s="73"/>
-      <c r="BK34" s="74"/>
-      <c r="BL34" s="75"/>
-      <c r="BM34" s="73"/>
-      <c r="BN34" s="74"/>
-      <c r="BO34" s="77"/>
-      <c r="BP34" s="78"/>
-    </row>
-    <row r="35" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="285"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="64"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="65"/>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="64"/>
-      <c r="AH35" s="64"/>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="67"/>
-      <c r="AL35" s="70"/>
-      <c r="AM35" s="90"/>
-      <c r="AN35" s="83"/>
-      <c r="AO35" s="84"/>
-      <c r="AP35" s="85"/>
-      <c r="AQ35" s="86"/>
-      <c r="AR35" s="87"/>
-      <c r="AS35" s="85"/>
-      <c r="AT35" s="85"/>
-      <c r="AU35" s="85"/>
-      <c r="AV35" s="85"/>
-      <c r="AW35" s="85"/>
-      <c r="AX35" s="85"/>
-      <c r="AY35" s="85"/>
-      <c r="AZ35" s="85"/>
-      <c r="BA35" s="86"/>
-      <c r="BB35" s="87"/>
-      <c r="BC35" s="85"/>
-      <c r="BD35" s="85"/>
-      <c r="BE35" s="85"/>
-      <c r="BF35" s="85"/>
-      <c r="BG35" s="86"/>
-      <c r="BH35" s="87"/>
-      <c r="BI35" s="85"/>
-      <c r="BJ35" s="85"/>
-      <c r="BK35" s="86"/>
-      <c r="BL35" s="87"/>
-      <c r="BM35" s="85"/>
-      <c r="BN35" s="86"/>
-      <c r="BO35" s="88"/>
-      <c r="BP35" s="89"/>
-    </row>
-    <row r="36" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="286"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="121"/>
-      <c r="P36" s="119"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="120"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="120"/>
-      <c r="V36" s="121"/>
-      <c r="W36" s="119"/>
-      <c r="X36" s="120"/>
-      <c r="Y36" s="120"/>
-      <c r="Z36" s="120"/>
-      <c r="AA36" s="120"/>
-      <c r="AB36" s="120"/>
-      <c r="AC36" s="121"/>
-      <c r="AD36" s="119"/>
-      <c r="AE36" s="120"/>
-      <c r="AF36" s="120"/>
-      <c r="AG36" s="120"/>
-      <c r="AH36" s="120"/>
-      <c r="AI36" s="120"/>
-      <c r="AJ36" s="121"/>
-      <c r="AK36" s="123"/>
-      <c r="AL36" s="124"/>
-      <c r="AM36" s="153"/>
-      <c r="AN36" s="154"/>
-      <c r="AO36" s="154"/>
-      <c r="AP36" s="154"/>
-      <c r="AQ36" s="154"/>
-      <c r="AR36" s="154"/>
-      <c r="AS36" s="154"/>
-      <c r="AT36" s="154"/>
-      <c r="AU36" s="154"/>
-      <c r="AV36" s="154"/>
-      <c r="AW36" s="154"/>
-      <c r="AX36" s="154"/>
-      <c r="AY36" s="154"/>
-      <c r="AZ36" s="154"/>
-      <c r="BA36" s="154"/>
-      <c r="BB36" s="154"/>
-      <c r="BC36" s="154"/>
-      <c r="BD36" s="154"/>
-      <c r="BE36" s="154"/>
-      <c r="BF36" s="154"/>
-      <c r="BG36" s="154"/>
-      <c r="BH36" s="154"/>
-      <c r="BI36" s="154"/>
-      <c r="BJ36" s="154"/>
-      <c r="BK36" s="154"/>
-      <c r="BL36" s="154"/>
-      <c r="BM36" s="154"/>
-      <c r="BN36" s="154"/>
-      <c r="BO36" s="154"/>
-      <c r="BP36" s="155"/>
-    </row>
-    <row r="37" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="280" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="104"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="106"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="105"/>
-      <c r="T37" s="105"/>
-      <c r="U37" s="105"/>
-      <c r="V37" s="106"/>
-      <c r="W37" s="107"/>
-      <c r="X37" s="105"/>
-      <c r="Y37" s="105"/>
-      <c r="Z37" s="105"/>
-      <c r="AA37" s="105"/>
-      <c r="AB37" s="105"/>
-      <c r="AC37" s="106"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="105"/>
-      <c r="AF37" s="105"/>
-      <c r="AG37" s="105"/>
-      <c r="AH37" s="105"/>
-      <c r="AI37" s="105"/>
-      <c r="AJ37" s="106"/>
-      <c r="AK37" s="104"/>
-      <c r="AL37" s="108"/>
-      <c r="AM37" s="91"/>
-      <c r="AN37" s="71"/>
-      <c r="AO37" s="72"/>
-      <c r="AP37" s="73"/>
-      <c r="AQ37" s="74"/>
-      <c r="AR37" s="75"/>
-      <c r="AS37" s="76"/>
-      <c r="AT37" s="76"/>
-      <c r="AU37" s="76"/>
-      <c r="AV37" s="76"/>
-      <c r="AW37" s="73"/>
-      <c r="AX37" s="73"/>
-      <c r="AY37" s="73"/>
-      <c r="AZ37" s="73"/>
-      <c r="BA37" s="74"/>
-      <c r="BB37" s="75"/>
-      <c r="BC37" s="73"/>
-      <c r="BD37" s="76"/>
-      <c r="BE37" s="76"/>
-      <c r="BF37" s="73"/>
-      <c r="BG37" s="74"/>
-      <c r="BH37" s="75"/>
-      <c r="BI37" s="73"/>
-      <c r="BJ37" s="73"/>
-      <c r="BK37" s="74"/>
-      <c r="BL37" s="75"/>
-      <c r="BM37" s="73"/>
-      <c r="BN37" s="74"/>
-      <c r="BO37" s="77"/>
-      <c r="BP37" s="78"/>
-    </row>
-    <row r="38" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="281"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="64"/>
-      <c r="Z38" s="64"/>
-      <c r="AA38" s="64"/>
-      <c r="AB38" s="64"/>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="65"/>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="64"/>
-      <c r="AH38" s="64"/>
-      <c r="AI38" s="64"/>
-      <c r="AJ38" s="66"/>
-      <c r="AK38" s="67"/>
-      <c r="AL38" s="70"/>
-      <c r="AM38" s="90"/>
-      <c r="AN38" s="83"/>
-      <c r="AO38" s="84"/>
-      <c r="AP38" s="85"/>
-      <c r="AQ38" s="86"/>
-      <c r="AR38" s="87"/>
-      <c r="AS38" s="85"/>
-      <c r="AT38" s="85"/>
-      <c r="AU38" s="85"/>
-      <c r="AV38" s="85"/>
-      <c r="AW38" s="85"/>
-      <c r="AX38" s="85"/>
-      <c r="AY38" s="85"/>
-      <c r="AZ38" s="85"/>
-      <c r="BA38" s="86"/>
-      <c r="BB38" s="87"/>
-      <c r="BC38" s="85"/>
-      <c r="BD38" s="85"/>
-      <c r="BE38" s="85"/>
-      <c r="BF38" s="85"/>
-      <c r="BG38" s="86"/>
-      <c r="BH38" s="87"/>
-      <c r="BI38" s="85"/>
-      <c r="BJ38" s="85"/>
-      <c r="BK38" s="86"/>
-      <c r="BL38" s="87"/>
-      <c r="BM38" s="85"/>
-      <c r="BN38" s="86"/>
-      <c r="BO38" s="88"/>
-      <c r="BP38" s="89"/>
-    </row>
-    <row r="39" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="283"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="126"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="126"/>
-      <c r="N39" s="126"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="125"/>
-      <c r="Q39" s="126"/>
-      <c r="R39" s="126"/>
-      <c r="S39" s="126"/>
-      <c r="T39" s="126"/>
-      <c r="U39" s="126"/>
-      <c r="V39" s="127"/>
-      <c r="W39" s="125"/>
-      <c r="X39" s="126"/>
-      <c r="Y39" s="126"/>
-      <c r="Z39" s="126"/>
-      <c r="AA39" s="126"/>
-      <c r="AB39" s="126"/>
-      <c r="AC39" s="127"/>
-      <c r="AD39" s="125"/>
-      <c r="AE39" s="126"/>
-      <c r="AF39" s="126"/>
-      <c r="AG39" s="126"/>
-      <c r="AH39" s="126"/>
-      <c r="AI39" s="126"/>
-      <c r="AJ39" s="127"/>
-      <c r="AK39" s="128"/>
-      <c r="AL39" s="129"/>
-      <c r="AM39" s="153"/>
-      <c r="AN39" s="154"/>
-      <c r="AO39" s="154"/>
-      <c r="AP39" s="154"/>
-      <c r="AQ39" s="154"/>
-      <c r="AR39" s="154"/>
-      <c r="AS39" s="154"/>
-      <c r="AT39" s="154"/>
-      <c r="AU39" s="154"/>
-      <c r="AV39" s="154"/>
-      <c r="AW39" s="154"/>
-      <c r="AX39" s="154"/>
-      <c r="AY39" s="154"/>
-      <c r="AZ39" s="154"/>
-      <c r="BA39" s="154"/>
-      <c r="BB39" s="154"/>
-      <c r="BC39" s="154"/>
-      <c r="BD39" s="154"/>
-      <c r="BE39" s="154"/>
-      <c r="BF39" s="154"/>
-      <c r="BG39" s="154"/>
-      <c r="BH39" s="154"/>
-      <c r="BI39" s="154"/>
-      <c r="BJ39" s="154"/>
-      <c r="BK39" s="154"/>
-      <c r="BL39" s="154"/>
-      <c r="BM39" s="154"/>
-      <c r="BN39" s="154"/>
-      <c r="BO39" s="154"/>
-      <c r="BP39" s="155"/>
-    </row>
-    <row r="40" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="280" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="109"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="111"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
-      <c r="S40" s="110"/>
-      <c r="T40" s="110"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="112"/>
-      <c r="X40" s="110"/>
-      <c r="Y40" s="110"/>
-      <c r="Z40" s="110"/>
-      <c r="AA40" s="110"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="111"/>
-      <c r="AD40" s="112"/>
-      <c r="AE40" s="110"/>
-      <c r="AF40" s="110"/>
-      <c r="AG40" s="110"/>
-      <c r="AH40" s="110"/>
-      <c r="AI40" s="110"/>
-      <c r="AJ40" s="111"/>
-      <c r="AK40" s="109"/>
-      <c r="AL40" s="113"/>
-      <c r="AM40" s="91"/>
-      <c r="AN40" s="71"/>
-      <c r="AO40" s="72"/>
-      <c r="AP40" s="73"/>
-      <c r="AQ40" s="74"/>
-      <c r="AR40" s="75"/>
-      <c r="AS40" s="76"/>
-      <c r="AT40" s="76"/>
-      <c r="AU40" s="76"/>
-      <c r="AV40" s="76"/>
-      <c r="AW40" s="73"/>
-      <c r="AX40" s="73"/>
-      <c r="AY40" s="73"/>
-      <c r="AZ40" s="73"/>
-      <c r="BA40" s="74"/>
-      <c r="BB40" s="75"/>
-      <c r="BC40" s="73"/>
-      <c r="BD40" s="76"/>
-      <c r="BE40" s="76"/>
-      <c r="BF40" s="73"/>
-      <c r="BG40" s="74"/>
-      <c r="BH40" s="75"/>
-      <c r="BI40" s="73"/>
-      <c r="BJ40" s="73"/>
-      <c r="BK40" s="74"/>
-      <c r="BL40" s="75"/>
-      <c r="BM40" s="73"/>
-      <c r="BN40" s="74"/>
-      <c r="BO40" s="77"/>
-      <c r="BP40" s="78"/>
-    </row>
-    <row r="41" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="281"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="64"/>
-      <c r="U41" s="64"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="65"/>
-      <c r="X41" s="64"/>
-      <c r="Y41" s="64"/>
-      <c r="Z41" s="64"/>
-      <c r="AA41" s="64"/>
-      <c r="AB41" s="64"/>
-      <c r="AC41" s="66"/>
-      <c r="AD41" s="65"/>
-      <c r="AE41" s="64"/>
-      <c r="AF41" s="64"/>
-      <c r="AG41" s="64"/>
-      <c r="AH41" s="64"/>
-      <c r="AI41" s="64"/>
-      <c r="AJ41" s="66"/>
-      <c r="AK41" s="67"/>
-      <c r="AL41" s="70"/>
-      <c r="AM41" s="144"/>
-      <c r="AN41" s="83"/>
-      <c r="AO41" s="84"/>
-      <c r="AP41" s="85"/>
-      <c r="AQ41" s="86"/>
-      <c r="AR41" s="87"/>
-      <c r="AS41" s="85"/>
-      <c r="AT41" s="85"/>
-      <c r="AU41" s="85"/>
-      <c r="AV41" s="85"/>
-      <c r="AW41" s="85"/>
-      <c r="AX41" s="85"/>
-      <c r="AY41" s="85"/>
-      <c r="AZ41" s="85"/>
-      <c r="BA41" s="86"/>
-      <c r="BB41" s="87"/>
-      <c r="BC41" s="85"/>
-      <c r="BD41" s="85"/>
-      <c r="BE41" s="85"/>
-      <c r="BF41" s="85"/>
-      <c r="BG41" s="86"/>
-      <c r="BH41" s="87"/>
-      <c r="BI41" s="85"/>
-      <c r="BJ41" s="85"/>
-      <c r="BK41" s="86"/>
-      <c r="BL41" s="87"/>
-      <c r="BM41" s="85"/>
-      <c r="BN41" s="86"/>
-      <c r="BO41" s="88"/>
-      <c r="BP41" s="89"/>
-    </row>
-    <row r="42" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="283"/>
-      <c r="B42" s="123"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="121"/>
-      <c r="P42" s="119"/>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="120"/>
-      <c r="S42" s="120"/>
-      <c r="T42" s="120"/>
-      <c r="U42" s="120"/>
-      <c r="V42" s="121"/>
-      <c r="W42" s="119"/>
-      <c r="X42" s="120"/>
-      <c r="Y42" s="120"/>
-      <c r="Z42" s="120"/>
-      <c r="AA42" s="120"/>
-      <c r="AB42" s="120"/>
-      <c r="AC42" s="121"/>
-      <c r="AD42" s="119"/>
-      <c r="AE42" s="120"/>
-      <c r="AF42" s="120"/>
-      <c r="AG42" s="120"/>
-      <c r="AH42" s="120"/>
-      <c r="AI42" s="120"/>
-      <c r="AJ42" s="121"/>
-      <c r="AK42" s="123"/>
-      <c r="AL42" s="124"/>
-      <c r="AM42" s="153"/>
-      <c r="AN42" s="154"/>
-      <c r="AO42" s="154"/>
-      <c r="AP42" s="154"/>
-      <c r="AQ42" s="154"/>
-      <c r="AR42" s="154"/>
-      <c r="AS42" s="154"/>
-      <c r="AT42" s="154"/>
-      <c r="AU42" s="154"/>
-      <c r="AV42" s="154"/>
-      <c r="AW42" s="154"/>
-      <c r="AX42" s="154"/>
-      <c r="AY42" s="154"/>
-      <c r="AZ42" s="154"/>
-      <c r="BA42" s="154"/>
-      <c r="BB42" s="154"/>
-      <c r="BC42" s="154"/>
-      <c r="BD42" s="154"/>
-      <c r="BE42" s="154"/>
-      <c r="BF42" s="154"/>
-      <c r="BG42" s="154"/>
-      <c r="BH42" s="154"/>
-      <c r="BI42" s="154"/>
-      <c r="BJ42" s="154"/>
-      <c r="BK42" s="154"/>
-      <c r="BL42" s="154"/>
-      <c r="BM42" s="154"/>
-      <c r="BN42" s="154"/>
-      <c r="BO42" s="154"/>
-      <c r="BP42" s="155"/>
-    </row>
-    <row r="43" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="280" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="100"/>
-      <c r="P43" s="98"/>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="99"/>
-      <c r="T43" s="99"/>
-      <c r="U43" s="99"/>
-      <c r="V43" s="100"/>
-      <c r="W43" s="98"/>
-      <c r="X43" s="99"/>
-      <c r="Y43" s="99"/>
-      <c r="Z43" s="99"/>
-      <c r="AA43" s="99"/>
-      <c r="AB43" s="99"/>
-      <c r="AC43" s="100"/>
-      <c r="AD43" s="98"/>
-      <c r="AE43" s="99"/>
-      <c r="AF43" s="99"/>
-      <c r="AG43" s="99"/>
-      <c r="AH43" s="99"/>
-      <c r="AI43" s="99"/>
-      <c r="AJ43" s="100"/>
-      <c r="AK43" s="101"/>
-      <c r="AL43" s="102"/>
-      <c r="AM43" s="91"/>
-      <c r="AN43" s="71"/>
-      <c r="AO43" s="72"/>
-      <c r="AP43" s="73"/>
-      <c r="AQ43" s="74"/>
-      <c r="AR43" s="75"/>
-      <c r="AS43" s="76"/>
-      <c r="AT43" s="76"/>
-      <c r="AU43" s="76"/>
-      <c r="AV43" s="76"/>
-      <c r="AW43" s="73"/>
-      <c r="AX43" s="73"/>
-      <c r="AY43" s="73"/>
-      <c r="AZ43" s="73"/>
-      <c r="BA43" s="74"/>
-      <c r="BB43" s="75"/>
-      <c r="BC43" s="73"/>
-      <c r="BD43" s="76"/>
-      <c r="BE43" s="76"/>
-      <c r="BF43" s="73"/>
-      <c r="BG43" s="74"/>
-      <c r="BH43" s="75"/>
-      <c r="BI43" s="73"/>
-      <c r="BJ43" s="73"/>
-      <c r="BK43" s="74"/>
-      <c r="BL43" s="75"/>
-      <c r="BM43" s="73"/>
-      <c r="BN43" s="74"/>
-      <c r="BO43" s="77"/>
-      <c r="BP43" s="78"/>
-    </row>
-    <row r="44" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="281"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="64"/>
-      <c r="U44" s="64"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="65"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="64"/>
-      <c r="AA44" s="64"/>
-      <c r="AB44" s="64"/>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="65"/>
-      <c r="AE44" s="64"/>
-      <c r="AF44" s="64"/>
-      <c r="AG44" s="64"/>
-      <c r="AH44" s="64"/>
-      <c r="AI44" s="64"/>
-      <c r="AJ44" s="66"/>
-      <c r="AK44" s="67"/>
-      <c r="AL44" s="70"/>
-      <c r="AM44" s="90"/>
-      <c r="AN44" s="83"/>
-      <c r="AO44" s="84"/>
-      <c r="AP44" s="85"/>
-      <c r="AQ44" s="86"/>
-      <c r="AR44" s="87"/>
-      <c r="AS44" s="85"/>
-      <c r="AT44" s="85"/>
-      <c r="AU44" s="85"/>
-      <c r="AV44" s="85"/>
-      <c r="AW44" s="85"/>
-      <c r="AX44" s="85"/>
-      <c r="AY44" s="85"/>
-      <c r="AZ44" s="85"/>
-      <c r="BA44" s="86"/>
-      <c r="BB44" s="87"/>
-      <c r="BC44" s="85"/>
-      <c r="BD44" s="85"/>
-      <c r="BE44" s="85"/>
-      <c r="BF44" s="85"/>
-      <c r="BG44" s="86"/>
-      <c r="BH44" s="87"/>
-      <c r="BI44" s="85"/>
-      <c r="BJ44" s="85"/>
-      <c r="BK44" s="86"/>
-      <c r="BL44" s="87"/>
-      <c r="BM44" s="85"/>
-      <c r="BN44" s="86"/>
-      <c r="BO44" s="88"/>
-      <c r="BP44" s="89"/>
-    </row>
-    <row r="45" spans="1:68" s="26" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="282"/>
-      <c r="B45" s="139"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="140"/>
-      <c r="K45" s="140"/>
-      <c r="L45" s="140"/>
-      <c r="M45" s="140"/>
-      <c r="N45" s="140"/>
-      <c r="O45" s="141"/>
-      <c r="P45" s="139"/>
-      <c r="Q45" s="140"/>
-      <c r="R45" s="140"/>
-      <c r="S45" s="140"/>
-      <c r="T45" s="140"/>
-      <c r="U45" s="140"/>
-      <c r="V45" s="141"/>
-      <c r="W45" s="139"/>
-      <c r="X45" s="140"/>
-      <c r="Y45" s="140"/>
-      <c r="Z45" s="140"/>
-      <c r="AA45" s="140"/>
-      <c r="AB45" s="140"/>
-      <c r="AC45" s="141"/>
-      <c r="AD45" s="139"/>
-      <c r="AE45" s="140"/>
-      <c r="AF45" s="140"/>
-      <c r="AG45" s="140"/>
-      <c r="AH45" s="140"/>
-      <c r="AI45" s="140"/>
-      <c r="AJ45" s="142"/>
-      <c r="AK45" s="139"/>
-      <c r="AL45" s="143"/>
-      <c r="AM45" s="153"/>
-      <c r="AN45" s="154"/>
-      <c r="AO45" s="154"/>
-      <c r="AP45" s="154"/>
-      <c r="AQ45" s="154"/>
-      <c r="AR45" s="154"/>
-      <c r="AS45" s="154"/>
-      <c r="AT45" s="154"/>
-      <c r="AU45" s="154"/>
-      <c r="AV45" s="154"/>
-      <c r="AW45" s="154"/>
-      <c r="AX45" s="154"/>
-      <c r="AY45" s="154"/>
-      <c r="AZ45" s="154"/>
-      <c r="BA45" s="154"/>
-      <c r="BB45" s="154"/>
-      <c r="BC45" s="154"/>
-      <c r="BD45" s="154"/>
-      <c r="BE45" s="154"/>
-      <c r="BF45" s="154"/>
-      <c r="BG45" s="154"/>
-      <c r="BH45" s="154"/>
-      <c r="BI45" s="154"/>
-      <c r="BJ45" s="154"/>
-      <c r="BK45" s="154"/>
-      <c r="BL45" s="154"/>
-      <c r="BM45" s="154"/>
-      <c r="BN45" s="154"/>
-      <c r="BO45" s="154"/>
-      <c r="BP45" s="155"/>
-    </row>
-    <row r="46" spans="1:68" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="258" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="259"/>
-      <c r="C46" s="28" t="s">
-        <v>85</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
@@ -9216,12 +9130,12 @@
       <c r="AF46" s="28"/>
       <c r="AG46" s="28"/>
       <c r="AH46" s="28"/>
-      <c r="AI46" s="134"/>
-      <c r="AJ46" s="260" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK46" s="261"/>
-      <c r="AL46" s="262"/>
+      <c r="AI46" s="124"/>
+      <c r="AJ46" s="195" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK46" s="196"/>
+      <c r="AL46" s="197"/>
       <c r="AM46" s="53"/>
       <c r="AN46" s="54"/>
       <c r="AO46" s="55"/>
@@ -9253,7 +9167,7 @@
       <c r="BO46" s="59"/>
       <c r="BP46" s="60"/>
     </row>
-    <row r="47" spans="1:68" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:68" ht="24.75" customHeight="1">
       <c r="A47" s="27"/>
       <c r="B47" s="6"/>
       <c r="C47" s="28"/>
@@ -9323,7 +9237,7 @@
       <c r="BO47" s="31"/>
       <c r="BP47" s="32"/>
     </row>
-    <row r="48" spans="1:68" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:68" ht="24.75" customHeight="1">
       <c r="A48" s="33"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -9341,425 +9255,425 @@
       <c r="O48" s="4"/>
       <c r="V48" s="28"/>
       <c r="W48" s="28"/>
-      <c r="BP48" s="151"/>
+      <c r="BP48" s="136"/>
     </row>
-    <row r="49" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="263" t="s">
+    <row r="49" spans="1:68" ht="27.75" customHeight="1">
+      <c r="A49" s="189" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="189"/>
+      <c r="C49" s="189"/>
+      <c r="D49" s="181" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="182"/>
+      <c r="F49" s="182"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="181" t="s">
+        <v>81</v>
+      </c>
+      <c r="I49" s="182"/>
+      <c r="J49" s="182"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="181" t="s">
+        <v>82</v>
+      </c>
+      <c r="M49" s="182"/>
+      <c r="N49" s="182"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q49" s="182"/>
+      <c r="R49" s="182"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="181" t="s">
+        <v>84</v>
+      </c>
+      <c r="U49" s="182"/>
+      <c r="V49" s="182"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="181" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y49" s="182"/>
+      <c r="Z49" s="182"/>
+      <c r="AA49" s="34"/>
+      <c r="AM49" s="187" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN49" s="187"/>
+      <c r="AO49" s="187"/>
+      <c r="AP49" s="190"/>
+      <c r="AQ49" s="191"/>
+      <c r="AR49" s="191"/>
+      <c r="AS49" s="191"/>
+      <c r="AT49" s="191"/>
+      <c r="AU49" s="191"/>
+      <c r="AV49" s="191"/>
+      <c r="AW49" s="192"/>
+      <c r="AX49" s="29"/>
+      <c r="AZ49" s="174" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="263"/>
-      <c r="C49" s="263"/>
-      <c r="D49" s="264" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="265"/>
-      <c r="F49" s="265"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="264" t="s">
-        <v>89</v>
-      </c>
-      <c r="I49" s="265"/>
-      <c r="J49" s="265"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="264" t="s">
-        <v>90</v>
-      </c>
-      <c r="M49" s="265"/>
-      <c r="N49" s="265"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="264" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q49" s="265"/>
-      <c r="R49" s="265"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="264" t="s">
-        <v>92</v>
-      </c>
-      <c r="U49" s="265"/>
-      <c r="V49" s="265"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="264" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y49" s="265"/>
-      <c r="Z49" s="265"/>
-      <c r="AA49" s="34"/>
-      <c r="AM49" s="266" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN49" s="266"/>
-      <c r="AO49" s="266"/>
-      <c r="AP49" s="251"/>
-      <c r="AQ49" s="252"/>
-      <c r="AR49" s="252"/>
-      <c r="AS49" s="252"/>
-      <c r="AT49" s="252"/>
-      <c r="AU49" s="252"/>
-      <c r="AV49" s="252"/>
-      <c r="AW49" s="253"/>
-      <c r="AX49" s="29"/>
-      <c r="AZ49" s="254" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA49" s="254"/>
-      <c r="BB49" s="254"/>
-      <c r="BC49" s="254"/>
-      <c r="BD49" s="254"/>
-      <c r="BE49" s="254"/>
-      <c r="BF49" s="254"/>
-      <c r="BG49" s="255">
+      <c r="BA49" s="174"/>
+      <c r="BB49" s="174"/>
+      <c r="BC49" s="174"/>
+      <c r="BD49" s="174"/>
+      <c r="BE49" s="174"/>
+      <c r="BF49" s="174"/>
+      <c r="BG49" s="175">
         <f>BP46</f>
         <v>0</v>
       </c>
-      <c r="BH49" s="256"/>
-      <c r="BI49" s="256"/>
-      <c r="BJ49" s="256"/>
-      <c r="BK49" s="256"/>
-      <c r="BL49" s="256"/>
-      <c r="BM49" s="256"/>
-      <c r="BN49" s="256"/>
-      <c r="BO49" s="256"/>
-      <c r="BP49" s="257"/>
+      <c r="BH49" s="176"/>
+      <c r="BI49" s="176"/>
+      <c r="BJ49" s="176"/>
+      <c r="BK49" s="176"/>
+      <c r="BL49" s="176"/>
+      <c r="BM49" s="176"/>
+      <c r="BN49" s="176"/>
+      <c r="BO49" s="176"/>
+      <c r="BP49" s="177"/>
     </row>
-    <row r="50" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="263" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="263"/>
-      <c r="C50" s="263"/>
-      <c r="D50" s="264" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="265"/>
-      <c r="F50" s="265"/>
+    <row r="50" spans="1:68" ht="27.75" customHeight="1">
+      <c r="A50" s="189" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="189"/>
+      <c r="C50" s="189"/>
+      <c r="D50" s="181" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="182"/>
+      <c r="F50" s="182"/>
       <c r="G50" s="34"/>
-      <c r="H50" s="264" t="s">
-        <v>98</v>
-      </c>
-      <c r="I50" s="265"/>
-      <c r="J50" s="265"/>
+      <c r="H50" s="181" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="182"/>
+      <c r="J50" s="182"/>
       <c r="K50" s="34"/>
-      <c r="L50" s="264" t="s">
-        <v>99</v>
-      </c>
-      <c r="M50" s="265"/>
-      <c r="N50" s="265"/>
+      <c r="L50" s="181" t="s">
+        <v>91</v>
+      </c>
+      <c r="M50" s="182"/>
+      <c r="N50" s="182"/>
       <c r="O50" s="34"/>
-      <c r="P50" s="264"/>
-      <c r="Q50" s="265"/>
-      <c r="R50" s="265"/>
+      <c r="P50" s="181"/>
+      <c r="Q50" s="182"/>
+      <c r="R50" s="182"/>
       <c r="S50" s="34"/>
-      <c r="T50" s="264"/>
-      <c r="U50" s="265"/>
-      <c r="V50" s="265"/>
+      <c r="T50" s="181"/>
+      <c r="U50" s="182"/>
+      <c r="V50" s="182"/>
       <c r="W50" s="34"/>
-      <c r="X50" s="264"/>
-      <c r="Y50" s="265"/>
-      <c r="Z50" s="265"/>
+      <c r="X50" s="181"/>
+      <c r="Y50" s="182"/>
+      <c r="Z50" s="182"/>
       <c r="AA50" s="34"/>
       <c r="AB50" s="1"/>
-      <c r="AM50" s="266" t="s">
+      <c r="AM50" s="187" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN50" s="187"/>
+      <c r="AO50" s="187"/>
+      <c r="AP50" s="188"/>
+      <c r="AQ50" s="188"/>
+      <c r="AR50" s="188"/>
+      <c r="AS50" s="188"/>
+      <c r="AT50" s="188"/>
+      <c r="AU50" s="188"/>
+      <c r="AV50" s="188"/>
+      <c r="AW50" s="188"/>
+      <c r="AX50" s="29"/>
+      <c r="AZ50" s="174" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA50" s="174"/>
+      <c r="BB50" s="174"/>
+      <c r="BC50" s="174"/>
+      <c r="BD50" s="174"/>
+      <c r="BE50" s="174"/>
+      <c r="BF50" s="174"/>
+      <c r="BG50" s="175"/>
+      <c r="BH50" s="176"/>
+      <c r="BI50" s="176"/>
+      <c r="BJ50" s="176"/>
+      <c r="BK50" s="176"/>
+      <c r="BL50" s="176"/>
+      <c r="BM50" s="176"/>
+      <c r="BN50" s="176"/>
+      <c r="BO50" s="176"/>
+      <c r="BP50" s="177"/>
+    </row>
+    <row r="51" spans="1:68" ht="27.75" customHeight="1">
+      <c r="A51" s="189" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="189"/>
+      <c r="C51" s="189"/>
+      <c r="D51" s="181" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="182"/>
+      <c r="F51" s="182"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="181" t="s">
+        <v>96</v>
+      </c>
+      <c r="I51" s="182"/>
+      <c r="J51" s="182"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="181" t="s">
+        <v>97</v>
+      </c>
+      <c r="M51" s="182"/>
+      <c r="N51" s="182"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="181" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q51" s="182"/>
+      <c r="R51" s="182"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="U51" s="182"/>
+      <c r="V51" s="182"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="AN50" s="266"/>
-      <c r="AO50" s="266"/>
-      <c r="AP50" s="267"/>
-      <c r="AQ50" s="267"/>
-      <c r="AR50" s="267"/>
-      <c r="AS50" s="267"/>
-      <c r="AT50" s="267"/>
-      <c r="AU50" s="267"/>
-      <c r="AV50" s="267"/>
-      <c r="AW50" s="267"/>
-      <c r="AX50" s="29"/>
-      <c r="AZ50" s="254" t="s">
-        <v>101</v>
-      </c>
-      <c r="BA50" s="254"/>
-      <c r="BB50" s="254"/>
-      <c r="BC50" s="254"/>
-      <c r="BD50" s="254"/>
-      <c r="BE50" s="254"/>
-      <c r="BF50" s="254"/>
-      <c r="BG50" s="255"/>
-      <c r="BH50" s="256"/>
-      <c r="BI50" s="256"/>
-      <c r="BJ50" s="256"/>
-      <c r="BK50" s="256"/>
-      <c r="BL50" s="256"/>
-      <c r="BM50" s="256"/>
-      <c r="BN50" s="256"/>
-      <c r="BO50" s="256"/>
-      <c r="BP50" s="257"/>
-    </row>
-    <row r="51" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="263" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" s="263"/>
-      <c r="C51" s="263"/>
-      <c r="D51" s="264" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="265"/>
-      <c r="F51" s="265"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="264" t="s">
-        <v>104</v>
-      </c>
-      <c r="I51" s="265"/>
-      <c r="J51" s="265"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="264" t="s">
-        <v>105</v>
-      </c>
-      <c r="M51" s="265"/>
-      <c r="N51" s="265"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="264" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q51" s="265"/>
-      <c r="R51" s="265"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="264" t="s">
-        <v>107</v>
-      </c>
-      <c r="U51" s="265"/>
-      <c r="V51" s="265"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="264" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y51" s="265"/>
-      <c r="Z51" s="265"/>
+      <c r="Y51" s="182"/>
+      <c r="Z51" s="182"/>
       <c r="AA51" s="34"/>
       <c r="AJ51" s="7"/>
-      <c r="AM51" s="266" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN51" s="266"/>
-      <c r="AO51" s="266"/>
-      <c r="AP51" s="267"/>
-      <c r="AQ51" s="267"/>
-      <c r="AR51" s="267"/>
-      <c r="AS51" s="267"/>
-      <c r="AT51" s="267"/>
-      <c r="AU51" s="267"/>
-      <c r="AV51" s="267"/>
-      <c r="AW51" s="267"/>
+      <c r="AM51" s="187" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN51" s="187"/>
+      <c r="AO51" s="187"/>
+      <c r="AP51" s="188"/>
+      <c r="AQ51" s="188"/>
+      <c r="AR51" s="188"/>
+      <c r="AS51" s="188"/>
+      <c r="AT51" s="188"/>
+      <c r="AU51" s="188"/>
+      <c r="AV51" s="188"/>
+      <c r="AW51" s="188"/>
       <c r="AX51" s="29"/>
-      <c r="AZ51" s="254" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA51" s="254"/>
-      <c r="BB51" s="254"/>
-      <c r="BC51" s="254"/>
-      <c r="BD51" s="254"/>
-      <c r="BE51" s="254"/>
-      <c r="BF51" s="254"/>
-      <c r="BG51" s="255"/>
-      <c r="BH51" s="256"/>
-      <c r="BI51" s="256"/>
-      <c r="BJ51" s="256"/>
-      <c r="BK51" s="256"/>
-      <c r="BL51" s="256"/>
-      <c r="BM51" s="256"/>
-      <c r="BN51" s="256"/>
-      <c r="BO51" s="256"/>
-      <c r="BP51" s="257"/>
+      <c r="AZ51" s="174" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA51" s="174"/>
+      <c r="BB51" s="174"/>
+      <c r="BC51" s="174"/>
+      <c r="BD51" s="174"/>
+      <c r="BE51" s="174"/>
+      <c r="BF51" s="174"/>
+      <c r="BG51" s="175"/>
+      <c r="BH51" s="176"/>
+      <c r="BI51" s="176"/>
+      <c r="BJ51" s="176"/>
+      <c r="BK51" s="176"/>
+      <c r="BL51" s="176"/>
+      <c r="BM51" s="176"/>
+      <c r="BN51" s="176"/>
+      <c r="BO51" s="176"/>
+      <c r="BP51" s="177"/>
     </row>
-    <row r="52" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="263"/>
-      <c r="B52" s="263"/>
-      <c r="C52" s="263"/>
-      <c r="D52" s="264" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="265"/>
-      <c r="F52" s="265"/>
+    <row r="52" spans="1:68" ht="27.75" customHeight="1">
+      <c r="A52" s="189"/>
+      <c r="B52" s="189"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="181" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="182"/>
+      <c r="F52" s="182"/>
       <c r="G52" s="34"/>
-      <c r="H52" s="264" t="s">
-        <v>112</v>
-      </c>
-      <c r="I52" s="265"/>
-      <c r="J52" s="265"/>
+      <c r="H52" s="181" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52" s="182"/>
+      <c r="J52" s="182"/>
       <c r="K52" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="L52" s="264" t="s">
-        <v>114</v>
-      </c>
-      <c r="M52" s="265"/>
-      <c r="N52" s="265"/>
+        <v>105</v>
+      </c>
+      <c r="L52" s="181" t="s">
+        <v>106</v>
+      </c>
+      <c r="M52" s="182"/>
+      <c r="N52" s="182"/>
       <c r="O52" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="P52" s="264"/>
-      <c r="Q52" s="265"/>
-      <c r="R52" s="265"/>
+        <v>107</v>
+      </c>
+      <c r="P52" s="181"/>
+      <c r="Q52" s="182"/>
+      <c r="R52" s="182"/>
       <c r="S52" s="34"/>
-      <c r="T52" s="264"/>
-      <c r="U52" s="265"/>
-      <c r="V52" s="265"/>
+      <c r="T52" s="181"/>
+      <c r="U52" s="182"/>
+      <c r="V52" s="182"/>
       <c r="W52" s="34"/>
-      <c r="X52" s="264"/>
-      <c r="Y52" s="265"/>
-      <c r="Z52" s="265"/>
+      <c r="X52" s="181"/>
+      <c r="Y52" s="182"/>
+      <c r="Z52" s="182"/>
       <c r="AA52" s="34"/>
       <c r="AB52" s="1"/>
-      <c r="AM52" s="266" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN52" s="266"/>
-      <c r="AO52" s="266"/>
-      <c r="AP52" s="267"/>
-      <c r="AQ52" s="267"/>
-      <c r="AR52" s="267"/>
-      <c r="AS52" s="267"/>
-      <c r="AT52" s="267"/>
-      <c r="AU52" s="267"/>
-      <c r="AV52" s="267"/>
-      <c r="AW52" s="267"/>
+      <c r="AM52" s="187" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN52" s="187"/>
+      <c r="AO52" s="187"/>
+      <c r="AP52" s="188"/>
+      <c r="AQ52" s="188"/>
+      <c r="AR52" s="188"/>
+      <c r="AS52" s="188"/>
+      <c r="AT52" s="188"/>
+      <c r="AU52" s="188"/>
+      <c r="AV52" s="188"/>
+      <c r="AW52" s="188"/>
       <c r="AX52" s="29"/>
-      <c r="AZ52" s="254" t="s">
-        <v>117</v>
-      </c>
-      <c r="BA52" s="254"/>
-      <c r="BB52" s="254"/>
-      <c r="BC52" s="254"/>
-      <c r="BD52" s="254"/>
-      <c r="BE52" s="254"/>
-      <c r="BF52" s="254"/>
-      <c r="BG52" s="255"/>
-      <c r="BH52" s="256"/>
-      <c r="BI52" s="256"/>
-      <c r="BJ52" s="256"/>
-      <c r="BK52" s="256"/>
-      <c r="BL52" s="256"/>
-      <c r="BM52" s="256"/>
-      <c r="BN52" s="256"/>
-      <c r="BO52" s="256"/>
-      <c r="BP52" s="257"/>
+      <c r="AZ52" s="174" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA52" s="174"/>
+      <c r="BB52" s="174"/>
+      <c r="BC52" s="174"/>
+      <c r="BD52" s="174"/>
+      <c r="BE52" s="174"/>
+      <c r="BF52" s="174"/>
+      <c r="BG52" s="175"/>
+      <c r="BH52" s="176"/>
+      <c r="BI52" s="176"/>
+      <c r="BJ52" s="176"/>
+      <c r="BK52" s="176"/>
+      <c r="BL52" s="176"/>
+      <c r="BM52" s="176"/>
+      <c r="BN52" s="176"/>
+      <c r="BO52" s="176"/>
+      <c r="BP52" s="177"/>
     </row>
-    <row r="53" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="268" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="269"/>
-      <c r="C53" s="270"/>
-      <c r="D53" s="264" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" s="265"/>
-      <c r="F53" s="265"/>
+    <row r="53" spans="1:68" ht="27.75" customHeight="1">
+      <c r="A53" s="178" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="179"/>
+      <c r="C53" s="180"/>
+      <c r="D53" s="181" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="182"/>
+      <c r="F53" s="182"/>
       <c r="G53" s="34"/>
-      <c r="H53" s="264" t="s">
-        <v>120</v>
-      </c>
-      <c r="I53" s="265"/>
-      <c r="J53" s="265"/>
+      <c r="H53" s="181" t="s">
+        <v>112</v>
+      </c>
+      <c r="I53" s="182"/>
+      <c r="J53" s="182"/>
       <c r="K53" s="34"/>
-      <c r="L53" s="264" t="s">
-        <v>121</v>
-      </c>
-      <c r="M53" s="265"/>
-      <c r="N53" s="265"/>
+      <c r="L53" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="M53" s="182"/>
+      <c r="N53" s="182"/>
       <c r="O53" s="34"/>
-      <c r="P53" s="264"/>
-      <c r="Q53" s="265"/>
-      <c r="R53" s="265"/>
+      <c r="P53" s="181"/>
+      <c r="Q53" s="182"/>
+      <c r="R53" s="182"/>
       <c r="S53" s="34"/>
-      <c r="T53" s="264"/>
-      <c r="U53" s="265"/>
-      <c r="V53" s="265"/>
+      <c r="T53" s="181"/>
+      <c r="U53" s="182"/>
+      <c r="V53" s="182"/>
       <c r="W53" s="34"/>
-      <c r="X53" s="264"/>
-      <c r="Y53" s="265"/>
-      <c r="Z53" s="265"/>
+      <c r="X53" s="181"/>
+      <c r="Y53" s="182"/>
+      <c r="Z53" s="182"/>
       <c r="AA53" s="34"/>
       <c r="AB53" s="1"/>
-      <c r="AM53" s="266"/>
-      <c r="AN53" s="266"/>
-      <c r="AO53" s="266"/>
-      <c r="AP53" s="267"/>
-      <c r="AQ53" s="267"/>
-      <c r="AR53" s="267"/>
-      <c r="AS53" s="267"/>
-      <c r="AT53" s="267"/>
-      <c r="AU53" s="267"/>
-      <c r="AV53" s="267"/>
-      <c r="AW53" s="267"/>
+      <c r="AM53" s="187"/>
+      <c r="AN53" s="187"/>
+      <c r="AO53" s="187"/>
+      <c r="AP53" s="188"/>
+      <c r="AQ53" s="188"/>
+      <c r="AR53" s="188"/>
+      <c r="AS53" s="188"/>
+      <c r="AT53" s="188"/>
+      <c r="AU53" s="188"/>
+      <c r="AV53" s="188"/>
+      <c r="AW53" s="188"/>
       <c r="AX53" s="29"/>
-      <c r="AZ53" s="254" t="s">
-        <v>122</v>
-      </c>
-      <c r="BA53" s="254"/>
-      <c r="BB53" s="254"/>
-      <c r="BC53" s="254"/>
-      <c r="BD53" s="254"/>
-      <c r="BE53" s="254"/>
-      <c r="BF53" s="254"/>
-      <c r="BG53" s="255"/>
-      <c r="BH53" s="256"/>
-      <c r="BI53" s="256"/>
-      <c r="BJ53" s="256"/>
-      <c r="BK53" s="256"/>
-      <c r="BL53" s="256"/>
-      <c r="BM53" s="256"/>
-      <c r="BN53" s="256"/>
-      <c r="BO53" s="256"/>
-      <c r="BP53" s="257"/>
+      <c r="AZ53" s="174" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA53" s="174"/>
+      <c r="BB53" s="174"/>
+      <c r="BC53" s="174"/>
+      <c r="BD53" s="174"/>
+      <c r="BE53" s="174"/>
+      <c r="BF53" s="174"/>
+      <c r="BG53" s="175"/>
+      <c r="BH53" s="176"/>
+      <c r="BI53" s="176"/>
+      <c r="BJ53" s="176"/>
+      <c r="BK53" s="176"/>
+      <c r="BL53" s="176"/>
+      <c r="BM53" s="176"/>
+      <c r="BN53" s="176"/>
+      <c r="BO53" s="176"/>
+      <c r="BP53" s="177"/>
     </row>
-    <row r="54" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="268" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" s="269"/>
-      <c r="C54" s="270"/>
-      <c r="D54" s="264" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="265"/>
-      <c r="F54" s="265"/>
+    <row r="54" spans="1:68" ht="27.75" customHeight="1">
+      <c r="A54" s="178" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="179"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="181" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="182"/>
+      <c r="F54" s="182"/>
       <c r="G54" s="34"/>
-      <c r="H54" s="264" t="s">
-        <v>125</v>
-      </c>
-      <c r="I54" s="265"/>
-      <c r="J54" s="265"/>
+      <c r="H54" s="181" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="182"/>
+      <c r="J54" s="182"/>
       <c r="K54" s="34"/>
-      <c r="L54" s="264" t="s">
-        <v>126</v>
-      </c>
-      <c r="M54" s="265"/>
-      <c r="N54" s="265"/>
+      <c r="L54" s="181" t="s">
+        <v>118</v>
+      </c>
+      <c r="M54" s="182"/>
+      <c r="N54" s="182"/>
       <c r="O54" s="34"/>
-      <c r="P54" s="264" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q54" s="265"/>
-      <c r="R54" s="265"/>
+      <c r="P54" s="181" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q54" s="182"/>
+      <c r="R54" s="182"/>
       <c r="S54" s="34"/>
-      <c r="T54" s="264" t="s">
-        <v>128</v>
-      </c>
-      <c r="U54" s="265"/>
-      <c r="V54" s="265"/>
+      <c r="T54" s="181" t="s">
+        <v>120</v>
+      </c>
+      <c r="U54" s="182"/>
+      <c r="V54" s="182"/>
       <c r="W54" s="34"/>
-      <c r="X54" s="264" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y54" s="265"/>
-      <c r="Z54" s="265"/>
+      <c r="X54" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y54" s="182"/>
+      <c r="Z54" s="182"/>
       <c r="AA54" s="34"/>
-      <c r="AI54" s="276"/>
-      <c r="AJ54" s="276"/>
+      <c r="AI54" s="183"/>
+      <c r="AJ54" s="183"/>
       <c r="AK54" s="7"/>
-      <c r="BP54" s="152"/>
+      <c r="BP54" s="137"/>
     </row>
-    <row r="55" spans="1:68" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:68" ht="27.75" customHeight="1">
       <c r="A55" s="37"/>
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
@@ -9827,9 +9741,9 @@
       <c r="BM55" s="41"/>
       <c r="BN55" s="41"/>
       <c r="BO55" s="41"/>
-      <c r="BP55" s="151"/>
+      <c r="BP55" s="136"/>
     </row>
-    <row r="56" spans="1:68" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:68" ht="19.5" customHeight="1">
       <c r="J56" s="43"/>
       <c r="K56" s="43"/>
       <c r="L56" s="43"/>
@@ -9858,366 +9772,579 @@
       <c r="AI56" s="44"/>
       <c r="AJ56" s="44"/>
     </row>
-    <row r="57" spans="1:68" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:68" ht="18">
       <c r="A57" s="45" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D57" s="46"/>
       <c r="E57" s="46"/>
     </row>
-    <row r="58" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1">
       <c r="A58" s="47">
         <v>1</v>
       </c>
-      <c r="B58" s="271" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="271"/>
-      <c r="D58" s="271"/>
-      <c r="E58" s="272" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" s="272"/>
-      <c r="G58" s="272"/>
-      <c r="H58" s="272"/>
-      <c r="I58" s="272"/>
-      <c r="J58" s="272"/>
-      <c r="K58" s="272"/>
+      <c r="B58" s="169" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="170" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="170"/>
+      <c r="G58" s="170"/>
+      <c r="H58" s="170"/>
+      <c r="I58" s="170"/>
+      <c r="J58" s="170"/>
+      <c r="K58" s="170"/>
       <c r="N58" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="O58" s="273" t="s">
-        <v>134</v>
-      </c>
-      <c r="P58" s="274"/>
-      <c r="Q58" s="275"/>
-      <c r="R58" s="272" t="s">
-        <v>135</v>
-      </c>
-      <c r="S58" s="272"/>
-      <c r="T58" s="272"/>
-      <c r="U58" s="272"/>
-      <c r="V58" s="272"/>
-      <c r="W58" s="272"/>
-      <c r="X58" s="272"/>
+        <v>125</v>
+      </c>
+      <c r="O58" s="171" t="s">
+        <v>126</v>
+      </c>
+      <c r="P58" s="172"/>
+      <c r="Q58" s="173"/>
+      <c r="R58" s="170" t="s">
+        <v>127</v>
+      </c>
+      <c r="S58" s="170"/>
+      <c r="T58" s="170"/>
+      <c r="U58" s="170"/>
+      <c r="V58" s="170"/>
+      <c r="W58" s="170"/>
+      <c r="X58" s="170"/>
       <c r="AA58" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB58" s="277" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC58" s="278"/>
-      <c r="AD58" s="278"/>
-      <c r="AE58" s="278"/>
-      <c r="AF58" s="278"/>
-      <c r="AG58" s="278"/>
-      <c r="AH58" s="278"/>
-      <c r="AI58" s="278"/>
-      <c r="AJ58" s="278"/>
-      <c r="AK58" s="278"/>
-      <c r="AL58" s="278"/>
-      <c r="AM58" s="279"/>
+        <v>128</v>
+      </c>
+      <c r="AB58" s="184" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC58" s="185"/>
+      <c r="AD58" s="185"/>
+      <c r="AE58" s="185"/>
+      <c r="AF58" s="185"/>
+      <c r="AG58" s="185"/>
+      <c r="AH58" s="185"/>
+      <c r="AI58" s="185"/>
+      <c r="AJ58" s="185"/>
+      <c r="AK58" s="185"/>
+      <c r="AL58" s="185"/>
+      <c r="AM58" s="186"/>
     </row>
-    <row r="59" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1">
       <c r="A59" s="47">
         <v>2</v>
       </c>
-      <c r="B59" s="271" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="271"/>
-      <c r="D59" s="271"/>
-      <c r="E59" s="272" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" s="272"/>
-      <c r="G59" s="272"/>
-      <c r="H59" s="272"/>
-      <c r="I59" s="272"/>
-      <c r="J59" s="272"/>
-      <c r="K59" s="272"/>
+      <c r="B59" s="169" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="170" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="170"/>
+      <c r="G59" s="170"/>
+      <c r="H59" s="170"/>
+      <c r="I59" s="170"/>
+      <c r="J59" s="170"/>
+      <c r="K59" s="170"/>
       <c r="N59" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="O59" s="273" t="s">
-        <v>141</v>
-      </c>
-      <c r="P59" s="274"/>
-      <c r="Q59" s="275"/>
-      <c r="R59" s="272" t="s">
-        <v>142</v>
-      </c>
-      <c r="S59" s="272"/>
-      <c r="T59" s="272"/>
-      <c r="U59" s="272"/>
-      <c r="V59" s="272"/>
-      <c r="W59" s="272"/>
-      <c r="X59" s="272"/>
+        <v>132</v>
+      </c>
+      <c r="O59" s="171" t="s">
+        <v>133</v>
+      </c>
+      <c r="P59" s="172"/>
+      <c r="Q59" s="173"/>
+      <c r="R59" s="170" t="s">
+        <v>134</v>
+      </c>
+      <c r="S59" s="170"/>
+      <c r="T59" s="170"/>
+      <c r="U59" s="170"/>
+      <c r="V59" s="170"/>
+      <c r="W59" s="170"/>
+      <c r="X59" s="170"/>
       <c r="AA59" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB59" s="271" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC59" s="271"/>
-      <c r="AD59" s="271"/>
-      <c r="AE59" s="272" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF59" s="272"/>
-      <c r="AG59" s="272"/>
-      <c r="AH59" s="272"/>
-      <c r="AI59" s="272"/>
-      <c r="AJ59" s="272"/>
-      <c r="AK59" s="272"/>
-      <c r="AL59" s="272"/>
-      <c r="AM59" s="272"/>
+        <v>135</v>
+      </c>
+      <c r="AB59" s="169" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC59" s="169"/>
+      <c r="AD59" s="169"/>
+      <c r="AE59" s="170" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF59" s="170"/>
+      <c r="AG59" s="170"/>
+      <c r="AH59" s="170"/>
+      <c r="AI59" s="170"/>
+      <c r="AJ59" s="170"/>
+      <c r="AK59" s="170"/>
+      <c r="AL59" s="170"/>
+      <c r="AM59" s="170"/>
     </row>
-    <row r="60" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1">
       <c r="A60" s="47">
         <v>3</v>
       </c>
-      <c r="B60" s="271" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="271"/>
-      <c r="D60" s="271"/>
-      <c r="E60" s="272" t="s">
-        <v>146</v>
-      </c>
-      <c r="F60" s="272"/>
-      <c r="G60" s="272"/>
-      <c r="H60" s="272"/>
-      <c r="I60" s="272"/>
-      <c r="J60" s="272"/>
-      <c r="K60" s="272"/>
+      <c r="B60" s="169" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="170" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="170"/>
+      <c r="G60" s="170"/>
+      <c r="H60" s="170"/>
+      <c r="I60" s="170"/>
+      <c r="J60" s="170"/>
+      <c r="K60" s="170"/>
       <c r="N60" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="O60" s="273" t="s">
-        <v>148</v>
-      </c>
-      <c r="P60" s="274"/>
-      <c r="Q60" s="275"/>
-      <c r="R60" s="272" t="s">
-        <v>149</v>
-      </c>
-      <c r="S60" s="272"/>
-      <c r="T60" s="272"/>
-      <c r="U60" s="272"/>
-      <c r="V60" s="272"/>
-      <c r="W60" s="272"/>
-      <c r="X60" s="272"/>
+        <v>139</v>
+      </c>
+      <c r="O60" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="P60" s="172"/>
+      <c r="Q60" s="173"/>
+      <c r="R60" s="170" t="s">
+        <v>141</v>
+      </c>
+      <c r="S60" s="170"/>
+      <c r="T60" s="170"/>
+      <c r="U60" s="170"/>
+      <c r="V60" s="170"/>
+      <c r="W60" s="170"/>
+      <c r="X60" s="170"/>
       <c r="AA60" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB60" s="271" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC60" s="271"/>
-      <c r="AD60" s="271"/>
-      <c r="AE60" s="272" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF60" s="272"/>
-      <c r="AG60" s="272"/>
-      <c r="AH60" s="272"/>
-      <c r="AI60" s="272"/>
-      <c r="AJ60" s="272"/>
-      <c r="AK60" s="272"/>
-      <c r="AL60" s="272"/>
-      <c r="AM60" s="272"/>
+        <v>142</v>
+      </c>
+      <c r="AB60" s="169" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC60" s="169"/>
+      <c r="AD60" s="169"/>
+      <c r="AE60" s="170" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF60" s="170"/>
+      <c r="AG60" s="170"/>
+      <c r="AH60" s="170"/>
+      <c r="AI60" s="170"/>
+      <c r="AJ60" s="170"/>
+      <c r="AK60" s="170"/>
+      <c r="AL60" s="170"/>
+      <c r="AM60" s="170"/>
       <c r="AN60" s="49"/>
     </row>
-    <row r="61" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1">
       <c r="A61" s="47">
         <v>4</v>
       </c>
-      <c r="B61" s="271" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" s="271"/>
-      <c r="D61" s="271"/>
-      <c r="E61" s="272" t="s">
-        <v>153</v>
-      </c>
-      <c r="F61" s="272"/>
-      <c r="G61" s="272"/>
-      <c r="H61" s="272"/>
-      <c r="I61" s="272"/>
-      <c r="J61" s="272"/>
-      <c r="K61" s="272"/>
+      <c r="B61" s="169" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="169"/>
+      <c r="D61" s="169"/>
+      <c r="E61" s="170" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" s="170"/>
+      <c r="G61" s="170"/>
+      <c r="H61" s="170"/>
+      <c r="I61" s="170"/>
+      <c r="J61" s="170"/>
+      <c r="K61" s="170"/>
       <c r="N61" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="O61" s="273" t="s">
-        <v>155</v>
-      </c>
-      <c r="P61" s="274"/>
-      <c r="Q61" s="275"/>
-      <c r="R61" s="272" t="s">
-        <v>156</v>
-      </c>
-      <c r="S61" s="272"/>
-      <c r="T61" s="272"/>
-      <c r="U61" s="272"/>
-      <c r="V61" s="272"/>
-      <c r="W61" s="272"/>
-      <c r="X61" s="272"/>
+        <v>146</v>
+      </c>
+      <c r="O61" s="171" t="s">
+        <v>147</v>
+      </c>
+      <c r="P61" s="172"/>
+      <c r="Q61" s="173"/>
+      <c r="R61" s="170" t="s">
+        <v>148</v>
+      </c>
+      <c r="S61" s="170"/>
+      <c r="T61" s="170"/>
+      <c r="U61" s="170"/>
+      <c r="V61" s="170"/>
+      <c r="W61" s="170"/>
+      <c r="X61" s="170"/>
       <c r="AA61" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB61" s="271" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC61" s="271"/>
-      <c r="AD61" s="271"/>
-      <c r="AE61" s="272" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF61" s="272"/>
-      <c r="AG61" s="272"/>
-      <c r="AH61" s="272"/>
-      <c r="AI61" s="272"/>
-      <c r="AJ61" s="272"/>
-      <c r="AK61" s="272"/>
-      <c r="AL61" s="272"/>
-      <c r="AM61" s="272"/>
+        <v>149</v>
+      </c>
+      <c r="AB61" s="169" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC61" s="169"/>
+      <c r="AD61" s="169"/>
+      <c r="AE61" s="170" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF61" s="170"/>
+      <c r="AG61" s="170"/>
+      <c r="AH61" s="170"/>
+      <c r="AI61" s="170"/>
+      <c r="AJ61" s="170"/>
+      <c r="AK61" s="170"/>
+      <c r="AL61" s="170"/>
+      <c r="AM61" s="170"/>
       <c r="AN61" s="49"/>
     </row>
-    <row r="62" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1">
       <c r="A62" s="47">
         <v>5</v>
       </c>
-      <c r="B62" s="271" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="271"/>
-      <c r="D62" s="271"/>
-      <c r="E62" s="272" t="s">
-        <v>160</v>
-      </c>
-      <c r="F62" s="272"/>
-      <c r="G62" s="272"/>
-      <c r="H62" s="272"/>
-      <c r="I62" s="272"/>
-      <c r="J62" s="272"/>
-      <c r="K62" s="272"/>
+      <c r="B62" s="169" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="169"/>
+      <c r="D62" s="169"/>
+      <c r="E62" s="170" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="170"/>
+      <c r="G62" s="170"/>
+      <c r="H62" s="170"/>
+      <c r="I62" s="170"/>
+      <c r="J62" s="170"/>
+      <c r="K62" s="170"/>
       <c r="N62" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="O62" s="273" t="s">
-        <v>162</v>
-      </c>
-      <c r="P62" s="274"/>
-      <c r="Q62" s="275"/>
-      <c r="R62" s="272" t="s">
-        <v>163</v>
-      </c>
-      <c r="S62" s="272"/>
-      <c r="T62" s="272"/>
-      <c r="U62" s="272"/>
-      <c r="V62" s="272"/>
-      <c r="W62" s="272"/>
-      <c r="X62" s="272"/>
+        <v>153</v>
+      </c>
+      <c r="O62" s="171" t="s">
+        <v>154</v>
+      </c>
+      <c r="P62" s="172"/>
+      <c r="Q62" s="173"/>
+      <c r="R62" s="170" t="s">
+        <v>155</v>
+      </c>
+      <c r="S62" s="170"/>
+      <c r="T62" s="170"/>
+      <c r="U62" s="170"/>
+      <c r="V62" s="170"/>
+      <c r="W62" s="170"/>
+      <c r="X62" s="170"/>
       <c r="AA62" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB62" s="271" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC62" s="271"/>
-      <c r="AD62" s="271"/>
-      <c r="AE62" s="272" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF62" s="272"/>
-      <c r="AG62" s="272"/>
-      <c r="AH62" s="272"/>
-      <c r="AI62" s="272"/>
-      <c r="AJ62" s="272"/>
-      <c r="AK62" s="272"/>
-      <c r="AL62" s="272"/>
-      <c r="AM62" s="272"/>
+        <v>156</v>
+      </c>
+      <c r="AB62" s="169" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC62" s="169"/>
+      <c r="AD62" s="169"/>
+      <c r="AE62" s="170" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF62" s="170"/>
+      <c r="AG62" s="170"/>
+      <c r="AH62" s="170"/>
+      <c r="AI62" s="170"/>
+      <c r="AJ62" s="170"/>
+      <c r="AK62" s="170"/>
+      <c r="AL62" s="170"/>
+      <c r="AM62" s="170"/>
       <c r="AN62" s="49"/>
     </row>
-    <row r="63" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1">
       <c r="A63" s="47">
         <v>6</v>
       </c>
-      <c r="B63" s="271" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" s="271"/>
-      <c r="D63" s="271"/>
-      <c r="E63" s="272" t="s">
-        <v>167</v>
-      </c>
-      <c r="F63" s="272"/>
-      <c r="G63" s="272"/>
-      <c r="H63" s="272"/>
-      <c r="I63" s="272"/>
-      <c r="J63" s="272"/>
-      <c r="K63" s="272"/>
+      <c r="B63" s="169" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="169"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="170" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" s="170"/>
+      <c r="G63" s="170"/>
+      <c r="H63" s="170"/>
+      <c r="I63" s="170"/>
+      <c r="J63" s="170"/>
+      <c r="K63" s="170"/>
       <c r="N63" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="O63" s="273" t="s">
-        <v>169</v>
-      </c>
-      <c r="P63" s="274"/>
-      <c r="Q63" s="275"/>
-      <c r="R63" s="272" t="s">
-        <v>170</v>
-      </c>
-      <c r="S63" s="272"/>
-      <c r="T63" s="272"/>
-      <c r="U63" s="272"/>
-      <c r="V63" s="272"/>
-      <c r="W63" s="272"/>
-      <c r="X63" s="272"/>
+        <v>160</v>
+      </c>
+      <c r="O63" s="171" t="s">
+        <v>161</v>
+      </c>
+      <c r="P63" s="172"/>
+      <c r="Q63" s="173"/>
+      <c r="R63" s="170" t="s">
+        <v>162</v>
+      </c>
+      <c r="S63" s="170"/>
+      <c r="T63" s="170"/>
+      <c r="U63" s="170"/>
+      <c r="V63" s="170"/>
+      <c r="W63" s="170"/>
+      <c r="X63" s="170"/>
       <c r="AA63" s="47"/>
-      <c r="AB63" s="271" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC63" s="271"/>
-      <c r="AD63" s="271"/>
-      <c r="AE63" s="272" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF63" s="272"/>
-      <c r="AG63" s="272"/>
-      <c r="AH63" s="272"/>
-      <c r="AI63" s="272"/>
-      <c r="AJ63" s="272"/>
-      <c r="AK63" s="272"/>
-      <c r="AL63" s="272"/>
-      <c r="AM63" s="272"/>
+      <c r="AB63" s="169" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC63" s="169"/>
+      <c r="AD63" s="169"/>
+      <c r="AE63" s="170" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF63" s="170"/>
+      <c r="AG63" s="170"/>
+      <c r="AH63" s="170"/>
+      <c r="AI63" s="170"/>
+      <c r="AJ63" s="170"/>
+      <c r="AK63" s="170"/>
+      <c r="AL63" s="170"/>
+      <c r="AM63" s="170"/>
     </row>
-    <row r="64" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:68" s="48" customFormat="1" ht="24.75" customHeight="1">
       <c r="A64" s="47">
         <v>7</v>
       </c>
-      <c r="B64" s="271" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" s="271"/>
-      <c r="D64" s="271"/>
-      <c r="E64" s="272" t="s">
-        <v>174</v>
-      </c>
-      <c r="F64" s="272"/>
-      <c r="G64" s="272"/>
-      <c r="H64" s="272"/>
-      <c r="I64" s="272"/>
-      <c r="J64" s="272"/>
-      <c r="K64" s="272"/>
+      <c r="B64" s="169" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
+      <c r="E64" s="170" t="s">
+        <v>166</v>
+      </c>
+      <c r="F64" s="170"/>
+      <c r="G64" s="170"/>
+      <c r="H64" s="170"/>
+      <c r="I64" s="170"/>
+      <c r="J64" s="170"/>
+      <c r="K64" s="170"/>
     </row>
-    <row r="65" spans="14:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:14" ht="16.5">
       <c r="N65" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="231">
+  <mergeCells count="237">
+    <mergeCell ref="AM24:BP24"/>
+    <mergeCell ref="AM27:BP27"/>
+    <mergeCell ref="AM30:BP30"/>
+    <mergeCell ref="AM33:BP33"/>
+    <mergeCell ref="AM36:BP36"/>
+    <mergeCell ref="AK7:AK9"/>
+    <mergeCell ref="AL7:AL9"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="AG7:AG9"/>
+    <mergeCell ref="AH7:AH9"/>
+    <mergeCell ref="AI7:AI9"/>
+    <mergeCell ref="AJ7:AJ9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="BG6:BG7"/>
+    <mergeCell ref="BH6:BH7"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="AM39:BP39"/>
+    <mergeCell ref="AM42:BP42"/>
+    <mergeCell ref="AM45:BP45"/>
+    <mergeCell ref="AM12:BP12"/>
+    <mergeCell ref="AM15:BP15"/>
+    <mergeCell ref="AM18:BP18"/>
+    <mergeCell ref="AM21:BP21"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BJ3:BK3"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AS6:AT7"/>
+    <mergeCell ref="AU6:AV7"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="AM1:BP1"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AR4:BA4"/>
+    <mergeCell ref="BB4:BG4"/>
+    <mergeCell ref="BH4:BK5"/>
+    <mergeCell ref="BL4:BN5"/>
+    <mergeCell ref="BB5:BG5"/>
+    <mergeCell ref="AN5:AQ5"/>
+    <mergeCell ref="D2:T2"/>
+    <mergeCell ref="D3:T3"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="AR5:BA5"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="AY6:AY7"/>
+    <mergeCell ref="AZ6:AZ7"/>
+    <mergeCell ref="BA6:BA7"/>
+    <mergeCell ref="BB6:BC7"/>
+    <mergeCell ref="BD6:BE7"/>
+    <mergeCell ref="BF6:BF7"/>
+    <mergeCell ref="AX6:AX7"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BC8"/>
+    <mergeCell ref="BD8:BE8"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="AP49:AW49"/>
+    <mergeCell ref="AZ49:BF49"/>
+    <mergeCell ref="BG49:BP49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="AJ46:AL46"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AM49:AO49"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AM51:AO51"/>
+    <mergeCell ref="AP51:AW51"/>
+    <mergeCell ref="AZ51:BF51"/>
+    <mergeCell ref="BG51:BP51"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="AM50:AO50"/>
+    <mergeCell ref="AP50:AW50"/>
+    <mergeCell ref="AZ50:BF50"/>
+    <mergeCell ref="BG50:BP50"/>
+    <mergeCell ref="AM52:AO52"/>
+    <mergeCell ref="AP52:AW52"/>
+    <mergeCell ref="AZ52:BF52"/>
+    <mergeCell ref="BG52:BP52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="A51:C52"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AM53:AO53"/>
+    <mergeCell ref="AP53:AW53"/>
+    <mergeCell ref="AZ53:BF53"/>
+    <mergeCell ref="BG53:BP53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:K59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="R59:X59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="AE59:AM59"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:K58"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="R58:X58"/>
+    <mergeCell ref="AB58:AM58"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="R61:X61"/>
+    <mergeCell ref="AB61:AD61"/>
+    <mergeCell ref="AE61:AM61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="R60:X60"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="AE60:AM60"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:K64"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:K63"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="R63:X63"/>
+    <mergeCell ref="AB63:AD63"/>
+    <mergeCell ref="AE63:AM63"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:K62"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="R62:X62"/>
+    <mergeCell ref="AB62:AD62"/>
+    <mergeCell ref="AE62:AM62"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="P6:V6"/>
@@ -10242,213 +10369,6 @@
     <mergeCell ref="X7:X9"/>
     <mergeCell ref="M7:M9"/>
     <mergeCell ref="N7:N9"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:K64"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:K63"/>
-    <mergeCell ref="O63:Q63"/>
-    <mergeCell ref="R63:X63"/>
-    <mergeCell ref="AB63:AD63"/>
-    <mergeCell ref="AE63:AM63"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:K62"/>
-    <mergeCell ref="O62:Q62"/>
-    <mergeCell ref="R62:X62"/>
-    <mergeCell ref="AB62:AD62"/>
-    <mergeCell ref="AE62:AM62"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:K61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="R61:X61"/>
-    <mergeCell ref="AB61:AD61"/>
-    <mergeCell ref="AE61:AM61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:K60"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="R60:X60"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="AE60:AM60"/>
-    <mergeCell ref="AZ53:BF53"/>
-    <mergeCell ref="BG53:BP53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:K59"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="R59:X59"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="AE59:AM59"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:K58"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="R58:X58"/>
-    <mergeCell ref="AB58:AM58"/>
-    <mergeCell ref="AM52:AO52"/>
-    <mergeCell ref="AP52:AW52"/>
-    <mergeCell ref="AZ52:BF52"/>
-    <mergeCell ref="BG52:BP52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="A51:C52"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AM53:AO53"/>
-    <mergeCell ref="AP53:AW53"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AM51:AO51"/>
-    <mergeCell ref="AP51:AW51"/>
-    <mergeCell ref="AZ51:BF51"/>
-    <mergeCell ref="BG51:BP51"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="AM50:AO50"/>
-    <mergeCell ref="AP50:AW50"/>
-    <mergeCell ref="AZ50:BF50"/>
-    <mergeCell ref="BG50:BP50"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AM49:AO49"/>
-    <mergeCell ref="AP49:AW49"/>
-    <mergeCell ref="AZ49:BF49"/>
-    <mergeCell ref="BG49:BP49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="BN8:BN9"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BH8:BH9"/>
-    <mergeCell ref="BI8:BI9"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BC8"/>
-    <mergeCell ref="BD8:BE8"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="BG6:BG7"/>
-    <mergeCell ref="BH6:BH7"/>
-    <mergeCell ref="AL7:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="AG7:AG9"/>
-    <mergeCell ref="AH7:AH9"/>
-    <mergeCell ref="AI7:AI9"/>
-    <mergeCell ref="AJ7:AJ9"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="AR5:BA5"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="AY6:AY7"/>
-    <mergeCell ref="AZ6:AZ7"/>
-    <mergeCell ref="BA6:BA7"/>
-    <mergeCell ref="BB6:BC7"/>
-    <mergeCell ref="BD6:BE7"/>
-    <mergeCell ref="BF6:BF7"/>
-    <mergeCell ref="AX6:AX7"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AK7:AK9"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BJ3:BK3"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AS6:AT7"/>
-    <mergeCell ref="AU6:AV7"/>
-    <mergeCell ref="AW6:AW7"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AM1:BP1"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AR4:BA4"/>
-    <mergeCell ref="BB4:BG4"/>
-    <mergeCell ref="BH4:BK5"/>
-    <mergeCell ref="BL4:BN5"/>
-    <mergeCell ref="BB5:BG5"/>
-    <mergeCell ref="AN5:AQ5"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="AM24:BP24"/>
-    <mergeCell ref="AM27:BP27"/>
-    <mergeCell ref="AM30:BP30"/>
-    <mergeCell ref="AM33:BP33"/>
-    <mergeCell ref="AM36:BP36"/>
-    <mergeCell ref="AM39:BP39"/>
-    <mergeCell ref="AM42:BP42"/>
-    <mergeCell ref="AM45:BP45"/>
-    <mergeCell ref="AM12:BP12"/>
-    <mergeCell ref="AM15:BP15"/>
-    <mergeCell ref="AM18:BP18"/>
-    <mergeCell ref="AM21:BP21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD9913C-4B4F-4E48-AE7E-B552740F020D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A5C49D-E7FB-447D-8F14-7B4D32DE05BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="167">
   <si>
     <t>業　　主：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -750,10 +750,6 @@
     <t>變動因素                       (停工、停電…等)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>當月天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -763,7 +759,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -908,7 +904,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="90">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -1406,17 +1402,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1543,17 +1528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1945,26 +1919,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1984,19 +1938,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2059,7 +2000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2095,29 +2036,29 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2128,7 +2069,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2140,27 +2081,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2188,307 +2129,555 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2503,34 +2692,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2551,265 +2722,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5417,13 +5337,13 @@
   </sheetPr>
   <dimension ref="A1:BR63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC8" sqref="AC8:AC10"/>
       <selection pane="bottomLeft" sqref="A1:AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="15" width="5.125" style="5" customWidth="1"/>
@@ -5432,750 +5352,750 @@
     <col min="71" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+    <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A1" s="219" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="174"/>
-      <c r="AG1" s="174"/>
-      <c r="AH1" s="174"/>
-      <c r="AI1" s="174"/>
-      <c r="AJ1" s="174"/>
-      <c r="AK1" s="174"/>
-      <c r="AL1" s="175"/>
-      <c r="AM1" s="173" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="220"/>
+      <c r="AA1" s="220"/>
+      <c r="AB1" s="220"/>
+      <c r="AC1" s="220"/>
+      <c r="AD1" s="220"/>
+      <c r="AE1" s="220"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="220"/>
+      <c r="AH1" s="220"/>
+      <c r="AI1" s="220"/>
+      <c r="AJ1" s="220"/>
+      <c r="AK1" s="220"/>
+      <c r="AL1" s="221"/>
+      <c r="AM1" s="219" t="s">
         <v>160</v>
       </c>
-      <c r="AN1" s="174"/>
-      <c r="AO1" s="174"/>
-      <c r="AP1" s="174"/>
-      <c r="AQ1" s="174"/>
-      <c r="AR1" s="174"/>
-      <c r="AS1" s="174"/>
-      <c r="AT1" s="174"/>
-      <c r="AU1" s="174"/>
-      <c r="AV1" s="174"/>
-      <c r="AW1" s="174"/>
-      <c r="AX1" s="174"/>
-      <c r="AY1" s="174"/>
-      <c r="AZ1" s="174"/>
-      <c r="BA1" s="174"/>
-      <c r="BB1" s="174"/>
-      <c r="BC1" s="174"/>
-      <c r="BD1" s="174"/>
-      <c r="BE1" s="174"/>
-      <c r="BF1" s="174"/>
-      <c r="BG1" s="174"/>
-      <c r="BH1" s="174"/>
-      <c r="BI1" s="174"/>
-      <c r="BJ1" s="174"/>
-      <c r="BK1" s="174"/>
-      <c r="BL1" s="174"/>
-      <c r="BM1" s="174"/>
-      <c r="BN1" s="174"/>
-      <c r="BO1" s="174"/>
-      <c r="BP1" s="174"/>
-      <c r="BQ1" s="174"/>
-      <c r="BR1" s="175"/>
+      <c r="AN1" s="220"/>
+      <c r="AO1" s="220"/>
+      <c r="AP1" s="220"/>
+      <c r="AQ1" s="220"/>
+      <c r="AR1" s="220"/>
+      <c r="AS1" s="220"/>
+      <c r="AT1" s="220"/>
+      <c r="AU1" s="220"/>
+      <c r="AV1" s="220"/>
+      <c r="AW1" s="220"/>
+      <c r="AX1" s="220"/>
+      <c r="AY1" s="220"/>
+      <c r="AZ1" s="220"/>
+      <c r="BA1" s="220"/>
+      <c r="BB1" s="220"/>
+      <c r="BC1" s="220"/>
+      <c r="BD1" s="220"/>
+      <c r="BE1" s="220"/>
+      <c r="BF1" s="220"/>
+      <c r="BG1" s="220"/>
+      <c r="BH1" s="220"/>
+      <c r="BI1" s="220"/>
+      <c r="BJ1" s="220"/>
+      <c r="BK1" s="220"/>
+      <c r="BL1" s="220"/>
+      <c r="BM1" s="220"/>
+      <c r="BN1" s="220"/>
+      <c r="BO1" s="220"/>
+      <c r="BP1" s="220"/>
+      <c r="BQ1" s="220"/>
+      <c r="BR1" s="221"/>
     </row>
-    <row r="2" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="217" t="s">
+    <row r="2" spans="1:70" ht="24.75" customHeight="1">
+      <c r="A2" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181" t="s">
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="181"/>
-      <c r="AH2" s="181"/>
-      <c r="AI2" s="181"/>
-      <c r="AJ2" s="181"/>
-      <c r="AK2" s="181"/>
-      <c r="AL2" s="182"/>
-      <c r="AM2" s="217" t="s">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="155"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="155"/>
+      <c r="AK2" s="155"/>
+      <c r="AL2" s="156"/>
+      <c r="AM2" s="154" t="s">
         <v>153</v>
       </c>
-      <c r="AN2" s="181"/>
-      <c r="AO2" s="181"/>
-      <c r="AP2" s="181"/>
-      <c r="AQ2" s="181"/>
-      <c r="AR2" s="181"/>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="181"/>
-      <c r="AU2" s="181"/>
-      <c r="AV2" s="181"/>
-      <c r="AW2" s="181"/>
-      <c r="AX2" s="181"/>
-      <c r="AY2" s="181"/>
-      <c r="AZ2" s="181"/>
-      <c r="BA2" s="181" t="s">
+      <c r="AN2" s="155"/>
+      <c r="AO2" s="155"/>
+      <c r="AP2" s="155"/>
+      <c r="AQ2" s="155"/>
+      <c r="AR2" s="155"/>
+      <c r="AS2" s="155"/>
+      <c r="AT2" s="155"/>
+      <c r="AU2" s="155"/>
+      <c r="AV2" s="155"/>
+      <c r="AW2" s="155"/>
+      <c r="AX2" s="155"/>
+      <c r="AY2" s="155"/>
+      <c r="AZ2" s="155"/>
+      <c r="BA2" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="181"/>
-      <c r="BC2" s="181"/>
-      <c r="BD2" s="181"/>
-      <c r="BE2" s="181"/>
-      <c r="BF2" s="181"/>
-      <c r="BG2" s="181"/>
-      <c r="BH2" s="181"/>
-      <c r="BI2" s="181"/>
-      <c r="BJ2" s="181" t="s">
+      <c r="BB2" s="155"/>
+      <c r="BC2" s="155"/>
+      <c r="BD2" s="155"/>
+      <c r="BE2" s="155"/>
+      <c r="BF2" s="155"/>
+      <c r="BG2" s="155"/>
+      <c r="BH2" s="155"/>
+      <c r="BI2" s="155"/>
+      <c r="BJ2" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="181"/>
-      <c r="BL2" s="181"/>
-      <c r="BM2" s="181"/>
-      <c r="BN2" s="181"/>
-      <c r="BO2" s="181"/>
-      <c r="BP2" s="181"/>
-      <c r="BQ2" s="181"/>
-      <c r="BR2" s="182"/>
+      <c r="BK2" s="155"/>
+      <c r="BL2" s="155"/>
+      <c r="BM2" s="155"/>
+      <c r="BN2" s="155"/>
+      <c r="BO2" s="155"/>
+      <c r="BP2" s="155"/>
+      <c r="BQ2" s="155"/>
+      <c r="BR2" s="156"/>
     </row>
-    <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="217" t="s">
+    <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A3" s="154" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="181"/>
-      <c r="S3" s="181" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="181"/>
-      <c r="AC3" s="181" t="s">
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="155"/>
+      <c r="Z3" s="155"/>
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="155"/>
+      <c r="AC3" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="181"/>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="181"/>
-      <c r="AJ3" s="181"/>
-      <c r="AK3" s="181"/>
-      <c r="AL3" s="182"/>
-      <c r="AM3" s="217" t="s">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="155"/>
+      <c r="AG3" s="155"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="155"/>
+      <c r="AJ3" s="155"/>
+      <c r="AK3" s="155"/>
+      <c r="AL3" s="156"/>
+      <c r="AM3" s="154" t="s">
         <v>161</v>
       </c>
-      <c r="AN3" s="181"/>
-      <c r="AO3" s="181"/>
-      <c r="AP3" s="181"/>
-      <c r="AQ3" s="181"/>
-      <c r="AR3" s="181"/>
-      <c r="AS3" s="181"/>
-      <c r="AT3" s="181"/>
-      <c r="AU3" s="181"/>
-      <c r="AV3" s="181"/>
-      <c r="AW3" s="181"/>
-      <c r="AX3" s="181"/>
-      <c r="AY3" s="181"/>
-      <c r="AZ3" s="181"/>
-      <c r="BA3" s="181" t="s">
+      <c r="AN3" s="155"/>
+      <c r="AO3" s="155"/>
+      <c r="AP3" s="155"/>
+      <c r="AQ3" s="155"/>
+      <c r="AR3" s="155"/>
+      <c r="AS3" s="155"/>
+      <c r="AT3" s="155"/>
+      <c r="AU3" s="155"/>
+      <c r="AV3" s="155"/>
+      <c r="AW3" s="155"/>
+      <c r="AX3" s="155"/>
+      <c r="AY3" s="155"/>
+      <c r="AZ3" s="155"/>
+      <c r="BA3" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="181"/>
-      <c r="BC3" s="181"/>
-      <c r="BD3" s="181"/>
-      <c r="BE3" s="181"/>
-      <c r="BF3" s="181"/>
-      <c r="BG3" s="181"/>
-      <c r="BH3" s="181"/>
-      <c r="BI3" s="181"/>
-      <c r="BJ3" s="181" t="s">
+      <c r="BB3" s="155"/>
+      <c r="BC3" s="155"/>
+      <c r="BD3" s="155"/>
+      <c r="BE3" s="155"/>
+      <c r="BF3" s="155"/>
+      <c r="BG3" s="155"/>
+      <c r="BH3" s="155"/>
+      <c r="BI3" s="155"/>
+      <c r="BJ3" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="BK3" s="181"/>
-      <c r="BL3" s="181"/>
-      <c r="BM3" s="181"/>
-      <c r="BN3" s="181"/>
-      <c r="BO3" s="181"/>
-      <c r="BP3" s="181"/>
-      <c r="BQ3" s="181"/>
-      <c r="BR3" s="182"/>
+      <c r="BK3" s="155"/>
+      <c r="BL3" s="155"/>
+      <c r="BM3" s="155"/>
+      <c r="BN3" s="155"/>
+      <c r="BO3" s="155"/>
+      <c r="BP3" s="155"/>
+      <c r="BQ3" s="155"/>
+      <c r="BR3" s="156"/>
     </row>
-    <row r="4" spans="1:70" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="218" t="s">
+    <row r="4" spans="1:70" ht="40.5" customHeight="1">
+      <c r="A4" s="142"/>
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="249"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249"/>
+      <c r="O4" s="249"/>
+      <c r="P4" s="249"/>
+      <c r="Q4" s="249"/>
+      <c r="R4" s="249"/>
+      <c r="S4" s="249"/>
+      <c r="T4" s="249"/>
+      <c r="U4" s="249"/>
+      <c r="V4" s="249"/>
+      <c r="W4" s="249"/>
+      <c r="X4" s="249"/>
+      <c r="Y4" s="249"/>
+      <c r="Z4" s="249"/>
+      <c r="AA4" s="249"/>
+      <c r="AB4" s="249"/>
+      <c r="AC4" s="249"/>
+      <c r="AD4" s="249"/>
+      <c r="AE4" s="249"/>
+      <c r="AF4" s="249"/>
+      <c r="AG4" s="249"/>
+      <c r="AH4" s="249"/>
+      <c r="AI4" s="249"/>
+      <c r="AJ4" s="249"/>
+      <c r="AK4" s="249"/>
+      <c r="AL4" s="249"/>
+      <c r="AM4" s="139" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN4" s="222" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO4" s="223"/>
+      <c r="AP4" s="224"/>
+      <c r="AQ4" s="222" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR4" s="223"/>
+      <c r="AS4" s="223"/>
+      <c r="AT4" s="223"/>
+      <c r="AU4" s="223"/>
+      <c r="AV4" s="223"/>
+      <c r="AW4" s="223"/>
+      <c r="AX4" s="223"/>
+      <c r="AY4" s="223"/>
+      <c r="AZ4" s="223"/>
+      <c r="BA4" s="223"/>
+      <c r="BB4" s="223"/>
+      <c r="BC4" s="223"/>
+      <c r="BD4" s="224"/>
+      <c r="BE4" s="222" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF4" s="225"/>
+      <c r="BG4" s="223"/>
+      <c r="BH4" s="223"/>
+      <c r="BI4" s="223"/>
+      <c r="BJ4" s="223"/>
+      <c r="BK4" s="224"/>
+      <c r="BL4" s="222" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM4" s="223"/>
+      <c r="BN4" s="223"/>
+      <c r="BO4" s="224"/>
+      <c r="BP4" s="222" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ4" s="223"/>
+      <c r="BR4" s="226"/>
+    </row>
+    <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A5" s="142"/>
+      <c r="B5" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="218" t="s">
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="219"/>
-      <c r="K4" s="219"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="219"/>
-      <c r="N4" s="219"/>
-      <c r="O4" s="220"/>
-      <c r="P4" s="218" t="s">
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="Q4" s="219"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="219"/>
-      <c r="T4" s="219"/>
-      <c r="U4" s="219"/>
-      <c r="V4" s="220"/>
-      <c r="W4" s="218" t="s">
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="X4" s="219"/>
-      <c r="Y4" s="219"/>
-      <c r="Z4" s="219"/>
-      <c r="AA4" s="219"/>
-      <c r="AB4" s="219"/>
-      <c r="AC4" s="220"/>
-      <c r="AD4" s="218" t="s">
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="141"/>
+      <c r="AD5" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="AE4" s="219"/>
-      <c r="AF4" s="219"/>
-      <c r="AG4" s="219"/>
-      <c r="AH4" s="219"/>
-      <c r="AI4" s="219"/>
-      <c r="AJ4" s="220"/>
-      <c r="AK4" s="218" t="s">
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="141"/>
+      <c r="AG5" s="141"/>
+      <c r="AH5" s="141"/>
+      <c r="AI5" s="141"/>
+      <c r="AJ5" s="141"/>
+      <c r="AK5" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="AL4" s="224"/>
-      <c r="AM4" s="136" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN4" s="176" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO4" s="177"/>
-      <c r="AP4" s="178"/>
-      <c r="AQ4" s="176" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR4" s="177"/>
-      <c r="AS4" s="177"/>
-      <c r="AT4" s="177"/>
-      <c r="AU4" s="177"/>
-      <c r="AV4" s="177"/>
-      <c r="AW4" s="177"/>
-      <c r="AX4" s="177"/>
-      <c r="AY4" s="177"/>
-      <c r="AZ4" s="177"/>
-      <c r="BA4" s="177"/>
-      <c r="BB4" s="177"/>
-      <c r="BC4" s="177"/>
-      <c r="BD4" s="178"/>
-      <c r="BE4" s="176" t="s">
-        <v>166</v>
-      </c>
-      <c r="BF4" s="179"/>
-      <c r="BG4" s="177"/>
-      <c r="BH4" s="177"/>
-      <c r="BI4" s="177"/>
-      <c r="BJ4" s="177"/>
-      <c r="BK4" s="178"/>
-      <c r="BL4" s="176" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM4" s="177"/>
-      <c r="BN4" s="177"/>
-      <c r="BO4" s="178"/>
-      <c r="BP4" s="176" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ4" s="177"/>
-      <c r="BR4" s="180"/>
+      <c r="AL5" s="141"/>
+      <c r="AM5" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN5" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO5" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP5" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ5" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR5" s="161" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS5" s="162"/>
+      <c r="AT5" s="161" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU5" s="162"/>
+      <c r="AV5" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW5" s="162"/>
+      <c r="AX5" s="161" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY5" s="162"/>
+      <c r="AZ5" s="161" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA5" s="162"/>
+      <c r="BB5" s="161" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC5" s="162"/>
+      <c r="BD5" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE5" s="165" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF5" s="162"/>
+      <c r="BG5" s="166" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH5" s="167"/>
+      <c r="BI5" s="166" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ5" s="167"/>
+      <c r="BK5" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL5" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM5" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN5" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO5" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP5" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ5" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR5" s="134" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91"/>
-      <c r="B5" s="221"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="222"/>
-      <c r="K5" s="222"/>
-      <c r="L5" s="222"/>
-      <c r="M5" s="222"/>
-      <c r="N5" s="222"/>
-      <c r="O5" s="223"/>
-      <c r="P5" s="221"/>
-      <c r="Q5" s="222"/>
-      <c r="R5" s="222"/>
-      <c r="S5" s="222"/>
-      <c r="T5" s="222"/>
-      <c r="U5" s="222"/>
-      <c r="V5" s="223"/>
-      <c r="W5" s="221"/>
-      <c r="X5" s="222"/>
-      <c r="Y5" s="222"/>
-      <c r="Z5" s="222"/>
-      <c r="AA5" s="222"/>
-      <c r="AB5" s="222"/>
-      <c r="AC5" s="223"/>
-      <c r="AD5" s="221"/>
-      <c r="AE5" s="222"/>
-      <c r="AF5" s="222"/>
-      <c r="AG5" s="222"/>
-      <c r="AH5" s="222"/>
-      <c r="AI5" s="222"/>
-      <c r="AJ5" s="223"/>
-      <c r="AK5" s="221"/>
-      <c r="AL5" s="225"/>
-      <c r="AM5" s="137" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN5" s="124" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO5" s="125" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP5" s="126" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ5" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR5" s="234" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS5" s="235"/>
-      <c r="AT5" s="234" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU5" s="235"/>
-      <c r="AV5" s="234" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW5" s="235"/>
-      <c r="AX5" s="234" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY5" s="235"/>
-      <c r="AZ5" s="234" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA5" s="235"/>
-      <c r="BB5" s="234" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC5" s="235"/>
-      <c r="BD5" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="BE5" s="240" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF5" s="235"/>
-      <c r="BG5" s="241" t="s">
-        <v>19</v>
-      </c>
-      <c r="BH5" s="242"/>
-      <c r="BI5" s="241" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ5" s="242"/>
-      <c r="BK5" s="128" t="s">
-        <v>21</v>
-      </c>
-      <c r="BL5" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM5" s="129" t="s">
-        <v>23</v>
-      </c>
-      <c r="BN5" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="BO5" s="130" t="s">
-        <v>25</v>
-      </c>
-      <c r="BP5" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="BQ5" s="132" t="s">
-        <v>27</v>
-      </c>
-      <c r="BR5" s="138" t="s">
-        <v>28</v>
+    <row r="6" spans="1:70" ht="78.75" customHeight="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="182" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="180" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="180" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="180" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="180" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="180" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="178" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="182" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="180" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="180" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="180" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="180" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="180" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="178" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="182" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q6" s="180" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="180" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="180" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="180" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="180" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="178" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" s="182" t="s">
+        <v>162</v>
+      </c>
+      <c r="X6" s="180" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="180" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="180" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6" s="180" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB6" s="180" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="178" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" s="182" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE6" s="180" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" s="180" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG6" s="180" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH6" s="180" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI6" s="180" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="178" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK6" s="182" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL6" s="174" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM6" s="235" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN6" s="235" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO6" s="170" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP6" s="172" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ6" s="233" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR6" s="163" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS6" s="164"/>
+      <c r="AT6" s="163" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU6" s="164"/>
+      <c r="AV6" s="163" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW6" s="164"/>
+      <c r="AX6" s="163" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY6" s="164"/>
+      <c r="AZ6" s="163" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA6" s="164"/>
+      <c r="BB6" s="163" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC6" s="164"/>
+      <c r="BD6" s="243" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE6" s="245" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF6" s="246"/>
+      <c r="BG6" s="247" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH6" s="248"/>
+      <c r="BI6" s="168" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ6" s="169"/>
+      <c r="BK6" s="176" t="s">
+        <v>32</v>
+      </c>
+      <c r="BL6" s="235" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM6" s="170" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN6" s="170" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO6" s="172" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP6" s="237" t="s">
+        <v>44</v>
+      </c>
+      <c r="BQ6" s="241" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR6" s="239" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="228" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="226" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="226" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="226" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="226" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="226" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="230" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="228" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6" s="226" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="226" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="226" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="226" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="226" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="230" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="228" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q6" s="226" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" s="226" t="s">
-        <v>50</v>
-      </c>
-      <c r="S6" s="226" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="226" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" s="226" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" s="230" t="s">
-        <v>54</v>
-      </c>
-      <c r="W6" s="228" t="s">
-        <v>162</v>
-      </c>
-      <c r="X6" s="226" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="226" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="226" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA6" s="226" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB6" s="226" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC6" s="230" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD6" s="228" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE6" s="226" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF6" s="226" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG6" s="226" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH6" s="226" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI6" s="226" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ6" s="230" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK6" s="228" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL6" s="232" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM6" s="151" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN6" s="151" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO6" s="153" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP6" s="159" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ6" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR6" s="155" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS6" s="156"/>
-      <c r="AT6" s="155" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU6" s="156"/>
-      <c r="AV6" s="155" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW6" s="156"/>
-      <c r="AX6" s="155" t="s">
-        <v>37</v>
-      </c>
-      <c r="AY6" s="156"/>
-      <c r="AZ6" s="155" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA6" s="156"/>
-      <c r="BB6" s="155" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC6" s="156"/>
-      <c r="BD6" s="165" t="s">
-        <v>32</v>
-      </c>
-      <c r="BE6" s="167" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF6" s="168"/>
-      <c r="BG6" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="BH6" s="170"/>
-      <c r="BI6" s="243" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ6" s="244"/>
-      <c r="BK6" s="171" t="s">
-        <v>32</v>
-      </c>
-      <c r="BL6" s="151" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM6" s="153" t="s">
-        <v>32</v>
-      </c>
-      <c r="BN6" s="153" t="s">
-        <v>42</v>
-      </c>
-      <c r="BO6" s="159" t="s">
-        <v>43</v>
-      </c>
-      <c r="BP6" s="157" t="s">
-        <v>44</v>
-      </c>
-      <c r="BQ6" s="163" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR6" s="161" t="s">
-        <v>46</v>
-      </c>
+    <row r="7" spans="1:70" s="6" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A7" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="183"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="181"/>
+      <c r="R7" s="181"/>
+      <c r="S7" s="181"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="183"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="181"/>
+      <c r="AA7" s="181"/>
+      <c r="AB7" s="181"/>
+      <c r="AC7" s="179"/>
+      <c r="AD7" s="183"/>
+      <c r="AE7" s="181"/>
+      <c r="AF7" s="181"/>
+      <c r="AG7" s="181"/>
+      <c r="AH7" s="181"/>
+      <c r="AI7" s="181"/>
+      <c r="AJ7" s="179"/>
+      <c r="AK7" s="183"/>
+      <c r="AL7" s="175"/>
+      <c r="AM7" s="236"/>
+      <c r="AN7" s="236"/>
+      <c r="AO7" s="171"/>
+      <c r="AP7" s="173"/>
+      <c r="AQ7" s="234"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT7" s="112"/>
+      <c r="AU7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV7" s="118"/>
+      <c r="AW7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX7" s="119"/>
+      <c r="AY7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB7" s="119"/>
+      <c r="BC7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD7" s="244"/>
+      <c r="BE7" s="113"/>
+      <c r="BF7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG7" s="120"/>
+      <c r="BH7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI7" s="121"/>
+      <c r="BJ7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK7" s="177"/>
+      <c r="BL7" s="236"/>
+      <c r="BM7" s="171"/>
+      <c r="BN7" s="171"/>
+      <c r="BO7" s="173"/>
+      <c r="BP7" s="238"/>
+      <c r="BQ7" s="242"/>
+      <c r="BR7" s="240"/>
     </row>
-    <row r="7" spans="1:70" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="229"/>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="227"/>
-      <c r="K7" s="227"/>
-      <c r="L7" s="227"/>
-      <c r="M7" s="227"/>
-      <c r="N7" s="227"/>
-      <c r="O7" s="231"/>
-      <c r="P7" s="229"/>
-      <c r="Q7" s="227"/>
-      <c r="R7" s="227"/>
-      <c r="S7" s="227"/>
-      <c r="T7" s="227"/>
-      <c r="U7" s="227"/>
-      <c r="V7" s="231"/>
-      <c r="W7" s="229"/>
-      <c r="X7" s="227"/>
-      <c r="Y7" s="227"/>
-      <c r="Z7" s="227"/>
-      <c r="AA7" s="227"/>
-      <c r="AB7" s="227"/>
-      <c r="AC7" s="231"/>
-      <c r="AD7" s="229"/>
-      <c r="AE7" s="227"/>
-      <c r="AF7" s="227"/>
-      <c r="AG7" s="227"/>
-      <c r="AH7" s="227"/>
-      <c r="AI7" s="227"/>
-      <c r="AJ7" s="231"/>
-      <c r="AK7" s="229"/>
-      <c r="AL7" s="233"/>
-      <c r="AM7" s="152"/>
-      <c r="AN7" s="152"/>
-      <c r="AO7" s="154"/>
-      <c r="AP7" s="160"/>
-      <c r="AQ7" s="150"/>
-      <c r="AR7" s="114"/>
-      <c r="AS7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT7" s="114"/>
-      <c r="AU7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV7" s="120"/>
-      <c r="AW7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX7" s="121"/>
-      <c r="AY7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ7" s="121"/>
-      <c r="BA7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB7" s="121"/>
-      <c r="BC7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD7" s="166"/>
-      <c r="BE7" s="115"/>
-      <c r="BF7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="BG7" s="122"/>
-      <c r="BH7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="BI7" s="123"/>
-      <c r="BJ7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="BK7" s="172"/>
-      <c r="BL7" s="152"/>
-      <c r="BM7" s="154"/>
-      <c r="BN7" s="154"/>
-      <c r="BO7" s="160"/>
-      <c r="BP7" s="158"/>
-      <c r="BQ7" s="164"/>
-      <c r="BR7" s="162"/>
-    </row>
-    <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="211" t="s">
+    <row r="8" spans="1:70" ht="30" customHeight="1">
+      <c r="A8" s="185" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="54"/>
@@ -6215,82 +6135,82 @@
       <c r="AJ8" s="56"/>
       <c r="AK8" s="57"/>
       <c r="AL8" s="58"/>
-      <c r="AM8" s="139"/>
+      <c r="AM8" s="135"/>
       <c r="AN8" s="40"/>
       <c r="AO8" s="41"/>
-      <c r="AP8" s="133"/>
+      <c r="AP8" s="131"/>
       <c r="AQ8" s="44"/>
-      <c r="AR8" s="116"/>
-      <c r="AS8" s="116"/>
-      <c r="AT8" s="116"/>
-      <c r="AU8" s="116"/>
-      <c r="AV8" s="116"/>
-      <c r="AW8" s="117"/>
-      <c r="AX8" s="117"/>
-      <c r="AY8" s="117"/>
-      <c r="AZ8" s="117"/>
-      <c r="BA8" s="117"/>
-      <c r="BB8" s="117"/>
-      <c r="BC8" s="117"/>
-      <c r="BD8" s="118"/>
-      <c r="BE8" s="119"/>
-      <c r="BF8" s="117"/>
-      <c r="BG8" s="116"/>
-      <c r="BH8" s="116"/>
-      <c r="BI8" s="116"/>
-      <c r="BJ8" s="117"/>
-      <c r="BK8" s="118"/>
-      <c r="BL8" s="236"/>
-      <c r="BM8" s="117"/>
-      <c r="BN8" s="117"/>
-      <c r="BO8" s="247"/>
-      <c r="BP8" s="236"/>
-      <c r="BQ8" s="117"/>
-      <c r="BR8" s="238"/>
+      <c r="AR8" s="114"/>
+      <c r="AS8" s="114"/>
+      <c r="AT8" s="114"/>
+      <c r="AU8" s="114"/>
+      <c r="AV8" s="114"/>
+      <c r="AW8" s="115"/>
+      <c r="AX8" s="115"/>
+      <c r="AY8" s="115"/>
+      <c r="AZ8" s="115"/>
+      <c r="BA8" s="115"/>
+      <c r="BB8" s="115"/>
+      <c r="BC8" s="115"/>
+      <c r="BD8" s="116"/>
+      <c r="BE8" s="117"/>
+      <c r="BF8" s="115"/>
+      <c r="BG8" s="114"/>
+      <c r="BH8" s="114"/>
+      <c r="BI8" s="114"/>
+      <c r="BJ8" s="115"/>
+      <c r="BK8" s="116"/>
+      <c r="BL8" s="157"/>
+      <c r="BM8" s="115"/>
+      <c r="BN8" s="115"/>
+      <c r="BO8" s="152"/>
+      <c r="BP8" s="157"/>
+      <c r="BQ8" s="115"/>
+      <c r="BR8" s="159"/>
     </row>
-    <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="211"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="105"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="105"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="104"/>
-      <c r="AG9" s="104"/>
-      <c r="AH9" s="104"/>
-      <c r="AI9" s="104"/>
-      <c r="AJ9" s="105"/>
-      <c r="AK9" s="106"/>
-      <c r="AL9" s="107"/>
-      <c r="AM9" s="101"/>
+    <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="185"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="104"/>
+      <c r="AL9" s="105"/>
+      <c r="AM9" s="99"/>
       <c r="AN9" s="48"/>
       <c r="AO9" s="49"/>
-      <c r="AP9" s="134"/>
+      <c r="AP9" s="132"/>
       <c r="AQ9" s="52"/>
       <c r="AR9" s="50"/>
       <c r="AS9" s="50"/>
@@ -6312,16 +6232,16 @@
       <c r="BI9" s="50"/>
       <c r="BJ9" s="50"/>
       <c r="BK9" s="51"/>
-      <c r="BL9" s="237"/>
+      <c r="BL9" s="158"/>
       <c r="BM9" s="50"/>
       <c r="BN9" s="50"/>
-      <c r="BO9" s="248"/>
-      <c r="BP9" s="237"/>
+      <c r="BO9" s="153"/>
+      <c r="BP9" s="158"/>
       <c r="BQ9" s="50"/>
-      <c r="BR9" s="239"/>
+      <c r="BR9" s="160"/>
     </row>
-    <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="212"/>
+    <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="186"/>
       <c r="B10" s="74"/>
       <c r="C10" s="75"/>
       <c r="D10" s="75"/>
@@ -6359,41 +6279,41 @@
       <c r="AJ10" s="76"/>
       <c r="AK10" s="77"/>
       <c r="AL10" s="78"/>
-      <c r="AM10" s="143"/>
-      <c r="AN10" s="144"/>
-      <c r="AO10" s="144"/>
-      <c r="AP10" s="144"/>
-      <c r="AQ10" s="144"/>
-      <c r="AR10" s="144"/>
-      <c r="AS10" s="144"/>
-      <c r="AT10" s="144"/>
-      <c r="AU10" s="144"/>
-      <c r="AV10" s="144"/>
-      <c r="AW10" s="144"/>
-      <c r="AX10" s="144"/>
-      <c r="AY10" s="144"/>
-      <c r="AZ10" s="144"/>
-      <c r="BA10" s="144"/>
-      <c r="BB10" s="144"/>
-      <c r="BC10" s="144"/>
-      <c r="BD10" s="144"/>
-      <c r="BE10" s="144"/>
-      <c r="BF10" s="144"/>
-      <c r="BG10" s="144"/>
-      <c r="BH10" s="144"/>
-      <c r="BI10" s="144"/>
-      <c r="BJ10" s="144"/>
-      <c r="BK10" s="144"/>
-      <c r="BL10" s="144"/>
-      <c r="BM10" s="144"/>
-      <c r="BN10" s="144"/>
-      <c r="BO10" s="144"/>
-      <c r="BP10" s="144"/>
-      <c r="BQ10" s="144"/>
-      <c r="BR10" s="145"/>
+      <c r="AM10" s="230"/>
+      <c r="AN10" s="231"/>
+      <c r="AO10" s="231"/>
+      <c r="AP10" s="231"/>
+      <c r="AQ10" s="231"/>
+      <c r="AR10" s="231"/>
+      <c r="AS10" s="231"/>
+      <c r="AT10" s="231"/>
+      <c r="AU10" s="231"/>
+      <c r="AV10" s="231"/>
+      <c r="AW10" s="231"/>
+      <c r="AX10" s="231"/>
+      <c r="AY10" s="231"/>
+      <c r="AZ10" s="231"/>
+      <c r="BA10" s="231"/>
+      <c r="BB10" s="231"/>
+      <c r="BC10" s="231"/>
+      <c r="BD10" s="231"/>
+      <c r="BE10" s="231"/>
+      <c r="BF10" s="231"/>
+      <c r="BG10" s="231"/>
+      <c r="BH10" s="231"/>
+      <c r="BI10" s="231"/>
+      <c r="BJ10" s="231"/>
+      <c r="BK10" s="231"/>
+      <c r="BL10" s="231"/>
+      <c r="BM10" s="231"/>
+      <c r="BN10" s="231"/>
+      <c r="BO10" s="231"/>
+      <c r="BP10" s="231"/>
+      <c r="BQ10" s="231"/>
+      <c r="BR10" s="232"/>
     </row>
-    <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="210" t="s">
+    <row r="11" spans="1:70" ht="30" customHeight="1">
+      <c r="A11" s="184" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="59"/>
@@ -6433,10 +6353,10 @@
       <c r="AJ11" s="61"/>
       <c r="AK11" s="62"/>
       <c r="AL11" s="63"/>
-      <c r="AM11" s="139"/>
+      <c r="AM11" s="135"/>
       <c r="AN11" s="40"/>
       <c r="AO11" s="41"/>
-      <c r="AP11" s="133"/>
+      <c r="AP11" s="131"/>
       <c r="AQ11" s="44"/>
       <c r="AR11" s="45"/>
       <c r="AS11" s="45"/>
@@ -6458,57 +6378,57 @@
       <c r="BI11" s="45"/>
       <c r="BJ11" s="42"/>
       <c r="BK11" s="43"/>
-      <c r="BL11" s="245"/>
+      <c r="BL11" s="145"/>
       <c r="BM11" s="42"/>
       <c r="BN11" s="42"/>
-      <c r="BO11" s="249"/>
-      <c r="BP11" s="245"/>
+      <c r="BO11" s="150"/>
+      <c r="BP11" s="145"/>
       <c r="BQ11" s="42"/>
-      <c r="BR11" s="251"/>
+      <c r="BR11" s="143"/>
     </row>
-    <row r="12" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="211"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="109"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="109"/>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="110"/>
-      <c r="AK12" s="112"/>
-      <c r="AL12" s="113"/>
-      <c r="AM12" s="99"/>
+    <row r="12" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="185"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="109"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="107"/>
+      <c r="AG12" s="107"/>
+      <c r="AH12" s="107"/>
+      <c r="AI12" s="107"/>
+      <c r="AJ12" s="108"/>
+      <c r="AK12" s="110"/>
+      <c r="AL12" s="111"/>
+      <c r="AM12" s="97"/>
       <c r="AN12" s="48"/>
       <c r="AO12" s="49"/>
-      <c r="AP12" s="134"/>
+      <c r="AP12" s="132"/>
       <c r="AQ12" s="52"/>
       <c r="AR12" s="50"/>
       <c r="AS12" s="50"/>
@@ -6530,16 +6450,16 @@
       <c r="BI12" s="50"/>
       <c r="BJ12" s="50"/>
       <c r="BK12" s="51"/>
-      <c r="BL12" s="246"/>
+      <c r="BL12" s="146"/>
       <c r="BM12" s="50"/>
       <c r="BN12" s="50"/>
-      <c r="BO12" s="250"/>
-      <c r="BP12" s="246"/>
+      <c r="BO12" s="151"/>
+      <c r="BP12" s="146"/>
       <c r="BQ12" s="50"/>
-      <c r="BR12" s="252"/>
+      <c r="BR12" s="144"/>
     </row>
-    <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="211"/>
+    <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="185"/>
       <c r="B13" s="79"/>
       <c r="C13" s="80"/>
       <c r="D13" s="80"/>
@@ -6577,41 +6497,41 @@
       <c r="AJ13" s="81"/>
       <c r="AK13" s="83"/>
       <c r="AL13" s="84"/>
-      <c r="AM13" s="146"/>
-      <c r="AN13" s="147"/>
-      <c r="AO13" s="147"/>
-      <c r="AP13" s="147"/>
-      <c r="AQ13" s="147"/>
-      <c r="AR13" s="147"/>
-      <c r="AS13" s="147"/>
-      <c r="AT13" s="147"/>
-      <c r="AU13" s="147"/>
-      <c r="AV13" s="147"/>
-      <c r="AW13" s="147"/>
-      <c r="AX13" s="147"/>
-      <c r="AY13" s="147"/>
-      <c r="AZ13" s="147"/>
-      <c r="BA13" s="147"/>
-      <c r="BB13" s="147"/>
-      <c r="BC13" s="147"/>
-      <c r="BD13" s="147"/>
-      <c r="BE13" s="147"/>
-      <c r="BF13" s="147"/>
-      <c r="BG13" s="147"/>
-      <c r="BH13" s="147"/>
-      <c r="BI13" s="147"/>
-      <c r="BJ13" s="147"/>
-      <c r="BK13" s="147"/>
-      <c r="BL13" s="147"/>
-      <c r="BM13" s="147"/>
-      <c r="BN13" s="147"/>
-      <c r="BO13" s="147"/>
-      <c r="BP13" s="147"/>
-      <c r="BQ13" s="147"/>
-      <c r="BR13" s="148"/>
+      <c r="AM13" s="147"/>
+      <c r="AN13" s="148"/>
+      <c r="AO13" s="148"/>
+      <c r="AP13" s="148"/>
+      <c r="AQ13" s="148"/>
+      <c r="AR13" s="148"/>
+      <c r="AS13" s="148"/>
+      <c r="AT13" s="148"/>
+      <c r="AU13" s="148"/>
+      <c r="AV13" s="148"/>
+      <c r="AW13" s="148"/>
+      <c r="AX13" s="148"/>
+      <c r="AY13" s="148"/>
+      <c r="AZ13" s="148"/>
+      <c r="BA13" s="148"/>
+      <c r="BB13" s="148"/>
+      <c r="BC13" s="148"/>
+      <c r="BD13" s="148"/>
+      <c r="BE13" s="148"/>
+      <c r="BF13" s="148"/>
+      <c r="BG13" s="148"/>
+      <c r="BH13" s="148"/>
+      <c r="BI13" s="148"/>
+      <c r="BJ13" s="148"/>
+      <c r="BK13" s="148"/>
+      <c r="BL13" s="148"/>
+      <c r="BM13" s="148"/>
+      <c r="BN13" s="148"/>
+      <c r="BO13" s="148"/>
+      <c r="BP13" s="148"/>
+      <c r="BQ13" s="148"/>
+      <c r="BR13" s="149"/>
     </row>
-    <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="210" t="s">
+    <row r="14" spans="1:70" ht="30" customHeight="1">
+      <c r="A14" s="184" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="62"/>
@@ -6651,10 +6571,10 @@
       <c r="AJ14" s="61"/>
       <c r="AK14" s="62"/>
       <c r="AL14" s="63"/>
-      <c r="AM14" s="139"/>
+      <c r="AM14" s="135"/>
       <c r="AN14" s="40"/>
       <c r="AO14" s="41"/>
-      <c r="AP14" s="133"/>
+      <c r="AP14" s="131"/>
       <c r="AQ14" s="44"/>
       <c r="AR14" s="45"/>
       <c r="AS14" s="45"/>
@@ -6676,57 +6596,57 @@
       <c r="BI14" s="45"/>
       <c r="BJ14" s="42"/>
       <c r="BK14" s="43"/>
-      <c r="BL14" s="245"/>
+      <c r="BL14" s="145"/>
       <c r="BM14" s="42"/>
       <c r="BN14" s="42"/>
-      <c r="BO14" s="249"/>
-      <c r="BP14" s="245"/>
+      <c r="BO14" s="150"/>
+      <c r="BP14" s="145"/>
       <c r="BQ14" s="42"/>
-      <c r="BR14" s="251"/>
+      <c r="BR14" s="143"/>
     </row>
-    <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="211"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="108"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="109"/>
-      <c r="Z15" s="109"/>
-      <c r="AA15" s="109"/>
-      <c r="AB15" s="109"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="108"/>
-      <c r="AE15" s="109"/>
-      <c r="AF15" s="109"/>
-      <c r="AG15" s="109"/>
-      <c r="AH15" s="109"/>
-      <c r="AI15" s="109"/>
-      <c r="AJ15" s="110"/>
-      <c r="AK15" s="112"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="99"/>
+    <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="185"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="108"/>
+      <c r="AD15" s="106"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="108"/>
+      <c r="AK15" s="110"/>
+      <c r="AL15" s="111"/>
+      <c r="AM15" s="97"/>
       <c r="AN15" s="48"/>
       <c r="AO15" s="49"/>
-      <c r="AP15" s="134"/>
+      <c r="AP15" s="132"/>
       <c r="AQ15" s="52"/>
       <c r="AR15" s="50"/>
       <c r="AS15" s="50"/>
@@ -6748,16 +6668,16 @@
       <c r="BI15" s="50"/>
       <c r="BJ15" s="50"/>
       <c r="BK15" s="51"/>
-      <c r="BL15" s="246"/>
+      <c r="BL15" s="146"/>
       <c r="BM15" s="50"/>
       <c r="BN15" s="50"/>
-      <c r="BO15" s="250"/>
-      <c r="BP15" s="246"/>
+      <c r="BO15" s="151"/>
+      <c r="BP15" s="146"/>
       <c r="BQ15" s="50"/>
-      <c r="BR15" s="252"/>
+      <c r="BR15" s="144"/>
     </row>
-    <row r="16" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="212"/>
+    <row r="16" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A16" s="186"/>
       <c r="B16" s="85"/>
       <c r="C16" s="86"/>
       <c r="D16" s="86"/>
@@ -6795,41 +6715,41 @@
       <c r="AJ16" s="87"/>
       <c r="AK16" s="88"/>
       <c r="AL16" s="89"/>
-      <c r="AM16" s="146"/>
-      <c r="AN16" s="147"/>
-      <c r="AO16" s="147"/>
-      <c r="AP16" s="147"/>
-      <c r="AQ16" s="147"/>
-      <c r="AR16" s="147"/>
-      <c r="AS16" s="147"/>
-      <c r="AT16" s="147"/>
-      <c r="AU16" s="147"/>
-      <c r="AV16" s="147"/>
-      <c r="AW16" s="147"/>
-      <c r="AX16" s="147"/>
-      <c r="AY16" s="147"/>
-      <c r="AZ16" s="147"/>
-      <c r="BA16" s="147"/>
-      <c r="BB16" s="147"/>
-      <c r="BC16" s="147"/>
-      <c r="BD16" s="147"/>
-      <c r="BE16" s="147"/>
-      <c r="BF16" s="147"/>
-      <c r="BG16" s="147"/>
-      <c r="BH16" s="147"/>
-      <c r="BI16" s="147"/>
-      <c r="BJ16" s="147"/>
-      <c r="BK16" s="147"/>
-      <c r="BL16" s="147"/>
-      <c r="BM16" s="147"/>
-      <c r="BN16" s="147"/>
-      <c r="BO16" s="147"/>
-      <c r="BP16" s="147"/>
-      <c r="BQ16" s="147"/>
-      <c r="BR16" s="148"/>
+      <c r="AM16" s="147"/>
+      <c r="AN16" s="148"/>
+      <c r="AO16" s="148"/>
+      <c r="AP16" s="148"/>
+      <c r="AQ16" s="148"/>
+      <c r="AR16" s="148"/>
+      <c r="AS16" s="148"/>
+      <c r="AT16" s="148"/>
+      <c r="AU16" s="148"/>
+      <c r="AV16" s="148"/>
+      <c r="AW16" s="148"/>
+      <c r="AX16" s="148"/>
+      <c r="AY16" s="148"/>
+      <c r="AZ16" s="148"/>
+      <c r="BA16" s="148"/>
+      <c r="BB16" s="148"/>
+      <c r="BC16" s="148"/>
+      <c r="BD16" s="148"/>
+      <c r="BE16" s="148"/>
+      <c r="BF16" s="148"/>
+      <c r="BG16" s="148"/>
+      <c r="BH16" s="148"/>
+      <c r="BI16" s="148"/>
+      <c r="BJ16" s="148"/>
+      <c r="BK16" s="148"/>
+      <c r="BL16" s="148"/>
+      <c r="BM16" s="148"/>
+      <c r="BN16" s="148"/>
+      <c r="BO16" s="148"/>
+      <c r="BP16" s="148"/>
+      <c r="BQ16" s="148"/>
+      <c r="BR16" s="149"/>
     </row>
-    <row r="17" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="211" t="s">
+    <row r="17" spans="1:70" ht="30" customHeight="1">
+      <c r="A17" s="185" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="57"/>
@@ -6869,10 +6789,10 @@
       <c r="AJ17" s="56"/>
       <c r="AK17" s="57"/>
       <c r="AL17" s="58"/>
-      <c r="AM17" s="139"/>
+      <c r="AM17" s="135"/>
       <c r="AN17" s="40"/>
       <c r="AO17" s="41"/>
-      <c r="AP17" s="133"/>
+      <c r="AP17" s="131"/>
       <c r="AQ17" s="44"/>
       <c r="AR17" s="45"/>
       <c r="AS17" s="45"/>
@@ -6894,57 +6814,57 @@
       <c r="BI17" s="45"/>
       <c r="BJ17" s="42"/>
       <c r="BK17" s="43"/>
-      <c r="BL17" s="245"/>
+      <c r="BL17" s="145"/>
       <c r="BM17" s="42"/>
       <c r="BN17" s="42"/>
-      <c r="BO17" s="249"/>
+      <c r="BO17" s="150"/>
       <c r="BP17" s="44"/>
       <c r="BQ17" s="42"/>
-      <c r="BR17" s="251"/>
+      <c r="BR17" s="143"/>
     </row>
-    <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="211"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="109"/>
-      <c r="Z18" s="109"/>
-      <c r="AA18" s="109"/>
-      <c r="AB18" s="109"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="108"/>
-      <c r="AE18" s="109"/>
-      <c r="AF18" s="109"/>
-      <c r="AG18" s="109"/>
-      <c r="AH18" s="109"/>
-      <c r="AI18" s="109"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="112"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="100"/>
+    <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="185"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="108"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="107"/>
+      <c r="AI18" s="107"/>
+      <c r="AJ18" s="108"/>
+      <c r="AK18" s="110"/>
+      <c r="AL18" s="111"/>
+      <c r="AM18" s="98"/>
       <c r="AN18" s="46"/>
       <c r="AO18" s="47"/>
-      <c r="AP18" s="135"/>
+      <c r="AP18" s="133"/>
       <c r="AQ18" s="52"/>
       <c r="AR18" s="50"/>
       <c r="AS18" s="50"/>
@@ -6966,16 +6886,16 @@
       <c r="BI18" s="50"/>
       <c r="BJ18" s="50"/>
       <c r="BK18" s="51"/>
-      <c r="BL18" s="246"/>
+      <c r="BL18" s="146"/>
       <c r="BM18" s="50"/>
       <c r="BN18" s="50"/>
-      <c r="BO18" s="250"/>
+      <c r="BO18" s="151"/>
       <c r="BP18" s="52"/>
       <c r="BQ18" s="50"/>
-      <c r="BR18" s="252"/>
+      <c r="BR18" s="144"/>
     </row>
-    <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="212"/>
+    <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A19" s="186"/>
       <c r="B19" s="83"/>
       <c r="C19" s="80"/>
       <c r="D19" s="80"/>
@@ -7013,41 +6933,41 @@
       <c r="AJ19" s="81"/>
       <c r="AK19" s="83"/>
       <c r="AL19" s="84"/>
-      <c r="AM19" s="146"/>
-      <c r="AN19" s="147"/>
-      <c r="AO19" s="147"/>
-      <c r="AP19" s="147"/>
-      <c r="AQ19" s="147"/>
-      <c r="AR19" s="147"/>
-      <c r="AS19" s="147"/>
-      <c r="AT19" s="147"/>
-      <c r="AU19" s="147"/>
-      <c r="AV19" s="147"/>
-      <c r="AW19" s="147"/>
-      <c r="AX19" s="147"/>
-      <c r="AY19" s="147"/>
-      <c r="AZ19" s="147"/>
-      <c r="BA19" s="147"/>
-      <c r="BB19" s="147"/>
-      <c r="BC19" s="147"/>
-      <c r="BD19" s="147"/>
-      <c r="BE19" s="147"/>
-      <c r="BF19" s="147"/>
-      <c r="BG19" s="147"/>
-      <c r="BH19" s="147"/>
-      <c r="BI19" s="147"/>
-      <c r="BJ19" s="147"/>
-      <c r="BK19" s="147"/>
-      <c r="BL19" s="147"/>
-      <c r="BM19" s="147"/>
-      <c r="BN19" s="147"/>
-      <c r="BO19" s="147"/>
-      <c r="BP19" s="147"/>
-      <c r="BQ19" s="147"/>
-      <c r="BR19" s="148"/>
+      <c r="AM19" s="147"/>
+      <c r="AN19" s="148"/>
+      <c r="AO19" s="148"/>
+      <c r="AP19" s="148"/>
+      <c r="AQ19" s="148"/>
+      <c r="AR19" s="148"/>
+      <c r="AS19" s="148"/>
+      <c r="AT19" s="148"/>
+      <c r="AU19" s="148"/>
+      <c r="AV19" s="148"/>
+      <c r="AW19" s="148"/>
+      <c r="AX19" s="148"/>
+      <c r="AY19" s="148"/>
+      <c r="AZ19" s="148"/>
+      <c r="BA19" s="148"/>
+      <c r="BB19" s="148"/>
+      <c r="BC19" s="148"/>
+      <c r="BD19" s="148"/>
+      <c r="BE19" s="148"/>
+      <c r="BF19" s="148"/>
+      <c r="BG19" s="148"/>
+      <c r="BH19" s="148"/>
+      <c r="BI19" s="148"/>
+      <c r="BJ19" s="148"/>
+      <c r="BK19" s="148"/>
+      <c r="BL19" s="148"/>
+      <c r="BM19" s="148"/>
+      <c r="BN19" s="148"/>
+      <c r="BO19" s="148"/>
+      <c r="BP19" s="148"/>
+      <c r="BQ19" s="148"/>
+      <c r="BR19" s="149"/>
     </row>
-    <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="210" t="s">
+    <row r="20" spans="1:70" ht="30" customHeight="1">
+      <c r="A20" s="184" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="62"/>
@@ -7087,10 +7007,10 @@
       <c r="AJ20" s="61"/>
       <c r="AK20" s="62"/>
       <c r="AL20" s="63"/>
-      <c r="AM20" s="139"/>
+      <c r="AM20" s="135"/>
       <c r="AN20" s="40"/>
       <c r="AO20" s="41"/>
-      <c r="AP20" s="133"/>
+      <c r="AP20" s="131"/>
       <c r="AQ20" s="44"/>
       <c r="AR20" s="45"/>
       <c r="AS20" s="45"/>
@@ -7112,57 +7032,57 @@
       <c r="BI20" s="45"/>
       <c r="BJ20" s="42"/>
       <c r="BK20" s="43"/>
-      <c r="BL20" s="245"/>
+      <c r="BL20" s="145"/>
       <c r="BM20" s="42"/>
       <c r="BN20" s="42"/>
-      <c r="BO20" s="249"/>
+      <c r="BO20" s="150"/>
       <c r="BP20" s="44"/>
       <c r="BQ20" s="42"/>
-      <c r="BR20" s="251"/>
+      <c r="BR20" s="143"/>
     </row>
-    <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="211"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="109"/>
-      <c r="Y21" s="109"/>
-      <c r="Z21" s="109"/>
-      <c r="AA21" s="109"/>
-      <c r="AB21" s="109"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="108"/>
-      <c r="AE21" s="109"/>
-      <c r="AF21" s="109"/>
-      <c r="AG21" s="109"/>
-      <c r="AH21" s="109"/>
-      <c r="AI21" s="109"/>
-      <c r="AJ21" s="110"/>
-      <c r="AK21" s="112"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="101"/>
+    <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="185"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="106"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="107"/>
+      <c r="AG21" s="107"/>
+      <c r="AH21" s="107"/>
+      <c r="AI21" s="107"/>
+      <c r="AJ21" s="108"/>
+      <c r="AK21" s="110"/>
+      <c r="AL21" s="111"/>
+      <c r="AM21" s="99"/>
       <c r="AN21" s="48"/>
       <c r="AO21" s="49"/>
-      <c r="AP21" s="134"/>
+      <c r="AP21" s="132"/>
       <c r="AQ21" s="52"/>
       <c r="AR21" s="50"/>
       <c r="AS21" s="50"/>
@@ -7184,16 +7104,16 @@
       <c r="BI21" s="50"/>
       <c r="BJ21" s="50"/>
       <c r="BK21" s="51"/>
-      <c r="BL21" s="246"/>
+      <c r="BL21" s="146"/>
       <c r="BM21" s="50"/>
       <c r="BN21" s="50"/>
-      <c r="BO21" s="250"/>
+      <c r="BO21" s="151"/>
       <c r="BP21" s="52"/>
       <c r="BQ21" s="50"/>
-      <c r="BR21" s="252"/>
+      <c r="BR21" s="144"/>
     </row>
-    <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="212"/>
+    <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="186"/>
       <c r="B22" s="83"/>
       <c r="C22" s="80"/>
       <c r="D22" s="80"/>
@@ -7231,41 +7151,41 @@
       <c r="AJ22" s="81"/>
       <c r="AK22" s="83"/>
       <c r="AL22" s="84"/>
-      <c r="AM22" s="146"/>
-      <c r="AN22" s="147"/>
-      <c r="AO22" s="147"/>
-      <c r="AP22" s="147"/>
-      <c r="AQ22" s="147"/>
-      <c r="AR22" s="147"/>
-      <c r="AS22" s="147"/>
-      <c r="AT22" s="147"/>
-      <c r="AU22" s="147"/>
-      <c r="AV22" s="147"/>
-      <c r="AW22" s="147"/>
-      <c r="AX22" s="147"/>
-      <c r="AY22" s="147"/>
-      <c r="AZ22" s="147"/>
-      <c r="BA22" s="147"/>
-      <c r="BB22" s="147"/>
-      <c r="BC22" s="147"/>
-      <c r="BD22" s="147"/>
-      <c r="BE22" s="147"/>
-      <c r="BF22" s="147"/>
-      <c r="BG22" s="147"/>
-      <c r="BH22" s="147"/>
-      <c r="BI22" s="147"/>
-      <c r="BJ22" s="147"/>
-      <c r="BK22" s="147"/>
-      <c r="BL22" s="147"/>
-      <c r="BM22" s="147"/>
-      <c r="BN22" s="147"/>
-      <c r="BO22" s="147"/>
-      <c r="BP22" s="147"/>
-      <c r="BQ22" s="147"/>
-      <c r="BR22" s="148"/>
+      <c r="AM22" s="147"/>
+      <c r="AN22" s="148"/>
+      <c r="AO22" s="148"/>
+      <c r="AP22" s="148"/>
+      <c r="AQ22" s="148"/>
+      <c r="AR22" s="148"/>
+      <c r="AS22" s="148"/>
+      <c r="AT22" s="148"/>
+      <c r="AU22" s="148"/>
+      <c r="AV22" s="148"/>
+      <c r="AW22" s="148"/>
+      <c r="AX22" s="148"/>
+      <c r="AY22" s="148"/>
+      <c r="AZ22" s="148"/>
+      <c r="BA22" s="148"/>
+      <c r="BB22" s="148"/>
+      <c r="BC22" s="148"/>
+      <c r="BD22" s="148"/>
+      <c r="BE22" s="148"/>
+      <c r="BF22" s="148"/>
+      <c r="BG22" s="148"/>
+      <c r="BH22" s="148"/>
+      <c r="BI22" s="148"/>
+      <c r="BJ22" s="148"/>
+      <c r="BK22" s="148"/>
+      <c r="BL22" s="148"/>
+      <c r="BM22" s="148"/>
+      <c r="BN22" s="148"/>
+      <c r="BO22" s="148"/>
+      <c r="BP22" s="148"/>
+      <c r="BQ22" s="148"/>
+      <c r="BR22" s="149"/>
     </row>
-    <row r="23" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="210" t="s">
+    <row r="23" spans="1:70" ht="30" customHeight="1">
+      <c r="A23" s="184" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="62"/>
@@ -7305,10 +7225,10 @@
       <c r="AJ23" s="61"/>
       <c r="AK23" s="62"/>
       <c r="AL23" s="63"/>
-      <c r="AM23" s="139"/>
+      <c r="AM23" s="135"/>
       <c r="AN23" s="40"/>
       <c r="AO23" s="41"/>
-      <c r="AP23" s="133"/>
+      <c r="AP23" s="131"/>
       <c r="AQ23" s="44"/>
       <c r="AR23" s="45"/>
       <c r="AS23" s="45"/>
@@ -7330,57 +7250,57 @@
       <c r="BI23" s="45"/>
       <c r="BJ23" s="42"/>
       <c r="BK23" s="43"/>
-      <c r="BL23" s="245"/>
+      <c r="BL23" s="145"/>
       <c r="BM23" s="42"/>
       <c r="BN23" s="42"/>
-      <c r="BO23" s="249"/>
+      <c r="BO23" s="150"/>
       <c r="BP23" s="44"/>
       <c r="BQ23" s="42"/>
-      <c r="BR23" s="251"/>
+      <c r="BR23" s="143"/>
     </row>
-    <row r="24" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="211"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
-      <c r="U24" s="109"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="108"/>
-      <c r="X24" s="109"/>
-      <c r="Y24" s="109"/>
-      <c r="Z24" s="109"/>
-      <c r="AA24" s="109"/>
-      <c r="AB24" s="109"/>
-      <c r="AC24" s="110"/>
-      <c r="AD24" s="108"/>
-      <c r="AE24" s="109"/>
-      <c r="AF24" s="109"/>
-      <c r="AG24" s="109"/>
-      <c r="AH24" s="109"/>
-      <c r="AI24" s="109"/>
-      <c r="AJ24" s="110"/>
-      <c r="AK24" s="112"/>
-      <c r="AL24" s="113"/>
-      <c r="AM24" s="101"/>
+    <row r="24" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="185"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="107"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="107"/>
+      <c r="AI24" s="107"/>
+      <c r="AJ24" s="108"/>
+      <c r="AK24" s="110"/>
+      <c r="AL24" s="111"/>
+      <c r="AM24" s="99"/>
       <c r="AN24" s="48"/>
       <c r="AO24" s="49"/>
-      <c r="AP24" s="134"/>
+      <c r="AP24" s="132"/>
       <c r="AQ24" s="52"/>
       <c r="AR24" s="50"/>
       <c r="AS24" s="50"/>
@@ -7402,16 +7322,16 @@
       <c r="BI24" s="50"/>
       <c r="BJ24" s="50"/>
       <c r="BK24" s="51"/>
-      <c r="BL24" s="246"/>
+      <c r="BL24" s="146"/>
       <c r="BM24" s="50"/>
       <c r="BN24" s="50"/>
-      <c r="BO24" s="250"/>
+      <c r="BO24" s="151"/>
       <c r="BP24" s="52"/>
       <c r="BQ24" s="50"/>
-      <c r="BR24" s="252"/>
+      <c r="BR24" s="144"/>
     </row>
-    <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="212"/>
+    <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="186"/>
       <c r="B25" s="88"/>
       <c r="C25" s="86"/>
       <c r="D25" s="86"/>
@@ -7449,41 +7369,41 @@
       <c r="AJ25" s="87"/>
       <c r="AK25" s="88"/>
       <c r="AL25" s="89"/>
-      <c r="AM25" s="146"/>
-      <c r="AN25" s="147"/>
-      <c r="AO25" s="147"/>
-      <c r="AP25" s="147"/>
-      <c r="AQ25" s="147"/>
-      <c r="AR25" s="147"/>
-      <c r="AS25" s="147"/>
-      <c r="AT25" s="147"/>
-      <c r="AU25" s="147"/>
-      <c r="AV25" s="147"/>
-      <c r="AW25" s="147"/>
-      <c r="AX25" s="147"/>
-      <c r="AY25" s="147"/>
-      <c r="AZ25" s="147"/>
-      <c r="BA25" s="147"/>
-      <c r="BB25" s="147"/>
-      <c r="BC25" s="147"/>
-      <c r="BD25" s="147"/>
-      <c r="BE25" s="147"/>
-      <c r="BF25" s="147"/>
-      <c r="BG25" s="147"/>
-      <c r="BH25" s="147"/>
-      <c r="BI25" s="147"/>
-      <c r="BJ25" s="147"/>
-      <c r="BK25" s="147"/>
-      <c r="BL25" s="147"/>
-      <c r="BM25" s="147"/>
-      <c r="BN25" s="147"/>
-      <c r="BO25" s="147"/>
-      <c r="BP25" s="147"/>
-      <c r="BQ25" s="147"/>
-      <c r="BR25" s="148"/>
+      <c r="AM25" s="147"/>
+      <c r="AN25" s="148"/>
+      <c r="AO25" s="148"/>
+      <c r="AP25" s="148"/>
+      <c r="AQ25" s="148"/>
+      <c r="AR25" s="148"/>
+      <c r="AS25" s="148"/>
+      <c r="AT25" s="148"/>
+      <c r="AU25" s="148"/>
+      <c r="AV25" s="148"/>
+      <c r="AW25" s="148"/>
+      <c r="AX25" s="148"/>
+      <c r="AY25" s="148"/>
+      <c r="AZ25" s="148"/>
+      <c r="BA25" s="148"/>
+      <c r="BB25" s="148"/>
+      <c r="BC25" s="148"/>
+      <c r="BD25" s="148"/>
+      <c r="BE25" s="148"/>
+      <c r="BF25" s="148"/>
+      <c r="BG25" s="148"/>
+      <c r="BH25" s="148"/>
+      <c r="BI25" s="148"/>
+      <c r="BJ25" s="148"/>
+      <c r="BK25" s="148"/>
+      <c r="BL25" s="148"/>
+      <c r="BM25" s="148"/>
+      <c r="BN25" s="148"/>
+      <c r="BO25" s="148"/>
+      <c r="BP25" s="148"/>
+      <c r="BQ25" s="148"/>
+      <c r="BR25" s="149"/>
     </row>
-    <row r="26" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="210" t="s">
+    <row r="26" spans="1:70" ht="30" customHeight="1">
+      <c r="A26" s="184" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="57"/>
@@ -7523,10 +7443,10 @@
       <c r="AJ26" s="56"/>
       <c r="AK26" s="57"/>
       <c r="AL26" s="58"/>
-      <c r="AM26" s="139"/>
+      <c r="AM26" s="135"/>
       <c r="AN26" s="40"/>
       <c r="AO26" s="41"/>
-      <c r="AP26" s="133"/>
+      <c r="AP26" s="131"/>
       <c r="AQ26" s="44"/>
       <c r="AR26" s="45"/>
       <c r="AS26" s="45"/>
@@ -7548,57 +7468,57 @@
       <c r="BI26" s="45"/>
       <c r="BJ26" s="42"/>
       <c r="BK26" s="43"/>
-      <c r="BL26" s="245"/>
+      <c r="BL26" s="145"/>
       <c r="BM26" s="42"/>
       <c r="BN26" s="42"/>
-      <c r="BO26" s="249"/>
+      <c r="BO26" s="150"/>
       <c r="BP26" s="44"/>
       <c r="BQ26" s="42"/>
-      <c r="BR26" s="251"/>
+      <c r="BR26" s="143"/>
     </row>
-    <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="211"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="108"/>
-      <c r="X27" s="109"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="109"/>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="108"/>
-      <c r="AE27" s="109"/>
-      <c r="AF27" s="109"/>
-      <c r="AG27" s="109"/>
-      <c r="AH27" s="109"/>
-      <c r="AI27" s="109"/>
-      <c r="AJ27" s="110"/>
-      <c r="AK27" s="112"/>
-      <c r="AL27" s="113"/>
-      <c r="AM27" s="101"/>
+    <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="185"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="107"/>
+      <c r="AA27" s="107"/>
+      <c r="AB27" s="107"/>
+      <c r="AC27" s="108"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="107"/>
+      <c r="AF27" s="107"/>
+      <c r="AG27" s="107"/>
+      <c r="AH27" s="107"/>
+      <c r="AI27" s="107"/>
+      <c r="AJ27" s="108"/>
+      <c r="AK27" s="110"/>
+      <c r="AL27" s="111"/>
+      <c r="AM27" s="99"/>
       <c r="AN27" s="48"/>
       <c r="AO27" s="49"/>
-      <c r="AP27" s="134"/>
+      <c r="AP27" s="132"/>
       <c r="AQ27" s="52"/>
       <c r="AR27" s="50"/>
       <c r="AS27" s="50"/>
@@ -7620,16 +7540,16 @@
       <c r="BI27" s="50"/>
       <c r="BJ27" s="50"/>
       <c r="BK27" s="51"/>
-      <c r="BL27" s="246"/>
+      <c r="BL27" s="146"/>
       <c r="BM27" s="50"/>
       <c r="BN27" s="50"/>
-      <c r="BO27" s="250"/>
+      <c r="BO27" s="151"/>
       <c r="BP27" s="52"/>
       <c r="BQ27" s="50"/>
-      <c r="BR27" s="252"/>
+      <c r="BR27" s="144"/>
     </row>
-    <row r="28" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="212"/>
+    <row r="28" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="186"/>
       <c r="B28" s="83"/>
       <c r="C28" s="80"/>
       <c r="D28" s="80"/>
@@ -7667,41 +7587,41 @@
       <c r="AJ28" s="81"/>
       <c r="AK28" s="83"/>
       <c r="AL28" s="84"/>
-      <c r="AM28" s="146"/>
-      <c r="AN28" s="147"/>
-      <c r="AO28" s="147"/>
-      <c r="AP28" s="147"/>
-      <c r="AQ28" s="147"/>
-      <c r="AR28" s="147"/>
-      <c r="AS28" s="147"/>
-      <c r="AT28" s="147"/>
-      <c r="AU28" s="147"/>
-      <c r="AV28" s="147"/>
-      <c r="AW28" s="147"/>
-      <c r="AX28" s="147"/>
-      <c r="AY28" s="147"/>
-      <c r="AZ28" s="147"/>
-      <c r="BA28" s="147"/>
-      <c r="BB28" s="147"/>
-      <c r="BC28" s="147"/>
-      <c r="BD28" s="147"/>
-      <c r="BE28" s="147"/>
-      <c r="BF28" s="147"/>
-      <c r="BG28" s="147"/>
-      <c r="BH28" s="147"/>
-      <c r="BI28" s="147"/>
-      <c r="BJ28" s="147"/>
-      <c r="BK28" s="147"/>
-      <c r="BL28" s="147"/>
-      <c r="BM28" s="147"/>
-      <c r="BN28" s="147"/>
-      <c r="BO28" s="147"/>
-      <c r="BP28" s="147"/>
-      <c r="BQ28" s="147"/>
-      <c r="BR28" s="148"/>
+      <c r="AM28" s="147"/>
+      <c r="AN28" s="148"/>
+      <c r="AO28" s="148"/>
+      <c r="AP28" s="148"/>
+      <c r="AQ28" s="148"/>
+      <c r="AR28" s="148"/>
+      <c r="AS28" s="148"/>
+      <c r="AT28" s="148"/>
+      <c r="AU28" s="148"/>
+      <c r="AV28" s="148"/>
+      <c r="AW28" s="148"/>
+      <c r="AX28" s="148"/>
+      <c r="AY28" s="148"/>
+      <c r="AZ28" s="148"/>
+      <c r="BA28" s="148"/>
+      <c r="BB28" s="148"/>
+      <c r="BC28" s="148"/>
+      <c r="BD28" s="148"/>
+      <c r="BE28" s="148"/>
+      <c r="BF28" s="148"/>
+      <c r="BG28" s="148"/>
+      <c r="BH28" s="148"/>
+      <c r="BI28" s="148"/>
+      <c r="BJ28" s="148"/>
+      <c r="BK28" s="148"/>
+      <c r="BL28" s="148"/>
+      <c r="BM28" s="148"/>
+      <c r="BN28" s="148"/>
+      <c r="BO28" s="148"/>
+      <c r="BP28" s="148"/>
+      <c r="BQ28" s="148"/>
+      <c r="BR28" s="149"/>
     </row>
-    <row r="29" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="214" t="s">
+    <row r="29" spans="1:70" ht="30" customHeight="1">
+      <c r="A29" s="188" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="59"/>
@@ -7741,10 +7661,10 @@
       <c r="AJ29" s="61"/>
       <c r="AK29" s="62"/>
       <c r="AL29" s="63"/>
-      <c r="AM29" s="139"/>
+      <c r="AM29" s="135"/>
       <c r="AN29" s="40"/>
       <c r="AO29" s="41"/>
-      <c r="AP29" s="133"/>
+      <c r="AP29" s="131"/>
       <c r="AQ29" s="44"/>
       <c r="AR29" s="45"/>
       <c r="AS29" s="45"/>
@@ -7766,57 +7686,57 @@
       <c r="BI29" s="45"/>
       <c r="BJ29" s="42"/>
       <c r="BK29" s="43"/>
-      <c r="BL29" s="245"/>
+      <c r="BL29" s="145"/>
       <c r="BM29" s="42"/>
       <c r="BN29" s="42"/>
-      <c r="BO29" s="249"/>
+      <c r="BO29" s="150"/>
       <c r="BP29" s="44"/>
       <c r="BQ29" s="42"/>
-      <c r="BR29" s="251"/>
+      <c r="BR29" s="143"/>
     </row>
-    <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="215"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="109"/>
-      <c r="V30" s="110"/>
-      <c r="W30" s="108"/>
-      <c r="X30" s="109"/>
-      <c r="Y30" s="109"/>
-      <c r="Z30" s="109"/>
-      <c r="AA30" s="109"/>
-      <c r="AB30" s="109"/>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="108"/>
-      <c r="AE30" s="109"/>
-      <c r="AF30" s="109"/>
-      <c r="AG30" s="109"/>
-      <c r="AH30" s="109"/>
-      <c r="AI30" s="109"/>
-      <c r="AJ30" s="110"/>
-      <c r="AK30" s="112"/>
-      <c r="AL30" s="113"/>
-      <c r="AM30" s="101"/>
+    <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="189"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="107"/>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="107"/>
+      <c r="AA30" s="107"/>
+      <c r="AB30" s="107"/>
+      <c r="AC30" s="108"/>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="107"/>
+      <c r="AF30" s="107"/>
+      <c r="AG30" s="107"/>
+      <c r="AH30" s="107"/>
+      <c r="AI30" s="107"/>
+      <c r="AJ30" s="108"/>
+      <c r="AK30" s="110"/>
+      <c r="AL30" s="111"/>
+      <c r="AM30" s="99"/>
       <c r="AN30" s="48"/>
       <c r="AO30" s="49"/>
-      <c r="AP30" s="134"/>
+      <c r="AP30" s="132"/>
       <c r="AQ30" s="52"/>
       <c r="AR30" s="50"/>
       <c r="AS30" s="50"/>
@@ -7838,16 +7758,16 @@
       <c r="BI30" s="50"/>
       <c r="BJ30" s="50"/>
       <c r="BK30" s="51"/>
-      <c r="BL30" s="246"/>
+      <c r="BL30" s="146"/>
       <c r="BM30" s="50"/>
       <c r="BN30" s="50"/>
-      <c r="BO30" s="250"/>
+      <c r="BO30" s="151"/>
       <c r="BP30" s="52"/>
       <c r="BQ30" s="50"/>
-      <c r="BR30" s="252"/>
+      <c r="BR30" s="144"/>
     </row>
-    <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="216"/>
+    <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="190"/>
       <c r="B31" s="85"/>
       <c r="C31" s="86"/>
       <c r="D31" s="86"/>
@@ -7885,41 +7805,41 @@
       <c r="AJ31" s="87"/>
       <c r="AK31" s="88"/>
       <c r="AL31" s="89"/>
-      <c r="AM31" s="146"/>
-      <c r="AN31" s="147"/>
-      <c r="AO31" s="147"/>
-      <c r="AP31" s="147"/>
-      <c r="AQ31" s="147"/>
-      <c r="AR31" s="147"/>
-      <c r="AS31" s="147"/>
-      <c r="AT31" s="147"/>
-      <c r="AU31" s="147"/>
-      <c r="AV31" s="147"/>
-      <c r="AW31" s="147"/>
-      <c r="AX31" s="147"/>
-      <c r="AY31" s="147"/>
-      <c r="AZ31" s="147"/>
-      <c r="BA31" s="147"/>
-      <c r="BB31" s="147"/>
-      <c r="BC31" s="147"/>
-      <c r="BD31" s="147"/>
-      <c r="BE31" s="147"/>
-      <c r="BF31" s="147"/>
-      <c r="BG31" s="147"/>
-      <c r="BH31" s="147"/>
-      <c r="BI31" s="147"/>
-      <c r="BJ31" s="147"/>
-      <c r="BK31" s="147"/>
-      <c r="BL31" s="147"/>
-      <c r="BM31" s="147"/>
-      <c r="BN31" s="147"/>
-      <c r="BO31" s="147"/>
-      <c r="BP31" s="147"/>
-      <c r="BQ31" s="147"/>
-      <c r="BR31" s="148"/>
+      <c r="AM31" s="147"/>
+      <c r="AN31" s="148"/>
+      <c r="AO31" s="148"/>
+      <c r="AP31" s="148"/>
+      <c r="AQ31" s="148"/>
+      <c r="AR31" s="148"/>
+      <c r="AS31" s="148"/>
+      <c r="AT31" s="148"/>
+      <c r="AU31" s="148"/>
+      <c r="AV31" s="148"/>
+      <c r="AW31" s="148"/>
+      <c r="AX31" s="148"/>
+      <c r="AY31" s="148"/>
+      <c r="AZ31" s="148"/>
+      <c r="BA31" s="148"/>
+      <c r="BB31" s="148"/>
+      <c r="BC31" s="148"/>
+      <c r="BD31" s="148"/>
+      <c r="BE31" s="148"/>
+      <c r="BF31" s="148"/>
+      <c r="BG31" s="148"/>
+      <c r="BH31" s="148"/>
+      <c r="BI31" s="148"/>
+      <c r="BJ31" s="148"/>
+      <c r="BK31" s="148"/>
+      <c r="BL31" s="148"/>
+      <c r="BM31" s="148"/>
+      <c r="BN31" s="148"/>
+      <c r="BO31" s="148"/>
+      <c r="BP31" s="148"/>
+      <c r="BQ31" s="148"/>
+      <c r="BR31" s="149"/>
     </row>
-    <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="214" t="s">
+    <row r="32" spans="1:70" ht="30" customHeight="1">
+      <c r="A32" s="188" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="57"/>
@@ -7959,10 +7879,10 @@
       <c r="AJ32" s="56"/>
       <c r="AK32" s="57"/>
       <c r="AL32" s="58"/>
-      <c r="AM32" s="139"/>
+      <c r="AM32" s="135"/>
       <c r="AN32" s="40"/>
       <c r="AO32" s="41"/>
-      <c r="AP32" s="133"/>
+      <c r="AP32" s="131"/>
       <c r="AQ32" s="44"/>
       <c r="AR32" s="45"/>
       <c r="AS32" s="45"/>
@@ -7984,57 +7904,57 @@
       <c r="BI32" s="45"/>
       <c r="BJ32" s="42"/>
       <c r="BK32" s="43"/>
-      <c r="BL32" s="245"/>
+      <c r="BL32" s="145"/>
       <c r="BM32" s="42"/>
       <c r="BN32" s="42"/>
-      <c r="BO32" s="249"/>
+      <c r="BO32" s="150"/>
       <c r="BP32" s="44"/>
       <c r="BQ32" s="42"/>
-      <c r="BR32" s="251"/>
+      <c r="BR32" s="143"/>
     </row>
-    <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="215"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="108"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="108"/>
-      <c r="AE33" s="109"/>
-      <c r="AF33" s="109"/>
-      <c r="AG33" s="109"/>
-      <c r="AH33" s="109"/>
-      <c r="AI33" s="109"/>
-      <c r="AJ33" s="110"/>
-      <c r="AK33" s="112"/>
-      <c r="AL33" s="113"/>
-      <c r="AM33" s="101"/>
+    <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A33" s="189"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="106"/>
+      <c r="X33" s="107"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="107"/>
+      <c r="AA33" s="107"/>
+      <c r="AB33" s="107"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="106"/>
+      <c r="AE33" s="107"/>
+      <c r="AF33" s="107"/>
+      <c r="AG33" s="107"/>
+      <c r="AH33" s="107"/>
+      <c r="AI33" s="107"/>
+      <c r="AJ33" s="108"/>
+      <c r="AK33" s="110"/>
+      <c r="AL33" s="111"/>
+      <c r="AM33" s="99"/>
       <c r="AN33" s="48"/>
       <c r="AO33" s="49"/>
-      <c r="AP33" s="134"/>
+      <c r="AP33" s="132"/>
       <c r="AQ33" s="52"/>
       <c r="AR33" s="50"/>
       <c r="AS33" s="50"/>
@@ -8056,16 +7976,16 @@
       <c r="BI33" s="50"/>
       <c r="BJ33" s="50"/>
       <c r="BK33" s="51"/>
-      <c r="BL33" s="246"/>
+      <c r="BL33" s="146"/>
       <c r="BM33" s="50"/>
       <c r="BN33" s="50"/>
-      <c r="BO33" s="250"/>
+      <c r="BO33" s="151"/>
       <c r="BP33" s="52"/>
       <c r="BQ33" s="50"/>
-      <c r="BR33" s="252"/>
+      <c r="BR33" s="144"/>
     </row>
-    <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="216"/>
+    <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="190"/>
       <c r="B34" s="83"/>
       <c r="C34" s="80"/>
       <c r="D34" s="80"/>
@@ -8103,41 +8023,41 @@
       <c r="AJ34" s="81"/>
       <c r="AK34" s="83"/>
       <c r="AL34" s="84"/>
-      <c r="AM34" s="146"/>
-      <c r="AN34" s="147"/>
-      <c r="AO34" s="147"/>
-      <c r="AP34" s="147"/>
-      <c r="AQ34" s="147"/>
-      <c r="AR34" s="147"/>
-      <c r="AS34" s="147"/>
-      <c r="AT34" s="147"/>
-      <c r="AU34" s="147"/>
-      <c r="AV34" s="147"/>
-      <c r="AW34" s="147"/>
-      <c r="AX34" s="147"/>
-      <c r="AY34" s="147"/>
-      <c r="AZ34" s="147"/>
-      <c r="BA34" s="147"/>
-      <c r="BB34" s="147"/>
-      <c r="BC34" s="147"/>
-      <c r="BD34" s="147"/>
-      <c r="BE34" s="147"/>
-      <c r="BF34" s="147"/>
-      <c r="BG34" s="147"/>
-      <c r="BH34" s="147"/>
-      <c r="BI34" s="147"/>
-      <c r="BJ34" s="147"/>
-      <c r="BK34" s="147"/>
-      <c r="BL34" s="147"/>
-      <c r="BM34" s="147"/>
-      <c r="BN34" s="147"/>
-      <c r="BO34" s="147"/>
-      <c r="BP34" s="147"/>
-      <c r="BQ34" s="147"/>
-      <c r="BR34" s="148"/>
+      <c r="AM34" s="147"/>
+      <c r="AN34" s="148"/>
+      <c r="AO34" s="148"/>
+      <c r="AP34" s="148"/>
+      <c r="AQ34" s="148"/>
+      <c r="AR34" s="148"/>
+      <c r="AS34" s="148"/>
+      <c r="AT34" s="148"/>
+      <c r="AU34" s="148"/>
+      <c r="AV34" s="148"/>
+      <c r="AW34" s="148"/>
+      <c r="AX34" s="148"/>
+      <c r="AY34" s="148"/>
+      <c r="AZ34" s="148"/>
+      <c r="BA34" s="148"/>
+      <c r="BB34" s="148"/>
+      <c r="BC34" s="148"/>
+      <c r="BD34" s="148"/>
+      <c r="BE34" s="148"/>
+      <c r="BF34" s="148"/>
+      <c r="BG34" s="148"/>
+      <c r="BH34" s="148"/>
+      <c r="BI34" s="148"/>
+      <c r="BJ34" s="148"/>
+      <c r="BK34" s="148"/>
+      <c r="BL34" s="148"/>
+      <c r="BM34" s="148"/>
+      <c r="BN34" s="148"/>
+      <c r="BO34" s="148"/>
+      <c r="BP34" s="148"/>
+      <c r="BQ34" s="148"/>
+      <c r="BR34" s="149"/>
     </row>
-    <row r="35" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="210" t="s">
+    <row r="35" spans="1:70" ht="30" customHeight="1">
+      <c r="A35" s="184" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="64"/>
@@ -8177,10 +8097,10 @@
       <c r="AJ35" s="66"/>
       <c r="AK35" s="64"/>
       <c r="AL35" s="68"/>
-      <c r="AM35" s="139"/>
+      <c r="AM35" s="135"/>
       <c r="AN35" s="40"/>
       <c r="AO35" s="41"/>
-      <c r="AP35" s="133"/>
+      <c r="AP35" s="131"/>
       <c r="AQ35" s="44"/>
       <c r="AR35" s="45"/>
       <c r="AS35" s="45"/>
@@ -8202,57 +8122,57 @@
       <c r="BI35" s="45"/>
       <c r="BJ35" s="42"/>
       <c r="BK35" s="43"/>
-      <c r="BL35" s="245"/>
+      <c r="BL35" s="145"/>
       <c r="BM35" s="42"/>
       <c r="BN35" s="42"/>
-      <c r="BO35" s="249"/>
+      <c r="BO35" s="150"/>
       <c r="BP35" s="44"/>
       <c r="BQ35" s="42"/>
-      <c r="BR35" s="251"/>
+      <c r="BR35" s="143"/>
     </row>
-    <row r="36" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="211"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="109"/>
-      <c r="N36" s="109"/>
-      <c r="O36" s="110"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="109"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="109"/>
-      <c r="U36" s="109"/>
-      <c r="V36" s="110"/>
-      <c r="W36" s="108"/>
-      <c r="X36" s="109"/>
-      <c r="Y36" s="109"/>
-      <c r="Z36" s="109"/>
-      <c r="AA36" s="109"/>
-      <c r="AB36" s="109"/>
-      <c r="AC36" s="110"/>
-      <c r="AD36" s="108"/>
-      <c r="AE36" s="109"/>
-      <c r="AF36" s="109"/>
-      <c r="AG36" s="109"/>
-      <c r="AH36" s="109"/>
-      <c r="AI36" s="109"/>
-      <c r="AJ36" s="110"/>
-      <c r="AK36" s="112"/>
-      <c r="AL36" s="113"/>
-      <c r="AM36" s="101"/>
+    <row r="36" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="185"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="107"/>
+      <c r="V36" s="108"/>
+      <c r="W36" s="106"/>
+      <c r="X36" s="107"/>
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="107"/>
+      <c r="AA36" s="107"/>
+      <c r="AB36" s="107"/>
+      <c r="AC36" s="108"/>
+      <c r="AD36" s="106"/>
+      <c r="AE36" s="107"/>
+      <c r="AF36" s="107"/>
+      <c r="AG36" s="107"/>
+      <c r="AH36" s="107"/>
+      <c r="AI36" s="107"/>
+      <c r="AJ36" s="108"/>
+      <c r="AK36" s="110"/>
+      <c r="AL36" s="111"/>
+      <c r="AM36" s="99"/>
       <c r="AN36" s="48"/>
       <c r="AO36" s="49"/>
-      <c r="AP36" s="134"/>
+      <c r="AP36" s="132"/>
       <c r="AQ36" s="52"/>
       <c r="AR36" s="50"/>
       <c r="AS36" s="50"/>
@@ -8274,16 +8194,16 @@
       <c r="BI36" s="50"/>
       <c r="BJ36" s="50"/>
       <c r="BK36" s="51"/>
-      <c r="BL36" s="246"/>
+      <c r="BL36" s="146"/>
       <c r="BM36" s="50"/>
       <c r="BN36" s="50"/>
-      <c r="BO36" s="250"/>
+      <c r="BO36" s="151"/>
       <c r="BP36" s="52"/>
       <c r="BQ36" s="50"/>
-      <c r="BR36" s="252"/>
+      <c r="BR36" s="144"/>
     </row>
-    <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="212"/>
+    <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A37" s="186"/>
       <c r="B37" s="88"/>
       <c r="C37" s="86"/>
       <c r="D37" s="86"/>
@@ -8321,41 +8241,41 @@
       <c r="AJ37" s="87"/>
       <c r="AK37" s="88"/>
       <c r="AL37" s="89"/>
-      <c r="AM37" s="146"/>
-      <c r="AN37" s="147"/>
-      <c r="AO37" s="147"/>
-      <c r="AP37" s="147"/>
-      <c r="AQ37" s="147"/>
-      <c r="AR37" s="147"/>
-      <c r="AS37" s="147"/>
-      <c r="AT37" s="147"/>
-      <c r="AU37" s="147"/>
-      <c r="AV37" s="147"/>
-      <c r="AW37" s="147"/>
-      <c r="AX37" s="147"/>
-      <c r="AY37" s="147"/>
-      <c r="AZ37" s="147"/>
-      <c r="BA37" s="147"/>
-      <c r="BB37" s="147"/>
-      <c r="BC37" s="147"/>
-      <c r="BD37" s="147"/>
-      <c r="BE37" s="147"/>
-      <c r="BF37" s="147"/>
-      <c r="BG37" s="147"/>
-      <c r="BH37" s="147"/>
-      <c r="BI37" s="147"/>
-      <c r="BJ37" s="147"/>
-      <c r="BK37" s="147"/>
-      <c r="BL37" s="147"/>
-      <c r="BM37" s="147"/>
-      <c r="BN37" s="147"/>
-      <c r="BO37" s="147"/>
-      <c r="BP37" s="147"/>
-      <c r="BQ37" s="147"/>
-      <c r="BR37" s="148"/>
+      <c r="AM37" s="147"/>
+      <c r="AN37" s="148"/>
+      <c r="AO37" s="148"/>
+      <c r="AP37" s="148"/>
+      <c r="AQ37" s="148"/>
+      <c r="AR37" s="148"/>
+      <c r="AS37" s="148"/>
+      <c r="AT37" s="148"/>
+      <c r="AU37" s="148"/>
+      <c r="AV37" s="148"/>
+      <c r="AW37" s="148"/>
+      <c r="AX37" s="148"/>
+      <c r="AY37" s="148"/>
+      <c r="AZ37" s="148"/>
+      <c r="BA37" s="148"/>
+      <c r="BB37" s="148"/>
+      <c r="BC37" s="148"/>
+      <c r="BD37" s="148"/>
+      <c r="BE37" s="148"/>
+      <c r="BF37" s="148"/>
+      <c r="BG37" s="148"/>
+      <c r="BH37" s="148"/>
+      <c r="BI37" s="148"/>
+      <c r="BJ37" s="148"/>
+      <c r="BK37" s="148"/>
+      <c r="BL37" s="148"/>
+      <c r="BM37" s="148"/>
+      <c r="BN37" s="148"/>
+      <c r="BO37" s="148"/>
+      <c r="BP37" s="148"/>
+      <c r="BQ37" s="148"/>
+      <c r="BR37" s="149"/>
     </row>
-    <row r="38" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="210" t="s">
+    <row r="38" spans="1:70" ht="30" customHeight="1">
+      <c r="A38" s="184" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="69"/>
@@ -8395,10 +8315,10 @@
       <c r="AJ38" s="71"/>
       <c r="AK38" s="69"/>
       <c r="AL38" s="73"/>
-      <c r="AM38" s="139"/>
+      <c r="AM38" s="135"/>
       <c r="AN38" s="40"/>
       <c r="AO38" s="41"/>
-      <c r="AP38" s="133"/>
+      <c r="AP38" s="131"/>
       <c r="AQ38" s="44"/>
       <c r="AR38" s="45"/>
       <c r="AS38" s="45"/>
@@ -8420,57 +8340,57 @@
       <c r="BI38" s="45"/>
       <c r="BJ38" s="42"/>
       <c r="BK38" s="43"/>
-      <c r="BL38" s="245"/>
+      <c r="BL38" s="145"/>
       <c r="BM38" s="42"/>
       <c r="BN38" s="42"/>
-      <c r="BO38" s="249"/>
+      <c r="BO38" s="150"/>
       <c r="BP38" s="44"/>
       <c r="BQ38" s="42"/>
-      <c r="BR38" s="251"/>
+      <c r="BR38" s="143"/>
     </row>
-    <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="211"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="110"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
-      <c r="U39" s="109"/>
-      <c r="V39" s="110"/>
-      <c r="W39" s="108"/>
-      <c r="X39" s="109"/>
-      <c r="Y39" s="109"/>
-      <c r="Z39" s="109"/>
-      <c r="AA39" s="109"/>
-      <c r="AB39" s="109"/>
-      <c r="AC39" s="110"/>
-      <c r="AD39" s="108"/>
-      <c r="AE39" s="109"/>
-      <c r="AF39" s="109"/>
-      <c r="AG39" s="109"/>
-      <c r="AH39" s="109"/>
-      <c r="AI39" s="109"/>
-      <c r="AJ39" s="110"/>
-      <c r="AK39" s="112"/>
-      <c r="AL39" s="113"/>
-      <c r="AM39" s="99"/>
+    <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A39" s="185"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="106"/>
+      <c r="X39" s="107"/>
+      <c r="Y39" s="107"/>
+      <c r="Z39" s="107"/>
+      <c r="AA39" s="107"/>
+      <c r="AB39" s="107"/>
+      <c r="AC39" s="108"/>
+      <c r="AD39" s="106"/>
+      <c r="AE39" s="107"/>
+      <c r="AF39" s="107"/>
+      <c r="AG39" s="107"/>
+      <c r="AH39" s="107"/>
+      <c r="AI39" s="107"/>
+      <c r="AJ39" s="108"/>
+      <c r="AK39" s="110"/>
+      <c r="AL39" s="111"/>
+      <c r="AM39" s="97"/>
       <c r="AN39" s="48"/>
       <c r="AO39" s="49"/>
-      <c r="AP39" s="134"/>
+      <c r="AP39" s="132"/>
       <c r="AQ39" s="52"/>
       <c r="AR39" s="50"/>
       <c r="AS39" s="50"/>
@@ -8492,16 +8412,16 @@
       <c r="BI39" s="50"/>
       <c r="BJ39" s="50"/>
       <c r="BK39" s="51"/>
-      <c r="BL39" s="246"/>
+      <c r="BL39" s="146"/>
       <c r="BM39" s="50"/>
       <c r="BN39" s="50"/>
-      <c r="BO39" s="250"/>
+      <c r="BO39" s="151"/>
       <c r="BP39" s="52"/>
       <c r="BQ39" s="50"/>
-      <c r="BR39" s="252"/>
+      <c r="BR39" s="144"/>
     </row>
-    <row r="40" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="212"/>
+    <row r="40" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A40" s="186"/>
       <c r="B40" s="83"/>
       <c r="C40" s="80"/>
       <c r="D40" s="80"/>
@@ -8539,41 +8459,41 @@
       <c r="AJ40" s="81"/>
       <c r="AK40" s="83"/>
       <c r="AL40" s="84"/>
-      <c r="AM40" s="146"/>
-      <c r="AN40" s="147"/>
-      <c r="AO40" s="147"/>
-      <c r="AP40" s="147"/>
-      <c r="AQ40" s="147"/>
-      <c r="AR40" s="147"/>
-      <c r="AS40" s="147"/>
-      <c r="AT40" s="147"/>
-      <c r="AU40" s="147"/>
-      <c r="AV40" s="147"/>
-      <c r="AW40" s="147"/>
-      <c r="AX40" s="147"/>
-      <c r="AY40" s="147"/>
-      <c r="AZ40" s="147"/>
-      <c r="BA40" s="147"/>
-      <c r="BB40" s="147"/>
-      <c r="BC40" s="147"/>
-      <c r="BD40" s="147"/>
-      <c r="BE40" s="147"/>
-      <c r="BF40" s="147"/>
-      <c r="BG40" s="147"/>
-      <c r="BH40" s="147"/>
-      <c r="BI40" s="147"/>
-      <c r="BJ40" s="147"/>
-      <c r="BK40" s="147"/>
-      <c r="BL40" s="147"/>
-      <c r="BM40" s="147"/>
-      <c r="BN40" s="147"/>
-      <c r="BO40" s="147"/>
-      <c r="BP40" s="147"/>
-      <c r="BQ40" s="147"/>
-      <c r="BR40" s="148"/>
+      <c r="AM40" s="147"/>
+      <c r="AN40" s="148"/>
+      <c r="AO40" s="148"/>
+      <c r="AP40" s="148"/>
+      <c r="AQ40" s="148"/>
+      <c r="AR40" s="148"/>
+      <c r="AS40" s="148"/>
+      <c r="AT40" s="148"/>
+      <c r="AU40" s="148"/>
+      <c r="AV40" s="148"/>
+      <c r="AW40" s="148"/>
+      <c r="AX40" s="148"/>
+      <c r="AY40" s="148"/>
+      <c r="AZ40" s="148"/>
+      <c r="BA40" s="148"/>
+      <c r="BB40" s="148"/>
+      <c r="BC40" s="148"/>
+      <c r="BD40" s="148"/>
+      <c r="BE40" s="148"/>
+      <c r="BF40" s="148"/>
+      <c r="BG40" s="148"/>
+      <c r="BH40" s="148"/>
+      <c r="BI40" s="148"/>
+      <c r="BJ40" s="148"/>
+      <c r="BK40" s="148"/>
+      <c r="BL40" s="148"/>
+      <c r="BM40" s="148"/>
+      <c r="BN40" s="148"/>
+      <c r="BO40" s="148"/>
+      <c r="BP40" s="148"/>
+      <c r="BQ40" s="148"/>
+      <c r="BR40" s="149"/>
     </row>
-    <row r="41" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="210" t="s">
+    <row r="41" spans="1:70" ht="30" customHeight="1">
+      <c r="A41" s="184" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="62"/>
@@ -8613,10 +8533,10 @@
       <c r="AJ41" s="61"/>
       <c r="AK41" s="62"/>
       <c r="AL41" s="63"/>
-      <c r="AM41" s="139"/>
+      <c r="AM41" s="135"/>
       <c r="AN41" s="40"/>
       <c r="AO41" s="41"/>
-      <c r="AP41" s="133"/>
+      <c r="AP41" s="131"/>
       <c r="AQ41" s="44"/>
       <c r="AR41" s="45"/>
       <c r="AS41" s="45"/>
@@ -8638,57 +8558,57 @@
       <c r="BI41" s="45"/>
       <c r="BJ41" s="42"/>
       <c r="BK41" s="43"/>
-      <c r="BL41" s="245"/>
+      <c r="BL41" s="145"/>
       <c r="BM41" s="42"/>
       <c r="BN41" s="42"/>
-      <c r="BO41" s="249"/>
+      <c r="BO41" s="150"/>
       <c r="BP41" s="44"/>
       <c r="BQ41" s="42"/>
-      <c r="BR41" s="251"/>
+      <c r="BR41" s="143"/>
     </row>
-    <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="211"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="109"/>
-      <c r="N42" s="109"/>
-      <c r="O42" s="110"/>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="109"/>
-      <c r="R42" s="109"/>
-      <c r="S42" s="109"/>
-      <c r="T42" s="109"/>
-      <c r="U42" s="109"/>
-      <c r="V42" s="110"/>
-      <c r="W42" s="108"/>
-      <c r="X42" s="109"/>
-      <c r="Y42" s="109"/>
-      <c r="Z42" s="109"/>
-      <c r="AA42" s="109"/>
-      <c r="AB42" s="109"/>
-      <c r="AC42" s="110"/>
-      <c r="AD42" s="108"/>
-      <c r="AE42" s="109"/>
-      <c r="AF42" s="109"/>
-      <c r="AG42" s="109"/>
-      <c r="AH42" s="109"/>
-      <c r="AI42" s="109"/>
-      <c r="AJ42" s="110"/>
-      <c r="AK42" s="112"/>
-      <c r="AL42" s="113"/>
-      <c r="AM42" s="101"/>
+    <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A42" s="185"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="108"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="107"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="107"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="108"/>
+      <c r="AD42" s="106"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="107"/>
+      <c r="AG42" s="107"/>
+      <c r="AH42" s="107"/>
+      <c r="AI42" s="107"/>
+      <c r="AJ42" s="108"/>
+      <c r="AK42" s="110"/>
+      <c r="AL42" s="111"/>
+      <c r="AM42" s="99"/>
       <c r="AN42" s="48"/>
       <c r="AO42" s="49"/>
-      <c r="AP42" s="134"/>
+      <c r="AP42" s="132"/>
       <c r="AQ42" s="52"/>
       <c r="AR42" s="50"/>
       <c r="AS42" s="50"/>
@@ -8710,91 +8630,91 @@
       <c r="BI42" s="50"/>
       <c r="BJ42" s="50"/>
       <c r="BK42" s="51"/>
-      <c r="BL42" s="246"/>
+      <c r="BL42" s="146"/>
       <c r="BM42" s="50"/>
       <c r="BN42" s="50"/>
-      <c r="BO42" s="250"/>
+      <c r="BO42" s="151"/>
       <c r="BP42" s="52"/>
       <c r="BQ42" s="50"/>
-      <c r="BR42" s="252"/>
+      <c r="BR42" s="144"/>
     </row>
-    <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="213"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="94"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="95"/>
-      <c r="S43" s="95"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="95"/>
-      <c r="V43" s="96"/>
-      <c r="W43" s="94"/>
-      <c r="X43" s="95"/>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="95"/>
-      <c r="AA43" s="95"/>
-      <c r="AB43" s="95"/>
-      <c r="AC43" s="96"/>
-      <c r="AD43" s="94"/>
-      <c r="AE43" s="95"/>
-      <c r="AF43" s="95"/>
-      <c r="AG43" s="95"/>
-      <c r="AH43" s="95"/>
-      <c r="AI43" s="95"/>
-      <c r="AJ43" s="97"/>
-      <c r="AK43" s="94"/>
-      <c r="AL43" s="98"/>
-      <c r="AM43" s="140"/>
-      <c r="AN43" s="141"/>
-      <c r="AO43" s="141"/>
-      <c r="AP43" s="141"/>
-      <c r="AQ43" s="141"/>
-      <c r="AR43" s="141"/>
-      <c r="AS43" s="141"/>
-      <c r="AT43" s="141"/>
-      <c r="AU43" s="141"/>
-      <c r="AV43" s="141"/>
-      <c r="AW43" s="141"/>
-      <c r="AX43" s="141"/>
-      <c r="AY43" s="141"/>
-      <c r="AZ43" s="141"/>
-      <c r="BA43" s="141"/>
-      <c r="BB43" s="141"/>
-      <c r="BC43" s="141"/>
-      <c r="BD43" s="141"/>
-      <c r="BE43" s="141"/>
-      <c r="BF43" s="141"/>
-      <c r="BG43" s="141"/>
-      <c r="BH43" s="141"/>
-      <c r="BI43" s="141"/>
-      <c r="BJ43" s="141"/>
-      <c r="BK43" s="141"/>
-      <c r="BL43" s="141"/>
-      <c r="BM43" s="141"/>
-      <c r="BN43" s="141"/>
-      <c r="BO43" s="141"/>
-      <c r="BP43" s="141"/>
-      <c r="BQ43" s="141"/>
-      <c r="BR43" s="142"/>
+    <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A43" s="187"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="92"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="93"/>
+      <c r="T43" s="93"/>
+      <c r="U43" s="93"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="92"/>
+      <c r="X43" s="93"/>
+      <c r="Y43" s="93"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="93"/>
+      <c r="AB43" s="93"/>
+      <c r="AC43" s="94"/>
+      <c r="AD43" s="92"/>
+      <c r="AE43" s="93"/>
+      <c r="AF43" s="93"/>
+      <c r="AG43" s="93"/>
+      <c r="AH43" s="93"/>
+      <c r="AI43" s="93"/>
+      <c r="AJ43" s="95"/>
+      <c r="AK43" s="92"/>
+      <c r="AL43" s="96"/>
+      <c r="AM43" s="227"/>
+      <c r="AN43" s="228"/>
+      <c r="AO43" s="228"/>
+      <c r="AP43" s="228"/>
+      <c r="AQ43" s="228"/>
+      <c r="AR43" s="228"/>
+      <c r="AS43" s="228"/>
+      <c r="AT43" s="228"/>
+      <c r="AU43" s="228"/>
+      <c r="AV43" s="228"/>
+      <c r="AW43" s="228"/>
+      <c r="AX43" s="228"/>
+      <c r="AY43" s="228"/>
+      <c r="AZ43" s="228"/>
+      <c r="BA43" s="228"/>
+      <c r="BB43" s="228"/>
+      <c r="BC43" s="228"/>
+      <c r="BD43" s="228"/>
+      <c r="BE43" s="228"/>
+      <c r="BF43" s="228"/>
+      <c r="BG43" s="228"/>
+      <c r="BH43" s="228"/>
+      <c r="BI43" s="228"/>
+      <c r="BJ43" s="228"/>
+      <c r="BK43" s="228"/>
+      <c r="BL43" s="228"/>
+      <c r="BM43" s="228"/>
+      <c r="BN43" s="228"/>
+      <c r="BO43" s="228"/>
+      <c r="BP43" s="228"/>
+      <c r="BQ43" s="228"/>
+      <c r="BR43" s="229"/>
     </row>
-    <row r="44" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="188" t="s">
+    <row r="44" spans="1:70" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A44" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="189"/>
+      <c r="B44" s="215"/>
       <c r="C44" s="3" t="s">
         <v>62</v>
       </c>
@@ -8829,12 +8749,12 @@
       <c r="AF44" s="10"/>
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
-      <c r="AI44" s="93"/>
-      <c r="AJ44" s="190" t="s">
+      <c r="AI44" s="91"/>
+      <c r="AJ44" s="216" t="s">
         <v>63</v>
       </c>
-      <c r="AK44" s="191"/>
-      <c r="AL44" s="192"/>
+      <c r="AK44" s="217"/>
+      <c r="AL44" s="218"/>
       <c r="AM44" s="32"/>
       <c r="AN44" s="33"/>
       <c r="AO44" s="34"/>
@@ -8868,7 +8788,7 @@
       <c r="BQ44" s="35"/>
       <c r="BR44" s="38"/>
     </row>
-    <row r="45" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:70" ht="24.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="3"/>
       <c r="C45" s="10"/>
@@ -8938,9 +8858,9 @@
       <c r="BO45" s="13"/>
       <c r="BP45" s="13"/>
       <c r="BQ45" s="13"/>
-      <c r="BR45" s="256"/>
+      <c r="BR45" s="138"/>
     </row>
-    <row r="46" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:70" ht="24.75" customHeight="1">
       <c r="A46" s="14"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -8958,427 +8878,427 @@
       <c r="O46" s="2"/>
       <c r="V46" s="10"/>
       <c r="W46" s="10"/>
-      <c r="BR46" s="254"/>
+      <c r="BR46" s="137"/>
     </row>
-    <row r="47" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="193" t="s">
+    <row r="47" spans="1:70" ht="27.75" customHeight="1">
+      <c r="A47" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="193"/>
-      <c r="C47" s="193"/>
-      <c r="D47" s="194" t="s">
+      <c r="B47" s="211"/>
+      <c r="C47" s="211"/>
+      <c r="D47" s="203" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="195"/>
-      <c r="F47" s="195"/>
+      <c r="E47" s="204"/>
+      <c r="F47" s="204"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="194" t="s">
+      <c r="H47" s="203" t="s">
         <v>66</v>
       </c>
-      <c r="I47" s="195"/>
-      <c r="J47" s="195"/>
+      <c r="I47" s="204"/>
+      <c r="J47" s="204"/>
       <c r="K47" s="15"/>
-      <c r="L47" s="194" t="s">
+      <c r="L47" s="203" t="s">
         <v>67</v>
       </c>
-      <c r="M47" s="195"/>
-      <c r="N47" s="195"/>
+      <c r="M47" s="204"/>
+      <c r="N47" s="204"/>
       <c r="O47" s="15"/>
-      <c r="P47" s="194" t="s">
+      <c r="P47" s="203" t="s">
         <v>68</v>
       </c>
-      <c r="Q47" s="195"/>
-      <c r="R47" s="195"/>
+      <c r="Q47" s="204"/>
+      <c r="R47" s="204"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="194" t="s">
+      <c r="T47" s="203" t="s">
         <v>69</v>
       </c>
-      <c r="U47" s="195"/>
-      <c r="V47" s="195"/>
+      <c r="U47" s="204"/>
+      <c r="V47" s="204"/>
       <c r="W47" s="15"/>
-      <c r="X47" s="194" t="s">
+      <c r="X47" s="203" t="s">
         <v>70</v>
       </c>
-      <c r="Y47" s="195"/>
-      <c r="Z47" s="195"/>
+      <c r="Y47" s="204"/>
+      <c r="Z47" s="204"/>
       <c r="AA47" s="15"/>
-      <c r="AM47" s="196" t="s">
+      <c r="AM47" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="AN47" s="196"/>
-      <c r="AO47" s="196"/>
-      <c r="AP47" s="183"/>
-      <c r="AQ47" s="183"/>
-      <c r="AR47" s="183"/>
-      <c r="AS47" s="183"/>
-      <c r="AT47" s="183"/>
-      <c r="AU47" s="183"/>
-      <c r="AV47" s="183"/>
-      <c r="AW47" s="184"/>
+      <c r="AN47" s="209"/>
+      <c r="AO47" s="209"/>
+      <c r="AP47" s="212"/>
+      <c r="AQ47" s="212"/>
+      <c r="AR47" s="212"/>
+      <c r="AS47" s="212"/>
+      <c r="AT47" s="212"/>
+      <c r="AU47" s="212"/>
+      <c r="AV47" s="212"/>
+      <c r="AW47" s="213"/>
       <c r="AX47" s="11"/>
       <c r="AY47" s="11"/>
       <c r="AZ47" s="11"/>
-      <c r="BC47" s="185" t="s">
+      <c r="BC47" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="BD47" s="185"/>
-      <c r="BE47" s="185"/>
-      <c r="BF47" s="185"/>
-      <c r="BG47" s="185"/>
-      <c r="BH47" s="185"/>
-      <c r="BI47" s="185"/>
-      <c r="BJ47" s="185"/>
-      <c r="BK47" s="186"/>
-      <c r="BL47" s="187"/>
-      <c r="BM47" s="187"/>
-      <c r="BN47" s="187"/>
-      <c r="BO47" s="187"/>
-      <c r="BP47" s="187"/>
-      <c r="BQ47" s="187"/>
-      <c r="BR47" s="255"/>
+      <c r="BD47" s="196"/>
+      <c r="BE47" s="196"/>
+      <c r="BF47" s="196"/>
+      <c r="BG47" s="196"/>
+      <c r="BH47" s="196"/>
+      <c r="BI47" s="196"/>
+      <c r="BJ47" s="196"/>
+      <c r="BK47" s="197"/>
+      <c r="BL47" s="198"/>
+      <c r="BM47" s="198"/>
+      <c r="BN47" s="198"/>
+      <c r="BO47" s="198"/>
+      <c r="BP47" s="198"/>
+      <c r="BQ47" s="198"/>
+      <c r="BR47" s="199"/>
     </row>
-    <row r="48" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="193" t="s">
+    <row r="48" spans="1:70" ht="27.75" customHeight="1">
+      <c r="A48" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="193"/>
-      <c r="C48" s="193"/>
-      <c r="D48" s="194" t="s">
+      <c r="B48" s="211"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="195"/>
-      <c r="F48" s="195"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="204"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="194" t="s">
+      <c r="H48" s="203" t="s">
         <v>75</v>
       </c>
-      <c r="I48" s="195"/>
-      <c r="J48" s="195"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="204"/>
       <c r="K48" s="15"/>
-      <c r="L48" s="194" t="s">
+      <c r="L48" s="203" t="s">
         <v>76</v>
       </c>
-      <c r="M48" s="195"/>
-      <c r="N48" s="195"/>
+      <c r="M48" s="204"/>
+      <c r="N48" s="204"/>
       <c r="O48" s="15"/>
-      <c r="P48" s="194"/>
-      <c r="Q48" s="195"/>
-      <c r="R48" s="195"/>
+      <c r="P48" s="203"/>
+      <c r="Q48" s="204"/>
+      <c r="R48" s="204"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="194"/>
-      <c r="U48" s="195"/>
-      <c r="V48" s="195"/>
+      <c r="T48" s="203"/>
+      <c r="U48" s="204"/>
+      <c r="V48" s="204"/>
       <c r="W48" s="15"/>
-      <c r="X48" s="194"/>
-      <c r="Y48" s="195"/>
-      <c r="Z48" s="195"/>
+      <c r="X48" s="203"/>
+      <c r="Y48" s="204"/>
+      <c r="Z48" s="204"/>
       <c r="AA48" s="15"/>
       <c r="AB48" s="1"/>
-      <c r="AM48" s="196" t="s">
+      <c r="AM48" s="209" t="s">
         <v>77</v>
       </c>
-      <c r="AN48" s="196"/>
-      <c r="AO48" s="196"/>
-      <c r="AP48" s="197"/>
-      <c r="AQ48" s="197"/>
-      <c r="AR48" s="197"/>
-      <c r="AS48" s="197"/>
-      <c r="AT48" s="197"/>
-      <c r="AU48" s="197"/>
-      <c r="AV48" s="197"/>
-      <c r="AW48" s="197"/>
+      <c r="AN48" s="209"/>
+      <c r="AO48" s="209"/>
+      <c r="AP48" s="210"/>
+      <c r="AQ48" s="210"/>
+      <c r="AR48" s="210"/>
+      <c r="AS48" s="210"/>
+      <c r="AT48" s="210"/>
+      <c r="AU48" s="210"/>
+      <c r="AV48" s="210"/>
+      <c r="AW48" s="210"/>
       <c r="AX48" s="11"/>
       <c r="AY48" s="11"/>
       <c r="AZ48" s="11"/>
-      <c r="BC48" s="185" t="s">
+      <c r="BC48" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="BD48" s="185"/>
-      <c r="BE48" s="185"/>
-      <c r="BF48" s="185"/>
-      <c r="BG48" s="185"/>
-      <c r="BH48" s="185"/>
-      <c r="BI48" s="185"/>
-      <c r="BJ48" s="185"/>
-      <c r="BK48" s="186"/>
-      <c r="BL48" s="187"/>
-      <c r="BM48" s="187"/>
-      <c r="BN48" s="187"/>
-      <c r="BO48" s="187"/>
-      <c r="BP48" s="187"/>
-      <c r="BQ48" s="187"/>
-      <c r="BR48" s="255"/>
+      <c r="BD48" s="196"/>
+      <c r="BE48" s="196"/>
+      <c r="BF48" s="196"/>
+      <c r="BG48" s="196"/>
+      <c r="BH48" s="196"/>
+      <c r="BI48" s="196"/>
+      <c r="BJ48" s="196"/>
+      <c r="BK48" s="197"/>
+      <c r="BL48" s="198"/>
+      <c r="BM48" s="198"/>
+      <c r="BN48" s="198"/>
+      <c r="BO48" s="198"/>
+      <c r="BP48" s="198"/>
+      <c r="BQ48" s="198"/>
+      <c r="BR48" s="199"/>
     </row>
-    <row r="49" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="193" t="s">
+    <row r="49" spans="1:70" ht="27.75" customHeight="1">
+      <c r="A49" s="211" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="193"/>
-      <c r="C49" s="193"/>
-      <c r="D49" s="194" t="s">
+      <c r="B49" s="211"/>
+      <c r="C49" s="211"/>
+      <c r="D49" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="195"/>
-      <c r="F49" s="195"/>
+      <c r="E49" s="204"/>
+      <c r="F49" s="204"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="194" t="s">
+      <c r="H49" s="203" t="s">
         <v>81</v>
       </c>
-      <c r="I49" s="195"/>
-      <c r="J49" s="195"/>
+      <c r="I49" s="204"/>
+      <c r="J49" s="204"/>
       <c r="K49" s="15"/>
-      <c r="L49" s="194" t="s">
+      <c r="L49" s="203" t="s">
         <v>82</v>
       </c>
-      <c r="M49" s="195"/>
-      <c r="N49" s="195"/>
+      <c r="M49" s="204"/>
+      <c r="N49" s="204"/>
       <c r="O49" s="15"/>
-      <c r="P49" s="194" t="s">
+      <c r="P49" s="203" t="s">
         <v>83</v>
       </c>
-      <c r="Q49" s="195"/>
-      <c r="R49" s="195"/>
+      <c r="Q49" s="204"/>
+      <c r="R49" s="204"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="194" t="s">
+      <c r="T49" s="203" t="s">
         <v>84</v>
       </c>
-      <c r="U49" s="195"/>
-      <c r="V49" s="195"/>
+      <c r="U49" s="204"/>
+      <c r="V49" s="204"/>
       <c r="W49" s="15"/>
-      <c r="X49" s="194" t="s">
+      <c r="X49" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="Y49" s="195"/>
-      <c r="Z49" s="195"/>
+      <c r="Y49" s="204"/>
+      <c r="Z49" s="204"/>
       <c r="AA49" s="15"/>
       <c r="AJ49" s="4"/>
-      <c r="AM49" s="196" t="s">
+      <c r="AM49" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="AN49" s="196"/>
-      <c r="AO49" s="196"/>
-      <c r="AP49" s="197"/>
-      <c r="AQ49" s="197"/>
-      <c r="AR49" s="197"/>
-      <c r="AS49" s="197"/>
-      <c r="AT49" s="197"/>
-      <c r="AU49" s="197"/>
-      <c r="AV49" s="197"/>
-      <c r="AW49" s="197"/>
+      <c r="AN49" s="209"/>
+      <c r="AO49" s="209"/>
+      <c r="AP49" s="210"/>
+      <c r="AQ49" s="210"/>
+      <c r="AR49" s="210"/>
+      <c r="AS49" s="210"/>
+      <c r="AT49" s="210"/>
+      <c r="AU49" s="210"/>
+      <c r="AV49" s="210"/>
+      <c r="AW49" s="210"/>
       <c r="AX49" s="11"/>
       <c r="AY49" s="11"/>
       <c r="AZ49" s="11"/>
-      <c r="BC49" s="185" t="s">
+      <c r="BC49" s="196" t="s">
         <v>87</v>
       </c>
-      <c r="BD49" s="185"/>
-      <c r="BE49" s="185"/>
-      <c r="BF49" s="185"/>
-      <c r="BG49" s="185"/>
-      <c r="BH49" s="185"/>
-      <c r="BI49" s="185"/>
-      <c r="BJ49" s="185"/>
-      <c r="BK49" s="186"/>
-      <c r="BL49" s="187"/>
-      <c r="BM49" s="187"/>
-      <c r="BN49" s="187"/>
-      <c r="BO49" s="187"/>
-      <c r="BP49" s="187"/>
-      <c r="BQ49" s="187"/>
-      <c r="BR49" s="255"/>
+      <c r="BD49" s="196"/>
+      <c r="BE49" s="196"/>
+      <c r="BF49" s="196"/>
+      <c r="BG49" s="196"/>
+      <c r="BH49" s="196"/>
+      <c r="BI49" s="196"/>
+      <c r="BJ49" s="196"/>
+      <c r="BK49" s="197"/>
+      <c r="BL49" s="198"/>
+      <c r="BM49" s="198"/>
+      <c r="BN49" s="198"/>
+      <c r="BO49" s="198"/>
+      <c r="BP49" s="198"/>
+      <c r="BQ49" s="198"/>
+      <c r="BR49" s="199"/>
     </row>
-    <row r="50" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="193"/>
-      <c r="B50" s="193"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="194" t="s">
+    <row r="50" spans="1:70" ht="27.75" customHeight="1">
+      <c r="A50" s="211"/>
+      <c r="B50" s="211"/>
+      <c r="C50" s="211"/>
+      <c r="D50" s="203" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="195"/>
-      <c r="F50" s="195"/>
+      <c r="E50" s="204"/>
+      <c r="F50" s="204"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="194" t="s">
+      <c r="H50" s="203" t="s">
         <v>89</v>
       </c>
-      <c r="I50" s="195"/>
-      <c r="J50" s="195"/>
+      <c r="I50" s="204"/>
+      <c r="J50" s="204"/>
       <c r="K50" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L50" s="194" t="s">
+      <c r="L50" s="203" t="s">
         <v>91</v>
       </c>
-      <c r="M50" s="195"/>
-      <c r="N50" s="195"/>
+      <c r="M50" s="204"/>
+      <c r="N50" s="204"/>
       <c r="O50" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="P50" s="194"/>
-      <c r="Q50" s="195"/>
-      <c r="R50" s="195"/>
+      <c r="P50" s="203"/>
+      <c r="Q50" s="204"/>
+      <c r="R50" s="204"/>
       <c r="S50" s="15"/>
-      <c r="T50" s="194"/>
-      <c r="U50" s="195"/>
-      <c r="V50" s="195"/>
+      <c r="T50" s="203"/>
+      <c r="U50" s="204"/>
+      <c r="V50" s="204"/>
       <c r="W50" s="15"/>
-      <c r="X50" s="194"/>
-      <c r="Y50" s="195"/>
-      <c r="Z50" s="195"/>
+      <c r="X50" s="203"/>
+      <c r="Y50" s="204"/>
+      <c r="Z50" s="204"/>
       <c r="AA50" s="15"/>
       <c r="AB50" s="1"/>
-      <c r="AM50" s="196" t="s">
+      <c r="AM50" s="209" t="s">
         <v>93</v>
       </c>
-      <c r="AN50" s="196"/>
-      <c r="AO50" s="196"/>
-      <c r="AP50" s="197"/>
-      <c r="AQ50" s="197"/>
-      <c r="AR50" s="197"/>
-      <c r="AS50" s="197"/>
-      <c r="AT50" s="197"/>
-      <c r="AU50" s="197"/>
-      <c r="AV50" s="197"/>
-      <c r="AW50" s="197"/>
+      <c r="AN50" s="209"/>
+      <c r="AO50" s="209"/>
+      <c r="AP50" s="210"/>
+      <c r="AQ50" s="210"/>
+      <c r="AR50" s="210"/>
+      <c r="AS50" s="210"/>
+      <c r="AT50" s="210"/>
+      <c r="AU50" s="210"/>
+      <c r="AV50" s="210"/>
+      <c r="AW50" s="210"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="11"/>
       <c r="AZ50" s="11"/>
-      <c r="BC50" s="185" t="s">
+      <c r="BC50" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="BD50" s="185"/>
-      <c r="BE50" s="185"/>
-      <c r="BF50" s="185"/>
-      <c r="BG50" s="185"/>
-      <c r="BH50" s="185"/>
-      <c r="BI50" s="185"/>
-      <c r="BJ50" s="185"/>
-      <c r="BK50" s="186"/>
-      <c r="BL50" s="187"/>
-      <c r="BM50" s="187"/>
-      <c r="BN50" s="187"/>
-      <c r="BO50" s="187"/>
-      <c r="BP50" s="187"/>
-      <c r="BQ50" s="187"/>
-      <c r="BR50" s="255"/>
+      <c r="BD50" s="196"/>
+      <c r="BE50" s="196"/>
+      <c r="BF50" s="196"/>
+      <c r="BG50" s="196"/>
+      <c r="BH50" s="196"/>
+      <c r="BI50" s="196"/>
+      <c r="BJ50" s="196"/>
+      <c r="BK50" s="197"/>
+      <c r="BL50" s="198"/>
+      <c r="BM50" s="198"/>
+      <c r="BN50" s="198"/>
+      <c r="BO50" s="198"/>
+      <c r="BP50" s="198"/>
+      <c r="BQ50" s="198"/>
+      <c r="BR50" s="199"/>
     </row>
-    <row r="51" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="198" t="s">
+    <row r="51" spans="1:70" ht="27.75" customHeight="1">
+      <c r="A51" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="199"/>
-      <c r="C51" s="200"/>
-      <c r="D51" s="194" t="s">
+      <c r="B51" s="201"/>
+      <c r="C51" s="202"/>
+      <c r="D51" s="203" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="195"/>
-      <c r="F51" s="195"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="204"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="194" t="s">
+      <c r="H51" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="I51" s="195"/>
-      <c r="J51" s="195"/>
+      <c r="I51" s="204"/>
+      <c r="J51" s="204"/>
       <c r="K51" s="15"/>
-      <c r="L51" s="194" t="s">
+      <c r="L51" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="M51" s="195"/>
-      <c r="N51" s="195"/>
+      <c r="M51" s="204"/>
+      <c r="N51" s="204"/>
       <c r="O51" s="15"/>
-      <c r="P51" s="194"/>
-      <c r="Q51" s="195"/>
-      <c r="R51" s="195"/>
+      <c r="P51" s="203"/>
+      <c r="Q51" s="204"/>
+      <c r="R51" s="204"/>
       <c r="S51" s="15"/>
-      <c r="T51" s="194"/>
-      <c r="U51" s="195"/>
-      <c r="V51" s="195"/>
+      <c r="T51" s="203"/>
+      <c r="U51" s="204"/>
+      <c r="V51" s="204"/>
       <c r="W51" s="15"/>
-      <c r="X51" s="194"/>
-      <c r="Y51" s="195"/>
-      <c r="Z51" s="195"/>
+      <c r="X51" s="203"/>
+      <c r="Y51" s="204"/>
+      <c r="Z51" s="204"/>
       <c r="AA51" s="15"/>
       <c r="AB51" s="1"/>
-      <c r="AM51" s="196"/>
-      <c r="AN51" s="196"/>
-      <c r="AO51" s="196"/>
-      <c r="AP51" s="197"/>
-      <c r="AQ51" s="197"/>
-      <c r="AR51" s="197"/>
-      <c r="AS51" s="197"/>
-      <c r="AT51" s="197"/>
-      <c r="AU51" s="197"/>
-      <c r="AV51" s="197"/>
-      <c r="AW51" s="197"/>
+      <c r="AM51" s="209"/>
+      <c r="AN51" s="209"/>
+      <c r="AO51" s="209"/>
+      <c r="AP51" s="210"/>
+      <c r="AQ51" s="210"/>
+      <c r="AR51" s="210"/>
+      <c r="AS51" s="210"/>
+      <c r="AT51" s="210"/>
+      <c r="AU51" s="210"/>
+      <c r="AV51" s="210"/>
+      <c r="AW51" s="210"/>
       <c r="AX51" s="11"/>
       <c r="AY51" s="11"/>
       <c r="AZ51" s="11"/>
-      <c r="BC51" s="185" t="s">
+      <c r="BC51" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="BD51" s="185"/>
-      <c r="BE51" s="185"/>
-      <c r="BF51" s="185"/>
-      <c r="BG51" s="185"/>
-      <c r="BH51" s="185"/>
-      <c r="BI51" s="185"/>
-      <c r="BJ51" s="185"/>
-      <c r="BK51" s="186"/>
-      <c r="BL51" s="187"/>
-      <c r="BM51" s="187"/>
-      <c r="BN51" s="187"/>
-      <c r="BO51" s="187"/>
-      <c r="BP51" s="187"/>
-      <c r="BQ51" s="187"/>
-      <c r="BR51" s="255"/>
+      <c r="BD51" s="196"/>
+      <c r="BE51" s="196"/>
+      <c r="BF51" s="196"/>
+      <c r="BG51" s="196"/>
+      <c r="BH51" s="196"/>
+      <c r="BI51" s="196"/>
+      <c r="BJ51" s="196"/>
+      <c r="BK51" s="197"/>
+      <c r="BL51" s="198"/>
+      <c r="BM51" s="198"/>
+      <c r="BN51" s="198"/>
+      <c r="BO51" s="198"/>
+      <c r="BP51" s="198"/>
+      <c r="BQ51" s="198"/>
+      <c r="BR51" s="199"/>
     </row>
-    <row r="52" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="198" t="s">
+    <row r="52" spans="1:70" ht="27.75" customHeight="1">
+      <c r="A52" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="199"/>
-      <c r="C52" s="200"/>
-      <c r="D52" s="194" t="s">
+      <c r="B52" s="201"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="195"/>
-      <c r="F52" s="195"/>
+      <c r="E52" s="204"/>
+      <c r="F52" s="204"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="194" t="s">
+      <c r="H52" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="I52" s="195"/>
-      <c r="J52" s="195"/>
+      <c r="I52" s="204"/>
+      <c r="J52" s="204"/>
       <c r="K52" s="15"/>
-      <c r="L52" s="194" t="s">
+      <c r="L52" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="M52" s="195"/>
-      <c r="N52" s="195"/>
+      <c r="M52" s="204"/>
+      <c r="N52" s="204"/>
       <c r="O52" s="15"/>
-      <c r="P52" s="194" t="s">
+      <c r="P52" s="203" t="s">
         <v>104</v>
       </c>
-      <c r="Q52" s="195"/>
-      <c r="R52" s="195"/>
+      <c r="Q52" s="204"/>
+      <c r="R52" s="204"/>
       <c r="S52" s="15"/>
-      <c r="T52" s="194" t="s">
+      <c r="T52" s="203" t="s">
         <v>105</v>
       </c>
-      <c r="U52" s="195"/>
-      <c r="V52" s="195"/>
+      <c r="U52" s="204"/>
+      <c r="V52" s="204"/>
       <c r="W52" s="15"/>
-      <c r="X52" s="194" t="s">
+      <c r="X52" s="203" t="s">
         <v>106</v>
       </c>
-      <c r="Y52" s="195"/>
-      <c r="Z52" s="195"/>
+      <c r="Y52" s="204"/>
+      <c r="Z52" s="204"/>
       <c r="AA52" s="15"/>
-      <c r="AI52" s="206"/>
-      <c r="AJ52" s="206"/>
+      <c r="AI52" s="205"/>
+      <c r="AJ52" s="205"/>
       <c r="AK52" s="4"/>
-      <c r="BR52" s="253"/>
+      <c r="BR52" s="136"/>
     </row>
-    <row r="53" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:70" ht="27.75" customHeight="1">
       <c r="A53" s="18"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -9448,9 +9368,9 @@
       <c r="BO53" s="22"/>
       <c r="BP53" s="22"/>
       <c r="BQ53" s="22"/>
-      <c r="BR53" s="254"/>
+      <c r="BR53" s="137"/>
     </row>
-    <row r="54" spans="1:70" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:70" ht="19.5" customHeight="1">
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
@@ -9479,402 +9399,566 @@
       <c r="AI54" s="25"/>
       <c r="AJ54" s="25"/>
     </row>
-    <row r="55" spans="1:70" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:70" ht="18">
       <c r="A55" s="26" t="s">
         <v>107</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
     </row>
-    <row r="56" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A56" s="28">
         <v>1</v>
       </c>
-      <c r="B56" s="201" t="s">
+      <c r="B56" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="201"/>
-      <c r="D56" s="201"/>
-      <c r="E56" s="202" t="s">
+      <c r="C56" s="191"/>
+      <c r="D56" s="191"/>
+      <c r="E56" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="202"/>
-      <c r="G56" s="202"/>
-      <c r="H56" s="202"/>
-      <c r="I56" s="202"/>
-      <c r="J56" s="202"/>
-      <c r="K56" s="202"/>
+      <c r="F56" s="192"/>
+      <c r="G56" s="192"/>
+      <c r="H56" s="192"/>
+      <c r="I56" s="192"/>
+      <c r="J56" s="192"/>
+      <c r="K56" s="192"/>
       <c r="N56" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="O56" s="203" t="s">
+      <c r="O56" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="P56" s="204"/>
-      <c r="Q56" s="205"/>
-      <c r="R56" s="202" t="s">
+      <c r="P56" s="194"/>
+      <c r="Q56" s="195"/>
+      <c r="R56" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="S56" s="202"/>
-      <c r="T56" s="202"/>
-      <c r="U56" s="202"/>
-      <c r="V56" s="202"/>
-      <c r="W56" s="202"/>
-      <c r="X56" s="202"/>
+      <c r="S56" s="192"/>
+      <c r="T56" s="192"/>
+      <c r="U56" s="192"/>
+      <c r="V56" s="192"/>
+      <c r="W56" s="192"/>
+      <c r="X56" s="192"/>
       <c r="AA56" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="AB56" s="207" t="s">
+      <c r="AB56" s="206" t="s">
         <v>114</v>
       </c>
-      <c r="AC56" s="208"/>
-      <c r="AD56" s="208"/>
-      <c r="AE56" s="208"/>
-      <c r="AF56" s="208"/>
-      <c r="AG56" s="208"/>
-      <c r="AH56" s="208"/>
-      <c r="AI56" s="208"/>
-      <c r="AJ56" s="208"/>
-      <c r="AK56" s="208"/>
-      <c r="AL56" s="208"/>
-      <c r="AM56" s="209"/>
+      <c r="AC56" s="207"/>
+      <c r="AD56" s="207"/>
+      <c r="AE56" s="207"/>
+      <c r="AF56" s="207"/>
+      <c r="AG56" s="207"/>
+      <c r="AH56" s="207"/>
+      <c r="AI56" s="207"/>
+      <c r="AJ56" s="207"/>
+      <c r="AK56" s="207"/>
+      <c r="AL56" s="207"/>
+      <c r="AM56" s="208"/>
     </row>
-    <row r="57" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A57" s="28">
         <v>2</v>
       </c>
-      <c r="B57" s="201" t="s">
+      <c r="B57" s="191" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="201"/>
-      <c r="D57" s="201"/>
-      <c r="E57" s="202" t="s">
+      <c r="C57" s="191"/>
+      <c r="D57" s="191"/>
+      <c r="E57" s="192" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="202"/>
-      <c r="G57" s="202"/>
-      <c r="H57" s="202"/>
-      <c r="I57" s="202"/>
-      <c r="J57" s="202"/>
-      <c r="K57" s="202"/>
+      <c r="F57" s="192"/>
+      <c r="G57" s="192"/>
+      <c r="H57" s="192"/>
+      <c r="I57" s="192"/>
+      <c r="J57" s="192"/>
+      <c r="K57" s="192"/>
       <c r="N57" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="O57" s="203" t="s">
+      <c r="O57" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="P57" s="204"/>
-      <c r="Q57" s="205"/>
-      <c r="R57" s="202" t="s">
+      <c r="P57" s="194"/>
+      <c r="Q57" s="195"/>
+      <c r="R57" s="192" t="s">
         <v>119</v>
       </c>
-      <c r="S57" s="202"/>
-      <c r="T57" s="202"/>
-      <c r="U57" s="202"/>
-      <c r="V57" s="202"/>
-      <c r="W57" s="202"/>
-      <c r="X57" s="202"/>
+      <c r="S57" s="192"/>
+      <c r="T57" s="192"/>
+      <c r="U57" s="192"/>
+      <c r="V57" s="192"/>
+      <c r="W57" s="192"/>
+      <c r="X57" s="192"/>
       <c r="AA57" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AB57" s="201" t="s">
+      <c r="AB57" s="191" t="s">
         <v>118</v>
       </c>
-      <c r="AC57" s="201"/>
-      <c r="AD57" s="201"/>
-      <c r="AE57" s="202" t="s">
+      <c r="AC57" s="191"/>
+      <c r="AD57" s="191"/>
+      <c r="AE57" s="192" t="s">
         <v>121</v>
       </c>
-      <c r="AF57" s="202"/>
-      <c r="AG57" s="202"/>
-      <c r="AH57" s="202"/>
-      <c r="AI57" s="202"/>
-      <c r="AJ57" s="202"/>
-      <c r="AK57" s="202"/>
-      <c r="AL57" s="202"/>
-      <c r="AM57" s="202"/>
+      <c r="AF57" s="192"/>
+      <c r="AG57" s="192"/>
+      <c r="AH57" s="192"/>
+      <c r="AI57" s="192"/>
+      <c r="AJ57" s="192"/>
+      <c r="AK57" s="192"/>
+      <c r="AL57" s="192"/>
+      <c r="AM57" s="192"/>
     </row>
-    <row r="58" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A58" s="28">
         <v>3</v>
       </c>
-      <c r="B58" s="201" t="s">
+      <c r="B58" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="201"/>
-      <c r="D58" s="201"/>
-      <c r="E58" s="202" t="s">
+      <c r="C58" s="191"/>
+      <c r="D58" s="191"/>
+      <c r="E58" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="F58" s="202"/>
-      <c r="G58" s="202"/>
-      <c r="H58" s="202"/>
-      <c r="I58" s="202"/>
-      <c r="J58" s="202"/>
-      <c r="K58" s="202"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="192"/>
+      <c r="J58" s="192"/>
+      <c r="K58" s="192"/>
       <c r="N58" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="O58" s="203" t="s">
+      <c r="O58" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="P58" s="204"/>
-      <c r="Q58" s="205"/>
-      <c r="R58" s="202" t="s">
+      <c r="P58" s="194"/>
+      <c r="Q58" s="195"/>
+      <c r="R58" s="192" t="s">
         <v>126</v>
       </c>
-      <c r="S58" s="202"/>
-      <c r="T58" s="202"/>
-      <c r="U58" s="202"/>
-      <c r="V58" s="202"/>
-      <c r="W58" s="202"/>
-      <c r="X58" s="202"/>
+      <c r="S58" s="192"/>
+      <c r="T58" s="192"/>
+      <c r="U58" s="192"/>
+      <c r="V58" s="192"/>
+      <c r="W58" s="192"/>
+      <c r="X58" s="192"/>
       <c r="AA58" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="AB58" s="201" t="s">
+      <c r="AB58" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="AC58" s="201"/>
-      <c r="AD58" s="201"/>
-      <c r="AE58" s="202" t="s">
+      <c r="AC58" s="191"/>
+      <c r="AD58" s="191"/>
+      <c r="AE58" s="192" t="s">
         <v>128</v>
       </c>
-      <c r="AF58" s="202"/>
-      <c r="AG58" s="202"/>
-      <c r="AH58" s="202"/>
-      <c r="AI58" s="202"/>
-      <c r="AJ58" s="202"/>
-      <c r="AK58" s="202"/>
-      <c r="AL58" s="202"/>
-      <c r="AM58" s="202"/>
+      <c r="AF58" s="192"/>
+      <c r="AG58" s="192"/>
+      <c r="AH58" s="192"/>
+      <c r="AI58" s="192"/>
+      <c r="AJ58" s="192"/>
+      <c r="AK58" s="192"/>
+      <c r="AL58" s="192"/>
+      <c r="AM58" s="192"/>
       <c r="AN58" s="30"/>
     </row>
-    <row r="59" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A59" s="28">
         <v>4</v>
       </c>
-      <c r="B59" s="201" t="s">
+      <c r="B59" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="201"/>
-      <c r="D59" s="201"/>
-      <c r="E59" s="202" t="s">
+      <c r="C59" s="191"/>
+      <c r="D59" s="191"/>
+      <c r="E59" s="192" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="202"/>
-      <c r="G59" s="202"/>
-      <c r="H59" s="202"/>
-      <c r="I59" s="202"/>
-      <c r="J59" s="202"/>
-      <c r="K59" s="202"/>
+      <c r="F59" s="192"/>
+      <c r="G59" s="192"/>
+      <c r="H59" s="192"/>
+      <c r="I59" s="192"/>
+      <c r="J59" s="192"/>
+      <c r="K59" s="192"/>
       <c r="N59" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="O59" s="203" t="s">
+      <c r="O59" s="193" t="s">
         <v>132</v>
       </c>
-      <c r="P59" s="204"/>
-      <c r="Q59" s="205"/>
-      <c r="R59" s="202" t="s">
+      <c r="P59" s="194"/>
+      <c r="Q59" s="195"/>
+      <c r="R59" s="192" t="s">
         <v>133</v>
       </c>
-      <c r="S59" s="202"/>
-      <c r="T59" s="202"/>
-      <c r="U59" s="202"/>
-      <c r="V59" s="202"/>
-      <c r="W59" s="202"/>
-      <c r="X59" s="202"/>
+      <c r="S59" s="192"/>
+      <c r="T59" s="192"/>
+      <c r="U59" s="192"/>
+      <c r="V59" s="192"/>
+      <c r="W59" s="192"/>
+      <c r="X59" s="192"/>
       <c r="AA59" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AB59" s="201" t="s">
+      <c r="AB59" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="AC59" s="201"/>
-      <c r="AD59" s="201"/>
-      <c r="AE59" s="202" t="s">
+      <c r="AC59" s="191"/>
+      <c r="AD59" s="191"/>
+      <c r="AE59" s="192" t="s">
         <v>135</v>
       </c>
-      <c r="AF59" s="202"/>
-      <c r="AG59" s="202"/>
-      <c r="AH59" s="202"/>
-      <c r="AI59" s="202"/>
-      <c r="AJ59" s="202"/>
-      <c r="AK59" s="202"/>
-      <c r="AL59" s="202"/>
-      <c r="AM59" s="202"/>
+      <c r="AF59" s="192"/>
+      <c r="AG59" s="192"/>
+      <c r="AH59" s="192"/>
+      <c r="AI59" s="192"/>
+      <c r="AJ59" s="192"/>
+      <c r="AK59" s="192"/>
+      <c r="AL59" s="192"/>
+      <c r="AM59" s="192"/>
       <c r="AN59" s="30"/>
     </row>
-    <row r="60" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A60" s="28">
         <v>5</v>
       </c>
-      <c r="B60" s="201" t="s">
+      <c r="B60" s="191" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="201"/>
-      <c r="D60" s="201"/>
-      <c r="E60" s="202" t="s">
+      <c r="C60" s="191"/>
+      <c r="D60" s="191"/>
+      <c r="E60" s="192" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="202"/>
-      <c r="G60" s="202"/>
-      <c r="H60" s="202"/>
-      <c r="I60" s="202"/>
-      <c r="J60" s="202"/>
-      <c r="K60" s="202"/>
+      <c r="F60" s="192"/>
+      <c r="G60" s="192"/>
+      <c r="H60" s="192"/>
+      <c r="I60" s="192"/>
+      <c r="J60" s="192"/>
+      <c r="K60" s="192"/>
       <c r="N60" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="O60" s="203" t="s">
+      <c r="O60" s="193" t="s">
         <v>139</v>
       </c>
-      <c r="P60" s="204"/>
-      <c r="Q60" s="205"/>
-      <c r="R60" s="202" t="s">
+      <c r="P60" s="194"/>
+      <c r="Q60" s="195"/>
+      <c r="R60" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="S60" s="202"/>
-      <c r="T60" s="202"/>
-      <c r="U60" s="202"/>
-      <c r="V60" s="202"/>
-      <c r="W60" s="202"/>
-      <c r="X60" s="202"/>
+      <c r="S60" s="192"/>
+      <c r="T60" s="192"/>
+      <c r="U60" s="192"/>
+      <c r="V60" s="192"/>
+      <c r="W60" s="192"/>
+      <c r="X60" s="192"/>
       <c r="AA60" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AB60" s="201" t="s">
+      <c r="AB60" s="191" t="s">
         <v>139</v>
       </c>
-      <c r="AC60" s="201"/>
-      <c r="AD60" s="201"/>
-      <c r="AE60" s="202" t="s">
+      <c r="AC60" s="191"/>
+      <c r="AD60" s="191"/>
+      <c r="AE60" s="192" t="s">
         <v>142</v>
       </c>
-      <c r="AF60" s="202"/>
-      <c r="AG60" s="202"/>
-      <c r="AH60" s="202"/>
-      <c r="AI60" s="202"/>
-      <c r="AJ60" s="202"/>
-      <c r="AK60" s="202"/>
-      <c r="AL60" s="202"/>
-      <c r="AM60" s="202"/>
+      <c r="AF60" s="192"/>
+      <c r="AG60" s="192"/>
+      <c r="AH60" s="192"/>
+      <c r="AI60" s="192"/>
+      <c r="AJ60" s="192"/>
+      <c r="AK60" s="192"/>
+      <c r="AL60" s="192"/>
+      <c r="AM60" s="192"/>
       <c r="AN60" s="30"/>
     </row>
-    <row r="61" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A61" s="28">
         <v>6</v>
       </c>
-      <c r="B61" s="201" t="s">
+      <c r="B61" s="191" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="201"/>
-      <c r="D61" s="201"/>
-      <c r="E61" s="202" t="s">
+      <c r="C61" s="191"/>
+      <c r="D61" s="191"/>
+      <c r="E61" s="192" t="s">
         <v>144</v>
       </c>
-      <c r="F61" s="202"/>
-      <c r="G61" s="202"/>
-      <c r="H61" s="202"/>
-      <c r="I61" s="202"/>
-      <c r="J61" s="202"/>
-      <c r="K61" s="202"/>
+      <c r="F61" s="192"/>
+      <c r="G61" s="192"/>
+      <c r="H61" s="192"/>
+      <c r="I61" s="192"/>
+      <c r="J61" s="192"/>
+      <c r="K61" s="192"/>
       <c r="N61" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="O61" s="203" t="s">
+      <c r="O61" s="193" t="s">
         <v>146</v>
       </c>
-      <c r="P61" s="204"/>
-      <c r="Q61" s="205"/>
-      <c r="R61" s="202" t="s">
+      <c r="P61" s="194"/>
+      <c r="Q61" s="195"/>
+      <c r="R61" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="S61" s="202"/>
-      <c r="T61" s="202"/>
-      <c r="U61" s="202"/>
-      <c r="V61" s="202"/>
-      <c r="W61" s="202"/>
-      <c r="X61" s="202"/>
+      <c r="S61" s="192"/>
+      <c r="T61" s="192"/>
+      <c r="U61" s="192"/>
+      <c r="V61" s="192"/>
+      <c r="W61" s="192"/>
+      <c r="X61" s="192"/>
       <c r="AA61" s="28"/>
-      <c r="AB61" s="201" t="s">
+      <c r="AB61" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="AC61" s="201"/>
-      <c r="AD61" s="201"/>
-      <c r="AE61" s="202" t="s">
+      <c r="AC61" s="191"/>
+      <c r="AD61" s="191"/>
+      <c r="AE61" s="192" t="s">
         <v>149</v>
       </c>
-      <c r="AF61" s="202"/>
-      <c r="AG61" s="202"/>
-      <c r="AH61" s="202"/>
-      <c r="AI61" s="202"/>
-      <c r="AJ61" s="202"/>
-      <c r="AK61" s="202"/>
-      <c r="AL61" s="202"/>
-      <c r="AM61" s="202"/>
+      <c r="AF61" s="192"/>
+      <c r="AG61" s="192"/>
+      <c r="AH61" s="192"/>
+      <c r="AI61" s="192"/>
+      <c r="AJ61" s="192"/>
+      <c r="AK61" s="192"/>
+      <c r="AL61" s="192"/>
+      <c r="AM61" s="192"/>
     </row>
-    <row r="62" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A62" s="28">
         <v>7</v>
       </c>
-      <c r="B62" s="201" t="s">
+      <c r="B62" s="191" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="201"/>
-      <c r="D62" s="201"/>
-      <c r="E62" s="202" t="s">
+      <c r="C62" s="191"/>
+      <c r="D62" s="191"/>
+      <c r="E62" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="F62" s="202"/>
-      <c r="G62" s="202"/>
-      <c r="H62" s="202"/>
-      <c r="I62" s="202"/>
-      <c r="J62" s="202"/>
-      <c r="K62" s="202"/>
+      <c r="F62" s="192"/>
+      <c r="G62" s="192"/>
+      <c r="H62" s="192"/>
+      <c r="I62" s="192"/>
+      <c r="J62" s="192"/>
+      <c r="K62" s="192"/>
     </row>
-    <row r="63" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:70" ht="16.5">
       <c r="N63" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="270">
-    <mergeCell ref="BR32:BR33"/>
-    <mergeCell ref="BR35:BR36"/>
-    <mergeCell ref="BR38:BR39"/>
-    <mergeCell ref="BR41:BR42"/>
-    <mergeCell ref="BP11:BP12"/>
-    <mergeCell ref="BP14:BP15"/>
-    <mergeCell ref="BR11:BR12"/>
-    <mergeCell ref="BR14:BR15"/>
-    <mergeCell ref="BR17:BR18"/>
-    <mergeCell ref="BR20:BR21"/>
-    <mergeCell ref="BR23:BR24"/>
-    <mergeCell ref="BR26:BR27"/>
-    <mergeCell ref="BR29:BR30"/>
-    <mergeCell ref="AM40:BR40"/>
-    <mergeCell ref="BL38:BL39"/>
-    <mergeCell ref="BL41:BL42"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BO11:BO12"/>
-    <mergeCell ref="BO14:BO15"/>
-    <mergeCell ref="BO17:BO18"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BO23:BO24"/>
-    <mergeCell ref="BO26:BO27"/>
-    <mergeCell ref="BO29:BO30"/>
-    <mergeCell ref="BO32:BO33"/>
-    <mergeCell ref="BO35:BO36"/>
-    <mergeCell ref="BO38:BO39"/>
-    <mergeCell ref="BO41:BO42"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="BL14:BL15"/>
-    <mergeCell ref="BL17:BL18"/>
-    <mergeCell ref="BL20:BL21"/>
-    <mergeCell ref="BL23:BL24"/>
-    <mergeCell ref="BL26:BL27"/>
-    <mergeCell ref="BL29:BL30"/>
-    <mergeCell ref="BL32:BL33"/>
+  <mergeCells count="272">
+    <mergeCell ref="AM43:BR43"/>
+    <mergeCell ref="AM10:BR10"/>
+    <mergeCell ref="AM13:BR13"/>
+    <mergeCell ref="AM16:BR16"/>
+    <mergeCell ref="AM19:BR19"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AM22:BR22"/>
+    <mergeCell ref="AM25:BR25"/>
+    <mergeCell ref="AM28:BR28"/>
+    <mergeCell ref="AM31:BR31"/>
+    <mergeCell ref="AM34:BR34"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="AM1:BR1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="D3:R3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AP47:AW47"/>
+    <mergeCell ref="BC47:BJ47"/>
+    <mergeCell ref="BK47:BR47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AM47:AO47"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AM49:AO49"/>
+    <mergeCell ref="AP49:AW49"/>
+    <mergeCell ref="BC49:BJ49"/>
+    <mergeCell ref="BK49:BR49"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="AM48:AO48"/>
+    <mergeCell ref="AP48:AW48"/>
+    <mergeCell ref="BC48:BJ48"/>
+    <mergeCell ref="BK48:BR48"/>
+    <mergeCell ref="AM50:AO50"/>
+    <mergeCell ref="AP50:AW50"/>
+    <mergeCell ref="BC50:BJ50"/>
+    <mergeCell ref="BK50:BR50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AM51:AO51"/>
+    <mergeCell ref="AP51:AW51"/>
+    <mergeCell ref="BC51:BJ51"/>
+    <mergeCell ref="BK51:BR51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:K57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="R57:X57"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="AE57:AM57"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="R56:X56"/>
+    <mergeCell ref="AB56:AM56"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:K59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="R59:X59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="AE59:AM59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:K58"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="R58:X58"/>
+    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="AE58:AM58"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:K62"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="R61:X61"/>
+    <mergeCell ref="AB61:AD61"/>
+    <mergeCell ref="AE61:AM61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="R60:X60"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="AE60:AM60"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="BL35:BL36"/>
     <mergeCell ref="AM37:BR37"/>
     <mergeCell ref="AM2:AO2"/>
@@ -9899,216 +9983,54 @@
     <mergeCell ref="BJ3:BL3"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BR35:BR36"/>
+    <mergeCell ref="BR38:BR39"/>
+    <mergeCell ref="BR41:BR42"/>
+    <mergeCell ref="BP11:BP12"/>
+    <mergeCell ref="BP14:BP15"/>
+    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="BR14:BR15"/>
+    <mergeCell ref="BR17:BR18"/>
+    <mergeCell ref="BR20:BR21"/>
+    <mergeCell ref="BR23:BR24"/>
+    <mergeCell ref="BR26:BR27"/>
+    <mergeCell ref="BR29:BR30"/>
+    <mergeCell ref="AM40:BR40"/>
+    <mergeCell ref="BL38:BL39"/>
+    <mergeCell ref="BL41:BL42"/>
+    <mergeCell ref="BO35:BO36"/>
+    <mergeCell ref="BO38:BO39"/>
+    <mergeCell ref="BO41:BO42"/>
+    <mergeCell ref="BL11:BL12"/>
+    <mergeCell ref="BL14:BL15"/>
+    <mergeCell ref="BL17:BL18"/>
+    <mergeCell ref="BL20:BL21"/>
+    <mergeCell ref="BL23:BL24"/>
+    <mergeCell ref="BO11:BO12"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="BR32:BR33"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BO14:BO15"/>
+    <mergeCell ref="BO17:BO18"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BO23:BO24"/>
+    <mergeCell ref="BO26:BO27"/>
+    <mergeCell ref="BO29:BO30"/>
+    <mergeCell ref="BO32:BO33"/>
+    <mergeCell ref="BL26:BL27"/>
+    <mergeCell ref="BL29:BL30"/>
+    <mergeCell ref="BL32:BL33"/>
     <mergeCell ref="BN6:BN7"/>
     <mergeCell ref="BO6:BO7"/>
     <mergeCell ref="AL6:AL7"/>
     <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AD4:AJ5"/>
-    <mergeCell ref="AK4:AL5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:K62"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:K61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="R61:X61"/>
-    <mergeCell ref="AB61:AD61"/>
-    <mergeCell ref="AE61:AM61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:K60"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="R60:X60"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="AE60:AM60"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:K59"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="R59:X59"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="AE59:AM59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:K58"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="R58:X58"/>
-    <mergeCell ref="AB58:AD58"/>
-    <mergeCell ref="AE58:AM58"/>
-    <mergeCell ref="BC51:BJ51"/>
-    <mergeCell ref="BK51:BR51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:K57"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="R57:X57"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="AE57:AM57"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="R56:X56"/>
-    <mergeCell ref="AB56:AM56"/>
-    <mergeCell ref="AM50:AO50"/>
-    <mergeCell ref="AP50:AW50"/>
-    <mergeCell ref="BC50:BJ50"/>
-    <mergeCell ref="BK50:BR50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AM51:AO51"/>
-    <mergeCell ref="AP51:AW51"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AM49:AO49"/>
-    <mergeCell ref="AP49:AW49"/>
-    <mergeCell ref="BC49:BJ49"/>
-    <mergeCell ref="BK49:BR49"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="AM48:AO48"/>
-    <mergeCell ref="AP48:AW48"/>
-    <mergeCell ref="BC48:BJ48"/>
-    <mergeCell ref="BK48:BR48"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AM47:AO47"/>
-    <mergeCell ref="AP47:AW47"/>
-    <mergeCell ref="BC47:BJ47"/>
-    <mergeCell ref="BK47:BR47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="AM1:BR1"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="AF2:AL2"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="D3:R3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="B4:H5"/>
-    <mergeCell ref="I4:O5"/>
-    <mergeCell ref="P4:V5"/>
-    <mergeCell ref="W4:AC5"/>
-    <mergeCell ref="AM43:BR43"/>
-    <mergeCell ref="AM10:BR10"/>
-    <mergeCell ref="AM13:BR13"/>
-    <mergeCell ref="AM16:BR16"/>
-    <mergeCell ref="AM19:BR19"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AM22:BR22"/>
-    <mergeCell ref="AM25:BR25"/>
-    <mergeCell ref="AM28:BR28"/>
-    <mergeCell ref="AM31:BR31"/>
-    <mergeCell ref="AM34:BR34"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="BR6:BR7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BD6:BD7"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A5C49D-E7FB-447D-8F14-7B4D32DE05BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83301032-9B18-4184-A269-D32705F1C919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -759,7 +759,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -2000,7 +2000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2105,45 +2105,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2276,15 +2237,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2327,18 +2279,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2378,20 +2318,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2404,280 +2332,313 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="5" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2728,8 +2689,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5337,13 +5304,13 @@
   </sheetPr>
   <dimension ref="A1:BR63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC8" sqref="AC8:AC10"/>
       <selection pane="bottomLeft" sqref="A1:AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="15" width="5.125" style="5" customWidth="1"/>
@@ -5352,3369 +5319,3369 @@
     <col min="71" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A1" s="219" t="s">
+    <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="207" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="220"/>
-      <c r="S1" s="220"/>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="220"/>
-      <c r="AB1" s="220"/>
-      <c r="AC1" s="220"/>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="220"/>
-      <c r="AH1" s="220"/>
-      <c r="AI1" s="220"/>
-      <c r="AJ1" s="220"/>
-      <c r="AK1" s="220"/>
-      <c r="AL1" s="221"/>
-      <c r="AM1" s="219" t="s">
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="208"/>
+      <c r="AB1" s="208"/>
+      <c r="AC1" s="208"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="208"/>
+      <c r="AG1" s="208"/>
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
+      <c r="AK1" s="208"/>
+      <c r="AL1" s="209"/>
+      <c r="AM1" s="207" t="s">
         <v>160</v>
       </c>
-      <c r="AN1" s="220"/>
-      <c r="AO1" s="220"/>
-      <c r="AP1" s="220"/>
-      <c r="AQ1" s="220"/>
-      <c r="AR1" s="220"/>
-      <c r="AS1" s="220"/>
-      <c r="AT1" s="220"/>
-      <c r="AU1" s="220"/>
-      <c r="AV1" s="220"/>
-      <c r="AW1" s="220"/>
-      <c r="AX1" s="220"/>
-      <c r="AY1" s="220"/>
-      <c r="AZ1" s="220"/>
-      <c r="BA1" s="220"/>
-      <c r="BB1" s="220"/>
-      <c r="BC1" s="220"/>
-      <c r="BD1" s="220"/>
-      <c r="BE1" s="220"/>
-      <c r="BF1" s="220"/>
-      <c r="BG1" s="220"/>
-      <c r="BH1" s="220"/>
-      <c r="BI1" s="220"/>
-      <c r="BJ1" s="220"/>
-      <c r="BK1" s="220"/>
-      <c r="BL1" s="220"/>
-      <c r="BM1" s="220"/>
-      <c r="BN1" s="220"/>
-      <c r="BO1" s="220"/>
-      <c r="BP1" s="220"/>
-      <c r="BQ1" s="220"/>
-      <c r="BR1" s="221"/>
+      <c r="AN1" s="208"/>
+      <c r="AO1" s="208"/>
+      <c r="AP1" s="208"/>
+      <c r="AQ1" s="208"/>
+      <c r="AR1" s="208"/>
+      <c r="AS1" s="208"/>
+      <c r="AT1" s="208"/>
+      <c r="AU1" s="208"/>
+      <c r="AV1" s="208"/>
+      <c r="AW1" s="208"/>
+      <c r="AX1" s="208"/>
+      <c r="AY1" s="208"/>
+      <c r="AZ1" s="208"/>
+      <c r="BA1" s="208"/>
+      <c r="BB1" s="208"/>
+      <c r="BC1" s="208"/>
+      <c r="BD1" s="208"/>
+      <c r="BE1" s="208"/>
+      <c r="BF1" s="208"/>
+      <c r="BG1" s="208"/>
+      <c r="BH1" s="208"/>
+      <c r="BI1" s="208"/>
+      <c r="BJ1" s="208"/>
+      <c r="BK1" s="208"/>
+      <c r="BL1" s="208"/>
+      <c r="BM1" s="208"/>
+      <c r="BN1" s="208"/>
+      <c r="BO1" s="208"/>
+      <c r="BP1" s="208"/>
+      <c r="BQ1" s="208"/>
+      <c r="BR1" s="209"/>
     </row>
-    <row r="2" spans="1:70" ht="24.75" customHeight="1">
-      <c r="A2" s="154" t="s">
+    <row r="2" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155" t="s">
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="155"/>
-      <c r="AJ2" s="155"/>
-      <c r="AK2" s="155"/>
-      <c r="AL2" s="156"/>
-      <c r="AM2" s="154" t="s">
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="154"/>
+      <c r="AJ2" s="154"/>
+      <c r="AK2" s="154"/>
+      <c r="AL2" s="155"/>
+      <c r="AM2" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="AN2" s="155"/>
-      <c r="AO2" s="155"/>
-      <c r="AP2" s="155"/>
-      <c r="AQ2" s="155"/>
-      <c r="AR2" s="155"/>
-      <c r="AS2" s="155"/>
-      <c r="AT2" s="155"/>
-      <c r="AU2" s="155"/>
-      <c r="AV2" s="155"/>
-      <c r="AW2" s="155"/>
-      <c r="AX2" s="155"/>
-      <c r="AY2" s="155"/>
-      <c r="AZ2" s="155"/>
-      <c r="BA2" s="155" t="s">
+      <c r="AN2" s="154"/>
+      <c r="AO2" s="154"/>
+      <c r="AP2" s="154"/>
+      <c r="AQ2" s="154"/>
+      <c r="AR2" s="154"/>
+      <c r="AS2" s="154"/>
+      <c r="AT2" s="154"/>
+      <c r="AU2" s="154"/>
+      <c r="AV2" s="154"/>
+      <c r="AW2" s="154"/>
+      <c r="AX2" s="154"/>
+      <c r="AY2" s="154"/>
+      <c r="AZ2" s="154"/>
+      <c r="BA2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="155"/>
-      <c r="BC2" s="155"/>
-      <c r="BD2" s="155"/>
-      <c r="BE2" s="155"/>
-      <c r="BF2" s="155"/>
-      <c r="BG2" s="155"/>
-      <c r="BH2" s="155"/>
-      <c r="BI2" s="155"/>
-      <c r="BJ2" s="155" t="s">
+      <c r="BB2" s="154"/>
+      <c r="BC2" s="154"/>
+      <c r="BD2" s="154"/>
+      <c r="BE2" s="154"/>
+      <c r="BF2" s="154"/>
+      <c r="BG2" s="154"/>
+      <c r="BH2" s="154"/>
+      <c r="BI2" s="154"/>
+      <c r="BJ2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="155"/>
-      <c r="BL2" s="155"/>
-      <c r="BM2" s="155"/>
-      <c r="BN2" s="155"/>
-      <c r="BO2" s="155"/>
-      <c r="BP2" s="155"/>
-      <c r="BQ2" s="155"/>
-      <c r="BR2" s="156"/>
+      <c r="BK2" s="154"/>
+      <c r="BL2" s="154"/>
+      <c r="BM2" s="154"/>
+      <c r="BN2" s="154"/>
+      <c r="BO2" s="154"/>
+      <c r="BP2" s="154"/>
+      <c r="BQ2" s="154"/>
+      <c r="BR2" s="155"/>
     </row>
-    <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="154" t="s">
+    <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="153" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155" t="s">
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155" t="s">
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="155"/>
-      <c r="AJ3" s="155"/>
-      <c r="AK3" s="155"/>
-      <c r="AL3" s="156"/>
-      <c r="AM3" s="154" t="s">
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="154"/>
+      <c r="AG3" s="154"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="154"/>
+      <c r="AK3" s="154"/>
+      <c r="AL3" s="155"/>
+      <c r="AM3" s="153" t="s">
         <v>161</v>
       </c>
-      <c r="AN3" s="155"/>
-      <c r="AO3" s="155"/>
-      <c r="AP3" s="155"/>
-      <c r="AQ3" s="155"/>
-      <c r="AR3" s="155"/>
-      <c r="AS3" s="155"/>
-      <c r="AT3" s="155"/>
-      <c r="AU3" s="155"/>
-      <c r="AV3" s="155"/>
-      <c r="AW3" s="155"/>
-      <c r="AX3" s="155"/>
-      <c r="AY3" s="155"/>
-      <c r="AZ3" s="155"/>
-      <c r="BA3" s="155" t="s">
+      <c r="AN3" s="154"/>
+      <c r="AO3" s="154"/>
+      <c r="AP3" s="154"/>
+      <c r="AQ3" s="154"/>
+      <c r="AR3" s="154"/>
+      <c r="AS3" s="154"/>
+      <c r="AT3" s="154"/>
+      <c r="AU3" s="154"/>
+      <c r="AV3" s="154"/>
+      <c r="AW3" s="154"/>
+      <c r="AX3" s="154"/>
+      <c r="AY3" s="154"/>
+      <c r="AZ3" s="154"/>
+      <c r="BA3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="155"/>
-      <c r="BC3" s="155"/>
-      <c r="BD3" s="155"/>
-      <c r="BE3" s="155"/>
-      <c r="BF3" s="155"/>
-      <c r="BG3" s="155"/>
-      <c r="BH3" s="155"/>
-      <c r="BI3" s="155"/>
-      <c r="BJ3" s="155" t="s">
+      <c r="BB3" s="154"/>
+      <c r="BC3" s="154"/>
+      <c r="BD3" s="154"/>
+      <c r="BE3" s="154"/>
+      <c r="BF3" s="154"/>
+      <c r="BG3" s="154"/>
+      <c r="BH3" s="154"/>
+      <c r="BI3" s="154"/>
+      <c r="BJ3" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="BK3" s="155"/>
-      <c r="BL3" s="155"/>
-      <c r="BM3" s="155"/>
-      <c r="BN3" s="155"/>
-      <c r="BO3" s="155"/>
-      <c r="BP3" s="155"/>
-      <c r="BQ3" s="155"/>
-      <c r="BR3" s="156"/>
+      <c r="BK3" s="154"/>
+      <c r="BL3" s="154"/>
+      <c r="BM3" s="154"/>
+      <c r="BN3" s="154"/>
+      <c r="BO3" s="154"/>
+      <c r="BP3" s="154"/>
+      <c r="BQ3" s="154"/>
+      <c r="BR3" s="155"/>
     </row>
-    <row r="4" spans="1:70" ht="40.5" customHeight="1">
-      <c r="A4" s="142"/>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249"/>
-      <c r="O4" s="249"/>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249"/>
-      <c r="R4" s="249"/>
-      <c r="S4" s="249"/>
-      <c r="T4" s="249"/>
-      <c r="U4" s="249"/>
-      <c r="V4" s="249"/>
-      <c r="W4" s="249"/>
-      <c r="X4" s="249"/>
-      <c r="Y4" s="249"/>
-      <c r="Z4" s="249"/>
-      <c r="AA4" s="249"/>
-      <c r="AB4" s="249"/>
-      <c r="AC4" s="249"/>
-      <c r="AD4" s="249"/>
-      <c r="AE4" s="249"/>
-      <c r="AF4" s="249"/>
-      <c r="AG4" s="249"/>
-      <c r="AH4" s="249"/>
-      <c r="AI4" s="249"/>
-      <c r="AJ4" s="249"/>
-      <c r="AK4" s="249"/>
-      <c r="AL4" s="249"/>
-      <c r="AM4" s="139" t="s">
+    <row r="4" spans="1:70" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="216"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
+      <c r="H4" s="215"/>
+      <c r="I4" s="215"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
+      <c r="S4" s="215"/>
+      <c r="T4" s="215"/>
+      <c r="U4" s="215"/>
+      <c r="V4" s="215"/>
+      <c r="W4" s="215"/>
+      <c r="X4" s="215"/>
+      <c r="Y4" s="215"/>
+      <c r="Z4" s="215"/>
+      <c r="AA4" s="215"/>
+      <c r="AB4" s="215"/>
+      <c r="AC4" s="215"/>
+      <c r="AD4" s="215"/>
+      <c r="AE4" s="215"/>
+      <c r="AF4" s="215"/>
+      <c r="AG4" s="215"/>
+      <c r="AH4" s="215"/>
+      <c r="AI4" s="215"/>
+      <c r="AJ4" s="215"/>
+      <c r="AK4" s="215"/>
+      <c r="AL4" s="215"/>
+      <c r="AM4" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="AN4" s="222" t="s">
+      <c r="AN4" s="210" t="s">
         <v>164</v>
       </c>
-      <c r="AO4" s="223"/>
-      <c r="AP4" s="224"/>
-      <c r="AQ4" s="222" t="s">
+      <c r="AO4" s="211"/>
+      <c r="AP4" s="212"/>
+      <c r="AQ4" s="210" t="s">
         <v>165</v>
       </c>
-      <c r="AR4" s="223"/>
-      <c r="AS4" s="223"/>
-      <c r="AT4" s="223"/>
-      <c r="AU4" s="223"/>
-      <c r="AV4" s="223"/>
-      <c r="AW4" s="223"/>
-      <c r="AX4" s="223"/>
-      <c r="AY4" s="223"/>
-      <c r="AZ4" s="223"/>
-      <c r="BA4" s="223"/>
-      <c r="BB4" s="223"/>
-      <c r="BC4" s="223"/>
-      <c r="BD4" s="224"/>
-      <c r="BE4" s="222" t="s">
+      <c r="AR4" s="211"/>
+      <c r="AS4" s="211"/>
+      <c r="AT4" s="211"/>
+      <c r="AU4" s="211"/>
+      <c r="AV4" s="211"/>
+      <c r="AW4" s="211"/>
+      <c r="AX4" s="211"/>
+      <c r="AY4" s="211"/>
+      <c r="AZ4" s="211"/>
+      <c r="BA4" s="211"/>
+      <c r="BB4" s="211"/>
+      <c r="BC4" s="211"/>
+      <c r="BD4" s="212"/>
+      <c r="BE4" s="210" t="s">
         <v>166</v>
       </c>
-      <c r="BF4" s="225"/>
-      <c r="BG4" s="223"/>
-      <c r="BH4" s="223"/>
-      <c r="BI4" s="223"/>
-      <c r="BJ4" s="223"/>
-      <c r="BK4" s="224"/>
-      <c r="BL4" s="222" t="s">
+      <c r="BF4" s="213"/>
+      <c r="BG4" s="211"/>
+      <c r="BH4" s="211"/>
+      <c r="BI4" s="211"/>
+      <c r="BJ4" s="211"/>
+      <c r="BK4" s="212"/>
+      <c r="BL4" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="BM4" s="223"/>
-      <c r="BN4" s="223"/>
-      <c r="BO4" s="224"/>
-      <c r="BP4" s="222" t="s">
+      <c r="BM4" s="211"/>
+      <c r="BN4" s="211"/>
+      <c r="BO4" s="212"/>
+      <c r="BP4" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="BQ4" s="223"/>
-      <c r="BR4" s="226"/>
+      <c r="BQ4" s="211"/>
+      <c r="BR4" s="214"/>
     </row>
-    <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A5" s="142"/>
-      <c r="B5" s="141" t="s">
+    <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="216"/>
+      <c r="B5" s="171" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141" t="s">
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141" t="s">
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141" t="s">
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="141"/>
-      <c r="AC5" s="141"/>
-      <c r="AD5" s="141" t="s">
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="171"/>
+      <c r="AC5" s="171"/>
+      <c r="AD5" s="171" t="s">
         <v>158</v>
       </c>
-      <c r="AE5" s="141"/>
-      <c r="AF5" s="141"/>
-      <c r="AG5" s="141"/>
-      <c r="AH5" s="141"/>
-      <c r="AI5" s="141"/>
-      <c r="AJ5" s="141"/>
-      <c r="AK5" s="141" t="s">
+      <c r="AE5" s="171"/>
+      <c r="AF5" s="171"/>
+      <c r="AG5" s="171"/>
+      <c r="AH5" s="171"/>
+      <c r="AI5" s="171"/>
+      <c r="AJ5" s="171"/>
+      <c r="AK5" s="171" t="s">
         <v>159</v>
       </c>
-      <c r="AL5" s="141"/>
-      <c r="AM5" s="140" t="s">
+      <c r="AL5" s="171"/>
+      <c r="AM5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="AN5" s="122" t="s">
+      <c r="AN5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="AO5" s="123" t="s">
+      <c r="AO5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="124" t="s">
+      <c r="AP5" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="AQ5" s="125" t="s">
+      <c r="AQ5" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="161" t="s">
+      <c r="AR5" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="162"/>
-      <c r="AT5" s="161" t="s">
+      <c r="AS5" s="145"/>
+      <c r="AT5" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="162"/>
-      <c r="AV5" s="161" t="s">
+      <c r="AU5" s="145"/>
+      <c r="AV5" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AW5" s="162"/>
-      <c r="AX5" s="161" t="s">
+      <c r="AW5" s="145"/>
+      <c r="AX5" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="162"/>
-      <c r="AZ5" s="161" t="s">
+      <c r="AY5" s="145"/>
+      <c r="AZ5" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="162"/>
-      <c r="BB5" s="161" t="s">
+      <c r="BA5" s="145"/>
+      <c r="BB5" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="BC5" s="162"/>
-      <c r="BD5" s="124" t="s">
+      <c r="BC5" s="145"/>
+      <c r="BD5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="BE5" s="165" t="s">
+      <c r="BE5" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="BF5" s="162"/>
-      <c r="BG5" s="166" t="s">
+      <c r="BF5" s="145"/>
+      <c r="BG5" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="BH5" s="167"/>
-      <c r="BI5" s="166" t="s">
+      <c r="BH5" s="160"/>
+      <c r="BI5" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="167"/>
-      <c r="BK5" s="126" t="s">
+      <c r="BJ5" s="160"/>
+      <c r="BK5" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="BL5" s="122" t="s">
+      <c r="BL5" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="BM5" s="127" t="s">
+      <c r="BM5" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="BN5" s="127" t="s">
+      <c r="BN5" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="BO5" s="128" t="s">
+      <c r="BO5" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="BP5" s="129" t="s">
+      <c r="BP5" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="BQ5" s="130" t="s">
+      <c r="BQ5" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="BR5" s="134" t="s">
+      <c r="BR5" s="111" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:70" ht="78.75" customHeight="1">
+    <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="180" t="s">
+      <c r="D6" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="180" t="s">
+      <c r="E6" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="180" t="s">
+      <c r="F6" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="180" t="s">
+      <c r="G6" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="178" t="s">
+      <c r="H6" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="182" t="s">
+      <c r="I6" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="180" t="s">
+      <c r="J6" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="180" t="s">
+      <c r="K6" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="180" t="s">
+      <c r="L6" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="180" t="s">
+      <c r="M6" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="180" t="s">
+      <c r="N6" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="178" t="s">
+      <c r="O6" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="182" t="s">
+      <c r="P6" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="180" t="s">
+      <c r="Q6" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="180" t="s">
+      <c r="R6" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="180" t="s">
+      <c r="S6" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="180" t="s">
+      <c r="T6" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="180" t="s">
+      <c r="U6" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="178" t="s">
+      <c r="V6" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="182" t="s">
+      <c r="W6" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="X6" s="180" t="s">
+      <c r="X6" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="180" t="s">
+      <c r="Y6" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="180" t="s">
+      <c r="Z6" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="180" t="s">
+      <c r="AA6" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="180" t="s">
+      <c r="AB6" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="178" t="s">
+      <c r="AC6" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="182" t="s">
+      <c r="AD6" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="AE6" s="180" t="s">
+      <c r="AE6" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="180" t="s">
+      <c r="AF6" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="180" t="s">
+      <c r="AG6" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="180" t="s">
+      <c r="AH6" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="180" t="s">
+      <c r="AI6" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="178" t="s">
+      <c r="AJ6" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="182" t="s">
+      <c r="AK6" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="AL6" s="174" t="s">
+      <c r="AL6" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="235" t="s">
+      <c r="AM6" s="222" t="s">
         <v>111</v>
       </c>
-      <c r="AN6" s="235" t="s">
+      <c r="AN6" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="AO6" s="170" t="s">
+      <c r="AO6" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="AP6" s="172" t="s">
+      <c r="AP6" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="AQ6" s="233" t="s">
+      <c r="AQ6" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="AR6" s="163" t="s">
+      <c r="AR6" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="AS6" s="164"/>
-      <c r="AT6" s="163" t="s">
+      <c r="AS6" s="157"/>
+      <c r="AT6" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="AU6" s="164"/>
-      <c r="AV6" s="163" t="s">
+      <c r="AU6" s="157"/>
+      <c r="AV6" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="AW6" s="164"/>
-      <c r="AX6" s="163" t="s">
+      <c r="AW6" s="157"/>
+      <c r="AX6" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="AY6" s="164"/>
-      <c r="AZ6" s="163" t="s">
+      <c r="AY6" s="157"/>
+      <c r="AZ6" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="BA6" s="164"/>
-      <c r="BB6" s="163" t="s">
+      <c r="BA6" s="157"/>
+      <c r="BB6" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="BC6" s="164"/>
-      <c r="BD6" s="243" t="s">
+      <c r="BC6" s="157"/>
+      <c r="BD6" s="230" t="s">
         <v>32</v>
       </c>
-      <c r="BE6" s="245" t="s">
+      <c r="BE6" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="BF6" s="246"/>
-      <c r="BG6" s="247" t="s">
+      <c r="BF6" s="233"/>
+      <c r="BG6" s="234" t="s">
         <v>40</v>
       </c>
-      <c r="BH6" s="248"/>
-      <c r="BI6" s="168" t="s">
+      <c r="BH6" s="235"/>
+      <c r="BI6" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="BJ6" s="169"/>
-      <c r="BK6" s="176" t="s">
+      <c r="BJ6" s="162"/>
+      <c r="BK6" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="BL6" s="235" t="s">
+      <c r="BL6" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="BM6" s="170" t="s">
+      <c r="BM6" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="BN6" s="170" t="s">
+      <c r="BN6" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="BO6" s="172" t="s">
+      <c r="BO6" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="BP6" s="237" t="s">
+      <c r="BP6" s="224" t="s">
         <v>44</v>
       </c>
-      <c r="BQ6" s="241" t="s">
+      <c r="BQ6" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="BR6" s="239" t="s">
+      <c r="BR6" s="226" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:70" s="6" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="100" t="s">
+    <row r="7" spans="1:70" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="183"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="183"/>
-      <c r="Q7" s="181"/>
-      <c r="R7" s="181"/>
-      <c r="S7" s="181"/>
-      <c r="T7" s="181"/>
-      <c r="U7" s="181"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="183"/>
-      <c r="X7" s="181"/>
-      <c r="Y7" s="181"/>
-      <c r="Z7" s="181"/>
-      <c r="AA7" s="181"/>
-      <c r="AB7" s="181"/>
-      <c r="AC7" s="179"/>
-      <c r="AD7" s="183"/>
-      <c r="AE7" s="181"/>
-      <c r="AF7" s="181"/>
-      <c r="AG7" s="181"/>
-      <c r="AH7" s="181"/>
-      <c r="AI7" s="181"/>
-      <c r="AJ7" s="179"/>
-      <c r="AK7" s="183"/>
-      <c r="AL7" s="175"/>
-      <c r="AM7" s="236"/>
-      <c r="AN7" s="236"/>
-      <c r="AO7" s="171"/>
-      <c r="AP7" s="173"/>
-      <c r="AQ7" s="234"/>
-      <c r="AR7" s="112"/>
-      <c r="AS7" s="118" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="168"/>
+      <c r="S7" s="168"/>
+      <c r="T7" s="168"/>
+      <c r="U7" s="168"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="170"/>
+      <c r="X7" s="168"/>
+      <c r="Y7" s="168"/>
+      <c r="Z7" s="168"/>
+      <c r="AA7" s="168"/>
+      <c r="AB7" s="168"/>
+      <c r="AC7" s="166"/>
+      <c r="AD7" s="170"/>
+      <c r="AE7" s="168"/>
+      <c r="AF7" s="168"/>
+      <c r="AG7" s="168"/>
+      <c r="AH7" s="168"/>
+      <c r="AI7" s="168"/>
+      <c r="AJ7" s="166"/>
+      <c r="AK7" s="170"/>
+      <c r="AL7" s="143"/>
+      <c r="AM7" s="223"/>
+      <c r="AN7" s="223"/>
+      <c r="AO7" s="139"/>
+      <c r="AP7" s="141"/>
+      <c r="AQ7" s="221"/>
+      <c r="AR7" s="96"/>
+      <c r="AS7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="AT7" s="112"/>
-      <c r="AU7" s="118" t="s">
+      <c r="AT7" s="96"/>
+      <c r="AU7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="AV7" s="118"/>
-      <c r="AW7" s="118" t="s">
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="118" t="s">
+      <c r="AX7" s="99"/>
+      <c r="AY7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="118" t="s">
+      <c r="AZ7" s="99"/>
+      <c r="BA7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="BB7" s="119"/>
-      <c r="BC7" s="118" t="s">
+      <c r="BB7" s="99"/>
+      <c r="BC7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="BD7" s="244"/>
-      <c r="BE7" s="113"/>
-      <c r="BF7" s="118" t="s">
+      <c r="BD7" s="231"/>
+      <c r="BE7" s="97"/>
+      <c r="BF7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="BG7" s="120"/>
-      <c r="BH7" s="118" t="s">
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="BI7" s="121"/>
-      <c r="BJ7" s="118" t="s">
+      <c r="BI7" s="101"/>
+      <c r="BJ7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="177"/>
-      <c r="BL7" s="236"/>
-      <c r="BM7" s="171"/>
-      <c r="BN7" s="171"/>
-      <c r="BO7" s="173"/>
-      <c r="BP7" s="238"/>
-      <c r="BQ7" s="242"/>
-      <c r="BR7" s="240"/>
+      <c r="BK7" s="164"/>
+      <c r="BL7" s="223"/>
+      <c r="BM7" s="139"/>
+      <c r="BN7" s="139"/>
+      <c r="BO7" s="141"/>
+      <c r="BP7" s="225"/>
+      <c r="BQ7" s="229"/>
+      <c r="BR7" s="227"/>
     </row>
-    <row r="8" spans="1:70" ht="30" customHeight="1">
-      <c r="A8" s="185" t="s">
+    <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="58"/>
-      <c r="AM8" s="135"/>
-      <c r="AN8" s="40"/>
-      <c r="AO8" s="41"/>
-      <c r="AP8" s="131"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="114"/>
-      <c r="AS8" s="114"/>
-      <c r="AT8" s="114"/>
-      <c r="AU8" s="114"/>
-      <c r="AV8" s="114"/>
-      <c r="AW8" s="115"/>
-      <c r="AX8" s="115"/>
-      <c r="AY8" s="115"/>
-      <c r="AZ8" s="115"/>
-      <c r="BA8" s="115"/>
-      <c r="BB8" s="115"/>
-      <c r="BC8" s="115"/>
-      <c r="BD8" s="116"/>
-      <c r="BE8" s="117"/>
-      <c r="BF8" s="115"/>
-      <c r="BG8" s="114"/>
-      <c r="BH8" s="114"/>
-      <c r="BI8" s="114"/>
-      <c r="BJ8" s="115"/>
-      <c r="BK8" s="116"/>
-      <c r="BL8" s="157"/>
-      <c r="BM8" s="115"/>
-      <c r="BN8" s="115"/>
-      <c r="BO8" s="152"/>
-      <c r="BP8" s="157"/>
-      <c r="BQ8" s="115"/>
-      <c r="BR8" s="159"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="117"/>
+      <c r="AN8" s="118"/>
+      <c r="AO8" s="119"/>
+      <c r="AP8" s="120"/>
+      <c r="AQ8" s="125"/>
+      <c r="AR8" s="126"/>
+      <c r="AS8" s="126"/>
+      <c r="AT8" s="126"/>
+      <c r="AU8" s="126"/>
+      <c r="AV8" s="126"/>
+      <c r="AW8" s="126"/>
+      <c r="AX8" s="126"/>
+      <c r="AY8" s="126"/>
+      <c r="AZ8" s="126"/>
+      <c r="BA8" s="126"/>
+      <c r="BB8" s="126"/>
+      <c r="BC8" s="126"/>
+      <c r="BD8" s="127"/>
+      <c r="BE8" s="125"/>
+      <c r="BF8" s="126"/>
+      <c r="BG8" s="126"/>
+      <c r="BH8" s="126"/>
+      <c r="BI8" s="126"/>
+      <c r="BJ8" s="126"/>
+      <c r="BK8" s="127"/>
+      <c r="BL8" s="136"/>
+      <c r="BM8" s="126"/>
+      <c r="BN8" s="126"/>
+      <c r="BO8" s="148"/>
+      <c r="BP8" s="136"/>
+      <c r="BQ8" s="126"/>
+      <c r="BR8" s="146"/>
     </row>
-    <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="185"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="103"/>
-      <c r="AK9" s="104"/>
-      <c r="AL9" s="105"/>
-      <c r="AM9" s="99"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="49"/>
-      <c r="AP9" s="132"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="50"/>
-      <c r="AZ9" s="50"/>
-      <c r="BA9" s="50"/>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="50"/>
-      <c r="BD9" s="51"/>
-      <c r="BE9" s="52"/>
-      <c r="BF9" s="50"/>
-      <c r="BG9" s="50"/>
-      <c r="BH9" s="50"/>
-      <c r="BI9" s="50"/>
-      <c r="BJ9" s="50"/>
-      <c r="BK9" s="51"/>
-      <c r="BL9" s="158"/>
-      <c r="BM9" s="50"/>
-      <c r="BN9" s="50"/>
-      <c r="BO9" s="153"/>
-      <c r="BP9" s="158"/>
-      <c r="BQ9" s="50"/>
-      <c r="BR9" s="160"/>
+    <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="173"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="85"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="88"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="121"/>
+      <c r="AN9" s="122"/>
+      <c r="AO9" s="123"/>
+      <c r="AP9" s="124"/>
+      <c r="AQ9" s="128"/>
+      <c r="AR9" s="129"/>
+      <c r="AS9" s="129"/>
+      <c r="AT9" s="129"/>
+      <c r="AU9" s="129"/>
+      <c r="AV9" s="129"/>
+      <c r="AW9" s="129"/>
+      <c r="AX9" s="129"/>
+      <c r="AY9" s="129"/>
+      <c r="AZ9" s="129"/>
+      <c r="BA9" s="129"/>
+      <c r="BB9" s="129"/>
+      <c r="BC9" s="129"/>
+      <c r="BD9" s="130"/>
+      <c r="BE9" s="128"/>
+      <c r="BF9" s="129"/>
+      <c r="BG9" s="129"/>
+      <c r="BH9" s="129"/>
+      <c r="BI9" s="129"/>
+      <c r="BJ9" s="129"/>
+      <c r="BK9" s="130"/>
+      <c r="BL9" s="137"/>
+      <c r="BM9" s="129"/>
+      <c r="BN9" s="129"/>
+      <c r="BO9" s="149"/>
+      <c r="BP9" s="137"/>
+      <c r="BQ9" s="129"/>
+      <c r="BR9" s="147"/>
     </row>
-    <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="186"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="230"/>
-      <c r="AN10" s="231"/>
-      <c r="AO10" s="231"/>
-      <c r="AP10" s="231"/>
-      <c r="AQ10" s="231"/>
-      <c r="AR10" s="231"/>
-      <c r="AS10" s="231"/>
-      <c r="AT10" s="231"/>
-      <c r="AU10" s="231"/>
-      <c r="AV10" s="231"/>
-      <c r="AW10" s="231"/>
-      <c r="AX10" s="231"/>
-      <c r="AY10" s="231"/>
-      <c r="AZ10" s="231"/>
-      <c r="BA10" s="231"/>
-      <c r="BB10" s="231"/>
-      <c r="BC10" s="231"/>
-      <c r="BD10" s="231"/>
-      <c r="BE10" s="231"/>
-      <c r="BF10" s="231"/>
-      <c r="BG10" s="231"/>
-      <c r="BH10" s="231"/>
-      <c r="BI10" s="231"/>
-      <c r="BJ10" s="231"/>
-      <c r="BK10" s="231"/>
-      <c r="BL10" s="231"/>
-      <c r="BM10" s="231"/>
-      <c r="BN10" s="231"/>
-      <c r="BO10" s="231"/>
-      <c r="BP10" s="231"/>
-      <c r="BQ10" s="231"/>
-      <c r="BR10" s="232"/>
+    <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="174"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="217"/>
+      <c r="AN10" s="218"/>
+      <c r="AO10" s="218"/>
+      <c r="AP10" s="218"/>
+      <c r="AQ10" s="218"/>
+      <c r="AR10" s="218"/>
+      <c r="AS10" s="218"/>
+      <c r="AT10" s="218"/>
+      <c r="AU10" s="218"/>
+      <c r="AV10" s="218"/>
+      <c r="AW10" s="218"/>
+      <c r="AX10" s="218"/>
+      <c r="AY10" s="218"/>
+      <c r="AZ10" s="218"/>
+      <c r="BA10" s="218"/>
+      <c r="BB10" s="218"/>
+      <c r="BC10" s="218"/>
+      <c r="BD10" s="218"/>
+      <c r="BE10" s="218"/>
+      <c r="BF10" s="218"/>
+      <c r="BG10" s="218"/>
+      <c r="BH10" s="218"/>
+      <c r="BI10" s="218"/>
+      <c r="BJ10" s="218"/>
+      <c r="BK10" s="218"/>
+      <c r="BL10" s="218"/>
+      <c r="BM10" s="218"/>
+      <c r="BN10" s="218"/>
+      <c r="BO10" s="218"/>
+      <c r="BP10" s="218"/>
+      <c r="BQ10" s="218"/>
+      <c r="BR10" s="219"/>
     </row>
-    <row r="11" spans="1:70" ht="30" customHeight="1">
-      <c r="A11" s="184" t="s">
+    <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="60"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="61"/>
-      <c r="AK11" s="62"/>
-      <c r="AL11" s="63"/>
-      <c r="AM11" s="135"/>
-      <c r="AN11" s="40"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="131"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="42"/>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="42"/>
-      <c r="AZ11" s="42"/>
-      <c r="BA11" s="42"/>
-      <c r="BB11" s="42"/>
-      <c r="BC11" s="42"/>
-      <c r="BD11" s="43"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="42"/>
-      <c r="BG11" s="45"/>
-      <c r="BH11" s="45"/>
-      <c r="BI11" s="45"/>
-      <c r="BJ11" s="42"/>
-      <c r="BK11" s="43"/>
-      <c r="BL11" s="145"/>
-      <c r="BM11" s="42"/>
-      <c r="BN11" s="42"/>
-      <c r="BO11" s="150"/>
-      <c r="BP11" s="145"/>
-      <c r="BQ11" s="42"/>
-      <c r="BR11" s="143"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="117"/>
+      <c r="AN11" s="118"/>
+      <c r="AO11" s="119"/>
+      <c r="AP11" s="120"/>
+      <c r="AQ11" s="125"/>
+      <c r="AR11" s="126"/>
+      <c r="AS11" s="126"/>
+      <c r="AT11" s="126"/>
+      <c r="AU11" s="126"/>
+      <c r="AV11" s="126"/>
+      <c r="AW11" s="126"/>
+      <c r="AX11" s="126"/>
+      <c r="AY11" s="126"/>
+      <c r="AZ11" s="126"/>
+      <c r="BA11" s="126"/>
+      <c r="BB11" s="126"/>
+      <c r="BC11" s="126"/>
+      <c r="BD11" s="127"/>
+      <c r="BE11" s="125"/>
+      <c r="BF11" s="126"/>
+      <c r="BG11" s="126"/>
+      <c r="BH11" s="126"/>
+      <c r="BI11" s="126"/>
+      <c r="BJ11" s="126"/>
+      <c r="BK11" s="127"/>
+      <c r="BL11" s="136"/>
+      <c r="BM11" s="126"/>
+      <c r="BN11" s="126"/>
+      <c r="BO11" s="148"/>
+      <c r="BP11" s="136"/>
+      <c r="BQ11" s="126"/>
+      <c r="BR11" s="146"/>
     </row>
-    <row r="12" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="185"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="107"/>
-      <c r="AH12" s="107"/>
-      <c r="AI12" s="107"/>
-      <c r="AJ12" s="108"/>
-      <c r="AK12" s="110"/>
-      <c r="AL12" s="111"/>
-      <c r="AM12" s="97"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="49"/>
-      <c r="AP12" s="132"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="50"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
-      <c r="BB12" s="50"/>
-      <c r="BC12" s="50"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="50"/>
-      <c r="BG12" s="50"/>
-      <c r="BH12" s="50"/>
-      <c r="BI12" s="50"/>
-      <c r="BJ12" s="50"/>
-      <c r="BK12" s="51"/>
-      <c r="BL12" s="146"/>
-      <c r="BM12" s="50"/>
-      <c r="BN12" s="50"/>
-      <c r="BO12" s="151"/>
-      <c r="BP12" s="146"/>
-      <c r="BQ12" s="50"/>
-      <c r="BR12" s="144"/>
+    <row r="12" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="173"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="91"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="91"/>
+      <c r="AH12" s="91"/>
+      <c r="AI12" s="91"/>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="95"/>
+      <c r="AM12" s="131"/>
+      <c r="AN12" s="122"/>
+      <c r="AO12" s="123"/>
+      <c r="AP12" s="124"/>
+      <c r="AQ12" s="128"/>
+      <c r="AR12" s="129"/>
+      <c r="AS12" s="129"/>
+      <c r="AT12" s="129"/>
+      <c r="AU12" s="129"/>
+      <c r="AV12" s="129"/>
+      <c r="AW12" s="129"/>
+      <c r="AX12" s="129"/>
+      <c r="AY12" s="129"/>
+      <c r="AZ12" s="129"/>
+      <c r="BA12" s="129"/>
+      <c r="BB12" s="129"/>
+      <c r="BC12" s="129"/>
+      <c r="BD12" s="130"/>
+      <c r="BE12" s="128"/>
+      <c r="BF12" s="129"/>
+      <c r="BG12" s="129"/>
+      <c r="BH12" s="129"/>
+      <c r="BI12" s="129"/>
+      <c r="BJ12" s="129"/>
+      <c r="BK12" s="130"/>
+      <c r="BL12" s="137"/>
+      <c r="BM12" s="129"/>
+      <c r="BN12" s="129"/>
+      <c r="BO12" s="149"/>
+      <c r="BP12" s="137"/>
+      <c r="BQ12" s="129"/>
+      <c r="BR12" s="147"/>
     </row>
-    <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="185"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="80"/>
-      <c r="AF13" s="80"/>
-      <c r="AG13" s="80"/>
-      <c r="AH13" s="80"/>
-      <c r="AI13" s="80"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="83"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="147"/>
-      <c r="AN13" s="148"/>
-      <c r="AO13" s="148"/>
-      <c r="AP13" s="148"/>
-      <c r="AQ13" s="148"/>
-      <c r="AR13" s="148"/>
-      <c r="AS13" s="148"/>
-      <c r="AT13" s="148"/>
-      <c r="AU13" s="148"/>
-      <c r="AV13" s="148"/>
-      <c r="AW13" s="148"/>
-      <c r="AX13" s="148"/>
-      <c r="AY13" s="148"/>
-      <c r="AZ13" s="148"/>
-      <c r="BA13" s="148"/>
-      <c r="BB13" s="148"/>
-      <c r="BC13" s="148"/>
-      <c r="BD13" s="148"/>
-      <c r="BE13" s="148"/>
-      <c r="BF13" s="148"/>
-      <c r="BG13" s="148"/>
-      <c r="BH13" s="148"/>
-      <c r="BI13" s="148"/>
-      <c r="BJ13" s="148"/>
-      <c r="BK13" s="148"/>
-      <c r="BL13" s="148"/>
-      <c r="BM13" s="148"/>
-      <c r="BN13" s="148"/>
-      <c r="BO13" s="148"/>
-      <c r="BP13" s="148"/>
-      <c r="BQ13" s="148"/>
-      <c r="BR13" s="149"/>
+    <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="173"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="67"/>
+      <c r="AI13" s="67"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="150"/>
+      <c r="AN13" s="151"/>
+      <c r="AO13" s="151"/>
+      <c r="AP13" s="151"/>
+      <c r="AQ13" s="151"/>
+      <c r="AR13" s="151"/>
+      <c r="AS13" s="151"/>
+      <c r="AT13" s="151"/>
+      <c r="AU13" s="151"/>
+      <c r="AV13" s="151"/>
+      <c r="AW13" s="151"/>
+      <c r="AX13" s="151"/>
+      <c r="AY13" s="151"/>
+      <c r="AZ13" s="151"/>
+      <c r="BA13" s="151"/>
+      <c r="BB13" s="151"/>
+      <c r="BC13" s="151"/>
+      <c r="BD13" s="151"/>
+      <c r="BE13" s="151"/>
+      <c r="BF13" s="151"/>
+      <c r="BG13" s="151"/>
+      <c r="BH13" s="151"/>
+      <c r="BI13" s="151"/>
+      <c r="BJ13" s="151"/>
+      <c r="BK13" s="151"/>
+      <c r="BL13" s="151"/>
+      <c r="BM13" s="151"/>
+      <c r="BN13" s="151"/>
+      <c r="BO13" s="151"/>
+      <c r="BP13" s="151"/>
+      <c r="BQ13" s="151"/>
+      <c r="BR13" s="152"/>
     </row>
-    <row r="14" spans="1:70" ht="30" customHeight="1">
-      <c r="A14" s="184" t="s">
+    <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="60"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="63"/>
-      <c r="AM14" s="135"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="131"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="45"/>
-      <c r="AS14" s="45"/>
-      <c r="AT14" s="45"/>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="42"/>
-      <c r="BA14" s="42"/>
-      <c r="BB14" s="42"/>
-      <c r="BC14" s="42"/>
-      <c r="BD14" s="43"/>
-      <c r="BE14" s="44"/>
-      <c r="BF14" s="42"/>
-      <c r="BG14" s="45"/>
-      <c r="BH14" s="45"/>
-      <c r="BI14" s="45"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="43"/>
-      <c r="BL14" s="145"/>
-      <c r="BM14" s="42"/>
-      <c r="BN14" s="42"/>
-      <c r="BO14" s="150"/>
-      <c r="BP14" s="145"/>
-      <c r="BQ14" s="42"/>
-      <c r="BR14" s="143"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="117"/>
+      <c r="AN14" s="118"/>
+      <c r="AO14" s="119"/>
+      <c r="AP14" s="120"/>
+      <c r="AQ14" s="125"/>
+      <c r="AR14" s="126"/>
+      <c r="AS14" s="126"/>
+      <c r="AT14" s="126"/>
+      <c r="AU14" s="126"/>
+      <c r="AV14" s="126"/>
+      <c r="AW14" s="126"/>
+      <c r="AX14" s="126"/>
+      <c r="AY14" s="126"/>
+      <c r="AZ14" s="126"/>
+      <c r="BA14" s="126"/>
+      <c r="BB14" s="126"/>
+      <c r="BC14" s="126"/>
+      <c r="BD14" s="127"/>
+      <c r="BE14" s="125"/>
+      <c r="BF14" s="126"/>
+      <c r="BG14" s="126"/>
+      <c r="BH14" s="126"/>
+      <c r="BI14" s="126"/>
+      <c r="BJ14" s="126"/>
+      <c r="BK14" s="127"/>
+      <c r="BL14" s="136"/>
+      <c r="BM14" s="126"/>
+      <c r="BN14" s="126"/>
+      <c r="BO14" s="148"/>
+      <c r="BP14" s="136"/>
+      <c r="BQ14" s="126"/>
+      <c r="BR14" s="146"/>
     </row>
-    <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="185"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="108"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="106"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="107"/>
-      <c r="AG15" s="107"/>
-      <c r="AH15" s="107"/>
-      <c r="AI15" s="107"/>
-      <c r="AJ15" s="108"/>
-      <c r="AK15" s="110"/>
-      <c r="AL15" s="111"/>
-      <c r="AM15" s="97"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="49"/>
-      <c r="AP15" s="132"/>
-      <c r="AQ15" s="52"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="50"/>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="50"/>
-      <c r="AX15" s="50"/>
-      <c r="AY15" s="50"/>
-      <c r="AZ15" s="50"/>
-      <c r="BA15" s="50"/>
-      <c r="BB15" s="50"/>
-      <c r="BC15" s="50"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="52"/>
-      <c r="BF15" s="50"/>
-      <c r="BG15" s="50"/>
-      <c r="BH15" s="50"/>
-      <c r="BI15" s="50"/>
-      <c r="BJ15" s="50"/>
-      <c r="BK15" s="51"/>
-      <c r="BL15" s="146"/>
-      <c r="BM15" s="50"/>
-      <c r="BN15" s="50"/>
-      <c r="BO15" s="151"/>
-      <c r="BP15" s="146"/>
-      <c r="BQ15" s="50"/>
-      <c r="BR15" s="144"/>
+    <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="173"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="91"/>
+      <c r="AH15" s="91"/>
+      <c r="AI15" s="91"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="94"/>
+      <c r="AL15" s="95"/>
+      <c r="AM15" s="131"/>
+      <c r="AN15" s="122"/>
+      <c r="AO15" s="123"/>
+      <c r="AP15" s="124"/>
+      <c r="AQ15" s="128"/>
+      <c r="AR15" s="129"/>
+      <c r="AS15" s="129"/>
+      <c r="AT15" s="129"/>
+      <c r="AU15" s="129"/>
+      <c r="AV15" s="129"/>
+      <c r="AW15" s="129"/>
+      <c r="AX15" s="129"/>
+      <c r="AY15" s="129"/>
+      <c r="AZ15" s="129"/>
+      <c r="BA15" s="129"/>
+      <c r="BB15" s="129"/>
+      <c r="BC15" s="129"/>
+      <c r="BD15" s="130"/>
+      <c r="BE15" s="128"/>
+      <c r="BF15" s="129"/>
+      <c r="BG15" s="129"/>
+      <c r="BH15" s="129"/>
+      <c r="BI15" s="129"/>
+      <c r="BJ15" s="129"/>
+      <c r="BK15" s="130"/>
+      <c r="BL15" s="137"/>
+      <c r="BM15" s="129"/>
+      <c r="BN15" s="129"/>
+      <c r="BO15" s="149"/>
+      <c r="BP15" s="137"/>
+      <c r="BQ15" s="129"/>
+      <c r="BR15" s="147"/>
     </row>
-    <row r="16" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="186"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="86"/>
-      <c r="AF16" s="86"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="86"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="88"/>
-      <c r="AL16" s="89"/>
-      <c r="AM16" s="147"/>
-      <c r="AN16" s="148"/>
-      <c r="AO16" s="148"/>
-      <c r="AP16" s="148"/>
-      <c r="AQ16" s="148"/>
-      <c r="AR16" s="148"/>
-      <c r="AS16" s="148"/>
-      <c r="AT16" s="148"/>
-      <c r="AU16" s="148"/>
-      <c r="AV16" s="148"/>
-      <c r="AW16" s="148"/>
-      <c r="AX16" s="148"/>
-      <c r="AY16" s="148"/>
-      <c r="AZ16" s="148"/>
-      <c r="BA16" s="148"/>
-      <c r="BB16" s="148"/>
-      <c r="BC16" s="148"/>
-      <c r="BD16" s="148"/>
-      <c r="BE16" s="148"/>
-      <c r="BF16" s="148"/>
-      <c r="BG16" s="148"/>
-      <c r="BH16" s="148"/>
-      <c r="BI16" s="148"/>
-      <c r="BJ16" s="148"/>
-      <c r="BK16" s="148"/>
-      <c r="BL16" s="148"/>
-      <c r="BM16" s="148"/>
-      <c r="BN16" s="148"/>
-      <c r="BO16" s="148"/>
-      <c r="BP16" s="148"/>
-      <c r="BQ16" s="148"/>
-      <c r="BR16" s="149"/>
+    <row r="16" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="174"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="73"/>
+      <c r="AJ16" s="74"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="150"/>
+      <c r="AN16" s="151"/>
+      <c r="AO16" s="151"/>
+      <c r="AP16" s="151"/>
+      <c r="AQ16" s="151"/>
+      <c r="AR16" s="151"/>
+      <c r="AS16" s="151"/>
+      <c r="AT16" s="151"/>
+      <c r="AU16" s="151"/>
+      <c r="AV16" s="151"/>
+      <c r="AW16" s="151"/>
+      <c r="AX16" s="151"/>
+      <c r="AY16" s="151"/>
+      <c r="AZ16" s="151"/>
+      <c r="BA16" s="151"/>
+      <c r="BB16" s="151"/>
+      <c r="BC16" s="151"/>
+      <c r="BD16" s="151"/>
+      <c r="BE16" s="151"/>
+      <c r="BF16" s="151"/>
+      <c r="BG16" s="151"/>
+      <c r="BH16" s="151"/>
+      <c r="BI16" s="151"/>
+      <c r="BJ16" s="151"/>
+      <c r="BK16" s="151"/>
+      <c r="BL16" s="151"/>
+      <c r="BM16" s="151"/>
+      <c r="BN16" s="151"/>
+      <c r="BO16" s="151"/>
+      <c r="BP16" s="151"/>
+      <c r="BQ16" s="151"/>
+      <c r="BR16" s="152"/>
     </row>
-    <row r="17" spans="1:70" ht="30" customHeight="1">
-      <c r="A17" s="185" t="s">
+    <row r="17" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="57"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="135"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="131"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="42"/>
-      <c r="AX17" s="42"/>
-      <c r="AY17" s="42"/>
-      <c r="AZ17" s="42"/>
-      <c r="BA17" s="42"/>
-      <c r="BB17" s="42"/>
-      <c r="BC17" s="42"/>
-      <c r="BD17" s="43"/>
-      <c r="BE17" s="44"/>
-      <c r="BF17" s="42"/>
-      <c r="BG17" s="45"/>
-      <c r="BH17" s="45"/>
-      <c r="BI17" s="45"/>
-      <c r="BJ17" s="42"/>
-      <c r="BK17" s="43"/>
-      <c r="BL17" s="145"/>
-      <c r="BM17" s="42"/>
-      <c r="BN17" s="42"/>
-      <c r="BO17" s="150"/>
-      <c r="BP17" s="44"/>
-      <c r="BQ17" s="42"/>
-      <c r="BR17" s="143"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="43"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="117"/>
+      <c r="AN17" s="118"/>
+      <c r="AO17" s="119"/>
+      <c r="AP17" s="120"/>
+      <c r="AQ17" s="125"/>
+      <c r="AR17" s="126"/>
+      <c r="AS17" s="126"/>
+      <c r="AT17" s="126"/>
+      <c r="AU17" s="126"/>
+      <c r="AV17" s="126"/>
+      <c r="AW17" s="126"/>
+      <c r="AX17" s="126"/>
+      <c r="AY17" s="126"/>
+      <c r="AZ17" s="126"/>
+      <c r="BA17" s="126"/>
+      <c r="BB17" s="126"/>
+      <c r="BC17" s="126"/>
+      <c r="BD17" s="127"/>
+      <c r="BE17" s="125"/>
+      <c r="BF17" s="126"/>
+      <c r="BG17" s="126"/>
+      <c r="BH17" s="126"/>
+      <c r="BI17" s="126"/>
+      <c r="BJ17" s="126"/>
+      <c r="BK17" s="127"/>
+      <c r="BL17" s="136"/>
+      <c r="BM17" s="126"/>
+      <c r="BN17" s="126"/>
+      <c r="BO17" s="148"/>
+      <c r="BP17" s="125"/>
+      <c r="BQ17" s="126"/>
+      <c r="BR17" s="146"/>
     </row>
-    <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="185"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="106"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="107"/>
-      <c r="AJ18" s="108"/>
-      <c r="AK18" s="110"/>
-      <c r="AL18" s="111"/>
-      <c r="AM18" s="98"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="47"/>
-      <c r="AP18" s="133"/>
-      <c r="AQ18" s="52"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="51"/>
-      <c r="BE18" s="52"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="50"/>
-      <c r="BK18" s="51"/>
-      <c r="BL18" s="146"/>
-      <c r="BM18" s="50"/>
-      <c r="BN18" s="50"/>
-      <c r="BO18" s="151"/>
-      <c r="BP18" s="52"/>
-      <c r="BQ18" s="50"/>
-      <c r="BR18" s="144"/>
+    <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="173"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="91"/>
+      <c r="AH18" s="91"/>
+      <c r="AI18" s="91"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="94"/>
+      <c r="AL18" s="95"/>
+      <c r="AM18" s="132"/>
+      <c r="AN18" s="133"/>
+      <c r="AO18" s="134"/>
+      <c r="AP18" s="135"/>
+      <c r="AQ18" s="128"/>
+      <c r="AR18" s="129"/>
+      <c r="AS18" s="129"/>
+      <c r="AT18" s="129"/>
+      <c r="AU18" s="129"/>
+      <c r="AV18" s="129"/>
+      <c r="AW18" s="129"/>
+      <c r="AX18" s="129"/>
+      <c r="AY18" s="129"/>
+      <c r="AZ18" s="129"/>
+      <c r="BA18" s="129"/>
+      <c r="BB18" s="129"/>
+      <c r="BC18" s="129"/>
+      <c r="BD18" s="130"/>
+      <c r="BE18" s="128"/>
+      <c r="BF18" s="129"/>
+      <c r="BG18" s="129"/>
+      <c r="BH18" s="129"/>
+      <c r="BI18" s="129"/>
+      <c r="BJ18" s="129"/>
+      <c r="BK18" s="130"/>
+      <c r="BL18" s="137"/>
+      <c r="BM18" s="129"/>
+      <c r="BN18" s="129"/>
+      <c r="BO18" s="149"/>
+      <c r="BP18" s="128"/>
+      <c r="BQ18" s="129"/>
+      <c r="BR18" s="147"/>
     </row>
-    <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="186"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="80"/>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="80"/>
-      <c r="AB19" s="80"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="80"/>
-      <c r="AF19" s="80"/>
-      <c r="AG19" s="80"/>
-      <c r="AH19" s="80"/>
-      <c r="AI19" s="80"/>
-      <c r="AJ19" s="81"/>
-      <c r="AK19" s="83"/>
-      <c r="AL19" s="84"/>
-      <c r="AM19" s="147"/>
-      <c r="AN19" s="148"/>
-      <c r="AO19" s="148"/>
-      <c r="AP19" s="148"/>
-      <c r="AQ19" s="148"/>
-      <c r="AR19" s="148"/>
-      <c r="AS19" s="148"/>
-      <c r="AT19" s="148"/>
-      <c r="AU19" s="148"/>
-      <c r="AV19" s="148"/>
-      <c r="AW19" s="148"/>
-      <c r="AX19" s="148"/>
-      <c r="AY19" s="148"/>
-      <c r="AZ19" s="148"/>
-      <c r="BA19" s="148"/>
-      <c r="BB19" s="148"/>
-      <c r="BC19" s="148"/>
-      <c r="BD19" s="148"/>
-      <c r="BE19" s="148"/>
-      <c r="BF19" s="148"/>
-      <c r="BG19" s="148"/>
-      <c r="BH19" s="148"/>
-      <c r="BI19" s="148"/>
-      <c r="BJ19" s="148"/>
-      <c r="BK19" s="148"/>
-      <c r="BL19" s="148"/>
-      <c r="BM19" s="148"/>
-      <c r="BN19" s="148"/>
-      <c r="BO19" s="148"/>
-      <c r="BP19" s="148"/>
-      <c r="BQ19" s="148"/>
-      <c r="BR19" s="149"/>
+    <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="174"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="71"/>
+      <c r="AM19" s="150"/>
+      <c r="AN19" s="151"/>
+      <c r="AO19" s="151"/>
+      <c r="AP19" s="151"/>
+      <c r="AQ19" s="151"/>
+      <c r="AR19" s="151"/>
+      <c r="AS19" s="151"/>
+      <c r="AT19" s="151"/>
+      <c r="AU19" s="151"/>
+      <c r="AV19" s="151"/>
+      <c r="AW19" s="151"/>
+      <c r="AX19" s="151"/>
+      <c r="AY19" s="151"/>
+      <c r="AZ19" s="151"/>
+      <c r="BA19" s="151"/>
+      <c r="BB19" s="151"/>
+      <c r="BC19" s="151"/>
+      <c r="BD19" s="151"/>
+      <c r="BE19" s="151"/>
+      <c r="BF19" s="151"/>
+      <c r="BG19" s="151"/>
+      <c r="BH19" s="151"/>
+      <c r="BI19" s="151"/>
+      <c r="BJ19" s="151"/>
+      <c r="BK19" s="151"/>
+      <c r="BL19" s="151"/>
+      <c r="BM19" s="151"/>
+      <c r="BN19" s="151"/>
+      <c r="BO19" s="151"/>
+      <c r="BP19" s="151"/>
+      <c r="BQ19" s="151"/>
+      <c r="BR19" s="152"/>
     </row>
-    <row r="20" spans="1:70" ht="30" customHeight="1">
-      <c r="A20" s="184" t="s">
+    <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="61"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="63"/>
-      <c r="AM20" s="135"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="131"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="42"/>
-      <c r="AZ20" s="42"/>
-      <c r="BA20" s="42"/>
-      <c r="BB20" s="42"/>
-      <c r="BC20" s="42"/>
-      <c r="BD20" s="43"/>
-      <c r="BE20" s="44"/>
-      <c r="BF20" s="42"/>
-      <c r="BG20" s="45"/>
-      <c r="BH20" s="45"/>
-      <c r="BI20" s="45"/>
-      <c r="BJ20" s="42"/>
-      <c r="BK20" s="43"/>
-      <c r="BL20" s="145"/>
-      <c r="BM20" s="42"/>
-      <c r="BN20" s="42"/>
-      <c r="BO20" s="150"/>
-      <c r="BP20" s="44"/>
-      <c r="BQ20" s="42"/>
-      <c r="BR20" s="143"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="49"/>
+      <c r="AL20" s="50"/>
+      <c r="AM20" s="117"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="119"/>
+      <c r="AP20" s="120"/>
+      <c r="AQ20" s="125"/>
+      <c r="AR20" s="126"/>
+      <c r="AS20" s="126"/>
+      <c r="AT20" s="126"/>
+      <c r="AU20" s="126"/>
+      <c r="AV20" s="126"/>
+      <c r="AW20" s="126"/>
+      <c r="AX20" s="126"/>
+      <c r="AY20" s="126"/>
+      <c r="AZ20" s="126"/>
+      <c r="BA20" s="126"/>
+      <c r="BB20" s="126"/>
+      <c r="BC20" s="126"/>
+      <c r="BD20" s="127"/>
+      <c r="BE20" s="125"/>
+      <c r="BF20" s="126"/>
+      <c r="BG20" s="126"/>
+      <c r="BH20" s="126"/>
+      <c r="BI20" s="126"/>
+      <c r="BJ20" s="126"/>
+      <c r="BK20" s="127"/>
+      <c r="BL20" s="136"/>
+      <c r="BM20" s="126"/>
+      <c r="BN20" s="126"/>
+      <c r="BO20" s="148"/>
+      <c r="BP20" s="125"/>
+      <c r="BQ20" s="126"/>
+      <c r="BR20" s="146"/>
     </row>
-    <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="185"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="108"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="108"/>
-      <c r="AD21" s="106"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="107"/>
-      <c r="AH21" s="107"/>
-      <c r="AI21" s="107"/>
-      <c r="AJ21" s="108"/>
-      <c r="AK21" s="110"/>
-      <c r="AL21" s="111"/>
-      <c r="AM21" s="99"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="49"/>
-      <c r="AP21" s="132"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="50"/>
-      <c r="AT21" s="50"/>
-      <c r="AU21" s="50"/>
-      <c r="AV21" s="50"/>
-      <c r="AW21" s="50"/>
-      <c r="AX21" s="50"/>
-      <c r="AY21" s="50"/>
-      <c r="AZ21" s="50"/>
-      <c r="BA21" s="50"/>
-      <c r="BB21" s="50"/>
-      <c r="BC21" s="50"/>
-      <c r="BD21" s="51"/>
-      <c r="BE21" s="52"/>
-      <c r="BF21" s="50"/>
-      <c r="BG21" s="50"/>
-      <c r="BH21" s="50"/>
-      <c r="BI21" s="50"/>
-      <c r="BJ21" s="50"/>
-      <c r="BK21" s="51"/>
-      <c r="BL21" s="146"/>
-      <c r="BM21" s="50"/>
-      <c r="BN21" s="50"/>
-      <c r="BO21" s="151"/>
-      <c r="BP21" s="52"/>
-      <c r="BQ21" s="50"/>
-      <c r="BR21" s="144"/>
+    <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="173"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="91"/>
+      <c r="AC21" s="92"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="91"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="91"/>
+      <c r="AH21" s="91"/>
+      <c r="AI21" s="91"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="94"/>
+      <c r="AL21" s="95"/>
+      <c r="AM21" s="121"/>
+      <c r="AN21" s="122"/>
+      <c r="AO21" s="123"/>
+      <c r="AP21" s="124"/>
+      <c r="AQ21" s="128"/>
+      <c r="AR21" s="129"/>
+      <c r="AS21" s="129"/>
+      <c r="AT21" s="129"/>
+      <c r="AU21" s="129"/>
+      <c r="AV21" s="129"/>
+      <c r="AW21" s="129"/>
+      <c r="AX21" s="129"/>
+      <c r="AY21" s="129"/>
+      <c r="AZ21" s="129"/>
+      <c r="BA21" s="129"/>
+      <c r="BB21" s="129"/>
+      <c r="BC21" s="129"/>
+      <c r="BD21" s="130"/>
+      <c r="BE21" s="128"/>
+      <c r="BF21" s="129"/>
+      <c r="BG21" s="129"/>
+      <c r="BH21" s="129"/>
+      <c r="BI21" s="129"/>
+      <c r="BJ21" s="129"/>
+      <c r="BK21" s="130"/>
+      <c r="BL21" s="137"/>
+      <c r="BM21" s="129"/>
+      <c r="BN21" s="129"/>
+      <c r="BO21" s="149"/>
+      <c r="BP21" s="128"/>
+      <c r="BQ21" s="129"/>
+      <c r="BR21" s="147"/>
     </row>
-    <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="186"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="80"/>
-      <c r="AB22" s="80"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="80"/>
-      <c r="AF22" s="80"/>
-      <c r="AG22" s="80"/>
-      <c r="AH22" s="80"/>
-      <c r="AI22" s="80"/>
-      <c r="AJ22" s="81"/>
-      <c r="AK22" s="83"/>
-      <c r="AL22" s="84"/>
-      <c r="AM22" s="147"/>
-      <c r="AN22" s="148"/>
-      <c r="AO22" s="148"/>
-      <c r="AP22" s="148"/>
-      <c r="AQ22" s="148"/>
-      <c r="AR22" s="148"/>
-      <c r="AS22" s="148"/>
-      <c r="AT22" s="148"/>
-      <c r="AU22" s="148"/>
-      <c r="AV22" s="148"/>
-      <c r="AW22" s="148"/>
-      <c r="AX22" s="148"/>
-      <c r="AY22" s="148"/>
-      <c r="AZ22" s="148"/>
-      <c r="BA22" s="148"/>
-      <c r="BB22" s="148"/>
-      <c r="BC22" s="148"/>
-      <c r="BD22" s="148"/>
-      <c r="BE22" s="148"/>
-      <c r="BF22" s="148"/>
-      <c r="BG22" s="148"/>
-      <c r="BH22" s="148"/>
-      <c r="BI22" s="148"/>
-      <c r="BJ22" s="148"/>
-      <c r="BK22" s="148"/>
-      <c r="BL22" s="148"/>
-      <c r="BM22" s="148"/>
-      <c r="BN22" s="148"/>
-      <c r="BO22" s="148"/>
-      <c r="BP22" s="148"/>
-      <c r="BQ22" s="148"/>
-      <c r="BR22" s="149"/>
+    <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="174"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="67"/>
+      <c r="AI22" s="67"/>
+      <c r="AJ22" s="68"/>
+      <c r="AK22" s="70"/>
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="151"/>
+      <c r="AO22" s="151"/>
+      <c r="AP22" s="151"/>
+      <c r="AQ22" s="151"/>
+      <c r="AR22" s="151"/>
+      <c r="AS22" s="151"/>
+      <c r="AT22" s="151"/>
+      <c r="AU22" s="151"/>
+      <c r="AV22" s="151"/>
+      <c r="AW22" s="151"/>
+      <c r="AX22" s="151"/>
+      <c r="AY22" s="151"/>
+      <c r="AZ22" s="151"/>
+      <c r="BA22" s="151"/>
+      <c r="BB22" s="151"/>
+      <c r="BC22" s="151"/>
+      <c r="BD22" s="151"/>
+      <c r="BE22" s="151"/>
+      <c r="BF22" s="151"/>
+      <c r="BG22" s="151"/>
+      <c r="BH22" s="151"/>
+      <c r="BI22" s="151"/>
+      <c r="BJ22" s="151"/>
+      <c r="BK22" s="151"/>
+      <c r="BL22" s="151"/>
+      <c r="BM22" s="151"/>
+      <c r="BN22" s="151"/>
+      <c r="BO22" s="151"/>
+      <c r="BP22" s="151"/>
+      <c r="BQ22" s="151"/>
+      <c r="BR22" s="152"/>
     </row>
-    <row r="23" spans="1:70" ht="30" customHeight="1">
-      <c r="A23" s="184" t="s">
+    <row r="23" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="60"/>
-      <c r="AJ23" s="61"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="63"/>
-      <c r="AM23" s="135"/>
-      <c r="AN23" s="40"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="131"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="45"/>
-      <c r="AS23" s="45"/>
-      <c r="AT23" s="45"/>
-      <c r="AU23" s="45"/>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="42"/>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="42"/>
-      <c r="AZ23" s="42"/>
-      <c r="BA23" s="42"/>
-      <c r="BB23" s="42"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="43"/>
-      <c r="BE23" s="44"/>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="45"/>
-      <c r="BH23" s="45"/>
-      <c r="BI23" s="45"/>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="43"/>
-      <c r="BL23" s="145"/>
-      <c r="BM23" s="42"/>
-      <c r="BN23" s="42"/>
-      <c r="BO23" s="150"/>
-      <c r="BP23" s="44"/>
-      <c r="BQ23" s="42"/>
-      <c r="BR23" s="143"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="50"/>
+      <c r="AM23" s="117"/>
+      <c r="AN23" s="118"/>
+      <c r="AO23" s="119"/>
+      <c r="AP23" s="120"/>
+      <c r="AQ23" s="125"/>
+      <c r="AR23" s="126"/>
+      <c r="AS23" s="126"/>
+      <c r="AT23" s="126"/>
+      <c r="AU23" s="126"/>
+      <c r="AV23" s="126"/>
+      <c r="AW23" s="126"/>
+      <c r="AX23" s="126"/>
+      <c r="AY23" s="126"/>
+      <c r="AZ23" s="126"/>
+      <c r="BA23" s="126"/>
+      <c r="BB23" s="126"/>
+      <c r="BC23" s="126"/>
+      <c r="BD23" s="127"/>
+      <c r="BE23" s="125"/>
+      <c r="BF23" s="126"/>
+      <c r="BG23" s="126"/>
+      <c r="BH23" s="126"/>
+      <c r="BI23" s="126"/>
+      <c r="BJ23" s="126"/>
+      <c r="BK23" s="127"/>
+      <c r="BL23" s="136"/>
+      <c r="BM23" s="126"/>
+      <c r="BN23" s="126"/>
+      <c r="BO23" s="148"/>
+      <c r="BP23" s="125"/>
+      <c r="BQ23" s="126"/>
+      <c r="BR23" s="146"/>
     </row>
-    <row r="24" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="185"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="108"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="107"/>
-      <c r="AA24" s="107"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="108"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="107"/>
-      <c r="AI24" s="107"/>
-      <c r="AJ24" s="108"/>
-      <c r="AK24" s="110"/>
-      <c r="AL24" s="111"/>
-      <c r="AM24" s="99"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="132"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="50"/>
-      <c r="AT24" s="50"/>
-      <c r="AU24" s="50"/>
-      <c r="AV24" s="50"/>
-      <c r="AW24" s="50"/>
-      <c r="AX24" s="50"/>
-      <c r="AY24" s="50"/>
-      <c r="AZ24" s="50"/>
-      <c r="BA24" s="50"/>
-      <c r="BB24" s="50"/>
-      <c r="BC24" s="50"/>
-      <c r="BD24" s="51"/>
-      <c r="BE24" s="52"/>
-      <c r="BF24" s="50"/>
-      <c r="BG24" s="50"/>
-      <c r="BH24" s="50"/>
-      <c r="BI24" s="50"/>
-      <c r="BJ24" s="50"/>
-      <c r="BK24" s="51"/>
-      <c r="BL24" s="146"/>
-      <c r="BM24" s="50"/>
-      <c r="BN24" s="50"/>
-      <c r="BO24" s="151"/>
-      <c r="BP24" s="52"/>
-      <c r="BQ24" s="50"/>
-      <c r="BR24" s="144"/>
+    <row r="24" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="173"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="91"/>
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="91"/>
+      <c r="AH24" s="91"/>
+      <c r="AI24" s="91"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="94"/>
+      <c r="AL24" s="95"/>
+      <c r="AM24" s="121"/>
+      <c r="AN24" s="122"/>
+      <c r="AO24" s="123"/>
+      <c r="AP24" s="124"/>
+      <c r="AQ24" s="128"/>
+      <c r="AR24" s="129"/>
+      <c r="AS24" s="129"/>
+      <c r="AT24" s="129"/>
+      <c r="AU24" s="129"/>
+      <c r="AV24" s="129"/>
+      <c r="AW24" s="129"/>
+      <c r="AX24" s="129"/>
+      <c r="AY24" s="129"/>
+      <c r="AZ24" s="129"/>
+      <c r="BA24" s="129"/>
+      <c r="BB24" s="129"/>
+      <c r="BC24" s="129"/>
+      <c r="BD24" s="130"/>
+      <c r="BE24" s="128"/>
+      <c r="BF24" s="129"/>
+      <c r="BG24" s="129"/>
+      <c r="BH24" s="129"/>
+      <c r="BI24" s="129"/>
+      <c r="BJ24" s="129"/>
+      <c r="BK24" s="130"/>
+      <c r="BL24" s="137"/>
+      <c r="BM24" s="129"/>
+      <c r="BN24" s="129"/>
+      <c r="BO24" s="149"/>
+      <c r="BP24" s="128"/>
+      <c r="BQ24" s="129"/>
+      <c r="BR24" s="147"/>
     </row>
-    <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="186"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="86"/>
-      <c r="AC25" s="87"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="86"/>
-      <c r="AF25" s="86"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="86"/>
-      <c r="AJ25" s="87"/>
-      <c r="AK25" s="88"/>
-      <c r="AL25" s="89"/>
-      <c r="AM25" s="147"/>
-      <c r="AN25" s="148"/>
-      <c r="AO25" s="148"/>
-      <c r="AP25" s="148"/>
-      <c r="AQ25" s="148"/>
-      <c r="AR25" s="148"/>
-      <c r="AS25" s="148"/>
-      <c r="AT25" s="148"/>
-      <c r="AU25" s="148"/>
-      <c r="AV25" s="148"/>
-      <c r="AW25" s="148"/>
-      <c r="AX25" s="148"/>
-      <c r="AY25" s="148"/>
-      <c r="AZ25" s="148"/>
-      <c r="BA25" s="148"/>
-      <c r="BB25" s="148"/>
-      <c r="BC25" s="148"/>
-      <c r="BD25" s="148"/>
-      <c r="BE25" s="148"/>
-      <c r="BF25" s="148"/>
-      <c r="BG25" s="148"/>
-      <c r="BH25" s="148"/>
-      <c r="BI25" s="148"/>
-      <c r="BJ25" s="148"/>
-      <c r="BK25" s="148"/>
-      <c r="BL25" s="148"/>
-      <c r="BM25" s="148"/>
-      <c r="BN25" s="148"/>
-      <c r="BO25" s="148"/>
-      <c r="BP25" s="148"/>
-      <c r="BQ25" s="148"/>
-      <c r="BR25" s="149"/>
+    <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="174"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="73"/>
+      <c r="AH25" s="73"/>
+      <c r="AI25" s="73"/>
+      <c r="AJ25" s="74"/>
+      <c r="AK25" s="75"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="150"/>
+      <c r="AN25" s="151"/>
+      <c r="AO25" s="151"/>
+      <c r="AP25" s="151"/>
+      <c r="AQ25" s="151"/>
+      <c r="AR25" s="151"/>
+      <c r="AS25" s="151"/>
+      <c r="AT25" s="151"/>
+      <c r="AU25" s="151"/>
+      <c r="AV25" s="151"/>
+      <c r="AW25" s="151"/>
+      <c r="AX25" s="151"/>
+      <c r="AY25" s="151"/>
+      <c r="AZ25" s="151"/>
+      <c r="BA25" s="151"/>
+      <c r="BB25" s="151"/>
+      <c r="BC25" s="151"/>
+      <c r="BD25" s="151"/>
+      <c r="BE25" s="151"/>
+      <c r="BF25" s="151"/>
+      <c r="BG25" s="151"/>
+      <c r="BH25" s="151"/>
+      <c r="BI25" s="151"/>
+      <c r="BJ25" s="151"/>
+      <c r="BK25" s="151"/>
+      <c r="BL25" s="151"/>
+      <c r="BM25" s="151"/>
+      <c r="BN25" s="151"/>
+      <c r="BO25" s="151"/>
+      <c r="BP25" s="151"/>
+      <c r="BQ25" s="151"/>
+      <c r="BR25" s="152"/>
     </row>
-    <row r="26" spans="1:70" ht="30" customHeight="1">
-      <c r="A26" s="184" t="s">
+    <row r="26" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="55"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="58"/>
-      <c r="AM26" s="135"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="41"/>
-      <c r="AP26" s="131"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="42"/>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="42"/>
-      <c r="AZ26" s="42"/>
-      <c r="BA26" s="42"/>
-      <c r="BB26" s="42"/>
-      <c r="BC26" s="42"/>
-      <c r="BD26" s="43"/>
-      <c r="BE26" s="44"/>
-      <c r="BF26" s="42"/>
-      <c r="BG26" s="45"/>
-      <c r="BH26" s="45"/>
-      <c r="BI26" s="45"/>
-      <c r="BJ26" s="42"/>
-      <c r="BK26" s="43"/>
-      <c r="BL26" s="145"/>
-      <c r="BM26" s="42"/>
-      <c r="BN26" s="42"/>
-      <c r="BO26" s="150"/>
-      <c r="BP26" s="44"/>
-      <c r="BQ26" s="42"/>
-      <c r="BR26" s="143"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="117"/>
+      <c r="AN26" s="118"/>
+      <c r="AO26" s="119"/>
+      <c r="AP26" s="120"/>
+      <c r="AQ26" s="125"/>
+      <c r="AR26" s="126"/>
+      <c r="AS26" s="126"/>
+      <c r="AT26" s="126"/>
+      <c r="AU26" s="126"/>
+      <c r="AV26" s="126"/>
+      <c r="AW26" s="126"/>
+      <c r="AX26" s="126"/>
+      <c r="AY26" s="126"/>
+      <c r="AZ26" s="126"/>
+      <c r="BA26" s="126"/>
+      <c r="BB26" s="126"/>
+      <c r="BC26" s="126"/>
+      <c r="BD26" s="127"/>
+      <c r="BE26" s="125"/>
+      <c r="BF26" s="126"/>
+      <c r="BG26" s="126"/>
+      <c r="BH26" s="126"/>
+      <c r="BI26" s="126"/>
+      <c r="BJ26" s="126"/>
+      <c r="BK26" s="127"/>
+      <c r="BL26" s="136"/>
+      <c r="BM26" s="126"/>
+      <c r="BN26" s="126"/>
+      <c r="BO26" s="148"/>
+      <c r="BP26" s="125"/>
+      <c r="BQ26" s="126"/>
+      <c r="BR26" s="146"/>
     </row>
-    <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A27" s="185"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="107"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="108"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="107"/>
-      <c r="Y27" s="107"/>
-      <c r="Z27" s="107"/>
-      <c r="AA27" s="107"/>
-      <c r="AB27" s="107"/>
-      <c r="AC27" s="108"/>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="107"/>
-      <c r="AF27" s="107"/>
-      <c r="AG27" s="107"/>
-      <c r="AH27" s="107"/>
-      <c r="AI27" s="107"/>
-      <c r="AJ27" s="108"/>
-      <c r="AK27" s="110"/>
-      <c r="AL27" s="111"/>
-      <c r="AM27" s="99"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="132"/>
-      <c r="AQ27" s="52"/>
-      <c r="AR27" s="50"/>
-      <c r="AS27" s="50"/>
-      <c r="AT27" s="50"/>
-      <c r="AU27" s="50"/>
-      <c r="AV27" s="50"/>
-      <c r="AW27" s="50"/>
-      <c r="AX27" s="50"/>
-      <c r="AY27" s="50"/>
-      <c r="AZ27" s="50"/>
-      <c r="BA27" s="50"/>
-      <c r="BB27" s="50"/>
-      <c r="BC27" s="50"/>
-      <c r="BD27" s="51"/>
-      <c r="BE27" s="52"/>
-      <c r="BF27" s="50"/>
-      <c r="BG27" s="50"/>
-      <c r="BH27" s="50"/>
-      <c r="BI27" s="50"/>
-      <c r="BJ27" s="50"/>
-      <c r="BK27" s="51"/>
-      <c r="BL27" s="146"/>
-      <c r="BM27" s="50"/>
-      <c r="BN27" s="50"/>
-      <c r="BO27" s="151"/>
-      <c r="BP27" s="52"/>
-      <c r="BQ27" s="50"/>
-      <c r="BR27" s="144"/>
+    <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="173"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="91"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="91"/>
+      <c r="AB27" s="91"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="91"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="91"/>
+      <c r="AH27" s="91"/>
+      <c r="AI27" s="91"/>
+      <c r="AJ27" s="92"/>
+      <c r="AK27" s="94"/>
+      <c r="AL27" s="95"/>
+      <c r="AM27" s="121"/>
+      <c r="AN27" s="122"/>
+      <c r="AO27" s="123"/>
+      <c r="AP27" s="124"/>
+      <c r="AQ27" s="128"/>
+      <c r="AR27" s="129"/>
+      <c r="AS27" s="129"/>
+      <c r="AT27" s="129"/>
+      <c r="AU27" s="129"/>
+      <c r="AV27" s="129"/>
+      <c r="AW27" s="129"/>
+      <c r="AX27" s="129"/>
+      <c r="AY27" s="129"/>
+      <c r="AZ27" s="129"/>
+      <c r="BA27" s="129"/>
+      <c r="BB27" s="129"/>
+      <c r="BC27" s="129"/>
+      <c r="BD27" s="130"/>
+      <c r="BE27" s="128"/>
+      <c r="BF27" s="129"/>
+      <c r="BG27" s="129"/>
+      <c r="BH27" s="129"/>
+      <c r="BI27" s="129"/>
+      <c r="BJ27" s="129"/>
+      <c r="BK27" s="130"/>
+      <c r="BL27" s="137"/>
+      <c r="BM27" s="129"/>
+      <c r="BN27" s="129"/>
+      <c r="BO27" s="149"/>
+      <c r="BP27" s="128"/>
+      <c r="BQ27" s="129"/>
+      <c r="BR27" s="147"/>
     </row>
-    <row r="28" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="186"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="80"/>
-      <c r="Z28" s="80"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="80"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="80"/>
-      <c r="AF28" s="80"/>
-      <c r="AG28" s="80"/>
-      <c r="AH28" s="80"/>
-      <c r="AI28" s="80"/>
-      <c r="AJ28" s="81"/>
-      <c r="AK28" s="83"/>
-      <c r="AL28" s="84"/>
-      <c r="AM28" s="147"/>
-      <c r="AN28" s="148"/>
-      <c r="AO28" s="148"/>
-      <c r="AP28" s="148"/>
-      <c r="AQ28" s="148"/>
-      <c r="AR28" s="148"/>
-      <c r="AS28" s="148"/>
-      <c r="AT28" s="148"/>
-      <c r="AU28" s="148"/>
-      <c r="AV28" s="148"/>
-      <c r="AW28" s="148"/>
-      <c r="AX28" s="148"/>
-      <c r="AY28" s="148"/>
-      <c r="AZ28" s="148"/>
-      <c r="BA28" s="148"/>
-      <c r="BB28" s="148"/>
-      <c r="BC28" s="148"/>
-      <c r="BD28" s="148"/>
-      <c r="BE28" s="148"/>
-      <c r="BF28" s="148"/>
-      <c r="BG28" s="148"/>
-      <c r="BH28" s="148"/>
-      <c r="BI28" s="148"/>
-      <c r="BJ28" s="148"/>
-      <c r="BK28" s="148"/>
-      <c r="BL28" s="148"/>
-      <c r="BM28" s="148"/>
-      <c r="BN28" s="148"/>
-      <c r="BO28" s="148"/>
-      <c r="BP28" s="148"/>
-      <c r="BQ28" s="148"/>
-      <c r="BR28" s="149"/>
+    <row r="28" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="174"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="67"/>
+      <c r="AC28" s="68"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="67"/>
+      <c r="AI28" s="67"/>
+      <c r="AJ28" s="68"/>
+      <c r="AK28" s="70"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="150"/>
+      <c r="AN28" s="151"/>
+      <c r="AO28" s="151"/>
+      <c r="AP28" s="151"/>
+      <c r="AQ28" s="151"/>
+      <c r="AR28" s="151"/>
+      <c r="AS28" s="151"/>
+      <c r="AT28" s="151"/>
+      <c r="AU28" s="151"/>
+      <c r="AV28" s="151"/>
+      <c r="AW28" s="151"/>
+      <c r="AX28" s="151"/>
+      <c r="AY28" s="151"/>
+      <c r="AZ28" s="151"/>
+      <c r="BA28" s="151"/>
+      <c r="BB28" s="151"/>
+      <c r="BC28" s="151"/>
+      <c r="BD28" s="151"/>
+      <c r="BE28" s="151"/>
+      <c r="BF28" s="151"/>
+      <c r="BG28" s="151"/>
+      <c r="BH28" s="151"/>
+      <c r="BI28" s="151"/>
+      <c r="BJ28" s="151"/>
+      <c r="BK28" s="151"/>
+      <c r="BL28" s="151"/>
+      <c r="BM28" s="151"/>
+      <c r="BN28" s="151"/>
+      <c r="BO28" s="151"/>
+      <c r="BP28" s="151"/>
+      <c r="BQ28" s="151"/>
+      <c r="BR28" s="152"/>
     </row>
-    <row r="29" spans="1:70" ht="30" customHeight="1">
-      <c r="A29" s="188" t="s">
+    <row r="29" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="61"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="61"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="60"/>
-      <c r="AJ29" s="61"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="63"/>
-      <c r="AM29" s="135"/>
-      <c r="AN29" s="40"/>
-      <c r="AO29" s="41"/>
-      <c r="AP29" s="131"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="45"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="45"/>
-      <c r="AU29" s="45"/>
-      <c r="AV29" s="45"/>
-      <c r="AW29" s="42"/>
-      <c r="AX29" s="42"/>
-      <c r="AY29" s="42"/>
-      <c r="AZ29" s="42"/>
-      <c r="BA29" s="42"/>
-      <c r="BB29" s="42"/>
-      <c r="BC29" s="42"/>
-      <c r="BD29" s="43"/>
-      <c r="BE29" s="44"/>
-      <c r="BF29" s="42"/>
-      <c r="BG29" s="45"/>
-      <c r="BH29" s="45"/>
-      <c r="BI29" s="45"/>
-      <c r="BJ29" s="42"/>
-      <c r="BK29" s="43"/>
-      <c r="BL29" s="145"/>
-      <c r="BM29" s="42"/>
-      <c r="BN29" s="42"/>
-      <c r="BO29" s="150"/>
-      <c r="BP29" s="44"/>
-      <c r="BQ29" s="42"/>
-      <c r="BR29" s="143"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="46"/>
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="47"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="50"/>
+      <c r="AM29" s="117"/>
+      <c r="AN29" s="118"/>
+      <c r="AO29" s="119"/>
+      <c r="AP29" s="120"/>
+      <c r="AQ29" s="125"/>
+      <c r="AR29" s="126"/>
+      <c r="AS29" s="126"/>
+      <c r="AT29" s="126"/>
+      <c r="AU29" s="126"/>
+      <c r="AV29" s="126"/>
+      <c r="AW29" s="126"/>
+      <c r="AX29" s="126"/>
+      <c r="AY29" s="126"/>
+      <c r="AZ29" s="126"/>
+      <c r="BA29" s="126"/>
+      <c r="BB29" s="126"/>
+      <c r="BC29" s="126"/>
+      <c r="BD29" s="127"/>
+      <c r="BE29" s="125"/>
+      <c r="BF29" s="126"/>
+      <c r="BG29" s="126"/>
+      <c r="BH29" s="126"/>
+      <c r="BI29" s="126"/>
+      <c r="BJ29" s="126"/>
+      <c r="BK29" s="127"/>
+      <c r="BL29" s="136"/>
+      <c r="BM29" s="126"/>
+      <c r="BN29" s="126"/>
+      <c r="BO29" s="148"/>
+      <c r="BP29" s="125"/>
+      <c r="BQ29" s="126"/>
+      <c r="BR29" s="146"/>
     </row>
-    <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="189"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="107"/>
-      <c r="Y30" s="107"/>
-      <c r="Z30" s="107"/>
-      <c r="AA30" s="107"/>
-      <c r="AB30" s="107"/>
-      <c r="AC30" s="108"/>
-      <c r="AD30" s="106"/>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="107"/>
-      <c r="AG30" s="107"/>
-      <c r="AH30" s="107"/>
-      <c r="AI30" s="107"/>
-      <c r="AJ30" s="108"/>
-      <c r="AK30" s="110"/>
-      <c r="AL30" s="111"/>
-      <c r="AM30" s="99"/>
-      <c r="AN30" s="48"/>
-      <c r="AO30" s="49"/>
-      <c r="AP30" s="132"/>
-      <c r="AQ30" s="52"/>
-      <c r="AR30" s="50"/>
-      <c r="AS30" s="50"/>
-      <c r="AT30" s="50"/>
-      <c r="AU30" s="50"/>
-      <c r="AV30" s="50"/>
-      <c r="AW30" s="50"/>
-      <c r="AX30" s="50"/>
-      <c r="AY30" s="50"/>
-      <c r="AZ30" s="50"/>
-      <c r="BA30" s="50"/>
-      <c r="BB30" s="50"/>
-      <c r="BC30" s="50"/>
-      <c r="BD30" s="51"/>
-      <c r="BE30" s="52"/>
-      <c r="BF30" s="50"/>
-      <c r="BG30" s="50"/>
-      <c r="BH30" s="50"/>
-      <c r="BI30" s="50"/>
-      <c r="BJ30" s="50"/>
-      <c r="BK30" s="51"/>
-      <c r="BL30" s="146"/>
-      <c r="BM30" s="50"/>
-      <c r="BN30" s="50"/>
-      <c r="BO30" s="151"/>
-      <c r="BP30" s="52"/>
-      <c r="BQ30" s="50"/>
-      <c r="BR30" s="144"/>
+    <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="177"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="91"/>
+      <c r="AB30" s="91"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="90"/>
+      <c r="AE30" s="91"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="91"/>
+      <c r="AH30" s="91"/>
+      <c r="AI30" s="91"/>
+      <c r="AJ30" s="92"/>
+      <c r="AK30" s="94"/>
+      <c r="AL30" s="95"/>
+      <c r="AM30" s="121"/>
+      <c r="AN30" s="122"/>
+      <c r="AO30" s="123"/>
+      <c r="AP30" s="124"/>
+      <c r="AQ30" s="128"/>
+      <c r="AR30" s="129"/>
+      <c r="AS30" s="129"/>
+      <c r="AT30" s="129"/>
+      <c r="AU30" s="129"/>
+      <c r="AV30" s="129"/>
+      <c r="AW30" s="129"/>
+      <c r="AX30" s="129"/>
+      <c r="AY30" s="129"/>
+      <c r="AZ30" s="129"/>
+      <c r="BA30" s="129"/>
+      <c r="BB30" s="129"/>
+      <c r="BC30" s="129"/>
+      <c r="BD30" s="130"/>
+      <c r="BE30" s="128"/>
+      <c r="BF30" s="129"/>
+      <c r="BG30" s="129"/>
+      <c r="BH30" s="129"/>
+      <c r="BI30" s="129"/>
+      <c r="BJ30" s="129"/>
+      <c r="BK30" s="130"/>
+      <c r="BL30" s="137"/>
+      <c r="BM30" s="129"/>
+      <c r="BN30" s="129"/>
+      <c r="BO30" s="149"/>
+      <c r="BP30" s="128"/>
+      <c r="BQ30" s="129"/>
+      <c r="BR30" s="147"/>
     </row>
-    <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A31" s="190"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="85"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="86"/>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="86"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="85"/>
-      <c r="AE31" s="86"/>
-      <c r="AF31" s="86"/>
-      <c r="AG31" s="86"/>
-      <c r="AH31" s="86"/>
-      <c r="AI31" s="86"/>
-      <c r="AJ31" s="87"/>
-      <c r="AK31" s="88"/>
-      <c r="AL31" s="89"/>
-      <c r="AM31" s="147"/>
-      <c r="AN31" s="148"/>
-      <c r="AO31" s="148"/>
-      <c r="AP31" s="148"/>
-      <c r="AQ31" s="148"/>
-      <c r="AR31" s="148"/>
-      <c r="AS31" s="148"/>
-      <c r="AT31" s="148"/>
-      <c r="AU31" s="148"/>
-      <c r="AV31" s="148"/>
-      <c r="AW31" s="148"/>
-      <c r="AX31" s="148"/>
-      <c r="AY31" s="148"/>
-      <c r="AZ31" s="148"/>
-      <c r="BA31" s="148"/>
-      <c r="BB31" s="148"/>
-      <c r="BC31" s="148"/>
-      <c r="BD31" s="148"/>
-      <c r="BE31" s="148"/>
-      <c r="BF31" s="148"/>
-      <c r="BG31" s="148"/>
-      <c r="BH31" s="148"/>
-      <c r="BI31" s="148"/>
-      <c r="BJ31" s="148"/>
-      <c r="BK31" s="148"/>
-      <c r="BL31" s="148"/>
-      <c r="BM31" s="148"/>
-      <c r="BN31" s="148"/>
-      <c r="BO31" s="148"/>
-      <c r="BP31" s="148"/>
-      <c r="BQ31" s="148"/>
-      <c r="BR31" s="149"/>
+    <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="178"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="73"/>
+      <c r="AF31" s="73"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="73"/>
+      <c r="AI31" s="73"/>
+      <c r="AJ31" s="74"/>
+      <c r="AK31" s="75"/>
+      <c r="AL31" s="76"/>
+      <c r="AM31" s="150"/>
+      <c r="AN31" s="151"/>
+      <c r="AO31" s="151"/>
+      <c r="AP31" s="151"/>
+      <c r="AQ31" s="151"/>
+      <c r="AR31" s="151"/>
+      <c r="AS31" s="151"/>
+      <c r="AT31" s="151"/>
+      <c r="AU31" s="151"/>
+      <c r="AV31" s="151"/>
+      <c r="AW31" s="151"/>
+      <c r="AX31" s="151"/>
+      <c r="AY31" s="151"/>
+      <c r="AZ31" s="151"/>
+      <c r="BA31" s="151"/>
+      <c r="BB31" s="151"/>
+      <c r="BC31" s="151"/>
+      <c r="BD31" s="151"/>
+      <c r="BE31" s="151"/>
+      <c r="BF31" s="151"/>
+      <c r="BG31" s="151"/>
+      <c r="BH31" s="151"/>
+      <c r="BI31" s="151"/>
+      <c r="BJ31" s="151"/>
+      <c r="BK31" s="151"/>
+      <c r="BL31" s="151"/>
+      <c r="BM31" s="151"/>
+      <c r="BN31" s="151"/>
+      <c r="BO31" s="151"/>
+      <c r="BP31" s="151"/>
+      <c r="BQ31" s="151"/>
+      <c r="BR31" s="152"/>
     </row>
-    <row r="32" spans="1:70" ht="30" customHeight="1">
-      <c r="A32" s="188" t="s">
+    <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="54"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="55"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="57"/>
-      <c r="AL32" s="58"/>
-      <c r="AM32" s="135"/>
-      <c r="AN32" s="40"/>
-      <c r="AO32" s="41"/>
-      <c r="AP32" s="131"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="45"/>
-      <c r="AS32" s="45"/>
-      <c r="AT32" s="45"/>
-      <c r="AU32" s="45"/>
-      <c r="AV32" s="45"/>
-      <c r="AW32" s="42"/>
-      <c r="AX32" s="42"/>
-      <c r="AY32" s="42"/>
-      <c r="AZ32" s="42"/>
-      <c r="BA32" s="42"/>
-      <c r="BB32" s="42"/>
-      <c r="BC32" s="42"/>
-      <c r="BD32" s="43"/>
-      <c r="BE32" s="44"/>
-      <c r="BF32" s="42"/>
-      <c r="BG32" s="45"/>
-      <c r="BH32" s="45"/>
-      <c r="BI32" s="45"/>
-      <c r="BJ32" s="42"/>
-      <c r="BK32" s="43"/>
-      <c r="BL32" s="145"/>
-      <c r="BM32" s="42"/>
-      <c r="BN32" s="42"/>
-      <c r="BO32" s="150"/>
-      <c r="BP32" s="44"/>
-      <c r="BQ32" s="42"/>
-      <c r="BR32" s="143"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="42"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="117"/>
+      <c r="AN32" s="118"/>
+      <c r="AO32" s="119"/>
+      <c r="AP32" s="120"/>
+      <c r="AQ32" s="125"/>
+      <c r="AR32" s="126"/>
+      <c r="AS32" s="126"/>
+      <c r="AT32" s="126"/>
+      <c r="AU32" s="126"/>
+      <c r="AV32" s="126"/>
+      <c r="AW32" s="126"/>
+      <c r="AX32" s="126"/>
+      <c r="AY32" s="126"/>
+      <c r="AZ32" s="126"/>
+      <c r="BA32" s="126"/>
+      <c r="BB32" s="126"/>
+      <c r="BC32" s="126"/>
+      <c r="BD32" s="127"/>
+      <c r="BE32" s="125"/>
+      <c r="BF32" s="126"/>
+      <c r="BG32" s="126"/>
+      <c r="BH32" s="126"/>
+      <c r="BI32" s="126"/>
+      <c r="BJ32" s="126"/>
+      <c r="BK32" s="127"/>
+      <c r="BL32" s="136"/>
+      <c r="BM32" s="126"/>
+      <c r="BN32" s="126"/>
+      <c r="BO32" s="148"/>
+      <c r="BP32" s="125"/>
+      <c r="BQ32" s="126"/>
+      <c r="BR32" s="146"/>
     </row>
-    <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A33" s="189"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="108"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="107"/>
-      <c r="Y33" s="107"/>
-      <c r="Z33" s="107"/>
-      <c r="AA33" s="107"/>
-      <c r="AB33" s="107"/>
-      <c r="AC33" s="108"/>
-      <c r="AD33" s="106"/>
-      <c r="AE33" s="107"/>
-      <c r="AF33" s="107"/>
-      <c r="AG33" s="107"/>
-      <c r="AH33" s="107"/>
-      <c r="AI33" s="107"/>
-      <c r="AJ33" s="108"/>
-      <c r="AK33" s="110"/>
-      <c r="AL33" s="111"/>
-      <c r="AM33" s="99"/>
-      <c r="AN33" s="48"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="132"/>
-      <c r="AQ33" s="52"/>
-      <c r="AR33" s="50"/>
-      <c r="AS33" s="50"/>
-      <c r="AT33" s="50"/>
-      <c r="AU33" s="50"/>
-      <c r="AV33" s="50"/>
-      <c r="AW33" s="50"/>
-      <c r="AX33" s="50"/>
-      <c r="AY33" s="50"/>
-      <c r="AZ33" s="50"/>
-      <c r="BA33" s="50"/>
-      <c r="BB33" s="50"/>
-      <c r="BC33" s="50"/>
-      <c r="BD33" s="51"/>
-      <c r="BE33" s="52"/>
-      <c r="BF33" s="50"/>
-      <c r="BG33" s="50"/>
-      <c r="BH33" s="50"/>
-      <c r="BI33" s="50"/>
-      <c r="BJ33" s="50"/>
-      <c r="BK33" s="51"/>
-      <c r="BL33" s="146"/>
-      <c r="BM33" s="50"/>
-      <c r="BN33" s="50"/>
-      <c r="BO33" s="151"/>
-      <c r="BP33" s="52"/>
-      <c r="BQ33" s="50"/>
-      <c r="BR33" s="144"/>
+    <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="177"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="91"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="92"/>
+      <c r="AD33" s="90"/>
+      <c r="AE33" s="91"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="91"/>
+      <c r="AH33" s="91"/>
+      <c r="AI33" s="91"/>
+      <c r="AJ33" s="92"/>
+      <c r="AK33" s="94"/>
+      <c r="AL33" s="95"/>
+      <c r="AM33" s="121"/>
+      <c r="AN33" s="122"/>
+      <c r="AO33" s="123"/>
+      <c r="AP33" s="124"/>
+      <c r="AQ33" s="128"/>
+      <c r="AR33" s="129"/>
+      <c r="AS33" s="129"/>
+      <c r="AT33" s="129"/>
+      <c r="AU33" s="129"/>
+      <c r="AV33" s="129"/>
+      <c r="AW33" s="129"/>
+      <c r="AX33" s="129"/>
+      <c r="AY33" s="129"/>
+      <c r="AZ33" s="129"/>
+      <c r="BA33" s="129"/>
+      <c r="BB33" s="129"/>
+      <c r="BC33" s="129"/>
+      <c r="BD33" s="130"/>
+      <c r="BE33" s="128"/>
+      <c r="BF33" s="129"/>
+      <c r="BG33" s="129"/>
+      <c r="BH33" s="129"/>
+      <c r="BI33" s="129"/>
+      <c r="BJ33" s="129"/>
+      <c r="BK33" s="130"/>
+      <c r="BL33" s="137"/>
+      <c r="BM33" s="129"/>
+      <c r="BN33" s="129"/>
+      <c r="BO33" s="149"/>
+      <c r="BP33" s="128"/>
+      <c r="BQ33" s="129"/>
+      <c r="BR33" s="147"/>
     </row>
-    <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A34" s="190"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="80"/>
-      <c r="V34" s="81"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="80"/>
-      <c r="Y34" s="80"/>
-      <c r="Z34" s="80"/>
-      <c r="AA34" s="80"/>
-      <c r="AB34" s="80"/>
-      <c r="AC34" s="81"/>
-      <c r="AD34" s="79"/>
-      <c r="AE34" s="80"/>
-      <c r="AF34" s="80"/>
-      <c r="AG34" s="80"/>
-      <c r="AH34" s="80"/>
-      <c r="AI34" s="80"/>
-      <c r="AJ34" s="81"/>
-      <c r="AK34" s="83"/>
-      <c r="AL34" s="84"/>
-      <c r="AM34" s="147"/>
-      <c r="AN34" s="148"/>
-      <c r="AO34" s="148"/>
-      <c r="AP34" s="148"/>
-      <c r="AQ34" s="148"/>
-      <c r="AR34" s="148"/>
-      <c r="AS34" s="148"/>
-      <c r="AT34" s="148"/>
-      <c r="AU34" s="148"/>
-      <c r="AV34" s="148"/>
-      <c r="AW34" s="148"/>
-      <c r="AX34" s="148"/>
-      <c r="AY34" s="148"/>
-      <c r="AZ34" s="148"/>
-      <c r="BA34" s="148"/>
-      <c r="BB34" s="148"/>
-      <c r="BC34" s="148"/>
-      <c r="BD34" s="148"/>
-      <c r="BE34" s="148"/>
-      <c r="BF34" s="148"/>
-      <c r="BG34" s="148"/>
-      <c r="BH34" s="148"/>
-      <c r="BI34" s="148"/>
-      <c r="BJ34" s="148"/>
-      <c r="BK34" s="148"/>
-      <c r="BL34" s="148"/>
-      <c r="BM34" s="148"/>
-      <c r="BN34" s="148"/>
-      <c r="BO34" s="148"/>
-      <c r="BP34" s="148"/>
-      <c r="BQ34" s="148"/>
-      <c r="BR34" s="149"/>
+    <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="178"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="67"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="67"/>
+      <c r="AI34" s="67"/>
+      <c r="AJ34" s="68"/>
+      <c r="AK34" s="70"/>
+      <c r="AL34" s="71"/>
+      <c r="AM34" s="150"/>
+      <c r="AN34" s="151"/>
+      <c r="AO34" s="151"/>
+      <c r="AP34" s="151"/>
+      <c r="AQ34" s="151"/>
+      <c r="AR34" s="151"/>
+      <c r="AS34" s="151"/>
+      <c r="AT34" s="151"/>
+      <c r="AU34" s="151"/>
+      <c r="AV34" s="151"/>
+      <c r="AW34" s="151"/>
+      <c r="AX34" s="151"/>
+      <c r="AY34" s="151"/>
+      <c r="AZ34" s="151"/>
+      <c r="BA34" s="151"/>
+      <c r="BB34" s="151"/>
+      <c r="BC34" s="151"/>
+      <c r="BD34" s="151"/>
+      <c r="BE34" s="151"/>
+      <c r="BF34" s="151"/>
+      <c r="BG34" s="151"/>
+      <c r="BH34" s="151"/>
+      <c r="BI34" s="151"/>
+      <c r="BJ34" s="151"/>
+      <c r="BK34" s="151"/>
+      <c r="BL34" s="151"/>
+      <c r="BM34" s="151"/>
+      <c r="BN34" s="151"/>
+      <c r="BO34" s="151"/>
+      <c r="BP34" s="151"/>
+      <c r="BQ34" s="151"/>
+      <c r="BR34" s="152"/>
     </row>
-    <row r="35" spans="1:70" ht="30" customHeight="1">
-      <c r="A35" s="184" t="s">
+    <row r="35" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="67"/>
-      <c r="AE35" s="65"/>
-      <c r="AF35" s="65"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="65"/>
-      <c r="AI35" s="65"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="64"/>
-      <c r="AL35" s="68"/>
-      <c r="AM35" s="135"/>
-      <c r="AN35" s="40"/>
-      <c r="AO35" s="41"/>
-      <c r="AP35" s="131"/>
-      <c r="AQ35" s="44"/>
-      <c r="AR35" s="45"/>
-      <c r="AS35" s="45"/>
-      <c r="AT35" s="45"/>
-      <c r="AU35" s="45"/>
-      <c r="AV35" s="45"/>
-      <c r="AW35" s="42"/>
-      <c r="AX35" s="42"/>
-      <c r="AY35" s="42"/>
-      <c r="AZ35" s="42"/>
-      <c r="BA35" s="42"/>
-      <c r="BB35" s="42"/>
-      <c r="BC35" s="42"/>
-      <c r="BD35" s="43"/>
-      <c r="BE35" s="44"/>
-      <c r="BF35" s="42"/>
-      <c r="BG35" s="45"/>
-      <c r="BH35" s="45"/>
-      <c r="BI35" s="45"/>
-      <c r="BJ35" s="42"/>
-      <c r="BK35" s="43"/>
-      <c r="BL35" s="145"/>
-      <c r="BM35" s="42"/>
-      <c r="BN35" s="42"/>
-      <c r="BO35" s="150"/>
-      <c r="BP35" s="44"/>
-      <c r="BQ35" s="42"/>
-      <c r="BR35" s="143"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="52"/>
+      <c r="AG35" s="52"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="53"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="55"/>
+      <c r="AM35" s="117"/>
+      <c r="AN35" s="118"/>
+      <c r="AO35" s="119"/>
+      <c r="AP35" s="120"/>
+      <c r="AQ35" s="125"/>
+      <c r="AR35" s="126"/>
+      <c r="AS35" s="126"/>
+      <c r="AT35" s="126"/>
+      <c r="AU35" s="126"/>
+      <c r="AV35" s="126"/>
+      <c r="AW35" s="126"/>
+      <c r="AX35" s="126"/>
+      <c r="AY35" s="126"/>
+      <c r="AZ35" s="126"/>
+      <c r="BA35" s="126"/>
+      <c r="BB35" s="126"/>
+      <c r="BC35" s="126"/>
+      <c r="BD35" s="127"/>
+      <c r="BE35" s="125"/>
+      <c r="BF35" s="126"/>
+      <c r="BG35" s="126"/>
+      <c r="BH35" s="126"/>
+      <c r="BI35" s="126"/>
+      <c r="BJ35" s="126"/>
+      <c r="BK35" s="127"/>
+      <c r="BL35" s="136"/>
+      <c r="BM35" s="126"/>
+      <c r="BN35" s="126"/>
+      <c r="BO35" s="148"/>
+      <c r="BP35" s="125"/>
+      <c r="BQ35" s="126"/>
+      <c r="BR35" s="146"/>
     </row>
-    <row r="36" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A36" s="185"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="107"/>
-      <c r="N36" s="107"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="107"/>
-      <c r="U36" s="107"/>
-      <c r="V36" s="108"/>
-      <c r="W36" s="106"/>
-      <c r="X36" s="107"/>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="107"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="108"/>
-      <c r="AD36" s="106"/>
-      <c r="AE36" s="107"/>
-      <c r="AF36" s="107"/>
-      <c r="AG36" s="107"/>
-      <c r="AH36" s="107"/>
-      <c r="AI36" s="107"/>
-      <c r="AJ36" s="108"/>
-      <c r="AK36" s="110"/>
-      <c r="AL36" s="111"/>
-      <c r="AM36" s="99"/>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="49"/>
-      <c r="AP36" s="132"/>
-      <c r="AQ36" s="52"/>
-      <c r="AR36" s="50"/>
-      <c r="AS36" s="50"/>
-      <c r="AT36" s="50"/>
-      <c r="AU36" s="50"/>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
-      <c r="BB36" s="50"/>
-      <c r="BC36" s="50"/>
-      <c r="BD36" s="51"/>
-      <c r="BE36" s="52"/>
-      <c r="BF36" s="50"/>
-      <c r="BG36" s="50"/>
-      <c r="BH36" s="50"/>
-      <c r="BI36" s="50"/>
-      <c r="BJ36" s="50"/>
-      <c r="BK36" s="51"/>
-      <c r="BL36" s="146"/>
-      <c r="BM36" s="50"/>
-      <c r="BN36" s="50"/>
-      <c r="BO36" s="151"/>
-      <c r="BP36" s="52"/>
-      <c r="BQ36" s="50"/>
-      <c r="BR36" s="144"/>
+    <row r="36" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="173"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="91"/>
+      <c r="T36" s="91"/>
+      <c r="U36" s="91"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="90"/>
+      <c r="X36" s="91"/>
+      <c r="Y36" s="91"/>
+      <c r="Z36" s="91"/>
+      <c r="AA36" s="91"/>
+      <c r="AB36" s="91"/>
+      <c r="AC36" s="92"/>
+      <c r="AD36" s="90"/>
+      <c r="AE36" s="91"/>
+      <c r="AF36" s="91"/>
+      <c r="AG36" s="91"/>
+      <c r="AH36" s="91"/>
+      <c r="AI36" s="91"/>
+      <c r="AJ36" s="92"/>
+      <c r="AK36" s="94"/>
+      <c r="AL36" s="95"/>
+      <c r="AM36" s="121"/>
+      <c r="AN36" s="122"/>
+      <c r="AO36" s="123"/>
+      <c r="AP36" s="124"/>
+      <c r="AQ36" s="128"/>
+      <c r="AR36" s="129"/>
+      <c r="AS36" s="129"/>
+      <c r="AT36" s="129"/>
+      <c r="AU36" s="129"/>
+      <c r="AV36" s="129"/>
+      <c r="AW36" s="129"/>
+      <c r="AX36" s="129"/>
+      <c r="AY36" s="129"/>
+      <c r="AZ36" s="129"/>
+      <c r="BA36" s="129"/>
+      <c r="BB36" s="129"/>
+      <c r="BC36" s="129"/>
+      <c r="BD36" s="130"/>
+      <c r="BE36" s="128"/>
+      <c r="BF36" s="129"/>
+      <c r="BG36" s="129"/>
+      <c r="BH36" s="129"/>
+      <c r="BI36" s="129"/>
+      <c r="BJ36" s="129"/>
+      <c r="BK36" s="130"/>
+      <c r="BL36" s="137"/>
+      <c r="BM36" s="129"/>
+      <c r="BN36" s="129"/>
+      <c r="BO36" s="149"/>
+      <c r="BP36" s="128"/>
+      <c r="BQ36" s="129"/>
+      <c r="BR36" s="147"/>
     </row>
-    <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A37" s="186"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="86"/>
-      <c r="R37" s="86"/>
-      <c r="S37" s="86"/>
-      <c r="T37" s="86"/>
-      <c r="U37" s="86"/>
-      <c r="V37" s="87"/>
-      <c r="W37" s="85"/>
-      <c r="X37" s="86"/>
-      <c r="Y37" s="86"/>
-      <c r="Z37" s="86"/>
-      <c r="AA37" s="86"/>
-      <c r="AB37" s="86"/>
-      <c r="AC37" s="87"/>
-      <c r="AD37" s="85"/>
-      <c r="AE37" s="86"/>
-      <c r="AF37" s="86"/>
-      <c r="AG37" s="86"/>
-      <c r="AH37" s="86"/>
-      <c r="AI37" s="86"/>
-      <c r="AJ37" s="87"/>
-      <c r="AK37" s="88"/>
-      <c r="AL37" s="89"/>
-      <c r="AM37" s="147"/>
-      <c r="AN37" s="148"/>
-      <c r="AO37" s="148"/>
-      <c r="AP37" s="148"/>
-      <c r="AQ37" s="148"/>
-      <c r="AR37" s="148"/>
-      <c r="AS37" s="148"/>
-      <c r="AT37" s="148"/>
-      <c r="AU37" s="148"/>
-      <c r="AV37" s="148"/>
-      <c r="AW37" s="148"/>
-      <c r="AX37" s="148"/>
-      <c r="AY37" s="148"/>
-      <c r="AZ37" s="148"/>
-      <c r="BA37" s="148"/>
-      <c r="BB37" s="148"/>
-      <c r="BC37" s="148"/>
-      <c r="BD37" s="148"/>
-      <c r="BE37" s="148"/>
-      <c r="BF37" s="148"/>
-      <c r="BG37" s="148"/>
-      <c r="BH37" s="148"/>
-      <c r="BI37" s="148"/>
-      <c r="BJ37" s="148"/>
-      <c r="BK37" s="148"/>
-      <c r="BL37" s="148"/>
-      <c r="BM37" s="148"/>
-      <c r="BN37" s="148"/>
-      <c r="BO37" s="148"/>
-      <c r="BP37" s="148"/>
-      <c r="BQ37" s="148"/>
-      <c r="BR37" s="149"/>
+    <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="174"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="73"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="73"/>
+      <c r="AF37" s="73"/>
+      <c r="AG37" s="73"/>
+      <c r="AH37" s="73"/>
+      <c r="AI37" s="73"/>
+      <c r="AJ37" s="74"/>
+      <c r="AK37" s="75"/>
+      <c r="AL37" s="76"/>
+      <c r="AM37" s="150"/>
+      <c r="AN37" s="151"/>
+      <c r="AO37" s="151"/>
+      <c r="AP37" s="151"/>
+      <c r="AQ37" s="151"/>
+      <c r="AR37" s="151"/>
+      <c r="AS37" s="151"/>
+      <c r="AT37" s="151"/>
+      <c r="AU37" s="151"/>
+      <c r="AV37" s="151"/>
+      <c r="AW37" s="151"/>
+      <c r="AX37" s="151"/>
+      <c r="AY37" s="151"/>
+      <c r="AZ37" s="151"/>
+      <c r="BA37" s="151"/>
+      <c r="BB37" s="151"/>
+      <c r="BC37" s="151"/>
+      <c r="BD37" s="151"/>
+      <c r="BE37" s="151"/>
+      <c r="BF37" s="151"/>
+      <c r="BG37" s="151"/>
+      <c r="BH37" s="151"/>
+      <c r="BI37" s="151"/>
+      <c r="BJ37" s="151"/>
+      <c r="BK37" s="151"/>
+      <c r="BL37" s="151"/>
+      <c r="BM37" s="151"/>
+      <c r="BN37" s="151"/>
+      <c r="BO37" s="151"/>
+      <c r="BP37" s="151"/>
+      <c r="BQ37" s="151"/>
+      <c r="BR37" s="152"/>
     </row>
-    <row r="38" spans="1:70" ht="30" customHeight="1">
-      <c r="A38" s="184" t="s">
+    <row r="38" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="70"/>
-      <c r="S38" s="70"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="70"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="70"/>
-      <c r="Y38" s="70"/>
-      <c r="Z38" s="70"/>
-      <c r="AA38" s="70"/>
-      <c r="AB38" s="70"/>
-      <c r="AC38" s="71"/>
-      <c r="AD38" s="72"/>
-      <c r="AE38" s="70"/>
-      <c r="AF38" s="70"/>
-      <c r="AG38" s="70"/>
-      <c r="AH38" s="70"/>
-      <c r="AI38" s="70"/>
-      <c r="AJ38" s="71"/>
-      <c r="AK38" s="69"/>
-      <c r="AL38" s="73"/>
-      <c r="AM38" s="135"/>
-      <c r="AN38" s="40"/>
-      <c r="AO38" s="41"/>
-      <c r="AP38" s="131"/>
-      <c r="AQ38" s="44"/>
-      <c r="AR38" s="45"/>
-      <c r="AS38" s="45"/>
-      <c r="AT38" s="45"/>
-      <c r="AU38" s="45"/>
-      <c r="AV38" s="45"/>
-      <c r="AW38" s="42"/>
-      <c r="AX38" s="42"/>
-      <c r="AY38" s="42"/>
-      <c r="AZ38" s="42"/>
-      <c r="BA38" s="42"/>
-      <c r="BB38" s="42"/>
-      <c r="BC38" s="42"/>
-      <c r="BD38" s="43"/>
-      <c r="BE38" s="44"/>
-      <c r="BF38" s="42"/>
-      <c r="BG38" s="45"/>
-      <c r="BH38" s="45"/>
-      <c r="BI38" s="45"/>
-      <c r="BJ38" s="42"/>
-      <c r="BK38" s="43"/>
-      <c r="BL38" s="145"/>
-      <c r="BM38" s="42"/>
-      <c r="BN38" s="42"/>
-      <c r="BO38" s="150"/>
-      <c r="BP38" s="44"/>
-      <c r="BQ38" s="42"/>
-      <c r="BR38" s="143"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="57"/>
+      <c r="AB38" s="57"/>
+      <c r="AC38" s="58"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="57"/>
+      <c r="AF38" s="57"/>
+      <c r="AG38" s="57"/>
+      <c r="AH38" s="57"/>
+      <c r="AI38" s="57"/>
+      <c r="AJ38" s="58"/>
+      <c r="AK38" s="56"/>
+      <c r="AL38" s="60"/>
+      <c r="AM38" s="117"/>
+      <c r="AN38" s="118"/>
+      <c r="AO38" s="119"/>
+      <c r="AP38" s="120"/>
+      <c r="AQ38" s="125"/>
+      <c r="AR38" s="126"/>
+      <c r="AS38" s="126"/>
+      <c r="AT38" s="126"/>
+      <c r="AU38" s="126"/>
+      <c r="AV38" s="126"/>
+      <c r="AW38" s="126"/>
+      <c r="AX38" s="126"/>
+      <c r="AY38" s="126"/>
+      <c r="AZ38" s="126"/>
+      <c r="BA38" s="126"/>
+      <c r="BB38" s="126"/>
+      <c r="BC38" s="126"/>
+      <c r="BD38" s="127"/>
+      <c r="BE38" s="125"/>
+      <c r="BF38" s="126"/>
+      <c r="BG38" s="126"/>
+      <c r="BH38" s="126"/>
+      <c r="BI38" s="126"/>
+      <c r="BJ38" s="126"/>
+      <c r="BK38" s="127"/>
+      <c r="BL38" s="136"/>
+      <c r="BM38" s="126"/>
+      <c r="BN38" s="126"/>
+      <c r="BO38" s="148"/>
+      <c r="BP38" s="125"/>
+      <c r="BQ38" s="126"/>
+      <c r="BR38" s="146"/>
     </row>
-    <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A39" s="185"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="107"/>
-      <c r="N39" s="107"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="107"/>
-      <c r="U39" s="107"/>
-      <c r="V39" s="108"/>
-      <c r="W39" s="106"/>
-      <c r="X39" s="107"/>
-      <c r="Y39" s="107"/>
-      <c r="Z39" s="107"/>
-      <c r="AA39" s="107"/>
-      <c r="AB39" s="107"/>
-      <c r="AC39" s="108"/>
-      <c r="AD39" s="106"/>
-      <c r="AE39" s="107"/>
-      <c r="AF39" s="107"/>
-      <c r="AG39" s="107"/>
-      <c r="AH39" s="107"/>
-      <c r="AI39" s="107"/>
-      <c r="AJ39" s="108"/>
-      <c r="AK39" s="110"/>
-      <c r="AL39" s="111"/>
-      <c r="AM39" s="97"/>
-      <c r="AN39" s="48"/>
-      <c r="AO39" s="49"/>
-      <c r="AP39" s="132"/>
-      <c r="AQ39" s="52"/>
-      <c r="AR39" s="50"/>
-      <c r="AS39" s="50"/>
-      <c r="AT39" s="50"/>
-      <c r="AU39" s="50"/>
-      <c r="AV39" s="50"/>
-      <c r="AW39" s="50"/>
-      <c r="AX39" s="50"/>
-      <c r="AY39" s="50"/>
-      <c r="AZ39" s="50"/>
-      <c r="BA39" s="50"/>
-      <c r="BB39" s="50"/>
-      <c r="BC39" s="50"/>
-      <c r="BD39" s="51"/>
-      <c r="BE39" s="52"/>
-      <c r="BF39" s="50"/>
-      <c r="BG39" s="50"/>
-      <c r="BH39" s="50"/>
-      <c r="BI39" s="50"/>
-      <c r="BJ39" s="50"/>
-      <c r="BK39" s="51"/>
-      <c r="BL39" s="146"/>
-      <c r="BM39" s="50"/>
-      <c r="BN39" s="50"/>
-      <c r="BO39" s="151"/>
-      <c r="BP39" s="52"/>
-      <c r="BQ39" s="50"/>
-      <c r="BR39" s="144"/>
+    <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="173"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="91"/>
+      <c r="S39" s="91"/>
+      <c r="T39" s="91"/>
+      <c r="U39" s="91"/>
+      <c r="V39" s="92"/>
+      <c r="W39" s="90"/>
+      <c r="X39" s="91"/>
+      <c r="Y39" s="91"/>
+      <c r="Z39" s="91"/>
+      <c r="AA39" s="91"/>
+      <c r="AB39" s="91"/>
+      <c r="AC39" s="92"/>
+      <c r="AD39" s="90"/>
+      <c r="AE39" s="91"/>
+      <c r="AF39" s="91"/>
+      <c r="AG39" s="91"/>
+      <c r="AH39" s="91"/>
+      <c r="AI39" s="91"/>
+      <c r="AJ39" s="92"/>
+      <c r="AK39" s="94"/>
+      <c r="AL39" s="95"/>
+      <c r="AM39" s="131"/>
+      <c r="AN39" s="122"/>
+      <c r="AO39" s="123"/>
+      <c r="AP39" s="124"/>
+      <c r="AQ39" s="128"/>
+      <c r="AR39" s="129"/>
+      <c r="AS39" s="129"/>
+      <c r="AT39" s="129"/>
+      <c r="AU39" s="129"/>
+      <c r="AV39" s="129"/>
+      <c r="AW39" s="129"/>
+      <c r="AX39" s="129"/>
+      <c r="AY39" s="129"/>
+      <c r="AZ39" s="129"/>
+      <c r="BA39" s="129"/>
+      <c r="BB39" s="129"/>
+      <c r="BC39" s="129"/>
+      <c r="BD39" s="130"/>
+      <c r="BE39" s="128"/>
+      <c r="BF39" s="129"/>
+      <c r="BG39" s="129"/>
+      <c r="BH39" s="129"/>
+      <c r="BI39" s="129"/>
+      <c r="BJ39" s="129"/>
+      <c r="BK39" s="130"/>
+      <c r="BL39" s="137"/>
+      <c r="BM39" s="129"/>
+      <c r="BN39" s="129"/>
+      <c r="BO39" s="149"/>
+      <c r="BP39" s="128"/>
+      <c r="BQ39" s="129"/>
+      <c r="BR39" s="147"/>
     </row>
-    <row r="40" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A40" s="186"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="80"/>
-      <c r="R40" s="80"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="81"/>
-      <c r="W40" s="79"/>
-      <c r="X40" s="80"/>
-      <c r="Y40" s="80"/>
-      <c r="Z40" s="80"/>
-      <c r="AA40" s="80"/>
-      <c r="AB40" s="80"/>
-      <c r="AC40" s="81"/>
-      <c r="AD40" s="79"/>
-      <c r="AE40" s="80"/>
-      <c r="AF40" s="80"/>
-      <c r="AG40" s="80"/>
-      <c r="AH40" s="80"/>
-      <c r="AI40" s="80"/>
-      <c r="AJ40" s="81"/>
-      <c r="AK40" s="83"/>
-      <c r="AL40" s="84"/>
-      <c r="AM40" s="147"/>
-      <c r="AN40" s="148"/>
-      <c r="AO40" s="148"/>
-      <c r="AP40" s="148"/>
-      <c r="AQ40" s="148"/>
-      <c r="AR40" s="148"/>
-      <c r="AS40" s="148"/>
-      <c r="AT40" s="148"/>
-      <c r="AU40" s="148"/>
-      <c r="AV40" s="148"/>
-      <c r="AW40" s="148"/>
-      <c r="AX40" s="148"/>
-      <c r="AY40" s="148"/>
-      <c r="AZ40" s="148"/>
-      <c r="BA40" s="148"/>
-      <c r="BB40" s="148"/>
-      <c r="BC40" s="148"/>
-      <c r="BD40" s="148"/>
-      <c r="BE40" s="148"/>
-      <c r="BF40" s="148"/>
-      <c r="BG40" s="148"/>
-      <c r="BH40" s="148"/>
-      <c r="BI40" s="148"/>
-      <c r="BJ40" s="148"/>
-      <c r="BK40" s="148"/>
-      <c r="BL40" s="148"/>
-      <c r="BM40" s="148"/>
-      <c r="BN40" s="148"/>
-      <c r="BO40" s="148"/>
-      <c r="BP40" s="148"/>
-      <c r="BQ40" s="148"/>
-      <c r="BR40" s="149"/>
+    <row r="40" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="174"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="67"/>
+      <c r="AF40" s="67"/>
+      <c r="AG40" s="67"/>
+      <c r="AH40" s="67"/>
+      <c r="AI40" s="67"/>
+      <c r="AJ40" s="68"/>
+      <c r="AK40" s="70"/>
+      <c r="AL40" s="71"/>
+      <c r="AM40" s="150"/>
+      <c r="AN40" s="151"/>
+      <c r="AO40" s="151"/>
+      <c r="AP40" s="151"/>
+      <c r="AQ40" s="151"/>
+      <c r="AR40" s="151"/>
+      <c r="AS40" s="151"/>
+      <c r="AT40" s="151"/>
+      <c r="AU40" s="151"/>
+      <c r="AV40" s="151"/>
+      <c r="AW40" s="151"/>
+      <c r="AX40" s="151"/>
+      <c r="AY40" s="151"/>
+      <c r="AZ40" s="151"/>
+      <c r="BA40" s="151"/>
+      <c r="BB40" s="151"/>
+      <c r="BC40" s="151"/>
+      <c r="BD40" s="151"/>
+      <c r="BE40" s="151"/>
+      <c r="BF40" s="151"/>
+      <c r="BG40" s="151"/>
+      <c r="BH40" s="151"/>
+      <c r="BI40" s="151"/>
+      <c r="BJ40" s="151"/>
+      <c r="BK40" s="151"/>
+      <c r="BL40" s="151"/>
+      <c r="BM40" s="151"/>
+      <c r="BN40" s="151"/>
+      <c r="BO40" s="151"/>
+      <c r="BP40" s="151"/>
+      <c r="BQ40" s="151"/>
+      <c r="BR40" s="152"/>
     </row>
-    <row r="41" spans="1:70" ht="30" customHeight="1">
-      <c r="A41" s="184" t="s">
+    <row r="41" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="60"/>
-      <c r="U41" s="60"/>
-      <c r="V41" s="61"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="60"/>
-      <c r="Y41" s="60"/>
-      <c r="Z41" s="60"/>
-      <c r="AA41" s="60"/>
-      <c r="AB41" s="60"/>
-      <c r="AC41" s="61"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="60"/>
-      <c r="AF41" s="60"/>
-      <c r="AG41" s="60"/>
-      <c r="AH41" s="60"/>
-      <c r="AI41" s="60"/>
-      <c r="AJ41" s="61"/>
-      <c r="AK41" s="62"/>
-      <c r="AL41" s="63"/>
-      <c r="AM41" s="135"/>
-      <c r="AN41" s="40"/>
-      <c r="AO41" s="41"/>
-      <c r="AP41" s="131"/>
-      <c r="AQ41" s="44"/>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
-      <c r="AT41" s="45"/>
-      <c r="AU41" s="45"/>
-      <c r="AV41" s="45"/>
-      <c r="AW41" s="42"/>
-      <c r="AX41" s="42"/>
-      <c r="AY41" s="42"/>
-      <c r="AZ41" s="42"/>
-      <c r="BA41" s="42"/>
-      <c r="BB41" s="42"/>
-      <c r="BC41" s="42"/>
-      <c r="BD41" s="43"/>
-      <c r="BE41" s="44"/>
-      <c r="BF41" s="42"/>
-      <c r="BG41" s="45"/>
-      <c r="BH41" s="45"/>
-      <c r="BI41" s="45"/>
-      <c r="BJ41" s="42"/>
-      <c r="BK41" s="43"/>
-      <c r="BL41" s="145"/>
-      <c r="BM41" s="42"/>
-      <c r="BN41" s="42"/>
-      <c r="BO41" s="150"/>
-      <c r="BP41" s="44"/>
-      <c r="BQ41" s="42"/>
-      <c r="BR41" s="143"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="47"/>
+      <c r="Y41" s="47"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="48"/>
+      <c r="AD41" s="46"/>
+      <c r="AE41" s="47"/>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="47"/>
+      <c r="AH41" s="47"/>
+      <c r="AI41" s="47"/>
+      <c r="AJ41" s="48"/>
+      <c r="AK41" s="49"/>
+      <c r="AL41" s="50"/>
+      <c r="AM41" s="117"/>
+      <c r="AN41" s="118"/>
+      <c r="AO41" s="119"/>
+      <c r="AP41" s="120"/>
+      <c r="AQ41" s="125"/>
+      <c r="AR41" s="126"/>
+      <c r="AS41" s="126"/>
+      <c r="AT41" s="126"/>
+      <c r="AU41" s="126"/>
+      <c r="AV41" s="126"/>
+      <c r="AW41" s="126"/>
+      <c r="AX41" s="126"/>
+      <c r="AY41" s="126"/>
+      <c r="AZ41" s="126"/>
+      <c r="BA41" s="126"/>
+      <c r="BB41" s="126"/>
+      <c r="BC41" s="126"/>
+      <c r="BD41" s="127"/>
+      <c r="BE41" s="125"/>
+      <c r="BF41" s="126"/>
+      <c r="BG41" s="126"/>
+      <c r="BH41" s="126"/>
+      <c r="BI41" s="126"/>
+      <c r="BJ41" s="126"/>
+      <c r="BK41" s="127"/>
+      <c r="BL41" s="136"/>
+      <c r="BM41" s="126"/>
+      <c r="BN41" s="126"/>
+      <c r="BO41" s="148"/>
+      <c r="BP41" s="125"/>
+      <c r="BQ41" s="126"/>
+      <c r="BR41" s="146"/>
     </row>
-    <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A42" s="185"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="107"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="107"/>
-      <c r="S42" s="107"/>
-      <c r="T42" s="107"/>
-      <c r="U42" s="107"/>
-      <c r="V42" s="108"/>
-      <c r="W42" s="106"/>
-      <c r="X42" s="107"/>
-      <c r="Y42" s="107"/>
-      <c r="Z42" s="107"/>
-      <c r="AA42" s="107"/>
-      <c r="AB42" s="107"/>
-      <c r="AC42" s="108"/>
-      <c r="AD42" s="106"/>
-      <c r="AE42" s="107"/>
-      <c r="AF42" s="107"/>
-      <c r="AG42" s="107"/>
-      <c r="AH42" s="107"/>
-      <c r="AI42" s="107"/>
-      <c r="AJ42" s="108"/>
-      <c r="AK42" s="110"/>
-      <c r="AL42" s="111"/>
-      <c r="AM42" s="99"/>
-      <c r="AN42" s="48"/>
-      <c r="AO42" s="49"/>
-      <c r="AP42" s="132"/>
-      <c r="AQ42" s="52"/>
-      <c r="AR42" s="50"/>
-      <c r="AS42" s="50"/>
-      <c r="AT42" s="50"/>
-      <c r="AU42" s="50"/>
-      <c r="AV42" s="50"/>
-      <c r="AW42" s="50"/>
-      <c r="AX42" s="50"/>
-      <c r="AY42" s="50"/>
-      <c r="AZ42" s="50"/>
-      <c r="BA42" s="50"/>
-      <c r="BB42" s="50"/>
-      <c r="BC42" s="50"/>
-      <c r="BD42" s="51"/>
-      <c r="BE42" s="52"/>
-      <c r="BF42" s="50"/>
-      <c r="BG42" s="50"/>
-      <c r="BH42" s="50"/>
-      <c r="BI42" s="50"/>
-      <c r="BJ42" s="50"/>
-      <c r="BK42" s="51"/>
-      <c r="BL42" s="146"/>
-      <c r="BM42" s="50"/>
-      <c r="BN42" s="50"/>
-      <c r="BO42" s="151"/>
-      <c r="BP42" s="52"/>
-      <c r="BQ42" s="50"/>
-      <c r="BR42" s="144"/>
+    <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="173"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="92"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="91"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="91"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="91"/>
+      <c r="V42" s="92"/>
+      <c r="W42" s="90"/>
+      <c r="X42" s="91"/>
+      <c r="Y42" s="91"/>
+      <c r="Z42" s="91"/>
+      <c r="AA42" s="91"/>
+      <c r="AB42" s="91"/>
+      <c r="AC42" s="92"/>
+      <c r="AD42" s="90"/>
+      <c r="AE42" s="91"/>
+      <c r="AF42" s="91"/>
+      <c r="AG42" s="91"/>
+      <c r="AH42" s="91"/>
+      <c r="AI42" s="91"/>
+      <c r="AJ42" s="92"/>
+      <c r="AK42" s="94"/>
+      <c r="AL42" s="95"/>
+      <c r="AM42" s="121"/>
+      <c r="AN42" s="122"/>
+      <c r="AO42" s="123"/>
+      <c r="AP42" s="124"/>
+      <c r="AQ42" s="128"/>
+      <c r="AR42" s="129"/>
+      <c r="AS42" s="129"/>
+      <c r="AT42" s="129"/>
+      <c r="AU42" s="129"/>
+      <c r="AV42" s="129"/>
+      <c r="AW42" s="129"/>
+      <c r="AX42" s="129"/>
+      <c r="AY42" s="129"/>
+      <c r="AZ42" s="129"/>
+      <c r="BA42" s="129"/>
+      <c r="BB42" s="129"/>
+      <c r="BC42" s="129"/>
+      <c r="BD42" s="130"/>
+      <c r="BE42" s="128"/>
+      <c r="BF42" s="129"/>
+      <c r="BG42" s="129"/>
+      <c r="BH42" s="129"/>
+      <c r="BI42" s="129"/>
+      <c r="BJ42" s="129"/>
+      <c r="BK42" s="130"/>
+      <c r="BL42" s="137"/>
+      <c r="BM42" s="129"/>
+      <c r="BN42" s="129"/>
+      <c r="BO42" s="149"/>
+      <c r="BP42" s="128"/>
+      <c r="BQ42" s="129"/>
+      <c r="BR42" s="147"/>
     </row>
-    <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A43" s="187"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="94"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="93"/>
-      <c r="R43" s="93"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="93"/>
-      <c r="U43" s="93"/>
-      <c r="V43" s="94"/>
-      <c r="W43" s="92"/>
-      <c r="X43" s="93"/>
-      <c r="Y43" s="93"/>
-      <c r="Z43" s="93"/>
-      <c r="AA43" s="93"/>
-      <c r="AB43" s="93"/>
-      <c r="AC43" s="94"/>
-      <c r="AD43" s="92"/>
-      <c r="AE43" s="93"/>
-      <c r="AF43" s="93"/>
-      <c r="AG43" s="93"/>
-      <c r="AH43" s="93"/>
-      <c r="AI43" s="93"/>
-      <c r="AJ43" s="95"/>
-      <c r="AK43" s="92"/>
-      <c r="AL43" s="96"/>
-      <c r="AM43" s="227"/>
-      <c r="AN43" s="228"/>
-      <c r="AO43" s="228"/>
-      <c r="AP43" s="228"/>
-      <c r="AQ43" s="228"/>
-      <c r="AR43" s="228"/>
-      <c r="AS43" s="228"/>
-      <c r="AT43" s="228"/>
-      <c r="AU43" s="228"/>
-      <c r="AV43" s="228"/>
-      <c r="AW43" s="228"/>
-      <c r="AX43" s="228"/>
-      <c r="AY43" s="228"/>
-      <c r="AZ43" s="228"/>
-      <c r="BA43" s="228"/>
-      <c r="BB43" s="228"/>
-      <c r="BC43" s="228"/>
-      <c r="BD43" s="228"/>
-      <c r="BE43" s="228"/>
-      <c r="BF43" s="228"/>
-      <c r="BG43" s="228"/>
-      <c r="BH43" s="228"/>
-      <c r="BI43" s="228"/>
-      <c r="BJ43" s="228"/>
-      <c r="BK43" s="228"/>
-      <c r="BL43" s="228"/>
-      <c r="BM43" s="228"/>
-      <c r="BN43" s="228"/>
-      <c r="BO43" s="228"/>
-      <c r="BP43" s="228"/>
-      <c r="BQ43" s="228"/>
-      <c r="BR43" s="229"/>
+    <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="175"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="80"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="80"/>
+      <c r="U43" s="80"/>
+      <c r="V43" s="81"/>
+      <c r="W43" s="79"/>
+      <c r="X43" s="80"/>
+      <c r="Y43" s="80"/>
+      <c r="Z43" s="80"/>
+      <c r="AA43" s="80"/>
+      <c r="AB43" s="80"/>
+      <c r="AC43" s="81"/>
+      <c r="AD43" s="79"/>
+      <c r="AE43" s="80"/>
+      <c r="AF43" s="80"/>
+      <c r="AG43" s="80"/>
+      <c r="AH43" s="80"/>
+      <c r="AI43" s="80"/>
+      <c r="AJ43" s="82"/>
+      <c r="AK43" s="79"/>
+      <c r="AL43" s="83"/>
+      <c r="AM43" s="236"/>
+      <c r="AN43" s="237"/>
+      <c r="AO43" s="237"/>
+      <c r="AP43" s="237"/>
+      <c r="AQ43" s="237"/>
+      <c r="AR43" s="237"/>
+      <c r="AS43" s="237"/>
+      <c r="AT43" s="237"/>
+      <c r="AU43" s="237"/>
+      <c r="AV43" s="237"/>
+      <c r="AW43" s="237"/>
+      <c r="AX43" s="237"/>
+      <c r="AY43" s="237"/>
+      <c r="AZ43" s="237"/>
+      <c r="BA43" s="237"/>
+      <c r="BB43" s="237"/>
+      <c r="BC43" s="237"/>
+      <c r="BD43" s="237"/>
+      <c r="BE43" s="237"/>
+      <c r="BF43" s="237"/>
+      <c r="BG43" s="237"/>
+      <c r="BH43" s="237"/>
+      <c r="BI43" s="237"/>
+      <c r="BJ43" s="237"/>
+      <c r="BK43" s="237"/>
+      <c r="BL43" s="237"/>
+      <c r="BM43" s="237"/>
+      <c r="BN43" s="237"/>
+      <c r="BO43" s="237"/>
+      <c r="BP43" s="237"/>
+      <c r="BQ43" s="237"/>
+      <c r="BR43" s="238"/>
     </row>
-    <row r="44" spans="1:70" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A44" s="214" t="s">
+    <row r="44" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="215"/>
+      <c r="B44" s="203"/>
       <c r="C44" s="3" t="s">
         <v>62</v>
       </c>
@@ -8749,12 +8716,12 @@
       <c r="AF44" s="10"/>
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
-      <c r="AI44" s="91"/>
-      <c r="AJ44" s="216" t="s">
+      <c r="AI44" s="78"/>
+      <c r="AJ44" s="204" t="s">
         <v>63</v>
       </c>
-      <c r="AK44" s="217"/>
-      <c r="AL44" s="218"/>
+      <c r="AK44" s="205"/>
+      <c r="AL44" s="206"/>
       <c r="AM44" s="32"/>
       <c r="AN44" s="33"/>
       <c r="AO44" s="34"/>
@@ -8788,7 +8755,7 @@
       <c r="BQ44" s="35"/>
       <c r="BR44" s="38"/>
     </row>
-    <row r="45" spans="1:70" ht="24.75" customHeight="1">
+    <row r="45" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="3"/>
       <c r="C45" s="10"/>
@@ -8858,9 +8825,9 @@
       <c r="BO45" s="13"/>
       <c r="BP45" s="13"/>
       <c r="BQ45" s="13"/>
-      <c r="BR45" s="138"/>
+      <c r="BR45" s="114"/>
     </row>
-    <row r="46" spans="1:70" ht="24.75" customHeight="1">
+    <row r="46" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -8878,427 +8845,427 @@
       <c r="O46" s="2"/>
       <c r="V46" s="10"/>
       <c r="W46" s="10"/>
-      <c r="BR46" s="137"/>
+      <c r="BR46" s="113"/>
     </row>
-    <row r="47" spans="1:70" ht="27.75" customHeight="1">
-      <c r="A47" s="211" t="s">
+    <row r="47" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="211"/>
-      <c r="C47" s="211"/>
-      <c r="D47" s="203" t="s">
+      <c r="B47" s="199"/>
+      <c r="C47" s="199"/>
+      <c r="D47" s="191" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="204"/>
-      <c r="F47" s="204"/>
+      <c r="E47" s="192"/>
+      <c r="F47" s="192"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="203" t="s">
+      <c r="H47" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="I47" s="204"/>
-      <c r="J47" s="204"/>
+      <c r="I47" s="192"/>
+      <c r="J47" s="192"/>
       <c r="K47" s="15"/>
-      <c r="L47" s="203" t="s">
+      <c r="L47" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="M47" s="204"/>
-      <c r="N47" s="204"/>
+      <c r="M47" s="192"/>
+      <c r="N47" s="192"/>
       <c r="O47" s="15"/>
-      <c r="P47" s="203" t="s">
+      <c r="P47" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="Q47" s="204"/>
-      <c r="R47" s="204"/>
+      <c r="Q47" s="192"/>
+      <c r="R47" s="192"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="203" t="s">
+      <c r="T47" s="191" t="s">
         <v>69</v>
       </c>
-      <c r="U47" s="204"/>
-      <c r="V47" s="204"/>
+      <c r="U47" s="192"/>
+      <c r="V47" s="192"/>
       <c r="W47" s="15"/>
-      <c r="X47" s="203" t="s">
+      <c r="X47" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="Y47" s="204"/>
-      <c r="Z47" s="204"/>
+      <c r="Y47" s="192"/>
+      <c r="Z47" s="192"/>
       <c r="AA47" s="15"/>
-      <c r="AM47" s="209" t="s">
+      <c r="AM47" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="AN47" s="209"/>
-      <c r="AO47" s="209"/>
-      <c r="AP47" s="212"/>
-      <c r="AQ47" s="212"/>
-      <c r="AR47" s="212"/>
-      <c r="AS47" s="212"/>
-      <c r="AT47" s="212"/>
-      <c r="AU47" s="212"/>
-      <c r="AV47" s="212"/>
-      <c r="AW47" s="213"/>
+      <c r="AN47" s="197"/>
+      <c r="AO47" s="197"/>
+      <c r="AP47" s="200"/>
+      <c r="AQ47" s="200"/>
+      <c r="AR47" s="200"/>
+      <c r="AS47" s="200"/>
+      <c r="AT47" s="200"/>
+      <c r="AU47" s="200"/>
+      <c r="AV47" s="200"/>
+      <c r="AW47" s="201"/>
       <c r="AX47" s="11"/>
       <c r="AY47" s="11"/>
       <c r="AZ47" s="11"/>
-      <c r="BC47" s="196" t="s">
+      <c r="BC47" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="BD47" s="196"/>
-      <c r="BE47" s="196"/>
-      <c r="BF47" s="196"/>
-      <c r="BG47" s="196"/>
-      <c r="BH47" s="196"/>
-      <c r="BI47" s="196"/>
-      <c r="BJ47" s="196"/>
-      <c r="BK47" s="197"/>
-      <c r="BL47" s="198"/>
-      <c r="BM47" s="198"/>
-      <c r="BN47" s="198"/>
-      <c r="BO47" s="198"/>
-      <c r="BP47" s="198"/>
-      <c r="BQ47" s="198"/>
-      <c r="BR47" s="199"/>
+      <c r="BD47" s="184"/>
+      <c r="BE47" s="184"/>
+      <c r="BF47" s="184"/>
+      <c r="BG47" s="184"/>
+      <c r="BH47" s="184"/>
+      <c r="BI47" s="184"/>
+      <c r="BJ47" s="184"/>
+      <c r="BK47" s="185"/>
+      <c r="BL47" s="186"/>
+      <c r="BM47" s="186"/>
+      <c r="BN47" s="186"/>
+      <c r="BO47" s="186"/>
+      <c r="BP47" s="186"/>
+      <c r="BQ47" s="186"/>
+      <c r="BR47" s="187"/>
     </row>
-    <row r="48" spans="1:70" ht="27.75" customHeight="1">
-      <c r="A48" s="211" t="s">
+    <row r="48" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="211"/>
-      <c r="C48" s="211"/>
-      <c r="D48" s="203" t="s">
+      <c r="B48" s="199"/>
+      <c r="C48" s="199"/>
+      <c r="D48" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="204"/>
-      <c r="F48" s="204"/>
+      <c r="E48" s="192"/>
+      <c r="F48" s="192"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="203" t="s">
+      <c r="H48" s="191" t="s">
         <v>75</v>
       </c>
-      <c r="I48" s="204"/>
-      <c r="J48" s="204"/>
+      <c r="I48" s="192"/>
+      <c r="J48" s="192"/>
       <c r="K48" s="15"/>
-      <c r="L48" s="203" t="s">
+      <c r="L48" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="M48" s="204"/>
-      <c r="N48" s="204"/>
+      <c r="M48" s="192"/>
+      <c r="N48" s="192"/>
       <c r="O48" s="15"/>
-      <c r="P48" s="203"/>
-      <c r="Q48" s="204"/>
-      <c r="R48" s="204"/>
+      <c r="P48" s="191"/>
+      <c r="Q48" s="192"/>
+      <c r="R48" s="192"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="203"/>
-      <c r="U48" s="204"/>
-      <c r="V48" s="204"/>
+      <c r="T48" s="191"/>
+      <c r="U48" s="192"/>
+      <c r="V48" s="192"/>
       <c r="W48" s="15"/>
-      <c r="X48" s="203"/>
-      <c r="Y48" s="204"/>
-      <c r="Z48" s="204"/>
+      <c r="X48" s="191"/>
+      <c r="Y48" s="192"/>
+      <c r="Z48" s="192"/>
       <c r="AA48" s="15"/>
       <c r="AB48" s="1"/>
-      <c r="AM48" s="209" t="s">
+      <c r="AM48" s="197" t="s">
         <v>77</v>
       </c>
-      <c r="AN48" s="209"/>
-      <c r="AO48" s="209"/>
-      <c r="AP48" s="210"/>
-      <c r="AQ48" s="210"/>
-      <c r="AR48" s="210"/>
-      <c r="AS48" s="210"/>
-      <c r="AT48" s="210"/>
-      <c r="AU48" s="210"/>
-      <c r="AV48" s="210"/>
-      <c r="AW48" s="210"/>
+      <c r="AN48" s="197"/>
+      <c r="AO48" s="197"/>
+      <c r="AP48" s="198"/>
+      <c r="AQ48" s="198"/>
+      <c r="AR48" s="198"/>
+      <c r="AS48" s="198"/>
+      <c r="AT48" s="198"/>
+      <c r="AU48" s="198"/>
+      <c r="AV48" s="198"/>
+      <c r="AW48" s="198"/>
       <c r="AX48" s="11"/>
       <c r="AY48" s="11"/>
       <c r="AZ48" s="11"/>
-      <c r="BC48" s="196" t="s">
+      <c r="BC48" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="BD48" s="196"/>
-      <c r="BE48" s="196"/>
-      <c r="BF48" s="196"/>
-      <c r="BG48" s="196"/>
-      <c r="BH48" s="196"/>
-      <c r="BI48" s="196"/>
-      <c r="BJ48" s="196"/>
-      <c r="BK48" s="197"/>
-      <c r="BL48" s="198"/>
-      <c r="BM48" s="198"/>
-      <c r="BN48" s="198"/>
-      <c r="BO48" s="198"/>
-      <c r="BP48" s="198"/>
-      <c r="BQ48" s="198"/>
-      <c r="BR48" s="199"/>
+      <c r="BD48" s="184"/>
+      <c r="BE48" s="184"/>
+      <c r="BF48" s="184"/>
+      <c r="BG48" s="184"/>
+      <c r="BH48" s="184"/>
+      <c r="BI48" s="184"/>
+      <c r="BJ48" s="184"/>
+      <c r="BK48" s="185"/>
+      <c r="BL48" s="186"/>
+      <c r="BM48" s="186"/>
+      <c r="BN48" s="186"/>
+      <c r="BO48" s="186"/>
+      <c r="BP48" s="186"/>
+      <c r="BQ48" s="186"/>
+      <c r="BR48" s="187"/>
     </row>
-    <row r="49" spans="1:70" ht="27.75" customHeight="1">
-      <c r="A49" s="211" t="s">
+    <row r="49" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="211"/>
-      <c r="C49" s="211"/>
-      <c r="D49" s="203" t="s">
+      <c r="B49" s="199"/>
+      <c r="C49" s="199"/>
+      <c r="D49" s="191" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="204"/>
-      <c r="F49" s="204"/>
+      <c r="E49" s="192"/>
+      <c r="F49" s="192"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="203" t="s">
+      <c r="H49" s="191" t="s">
         <v>81</v>
       </c>
-      <c r="I49" s="204"/>
-      <c r="J49" s="204"/>
+      <c r="I49" s="192"/>
+      <c r="J49" s="192"/>
       <c r="K49" s="15"/>
-      <c r="L49" s="203" t="s">
+      <c r="L49" s="191" t="s">
         <v>82</v>
       </c>
-      <c r="M49" s="204"/>
-      <c r="N49" s="204"/>
+      <c r="M49" s="192"/>
+      <c r="N49" s="192"/>
       <c r="O49" s="15"/>
-      <c r="P49" s="203" t="s">
+      <c r="P49" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="Q49" s="204"/>
-      <c r="R49" s="204"/>
+      <c r="Q49" s="192"/>
+      <c r="R49" s="192"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="203" t="s">
+      <c r="T49" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="U49" s="204"/>
-      <c r="V49" s="204"/>
+      <c r="U49" s="192"/>
+      <c r="V49" s="192"/>
       <c r="W49" s="15"/>
-      <c r="X49" s="203" t="s">
+      <c r="X49" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="Y49" s="204"/>
-      <c r="Z49" s="204"/>
+      <c r="Y49" s="192"/>
+      <c r="Z49" s="192"/>
       <c r="AA49" s="15"/>
       <c r="AJ49" s="4"/>
-      <c r="AM49" s="209" t="s">
+      <c r="AM49" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="AN49" s="209"/>
-      <c r="AO49" s="209"/>
-      <c r="AP49" s="210"/>
-      <c r="AQ49" s="210"/>
-      <c r="AR49" s="210"/>
-      <c r="AS49" s="210"/>
-      <c r="AT49" s="210"/>
-      <c r="AU49" s="210"/>
-      <c r="AV49" s="210"/>
-      <c r="AW49" s="210"/>
+      <c r="AN49" s="197"/>
+      <c r="AO49" s="197"/>
+      <c r="AP49" s="198"/>
+      <c r="AQ49" s="198"/>
+      <c r="AR49" s="198"/>
+      <c r="AS49" s="198"/>
+      <c r="AT49" s="198"/>
+      <c r="AU49" s="198"/>
+      <c r="AV49" s="198"/>
+      <c r="AW49" s="198"/>
       <c r="AX49" s="11"/>
       <c r="AY49" s="11"/>
       <c r="AZ49" s="11"/>
-      <c r="BC49" s="196" t="s">
+      <c r="BC49" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="BD49" s="196"/>
-      <c r="BE49" s="196"/>
-      <c r="BF49" s="196"/>
-      <c r="BG49" s="196"/>
-      <c r="BH49" s="196"/>
-      <c r="BI49" s="196"/>
-      <c r="BJ49" s="196"/>
-      <c r="BK49" s="197"/>
-      <c r="BL49" s="198"/>
-      <c r="BM49" s="198"/>
-      <c r="BN49" s="198"/>
-      <c r="BO49" s="198"/>
-      <c r="BP49" s="198"/>
-      <c r="BQ49" s="198"/>
-      <c r="BR49" s="199"/>
+      <c r="BD49" s="184"/>
+      <c r="BE49" s="184"/>
+      <c r="BF49" s="184"/>
+      <c r="BG49" s="184"/>
+      <c r="BH49" s="184"/>
+      <c r="BI49" s="184"/>
+      <c r="BJ49" s="184"/>
+      <c r="BK49" s="185"/>
+      <c r="BL49" s="186"/>
+      <c r="BM49" s="186"/>
+      <c r="BN49" s="186"/>
+      <c r="BO49" s="186"/>
+      <c r="BP49" s="186"/>
+      <c r="BQ49" s="186"/>
+      <c r="BR49" s="187"/>
     </row>
-    <row r="50" spans="1:70" ht="27.75" customHeight="1">
-      <c r="A50" s="211"/>
-      <c r="B50" s="211"/>
-      <c r="C50" s="211"/>
-      <c r="D50" s="203" t="s">
+    <row r="50" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="199"/>
+      <c r="B50" s="199"/>
+      <c r="C50" s="199"/>
+      <c r="D50" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="204"/>
-      <c r="F50" s="204"/>
+      <c r="E50" s="192"/>
+      <c r="F50" s="192"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="203" t="s">
+      <c r="H50" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="I50" s="204"/>
-      <c r="J50" s="204"/>
+      <c r="I50" s="192"/>
+      <c r="J50" s="192"/>
       <c r="K50" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L50" s="203" t="s">
+      <c r="L50" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="M50" s="204"/>
-      <c r="N50" s="204"/>
+      <c r="M50" s="192"/>
+      <c r="N50" s="192"/>
       <c r="O50" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="P50" s="203"/>
-      <c r="Q50" s="204"/>
-      <c r="R50" s="204"/>
+      <c r="P50" s="191"/>
+      <c r="Q50" s="192"/>
+      <c r="R50" s="192"/>
       <c r="S50" s="15"/>
-      <c r="T50" s="203"/>
-      <c r="U50" s="204"/>
-      <c r="V50" s="204"/>
+      <c r="T50" s="191"/>
+      <c r="U50" s="192"/>
+      <c r="V50" s="192"/>
       <c r="W50" s="15"/>
-      <c r="X50" s="203"/>
-      <c r="Y50" s="204"/>
-      <c r="Z50" s="204"/>
+      <c r="X50" s="191"/>
+      <c r="Y50" s="192"/>
+      <c r="Z50" s="192"/>
       <c r="AA50" s="15"/>
       <c r="AB50" s="1"/>
-      <c r="AM50" s="209" t="s">
+      <c r="AM50" s="197" t="s">
         <v>93</v>
       </c>
-      <c r="AN50" s="209"/>
-      <c r="AO50" s="209"/>
-      <c r="AP50" s="210"/>
-      <c r="AQ50" s="210"/>
-      <c r="AR50" s="210"/>
-      <c r="AS50" s="210"/>
-      <c r="AT50" s="210"/>
-      <c r="AU50" s="210"/>
-      <c r="AV50" s="210"/>
-      <c r="AW50" s="210"/>
+      <c r="AN50" s="197"/>
+      <c r="AO50" s="197"/>
+      <c r="AP50" s="198"/>
+      <c r="AQ50" s="198"/>
+      <c r="AR50" s="198"/>
+      <c r="AS50" s="198"/>
+      <c r="AT50" s="198"/>
+      <c r="AU50" s="198"/>
+      <c r="AV50" s="198"/>
+      <c r="AW50" s="198"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="11"/>
       <c r="AZ50" s="11"/>
-      <c r="BC50" s="196" t="s">
+      <c r="BC50" s="184" t="s">
         <v>94</v>
       </c>
-      <c r="BD50" s="196"/>
-      <c r="BE50" s="196"/>
-      <c r="BF50" s="196"/>
-      <c r="BG50" s="196"/>
-      <c r="BH50" s="196"/>
-      <c r="BI50" s="196"/>
-      <c r="BJ50" s="196"/>
-      <c r="BK50" s="197"/>
-      <c r="BL50" s="198"/>
-      <c r="BM50" s="198"/>
-      <c r="BN50" s="198"/>
-      <c r="BO50" s="198"/>
-      <c r="BP50" s="198"/>
-      <c r="BQ50" s="198"/>
-      <c r="BR50" s="199"/>
+      <c r="BD50" s="184"/>
+      <c r="BE50" s="184"/>
+      <c r="BF50" s="184"/>
+      <c r="BG50" s="184"/>
+      <c r="BH50" s="184"/>
+      <c r="BI50" s="184"/>
+      <c r="BJ50" s="184"/>
+      <c r="BK50" s="185"/>
+      <c r="BL50" s="186"/>
+      <c r="BM50" s="186"/>
+      <c r="BN50" s="186"/>
+      <c r="BO50" s="186"/>
+      <c r="BP50" s="186"/>
+      <c r="BQ50" s="186"/>
+      <c r="BR50" s="187"/>
     </row>
-    <row r="51" spans="1:70" ht="27.75" customHeight="1">
-      <c r="A51" s="200" t="s">
+    <row r="51" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="188" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="201"/>
-      <c r="C51" s="202"/>
-      <c r="D51" s="203" t="s">
+      <c r="B51" s="189"/>
+      <c r="C51" s="190"/>
+      <c r="D51" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="204"/>
-      <c r="F51" s="204"/>
+      <c r="E51" s="192"/>
+      <c r="F51" s="192"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="203" t="s">
+      <c r="H51" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="I51" s="204"/>
-      <c r="J51" s="204"/>
+      <c r="I51" s="192"/>
+      <c r="J51" s="192"/>
       <c r="K51" s="15"/>
-      <c r="L51" s="203" t="s">
+      <c r="L51" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="M51" s="204"/>
-      <c r="N51" s="204"/>
+      <c r="M51" s="192"/>
+      <c r="N51" s="192"/>
       <c r="O51" s="15"/>
-      <c r="P51" s="203"/>
-      <c r="Q51" s="204"/>
-      <c r="R51" s="204"/>
+      <c r="P51" s="191"/>
+      <c r="Q51" s="192"/>
+      <c r="R51" s="192"/>
       <c r="S51" s="15"/>
-      <c r="T51" s="203"/>
-      <c r="U51" s="204"/>
-      <c r="V51" s="204"/>
+      <c r="T51" s="191"/>
+      <c r="U51" s="192"/>
+      <c r="V51" s="192"/>
       <c r="W51" s="15"/>
-      <c r="X51" s="203"/>
-      <c r="Y51" s="204"/>
-      <c r="Z51" s="204"/>
+      <c r="X51" s="191"/>
+      <c r="Y51" s="192"/>
+      <c r="Z51" s="192"/>
       <c r="AA51" s="15"/>
       <c r="AB51" s="1"/>
-      <c r="AM51" s="209"/>
-      <c r="AN51" s="209"/>
-      <c r="AO51" s="209"/>
-      <c r="AP51" s="210"/>
-      <c r="AQ51" s="210"/>
-      <c r="AR51" s="210"/>
-      <c r="AS51" s="210"/>
-      <c r="AT51" s="210"/>
-      <c r="AU51" s="210"/>
-      <c r="AV51" s="210"/>
-      <c r="AW51" s="210"/>
+      <c r="AM51" s="197"/>
+      <c r="AN51" s="197"/>
+      <c r="AO51" s="197"/>
+      <c r="AP51" s="198"/>
+      <c r="AQ51" s="198"/>
+      <c r="AR51" s="198"/>
+      <c r="AS51" s="198"/>
+      <c r="AT51" s="198"/>
+      <c r="AU51" s="198"/>
+      <c r="AV51" s="198"/>
+      <c r="AW51" s="198"/>
       <c r="AX51" s="11"/>
       <c r="AY51" s="11"/>
       <c r="AZ51" s="11"/>
-      <c r="BC51" s="196" t="s">
+      <c r="BC51" s="184" t="s">
         <v>99</v>
       </c>
-      <c r="BD51" s="196"/>
-      <c r="BE51" s="196"/>
-      <c r="BF51" s="196"/>
-      <c r="BG51" s="196"/>
-      <c r="BH51" s="196"/>
-      <c r="BI51" s="196"/>
-      <c r="BJ51" s="196"/>
-      <c r="BK51" s="197"/>
-      <c r="BL51" s="198"/>
-      <c r="BM51" s="198"/>
-      <c r="BN51" s="198"/>
-      <c r="BO51" s="198"/>
-      <c r="BP51" s="198"/>
-      <c r="BQ51" s="198"/>
-      <c r="BR51" s="199"/>
+      <c r="BD51" s="184"/>
+      <c r="BE51" s="184"/>
+      <c r="BF51" s="184"/>
+      <c r="BG51" s="184"/>
+      <c r="BH51" s="184"/>
+      <c r="BI51" s="184"/>
+      <c r="BJ51" s="184"/>
+      <c r="BK51" s="185"/>
+      <c r="BL51" s="186"/>
+      <c r="BM51" s="186"/>
+      <c r="BN51" s="186"/>
+      <c r="BO51" s="186"/>
+      <c r="BP51" s="186"/>
+      <c r="BQ51" s="186"/>
+      <c r="BR51" s="187"/>
     </row>
-    <row r="52" spans="1:70" ht="27.75" customHeight="1">
-      <c r="A52" s="200" t="s">
+    <row r="52" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="201"/>
-      <c r="C52" s="202"/>
-      <c r="D52" s="203" t="s">
+      <c r="B52" s="189"/>
+      <c r="C52" s="190"/>
+      <c r="D52" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="204"/>
-      <c r="F52" s="204"/>
+      <c r="E52" s="192"/>
+      <c r="F52" s="192"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="203" t="s">
+      <c r="H52" s="191" t="s">
         <v>102</v>
       </c>
-      <c r="I52" s="204"/>
-      <c r="J52" s="204"/>
+      <c r="I52" s="192"/>
+      <c r="J52" s="192"/>
       <c r="K52" s="15"/>
-      <c r="L52" s="203" t="s">
+      <c r="L52" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="M52" s="204"/>
-      <c r="N52" s="204"/>
+      <c r="M52" s="192"/>
+      <c r="N52" s="192"/>
       <c r="O52" s="15"/>
-      <c r="P52" s="203" t="s">
+      <c r="P52" s="191" t="s">
         <v>104</v>
       </c>
-      <c r="Q52" s="204"/>
-      <c r="R52" s="204"/>
+      <c r="Q52" s="192"/>
+      <c r="R52" s="192"/>
       <c r="S52" s="15"/>
-      <c r="T52" s="203" t="s">
+      <c r="T52" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="U52" s="204"/>
-      <c r="V52" s="204"/>
+      <c r="U52" s="192"/>
+      <c r="V52" s="192"/>
       <c r="W52" s="15"/>
-      <c r="X52" s="203" t="s">
+      <c r="X52" s="191" t="s">
         <v>106</v>
       </c>
-      <c r="Y52" s="204"/>
-      <c r="Z52" s="204"/>
+      <c r="Y52" s="192"/>
+      <c r="Z52" s="192"/>
       <c r="AA52" s="15"/>
-      <c r="AI52" s="205"/>
-      <c r="AJ52" s="205"/>
+      <c r="AI52" s="193"/>
+      <c r="AJ52" s="193"/>
       <c r="AK52" s="4"/>
-      <c r="BR52" s="136"/>
+      <c r="BR52" s="112"/>
     </row>
-    <row r="53" spans="1:70" ht="27.75" customHeight="1">
+    <row r="53" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -9368,9 +9335,9 @@
       <c r="BO53" s="22"/>
       <c r="BP53" s="22"/>
       <c r="BQ53" s="22"/>
-      <c r="BR53" s="137"/>
+      <c r="BR53" s="113"/>
     </row>
-    <row r="54" spans="1:70" ht="19.5" customHeight="1">
+    <row r="54" spans="1:70" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
@@ -9399,362 +9366,362 @@
       <c r="AI54" s="25"/>
       <c r="AJ54" s="25"/>
     </row>
-    <row r="55" spans="1:70" ht="18">
+    <row r="55" spans="1:70" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>107</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
     </row>
-    <row r="56" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="56" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>1</v>
       </c>
-      <c r="B56" s="191" t="s">
+      <c r="B56" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="191"/>
-      <c r="D56" s="191"/>
-      <c r="E56" s="192" t="s">
+      <c r="C56" s="179"/>
+      <c r="D56" s="179"/>
+      <c r="E56" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="192"/>
-      <c r="G56" s="192"/>
-      <c r="H56" s="192"/>
-      <c r="I56" s="192"/>
-      <c r="J56" s="192"/>
-      <c r="K56" s="192"/>
+      <c r="F56" s="180"/>
+      <c r="G56" s="180"/>
+      <c r="H56" s="180"/>
+      <c r="I56" s="180"/>
+      <c r="J56" s="180"/>
+      <c r="K56" s="180"/>
       <c r="N56" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="O56" s="193" t="s">
+      <c r="O56" s="181" t="s">
         <v>111</v>
       </c>
-      <c r="P56" s="194"/>
-      <c r="Q56" s="195"/>
-      <c r="R56" s="192" t="s">
+      <c r="P56" s="182"/>
+      <c r="Q56" s="183"/>
+      <c r="R56" s="180" t="s">
         <v>112</v>
       </c>
-      <c r="S56" s="192"/>
-      <c r="T56" s="192"/>
-      <c r="U56" s="192"/>
-      <c r="V56" s="192"/>
-      <c r="W56" s="192"/>
-      <c r="X56" s="192"/>
+      <c r="S56" s="180"/>
+      <c r="T56" s="180"/>
+      <c r="U56" s="180"/>
+      <c r="V56" s="180"/>
+      <c r="W56" s="180"/>
+      <c r="X56" s="180"/>
       <c r="AA56" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="AB56" s="206" t="s">
+      <c r="AB56" s="194" t="s">
         <v>114</v>
       </c>
-      <c r="AC56" s="207"/>
-      <c r="AD56" s="207"/>
-      <c r="AE56" s="207"/>
-      <c r="AF56" s="207"/>
-      <c r="AG56" s="207"/>
-      <c r="AH56" s="207"/>
-      <c r="AI56" s="207"/>
-      <c r="AJ56" s="207"/>
-      <c r="AK56" s="207"/>
-      <c r="AL56" s="207"/>
-      <c r="AM56" s="208"/>
+      <c r="AC56" s="195"/>
+      <c r="AD56" s="195"/>
+      <c r="AE56" s="195"/>
+      <c r="AF56" s="195"/>
+      <c r="AG56" s="195"/>
+      <c r="AH56" s="195"/>
+      <c r="AI56" s="195"/>
+      <c r="AJ56" s="195"/>
+      <c r="AK56" s="195"/>
+      <c r="AL56" s="195"/>
+      <c r="AM56" s="196"/>
     </row>
-    <row r="57" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="57" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>2</v>
       </c>
-      <c r="B57" s="191" t="s">
+      <c r="B57" s="179" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="191"/>
-      <c r="D57" s="191"/>
-      <c r="E57" s="192" t="s">
+      <c r="C57" s="179"/>
+      <c r="D57" s="179"/>
+      <c r="E57" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="192"/>
-      <c r="G57" s="192"/>
-      <c r="H57" s="192"/>
-      <c r="I57" s="192"/>
-      <c r="J57" s="192"/>
-      <c r="K57" s="192"/>
+      <c r="F57" s="180"/>
+      <c r="G57" s="180"/>
+      <c r="H57" s="180"/>
+      <c r="I57" s="180"/>
+      <c r="J57" s="180"/>
+      <c r="K57" s="180"/>
       <c r="N57" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="O57" s="193" t="s">
+      <c r="O57" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="P57" s="194"/>
-      <c r="Q57" s="195"/>
-      <c r="R57" s="192" t="s">
+      <c r="P57" s="182"/>
+      <c r="Q57" s="183"/>
+      <c r="R57" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="S57" s="192"/>
-      <c r="T57" s="192"/>
-      <c r="U57" s="192"/>
-      <c r="V57" s="192"/>
-      <c r="W57" s="192"/>
-      <c r="X57" s="192"/>
+      <c r="S57" s="180"/>
+      <c r="T57" s="180"/>
+      <c r="U57" s="180"/>
+      <c r="V57" s="180"/>
+      <c r="W57" s="180"/>
+      <c r="X57" s="180"/>
       <c r="AA57" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AB57" s="191" t="s">
+      <c r="AB57" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="AC57" s="191"/>
-      <c r="AD57" s="191"/>
-      <c r="AE57" s="192" t="s">
+      <c r="AC57" s="179"/>
+      <c r="AD57" s="179"/>
+      <c r="AE57" s="180" t="s">
         <v>121</v>
       </c>
-      <c r="AF57" s="192"/>
-      <c r="AG57" s="192"/>
-      <c r="AH57" s="192"/>
-      <c r="AI57" s="192"/>
-      <c r="AJ57" s="192"/>
-      <c r="AK57" s="192"/>
-      <c r="AL57" s="192"/>
-      <c r="AM57" s="192"/>
+      <c r="AF57" s="180"/>
+      <c r="AG57" s="180"/>
+      <c r="AH57" s="180"/>
+      <c r="AI57" s="180"/>
+      <c r="AJ57" s="180"/>
+      <c r="AK57" s="180"/>
+      <c r="AL57" s="180"/>
+      <c r="AM57" s="180"/>
     </row>
-    <row r="58" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="58" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>3</v>
       </c>
-      <c r="B58" s="191" t="s">
+      <c r="B58" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="191"/>
-      <c r="D58" s="191"/>
-      <c r="E58" s="192" t="s">
+      <c r="C58" s="179"/>
+      <c r="D58" s="179"/>
+      <c r="E58" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="F58" s="192"/>
-      <c r="G58" s="192"/>
-      <c r="H58" s="192"/>
-      <c r="I58" s="192"/>
-      <c r="J58" s="192"/>
-      <c r="K58" s="192"/>
+      <c r="F58" s="180"/>
+      <c r="G58" s="180"/>
+      <c r="H58" s="180"/>
+      <c r="I58" s="180"/>
+      <c r="J58" s="180"/>
+      <c r="K58" s="180"/>
       <c r="N58" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="O58" s="193" t="s">
+      <c r="O58" s="181" t="s">
         <v>125</v>
       </c>
-      <c r="P58" s="194"/>
-      <c r="Q58" s="195"/>
-      <c r="R58" s="192" t="s">
+      <c r="P58" s="182"/>
+      <c r="Q58" s="183"/>
+      <c r="R58" s="180" t="s">
         <v>126</v>
       </c>
-      <c r="S58" s="192"/>
-      <c r="T58" s="192"/>
-      <c r="U58" s="192"/>
-      <c r="V58" s="192"/>
-      <c r="W58" s="192"/>
-      <c r="X58" s="192"/>
+      <c r="S58" s="180"/>
+      <c r="T58" s="180"/>
+      <c r="U58" s="180"/>
+      <c r="V58" s="180"/>
+      <c r="W58" s="180"/>
+      <c r="X58" s="180"/>
       <c r="AA58" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="AB58" s="191" t="s">
+      <c r="AB58" s="179" t="s">
         <v>125</v>
       </c>
-      <c r="AC58" s="191"/>
-      <c r="AD58" s="191"/>
-      <c r="AE58" s="192" t="s">
+      <c r="AC58" s="179"/>
+      <c r="AD58" s="179"/>
+      <c r="AE58" s="180" t="s">
         <v>128</v>
       </c>
-      <c r="AF58" s="192"/>
-      <c r="AG58" s="192"/>
-      <c r="AH58" s="192"/>
-      <c r="AI58" s="192"/>
-      <c r="AJ58" s="192"/>
-      <c r="AK58" s="192"/>
-      <c r="AL58" s="192"/>
-      <c r="AM58" s="192"/>
+      <c r="AF58" s="180"/>
+      <c r="AG58" s="180"/>
+      <c r="AH58" s="180"/>
+      <c r="AI58" s="180"/>
+      <c r="AJ58" s="180"/>
+      <c r="AK58" s="180"/>
+      <c r="AL58" s="180"/>
+      <c r="AM58" s="180"/>
       <c r="AN58" s="30"/>
     </row>
-    <row r="59" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="59" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>4</v>
       </c>
-      <c r="B59" s="191" t="s">
+      <c r="B59" s="179" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="191"/>
-      <c r="D59" s="191"/>
-      <c r="E59" s="192" t="s">
+      <c r="C59" s="179"/>
+      <c r="D59" s="179"/>
+      <c r="E59" s="180" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="192"/>
-      <c r="G59" s="192"/>
-      <c r="H59" s="192"/>
-      <c r="I59" s="192"/>
-      <c r="J59" s="192"/>
-      <c r="K59" s="192"/>
+      <c r="F59" s="180"/>
+      <c r="G59" s="180"/>
+      <c r="H59" s="180"/>
+      <c r="I59" s="180"/>
+      <c r="J59" s="180"/>
+      <c r="K59" s="180"/>
       <c r="N59" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="O59" s="193" t="s">
+      <c r="O59" s="181" t="s">
         <v>132</v>
       </c>
-      <c r="P59" s="194"/>
-      <c r="Q59" s="195"/>
-      <c r="R59" s="192" t="s">
+      <c r="P59" s="182"/>
+      <c r="Q59" s="183"/>
+      <c r="R59" s="180" t="s">
         <v>133</v>
       </c>
-      <c r="S59" s="192"/>
-      <c r="T59" s="192"/>
-      <c r="U59" s="192"/>
-      <c r="V59" s="192"/>
-      <c r="W59" s="192"/>
-      <c r="X59" s="192"/>
+      <c r="S59" s="180"/>
+      <c r="T59" s="180"/>
+      <c r="U59" s="180"/>
+      <c r="V59" s="180"/>
+      <c r="W59" s="180"/>
+      <c r="X59" s="180"/>
       <c r="AA59" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AB59" s="191" t="s">
+      <c r="AB59" s="179" t="s">
         <v>132</v>
       </c>
-      <c r="AC59" s="191"/>
-      <c r="AD59" s="191"/>
-      <c r="AE59" s="192" t="s">
+      <c r="AC59" s="179"/>
+      <c r="AD59" s="179"/>
+      <c r="AE59" s="180" t="s">
         <v>135</v>
       </c>
-      <c r="AF59" s="192"/>
-      <c r="AG59" s="192"/>
-      <c r="AH59" s="192"/>
-      <c r="AI59" s="192"/>
-      <c r="AJ59" s="192"/>
-      <c r="AK59" s="192"/>
-      <c r="AL59" s="192"/>
-      <c r="AM59" s="192"/>
+      <c r="AF59" s="180"/>
+      <c r="AG59" s="180"/>
+      <c r="AH59" s="180"/>
+      <c r="AI59" s="180"/>
+      <c r="AJ59" s="180"/>
+      <c r="AK59" s="180"/>
+      <c r="AL59" s="180"/>
+      <c r="AM59" s="180"/>
       <c r="AN59" s="30"/>
     </row>
-    <row r="60" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="60" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>5</v>
       </c>
-      <c r="B60" s="191" t="s">
+      <c r="B60" s="179" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="191"/>
-      <c r="D60" s="191"/>
-      <c r="E60" s="192" t="s">
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
+      <c r="E60" s="180" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="192"/>
-      <c r="G60" s="192"/>
-      <c r="H60" s="192"/>
-      <c r="I60" s="192"/>
-      <c r="J60" s="192"/>
-      <c r="K60" s="192"/>
+      <c r="F60" s="180"/>
+      <c r="G60" s="180"/>
+      <c r="H60" s="180"/>
+      <c r="I60" s="180"/>
+      <c r="J60" s="180"/>
+      <c r="K60" s="180"/>
       <c r="N60" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="O60" s="193" t="s">
+      <c r="O60" s="181" t="s">
         <v>139</v>
       </c>
-      <c r="P60" s="194"/>
-      <c r="Q60" s="195"/>
-      <c r="R60" s="192" t="s">
+      <c r="P60" s="182"/>
+      <c r="Q60" s="183"/>
+      <c r="R60" s="180" t="s">
         <v>140</v>
       </c>
-      <c r="S60" s="192"/>
-      <c r="T60" s="192"/>
-      <c r="U60" s="192"/>
-      <c r="V60" s="192"/>
-      <c r="W60" s="192"/>
-      <c r="X60" s="192"/>
+      <c r="S60" s="180"/>
+      <c r="T60" s="180"/>
+      <c r="U60" s="180"/>
+      <c r="V60" s="180"/>
+      <c r="W60" s="180"/>
+      <c r="X60" s="180"/>
       <c r="AA60" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AB60" s="191" t="s">
+      <c r="AB60" s="179" t="s">
         <v>139</v>
       </c>
-      <c r="AC60" s="191"/>
-      <c r="AD60" s="191"/>
-      <c r="AE60" s="192" t="s">
+      <c r="AC60" s="179"/>
+      <c r="AD60" s="179"/>
+      <c r="AE60" s="180" t="s">
         <v>142</v>
       </c>
-      <c r="AF60" s="192"/>
-      <c r="AG60" s="192"/>
-      <c r="AH60" s="192"/>
-      <c r="AI60" s="192"/>
-      <c r="AJ60" s="192"/>
-      <c r="AK60" s="192"/>
-      <c r="AL60" s="192"/>
-      <c r="AM60" s="192"/>
+      <c r="AF60" s="180"/>
+      <c r="AG60" s="180"/>
+      <c r="AH60" s="180"/>
+      <c r="AI60" s="180"/>
+      <c r="AJ60" s="180"/>
+      <c r="AK60" s="180"/>
+      <c r="AL60" s="180"/>
+      <c r="AM60" s="180"/>
       <c r="AN60" s="30"/>
     </row>
-    <row r="61" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="61" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>6</v>
       </c>
-      <c r="B61" s="191" t="s">
+      <c r="B61" s="179" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="191"/>
-      <c r="D61" s="191"/>
-      <c r="E61" s="192" t="s">
+      <c r="C61" s="179"/>
+      <c r="D61" s="179"/>
+      <c r="E61" s="180" t="s">
         <v>144</v>
       </c>
-      <c r="F61" s="192"/>
-      <c r="G61" s="192"/>
-      <c r="H61" s="192"/>
-      <c r="I61" s="192"/>
-      <c r="J61" s="192"/>
-      <c r="K61" s="192"/>
+      <c r="F61" s="180"/>
+      <c r="G61" s="180"/>
+      <c r="H61" s="180"/>
+      <c r="I61" s="180"/>
+      <c r="J61" s="180"/>
+      <c r="K61" s="180"/>
       <c r="N61" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="O61" s="193" t="s">
+      <c r="O61" s="181" t="s">
         <v>146</v>
       </c>
-      <c r="P61" s="194"/>
-      <c r="Q61" s="195"/>
-      <c r="R61" s="192" t="s">
+      <c r="P61" s="182"/>
+      <c r="Q61" s="183"/>
+      <c r="R61" s="180" t="s">
         <v>147</v>
       </c>
-      <c r="S61" s="192"/>
-      <c r="T61" s="192"/>
-      <c r="U61" s="192"/>
-      <c r="V61" s="192"/>
-      <c r="W61" s="192"/>
-      <c r="X61" s="192"/>
+      <c r="S61" s="180"/>
+      <c r="T61" s="180"/>
+      <c r="U61" s="180"/>
+      <c r="V61" s="180"/>
+      <c r="W61" s="180"/>
+      <c r="X61" s="180"/>
       <c r="AA61" s="28"/>
-      <c r="AB61" s="191" t="s">
+      <c r="AB61" s="179" t="s">
         <v>148</v>
       </c>
-      <c r="AC61" s="191"/>
-      <c r="AD61" s="191"/>
-      <c r="AE61" s="192" t="s">
+      <c r="AC61" s="179"/>
+      <c r="AD61" s="179"/>
+      <c r="AE61" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="AF61" s="192"/>
-      <c r="AG61" s="192"/>
-      <c r="AH61" s="192"/>
-      <c r="AI61" s="192"/>
-      <c r="AJ61" s="192"/>
-      <c r="AK61" s="192"/>
-      <c r="AL61" s="192"/>
-      <c r="AM61" s="192"/>
+      <c r="AF61" s="180"/>
+      <c r="AG61" s="180"/>
+      <c r="AH61" s="180"/>
+      <c r="AI61" s="180"/>
+      <c r="AJ61" s="180"/>
+      <c r="AK61" s="180"/>
+      <c r="AL61" s="180"/>
+      <c r="AM61" s="180"/>
     </row>
-    <row r="62" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="62" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>7</v>
       </c>
-      <c r="B62" s="191" t="s">
+      <c r="B62" s="179" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="191"/>
-      <c r="D62" s="191"/>
-      <c r="E62" s="192" t="s">
+      <c r="C62" s="179"/>
+      <c r="D62" s="179"/>
+      <c r="E62" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="F62" s="192"/>
-      <c r="G62" s="192"/>
-      <c r="H62" s="192"/>
-      <c r="I62" s="192"/>
-      <c r="J62" s="192"/>
-      <c r="K62" s="192"/>
+      <c r="F62" s="180"/>
+      <c r="G62" s="180"/>
+      <c r="H62" s="180"/>
+      <c r="I62" s="180"/>
+      <c r="J62" s="180"/>
+      <c r="K62" s="180"/>
     </row>
-    <row r="63" spans="1:70" ht="16.5">
+    <row r="63" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
       <c r="N63" s="31"/>
     </row>
   </sheetData>
@@ -9802,6 +9769,8 @@
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="AP47:AW47"/>
     <mergeCell ref="BC47:BJ47"/>
     <mergeCell ref="BK47:BR47"/>
@@ -9927,6 +9896,21 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="O6:O7"/>
@@ -9936,16 +9920,6 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="BK6:BK7"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AA6:AA7"/>
@@ -10007,14 +9981,13 @@
     <mergeCell ref="BL20:BL21"/>
     <mergeCell ref="BL23:BL24"/>
     <mergeCell ref="BO11:BO12"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="B4:AL4"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="BL26:BL27"/>
+    <mergeCell ref="BL29:BL30"/>
+    <mergeCell ref="BL32:BL33"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AR5:AS5"/>
     <mergeCell ref="BR32:BR33"/>
     <mergeCell ref="BO8:BO9"/>
     <mergeCell ref="BO14:BO15"/>
@@ -10024,13 +9997,7 @@
     <mergeCell ref="BO26:BO27"/>
     <mergeCell ref="BO29:BO30"/>
     <mergeCell ref="BO32:BO33"/>
-    <mergeCell ref="BL26:BL27"/>
-    <mergeCell ref="BL29:BL30"/>
-    <mergeCell ref="BL32:BL33"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="BK6:BK7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83301032-9B18-4184-A269-D32705F1C919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CAB897-698E-4AAE-8F8E-6314C4AE747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -2389,23 +2389,302 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2413,290 +2692,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5320,384 +5320,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="167" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
-      <c r="AH1" s="208"/>
-      <c r="AI1" s="208"/>
-      <c r="AJ1" s="208"/>
-      <c r="AK1" s="208"/>
-      <c r="AL1" s="209"/>
-      <c r="AM1" s="207" t="s">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="169"/>
+      <c r="AM1" s="167" t="s">
         <v>160</v>
       </c>
-      <c r="AN1" s="208"/>
-      <c r="AO1" s="208"/>
-      <c r="AP1" s="208"/>
-      <c r="AQ1" s="208"/>
-      <c r="AR1" s="208"/>
-      <c r="AS1" s="208"/>
-      <c r="AT1" s="208"/>
-      <c r="AU1" s="208"/>
-      <c r="AV1" s="208"/>
-      <c r="AW1" s="208"/>
-      <c r="AX1" s="208"/>
-      <c r="AY1" s="208"/>
-      <c r="AZ1" s="208"/>
-      <c r="BA1" s="208"/>
-      <c r="BB1" s="208"/>
-      <c r="BC1" s="208"/>
-      <c r="BD1" s="208"/>
-      <c r="BE1" s="208"/>
-      <c r="BF1" s="208"/>
-      <c r="BG1" s="208"/>
-      <c r="BH1" s="208"/>
-      <c r="BI1" s="208"/>
-      <c r="BJ1" s="208"/>
-      <c r="BK1" s="208"/>
-      <c r="BL1" s="208"/>
-      <c r="BM1" s="208"/>
-      <c r="BN1" s="208"/>
-      <c r="BO1" s="208"/>
-      <c r="BP1" s="208"/>
-      <c r="BQ1" s="208"/>
-      <c r="BR1" s="209"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
+      <c r="AS1" s="168"/>
+      <c r="AT1" s="168"/>
+      <c r="AU1" s="168"/>
+      <c r="AV1" s="168"/>
+      <c r="AW1" s="168"/>
+      <c r="AX1" s="168"/>
+      <c r="AY1" s="168"/>
+      <c r="AZ1" s="168"/>
+      <c r="BA1" s="168"/>
+      <c r="BB1" s="168"/>
+      <c r="BC1" s="168"/>
+      <c r="BD1" s="168"/>
+      <c r="BE1" s="168"/>
+      <c r="BF1" s="168"/>
+      <c r="BG1" s="168"/>
+      <c r="BH1" s="168"/>
+      <c r="BI1" s="168"/>
+      <c r="BJ1" s="168"/>
+      <c r="BK1" s="168"/>
+      <c r="BL1" s="168"/>
+      <c r="BM1" s="168"/>
+      <c r="BN1" s="168"/>
+      <c r="BO1" s="168"/>
+      <c r="BP1" s="168"/>
+      <c r="BQ1" s="168"/>
+      <c r="BR1" s="169"/>
     </row>
     <row r="2" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="177" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154" t="s">
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154" t="s">
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="154"/>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="154"/>
-      <c r="AJ2" s="154"/>
-      <c r="AK2" s="154"/>
-      <c r="AL2" s="155"/>
-      <c r="AM2" s="153" t="s">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="175"/>
+      <c r="AL2" s="176"/>
+      <c r="AM2" s="177" t="s">
         <v>153</v>
       </c>
-      <c r="AN2" s="154"/>
-      <c r="AO2" s="154"/>
-      <c r="AP2" s="154"/>
-      <c r="AQ2" s="154"/>
-      <c r="AR2" s="154"/>
-      <c r="AS2" s="154"/>
-      <c r="AT2" s="154"/>
-      <c r="AU2" s="154"/>
-      <c r="AV2" s="154"/>
-      <c r="AW2" s="154"/>
-      <c r="AX2" s="154"/>
-      <c r="AY2" s="154"/>
-      <c r="AZ2" s="154"/>
-      <c r="BA2" s="154" t="s">
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="175"/>
+      <c r="AV2" s="175"/>
+      <c r="AW2" s="175"/>
+      <c r="AX2" s="175"/>
+      <c r="AY2" s="175"/>
+      <c r="AZ2" s="175"/>
+      <c r="BA2" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="154"/>
-      <c r="BC2" s="154"/>
-      <c r="BD2" s="154"/>
-      <c r="BE2" s="154"/>
-      <c r="BF2" s="154"/>
-      <c r="BG2" s="154"/>
-      <c r="BH2" s="154"/>
-      <c r="BI2" s="154"/>
-      <c r="BJ2" s="154" t="s">
+      <c r="BB2" s="175"/>
+      <c r="BC2" s="175"/>
+      <c r="BD2" s="175"/>
+      <c r="BE2" s="175"/>
+      <c r="BF2" s="175"/>
+      <c r="BG2" s="175"/>
+      <c r="BH2" s="175"/>
+      <c r="BI2" s="175"/>
+      <c r="BJ2" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="154"/>
-      <c r="BL2" s="154"/>
-      <c r="BM2" s="154"/>
-      <c r="BN2" s="154"/>
-      <c r="BO2" s="154"/>
-      <c r="BP2" s="154"/>
-      <c r="BQ2" s="154"/>
-      <c r="BR2" s="155"/>
+      <c r="BK2" s="175"/>
+      <c r="BL2" s="175"/>
+      <c r="BM2" s="175"/>
+      <c r="BN2" s="175"/>
+      <c r="BO2" s="175"/>
+      <c r="BP2" s="175"/>
+      <c r="BQ2" s="175"/>
+      <c r="BR2" s="176"/>
     </row>
     <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="154"/>
-      <c r="S3" s="154" t="s">
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="154"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="154"/>
-      <c r="AA3" s="154"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="154" t="s">
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="154"/>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="154"/>
-      <c r="AJ3" s="154"/>
-      <c r="AK3" s="154"/>
-      <c r="AL3" s="155"/>
-      <c r="AM3" s="153" t="s">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="175"/>
+      <c r="AG3" s="175"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="175"/>
+      <c r="AJ3" s="175"/>
+      <c r="AK3" s="175"/>
+      <c r="AL3" s="176"/>
+      <c r="AM3" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="AN3" s="154"/>
-      <c r="AO3" s="154"/>
-      <c r="AP3" s="154"/>
-      <c r="AQ3" s="154"/>
-      <c r="AR3" s="154"/>
-      <c r="AS3" s="154"/>
-      <c r="AT3" s="154"/>
-      <c r="AU3" s="154"/>
-      <c r="AV3" s="154"/>
-      <c r="AW3" s="154"/>
-      <c r="AX3" s="154"/>
-      <c r="AY3" s="154"/>
-      <c r="AZ3" s="154"/>
-      <c r="BA3" s="154" t="s">
+      <c r="AN3" s="175"/>
+      <c r="AO3" s="175"/>
+      <c r="AP3" s="175"/>
+      <c r="AQ3" s="175"/>
+      <c r="AR3" s="175"/>
+      <c r="AS3" s="175"/>
+      <c r="AT3" s="175"/>
+      <c r="AU3" s="175"/>
+      <c r="AV3" s="175"/>
+      <c r="AW3" s="175"/>
+      <c r="AX3" s="175"/>
+      <c r="AY3" s="175"/>
+      <c r="AZ3" s="175"/>
+      <c r="BA3" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="154"/>
-      <c r="BC3" s="154"/>
-      <c r="BD3" s="154"/>
-      <c r="BE3" s="154"/>
-      <c r="BF3" s="154"/>
-      <c r="BG3" s="154"/>
-      <c r="BH3" s="154"/>
-      <c r="BI3" s="154"/>
-      <c r="BJ3" s="154" t="s">
+      <c r="BB3" s="175"/>
+      <c r="BC3" s="175"/>
+      <c r="BD3" s="175"/>
+      <c r="BE3" s="175"/>
+      <c r="BF3" s="175"/>
+      <c r="BG3" s="175"/>
+      <c r="BH3" s="175"/>
+      <c r="BI3" s="175"/>
+      <c r="BJ3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="BK3" s="154"/>
-      <c r="BL3" s="154"/>
-      <c r="BM3" s="154"/>
-      <c r="BN3" s="154"/>
-      <c r="BO3" s="154"/>
-      <c r="BP3" s="154"/>
-      <c r="BQ3" s="154"/>
-      <c r="BR3" s="155"/>
+      <c r="BK3" s="175"/>
+      <c r="BL3" s="175"/>
+      <c r="BM3" s="175"/>
+      <c r="BN3" s="175"/>
+      <c r="BO3" s="175"/>
+      <c r="BP3" s="175"/>
+      <c r="BQ3" s="175"/>
+      <c r="BR3" s="176"/>
     </row>
     <row r="4" spans="1:70" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="216"/>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="215"/>
-      <c r="T4" s="215"/>
-      <c r="U4" s="215"/>
-      <c r="V4" s="215"/>
-      <c r="W4" s="215"/>
-      <c r="X4" s="215"/>
-      <c r="Y4" s="215"/>
-      <c r="Z4" s="215"/>
-      <c r="AA4" s="215"/>
-      <c r="AB4" s="215"/>
-      <c r="AC4" s="215"/>
-      <c r="AD4" s="215"/>
-      <c r="AE4" s="215"/>
-      <c r="AF4" s="215"/>
-      <c r="AG4" s="215"/>
-      <c r="AH4" s="215"/>
-      <c r="AI4" s="215"/>
-      <c r="AJ4" s="215"/>
-      <c r="AK4" s="215"/>
-      <c r="AL4" s="215"/>
+      <c r="A4" s="179"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="178"/>
+      <c r="Y4" s="178"/>
+      <c r="Z4" s="178"/>
+      <c r="AA4" s="178"/>
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="178"/>
+      <c r="AD4" s="178"/>
+      <c r="AE4" s="178"/>
+      <c r="AF4" s="178"/>
+      <c r="AG4" s="178"/>
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="178"/>
+      <c r="AJ4" s="178"/>
+      <c r="AK4" s="178"/>
+      <c r="AL4" s="178"/>
       <c r="AM4" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="AN4" s="210" t="s">
+      <c r="AN4" s="170" t="s">
         <v>164</v>
       </c>
-      <c r="AO4" s="211"/>
-      <c r="AP4" s="212"/>
-      <c r="AQ4" s="210" t="s">
+      <c r="AO4" s="171"/>
+      <c r="AP4" s="172"/>
+      <c r="AQ4" s="170" t="s">
         <v>165</v>
       </c>
-      <c r="AR4" s="211"/>
-      <c r="AS4" s="211"/>
-      <c r="AT4" s="211"/>
-      <c r="AU4" s="211"/>
-      <c r="AV4" s="211"/>
-      <c r="AW4" s="211"/>
-      <c r="AX4" s="211"/>
-      <c r="AY4" s="211"/>
-      <c r="AZ4" s="211"/>
-      <c r="BA4" s="211"/>
-      <c r="BB4" s="211"/>
-      <c r="BC4" s="211"/>
-      <c r="BD4" s="212"/>
-      <c r="BE4" s="210" t="s">
+      <c r="AR4" s="171"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="171"/>
+      <c r="AV4" s="171"/>
+      <c r="AW4" s="171"/>
+      <c r="AX4" s="171"/>
+      <c r="AY4" s="171"/>
+      <c r="AZ4" s="171"/>
+      <c r="BA4" s="171"/>
+      <c r="BB4" s="171"/>
+      <c r="BC4" s="171"/>
+      <c r="BD4" s="172"/>
+      <c r="BE4" s="170" t="s">
         <v>166</v>
       </c>
-      <c r="BF4" s="213"/>
-      <c r="BG4" s="211"/>
-      <c r="BH4" s="211"/>
-      <c r="BI4" s="211"/>
-      <c r="BJ4" s="211"/>
-      <c r="BK4" s="212"/>
-      <c r="BL4" s="210" t="s">
+      <c r="BF4" s="173"/>
+      <c r="BG4" s="171"/>
+      <c r="BH4" s="171"/>
+      <c r="BI4" s="171"/>
+      <c r="BJ4" s="171"/>
+      <c r="BK4" s="172"/>
+      <c r="BL4" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="BM4" s="211"/>
-      <c r="BN4" s="211"/>
-      <c r="BO4" s="212"/>
-      <c r="BP4" s="210" t="s">
+      <c r="BM4" s="171"/>
+      <c r="BN4" s="171"/>
+      <c r="BO4" s="172"/>
+      <c r="BP4" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="BQ4" s="211"/>
-      <c r="BR4" s="214"/>
+      <c r="BQ4" s="171"/>
+      <c r="BR4" s="174"/>
     </row>
     <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="216"/>
-      <c r="B5" s="171" t="s">
+      <c r="A5" s="179"/>
+      <c r="B5" s="223" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171" t="s">
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="223"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="223" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171" t="s">
+      <c r="J5" s="223"/>
+      <c r="K5" s="223"/>
+      <c r="L5" s="223"/>
+      <c r="M5" s="223"/>
+      <c r="N5" s="223"/>
+      <c r="O5" s="223"/>
+      <c r="P5" s="223" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171" t="s">
+      <c r="Q5" s="223"/>
+      <c r="R5" s="223"/>
+      <c r="S5" s="223"/>
+      <c r="T5" s="223"/>
+      <c r="U5" s="223"/>
+      <c r="V5" s="223"/>
+      <c r="W5" s="223" t="s">
         <v>157</v>
       </c>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="171"/>
-      <c r="AC5" s="171"/>
-      <c r="AD5" s="171" t="s">
+      <c r="X5" s="223"/>
+      <c r="Y5" s="223"/>
+      <c r="Z5" s="223"/>
+      <c r="AA5" s="223"/>
+      <c r="AB5" s="223"/>
+      <c r="AC5" s="223"/>
+      <c r="AD5" s="223" t="s">
         <v>158</v>
       </c>
-      <c r="AE5" s="171"/>
-      <c r="AF5" s="171"/>
-      <c r="AG5" s="171"/>
-      <c r="AH5" s="171"/>
-      <c r="AI5" s="171"/>
-      <c r="AJ5" s="171"/>
-      <c r="AK5" s="171" t="s">
+      <c r="AE5" s="223"/>
+      <c r="AF5" s="223"/>
+      <c r="AG5" s="223"/>
+      <c r="AH5" s="223"/>
+      <c r="AI5" s="223"/>
+      <c r="AJ5" s="223"/>
+      <c r="AK5" s="223" t="s">
         <v>159</v>
       </c>
-      <c r="AL5" s="171"/>
+      <c r="AL5" s="223"/>
       <c r="AM5" s="116" t="s">
         <v>6</v>
       </c>
@@ -5713,45 +5713,45 @@
       <c r="AQ5" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="144" t="s">
+      <c r="AR5" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="145"/>
-      <c r="AT5" s="144" t="s">
+      <c r="AS5" s="222"/>
+      <c r="AT5" s="221" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="145"/>
-      <c r="AV5" s="144" t="s">
+      <c r="AU5" s="222"/>
+      <c r="AV5" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="AW5" s="145"/>
-      <c r="AX5" s="144" t="s">
+      <c r="AW5" s="222"/>
+      <c r="AX5" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="145"/>
-      <c r="AZ5" s="144" t="s">
+      <c r="AY5" s="222"/>
+      <c r="AZ5" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="145"/>
-      <c r="BB5" s="144" t="s">
+      <c r="BA5" s="222"/>
+      <c r="BB5" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="BC5" s="145"/>
+      <c r="BC5" s="222"/>
       <c r="BD5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="BE5" s="158" t="s">
+      <c r="BE5" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="BF5" s="145"/>
-      <c r="BG5" s="159" t="s">
+      <c r="BF5" s="222"/>
+      <c r="BG5" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="BH5" s="160"/>
-      <c r="BI5" s="159" t="s">
+      <c r="BH5" s="230"/>
+      <c r="BI5" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="160"/>
+      <c r="BJ5" s="230"/>
       <c r="BK5" s="106" t="s">
         <v>21</v>
       </c>
@@ -5779,193 +5779,193 @@
     </row>
     <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="210" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="167" t="s">
+      <c r="D6" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="167" t="s">
+      <c r="E6" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="167" t="s">
+      <c r="F6" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="167" t="s">
+      <c r="G6" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="165" t="s">
+      <c r="H6" s="219" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="169" t="s">
+      <c r="I6" s="210" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="167" t="s">
+      <c r="J6" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="167" t="s">
+      <c r="K6" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="167" t="s">
+      <c r="L6" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="167" t="s">
+      <c r="M6" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="167" t="s">
+      <c r="N6" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="165" t="s">
+      <c r="O6" s="219" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="169" t="s">
+      <c r="P6" s="210" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="167" t="s">
+      <c r="Q6" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="167" t="s">
+      <c r="R6" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="167" t="s">
+      <c r="S6" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="167" t="s">
+      <c r="T6" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="167" t="s">
+      <c r="U6" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="165" t="s">
+      <c r="V6" s="219" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="169" t="s">
+      <c r="W6" s="210" t="s">
         <v>162</v>
       </c>
-      <c r="X6" s="167" t="s">
+      <c r="X6" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="167" t="s">
+      <c r="Y6" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="167" t="s">
+      <c r="Z6" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="167" t="s">
+      <c r="AA6" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="167" t="s">
+      <c r="AB6" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="165" t="s">
+      <c r="AC6" s="219" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="169" t="s">
+      <c r="AD6" s="210" t="s">
         <v>162</v>
       </c>
-      <c r="AE6" s="167" t="s">
+      <c r="AE6" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="167" t="s">
+      <c r="AF6" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="167" t="s">
+      <c r="AG6" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="167" t="s">
+      <c r="AH6" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="167" t="s">
+      <c r="AI6" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="165" t="s">
+      <c r="AJ6" s="219" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="169" t="s">
+      <c r="AK6" s="210" t="s">
         <v>162</v>
       </c>
-      <c r="AL6" s="142" t="s">
+      <c r="AL6" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="222" t="s">
+      <c r="AM6" s="147" t="s">
         <v>111</v>
       </c>
-      <c r="AN6" s="222" t="s">
+      <c r="AN6" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="AO6" s="138" t="s">
+      <c r="AO6" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="AP6" s="140" t="s">
+      <c r="AP6" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="AQ6" s="220" t="s">
+      <c r="AQ6" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="AR6" s="156" t="s">
+      <c r="AR6" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="AS6" s="157"/>
-      <c r="AT6" s="156" t="s">
+      <c r="AS6" s="152"/>
+      <c r="AT6" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="AU6" s="157"/>
-      <c r="AV6" s="156" t="s">
+      <c r="AU6" s="152"/>
+      <c r="AV6" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="AW6" s="157"/>
-      <c r="AX6" s="156" t="s">
+      <c r="AW6" s="152"/>
+      <c r="AX6" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="AY6" s="157"/>
-      <c r="AZ6" s="156" t="s">
+      <c r="AY6" s="152"/>
+      <c r="AZ6" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="BA6" s="157"/>
-      <c r="BB6" s="156" t="s">
+      <c r="BA6" s="152"/>
+      <c r="BB6" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="BC6" s="157"/>
-      <c r="BD6" s="230" t="s">
+      <c r="BC6" s="152"/>
+      <c r="BD6" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="BE6" s="232" t="s">
+      <c r="BE6" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="BF6" s="233"/>
-      <c r="BG6" s="234" t="s">
+      <c r="BF6" s="164"/>
+      <c r="BG6" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="BH6" s="235"/>
-      <c r="BI6" s="161" t="s">
+      <c r="BH6" s="166"/>
+      <c r="BI6" s="231" t="s">
         <v>31</v>
       </c>
-      <c r="BJ6" s="162"/>
-      <c r="BK6" s="163" t="s">
+      <c r="BJ6" s="232"/>
+      <c r="BK6" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="BL6" s="222" t="s">
+      <c r="BL6" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="BM6" s="138" t="s">
+      <c r="BM6" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="BN6" s="138" t="s">
+      <c r="BN6" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="BO6" s="140" t="s">
+      <c r="BO6" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="BP6" s="224" t="s">
+      <c r="BP6" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="BQ6" s="228" t="s">
+      <c r="BQ6" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="BR6" s="226" t="s">
+      <c r="BR6" s="157" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5973,48 +5973,48 @@
       <c r="A7" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="168"/>
-      <c r="S7" s="168"/>
-      <c r="T7" s="168"/>
-      <c r="U7" s="168"/>
-      <c r="V7" s="166"/>
-      <c r="W7" s="170"/>
-      <c r="X7" s="168"/>
-      <c r="Y7" s="168"/>
-      <c r="Z7" s="168"/>
-      <c r="AA7" s="168"/>
-      <c r="AB7" s="168"/>
-      <c r="AC7" s="166"/>
-      <c r="AD7" s="170"/>
-      <c r="AE7" s="168"/>
-      <c r="AF7" s="168"/>
-      <c r="AG7" s="168"/>
-      <c r="AH7" s="168"/>
-      <c r="AI7" s="168"/>
-      <c r="AJ7" s="166"/>
-      <c r="AK7" s="170"/>
-      <c r="AL7" s="143"/>
-      <c r="AM7" s="223"/>
-      <c r="AN7" s="223"/>
-      <c r="AO7" s="139"/>
-      <c r="AP7" s="141"/>
-      <c r="AQ7" s="221"/>
+      <c r="B7" s="211"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="209"/>
+      <c r="K7" s="209"/>
+      <c r="L7" s="209"/>
+      <c r="M7" s="209"/>
+      <c r="N7" s="209"/>
+      <c r="O7" s="220"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="209"/>
+      <c r="R7" s="209"/>
+      <c r="S7" s="209"/>
+      <c r="T7" s="209"/>
+      <c r="U7" s="209"/>
+      <c r="V7" s="220"/>
+      <c r="W7" s="211"/>
+      <c r="X7" s="209"/>
+      <c r="Y7" s="209"/>
+      <c r="Z7" s="209"/>
+      <c r="AA7" s="209"/>
+      <c r="AB7" s="209"/>
+      <c r="AC7" s="220"/>
+      <c r="AD7" s="211"/>
+      <c r="AE7" s="209"/>
+      <c r="AF7" s="209"/>
+      <c r="AG7" s="209"/>
+      <c r="AH7" s="209"/>
+      <c r="AI7" s="209"/>
+      <c r="AJ7" s="220"/>
+      <c r="AK7" s="211"/>
+      <c r="AL7" s="236"/>
+      <c r="AM7" s="148"/>
+      <c r="AN7" s="148"/>
+      <c r="AO7" s="150"/>
+      <c r="AP7" s="156"/>
+      <c r="AQ7" s="146"/>
       <c r="AR7" s="96"/>
       <c r="AS7" s="98" t="s">
         <v>48</v>
@@ -6039,7 +6039,7 @@
       <c r="BC7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="BD7" s="231"/>
+      <c r="BD7" s="162"/>
       <c r="BE7" s="97"/>
       <c r="BF7" s="98" t="s">
         <v>48</v>
@@ -6052,17 +6052,17 @@
       <c r="BJ7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="164"/>
-      <c r="BL7" s="223"/>
-      <c r="BM7" s="139"/>
-      <c r="BN7" s="139"/>
-      <c r="BO7" s="141"/>
-      <c r="BP7" s="225"/>
-      <c r="BQ7" s="229"/>
-      <c r="BR7" s="227"/>
+      <c r="BK7" s="238"/>
+      <c r="BL7" s="148"/>
+      <c r="BM7" s="150"/>
+      <c r="BN7" s="150"/>
+      <c r="BO7" s="156"/>
+      <c r="BP7" s="154"/>
+      <c r="BQ7" s="160"/>
+      <c r="BR7" s="158"/>
     </row>
     <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="213" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="41"/>
@@ -6127,16 +6127,16 @@
       <c r="BI8" s="126"/>
       <c r="BJ8" s="126"/>
       <c r="BK8" s="127"/>
-      <c r="BL8" s="136"/>
+      <c r="BL8" s="224"/>
       <c r="BM8" s="126"/>
       <c r="BN8" s="126"/>
-      <c r="BO8" s="148"/>
-      <c r="BP8" s="136"/>
+      <c r="BO8" s="233"/>
+      <c r="BP8" s="224"/>
       <c r="BQ8" s="126"/>
-      <c r="BR8" s="146"/>
+      <c r="BR8" s="226"/>
     </row>
     <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="173"/>
+      <c r="A9" s="213"/>
       <c r="B9" s="85"/>
       <c r="C9" s="86"/>
       <c r="D9" s="86"/>
@@ -6199,16 +6199,16 @@
       <c r="BI9" s="129"/>
       <c r="BJ9" s="129"/>
       <c r="BK9" s="130"/>
-      <c r="BL9" s="137"/>
+      <c r="BL9" s="225"/>
       <c r="BM9" s="129"/>
       <c r="BN9" s="129"/>
-      <c r="BO9" s="149"/>
-      <c r="BP9" s="137"/>
+      <c r="BO9" s="234"/>
+      <c r="BP9" s="225"/>
       <c r="BQ9" s="129"/>
-      <c r="BR9" s="147"/>
+      <c r="BR9" s="227"/>
     </row>
     <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="174"/>
+      <c r="A10" s="214"/>
       <c r="B10" s="61"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -6246,41 +6246,41 @@
       <c r="AJ10" s="63"/>
       <c r="AK10" s="64"/>
       <c r="AL10" s="65"/>
-      <c r="AM10" s="217"/>
-      <c r="AN10" s="218"/>
-      <c r="AO10" s="218"/>
-      <c r="AP10" s="218"/>
-      <c r="AQ10" s="218"/>
-      <c r="AR10" s="218"/>
-      <c r="AS10" s="218"/>
-      <c r="AT10" s="218"/>
-      <c r="AU10" s="218"/>
-      <c r="AV10" s="218"/>
-      <c r="AW10" s="218"/>
-      <c r="AX10" s="218"/>
-      <c r="AY10" s="218"/>
-      <c r="AZ10" s="218"/>
-      <c r="BA10" s="218"/>
-      <c r="BB10" s="218"/>
-      <c r="BC10" s="218"/>
-      <c r="BD10" s="218"/>
-      <c r="BE10" s="218"/>
-      <c r="BF10" s="218"/>
-      <c r="BG10" s="218"/>
-      <c r="BH10" s="218"/>
-      <c r="BI10" s="218"/>
-      <c r="BJ10" s="218"/>
-      <c r="BK10" s="218"/>
-      <c r="BL10" s="218"/>
-      <c r="BM10" s="218"/>
-      <c r="BN10" s="218"/>
-      <c r="BO10" s="218"/>
-      <c r="BP10" s="218"/>
-      <c r="BQ10" s="218"/>
-      <c r="BR10" s="219"/>
+      <c r="AM10" s="139"/>
+      <c r="AN10" s="140"/>
+      <c r="AO10" s="140"/>
+      <c r="AP10" s="140"/>
+      <c r="AQ10" s="140"/>
+      <c r="AR10" s="140"/>
+      <c r="AS10" s="140"/>
+      <c r="AT10" s="140"/>
+      <c r="AU10" s="140"/>
+      <c r="AV10" s="140"/>
+      <c r="AW10" s="140"/>
+      <c r="AX10" s="140"/>
+      <c r="AY10" s="140"/>
+      <c r="AZ10" s="140"/>
+      <c r="BA10" s="140"/>
+      <c r="BB10" s="140"/>
+      <c r="BC10" s="140"/>
+      <c r="BD10" s="140"/>
+      <c r="BE10" s="140"/>
+      <c r="BF10" s="140"/>
+      <c r="BG10" s="140"/>
+      <c r="BH10" s="140"/>
+      <c r="BI10" s="140"/>
+      <c r="BJ10" s="140"/>
+      <c r="BK10" s="140"/>
+      <c r="BL10" s="140"/>
+      <c r="BM10" s="140"/>
+      <c r="BN10" s="140"/>
+      <c r="BO10" s="140"/>
+      <c r="BP10" s="140"/>
+      <c r="BQ10" s="140"/>
+      <c r="BR10" s="141"/>
     </row>
     <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="172" t="s">
+      <c r="A11" s="212" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="46"/>
@@ -6345,16 +6345,16 @@
       <c r="BI11" s="126"/>
       <c r="BJ11" s="126"/>
       <c r="BK11" s="127"/>
-      <c r="BL11" s="136"/>
+      <c r="BL11" s="224"/>
       <c r="BM11" s="126"/>
       <c r="BN11" s="126"/>
-      <c r="BO11" s="148"/>
-      <c r="BP11" s="136"/>
+      <c r="BO11" s="233"/>
+      <c r="BP11" s="224"/>
       <c r="BQ11" s="126"/>
-      <c r="BR11" s="146"/>
+      <c r="BR11" s="226"/>
     </row>
     <row r="12" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="173"/>
+      <c r="A12" s="213"/>
       <c r="B12" s="90"/>
       <c r="C12" s="91"/>
       <c r="D12" s="91"/>
@@ -6417,16 +6417,16 @@
       <c r="BI12" s="129"/>
       <c r="BJ12" s="129"/>
       <c r="BK12" s="130"/>
-      <c r="BL12" s="137"/>
+      <c r="BL12" s="225"/>
       <c r="BM12" s="129"/>
       <c r="BN12" s="129"/>
-      <c r="BO12" s="149"/>
-      <c r="BP12" s="137"/>
+      <c r="BO12" s="234"/>
+      <c r="BP12" s="225"/>
       <c r="BQ12" s="129"/>
-      <c r="BR12" s="147"/>
+      <c r="BR12" s="227"/>
     </row>
     <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="173"/>
+      <c r="A13" s="213"/>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
@@ -6464,41 +6464,41 @@
       <c r="AJ13" s="68"/>
       <c r="AK13" s="70"/>
       <c r="AL13" s="71"/>
-      <c r="AM13" s="150"/>
-      <c r="AN13" s="151"/>
-      <c r="AO13" s="151"/>
-      <c r="AP13" s="151"/>
-      <c r="AQ13" s="151"/>
-      <c r="AR13" s="151"/>
-      <c r="AS13" s="151"/>
-      <c r="AT13" s="151"/>
-      <c r="AU13" s="151"/>
-      <c r="AV13" s="151"/>
-      <c r="AW13" s="151"/>
-      <c r="AX13" s="151"/>
-      <c r="AY13" s="151"/>
-      <c r="AZ13" s="151"/>
-      <c r="BA13" s="151"/>
-      <c r="BB13" s="151"/>
-      <c r="BC13" s="151"/>
-      <c r="BD13" s="151"/>
-      <c r="BE13" s="151"/>
-      <c r="BF13" s="151"/>
-      <c r="BG13" s="151"/>
-      <c r="BH13" s="151"/>
-      <c r="BI13" s="151"/>
-      <c r="BJ13" s="151"/>
-      <c r="BK13" s="151"/>
-      <c r="BL13" s="151"/>
-      <c r="BM13" s="151"/>
-      <c r="BN13" s="151"/>
-      <c r="BO13" s="151"/>
-      <c r="BP13" s="151"/>
-      <c r="BQ13" s="151"/>
-      <c r="BR13" s="152"/>
+      <c r="AM13" s="142"/>
+      <c r="AN13" s="143"/>
+      <c r="AO13" s="143"/>
+      <c r="AP13" s="143"/>
+      <c r="AQ13" s="143"/>
+      <c r="AR13" s="143"/>
+      <c r="AS13" s="143"/>
+      <c r="AT13" s="143"/>
+      <c r="AU13" s="143"/>
+      <c r="AV13" s="143"/>
+      <c r="AW13" s="143"/>
+      <c r="AX13" s="143"/>
+      <c r="AY13" s="143"/>
+      <c r="AZ13" s="143"/>
+      <c r="BA13" s="143"/>
+      <c r="BB13" s="143"/>
+      <c r="BC13" s="143"/>
+      <c r="BD13" s="143"/>
+      <c r="BE13" s="143"/>
+      <c r="BF13" s="143"/>
+      <c r="BG13" s="143"/>
+      <c r="BH13" s="143"/>
+      <c r="BI13" s="143"/>
+      <c r="BJ13" s="143"/>
+      <c r="BK13" s="143"/>
+      <c r="BL13" s="143"/>
+      <c r="BM13" s="143"/>
+      <c r="BN13" s="143"/>
+      <c r="BO13" s="143"/>
+      <c r="BP13" s="143"/>
+      <c r="BQ13" s="143"/>
+      <c r="BR13" s="144"/>
     </row>
     <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="172" t="s">
+      <c r="A14" s="212" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="49"/>
@@ -6563,16 +6563,16 @@
       <c r="BI14" s="126"/>
       <c r="BJ14" s="126"/>
       <c r="BK14" s="127"/>
-      <c r="BL14" s="136"/>
+      <c r="BL14" s="224"/>
       <c r="BM14" s="126"/>
       <c r="BN14" s="126"/>
-      <c r="BO14" s="148"/>
-      <c r="BP14" s="136"/>
+      <c r="BO14" s="233"/>
+      <c r="BP14" s="224"/>
       <c r="BQ14" s="126"/>
-      <c r="BR14" s="146"/>
+      <c r="BR14" s="226"/>
     </row>
     <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="173"/>
+      <c r="A15" s="213"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
       <c r="D15" s="91"/>
@@ -6635,16 +6635,16 @@
       <c r="BI15" s="129"/>
       <c r="BJ15" s="129"/>
       <c r="BK15" s="130"/>
-      <c r="BL15" s="137"/>
+      <c r="BL15" s="225"/>
       <c r="BM15" s="129"/>
       <c r="BN15" s="129"/>
-      <c r="BO15" s="149"/>
-      <c r="BP15" s="137"/>
+      <c r="BO15" s="234"/>
+      <c r="BP15" s="225"/>
       <c r="BQ15" s="129"/>
-      <c r="BR15" s="147"/>
+      <c r="BR15" s="227"/>
     </row>
     <row r="16" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="174"/>
+      <c r="A16" s="214"/>
       <c r="B16" s="72"/>
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
@@ -6682,41 +6682,41 @@
       <c r="AJ16" s="74"/>
       <c r="AK16" s="75"/>
       <c r="AL16" s="76"/>
-      <c r="AM16" s="150"/>
-      <c r="AN16" s="151"/>
-      <c r="AO16" s="151"/>
-      <c r="AP16" s="151"/>
-      <c r="AQ16" s="151"/>
-      <c r="AR16" s="151"/>
-      <c r="AS16" s="151"/>
-      <c r="AT16" s="151"/>
-      <c r="AU16" s="151"/>
-      <c r="AV16" s="151"/>
-      <c r="AW16" s="151"/>
-      <c r="AX16" s="151"/>
-      <c r="AY16" s="151"/>
-      <c r="AZ16" s="151"/>
-      <c r="BA16" s="151"/>
-      <c r="BB16" s="151"/>
-      <c r="BC16" s="151"/>
-      <c r="BD16" s="151"/>
-      <c r="BE16" s="151"/>
-      <c r="BF16" s="151"/>
-      <c r="BG16" s="151"/>
-      <c r="BH16" s="151"/>
-      <c r="BI16" s="151"/>
-      <c r="BJ16" s="151"/>
-      <c r="BK16" s="151"/>
-      <c r="BL16" s="151"/>
-      <c r="BM16" s="151"/>
-      <c r="BN16" s="151"/>
-      <c r="BO16" s="151"/>
-      <c r="BP16" s="151"/>
-      <c r="BQ16" s="151"/>
-      <c r="BR16" s="152"/>
+      <c r="AM16" s="142"/>
+      <c r="AN16" s="143"/>
+      <c r="AO16" s="143"/>
+      <c r="AP16" s="143"/>
+      <c r="AQ16" s="143"/>
+      <c r="AR16" s="143"/>
+      <c r="AS16" s="143"/>
+      <c r="AT16" s="143"/>
+      <c r="AU16" s="143"/>
+      <c r="AV16" s="143"/>
+      <c r="AW16" s="143"/>
+      <c r="AX16" s="143"/>
+      <c r="AY16" s="143"/>
+      <c r="AZ16" s="143"/>
+      <c r="BA16" s="143"/>
+      <c r="BB16" s="143"/>
+      <c r="BC16" s="143"/>
+      <c r="BD16" s="143"/>
+      <c r="BE16" s="143"/>
+      <c r="BF16" s="143"/>
+      <c r="BG16" s="143"/>
+      <c r="BH16" s="143"/>
+      <c r="BI16" s="143"/>
+      <c r="BJ16" s="143"/>
+      <c r="BK16" s="143"/>
+      <c r="BL16" s="143"/>
+      <c r="BM16" s="143"/>
+      <c r="BN16" s="143"/>
+      <c r="BO16" s="143"/>
+      <c r="BP16" s="143"/>
+      <c r="BQ16" s="143"/>
+      <c r="BR16" s="144"/>
     </row>
     <row r="17" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="213" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="44"/>
@@ -6781,16 +6781,16 @@
       <c r="BI17" s="126"/>
       <c r="BJ17" s="126"/>
       <c r="BK17" s="127"/>
-      <c r="BL17" s="136"/>
+      <c r="BL17" s="224"/>
       <c r="BM17" s="126"/>
       <c r="BN17" s="126"/>
-      <c r="BO17" s="148"/>
-      <c r="BP17" s="125"/>
+      <c r="BO17" s="233"/>
+      <c r="BP17" s="224"/>
       <c r="BQ17" s="126"/>
-      <c r="BR17" s="146"/>
+      <c r="BR17" s="226"/>
     </row>
     <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="173"/>
+      <c r="A18" s="213"/>
       <c r="B18" s="94"/>
       <c r="C18" s="91"/>
       <c r="D18" s="91"/>
@@ -6853,16 +6853,16 @@
       <c r="BI18" s="129"/>
       <c r="BJ18" s="129"/>
       <c r="BK18" s="130"/>
-      <c r="BL18" s="137"/>
+      <c r="BL18" s="225"/>
       <c r="BM18" s="129"/>
       <c r="BN18" s="129"/>
-      <c r="BO18" s="149"/>
-      <c r="BP18" s="128"/>
+      <c r="BO18" s="234"/>
+      <c r="BP18" s="225"/>
       <c r="BQ18" s="129"/>
-      <c r="BR18" s="147"/>
+      <c r="BR18" s="227"/>
     </row>
     <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="174"/>
+      <c r="A19" s="214"/>
       <c r="B19" s="70"/>
       <c r="C19" s="67"/>
       <c r="D19" s="67"/>
@@ -6900,41 +6900,41 @@
       <c r="AJ19" s="68"/>
       <c r="AK19" s="70"/>
       <c r="AL19" s="71"/>
-      <c r="AM19" s="150"/>
-      <c r="AN19" s="151"/>
-      <c r="AO19" s="151"/>
-      <c r="AP19" s="151"/>
-      <c r="AQ19" s="151"/>
-      <c r="AR19" s="151"/>
-      <c r="AS19" s="151"/>
-      <c r="AT19" s="151"/>
-      <c r="AU19" s="151"/>
-      <c r="AV19" s="151"/>
-      <c r="AW19" s="151"/>
-      <c r="AX19" s="151"/>
-      <c r="AY19" s="151"/>
-      <c r="AZ19" s="151"/>
-      <c r="BA19" s="151"/>
-      <c r="BB19" s="151"/>
-      <c r="BC19" s="151"/>
-      <c r="BD19" s="151"/>
-      <c r="BE19" s="151"/>
-      <c r="BF19" s="151"/>
-      <c r="BG19" s="151"/>
-      <c r="BH19" s="151"/>
-      <c r="BI19" s="151"/>
-      <c r="BJ19" s="151"/>
-      <c r="BK19" s="151"/>
-      <c r="BL19" s="151"/>
-      <c r="BM19" s="151"/>
-      <c r="BN19" s="151"/>
-      <c r="BO19" s="151"/>
-      <c r="BP19" s="151"/>
-      <c r="BQ19" s="151"/>
-      <c r="BR19" s="152"/>
+      <c r="AM19" s="142"/>
+      <c r="AN19" s="143"/>
+      <c r="AO19" s="143"/>
+      <c r="AP19" s="143"/>
+      <c r="AQ19" s="143"/>
+      <c r="AR19" s="143"/>
+      <c r="AS19" s="143"/>
+      <c r="AT19" s="143"/>
+      <c r="AU19" s="143"/>
+      <c r="AV19" s="143"/>
+      <c r="AW19" s="143"/>
+      <c r="AX19" s="143"/>
+      <c r="AY19" s="143"/>
+      <c r="AZ19" s="143"/>
+      <c r="BA19" s="143"/>
+      <c r="BB19" s="143"/>
+      <c r="BC19" s="143"/>
+      <c r="BD19" s="143"/>
+      <c r="BE19" s="143"/>
+      <c r="BF19" s="143"/>
+      <c r="BG19" s="143"/>
+      <c r="BH19" s="143"/>
+      <c r="BI19" s="143"/>
+      <c r="BJ19" s="143"/>
+      <c r="BK19" s="143"/>
+      <c r="BL19" s="143"/>
+      <c r="BM19" s="143"/>
+      <c r="BN19" s="143"/>
+      <c r="BO19" s="143"/>
+      <c r="BP19" s="143"/>
+      <c r="BQ19" s="143"/>
+      <c r="BR19" s="144"/>
     </row>
     <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="172" t="s">
+      <c r="A20" s="212" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="49"/>
@@ -6999,16 +6999,16 @@
       <c r="BI20" s="126"/>
       <c r="BJ20" s="126"/>
       <c r="BK20" s="127"/>
-      <c r="BL20" s="136"/>
+      <c r="BL20" s="224"/>
       <c r="BM20" s="126"/>
       <c r="BN20" s="126"/>
-      <c r="BO20" s="148"/>
-      <c r="BP20" s="125"/>
+      <c r="BO20" s="233"/>
+      <c r="BP20" s="224"/>
       <c r="BQ20" s="126"/>
-      <c r="BR20" s="146"/>
+      <c r="BR20" s="226"/>
     </row>
     <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="173"/>
+      <c r="A21" s="213"/>
       <c r="B21" s="94"/>
       <c r="C21" s="91"/>
       <c r="D21" s="91"/>
@@ -7071,16 +7071,16 @@
       <c r="BI21" s="129"/>
       <c r="BJ21" s="129"/>
       <c r="BK21" s="130"/>
-      <c r="BL21" s="137"/>
+      <c r="BL21" s="225"/>
       <c r="BM21" s="129"/>
       <c r="BN21" s="129"/>
-      <c r="BO21" s="149"/>
-      <c r="BP21" s="128"/>
+      <c r="BO21" s="234"/>
+      <c r="BP21" s="225"/>
       <c r="BQ21" s="129"/>
-      <c r="BR21" s="147"/>
+      <c r="BR21" s="227"/>
     </row>
     <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="174"/>
+      <c r="A22" s="214"/>
       <c r="B22" s="70"/>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
@@ -7118,41 +7118,41 @@
       <c r="AJ22" s="68"/>
       <c r="AK22" s="70"/>
       <c r="AL22" s="71"/>
-      <c r="AM22" s="150"/>
-      <c r="AN22" s="151"/>
-      <c r="AO22" s="151"/>
-      <c r="AP22" s="151"/>
-      <c r="AQ22" s="151"/>
-      <c r="AR22" s="151"/>
-      <c r="AS22" s="151"/>
-      <c r="AT22" s="151"/>
-      <c r="AU22" s="151"/>
-      <c r="AV22" s="151"/>
-      <c r="AW22" s="151"/>
-      <c r="AX22" s="151"/>
-      <c r="AY22" s="151"/>
-      <c r="AZ22" s="151"/>
-      <c r="BA22" s="151"/>
-      <c r="BB22" s="151"/>
-      <c r="BC22" s="151"/>
-      <c r="BD22" s="151"/>
-      <c r="BE22" s="151"/>
-      <c r="BF22" s="151"/>
-      <c r="BG22" s="151"/>
-      <c r="BH22" s="151"/>
-      <c r="BI22" s="151"/>
-      <c r="BJ22" s="151"/>
-      <c r="BK22" s="151"/>
-      <c r="BL22" s="151"/>
-      <c r="BM22" s="151"/>
-      <c r="BN22" s="151"/>
-      <c r="BO22" s="151"/>
-      <c r="BP22" s="151"/>
-      <c r="BQ22" s="151"/>
-      <c r="BR22" s="152"/>
+      <c r="AM22" s="142"/>
+      <c r="AN22" s="143"/>
+      <c r="AO22" s="143"/>
+      <c r="AP22" s="143"/>
+      <c r="AQ22" s="143"/>
+      <c r="AR22" s="143"/>
+      <c r="AS22" s="143"/>
+      <c r="AT22" s="143"/>
+      <c r="AU22" s="143"/>
+      <c r="AV22" s="143"/>
+      <c r="AW22" s="143"/>
+      <c r="AX22" s="143"/>
+      <c r="AY22" s="143"/>
+      <c r="AZ22" s="143"/>
+      <c r="BA22" s="143"/>
+      <c r="BB22" s="143"/>
+      <c r="BC22" s="143"/>
+      <c r="BD22" s="143"/>
+      <c r="BE22" s="143"/>
+      <c r="BF22" s="143"/>
+      <c r="BG22" s="143"/>
+      <c r="BH22" s="143"/>
+      <c r="BI22" s="143"/>
+      <c r="BJ22" s="143"/>
+      <c r="BK22" s="143"/>
+      <c r="BL22" s="143"/>
+      <c r="BM22" s="143"/>
+      <c r="BN22" s="143"/>
+      <c r="BO22" s="143"/>
+      <c r="BP22" s="143"/>
+      <c r="BQ22" s="143"/>
+      <c r="BR22" s="144"/>
     </row>
     <row r="23" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="172" t="s">
+      <c r="A23" s="212" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="49"/>
@@ -7217,16 +7217,16 @@
       <c r="BI23" s="126"/>
       <c r="BJ23" s="126"/>
       <c r="BK23" s="127"/>
-      <c r="BL23" s="136"/>
+      <c r="BL23" s="224"/>
       <c r="BM23" s="126"/>
       <c r="BN23" s="126"/>
-      <c r="BO23" s="148"/>
-      <c r="BP23" s="125"/>
+      <c r="BO23" s="233"/>
+      <c r="BP23" s="224"/>
       <c r="BQ23" s="126"/>
-      <c r="BR23" s="146"/>
+      <c r="BR23" s="226"/>
     </row>
     <row r="24" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="173"/>
+      <c r="A24" s="213"/>
       <c r="B24" s="94"/>
       <c r="C24" s="91"/>
       <c r="D24" s="91"/>
@@ -7289,16 +7289,16 @@
       <c r="BI24" s="129"/>
       <c r="BJ24" s="129"/>
       <c r="BK24" s="130"/>
-      <c r="BL24" s="137"/>
+      <c r="BL24" s="225"/>
       <c r="BM24" s="129"/>
       <c r="BN24" s="129"/>
-      <c r="BO24" s="149"/>
-      <c r="BP24" s="128"/>
+      <c r="BO24" s="234"/>
+      <c r="BP24" s="225"/>
       <c r="BQ24" s="129"/>
-      <c r="BR24" s="147"/>
+      <c r="BR24" s="227"/>
     </row>
     <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="174"/>
+      <c r="A25" s="214"/>
       <c r="B25" s="75"/>
       <c r="C25" s="73"/>
       <c r="D25" s="73"/>
@@ -7336,41 +7336,41 @@
       <c r="AJ25" s="74"/>
       <c r="AK25" s="75"/>
       <c r="AL25" s="76"/>
-      <c r="AM25" s="150"/>
-      <c r="AN25" s="151"/>
-      <c r="AO25" s="151"/>
-      <c r="AP25" s="151"/>
-      <c r="AQ25" s="151"/>
-      <c r="AR25" s="151"/>
-      <c r="AS25" s="151"/>
-      <c r="AT25" s="151"/>
-      <c r="AU25" s="151"/>
-      <c r="AV25" s="151"/>
-      <c r="AW25" s="151"/>
-      <c r="AX25" s="151"/>
-      <c r="AY25" s="151"/>
-      <c r="AZ25" s="151"/>
-      <c r="BA25" s="151"/>
-      <c r="BB25" s="151"/>
-      <c r="BC25" s="151"/>
-      <c r="BD25" s="151"/>
-      <c r="BE25" s="151"/>
-      <c r="BF25" s="151"/>
-      <c r="BG25" s="151"/>
-      <c r="BH25" s="151"/>
-      <c r="BI25" s="151"/>
-      <c r="BJ25" s="151"/>
-      <c r="BK25" s="151"/>
-      <c r="BL25" s="151"/>
-      <c r="BM25" s="151"/>
-      <c r="BN25" s="151"/>
-      <c r="BO25" s="151"/>
-      <c r="BP25" s="151"/>
-      <c r="BQ25" s="151"/>
-      <c r="BR25" s="152"/>
+      <c r="AM25" s="142"/>
+      <c r="AN25" s="143"/>
+      <c r="AO25" s="143"/>
+      <c r="AP25" s="143"/>
+      <c r="AQ25" s="143"/>
+      <c r="AR25" s="143"/>
+      <c r="AS25" s="143"/>
+      <c r="AT25" s="143"/>
+      <c r="AU25" s="143"/>
+      <c r="AV25" s="143"/>
+      <c r="AW25" s="143"/>
+      <c r="AX25" s="143"/>
+      <c r="AY25" s="143"/>
+      <c r="AZ25" s="143"/>
+      <c r="BA25" s="143"/>
+      <c r="BB25" s="143"/>
+      <c r="BC25" s="143"/>
+      <c r="BD25" s="143"/>
+      <c r="BE25" s="143"/>
+      <c r="BF25" s="143"/>
+      <c r="BG25" s="143"/>
+      <c r="BH25" s="143"/>
+      <c r="BI25" s="143"/>
+      <c r="BJ25" s="143"/>
+      <c r="BK25" s="143"/>
+      <c r="BL25" s="143"/>
+      <c r="BM25" s="143"/>
+      <c r="BN25" s="143"/>
+      <c r="BO25" s="143"/>
+      <c r="BP25" s="143"/>
+      <c r="BQ25" s="143"/>
+      <c r="BR25" s="144"/>
     </row>
     <row r="26" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="212" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="44"/>
@@ -7435,16 +7435,16 @@
       <c r="BI26" s="126"/>
       <c r="BJ26" s="126"/>
       <c r="BK26" s="127"/>
-      <c r="BL26" s="136"/>
+      <c r="BL26" s="224"/>
       <c r="BM26" s="126"/>
       <c r="BN26" s="126"/>
-      <c r="BO26" s="148"/>
-      <c r="BP26" s="125"/>
+      <c r="BO26" s="233"/>
+      <c r="BP26" s="224"/>
       <c r="BQ26" s="126"/>
-      <c r="BR26" s="146"/>
+      <c r="BR26" s="226"/>
     </row>
     <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="173"/>
+      <c r="A27" s="213"/>
       <c r="B27" s="94"/>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
@@ -7507,16 +7507,16 @@
       <c r="BI27" s="129"/>
       <c r="BJ27" s="129"/>
       <c r="BK27" s="130"/>
-      <c r="BL27" s="137"/>
+      <c r="BL27" s="225"/>
       <c r="BM27" s="129"/>
       <c r="BN27" s="129"/>
-      <c r="BO27" s="149"/>
-      <c r="BP27" s="128"/>
+      <c r="BO27" s="234"/>
+      <c r="BP27" s="225"/>
       <c r="BQ27" s="129"/>
-      <c r="BR27" s="147"/>
+      <c r="BR27" s="227"/>
     </row>
     <row r="28" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="174"/>
+      <c r="A28" s="214"/>
       <c r="B28" s="70"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
@@ -7554,41 +7554,41 @@
       <c r="AJ28" s="68"/>
       <c r="AK28" s="70"/>
       <c r="AL28" s="71"/>
-      <c r="AM28" s="150"/>
-      <c r="AN28" s="151"/>
-      <c r="AO28" s="151"/>
-      <c r="AP28" s="151"/>
-      <c r="AQ28" s="151"/>
-      <c r="AR28" s="151"/>
-      <c r="AS28" s="151"/>
-      <c r="AT28" s="151"/>
-      <c r="AU28" s="151"/>
-      <c r="AV28" s="151"/>
-      <c r="AW28" s="151"/>
-      <c r="AX28" s="151"/>
-      <c r="AY28" s="151"/>
-      <c r="AZ28" s="151"/>
-      <c r="BA28" s="151"/>
-      <c r="BB28" s="151"/>
-      <c r="BC28" s="151"/>
-      <c r="BD28" s="151"/>
-      <c r="BE28" s="151"/>
-      <c r="BF28" s="151"/>
-      <c r="BG28" s="151"/>
-      <c r="BH28" s="151"/>
-      <c r="BI28" s="151"/>
-      <c r="BJ28" s="151"/>
-      <c r="BK28" s="151"/>
-      <c r="BL28" s="151"/>
-      <c r="BM28" s="151"/>
-      <c r="BN28" s="151"/>
-      <c r="BO28" s="151"/>
-      <c r="BP28" s="151"/>
-      <c r="BQ28" s="151"/>
-      <c r="BR28" s="152"/>
+      <c r="AM28" s="142"/>
+      <c r="AN28" s="143"/>
+      <c r="AO28" s="143"/>
+      <c r="AP28" s="143"/>
+      <c r="AQ28" s="143"/>
+      <c r="AR28" s="143"/>
+      <c r="AS28" s="143"/>
+      <c r="AT28" s="143"/>
+      <c r="AU28" s="143"/>
+      <c r="AV28" s="143"/>
+      <c r="AW28" s="143"/>
+      <c r="AX28" s="143"/>
+      <c r="AY28" s="143"/>
+      <c r="AZ28" s="143"/>
+      <c r="BA28" s="143"/>
+      <c r="BB28" s="143"/>
+      <c r="BC28" s="143"/>
+      <c r="BD28" s="143"/>
+      <c r="BE28" s="143"/>
+      <c r="BF28" s="143"/>
+      <c r="BG28" s="143"/>
+      <c r="BH28" s="143"/>
+      <c r="BI28" s="143"/>
+      <c r="BJ28" s="143"/>
+      <c r="BK28" s="143"/>
+      <c r="BL28" s="143"/>
+      <c r="BM28" s="143"/>
+      <c r="BN28" s="143"/>
+      <c r="BO28" s="143"/>
+      <c r="BP28" s="143"/>
+      <c r="BQ28" s="143"/>
+      <c r="BR28" s="144"/>
     </row>
     <row r="29" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="216" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="46"/>
@@ -7653,16 +7653,16 @@
       <c r="BI29" s="126"/>
       <c r="BJ29" s="126"/>
       <c r="BK29" s="127"/>
-      <c r="BL29" s="136"/>
+      <c r="BL29" s="224"/>
       <c r="BM29" s="126"/>
       <c r="BN29" s="126"/>
-      <c r="BO29" s="148"/>
-      <c r="BP29" s="125"/>
+      <c r="BO29" s="233"/>
+      <c r="BP29" s="224"/>
       <c r="BQ29" s="126"/>
-      <c r="BR29" s="146"/>
+      <c r="BR29" s="226"/>
     </row>
     <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="177"/>
+      <c r="A30" s="217"/>
       <c r="B30" s="90"/>
       <c r="C30" s="91"/>
       <c r="D30" s="91"/>
@@ -7725,16 +7725,16 @@
       <c r="BI30" s="129"/>
       <c r="BJ30" s="129"/>
       <c r="BK30" s="130"/>
-      <c r="BL30" s="137"/>
+      <c r="BL30" s="225"/>
       <c r="BM30" s="129"/>
       <c r="BN30" s="129"/>
-      <c r="BO30" s="149"/>
-      <c r="BP30" s="128"/>
+      <c r="BO30" s="234"/>
+      <c r="BP30" s="225"/>
       <c r="BQ30" s="129"/>
-      <c r="BR30" s="147"/>
+      <c r="BR30" s="227"/>
     </row>
     <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="178"/>
+      <c r="A31" s="218"/>
       <c r="B31" s="72"/>
       <c r="C31" s="73"/>
       <c r="D31" s="73"/>
@@ -7772,41 +7772,41 @@
       <c r="AJ31" s="74"/>
       <c r="AK31" s="75"/>
       <c r="AL31" s="76"/>
-      <c r="AM31" s="150"/>
-      <c r="AN31" s="151"/>
-      <c r="AO31" s="151"/>
-      <c r="AP31" s="151"/>
-      <c r="AQ31" s="151"/>
-      <c r="AR31" s="151"/>
-      <c r="AS31" s="151"/>
-      <c r="AT31" s="151"/>
-      <c r="AU31" s="151"/>
-      <c r="AV31" s="151"/>
-      <c r="AW31" s="151"/>
-      <c r="AX31" s="151"/>
-      <c r="AY31" s="151"/>
-      <c r="AZ31" s="151"/>
-      <c r="BA31" s="151"/>
-      <c r="BB31" s="151"/>
-      <c r="BC31" s="151"/>
-      <c r="BD31" s="151"/>
-      <c r="BE31" s="151"/>
-      <c r="BF31" s="151"/>
-      <c r="BG31" s="151"/>
-      <c r="BH31" s="151"/>
-      <c r="BI31" s="151"/>
-      <c r="BJ31" s="151"/>
-      <c r="BK31" s="151"/>
-      <c r="BL31" s="151"/>
-      <c r="BM31" s="151"/>
-      <c r="BN31" s="151"/>
-      <c r="BO31" s="151"/>
-      <c r="BP31" s="151"/>
-      <c r="BQ31" s="151"/>
-      <c r="BR31" s="152"/>
+      <c r="AM31" s="142"/>
+      <c r="AN31" s="143"/>
+      <c r="AO31" s="143"/>
+      <c r="AP31" s="143"/>
+      <c r="AQ31" s="143"/>
+      <c r="AR31" s="143"/>
+      <c r="AS31" s="143"/>
+      <c r="AT31" s="143"/>
+      <c r="AU31" s="143"/>
+      <c r="AV31" s="143"/>
+      <c r="AW31" s="143"/>
+      <c r="AX31" s="143"/>
+      <c r="AY31" s="143"/>
+      <c r="AZ31" s="143"/>
+      <c r="BA31" s="143"/>
+      <c r="BB31" s="143"/>
+      <c r="BC31" s="143"/>
+      <c r="BD31" s="143"/>
+      <c r="BE31" s="143"/>
+      <c r="BF31" s="143"/>
+      <c r="BG31" s="143"/>
+      <c r="BH31" s="143"/>
+      <c r="BI31" s="143"/>
+      <c r="BJ31" s="143"/>
+      <c r="BK31" s="143"/>
+      <c r="BL31" s="143"/>
+      <c r="BM31" s="143"/>
+      <c r="BN31" s="143"/>
+      <c r="BO31" s="143"/>
+      <c r="BP31" s="143"/>
+      <c r="BQ31" s="143"/>
+      <c r="BR31" s="144"/>
     </row>
     <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="176" t="s">
+      <c r="A32" s="216" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="44"/>
@@ -7871,16 +7871,16 @@
       <c r="BI32" s="126"/>
       <c r="BJ32" s="126"/>
       <c r="BK32" s="127"/>
-      <c r="BL32" s="136"/>
+      <c r="BL32" s="224"/>
       <c r="BM32" s="126"/>
       <c r="BN32" s="126"/>
-      <c r="BO32" s="148"/>
-      <c r="BP32" s="125"/>
+      <c r="BO32" s="233"/>
+      <c r="BP32" s="224"/>
       <c r="BQ32" s="126"/>
-      <c r="BR32" s="146"/>
+      <c r="BR32" s="226"/>
     </row>
     <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="177"/>
+      <c r="A33" s="217"/>
       <c r="B33" s="94"/>
       <c r="C33" s="91"/>
       <c r="D33" s="91"/>
@@ -7943,16 +7943,16 @@
       <c r="BI33" s="129"/>
       <c r="BJ33" s="129"/>
       <c r="BK33" s="130"/>
-      <c r="BL33" s="137"/>
+      <c r="BL33" s="225"/>
       <c r="BM33" s="129"/>
       <c r="BN33" s="129"/>
-      <c r="BO33" s="149"/>
-      <c r="BP33" s="128"/>
+      <c r="BO33" s="234"/>
+      <c r="BP33" s="225"/>
       <c r="BQ33" s="129"/>
-      <c r="BR33" s="147"/>
+      <c r="BR33" s="227"/>
     </row>
     <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="178"/>
+      <c r="A34" s="218"/>
       <c r="B34" s="70"/>
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
@@ -7990,41 +7990,41 @@
       <c r="AJ34" s="68"/>
       <c r="AK34" s="70"/>
       <c r="AL34" s="71"/>
-      <c r="AM34" s="150"/>
-      <c r="AN34" s="151"/>
-      <c r="AO34" s="151"/>
-      <c r="AP34" s="151"/>
-      <c r="AQ34" s="151"/>
-      <c r="AR34" s="151"/>
-      <c r="AS34" s="151"/>
-      <c r="AT34" s="151"/>
-      <c r="AU34" s="151"/>
-      <c r="AV34" s="151"/>
-      <c r="AW34" s="151"/>
-      <c r="AX34" s="151"/>
-      <c r="AY34" s="151"/>
-      <c r="AZ34" s="151"/>
-      <c r="BA34" s="151"/>
-      <c r="BB34" s="151"/>
-      <c r="BC34" s="151"/>
-      <c r="BD34" s="151"/>
-      <c r="BE34" s="151"/>
-      <c r="BF34" s="151"/>
-      <c r="BG34" s="151"/>
-      <c r="BH34" s="151"/>
-      <c r="BI34" s="151"/>
-      <c r="BJ34" s="151"/>
-      <c r="BK34" s="151"/>
-      <c r="BL34" s="151"/>
-      <c r="BM34" s="151"/>
-      <c r="BN34" s="151"/>
-      <c r="BO34" s="151"/>
-      <c r="BP34" s="151"/>
-      <c r="BQ34" s="151"/>
-      <c r="BR34" s="152"/>
+      <c r="AM34" s="142"/>
+      <c r="AN34" s="143"/>
+      <c r="AO34" s="143"/>
+      <c r="AP34" s="143"/>
+      <c r="AQ34" s="143"/>
+      <c r="AR34" s="143"/>
+      <c r="AS34" s="143"/>
+      <c r="AT34" s="143"/>
+      <c r="AU34" s="143"/>
+      <c r="AV34" s="143"/>
+      <c r="AW34" s="143"/>
+      <c r="AX34" s="143"/>
+      <c r="AY34" s="143"/>
+      <c r="AZ34" s="143"/>
+      <c r="BA34" s="143"/>
+      <c r="BB34" s="143"/>
+      <c r="BC34" s="143"/>
+      <c r="BD34" s="143"/>
+      <c r="BE34" s="143"/>
+      <c r="BF34" s="143"/>
+      <c r="BG34" s="143"/>
+      <c r="BH34" s="143"/>
+      <c r="BI34" s="143"/>
+      <c r="BJ34" s="143"/>
+      <c r="BK34" s="143"/>
+      <c r="BL34" s="143"/>
+      <c r="BM34" s="143"/>
+      <c r="BN34" s="143"/>
+      <c r="BO34" s="143"/>
+      <c r="BP34" s="143"/>
+      <c r="BQ34" s="143"/>
+      <c r="BR34" s="144"/>
     </row>
     <row r="35" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="172" t="s">
+      <c r="A35" s="212" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="51"/>
@@ -8089,16 +8089,16 @@
       <c r="BI35" s="126"/>
       <c r="BJ35" s="126"/>
       <c r="BK35" s="127"/>
-      <c r="BL35" s="136"/>
+      <c r="BL35" s="224"/>
       <c r="BM35" s="126"/>
       <c r="BN35" s="126"/>
-      <c r="BO35" s="148"/>
-      <c r="BP35" s="125"/>
+      <c r="BO35" s="233"/>
+      <c r="BP35" s="224"/>
       <c r="BQ35" s="126"/>
-      <c r="BR35" s="146"/>
+      <c r="BR35" s="226"/>
     </row>
     <row r="36" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="173"/>
+      <c r="A36" s="213"/>
       <c r="B36" s="94"/>
       <c r="C36" s="91"/>
       <c r="D36" s="91"/>
@@ -8161,16 +8161,16 @@
       <c r="BI36" s="129"/>
       <c r="BJ36" s="129"/>
       <c r="BK36" s="130"/>
-      <c r="BL36" s="137"/>
+      <c r="BL36" s="225"/>
       <c r="BM36" s="129"/>
       <c r="BN36" s="129"/>
-      <c r="BO36" s="149"/>
-      <c r="BP36" s="128"/>
+      <c r="BO36" s="234"/>
+      <c r="BP36" s="225"/>
       <c r="BQ36" s="129"/>
-      <c r="BR36" s="147"/>
+      <c r="BR36" s="227"/>
     </row>
     <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="174"/>
+      <c r="A37" s="214"/>
       <c r="B37" s="75"/>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -8208,41 +8208,41 @@
       <c r="AJ37" s="74"/>
       <c r="AK37" s="75"/>
       <c r="AL37" s="76"/>
-      <c r="AM37" s="150"/>
-      <c r="AN37" s="151"/>
-      <c r="AO37" s="151"/>
-      <c r="AP37" s="151"/>
-      <c r="AQ37" s="151"/>
-      <c r="AR37" s="151"/>
-      <c r="AS37" s="151"/>
-      <c r="AT37" s="151"/>
-      <c r="AU37" s="151"/>
-      <c r="AV37" s="151"/>
-      <c r="AW37" s="151"/>
-      <c r="AX37" s="151"/>
-      <c r="AY37" s="151"/>
-      <c r="AZ37" s="151"/>
-      <c r="BA37" s="151"/>
-      <c r="BB37" s="151"/>
-      <c r="BC37" s="151"/>
-      <c r="BD37" s="151"/>
-      <c r="BE37" s="151"/>
-      <c r="BF37" s="151"/>
-      <c r="BG37" s="151"/>
-      <c r="BH37" s="151"/>
-      <c r="BI37" s="151"/>
-      <c r="BJ37" s="151"/>
-      <c r="BK37" s="151"/>
-      <c r="BL37" s="151"/>
-      <c r="BM37" s="151"/>
-      <c r="BN37" s="151"/>
-      <c r="BO37" s="151"/>
-      <c r="BP37" s="151"/>
-      <c r="BQ37" s="151"/>
-      <c r="BR37" s="152"/>
+      <c r="AM37" s="142"/>
+      <c r="AN37" s="143"/>
+      <c r="AO37" s="143"/>
+      <c r="AP37" s="143"/>
+      <c r="AQ37" s="143"/>
+      <c r="AR37" s="143"/>
+      <c r="AS37" s="143"/>
+      <c r="AT37" s="143"/>
+      <c r="AU37" s="143"/>
+      <c r="AV37" s="143"/>
+      <c r="AW37" s="143"/>
+      <c r="AX37" s="143"/>
+      <c r="AY37" s="143"/>
+      <c r="AZ37" s="143"/>
+      <c r="BA37" s="143"/>
+      <c r="BB37" s="143"/>
+      <c r="BC37" s="143"/>
+      <c r="BD37" s="143"/>
+      <c r="BE37" s="143"/>
+      <c r="BF37" s="143"/>
+      <c r="BG37" s="143"/>
+      <c r="BH37" s="143"/>
+      <c r="BI37" s="143"/>
+      <c r="BJ37" s="143"/>
+      <c r="BK37" s="143"/>
+      <c r="BL37" s="143"/>
+      <c r="BM37" s="143"/>
+      <c r="BN37" s="143"/>
+      <c r="BO37" s="143"/>
+      <c r="BP37" s="143"/>
+      <c r="BQ37" s="143"/>
+      <c r="BR37" s="144"/>
     </row>
     <row r="38" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="172" t="s">
+      <c r="A38" s="212" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="56"/>
@@ -8307,16 +8307,16 @@
       <c r="BI38" s="126"/>
       <c r="BJ38" s="126"/>
       <c r="BK38" s="127"/>
-      <c r="BL38" s="136"/>
+      <c r="BL38" s="224"/>
       <c r="BM38" s="126"/>
       <c r="BN38" s="126"/>
-      <c r="BO38" s="148"/>
-      <c r="BP38" s="125"/>
+      <c r="BO38" s="233"/>
+      <c r="BP38" s="224"/>
       <c r="BQ38" s="126"/>
-      <c r="BR38" s="146"/>
+      <c r="BR38" s="226"/>
     </row>
     <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="173"/>
+      <c r="A39" s="213"/>
       <c r="B39" s="94"/>
       <c r="C39" s="91"/>
       <c r="D39" s="91"/>
@@ -8379,16 +8379,16 @@
       <c r="BI39" s="129"/>
       <c r="BJ39" s="129"/>
       <c r="BK39" s="130"/>
-      <c r="BL39" s="137"/>
+      <c r="BL39" s="225"/>
       <c r="BM39" s="129"/>
       <c r="BN39" s="129"/>
-      <c r="BO39" s="149"/>
-      <c r="BP39" s="128"/>
+      <c r="BO39" s="234"/>
+      <c r="BP39" s="225"/>
       <c r="BQ39" s="129"/>
-      <c r="BR39" s="147"/>
+      <c r="BR39" s="227"/>
     </row>
     <row r="40" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="174"/>
+      <c r="A40" s="214"/>
       <c r="B40" s="70"/>
       <c r="C40" s="67"/>
       <c r="D40" s="67"/>
@@ -8426,41 +8426,41 @@
       <c r="AJ40" s="68"/>
       <c r="AK40" s="70"/>
       <c r="AL40" s="71"/>
-      <c r="AM40" s="150"/>
-      <c r="AN40" s="151"/>
-      <c r="AO40" s="151"/>
-      <c r="AP40" s="151"/>
-      <c r="AQ40" s="151"/>
-      <c r="AR40" s="151"/>
-      <c r="AS40" s="151"/>
-      <c r="AT40" s="151"/>
-      <c r="AU40" s="151"/>
-      <c r="AV40" s="151"/>
-      <c r="AW40" s="151"/>
-      <c r="AX40" s="151"/>
-      <c r="AY40" s="151"/>
-      <c r="AZ40" s="151"/>
-      <c r="BA40" s="151"/>
-      <c r="BB40" s="151"/>
-      <c r="BC40" s="151"/>
-      <c r="BD40" s="151"/>
-      <c r="BE40" s="151"/>
-      <c r="BF40" s="151"/>
-      <c r="BG40" s="151"/>
-      <c r="BH40" s="151"/>
-      <c r="BI40" s="151"/>
-      <c r="BJ40" s="151"/>
-      <c r="BK40" s="151"/>
-      <c r="BL40" s="151"/>
-      <c r="BM40" s="151"/>
-      <c r="BN40" s="151"/>
-      <c r="BO40" s="151"/>
-      <c r="BP40" s="151"/>
-      <c r="BQ40" s="151"/>
-      <c r="BR40" s="152"/>
+      <c r="AM40" s="142"/>
+      <c r="AN40" s="143"/>
+      <c r="AO40" s="143"/>
+      <c r="AP40" s="143"/>
+      <c r="AQ40" s="143"/>
+      <c r="AR40" s="143"/>
+      <c r="AS40" s="143"/>
+      <c r="AT40" s="143"/>
+      <c r="AU40" s="143"/>
+      <c r="AV40" s="143"/>
+      <c r="AW40" s="143"/>
+      <c r="AX40" s="143"/>
+      <c r="AY40" s="143"/>
+      <c r="AZ40" s="143"/>
+      <c r="BA40" s="143"/>
+      <c r="BB40" s="143"/>
+      <c r="BC40" s="143"/>
+      <c r="BD40" s="143"/>
+      <c r="BE40" s="143"/>
+      <c r="BF40" s="143"/>
+      <c r="BG40" s="143"/>
+      <c r="BH40" s="143"/>
+      <c r="BI40" s="143"/>
+      <c r="BJ40" s="143"/>
+      <c r="BK40" s="143"/>
+      <c r="BL40" s="143"/>
+      <c r="BM40" s="143"/>
+      <c r="BN40" s="143"/>
+      <c r="BO40" s="143"/>
+      <c r="BP40" s="143"/>
+      <c r="BQ40" s="143"/>
+      <c r="BR40" s="144"/>
     </row>
     <row r="41" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="212" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="49"/>
@@ -8525,16 +8525,16 @@
       <c r="BI41" s="126"/>
       <c r="BJ41" s="126"/>
       <c r="BK41" s="127"/>
-      <c r="BL41" s="136"/>
+      <c r="BL41" s="224"/>
       <c r="BM41" s="126"/>
       <c r="BN41" s="126"/>
-      <c r="BO41" s="148"/>
-      <c r="BP41" s="125"/>
+      <c r="BO41" s="233"/>
+      <c r="BP41" s="224"/>
       <c r="BQ41" s="126"/>
-      <c r="BR41" s="146"/>
+      <c r="BR41" s="226"/>
     </row>
     <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="173"/>
+      <c r="A42" s="213"/>
       <c r="B42" s="94"/>
       <c r="C42" s="91"/>
       <c r="D42" s="91"/>
@@ -8597,16 +8597,16 @@
       <c r="BI42" s="129"/>
       <c r="BJ42" s="129"/>
       <c r="BK42" s="130"/>
-      <c r="BL42" s="137"/>
+      <c r="BL42" s="225"/>
       <c r="BM42" s="129"/>
       <c r="BN42" s="129"/>
-      <c r="BO42" s="149"/>
-      <c r="BP42" s="128"/>
+      <c r="BO42" s="234"/>
+      <c r="BP42" s="225"/>
       <c r="BQ42" s="129"/>
-      <c r="BR42" s="147"/>
+      <c r="BR42" s="227"/>
     </row>
     <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="175"/>
+      <c r="A43" s="215"/>
       <c r="B43" s="79"/>
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
@@ -8644,44 +8644,44 @@
       <c r="AJ43" s="82"/>
       <c r="AK43" s="79"/>
       <c r="AL43" s="83"/>
-      <c r="AM43" s="236"/>
-      <c r="AN43" s="237"/>
-      <c r="AO43" s="237"/>
-      <c r="AP43" s="237"/>
-      <c r="AQ43" s="237"/>
-      <c r="AR43" s="237"/>
-      <c r="AS43" s="237"/>
-      <c r="AT43" s="237"/>
-      <c r="AU43" s="237"/>
-      <c r="AV43" s="237"/>
-      <c r="AW43" s="237"/>
-      <c r="AX43" s="237"/>
-      <c r="AY43" s="237"/>
-      <c r="AZ43" s="237"/>
-      <c r="BA43" s="237"/>
-      <c r="BB43" s="237"/>
-      <c r="BC43" s="237"/>
-      <c r="BD43" s="237"/>
-      <c r="BE43" s="237"/>
-      <c r="BF43" s="237"/>
-      <c r="BG43" s="237"/>
-      <c r="BH43" s="237"/>
-      <c r="BI43" s="237"/>
-      <c r="BJ43" s="237"/>
-      <c r="BK43" s="237"/>
-      <c r="BL43" s="237"/>
-      <c r="BM43" s="237"/>
-      <c r="BN43" s="237"/>
-      <c r="BO43" s="237"/>
-      <c r="BP43" s="237"/>
-      <c r="BQ43" s="237"/>
-      <c r="BR43" s="238"/>
+      <c r="AM43" s="136"/>
+      <c r="AN43" s="137"/>
+      <c r="AO43" s="137"/>
+      <c r="AP43" s="137"/>
+      <c r="AQ43" s="137"/>
+      <c r="AR43" s="137"/>
+      <c r="AS43" s="137"/>
+      <c r="AT43" s="137"/>
+      <c r="AU43" s="137"/>
+      <c r="AV43" s="137"/>
+      <c r="AW43" s="137"/>
+      <c r="AX43" s="137"/>
+      <c r="AY43" s="137"/>
+      <c r="AZ43" s="137"/>
+      <c r="BA43" s="137"/>
+      <c r="BB43" s="137"/>
+      <c r="BC43" s="137"/>
+      <c r="BD43" s="137"/>
+      <c r="BE43" s="137"/>
+      <c r="BF43" s="137"/>
+      <c r="BG43" s="137"/>
+      <c r="BH43" s="137"/>
+      <c r="BI43" s="137"/>
+      <c r="BJ43" s="137"/>
+      <c r="BK43" s="137"/>
+      <c r="BL43" s="137"/>
+      <c r="BM43" s="137"/>
+      <c r="BN43" s="137"/>
+      <c r="BO43" s="137"/>
+      <c r="BP43" s="137"/>
+      <c r="BQ43" s="137"/>
+      <c r="BR43" s="138"/>
     </row>
     <row r="44" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="202" t="s">
+      <c r="A44" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="203"/>
+      <c r="B44" s="187"/>
       <c r="C44" s="3" t="s">
         <v>62</v>
       </c>
@@ -8717,11 +8717,11 @@
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
       <c r="AI44" s="78"/>
-      <c r="AJ44" s="204" t="s">
+      <c r="AJ44" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="AK44" s="205"/>
-      <c r="AL44" s="206"/>
+      <c r="AK44" s="189"/>
+      <c r="AL44" s="190"/>
       <c r="AM44" s="32"/>
       <c r="AN44" s="33"/>
       <c r="AO44" s="34"/>
@@ -8848,420 +8848,420 @@
       <c r="BR46" s="113"/>
     </row>
     <row r="47" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="199" t="s">
+      <c r="A47" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="199"/>
-      <c r="C47" s="199"/>
-      <c r="D47" s="191" t="s">
+      <c r="B47" s="191"/>
+      <c r="C47" s="191"/>
+      <c r="D47" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="192"/>
-      <c r="F47" s="192"/>
+      <c r="E47" s="193"/>
+      <c r="F47" s="193"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="191" t="s">
+      <c r="H47" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="I47" s="192"/>
-      <c r="J47" s="192"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="193"/>
       <c r="K47" s="15"/>
-      <c r="L47" s="191" t="s">
+      <c r="L47" s="192" t="s">
         <v>67</v>
       </c>
-      <c r="M47" s="192"/>
-      <c r="N47" s="192"/>
+      <c r="M47" s="193"/>
+      <c r="N47" s="193"/>
       <c r="O47" s="15"/>
-      <c r="P47" s="191" t="s">
+      <c r="P47" s="192" t="s">
         <v>68</v>
       </c>
-      <c r="Q47" s="192"/>
-      <c r="R47" s="192"/>
+      <c r="Q47" s="193"/>
+      <c r="R47" s="193"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="191" t="s">
+      <c r="T47" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="U47" s="192"/>
-      <c r="V47" s="192"/>
+      <c r="U47" s="193"/>
+      <c r="V47" s="193"/>
       <c r="W47" s="15"/>
-      <c r="X47" s="191" t="s">
+      <c r="X47" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="Y47" s="192"/>
-      <c r="Z47" s="192"/>
+      <c r="Y47" s="193"/>
+      <c r="Z47" s="193"/>
       <c r="AA47" s="15"/>
-      <c r="AM47" s="197" t="s">
+      <c r="AM47" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="AN47" s="197"/>
-      <c r="AO47" s="197"/>
-      <c r="AP47" s="200"/>
-      <c r="AQ47" s="200"/>
-      <c r="AR47" s="200"/>
-      <c r="AS47" s="200"/>
-      <c r="AT47" s="200"/>
-      <c r="AU47" s="200"/>
-      <c r="AV47" s="200"/>
-      <c r="AW47" s="201"/>
+      <c r="AN47" s="194"/>
+      <c r="AO47" s="194"/>
+      <c r="AP47" s="180"/>
+      <c r="AQ47" s="180"/>
+      <c r="AR47" s="180"/>
+      <c r="AS47" s="180"/>
+      <c r="AT47" s="180"/>
+      <c r="AU47" s="180"/>
+      <c r="AV47" s="180"/>
+      <c r="AW47" s="181"/>
       <c r="AX47" s="11"/>
       <c r="AY47" s="11"/>
       <c r="AZ47" s="11"/>
-      <c r="BC47" s="184" t="s">
+      <c r="BC47" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="BD47" s="184"/>
-      <c r="BE47" s="184"/>
-      <c r="BF47" s="184"/>
-      <c r="BG47" s="184"/>
-      <c r="BH47" s="184"/>
-      <c r="BI47" s="184"/>
-      <c r="BJ47" s="184"/>
-      <c r="BK47" s="185"/>
-      <c r="BL47" s="186"/>
-      <c r="BM47" s="186"/>
-      <c r="BN47" s="186"/>
-      <c r="BO47" s="186"/>
-      <c r="BP47" s="186"/>
-      <c r="BQ47" s="186"/>
-      <c r="BR47" s="187"/>
+      <c r="BD47" s="182"/>
+      <c r="BE47" s="182"/>
+      <c r="BF47" s="182"/>
+      <c r="BG47" s="182"/>
+      <c r="BH47" s="182"/>
+      <c r="BI47" s="182"/>
+      <c r="BJ47" s="182"/>
+      <c r="BK47" s="183"/>
+      <c r="BL47" s="184"/>
+      <c r="BM47" s="184"/>
+      <c r="BN47" s="184"/>
+      <c r="BO47" s="184"/>
+      <c r="BP47" s="184"/>
+      <c r="BQ47" s="184"/>
+      <c r="BR47" s="185"/>
     </row>
     <row r="48" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="199" t="s">
+      <c r="A48" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="199"/>
-      <c r="C48" s="199"/>
-      <c r="D48" s="191" t="s">
+      <c r="B48" s="191"/>
+      <c r="C48" s="191"/>
+      <c r="D48" s="192" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="192"/>
-      <c r="F48" s="192"/>
+      <c r="E48" s="193"/>
+      <c r="F48" s="193"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="191" t="s">
+      <c r="H48" s="192" t="s">
         <v>75</v>
       </c>
-      <c r="I48" s="192"/>
-      <c r="J48" s="192"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="193"/>
       <c r="K48" s="15"/>
-      <c r="L48" s="191" t="s">
+      <c r="L48" s="192" t="s">
         <v>76</v>
       </c>
-      <c r="M48" s="192"/>
-      <c r="N48" s="192"/>
+      <c r="M48" s="193"/>
+      <c r="N48" s="193"/>
       <c r="O48" s="15"/>
-      <c r="P48" s="191"/>
-      <c r="Q48" s="192"/>
-      <c r="R48" s="192"/>
+      <c r="P48" s="192"/>
+      <c r="Q48" s="193"/>
+      <c r="R48" s="193"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="191"/>
-      <c r="U48" s="192"/>
-      <c r="V48" s="192"/>
+      <c r="T48" s="192"/>
+      <c r="U48" s="193"/>
+      <c r="V48" s="193"/>
       <c r="W48" s="15"/>
-      <c r="X48" s="191"/>
-      <c r="Y48" s="192"/>
-      <c r="Z48" s="192"/>
+      <c r="X48" s="192"/>
+      <c r="Y48" s="193"/>
+      <c r="Z48" s="193"/>
       <c r="AA48" s="15"/>
       <c r="AB48" s="1"/>
-      <c r="AM48" s="197" t="s">
+      <c r="AM48" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="AN48" s="197"/>
-      <c r="AO48" s="197"/>
-      <c r="AP48" s="198"/>
-      <c r="AQ48" s="198"/>
-      <c r="AR48" s="198"/>
-      <c r="AS48" s="198"/>
-      <c r="AT48" s="198"/>
-      <c r="AU48" s="198"/>
-      <c r="AV48" s="198"/>
-      <c r="AW48" s="198"/>
+      <c r="AN48" s="194"/>
+      <c r="AO48" s="194"/>
+      <c r="AP48" s="195"/>
+      <c r="AQ48" s="195"/>
+      <c r="AR48" s="195"/>
+      <c r="AS48" s="195"/>
+      <c r="AT48" s="195"/>
+      <c r="AU48" s="195"/>
+      <c r="AV48" s="195"/>
+      <c r="AW48" s="195"/>
       <c r="AX48" s="11"/>
       <c r="AY48" s="11"/>
       <c r="AZ48" s="11"/>
-      <c r="BC48" s="184" t="s">
+      <c r="BC48" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="BD48" s="184"/>
-      <c r="BE48" s="184"/>
-      <c r="BF48" s="184"/>
-      <c r="BG48" s="184"/>
-      <c r="BH48" s="184"/>
-      <c r="BI48" s="184"/>
-      <c r="BJ48" s="184"/>
-      <c r="BK48" s="185"/>
-      <c r="BL48" s="186"/>
-      <c r="BM48" s="186"/>
-      <c r="BN48" s="186"/>
-      <c r="BO48" s="186"/>
-      <c r="BP48" s="186"/>
-      <c r="BQ48" s="186"/>
-      <c r="BR48" s="187"/>
+      <c r="BD48" s="182"/>
+      <c r="BE48" s="182"/>
+      <c r="BF48" s="182"/>
+      <c r="BG48" s="182"/>
+      <c r="BH48" s="182"/>
+      <c r="BI48" s="182"/>
+      <c r="BJ48" s="182"/>
+      <c r="BK48" s="183"/>
+      <c r="BL48" s="184"/>
+      <c r="BM48" s="184"/>
+      <c r="BN48" s="184"/>
+      <c r="BO48" s="184"/>
+      <c r="BP48" s="184"/>
+      <c r="BQ48" s="184"/>
+      <c r="BR48" s="185"/>
     </row>
     <row r="49" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="199" t="s">
+      <c r="A49" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="199"/>
-      <c r="C49" s="199"/>
-      <c r="D49" s="191" t="s">
+      <c r="B49" s="191"/>
+      <c r="C49" s="191"/>
+      <c r="D49" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="192"/>
-      <c r="F49" s="192"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="193"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="191" t="s">
+      <c r="H49" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="I49" s="192"/>
-      <c r="J49" s="192"/>
+      <c r="I49" s="193"/>
+      <c r="J49" s="193"/>
       <c r="K49" s="15"/>
-      <c r="L49" s="191" t="s">
+      <c r="L49" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="M49" s="192"/>
-      <c r="N49" s="192"/>
+      <c r="M49" s="193"/>
+      <c r="N49" s="193"/>
       <c r="O49" s="15"/>
-      <c r="P49" s="191" t="s">
+      <c r="P49" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="Q49" s="192"/>
-      <c r="R49" s="192"/>
+      <c r="Q49" s="193"/>
+      <c r="R49" s="193"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="191" t="s">
+      <c r="T49" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="U49" s="192"/>
-      <c r="V49" s="192"/>
+      <c r="U49" s="193"/>
+      <c r="V49" s="193"/>
       <c r="W49" s="15"/>
-      <c r="X49" s="191" t="s">
+      <c r="X49" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="Y49" s="192"/>
-      <c r="Z49" s="192"/>
+      <c r="Y49" s="193"/>
+      <c r="Z49" s="193"/>
       <c r="AA49" s="15"/>
       <c r="AJ49" s="4"/>
-      <c r="AM49" s="197" t="s">
+      <c r="AM49" s="194" t="s">
         <v>86</v>
       </c>
-      <c r="AN49" s="197"/>
-      <c r="AO49" s="197"/>
-      <c r="AP49" s="198"/>
-      <c r="AQ49" s="198"/>
-      <c r="AR49" s="198"/>
-      <c r="AS49" s="198"/>
-      <c r="AT49" s="198"/>
-      <c r="AU49" s="198"/>
-      <c r="AV49" s="198"/>
-      <c r="AW49" s="198"/>
+      <c r="AN49" s="194"/>
+      <c r="AO49" s="194"/>
+      <c r="AP49" s="195"/>
+      <c r="AQ49" s="195"/>
+      <c r="AR49" s="195"/>
+      <c r="AS49" s="195"/>
+      <c r="AT49" s="195"/>
+      <c r="AU49" s="195"/>
+      <c r="AV49" s="195"/>
+      <c r="AW49" s="195"/>
       <c r="AX49" s="11"/>
       <c r="AY49" s="11"/>
       <c r="AZ49" s="11"/>
-      <c r="BC49" s="184" t="s">
+      <c r="BC49" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="BD49" s="184"/>
-      <c r="BE49" s="184"/>
-      <c r="BF49" s="184"/>
-      <c r="BG49" s="184"/>
-      <c r="BH49" s="184"/>
-      <c r="BI49" s="184"/>
-      <c r="BJ49" s="184"/>
-      <c r="BK49" s="185"/>
-      <c r="BL49" s="186"/>
-      <c r="BM49" s="186"/>
-      <c r="BN49" s="186"/>
-      <c r="BO49" s="186"/>
-      <c r="BP49" s="186"/>
-      <c r="BQ49" s="186"/>
-      <c r="BR49" s="187"/>
+      <c r="BD49" s="182"/>
+      <c r="BE49" s="182"/>
+      <c r="BF49" s="182"/>
+      <c r="BG49" s="182"/>
+      <c r="BH49" s="182"/>
+      <c r="BI49" s="182"/>
+      <c r="BJ49" s="182"/>
+      <c r="BK49" s="183"/>
+      <c r="BL49" s="184"/>
+      <c r="BM49" s="184"/>
+      <c r="BN49" s="184"/>
+      <c r="BO49" s="184"/>
+      <c r="BP49" s="184"/>
+      <c r="BQ49" s="184"/>
+      <c r="BR49" s="185"/>
     </row>
     <row r="50" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="199"/>
-      <c r="B50" s="199"/>
-      <c r="C50" s="199"/>
-      <c r="D50" s="191" t="s">
+      <c r="A50" s="191"/>
+      <c r="B50" s="191"/>
+      <c r="C50" s="191"/>
+      <c r="D50" s="192" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="192"/>
-      <c r="F50" s="192"/>
+      <c r="E50" s="193"/>
+      <c r="F50" s="193"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="191" t="s">
+      <c r="H50" s="192" t="s">
         <v>89</v>
       </c>
-      <c r="I50" s="192"/>
-      <c r="J50" s="192"/>
+      <c r="I50" s="193"/>
+      <c r="J50" s="193"/>
       <c r="K50" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L50" s="191" t="s">
+      <c r="L50" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="M50" s="192"/>
-      <c r="N50" s="192"/>
+      <c r="M50" s="193"/>
+      <c r="N50" s="193"/>
       <c r="O50" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="P50" s="191"/>
-      <c r="Q50" s="192"/>
-      <c r="R50" s="192"/>
+      <c r="P50" s="192"/>
+      <c r="Q50" s="193"/>
+      <c r="R50" s="193"/>
       <c r="S50" s="15"/>
-      <c r="T50" s="191"/>
-      <c r="U50" s="192"/>
-      <c r="V50" s="192"/>
+      <c r="T50" s="192"/>
+      <c r="U50" s="193"/>
+      <c r="V50" s="193"/>
       <c r="W50" s="15"/>
-      <c r="X50" s="191"/>
-      <c r="Y50" s="192"/>
-      <c r="Z50" s="192"/>
+      <c r="X50" s="192"/>
+      <c r="Y50" s="193"/>
+      <c r="Z50" s="193"/>
       <c r="AA50" s="15"/>
       <c r="AB50" s="1"/>
-      <c r="AM50" s="197" t="s">
+      <c r="AM50" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="AN50" s="197"/>
-      <c r="AO50" s="197"/>
-      <c r="AP50" s="198"/>
-      <c r="AQ50" s="198"/>
-      <c r="AR50" s="198"/>
-      <c r="AS50" s="198"/>
-      <c r="AT50" s="198"/>
-      <c r="AU50" s="198"/>
-      <c r="AV50" s="198"/>
-      <c r="AW50" s="198"/>
+      <c r="AN50" s="194"/>
+      <c r="AO50" s="194"/>
+      <c r="AP50" s="195"/>
+      <c r="AQ50" s="195"/>
+      <c r="AR50" s="195"/>
+      <c r="AS50" s="195"/>
+      <c r="AT50" s="195"/>
+      <c r="AU50" s="195"/>
+      <c r="AV50" s="195"/>
+      <c r="AW50" s="195"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="11"/>
       <c r="AZ50" s="11"/>
-      <c r="BC50" s="184" t="s">
+      <c r="BC50" s="182" t="s">
         <v>94</v>
       </c>
-      <c r="BD50" s="184"/>
-      <c r="BE50" s="184"/>
-      <c r="BF50" s="184"/>
-      <c r="BG50" s="184"/>
-      <c r="BH50" s="184"/>
-      <c r="BI50" s="184"/>
-      <c r="BJ50" s="184"/>
-      <c r="BK50" s="185"/>
-      <c r="BL50" s="186"/>
-      <c r="BM50" s="186"/>
-      <c r="BN50" s="186"/>
-      <c r="BO50" s="186"/>
-      <c r="BP50" s="186"/>
-      <c r="BQ50" s="186"/>
-      <c r="BR50" s="187"/>
+      <c r="BD50" s="182"/>
+      <c r="BE50" s="182"/>
+      <c r="BF50" s="182"/>
+      <c r="BG50" s="182"/>
+      <c r="BH50" s="182"/>
+      <c r="BI50" s="182"/>
+      <c r="BJ50" s="182"/>
+      <c r="BK50" s="183"/>
+      <c r="BL50" s="184"/>
+      <c r="BM50" s="184"/>
+      <c r="BN50" s="184"/>
+      <c r="BO50" s="184"/>
+      <c r="BP50" s="184"/>
+      <c r="BQ50" s="184"/>
+      <c r="BR50" s="185"/>
     </row>
     <row r="51" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="188" t="s">
+      <c r="A51" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="189"/>
-      <c r="C51" s="190"/>
-      <c r="D51" s="191" t="s">
+      <c r="B51" s="197"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="192" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="192"/>
-      <c r="F51" s="192"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="193"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="191" t="s">
+      <c r="H51" s="192" t="s">
         <v>97</v>
       </c>
-      <c r="I51" s="192"/>
-      <c r="J51" s="192"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="193"/>
       <c r="K51" s="15"/>
-      <c r="L51" s="191" t="s">
+      <c r="L51" s="192" t="s">
         <v>98</v>
       </c>
-      <c r="M51" s="192"/>
-      <c r="N51" s="192"/>
+      <c r="M51" s="193"/>
+      <c r="N51" s="193"/>
       <c r="O51" s="15"/>
-      <c r="P51" s="191"/>
-      <c r="Q51" s="192"/>
-      <c r="R51" s="192"/>
+      <c r="P51" s="192"/>
+      <c r="Q51" s="193"/>
+      <c r="R51" s="193"/>
       <c r="S51" s="15"/>
-      <c r="T51" s="191"/>
-      <c r="U51" s="192"/>
-      <c r="V51" s="192"/>
+      <c r="T51" s="192"/>
+      <c r="U51" s="193"/>
+      <c r="V51" s="193"/>
       <c r="W51" s="15"/>
-      <c r="X51" s="191"/>
-      <c r="Y51" s="192"/>
-      <c r="Z51" s="192"/>
+      <c r="X51" s="192"/>
+      <c r="Y51" s="193"/>
+      <c r="Z51" s="193"/>
       <c r="AA51" s="15"/>
       <c r="AB51" s="1"/>
-      <c r="AM51" s="197"/>
-      <c r="AN51" s="197"/>
-      <c r="AO51" s="197"/>
-      <c r="AP51" s="198"/>
-      <c r="AQ51" s="198"/>
-      <c r="AR51" s="198"/>
-      <c r="AS51" s="198"/>
-      <c r="AT51" s="198"/>
-      <c r="AU51" s="198"/>
-      <c r="AV51" s="198"/>
-      <c r="AW51" s="198"/>
+      <c r="AM51" s="194"/>
+      <c r="AN51" s="194"/>
+      <c r="AO51" s="194"/>
+      <c r="AP51" s="195"/>
+      <c r="AQ51" s="195"/>
+      <c r="AR51" s="195"/>
+      <c r="AS51" s="195"/>
+      <c r="AT51" s="195"/>
+      <c r="AU51" s="195"/>
+      <c r="AV51" s="195"/>
+      <c r="AW51" s="195"/>
       <c r="AX51" s="11"/>
       <c r="AY51" s="11"/>
       <c r="AZ51" s="11"/>
-      <c r="BC51" s="184" t="s">
+      <c r="BC51" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="BD51" s="184"/>
-      <c r="BE51" s="184"/>
-      <c r="BF51" s="184"/>
-      <c r="BG51" s="184"/>
-      <c r="BH51" s="184"/>
-      <c r="BI51" s="184"/>
-      <c r="BJ51" s="184"/>
-      <c r="BK51" s="185"/>
-      <c r="BL51" s="186"/>
-      <c r="BM51" s="186"/>
-      <c r="BN51" s="186"/>
-      <c r="BO51" s="186"/>
-      <c r="BP51" s="186"/>
-      <c r="BQ51" s="186"/>
-      <c r="BR51" s="187"/>
+      <c r="BD51" s="182"/>
+      <c r="BE51" s="182"/>
+      <c r="BF51" s="182"/>
+      <c r="BG51" s="182"/>
+      <c r="BH51" s="182"/>
+      <c r="BI51" s="182"/>
+      <c r="BJ51" s="182"/>
+      <c r="BK51" s="183"/>
+      <c r="BL51" s="184"/>
+      <c r="BM51" s="184"/>
+      <c r="BN51" s="184"/>
+      <c r="BO51" s="184"/>
+      <c r="BP51" s="184"/>
+      <c r="BQ51" s="184"/>
+      <c r="BR51" s="185"/>
     </row>
     <row r="52" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="188" t="s">
+      <c r="A52" s="196" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="189"/>
-      <c r="C52" s="190"/>
-      <c r="D52" s="191" t="s">
+      <c r="B52" s="197"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="192" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="192"/>
-      <c r="F52" s="192"/>
+      <c r="E52" s="193"/>
+      <c r="F52" s="193"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="191" t="s">
+      <c r="H52" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="I52" s="192"/>
-      <c r="J52" s="192"/>
+      <c r="I52" s="193"/>
+      <c r="J52" s="193"/>
       <c r="K52" s="15"/>
-      <c r="L52" s="191" t="s">
+      <c r="L52" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="M52" s="192"/>
-      <c r="N52" s="192"/>
+      <c r="M52" s="193"/>
+      <c r="N52" s="193"/>
       <c r="O52" s="15"/>
-      <c r="P52" s="191" t="s">
+      <c r="P52" s="192" t="s">
         <v>104</v>
       </c>
-      <c r="Q52" s="192"/>
-      <c r="R52" s="192"/>
+      <c r="Q52" s="193"/>
+      <c r="R52" s="193"/>
       <c r="S52" s="15"/>
-      <c r="T52" s="191" t="s">
+      <c r="T52" s="192" t="s">
         <v>105</v>
       </c>
-      <c r="U52" s="192"/>
-      <c r="V52" s="192"/>
+      <c r="U52" s="193"/>
+      <c r="V52" s="193"/>
       <c r="W52" s="15"/>
-      <c r="X52" s="191" t="s">
+      <c r="X52" s="192" t="s">
         <v>106</v>
       </c>
-      <c r="Y52" s="192"/>
-      <c r="Z52" s="192"/>
+      <c r="Y52" s="193"/>
+      <c r="Z52" s="193"/>
       <c r="AA52" s="15"/>
-      <c r="AI52" s="193"/>
-      <c r="AJ52" s="193"/>
+      <c r="AI52" s="204"/>
+      <c r="AJ52" s="204"/>
       <c r="AK52" s="4"/>
       <c r="BR52" s="112"/>
     </row>
@@ -9377,355 +9377,612 @@
       <c r="A56" s="28">
         <v>1</v>
       </c>
-      <c r="B56" s="179" t="s">
+      <c r="B56" s="199" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="179"/>
-      <c r="D56" s="179"/>
-      <c r="E56" s="180" t="s">
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="200" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="180"/>
-      <c r="G56" s="180"/>
-      <c r="H56" s="180"/>
-      <c r="I56" s="180"/>
-      <c r="J56" s="180"/>
-      <c r="K56" s="180"/>
+      <c r="F56" s="200"/>
+      <c r="G56" s="200"/>
+      <c r="H56" s="200"/>
+      <c r="I56" s="200"/>
+      <c r="J56" s="200"/>
+      <c r="K56" s="200"/>
       <c r="N56" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="O56" s="181" t="s">
+      <c r="O56" s="201" t="s">
         <v>111</v>
       </c>
-      <c r="P56" s="182"/>
-      <c r="Q56" s="183"/>
-      <c r="R56" s="180" t="s">
+      <c r="P56" s="202"/>
+      <c r="Q56" s="203"/>
+      <c r="R56" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="S56" s="180"/>
-      <c r="T56" s="180"/>
-      <c r="U56" s="180"/>
-      <c r="V56" s="180"/>
-      <c r="W56" s="180"/>
-      <c r="X56" s="180"/>
+      <c r="S56" s="200"/>
+      <c r="T56" s="200"/>
+      <c r="U56" s="200"/>
+      <c r="V56" s="200"/>
+      <c r="W56" s="200"/>
+      <c r="X56" s="200"/>
       <c r="AA56" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="AB56" s="194" t="s">
+      <c r="AB56" s="205" t="s">
         <v>114</v>
       </c>
-      <c r="AC56" s="195"/>
-      <c r="AD56" s="195"/>
-      <c r="AE56" s="195"/>
-      <c r="AF56" s="195"/>
-      <c r="AG56" s="195"/>
-      <c r="AH56" s="195"/>
-      <c r="AI56" s="195"/>
-      <c r="AJ56" s="195"/>
-      <c r="AK56" s="195"/>
-      <c r="AL56" s="195"/>
-      <c r="AM56" s="196"/>
+      <c r="AC56" s="206"/>
+      <c r="AD56" s="206"/>
+      <c r="AE56" s="206"/>
+      <c r="AF56" s="206"/>
+      <c r="AG56" s="206"/>
+      <c r="AH56" s="206"/>
+      <c r="AI56" s="206"/>
+      <c r="AJ56" s="206"/>
+      <c r="AK56" s="206"/>
+      <c r="AL56" s="206"/>
+      <c r="AM56" s="207"/>
     </row>
     <row r="57" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>2</v>
       </c>
-      <c r="B57" s="179" t="s">
+      <c r="B57" s="199" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="179"/>
-      <c r="D57" s="179"/>
-      <c r="E57" s="180" t="s">
+      <c r="C57" s="199"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="200" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="180"/>
-      <c r="G57" s="180"/>
-      <c r="H57" s="180"/>
-      <c r="I57" s="180"/>
-      <c r="J57" s="180"/>
-      <c r="K57" s="180"/>
+      <c r="F57" s="200"/>
+      <c r="G57" s="200"/>
+      <c r="H57" s="200"/>
+      <c r="I57" s="200"/>
+      <c r="J57" s="200"/>
+      <c r="K57" s="200"/>
       <c r="N57" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="O57" s="181" t="s">
+      <c r="O57" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="P57" s="182"/>
-      <c r="Q57" s="183"/>
-      <c r="R57" s="180" t="s">
+      <c r="P57" s="202"/>
+      <c r="Q57" s="203"/>
+      <c r="R57" s="200" t="s">
         <v>119</v>
       </c>
-      <c r="S57" s="180"/>
-      <c r="T57" s="180"/>
-      <c r="U57" s="180"/>
-      <c r="V57" s="180"/>
-      <c r="W57" s="180"/>
-      <c r="X57" s="180"/>
+      <c r="S57" s="200"/>
+      <c r="T57" s="200"/>
+      <c r="U57" s="200"/>
+      <c r="V57" s="200"/>
+      <c r="W57" s="200"/>
+      <c r="X57" s="200"/>
       <c r="AA57" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AB57" s="179" t="s">
+      <c r="AB57" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="AC57" s="179"/>
-      <c r="AD57" s="179"/>
-      <c r="AE57" s="180" t="s">
+      <c r="AC57" s="199"/>
+      <c r="AD57" s="199"/>
+      <c r="AE57" s="200" t="s">
         <v>121</v>
       </c>
-      <c r="AF57" s="180"/>
-      <c r="AG57" s="180"/>
-      <c r="AH57" s="180"/>
-      <c r="AI57" s="180"/>
-      <c r="AJ57" s="180"/>
-      <c r="AK57" s="180"/>
-      <c r="AL57" s="180"/>
-      <c r="AM57" s="180"/>
+      <c r="AF57" s="200"/>
+      <c r="AG57" s="200"/>
+      <c r="AH57" s="200"/>
+      <c r="AI57" s="200"/>
+      <c r="AJ57" s="200"/>
+      <c r="AK57" s="200"/>
+      <c r="AL57" s="200"/>
+      <c r="AM57" s="200"/>
     </row>
     <row r="58" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>3</v>
       </c>
-      <c r="B58" s="179" t="s">
+      <c r="B58" s="199" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="179"/>
-      <c r="D58" s="179"/>
-      <c r="E58" s="180" t="s">
+      <c r="C58" s="199"/>
+      <c r="D58" s="199"/>
+      <c r="E58" s="200" t="s">
         <v>123</v>
       </c>
-      <c r="F58" s="180"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="180"/>
-      <c r="I58" s="180"/>
-      <c r="J58" s="180"/>
-      <c r="K58" s="180"/>
+      <c r="F58" s="200"/>
+      <c r="G58" s="200"/>
+      <c r="H58" s="200"/>
+      <c r="I58" s="200"/>
+      <c r="J58" s="200"/>
+      <c r="K58" s="200"/>
       <c r="N58" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="O58" s="181" t="s">
+      <c r="O58" s="201" t="s">
         <v>125</v>
       </c>
-      <c r="P58" s="182"/>
-      <c r="Q58" s="183"/>
-      <c r="R58" s="180" t="s">
+      <c r="P58" s="202"/>
+      <c r="Q58" s="203"/>
+      <c r="R58" s="200" t="s">
         <v>126</v>
       </c>
-      <c r="S58" s="180"/>
-      <c r="T58" s="180"/>
-      <c r="U58" s="180"/>
-      <c r="V58" s="180"/>
-      <c r="W58" s="180"/>
-      <c r="X58" s="180"/>
+      <c r="S58" s="200"/>
+      <c r="T58" s="200"/>
+      <c r="U58" s="200"/>
+      <c r="V58" s="200"/>
+      <c r="W58" s="200"/>
+      <c r="X58" s="200"/>
       <c r="AA58" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="AB58" s="179" t="s">
+      <c r="AB58" s="199" t="s">
         <v>125</v>
       </c>
-      <c r="AC58" s="179"/>
-      <c r="AD58" s="179"/>
-      <c r="AE58" s="180" t="s">
+      <c r="AC58" s="199"/>
+      <c r="AD58" s="199"/>
+      <c r="AE58" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="AF58" s="180"/>
-      <c r="AG58" s="180"/>
-      <c r="AH58" s="180"/>
-      <c r="AI58" s="180"/>
-      <c r="AJ58" s="180"/>
-      <c r="AK58" s="180"/>
-      <c r="AL58" s="180"/>
-      <c r="AM58" s="180"/>
+      <c r="AF58" s="200"/>
+      <c r="AG58" s="200"/>
+      <c r="AH58" s="200"/>
+      <c r="AI58" s="200"/>
+      <c r="AJ58" s="200"/>
+      <c r="AK58" s="200"/>
+      <c r="AL58" s="200"/>
+      <c r="AM58" s="200"/>
       <c r="AN58" s="30"/>
     </row>
     <row r="59" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>4</v>
       </c>
-      <c r="B59" s="179" t="s">
+      <c r="B59" s="199" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="179"/>
-      <c r="D59" s="179"/>
-      <c r="E59" s="180" t="s">
+      <c r="C59" s="199"/>
+      <c r="D59" s="199"/>
+      <c r="E59" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="180"/>
-      <c r="G59" s="180"/>
-      <c r="H59" s="180"/>
-      <c r="I59" s="180"/>
-      <c r="J59" s="180"/>
-      <c r="K59" s="180"/>
+      <c r="F59" s="200"/>
+      <c r="G59" s="200"/>
+      <c r="H59" s="200"/>
+      <c r="I59" s="200"/>
+      <c r="J59" s="200"/>
+      <c r="K59" s="200"/>
       <c r="N59" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="O59" s="181" t="s">
+      <c r="O59" s="201" t="s">
         <v>132</v>
       </c>
-      <c r="P59" s="182"/>
-      <c r="Q59" s="183"/>
-      <c r="R59" s="180" t="s">
+      <c r="P59" s="202"/>
+      <c r="Q59" s="203"/>
+      <c r="R59" s="200" t="s">
         <v>133</v>
       </c>
-      <c r="S59" s="180"/>
-      <c r="T59" s="180"/>
-      <c r="U59" s="180"/>
-      <c r="V59" s="180"/>
-      <c r="W59" s="180"/>
-      <c r="X59" s="180"/>
+      <c r="S59" s="200"/>
+      <c r="T59" s="200"/>
+      <c r="U59" s="200"/>
+      <c r="V59" s="200"/>
+      <c r="W59" s="200"/>
+      <c r="X59" s="200"/>
       <c r="AA59" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AB59" s="179" t="s">
+      <c r="AB59" s="199" t="s">
         <v>132</v>
       </c>
-      <c r="AC59" s="179"/>
-      <c r="AD59" s="179"/>
-      <c r="AE59" s="180" t="s">
+      <c r="AC59" s="199"/>
+      <c r="AD59" s="199"/>
+      <c r="AE59" s="200" t="s">
         <v>135</v>
       </c>
-      <c r="AF59" s="180"/>
-      <c r="AG59" s="180"/>
-      <c r="AH59" s="180"/>
-      <c r="AI59" s="180"/>
-      <c r="AJ59" s="180"/>
-      <c r="AK59" s="180"/>
-      <c r="AL59" s="180"/>
-      <c r="AM59" s="180"/>
+      <c r="AF59" s="200"/>
+      <c r="AG59" s="200"/>
+      <c r="AH59" s="200"/>
+      <c r="AI59" s="200"/>
+      <c r="AJ59" s="200"/>
+      <c r="AK59" s="200"/>
+      <c r="AL59" s="200"/>
+      <c r="AM59" s="200"/>
       <c r="AN59" s="30"/>
     </row>
     <row r="60" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>5</v>
       </c>
-      <c r="B60" s="179" t="s">
+      <c r="B60" s="199" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="179"/>
-      <c r="D60" s="179"/>
-      <c r="E60" s="180" t="s">
+      <c r="C60" s="199"/>
+      <c r="D60" s="199"/>
+      <c r="E60" s="200" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="180"/>
-      <c r="G60" s="180"/>
-      <c r="H60" s="180"/>
-      <c r="I60" s="180"/>
-      <c r="J60" s="180"/>
-      <c r="K60" s="180"/>
+      <c r="F60" s="200"/>
+      <c r="G60" s="200"/>
+      <c r="H60" s="200"/>
+      <c r="I60" s="200"/>
+      <c r="J60" s="200"/>
+      <c r="K60" s="200"/>
       <c r="N60" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="O60" s="181" t="s">
+      <c r="O60" s="201" t="s">
         <v>139</v>
       </c>
-      <c r="P60" s="182"/>
-      <c r="Q60" s="183"/>
-      <c r="R60" s="180" t="s">
+      <c r="P60" s="202"/>
+      <c r="Q60" s="203"/>
+      <c r="R60" s="200" t="s">
         <v>140</v>
       </c>
-      <c r="S60" s="180"/>
-      <c r="T60" s="180"/>
-      <c r="U60" s="180"/>
-      <c r="V60" s="180"/>
-      <c r="W60" s="180"/>
-      <c r="X60" s="180"/>
+      <c r="S60" s="200"/>
+      <c r="T60" s="200"/>
+      <c r="U60" s="200"/>
+      <c r="V60" s="200"/>
+      <c r="W60" s="200"/>
+      <c r="X60" s="200"/>
       <c r="AA60" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AB60" s="179" t="s">
+      <c r="AB60" s="199" t="s">
         <v>139</v>
       </c>
-      <c r="AC60" s="179"/>
-      <c r="AD60" s="179"/>
-      <c r="AE60" s="180" t="s">
+      <c r="AC60" s="199"/>
+      <c r="AD60" s="199"/>
+      <c r="AE60" s="200" t="s">
         <v>142</v>
       </c>
-      <c r="AF60" s="180"/>
-      <c r="AG60" s="180"/>
-      <c r="AH60" s="180"/>
-      <c r="AI60" s="180"/>
-      <c r="AJ60" s="180"/>
-      <c r="AK60" s="180"/>
-      <c r="AL60" s="180"/>
-      <c r="AM60" s="180"/>
+      <c r="AF60" s="200"/>
+      <c r="AG60" s="200"/>
+      <c r="AH60" s="200"/>
+      <c r="AI60" s="200"/>
+      <c r="AJ60" s="200"/>
+      <c r="AK60" s="200"/>
+      <c r="AL60" s="200"/>
+      <c r="AM60" s="200"/>
       <c r="AN60" s="30"/>
     </row>
     <row r="61" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>6</v>
       </c>
-      <c r="B61" s="179" t="s">
+      <c r="B61" s="199" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="179"/>
-      <c r="D61" s="179"/>
-      <c r="E61" s="180" t="s">
+      <c r="C61" s="199"/>
+      <c r="D61" s="199"/>
+      <c r="E61" s="200" t="s">
         <v>144</v>
       </c>
-      <c r="F61" s="180"/>
-      <c r="G61" s="180"/>
-      <c r="H61" s="180"/>
-      <c r="I61" s="180"/>
-      <c r="J61" s="180"/>
-      <c r="K61" s="180"/>
+      <c r="F61" s="200"/>
+      <c r="G61" s="200"/>
+      <c r="H61" s="200"/>
+      <c r="I61" s="200"/>
+      <c r="J61" s="200"/>
+      <c r="K61" s="200"/>
       <c r="N61" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="O61" s="181" t="s">
+      <c r="O61" s="201" t="s">
         <v>146</v>
       </c>
-      <c r="P61" s="182"/>
-      <c r="Q61" s="183"/>
-      <c r="R61" s="180" t="s">
+      <c r="P61" s="202"/>
+      <c r="Q61" s="203"/>
+      <c r="R61" s="200" t="s">
         <v>147</v>
       </c>
-      <c r="S61" s="180"/>
-      <c r="T61" s="180"/>
-      <c r="U61" s="180"/>
-      <c r="V61" s="180"/>
-      <c r="W61" s="180"/>
-      <c r="X61" s="180"/>
+      <c r="S61" s="200"/>
+      <c r="T61" s="200"/>
+      <c r="U61" s="200"/>
+      <c r="V61" s="200"/>
+      <c r="W61" s="200"/>
+      <c r="X61" s="200"/>
       <c r="AA61" s="28"/>
-      <c r="AB61" s="179" t="s">
+      <c r="AB61" s="199" t="s">
         <v>148</v>
       </c>
-      <c r="AC61" s="179"/>
-      <c r="AD61" s="179"/>
-      <c r="AE61" s="180" t="s">
+      <c r="AC61" s="199"/>
+      <c r="AD61" s="199"/>
+      <c r="AE61" s="200" t="s">
         <v>149</v>
       </c>
-      <c r="AF61" s="180"/>
-      <c r="AG61" s="180"/>
-      <c r="AH61" s="180"/>
-      <c r="AI61" s="180"/>
-      <c r="AJ61" s="180"/>
-      <c r="AK61" s="180"/>
-      <c r="AL61" s="180"/>
-      <c r="AM61" s="180"/>
+      <c r="AF61" s="200"/>
+      <c r="AG61" s="200"/>
+      <c r="AH61" s="200"/>
+      <c r="AI61" s="200"/>
+      <c r="AJ61" s="200"/>
+      <c r="AK61" s="200"/>
+      <c r="AL61" s="200"/>
+      <c r="AM61" s="200"/>
     </row>
     <row r="62" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>7</v>
       </c>
-      <c r="B62" s="179" t="s">
+      <c r="B62" s="199" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="179"/>
-      <c r="D62" s="179"/>
-      <c r="E62" s="180" t="s">
+      <c r="C62" s="199"/>
+      <c r="D62" s="199"/>
+      <c r="E62" s="200" t="s">
         <v>151</v>
       </c>
-      <c r="F62" s="180"/>
-      <c r="G62" s="180"/>
-      <c r="H62" s="180"/>
-      <c r="I62" s="180"/>
-      <c r="J62" s="180"/>
-      <c r="K62" s="180"/>
+      <c r="F62" s="200"/>
+      <c r="G62" s="200"/>
+      <c r="H62" s="200"/>
+      <c r="I62" s="200"/>
+      <c r="J62" s="200"/>
+      <c r="K62" s="200"/>
     </row>
     <row r="63" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
       <c r="N63" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="281">
+    <mergeCell ref="BP35:BP36"/>
+    <mergeCell ref="BP38:BP39"/>
+    <mergeCell ref="BP41:BP42"/>
+    <mergeCell ref="BL26:BL27"/>
+    <mergeCell ref="BL29:BL30"/>
+    <mergeCell ref="BL32:BL33"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="BR32:BR33"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BO14:BO15"/>
+    <mergeCell ref="BO17:BO18"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BO23:BO24"/>
+    <mergeCell ref="BO26:BO27"/>
+    <mergeCell ref="BO29:BO30"/>
+    <mergeCell ref="BO32:BO33"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BP17:BP18"/>
+    <mergeCell ref="BP20:BP21"/>
+    <mergeCell ref="BP23:BP24"/>
+    <mergeCell ref="BP26:BP27"/>
+    <mergeCell ref="BP29:BP30"/>
+    <mergeCell ref="BP32:BP33"/>
+    <mergeCell ref="BR35:BR36"/>
+    <mergeCell ref="BR38:BR39"/>
+    <mergeCell ref="BR41:BR42"/>
+    <mergeCell ref="BP11:BP12"/>
+    <mergeCell ref="BP14:BP15"/>
+    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="BR14:BR15"/>
+    <mergeCell ref="BR17:BR18"/>
+    <mergeCell ref="BR20:BR21"/>
+    <mergeCell ref="BR23:BR24"/>
+    <mergeCell ref="BR26:BR27"/>
+    <mergeCell ref="BR29:BR30"/>
+    <mergeCell ref="AM40:BR40"/>
+    <mergeCell ref="BL38:BL39"/>
+    <mergeCell ref="BL41:BL42"/>
+    <mergeCell ref="BO35:BO36"/>
+    <mergeCell ref="BO38:BO39"/>
+    <mergeCell ref="BO41:BO42"/>
+    <mergeCell ref="BL11:BL12"/>
+    <mergeCell ref="BL14:BL15"/>
+    <mergeCell ref="BL17:BL18"/>
+    <mergeCell ref="BL20:BL21"/>
+    <mergeCell ref="BL23:BL24"/>
+    <mergeCell ref="BO11:BO12"/>
+    <mergeCell ref="BL35:BL36"/>
+    <mergeCell ref="AM37:BR37"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP2:AZ2"/>
+    <mergeCell ref="AP3:AZ3"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BM2:BR2"/>
+    <mergeCell ref="BM3:BR3"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:K62"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="R61:X61"/>
+    <mergeCell ref="AB61:AD61"/>
+    <mergeCell ref="AE61:AM61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="R60:X60"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="AE60:AM60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:K59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="R59:X59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="AE59:AM59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:K58"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="R58:X58"/>
+    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="AE58:AM58"/>
+    <mergeCell ref="BC51:BJ51"/>
+    <mergeCell ref="BK51:BR51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:K57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="R57:X57"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="AE57:AM57"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="R56:X56"/>
+    <mergeCell ref="AB56:AM56"/>
+    <mergeCell ref="AM50:AO50"/>
+    <mergeCell ref="AP50:AW50"/>
+    <mergeCell ref="BC50:BJ50"/>
+    <mergeCell ref="BK50:BR50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AM51:AO51"/>
+    <mergeCell ref="AP51:AW51"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AM49:AO49"/>
+    <mergeCell ref="AP49:AW49"/>
+    <mergeCell ref="BC49:BJ49"/>
+    <mergeCell ref="BK49:BR49"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="AM48:AO48"/>
+    <mergeCell ref="AP48:AW48"/>
+    <mergeCell ref="BC48:BJ48"/>
+    <mergeCell ref="BK48:BR48"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AM47:AO47"/>
+    <mergeCell ref="AP47:AW47"/>
+    <mergeCell ref="BC47:BJ47"/>
+    <mergeCell ref="BK47:BR47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="AM1:BR1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="D3:R3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="AM43:BR43"/>
     <mergeCell ref="AM10:BR10"/>
     <mergeCell ref="AM13:BR13"/>
@@ -9750,254 +10007,6 @@
     <mergeCell ref="BD6:BD7"/>
     <mergeCell ref="BE6:BF6"/>
     <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="AM1:BR1"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="AF2:AL2"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="D3:R3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="B4:AL4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AP47:AW47"/>
-    <mergeCell ref="BC47:BJ47"/>
-    <mergeCell ref="BK47:BR47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AM47:AO47"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AM49:AO49"/>
-    <mergeCell ref="AP49:AW49"/>
-    <mergeCell ref="BC49:BJ49"/>
-    <mergeCell ref="BK49:BR49"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="AM48:AO48"/>
-    <mergeCell ref="AP48:AW48"/>
-    <mergeCell ref="BC48:BJ48"/>
-    <mergeCell ref="BK48:BR48"/>
-    <mergeCell ref="AM50:AO50"/>
-    <mergeCell ref="AP50:AW50"/>
-    <mergeCell ref="BC50:BJ50"/>
-    <mergeCell ref="BK50:BR50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AM51:AO51"/>
-    <mergeCell ref="AP51:AW51"/>
-    <mergeCell ref="BC51:BJ51"/>
-    <mergeCell ref="BK51:BR51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:K57"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="R57:X57"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="AE57:AM57"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="R56:X56"/>
-    <mergeCell ref="AB56:AM56"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:K59"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="R59:X59"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="AE59:AM59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:K58"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="R58:X58"/>
-    <mergeCell ref="AB58:AD58"/>
-    <mergeCell ref="AE58:AM58"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:K62"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:K61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="R61:X61"/>
-    <mergeCell ref="AB61:AD61"/>
-    <mergeCell ref="AE61:AM61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:K60"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="R60:X60"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="AE60:AM60"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="BL35:BL36"/>
-    <mergeCell ref="AM37:BR37"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="AP3:AZ3"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BM2:BR2"/>
-    <mergeCell ref="BM3:BR3"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BR35:BR36"/>
-    <mergeCell ref="BR38:BR39"/>
-    <mergeCell ref="BR41:BR42"/>
-    <mergeCell ref="BP11:BP12"/>
-    <mergeCell ref="BP14:BP15"/>
-    <mergeCell ref="BR11:BR12"/>
-    <mergeCell ref="BR14:BR15"/>
-    <mergeCell ref="BR17:BR18"/>
-    <mergeCell ref="BR20:BR21"/>
-    <mergeCell ref="BR23:BR24"/>
-    <mergeCell ref="BR26:BR27"/>
-    <mergeCell ref="BR29:BR30"/>
-    <mergeCell ref="AM40:BR40"/>
-    <mergeCell ref="BL38:BL39"/>
-    <mergeCell ref="BL41:BL42"/>
-    <mergeCell ref="BO35:BO36"/>
-    <mergeCell ref="BO38:BO39"/>
-    <mergeCell ref="BO41:BO42"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="BL14:BL15"/>
-    <mergeCell ref="BL17:BL18"/>
-    <mergeCell ref="BL20:BL21"/>
-    <mergeCell ref="BL23:BL24"/>
-    <mergeCell ref="BO11:BO12"/>
-    <mergeCell ref="BL26:BL27"/>
-    <mergeCell ref="BL29:BL30"/>
-    <mergeCell ref="BL32:BL33"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="BR32:BR33"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BO14:BO15"/>
-    <mergeCell ref="BO17:BO18"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BO23:BO24"/>
-    <mergeCell ref="BO26:BO27"/>
-    <mergeCell ref="BO29:BO30"/>
-    <mergeCell ref="BO32:BO33"/>
-    <mergeCell ref="BK6:BK7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CAB897-698E-4AAE-8F8E-6314C4AE747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E974134-F0C1-43F4-95A1-0FD5D1266392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -872,7 +872,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,19 +881,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2017,7 +2005,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2153,19 +2141,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2183,37 +2171,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2222,19 +2210,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2255,22 +2243,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2389,31 +2377,241 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2428,30 +2626,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2482,221 +2662,29 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5304,7 +5292,7 @@
   </sheetPr>
   <dimension ref="A1:BR63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC8" sqref="AC8:AC10"/>
       <selection pane="bottomLeft" sqref="A1:AL1"/>
@@ -5320,384 +5308,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="199" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="168"/>
-      <c r="AL1" s="169"/>
-      <c r="AM1" s="167" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="200"/>
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="200"/>
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="200"/>
+      <c r="AG1" s="200"/>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="200"/>
+      <c r="AJ1" s="200"/>
+      <c r="AK1" s="200"/>
+      <c r="AL1" s="201"/>
+      <c r="AM1" s="199" t="s">
         <v>160</v>
       </c>
-      <c r="AN1" s="168"/>
-      <c r="AO1" s="168"/>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
-      <c r="AS1" s="168"/>
-      <c r="AT1" s="168"/>
-      <c r="AU1" s="168"/>
-      <c r="AV1" s="168"/>
-      <c r="AW1" s="168"/>
-      <c r="AX1" s="168"/>
-      <c r="AY1" s="168"/>
-      <c r="AZ1" s="168"/>
-      <c r="BA1" s="168"/>
-      <c r="BB1" s="168"/>
-      <c r="BC1" s="168"/>
-      <c r="BD1" s="168"/>
-      <c r="BE1" s="168"/>
-      <c r="BF1" s="168"/>
-      <c r="BG1" s="168"/>
-      <c r="BH1" s="168"/>
-      <c r="BI1" s="168"/>
-      <c r="BJ1" s="168"/>
-      <c r="BK1" s="168"/>
-      <c r="BL1" s="168"/>
-      <c r="BM1" s="168"/>
-      <c r="BN1" s="168"/>
-      <c r="BO1" s="168"/>
-      <c r="BP1" s="168"/>
-      <c r="BQ1" s="168"/>
-      <c r="BR1" s="169"/>
+      <c r="AN1" s="200"/>
+      <c r="AO1" s="200"/>
+      <c r="AP1" s="200"/>
+      <c r="AQ1" s="200"/>
+      <c r="AR1" s="200"/>
+      <c r="AS1" s="200"/>
+      <c r="AT1" s="200"/>
+      <c r="AU1" s="200"/>
+      <c r="AV1" s="200"/>
+      <c r="AW1" s="200"/>
+      <c r="AX1" s="200"/>
+      <c r="AY1" s="200"/>
+      <c r="AZ1" s="200"/>
+      <c r="BA1" s="200"/>
+      <c r="BB1" s="200"/>
+      <c r="BC1" s="200"/>
+      <c r="BD1" s="200"/>
+      <c r="BE1" s="200"/>
+      <c r="BF1" s="200"/>
+      <c r="BG1" s="200"/>
+      <c r="BH1" s="200"/>
+      <c r="BI1" s="200"/>
+      <c r="BJ1" s="200"/>
+      <c r="BK1" s="200"/>
+      <c r="BL1" s="200"/>
+      <c r="BM1" s="200"/>
+      <c r="BN1" s="200"/>
+      <c r="BO1" s="200"/>
+      <c r="BP1" s="200"/>
+      <c r="BQ1" s="200"/>
+      <c r="BR1" s="201"/>
     </row>
     <row r="2" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175" t="s">
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="175"/>
-      <c r="AK2" s="175"/>
-      <c r="AL2" s="176"/>
-      <c r="AM2" s="177" t="s">
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="154"/>
+      <c r="AJ2" s="154"/>
+      <c r="AK2" s="154"/>
+      <c r="AL2" s="155"/>
+      <c r="AM2" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="AN2" s="175"/>
-      <c r="AO2" s="175"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="175"/>
-      <c r="AT2" s="175"/>
-      <c r="AU2" s="175"/>
-      <c r="AV2" s="175"/>
-      <c r="AW2" s="175"/>
-      <c r="AX2" s="175"/>
-      <c r="AY2" s="175"/>
-      <c r="AZ2" s="175"/>
-      <c r="BA2" s="175" t="s">
+      <c r="AN2" s="154"/>
+      <c r="AO2" s="154"/>
+      <c r="AP2" s="154"/>
+      <c r="AQ2" s="154"/>
+      <c r="AR2" s="154"/>
+      <c r="AS2" s="154"/>
+      <c r="AT2" s="154"/>
+      <c r="AU2" s="154"/>
+      <c r="AV2" s="154"/>
+      <c r="AW2" s="154"/>
+      <c r="AX2" s="154"/>
+      <c r="AY2" s="154"/>
+      <c r="AZ2" s="154"/>
+      <c r="BA2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="175"/>
-      <c r="BC2" s="175"/>
-      <c r="BD2" s="175"/>
-      <c r="BE2" s="175"/>
-      <c r="BF2" s="175"/>
-      <c r="BG2" s="175"/>
-      <c r="BH2" s="175"/>
-      <c r="BI2" s="175"/>
-      <c r="BJ2" s="175" t="s">
+      <c r="BB2" s="154"/>
+      <c r="BC2" s="154"/>
+      <c r="BD2" s="154"/>
+      <c r="BE2" s="154"/>
+      <c r="BF2" s="154"/>
+      <c r="BG2" s="154"/>
+      <c r="BH2" s="154"/>
+      <c r="BI2" s="154"/>
+      <c r="BJ2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="175"/>
-      <c r="BL2" s="175"/>
-      <c r="BM2" s="175"/>
-      <c r="BN2" s="175"/>
-      <c r="BO2" s="175"/>
-      <c r="BP2" s="175"/>
-      <c r="BQ2" s="175"/>
-      <c r="BR2" s="176"/>
+      <c r="BK2" s="154"/>
+      <c r="BL2" s="154"/>
+      <c r="BM2" s="154"/>
+      <c r="BN2" s="154"/>
+      <c r="BO2" s="154"/>
+      <c r="BP2" s="154"/>
+      <c r="BQ2" s="154"/>
+      <c r="BR2" s="155"/>
     </row>
     <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="153" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175" t="s">
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="175"/>
-      <c r="X3" s="175"/>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="175"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="175" t="s">
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="154"/>
+      <c r="AA3" s="154"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="175"/>
-      <c r="AE3" s="175"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="175"/>
-      <c r="AL3" s="176"/>
-      <c r="AM3" s="177" t="s">
+      <c r="AD3" s="154"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="154"/>
+      <c r="AG3" s="154"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="154"/>
+      <c r="AK3" s="154"/>
+      <c r="AL3" s="155"/>
+      <c r="AM3" s="153" t="s">
         <v>161</v>
       </c>
-      <c r="AN3" s="175"/>
-      <c r="AO3" s="175"/>
-      <c r="AP3" s="175"/>
-      <c r="AQ3" s="175"/>
-      <c r="AR3" s="175"/>
-      <c r="AS3" s="175"/>
-      <c r="AT3" s="175"/>
-      <c r="AU3" s="175"/>
-      <c r="AV3" s="175"/>
-      <c r="AW3" s="175"/>
-      <c r="AX3" s="175"/>
-      <c r="AY3" s="175"/>
-      <c r="AZ3" s="175"/>
-      <c r="BA3" s="175" t="s">
+      <c r="AN3" s="154"/>
+      <c r="AO3" s="154"/>
+      <c r="AP3" s="154"/>
+      <c r="AQ3" s="154"/>
+      <c r="AR3" s="154"/>
+      <c r="AS3" s="154"/>
+      <c r="AT3" s="154"/>
+      <c r="AU3" s="154"/>
+      <c r="AV3" s="154"/>
+      <c r="AW3" s="154"/>
+      <c r="AX3" s="154"/>
+      <c r="AY3" s="154"/>
+      <c r="AZ3" s="154"/>
+      <c r="BA3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="175"/>
-      <c r="BC3" s="175"/>
-      <c r="BD3" s="175"/>
-      <c r="BE3" s="175"/>
-      <c r="BF3" s="175"/>
-      <c r="BG3" s="175"/>
-      <c r="BH3" s="175"/>
-      <c r="BI3" s="175"/>
-      <c r="BJ3" s="175" t="s">
+      <c r="BB3" s="154"/>
+      <c r="BC3" s="154"/>
+      <c r="BD3" s="154"/>
+      <c r="BE3" s="154"/>
+      <c r="BF3" s="154"/>
+      <c r="BG3" s="154"/>
+      <c r="BH3" s="154"/>
+      <c r="BI3" s="154"/>
+      <c r="BJ3" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="BK3" s="175"/>
-      <c r="BL3" s="175"/>
-      <c r="BM3" s="175"/>
-      <c r="BN3" s="175"/>
-      <c r="BO3" s="175"/>
-      <c r="BP3" s="175"/>
-      <c r="BQ3" s="175"/>
-      <c r="BR3" s="176"/>
+      <c r="BK3" s="154"/>
+      <c r="BL3" s="154"/>
+      <c r="BM3" s="154"/>
+      <c r="BN3" s="154"/>
+      <c r="BO3" s="154"/>
+      <c r="BP3" s="154"/>
+      <c r="BQ3" s="154"/>
+      <c r="BR3" s="155"/>
     </row>
     <row r="4" spans="1:70" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="179"/>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="178"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="178"/>
-      <c r="R4" s="178"/>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="178"/>
-      <c r="W4" s="178"/>
-      <c r="X4" s="178"/>
-      <c r="Y4" s="178"/>
-      <c r="Z4" s="178"/>
-      <c r="AA4" s="178"/>
-      <c r="AB4" s="178"/>
-      <c r="AC4" s="178"/>
-      <c r="AD4" s="178"/>
-      <c r="AE4" s="178"/>
-      <c r="AF4" s="178"/>
-      <c r="AG4" s="178"/>
-      <c r="AH4" s="178"/>
-      <c r="AI4" s="178"/>
-      <c r="AJ4" s="178"/>
-      <c r="AK4" s="178"/>
-      <c r="AL4" s="178"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="207"/>
+      <c r="AF4" s="207"/>
+      <c r="AG4" s="207"/>
+      <c r="AH4" s="207"/>
+      <c r="AI4" s="207"/>
+      <c r="AJ4" s="207"/>
+      <c r="AK4" s="207"/>
+      <c r="AL4" s="207"/>
       <c r="AM4" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="AN4" s="170" t="s">
+      <c r="AN4" s="202" t="s">
         <v>164</v>
       </c>
-      <c r="AO4" s="171"/>
-      <c r="AP4" s="172"/>
-      <c r="AQ4" s="170" t="s">
+      <c r="AO4" s="203"/>
+      <c r="AP4" s="204"/>
+      <c r="AQ4" s="202" t="s">
         <v>165</v>
       </c>
-      <c r="AR4" s="171"/>
-      <c r="AS4" s="171"/>
-      <c r="AT4" s="171"/>
-      <c r="AU4" s="171"/>
-      <c r="AV4" s="171"/>
-      <c r="AW4" s="171"/>
-      <c r="AX4" s="171"/>
-      <c r="AY4" s="171"/>
-      <c r="AZ4" s="171"/>
-      <c r="BA4" s="171"/>
-      <c r="BB4" s="171"/>
-      <c r="BC4" s="171"/>
-      <c r="BD4" s="172"/>
-      <c r="BE4" s="170" t="s">
+      <c r="AR4" s="203"/>
+      <c r="AS4" s="203"/>
+      <c r="AT4" s="203"/>
+      <c r="AU4" s="203"/>
+      <c r="AV4" s="203"/>
+      <c r="AW4" s="203"/>
+      <c r="AX4" s="203"/>
+      <c r="AY4" s="203"/>
+      <c r="AZ4" s="203"/>
+      <c r="BA4" s="203"/>
+      <c r="BB4" s="203"/>
+      <c r="BC4" s="203"/>
+      <c r="BD4" s="204"/>
+      <c r="BE4" s="202" t="s">
         <v>166</v>
       </c>
-      <c r="BF4" s="173"/>
-      <c r="BG4" s="171"/>
-      <c r="BH4" s="171"/>
-      <c r="BI4" s="171"/>
-      <c r="BJ4" s="171"/>
-      <c r="BK4" s="172"/>
-      <c r="BL4" s="170" t="s">
+      <c r="BF4" s="205"/>
+      <c r="BG4" s="203"/>
+      <c r="BH4" s="203"/>
+      <c r="BI4" s="203"/>
+      <c r="BJ4" s="203"/>
+      <c r="BK4" s="204"/>
+      <c r="BL4" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="BM4" s="171"/>
-      <c r="BN4" s="171"/>
-      <c r="BO4" s="172"/>
-      <c r="BP4" s="170" t="s">
+      <c r="BM4" s="203"/>
+      <c r="BN4" s="203"/>
+      <c r="BO4" s="204"/>
+      <c r="BP4" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="BQ4" s="171"/>
-      <c r="BR4" s="174"/>
+      <c r="BQ4" s="203"/>
+      <c r="BR4" s="206"/>
     </row>
     <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="179"/>
-      <c r="B5" s="223" t="s">
+      <c r="A5" s="208"/>
+      <c r="B5" s="163" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="223"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223" t="s">
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223"/>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="223"/>
-      <c r="O5" s="223"/>
-      <c r="P5" s="223" t="s">
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="223"/>
-      <c r="R5" s="223"/>
-      <c r="S5" s="223"/>
-      <c r="T5" s="223"/>
-      <c r="U5" s="223"/>
-      <c r="V5" s="223"/>
-      <c r="W5" s="223" t="s">
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="X5" s="223"/>
-      <c r="Y5" s="223"/>
-      <c r="Z5" s="223"/>
-      <c r="AA5" s="223"/>
-      <c r="AB5" s="223"/>
-      <c r="AC5" s="223"/>
-      <c r="AD5" s="223" t="s">
+      <c r="X5" s="163"/>
+      <c r="Y5" s="163"/>
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="163"/>
+      <c r="AC5" s="163"/>
+      <c r="AD5" s="163" t="s">
         <v>158</v>
       </c>
-      <c r="AE5" s="223"/>
-      <c r="AF5" s="223"/>
-      <c r="AG5" s="223"/>
-      <c r="AH5" s="223"/>
-      <c r="AI5" s="223"/>
-      <c r="AJ5" s="223"/>
-      <c r="AK5" s="223" t="s">
+      <c r="AE5" s="163"/>
+      <c r="AF5" s="163"/>
+      <c r="AG5" s="163"/>
+      <c r="AH5" s="163"/>
+      <c r="AI5" s="163"/>
+      <c r="AJ5" s="163"/>
+      <c r="AK5" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="AL5" s="223"/>
+      <c r="AL5" s="163"/>
       <c r="AM5" s="116" t="s">
         <v>6</v>
       </c>
@@ -5713,45 +5701,45 @@
       <c r="AQ5" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="221" t="s">
+      <c r="AR5" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="222"/>
-      <c r="AT5" s="221" t="s">
+      <c r="AS5" s="143"/>
+      <c r="AT5" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="222"/>
-      <c r="AV5" s="221" t="s">
+      <c r="AU5" s="143"/>
+      <c r="AV5" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="AW5" s="222"/>
-      <c r="AX5" s="221" t="s">
+      <c r="AW5" s="143"/>
+      <c r="AX5" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="222"/>
-      <c r="AZ5" s="221" t="s">
+      <c r="AY5" s="143"/>
+      <c r="AZ5" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="222"/>
-      <c r="BB5" s="221" t="s">
+      <c r="BA5" s="143"/>
+      <c r="BB5" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="BC5" s="222"/>
+      <c r="BC5" s="143"/>
       <c r="BD5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="BE5" s="228" t="s">
+      <c r="BE5" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="BF5" s="222"/>
-      <c r="BG5" s="229" t="s">
+      <c r="BF5" s="143"/>
+      <c r="BG5" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="BH5" s="230"/>
-      <c r="BI5" s="229" t="s">
+      <c r="BH5" s="160"/>
+      <c r="BI5" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="230"/>
+      <c r="BJ5" s="160"/>
       <c r="BK5" s="106" t="s">
         <v>21</v>
       </c>
@@ -5779,193 +5767,193 @@
     </row>
     <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="231" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="208" t="s">
+      <c r="C6" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="208" t="s">
+      <c r="D6" s="232" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="208" t="s">
+      <c r="E6" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="208" t="s">
+      <c r="F6" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="208" t="s">
+      <c r="G6" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="219" t="s">
+      <c r="H6" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="210" t="s">
+      <c r="I6" s="231" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="208" t="s">
+      <c r="J6" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="208" t="s">
+      <c r="K6" s="232" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="208" t="s">
+      <c r="L6" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="208" t="s">
+      <c r="M6" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="208" t="s">
+      <c r="N6" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="219" t="s">
+      <c r="O6" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="210" t="s">
+      <c r="P6" s="231" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="208" t="s">
+      <c r="Q6" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="208" t="s">
+      <c r="R6" s="232" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="208" t="s">
+      <c r="S6" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="208" t="s">
+      <c r="T6" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="208" t="s">
+      <c r="U6" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="219" t="s">
+      <c r="V6" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="210" t="s">
+      <c r="W6" s="231" t="s">
         <v>162</v>
       </c>
-      <c r="X6" s="208" t="s">
+      <c r="X6" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="208" t="s">
+      <c r="Y6" s="232" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="208" t="s">
+      <c r="Z6" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="208" t="s">
+      <c r="AA6" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="208" t="s">
+      <c r="AB6" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="219" t="s">
+      <c r="AC6" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="210" t="s">
+      <c r="AD6" s="231" t="s">
         <v>162</v>
       </c>
-      <c r="AE6" s="208" t="s">
+      <c r="AE6" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="208" t="s">
+      <c r="AF6" s="232" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="208" t="s">
+      <c r="AG6" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="208" t="s">
+      <c r="AH6" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="208" t="s">
+      <c r="AI6" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="219" t="s">
+      <c r="AJ6" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="210" t="s">
+      <c r="AK6" s="231" t="s">
         <v>162</v>
       </c>
-      <c r="AL6" s="235" t="s">
+      <c r="AL6" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="147" t="s">
+      <c r="AM6" s="217" t="s">
         <v>111</v>
       </c>
-      <c r="AN6" s="147" t="s">
+      <c r="AN6" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="AO6" s="149" t="s">
+      <c r="AO6" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="AP6" s="155" t="s">
+      <c r="AP6" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="AQ6" s="145" t="s">
+      <c r="AQ6" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="AR6" s="151" t="s">
+      <c r="AR6" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="AS6" s="152"/>
-      <c r="AT6" s="151" t="s">
+      <c r="AS6" s="157"/>
+      <c r="AT6" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="AU6" s="152"/>
-      <c r="AV6" s="151" t="s">
+      <c r="AU6" s="157"/>
+      <c r="AV6" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="AW6" s="152"/>
-      <c r="AX6" s="151" t="s">
+      <c r="AW6" s="157"/>
+      <c r="AX6" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="AY6" s="152"/>
-      <c r="AZ6" s="151" t="s">
+      <c r="AY6" s="157"/>
+      <c r="AZ6" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="BA6" s="152"/>
-      <c r="BB6" s="151" t="s">
+      <c r="BA6" s="157"/>
+      <c r="BB6" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="BC6" s="152"/>
-      <c r="BD6" s="161" t="s">
+      <c r="BC6" s="157"/>
+      <c r="BD6" s="225" t="s">
         <v>32</v>
       </c>
-      <c r="BE6" s="163" t="s">
+      <c r="BE6" s="227" t="s">
         <v>39</v>
       </c>
-      <c r="BF6" s="164"/>
-      <c r="BG6" s="165" t="s">
+      <c r="BF6" s="228"/>
+      <c r="BG6" s="229" t="s">
         <v>40</v>
       </c>
-      <c r="BH6" s="166"/>
-      <c r="BI6" s="231" t="s">
+      <c r="BH6" s="230"/>
+      <c r="BI6" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="BJ6" s="232"/>
-      <c r="BK6" s="237" t="s">
+      <c r="BJ6" s="162"/>
+      <c r="BK6" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="BL6" s="147" t="s">
+      <c r="BL6" s="217" t="s">
         <v>41</v>
       </c>
-      <c r="BM6" s="149" t="s">
+      <c r="BM6" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="BN6" s="149" t="s">
+      <c r="BN6" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="BO6" s="155" t="s">
+      <c r="BO6" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="BP6" s="153" t="s">
+      <c r="BP6" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="BQ6" s="159" t="s">
+      <c r="BQ6" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="BR6" s="157" t="s">
+      <c r="BR6" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5973,48 +5961,48 @@
       <c r="A7" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="209"/>
-      <c r="L7" s="209"/>
-      <c r="M7" s="209"/>
-      <c r="N7" s="209"/>
-      <c r="O7" s="220"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
-      <c r="S7" s="209"/>
-      <c r="T7" s="209"/>
-      <c r="U7" s="209"/>
-      <c r="V7" s="220"/>
-      <c r="W7" s="211"/>
-      <c r="X7" s="209"/>
-      <c r="Y7" s="209"/>
-      <c r="Z7" s="209"/>
-      <c r="AA7" s="209"/>
-      <c r="AB7" s="209"/>
-      <c r="AC7" s="220"/>
-      <c r="AD7" s="211"/>
-      <c r="AE7" s="209"/>
-      <c r="AF7" s="209"/>
-      <c r="AG7" s="209"/>
-      <c r="AH7" s="209"/>
-      <c r="AI7" s="209"/>
-      <c r="AJ7" s="220"/>
-      <c r="AK7" s="211"/>
-      <c r="AL7" s="236"/>
-      <c r="AM7" s="148"/>
-      <c r="AN7" s="148"/>
-      <c r="AO7" s="150"/>
-      <c r="AP7" s="156"/>
-      <c r="AQ7" s="146"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="237"/>
+      <c r="I7" s="235"/>
+      <c r="J7" s="236"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="236"/>
+      <c r="N7" s="236"/>
+      <c r="O7" s="237"/>
+      <c r="P7" s="235"/>
+      <c r="Q7" s="236"/>
+      <c r="R7" s="236"/>
+      <c r="S7" s="236"/>
+      <c r="T7" s="236"/>
+      <c r="U7" s="236"/>
+      <c r="V7" s="237"/>
+      <c r="W7" s="235"/>
+      <c r="X7" s="236"/>
+      <c r="Y7" s="236"/>
+      <c r="Z7" s="236"/>
+      <c r="AA7" s="236"/>
+      <c r="AB7" s="236"/>
+      <c r="AC7" s="237"/>
+      <c r="AD7" s="235"/>
+      <c r="AE7" s="236"/>
+      <c r="AF7" s="236"/>
+      <c r="AG7" s="236"/>
+      <c r="AH7" s="236"/>
+      <c r="AI7" s="236"/>
+      <c r="AJ7" s="237"/>
+      <c r="AK7" s="235"/>
+      <c r="AL7" s="238"/>
+      <c r="AM7" s="218"/>
+      <c r="AN7" s="218"/>
+      <c r="AO7" s="139"/>
+      <c r="AP7" s="141"/>
+      <c r="AQ7" s="216"/>
       <c r="AR7" s="96"/>
       <c r="AS7" s="98" t="s">
         <v>48</v>
@@ -6039,7 +6027,7 @@
       <c r="BC7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="BD7" s="162"/>
+      <c r="BD7" s="226"/>
       <c r="BE7" s="97"/>
       <c r="BF7" s="98" t="s">
         <v>48</v>
@@ -6052,17 +6040,17 @@
       <c r="BJ7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="238"/>
-      <c r="BL7" s="148"/>
-      <c r="BM7" s="150"/>
-      <c r="BN7" s="150"/>
-      <c r="BO7" s="156"/>
-      <c r="BP7" s="154"/>
-      <c r="BQ7" s="160"/>
-      <c r="BR7" s="158"/>
+      <c r="BK7" s="149"/>
+      <c r="BL7" s="218"/>
+      <c r="BM7" s="139"/>
+      <c r="BN7" s="139"/>
+      <c r="BO7" s="141"/>
+      <c r="BP7" s="220"/>
+      <c r="BQ7" s="224"/>
+      <c r="BR7" s="222"/>
     </row>
     <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="213" t="s">
+      <c r="A8" s="165" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="41"/>
@@ -6127,16 +6115,16 @@
       <c r="BI8" s="126"/>
       <c r="BJ8" s="126"/>
       <c r="BK8" s="127"/>
-      <c r="BL8" s="224"/>
+      <c r="BL8" s="136"/>
       <c r="BM8" s="126"/>
       <c r="BN8" s="126"/>
-      <c r="BO8" s="233"/>
-      <c r="BP8" s="224"/>
+      <c r="BO8" s="146"/>
+      <c r="BP8" s="136"/>
       <c r="BQ8" s="126"/>
-      <c r="BR8" s="226"/>
+      <c r="BR8" s="144"/>
     </row>
     <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="213"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="85"/>
       <c r="C9" s="86"/>
       <c r="D9" s="86"/>
@@ -6199,16 +6187,16 @@
       <c r="BI9" s="129"/>
       <c r="BJ9" s="129"/>
       <c r="BK9" s="130"/>
-      <c r="BL9" s="225"/>
+      <c r="BL9" s="137"/>
       <c r="BM9" s="129"/>
       <c r="BN9" s="129"/>
-      <c r="BO9" s="234"/>
-      <c r="BP9" s="225"/>
+      <c r="BO9" s="147"/>
+      <c r="BP9" s="137"/>
       <c r="BQ9" s="129"/>
-      <c r="BR9" s="227"/>
+      <c r="BR9" s="145"/>
     </row>
     <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="214"/>
+      <c r="A10" s="166"/>
       <c r="B10" s="61"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -6246,41 +6234,41 @@
       <c r="AJ10" s="63"/>
       <c r="AK10" s="64"/>
       <c r="AL10" s="65"/>
-      <c r="AM10" s="139"/>
-      <c r="AN10" s="140"/>
-      <c r="AO10" s="140"/>
-      <c r="AP10" s="140"/>
-      <c r="AQ10" s="140"/>
-      <c r="AR10" s="140"/>
-      <c r="AS10" s="140"/>
-      <c r="AT10" s="140"/>
-      <c r="AU10" s="140"/>
-      <c r="AV10" s="140"/>
-      <c r="AW10" s="140"/>
-      <c r="AX10" s="140"/>
-      <c r="AY10" s="140"/>
-      <c r="AZ10" s="140"/>
-      <c r="BA10" s="140"/>
-      <c r="BB10" s="140"/>
-      <c r="BC10" s="140"/>
-      <c r="BD10" s="140"/>
-      <c r="BE10" s="140"/>
-      <c r="BF10" s="140"/>
-      <c r="BG10" s="140"/>
-      <c r="BH10" s="140"/>
-      <c r="BI10" s="140"/>
-      <c r="BJ10" s="140"/>
-      <c r="BK10" s="140"/>
-      <c r="BL10" s="140"/>
-      <c r="BM10" s="140"/>
-      <c r="BN10" s="140"/>
-      <c r="BO10" s="140"/>
-      <c r="BP10" s="140"/>
-      <c r="BQ10" s="140"/>
-      <c r="BR10" s="141"/>
+      <c r="AM10" s="212"/>
+      <c r="AN10" s="213"/>
+      <c r="AO10" s="213"/>
+      <c r="AP10" s="213"/>
+      <c r="AQ10" s="213"/>
+      <c r="AR10" s="213"/>
+      <c r="AS10" s="213"/>
+      <c r="AT10" s="213"/>
+      <c r="AU10" s="213"/>
+      <c r="AV10" s="213"/>
+      <c r="AW10" s="213"/>
+      <c r="AX10" s="213"/>
+      <c r="AY10" s="213"/>
+      <c r="AZ10" s="213"/>
+      <c r="BA10" s="213"/>
+      <c r="BB10" s="213"/>
+      <c r="BC10" s="213"/>
+      <c r="BD10" s="213"/>
+      <c r="BE10" s="213"/>
+      <c r="BF10" s="213"/>
+      <c r="BG10" s="213"/>
+      <c r="BH10" s="213"/>
+      <c r="BI10" s="213"/>
+      <c r="BJ10" s="213"/>
+      <c r="BK10" s="213"/>
+      <c r="BL10" s="213"/>
+      <c r="BM10" s="213"/>
+      <c r="BN10" s="213"/>
+      <c r="BO10" s="213"/>
+      <c r="BP10" s="213"/>
+      <c r="BQ10" s="213"/>
+      <c r="BR10" s="214"/>
     </row>
     <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="212" t="s">
+      <c r="A11" s="164" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="46"/>
@@ -6345,16 +6333,16 @@
       <c r="BI11" s="126"/>
       <c r="BJ11" s="126"/>
       <c r="BK11" s="127"/>
-      <c r="BL11" s="224"/>
+      <c r="BL11" s="136"/>
       <c r="BM11" s="126"/>
       <c r="BN11" s="126"/>
-      <c r="BO11" s="233"/>
-      <c r="BP11" s="224"/>
+      <c r="BO11" s="146"/>
+      <c r="BP11" s="136"/>
       <c r="BQ11" s="126"/>
-      <c r="BR11" s="226"/>
+      <c r="BR11" s="144"/>
     </row>
     <row r="12" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="213"/>
+      <c r="A12" s="165"/>
       <c r="B12" s="90"/>
       <c r="C12" s="91"/>
       <c r="D12" s="91"/>
@@ -6417,16 +6405,16 @@
       <c r="BI12" s="129"/>
       <c r="BJ12" s="129"/>
       <c r="BK12" s="130"/>
-      <c r="BL12" s="225"/>
+      <c r="BL12" s="137"/>
       <c r="BM12" s="129"/>
       <c r="BN12" s="129"/>
-      <c r="BO12" s="234"/>
-      <c r="BP12" s="225"/>
+      <c r="BO12" s="147"/>
+      <c r="BP12" s="137"/>
       <c r="BQ12" s="129"/>
-      <c r="BR12" s="227"/>
+      <c r="BR12" s="145"/>
     </row>
     <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="213"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
@@ -6464,41 +6452,41 @@
       <c r="AJ13" s="68"/>
       <c r="AK13" s="70"/>
       <c r="AL13" s="71"/>
-      <c r="AM13" s="142"/>
-      <c r="AN13" s="143"/>
-      <c r="AO13" s="143"/>
-      <c r="AP13" s="143"/>
-      <c r="AQ13" s="143"/>
-      <c r="AR13" s="143"/>
-      <c r="AS13" s="143"/>
-      <c r="AT13" s="143"/>
-      <c r="AU13" s="143"/>
-      <c r="AV13" s="143"/>
-      <c r="AW13" s="143"/>
-      <c r="AX13" s="143"/>
-      <c r="AY13" s="143"/>
-      <c r="AZ13" s="143"/>
-      <c r="BA13" s="143"/>
-      <c r="BB13" s="143"/>
-      <c r="BC13" s="143"/>
-      <c r="BD13" s="143"/>
-      <c r="BE13" s="143"/>
-      <c r="BF13" s="143"/>
-      <c r="BG13" s="143"/>
-      <c r="BH13" s="143"/>
-      <c r="BI13" s="143"/>
-      <c r="BJ13" s="143"/>
-      <c r="BK13" s="143"/>
-      <c r="BL13" s="143"/>
-      <c r="BM13" s="143"/>
-      <c r="BN13" s="143"/>
-      <c r="BO13" s="143"/>
-      <c r="BP13" s="143"/>
-      <c r="BQ13" s="143"/>
-      <c r="BR13" s="144"/>
+      <c r="AM13" s="150"/>
+      <c r="AN13" s="151"/>
+      <c r="AO13" s="151"/>
+      <c r="AP13" s="151"/>
+      <c r="AQ13" s="151"/>
+      <c r="AR13" s="151"/>
+      <c r="AS13" s="151"/>
+      <c r="AT13" s="151"/>
+      <c r="AU13" s="151"/>
+      <c r="AV13" s="151"/>
+      <c r="AW13" s="151"/>
+      <c r="AX13" s="151"/>
+      <c r="AY13" s="151"/>
+      <c r="AZ13" s="151"/>
+      <c r="BA13" s="151"/>
+      <c r="BB13" s="151"/>
+      <c r="BC13" s="151"/>
+      <c r="BD13" s="151"/>
+      <c r="BE13" s="151"/>
+      <c r="BF13" s="151"/>
+      <c r="BG13" s="151"/>
+      <c r="BH13" s="151"/>
+      <c r="BI13" s="151"/>
+      <c r="BJ13" s="151"/>
+      <c r="BK13" s="151"/>
+      <c r="BL13" s="151"/>
+      <c r="BM13" s="151"/>
+      <c r="BN13" s="151"/>
+      <c r="BO13" s="151"/>
+      <c r="BP13" s="151"/>
+      <c r="BQ13" s="151"/>
+      <c r="BR13" s="152"/>
     </row>
     <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="212" t="s">
+      <c r="A14" s="164" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="49"/>
@@ -6563,16 +6551,16 @@
       <c r="BI14" s="126"/>
       <c r="BJ14" s="126"/>
       <c r="BK14" s="127"/>
-      <c r="BL14" s="224"/>
+      <c r="BL14" s="136"/>
       <c r="BM14" s="126"/>
       <c r="BN14" s="126"/>
-      <c r="BO14" s="233"/>
-      <c r="BP14" s="224"/>
+      <c r="BO14" s="146"/>
+      <c r="BP14" s="136"/>
       <c r="BQ14" s="126"/>
-      <c r="BR14" s="226"/>
+      <c r="BR14" s="144"/>
     </row>
     <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="213"/>
+      <c r="A15" s="165"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
       <c r="D15" s="91"/>
@@ -6635,16 +6623,16 @@
       <c r="BI15" s="129"/>
       <c r="BJ15" s="129"/>
       <c r="BK15" s="130"/>
-      <c r="BL15" s="225"/>
+      <c r="BL15" s="137"/>
       <c r="BM15" s="129"/>
       <c r="BN15" s="129"/>
-      <c r="BO15" s="234"/>
-      <c r="BP15" s="225"/>
+      <c r="BO15" s="147"/>
+      <c r="BP15" s="137"/>
       <c r="BQ15" s="129"/>
-      <c r="BR15" s="227"/>
+      <c r="BR15" s="145"/>
     </row>
     <row r="16" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="214"/>
+      <c r="A16" s="166"/>
       <c r="B16" s="72"/>
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
@@ -6682,41 +6670,41 @@
       <c r="AJ16" s="74"/>
       <c r="AK16" s="75"/>
       <c r="AL16" s="76"/>
-      <c r="AM16" s="142"/>
-      <c r="AN16" s="143"/>
-      <c r="AO16" s="143"/>
-      <c r="AP16" s="143"/>
-      <c r="AQ16" s="143"/>
-      <c r="AR16" s="143"/>
-      <c r="AS16" s="143"/>
-      <c r="AT16" s="143"/>
-      <c r="AU16" s="143"/>
-      <c r="AV16" s="143"/>
-      <c r="AW16" s="143"/>
-      <c r="AX16" s="143"/>
-      <c r="AY16" s="143"/>
-      <c r="AZ16" s="143"/>
-      <c r="BA16" s="143"/>
-      <c r="BB16" s="143"/>
-      <c r="BC16" s="143"/>
-      <c r="BD16" s="143"/>
-      <c r="BE16" s="143"/>
-      <c r="BF16" s="143"/>
-      <c r="BG16" s="143"/>
-      <c r="BH16" s="143"/>
-      <c r="BI16" s="143"/>
-      <c r="BJ16" s="143"/>
-      <c r="BK16" s="143"/>
-      <c r="BL16" s="143"/>
-      <c r="BM16" s="143"/>
-      <c r="BN16" s="143"/>
-      <c r="BO16" s="143"/>
-      <c r="BP16" s="143"/>
-      <c r="BQ16" s="143"/>
-      <c r="BR16" s="144"/>
+      <c r="AM16" s="150"/>
+      <c r="AN16" s="151"/>
+      <c r="AO16" s="151"/>
+      <c r="AP16" s="151"/>
+      <c r="AQ16" s="151"/>
+      <c r="AR16" s="151"/>
+      <c r="AS16" s="151"/>
+      <c r="AT16" s="151"/>
+      <c r="AU16" s="151"/>
+      <c r="AV16" s="151"/>
+      <c r="AW16" s="151"/>
+      <c r="AX16" s="151"/>
+      <c r="AY16" s="151"/>
+      <c r="AZ16" s="151"/>
+      <c r="BA16" s="151"/>
+      <c r="BB16" s="151"/>
+      <c r="BC16" s="151"/>
+      <c r="BD16" s="151"/>
+      <c r="BE16" s="151"/>
+      <c r="BF16" s="151"/>
+      <c r="BG16" s="151"/>
+      <c r="BH16" s="151"/>
+      <c r="BI16" s="151"/>
+      <c r="BJ16" s="151"/>
+      <c r="BK16" s="151"/>
+      <c r="BL16" s="151"/>
+      <c r="BM16" s="151"/>
+      <c r="BN16" s="151"/>
+      <c r="BO16" s="151"/>
+      <c r="BP16" s="151"/>
+      <c r="BQ16" s="151"/>
+      <c r="BR16" s="152"/>
     </row>
     <row r="17" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="213" t="s">
+      <c r="A17" s="165" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="44"/>
@@ -6781,16 +6769,16 @@
       <c r="BI17" s="126"/>
       <c r="BJ17" s="126"/>
       <c r="BK17" s="127"/>
-      <c r="BL17" s="224"/>
+      <c r="BL17" s="136"/>
       <c r="BM17" s="126"/>
       <c r="BN17" s="126"/>
-      <c r="BO17" s="233"/>
-      <c r="BP17" s="224"/>
+      <c r="BO17" s="146"/>
+      <c r="BP17" s="136"/>
       <c r="BQ17" s="126"/>
-      <c r="BR17" s="226"/>
+      <c r="BR17" s="144"/>
     </row>
     <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="213"/>
+      <c r="A18" s="165"/>
       <c r="B18" s="94"/>
       <c r="C18" s="91"/>
       <c r="D18" s="91"/>
@@ -6853,16 +6841,16 @@
       <c r="BI18" s="129"/>
       <c r="BJ18" s="129"/>
       <c r="BK18" s="130"/>
-      <c r="BL18" s="225"/>
+      <c r="BL18" s="137"/>
       <c r="BM18" s="129"/>
       <c r="BN18" s="129"/>
-      <c r="BO18" s="234"/>
-      <c r="BP18" s="225"/>
+      <c r="BO18" s="147"/>
+      <c r="BP18" s="137"/>
       <c r="BQ18" s="129"/>
-      <c r="BR18" s="227"/>
+      <c r="BR18" s="145"/>
     </row>
     <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="214"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="70"/>
       <c r="C19" s="67"/>
       <c r="D19" s="67"/>
@@ -6900,41 +6888,41 @@
       <c r="AJ19" s="68"/>
       <c r="AK19" s="70"/>
       <c r="AL19" s="71"/>
-      <c r="AM19" s="142"/>
-      <c r="AN19" s="143"/>
-      <c r="AO19" s="143"/>
-      <c r="AP19" s="143"/>
-      <c r="AQ19" s="143"/>
-      <c r="AR19" s="143"/>
-      <c r="AS19" s="143"/>
-      <c r="AT19" s="143"/>
-      <c r="AU19" s="143"/>
-      <c r="AV19" s="143"/>
-      <c r="AW19" s="143"/>
-      <c r="AX19" s="143"/>
-      <c r="AY19" s="143"/>
-      <c r="AZ19" s="143"/>
-      <c r="BA19" s="143"/>
-      <c r="BB19" s="143"/>
-      <c r="BC19" s="143"/>
-      <c r="BD19" s="143"/>
-      <c r="BE19" s="143"/>
-      <c r="BF19" s="143"/>
-      <c r="BG19" s="143"/>
-      <c r="BH19" s="143"/>
-      <c r="BI19" s="143"/>
-      <c r="BJ19" s="143"/>
-      <c r="BK19" s="143"/>
-      <c r="BL19" s="143"/>
-      <c r="BM19" s="143"/>
-      <c r="BN19" s="143"/>
-      <c r="BO19" s="143"/>
-      <c r="BP19" s="143"/>
-      <c r="BQ19" s="143"/>
-      <c r="BR19" s="144"/>
+      <c r="AM19" s="150"/>
+      <c r="AN19" s="151"/>
+      <c r="AO19" s="151"/>
+      <c r="AP19" s="151"/>
+      <c r="AQ19" s="151"/>
+      <c r="AR19" s="151"/>
+      <c r="AS19" s="151"/>
+      <c r="AT19" s="151"/>
+      <c r="AU19" s="151"/>
+      <c r="AV19" s="151"/>
+      <c r="AW19" s="151"/>
+      <c r="AX19" s="151"/>
+      <c r="AY19" s="151"/>
+      <c r="AZ19" s="151"/>
+      <c r="BA19" s="151"/>
+      <c r="BB19" s="151"/>
+      <c r="BC19" s="151"/>
+      <c r="BD19" s="151"/>
+      <c r="BE19" s="151"/>
+      <c r="BF19" s="151"/>
+      <c r="BG19" s="151"/>
+      <c r="BH19" s="151"/>
+      <c r="BI19" s="151"/>
+      <c r="BJ19" s="151"/>
+      <c r="BK19" s="151"/>
+      <c r="BL19" s="151"/>
+      <c r="BM19" s="151"/>
+      <c r="BN19" s="151"/>
+      <c r="BO19" s="151"/>
+      <c r="BP19" s="151"/>
+      <c r="BQ19" s="151"/>
+      <c r="BR19" s="152"/>
     </row>
     <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="212" t="s">
+      <c r="A20" s="164" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="49"/>
@@ -6999,16 +6987,16 @@
       <c r="BI20" s="126"/>
       <c r="BJ20" s="126"/>
       <c r="BK20" s="127"/>
-      <c r="BL20" s="224"/>
+      <c r="BL20" s="136"/>
       <c r="BM20" s="126"/>
       <c r="BN20" s="126"/>
-      <c r="BO20" s="233"/>
-      <c r="BP20" s="224"/>
+      <c r="BO20" s="146"/>
+      <c r="BP20" s="136"/>
       <c r="BQ20" s="126"/>
-      <c r="BR20" s="226"/>
+      <c r="BR20" s="144"/>
     </row>
     <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="213"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="94"/>
       <c r="C21" s="91"/>
       <c r="D21" s="91"/>
@@ -7071,16 +7059,16 @@
       <c r="BI21" s="129"/>
       <c r="BJ21" s="129"/>
       <c r="BK21" s="130"/>
-      <c r="BL21" s="225"/>
+      <c r="BL21" s="137"/>
       <c r="BM21" s="129"/>
       <c r="BN21" s="129"/>
-      <c r="BO21" s="234"/>
-      <c r="BP21" s="225"/>
+      <c r="BO21" s="147"/>
+      <c r="BP21" s="137"/>
       <c r="BQ21" s="129"/>
-      <c r="BR21" s="227"/>
+      <c r="BR21" s="145"/>
     </row>
     <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="214"/>
+      <c r="A22" s="166"/>
       <c r="B22" s="70"/>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
@@ -7118,41 +7106,41 @@
       <c r="AJ22" s="68"/>
       <c r="AK22" s="70"/>
       <c r="AL22" s="71"/>
-      <c r="AM22" s="142"/>
-      <c r="AN22" s="143"/>
-      <c r="AO22" s="143"/>
-      <c r="AP22" s="143"/>
-      <c r="AQ22" s="143"/>
-      <c r="AR22" s="143"/>
-      <c r="AS22" s="143"/>
-      <c r="AT22" s="143"/>
-      <c r="AU22" s="143"/>
-      <c r="AV22" s="143"/>
-      <c r="AW22" s="143"/>
-      <c r="AX22" s="143"/>
-      <c r="AY22" s="143"/>
-      <c r="AZ22" s="143"/>
-      <c r="BA22" s="143"/>
-      <c r="BB22" s="143"/>
-      <c r="BC22" s="143"/>
-      <c r="BD22" s="143"/>
-      <c r="BE22" s="143"/>
-      <c r="BF22" s="143"/>
-      <c r="BG22" s="143"/>
-      <c r="BH22" s="143"/>
-      <c r="BI22" s="143"/>
-      <c r="BJ22" s="143"/>
-      <c r="BK22" s="143"/>
-      <c r="BL22" s="143"/>
-      <c r="BM22" s="143"/>
-      <c r="BN22" s="143"/>
-      <c r="BO22" s="143"/>
-      <c r="BP22" s="143"/>
-      <c r="BQ22" s="143"/>
-      <c r="BR22" s="144"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="151"/>
+      <c r="AO22" s="151"/>
+      <c r="AP22" s="151"/>
+      <c r="AQ22" s="151"/>
+      <c r="AR22" s="151"/>
+      <c r="AS22" s="151"/>
+      <c r="AT22" s="151"/>
+      <c r="AU22" s="151"/>
+      <c r="AV22" s="151"/>
+      <c r="AW22" s="151"/>
+      <c r="AX22" s="151"/>
+      <c r="AY22" s="151"/>
+      <c r="AZ22" s="151"/>
+      <c r="BA22" s="151"/>
+      <c r="BB22" s="151"/>
+      <c r="BC22" s="151"/>
+      <c r="BD22" s="151"/>
+      <c r="BE22" s="151"/>
+      <c r="BF22" s="151"/>
+      <c r="BG22" s="151"/>
+      <c r="BH22" s="151"/>
+      <c r="BI22" s="151"/>
+      <c r="BJ22" s="151"/>
+      <c r="BK22" s="151"/>
+      <c r="BL22" s="151"/>
+      <c r="BM22" s="151"/>
+      <c r="BN22" s="151"/>
+      <c r="BO22" s="151"/>
+      <c r="BP22" s="151"/>
+      <c r="BQ22" s="151"/>
+      <c r="BR22" s="152"/>
     </row>
     <row r="23" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="212" t="s">
+      <c r="A23" s="164" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="49"/>
@@ -7217,16 +7205,16 @@
       <c r="BI23" s="126"/>
       <c r="BJ23" s="126"/>
       <c r="BK23" s="127"/>
-      <c r="BL23" s="224"/>
+      <c r="BL23" s="136"/>
       <c r="BM23" s="126"/>
       <c r="BN23" s="126"/>
-      <c r="BO23" s="233"/>
-      <c r="BP23" s="224"/>
+      <c r="BO23" s="146"/>
+      <c r="BP23" s="136"/>
       <c r="BQ23" s="126"/>
-      <c r="BR23" s="226"/>
+      <c r="BR23" s="144"/>
     </row>
     <row r="24" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="213"/>
+      <c r="A24" s="165"/>
       <c r="B24" s="94"/>
       <c r="C24" s="91"/>
       <c r="D24" s="91"/>
@@ -7289,16 +7277,16 @@
       <c r="BI24" s="129"/>
       <c r="BJ24" s="129"/>
       <c r="BK24" s="130"/>
-      <c r="BL24" s="225"/>
+      <c r="BL24" s="137"/>
       <c r="BM24" s="129"/>
       <c r="BN24" s="129"/>
-      <c r="BO24" s="234"/>
-      <c r="BP24" s="225"/>
+      <c r="BO24" s="147"/>
+      <c r="BP24" s="137"/>
       <c r="BQ24" s="129"/>
-      <c r="BR24" s="227"/>
+      <c r="BR24" s="145"/>
     </row>
     <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="214"/>
+      <c r="A25" s="166"/>
       <c r="B25" s="75"/>
       <c r="C25" s="73"/>
       <c r="D25" s="73"/>
@@ -7336,41 +7324,41 @@
       <c r="AJ25" s="74"/>
       <c r="AK25" s="75"/>
       <c r="AL25" s="76"/>
-      <c r="AM25" s="142"/>
-      <c r="AN25" s="143"/>
-      <c r="AO25" s="143"/>
-      <c r="AP25" s="143"/>
-      <c r="AQ25" s="143"/>
-      <c r="AR25" s="143"/>
-      <c r="AS25" s="143"/>
-      <c r="AT25" s="143"/>
-      <c r="AU25" s="143"/>
-      <c r="AV25" s="143"/>
-      <c r="AW25" s="143"/>
-      <c r="AX25" s="143"/>
-      <c r="AY25" s="143"/>
-      <c r="AZ25" s="143"/>
-      <c r="BA25" s="143"/>
-      <c r="BB25" s="143"/>
-      <c r="BC25" s="143"/>
-      <c r="BD25" s="143"/>
-      <c r="BE25" s="143"/>
-      <c r="BF25" s="143"/>
-      <c r="BG25" s="143"/>
-      <c r="BH25" s="143"/>
-      <c r="BI25" s="143"/>
-      <c r="BJ25" s="143"/>
-      <c r="BK25" s="143"/>
-      <c r="BL25" s="143"/>
-      <c r="BM25" s="143"/>
-      <c r="BN25" s="143"/>
-      <c r="BO25" s="143"/>
-      <c r="BP25" s="143"/>
-      <c r="BQ25" s="143"/>
-      <c r="BR25" s="144"/>
+      <c r="AM25" s="150"/>
+      <c r="AN25" s="151"/>
+      <c r="AO25" s="151"/>
+      <c r="AP25" s="151"/>
+      <c r="AQ25" s="151"/>
+      <c r="AR25" s="151"/>
+      <c r="AS25" s="151"/>
+      <c r="AT25" s="151"/>
+      <c r="AU25" s="151"/>
+      <c r="AV25" s="151"/>
+      <c r="AW25" s="151"/>
+      <c r="AX25" s="151"/>
+      <c r="AY25" s="151"/>
+      <c r="AZ25" s="151"/>
+      <c r="BA25" s="151"/>
+      <c r="BB25" s="151"/>
+      <c r="BC25" s="151"/>
+      <c r="BD25" s="151"/>
+      <c r="BE25" s="151"/>
+      <c r="BF25" s="151"/>
+      <c r="BG25" s="151"/>
+      <c r="BH25" s="151"/>
+      <c r="BI25" s="151"/>
+      <c r="BJ25" s="151"/>
+      <c r="BK25" s="151"/>
+      <c r="BL25" s="151"/>
+      <c r="BM25" s="151"/>
+      <c r="BN25" s="151"/>
+      <c r="BO25" s="151"/>
+      <c r="BP25" s="151"/>
+      <c r="BQ25" s="151"/>
+      <c r="BR25" s="152"/>
     </row>
     <row r="26" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="212" t="s">
+      <c r="A26" s="164" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="44"/>
@@ -7435,16 +7423,16 @@
       <c r="BI26" s="126"/>
       <c r="BJ26" s="126"/>
       <c r="BK26" s="127"/>
-      <c r="BL26" s="224"/>
+      <c r="BL26" s="136"/>
       <c r="BM26" s="126"/>
       <c r="BN26" s="126"/>
-      <c r="BO26" s="233"/>
-      <c r="BP26" s="224"/>
+      <c r="BO26" s="146"/>
+      <c r="BP26" s="136"/>
       <c r="BQ26" s="126"/>
-      <c r="BR26" s="226"/>
+      <c r="BR26" s="144"/>
     </row>
     <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="213"/>
+      <c r="A27" s="165"/>
       <c r="B27" s="94"/>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
@@ -7507,16 +7495,16 @@
       <c r="BI27" s="129"/>
       <c r="BJ27" s="129"/>
       <c r="BK27" s="130"/>
-      <c r="BL27" s="225"/>
+      <c r="BL27" s="137"/>
       <c r="BM27" s="129"/>
       <c r="BN27" s="129"/>
-      <c r="BO27" s="234"/>
-      <c r="BP27" s="225"/>
+      <c r="BO27" s="147"/>
+      <c r="BP27" s="137"/>
       <c r="BQ27" s="129"/>
-      <c r="BR27" s="227"/>
+      <c r="BR27" s="145"/>
     </row>
     <row r="28" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="214"/>
+      <c r="A28" s="166"/>
       <c r="B28" s="70"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
@@ -7554,41 +7542,41 @@
       <c r="AJ28" s="68"/>
       <c r="AK28" s="70"/>
       <c r="AL28" s="71"/>
-      <c r="AM28" s="142"/>
-      <c r="AN28" s="143"/>
-      <c r="AO28" s="143"/>
-      <c r="AP28" s="143"/>
-      <c r="AQ28" s="143"/>
-      <c r="AR28" s="143"/>
-      <c r="AS28" s="143"/>
-      <c r="AT28" s="143"/>
-      <c r="AU28" s="143"/>
-      <c r="AV28" s="143"/>
-      <c r="AW28" s="143"/>
-      <c r="AX28" s="143"/>
-      <c r="AY28" s="143"/>
-      <c r="AZ28" s="143"/>
-      <c r="BA28" s="143"/>
-      <c r="BB28" s="143"/>
-      <c r="BC28" s="143"/>
-      <c r="BD28" s="143"/>
-      <c r="BE28" s="143"/>
-      <c r="BF28" s="143"/>
-      <c r="BG28" s="143"/>
-      <c r="BH28" s="143"/>
-      <c r="BI28" s="143"/>
-      <c r="BJ28" s="143"/>
-      <c r="BK28" s="143"/>
-      <c r="BL28" s="143"/>
-      <c r="BM28" s="143"/>
-      <c r="BN28" s="143"/>
-      <c r="BO28" s="143"/>
-      <c r="BP28" s="143"/>
-      <c r="BQ28" s="143"/>
-      <c r="BR28" s="144"/>
+      <c r="AM28" s="150"/>
+      <c r="AN28" s="151"/>
+      <c r="AO28" s="151"/>
+      <c r="AP28" s="151"/>
+      <c r="AQ28" s="151"/>
+      <c r="AR28" s="151"/>
+      <c r="AS28" s="151"/>
+      <c r="AT28" s="151"/>
+      <c r="AU28" s="151"/>
+      <c r="AV28" s="151"/>
+      <c r="AW28" s="151"/>
+      <c r="AX28" s="151"/>
+      <c r="AY28" s="151"/>
+      <c r="AZ28" s="151"/>
+      <c r="BA28" s="151"/>
+      <c r="BB28" s="151"/>
+      <c r="BC28" s="151"/>
+      <c r="BD28" s="151"/>
+      <c r="BE28" s="151"/>
+      <c r="BF28" s="151"/>
+      <c r="BG28" s="151"/>
+      <c r="BH28" s="151"/>
+      <c r="BI28" s="151"/>
+      <c r="BJ28" s="151"/>
+      <c r="BK28" s="151"/>
+      <c r="BL28" s="151"/>
+      <c r="BM28" s="151"/>
+      <c r="BN28" s="151"/>
+      <c r="BO28" s="151"/>
+      <c r="BP28" s="151"/>
+      <c r="BQ28" s="151"/>
+      <c r="BR28" s="152"/>
     </row>
     <row r="29" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="216" t="s">
+      <c r="A29" s="168" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="46"/>
@@ -7653,16 +7641,16 @@
       <c r="BI29" s="126"/>
       <c r="BJ29" s="126"/>
       <c r="BK29" s="127"/>
-      <c r="BL29" s="224"/>
+      <c r="BL29" s="136"/>
       <c r="BM29" s="126"/>
       <c r="BN29" s="126"/>
-      <c r="BO29" s="233"/>
-      <c r="BP29" s="224"/>
+      <c r="BO29" s="146"/>
+      <c r="BP29" s="136"/>
       <c r="BQ29" s="126"/>
-      <c r="BR29" s="226"/>
+      <c r="BR29" s="144"/>
     </row>
     <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="217"/>
+      <c r="A30" s="169"/>
       <c r="B30" s="90"/>
       <c r="C30" s="91"/>
       <c r="D30" s="91"/>
@@ -7725,16 +7713,16 @@
       <c r="BI30" s="129"/>
       <c r="BJ30" s="129"/>
       <c r="BK30" s="130"/>
-      <c r="BL30" s="225"/>
+      <c r="BL30" s="137"/>
       <c r="BM30" s="129"/>
       <c r="BN30" s="129"/>
-      <c r="BO30" s="234"/>
-      <c r="BP30" s="225"/>
+      <c r="BO30" s="147"/>
+      <c r="BP30" s="137"/>
       <c r="BQ30" s="129"/>
-      <c r="BR30" s="227"/>
+      <c r="BR30" s="145"/>
     </row>
     <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="218"/>
+      <c r="A31" s="170"/>
       <c r="B31" s="72"/>
       <c r="C31" s="73"/>
       <c r="D31" s="73"/>
@@ -7772,41 +7760,41 @@
       <c r="AJ31" s="74"/>
       <c r="AK31" s="75"/>
       <c r="AL31" s="76"/>
-      <c r="AM31" s="142"/>
-      <c r="AN31" s="143"/>
-      <c r="AO31" s="143"/>
-      <c r="AP31" s="143"/>
-      <c r="AQ31" s="143"/>
-      <c r="AR31" s="143"/>
-      <c r="AS31" s="143"/>
-      <c r="AT31" s="143"/>
-      <c r="AU31" s="143"/>
-      <c r="AV31" s="143"/>
-      <c r="AW31" s="143"/>
-      <c r="AX31" s="143"/>
-      <c r="AY31" s="143"/>
-      <c r="AZ31" s="143"/>
-      <c r="BA31" s="143"/>
-      <c r="BB31" s="143"/>
-      <c r="BC31" s="143"/>
-      <c r="BD31" s="143"/>
-      <c r="BE31" s="143"/>
-      <c r="BF31" s="143"/>
-      <c r="BG31" s="143"/>
-      <c r="BH31" s="143"/>
-      <c r="BI31" s="143"/>
-      <c r="BJ31" s="143"/>
-      <c r="BK31" s="143"/>
-      <c r="BL31" s="143"/>
-      <c r="BM31" s="143"/>
-      <c r="BN31" s="143"/>
-      <c r="BO31" s="143"/>
-      <c r="BP31" s="143"/>
-      <c r="BQ31" s="143"/>
-      <c r="BR31" s="144"/>
+      <c r="AM31" s="150"/>
+      <c r="AN31" s="151"/>
+      <c r="AO31" s="151"/>
+      <c r="AP31" s="151"/>
+      <c r="AQ31" s="151"/>
+      <c r="AR31" s="151"/>
+      <c r="AS31" s="151"/>
+      <c r="AT31" s="151"/>
+      <c r="AU31" s="151"/>
+      <c r="AV31" s="151"/>
+      <c r="AW31" s="151"/>
+      <c r="AX31" s="151"/>
+      <c r="AY31" s="151"/>
+      <c r="AZ31" s="151"/>
+      <c r="BA31" s="151"/>
+      <c r="BB31" s="151"/>
+      <c r="BC31" s="151"/>
+      <c r="BD31" s="151"/>
+      <c r="BE31" s="151"/>
+      <c r="BF31" s="151"/>
+      <c r="BG31" s="151"/>
+      <c r="BH31" s="151"/>
+      <c r="BI31" s="151"/>
+      <c r="BJ31" s="151"/>
+      <c r="BK31" s="151"/>
+      <c r="BL31" s="151"/>
+      <c r="BM31" s="151"/>
+      <c r="BN31" s="151"/>
+      <c r="BO31" s="151"/>
+      <c r="BP31" s="151"/>
+      <c r="BQ31" s="151"/>
+      <c r="BR31" s="152"/>
     </row>
     <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="216" t="s">
+      <c r="A32" s="168" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="44"/>
@@ -7871,16 +7859,16 @@
       <c r="BI32" s="126"/>
       <c r="BJ32" s="126"/>
       <c r="BK32" s="127"/>
-      <c r="BL32" s="224"/>
+      <c r="BL32" s="136"/>
       <c r="BM32" s="126"/>
       <c r="BN32" s="126"/>
-      <c r="BO32" s="233"/>
-      <c r="BP32" s="224"/>
+      <c r="BO32" s="146"/>
+      <c r="BP32" s="136"/>
       <c r="BQ32" s="126"/>
-      <c r="BR32" s="226"/>
+      <c r="BR32" s="144"/>
     </row>
     <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="217"/>
+      <c r="A33" s="169"/>
       <c r="B33" s="94"/>
       <c r="C33" s="91"/>
       <c r="D33" s="91"/>
@@ -7943,16 +7931,16 @@
       <c r="BI33" s="129"/>
       <c r="BJ33" s="129"/>
       <c r="BK33" s="130"/>
-      <c r="BL33" s="225"/>
+      <c r="BL33" s="137"/>
       <c r="BM33" s="129"/>
       <c r="BN33" s="129"/>
-      <c r="BO33" s="234"/>
-      <c r="BP33" s="225"/>
+      <c r="BO33" s="147"/>
+      <c r="BP33" s="137"/>
       <c r="BQ33" s="129"/>
-      <c r="BR33" s="227"/>
+      <c r="BR33" s="145"/>
     </row>
     <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="218"/>
+      <c r="A34" s="170"/>
       <c r="B34" s="70"/>
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
@@ -7990,41 +7978,41 @@
       <c r="AJ34" s="68"/>
       <c r="AK34" s="70"/>
       <c r="AL34" s="71"/>
-      <c r="AM34" s="142"/>
-      <c r="AN34" s="143"/>
-      <c r="AO34" s="143"/>
-      <c r="AP34" s="143"/>
-      <c r="AQ34" s="143"/>
-      <c r="AR34" s="143"/>
-      <c r="AS34" s="143"/>
-      <c r="AT34" s="143"/>
-      <c r="AU34" s="143"/>
-      <c r="AV34" s="143"/>
-      <c r="AW34" s="143"/>
-      <c r="AX34" s="143"/>
-      <c r="AY34" s="143"/>
-      <c r="AZ34" s="143"/>
-      <c r="BA34" s="143"/>
-      <c r="BB34" s="143"/>
-      <c r="BC34" s="143"/>
-      <c r="BD34" s="143"/>
-      <c r="BE34" s="143"/>
-      <c r="BF34" s="143"/>
-      <c r="BG34" s="143"/>
-      <c r="BH34" s="143"/>
-      <c r="BI34" s="143"/>
-      <c r="BJ34" s="143"/>
-      <c r="BK34" s="143"/>
-      <c r="BL34" s="143"/>
-      <c r="BM34" s="143"/>
-      <c r="BN34" s="143"/>
-      <c r="BO34" s="143"/>
-      <c r="BP34" s="143"/>
-      <c r="BQ34" s="143"/>
-      <c r="BR34" s="144"/>
+      <c r="AM34" s="150"/>
+      <c r="AN34" s="151"/>
+      <c r="AO34" s="151"/>
+      <c r="AP34" s="151"/>
+      <c r="AQ34" s="151"/>
+      <c r="AR34" s="151"/>
+      <c r="AS34" s="151"/>
+      <c r="AT34" s="151"/>
+      <c r="AU34" s="151"/>
+      <c r="AV34" s="151"/>
+      <c r="AW34" s="151"/>
+      <c r="AX34" s="151"/>
+      <c r="AY34" s="151"/>
+      <c r="AZ34" s="151"/>
+      <c r="BA34" s="151"/>
+      <c r="BB34" s="151"/>
+      <c r="BC34" s="151"/>
+      <c r="BD34" s="151"/>
+      <c r="BE34" s="151"/>
+      <c r="BF34" s="151"/>
+      <c r="BG34" s="151"/>
+      <c r="BH34" s="151"/>
+      <c r="BI34" s="151"/>
+      <c r="BJ34" s="151"/>
+      <c r="BK34" s="151"/>
+      <c r="BL34" s="151"/>
+      <c r="BM34" s="151"/>
+      <c r="BN34" s="151"/>
+      <c r="BO34" s="151"/>
+      <c r="BP34" s="151"/>
+      <c r="BQ34" s="151"/>
+      <c r="BR34" s="152"/>
     </row>
     <row r="35" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="212" t="s">
+      <c r="A35" s="164" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="51"/>
@@ -8089,16 +8077,16 @@
       <c r="BI35" s="126"/>
       <c r="BJ35" s="126"/>
       <c r="BK35" s="127"/>
-      <c r="BL35" s="224"/>
+      <c r="BL35" s="136"/>
       <c r="BM35" s="126"/>
       <c r="BN35" s="126"/>
-      <c r="BO35" s="233"/>
-      <c r="BP35" s="224"/>
+      <c r="BO35" s="146"/>
+      <c r="BP35" s="136"/>
       <c r="BQ35" s="126"/>
-      <c r="BR35" s="226"/>
+      <c r="BR35" s="144"/>
     </row>
     <row r="36" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="213"/>
+      <c r="A36" s="165"/>
       <c r="B36" s="94"/>
       <c r="C36" s="91"/>
       <c r="D36" s="91"/>
@@ -8161,16 +8149,16 @@
       <c r="BI36" s="129"/>
       <c r="BJ36" s="129"/>
       <c r="BK36" s="130"/>
-      <c r="BL36" s="225"/>
+      <c r="BL36" s="137"/>
       <c r="BM36" s="129"/>
       <c r="BN36" s="129"/>
-      <c r="BO36" s="234"/>
-      <c r="BP36" s="225"/>
+      <c r="BO36" s="147"/>
+      <c r="BP36" s="137"/>
       <c r="BQ36" s="129"/>
-      <c r="BR36" s="227"/>
+      <c r="BR36" s="145"/>
     </row>
     <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="214"/>
+      <c r="A37" s="166"/>
       <c r="B37" s="75"/>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -8208,41 +8196,41 @@
       <c r="AJ37" s="74"/>
       <c r="AK37" s="75"/>
       <c r="AL37" s="76"/>
-      <c r="AM37" s="142"/>
-      <c r="AN37" s="143"/>
-      <c r="AO37" s="143"/>
-      <c r="AP37" s="143"/>
-      <c r="AQ37" s="143"/>
-      <c r="AR37" s="143"/>
-      <c r="AS37" s="143"/>
-      <c r="AT37" s="143"/>
-      <c r="AU37" s="143"/>
-      <c r="AV37" s="143"/>
-      <c r="AW37" s="143"/>
-      <c r="AX37" s="143"/>
-      <c r="AY37" s="143"/>
-      <c r="AZ37" s="143"/>
-      <c r="BA37" s="143"/>
-      <c r="BB37" s="143"/>
-      <c r="BC37" s="143"/>
-      <c r="BD37" s="143"/>
-      <c r="BE37" s="143"/>
-      <c r="BF37" s="143"/>
-      <c r="BG37" s="143"/>
-      <c r="BH37" s="143"/>
-      <c r="BI37" s="143"/>
-      <c r="BJ37" s="143"/>
-      <c r="BK37" s="143"/>
-      <c r="BL37" s="143"/>
-      <c r="BM37" s="143"/>
-      <c r="BN37" s="143"/>
-      <c r="BO37" s="143"/>
-      <c r="BP37" s="143"/>
-      <c r="BQ37" s="143"/>
-      <c r="BR37" s="144"/>
+      <c r="AM37" s="150"/>
+      <c r="AN37" s="151"/>
+      <c r="AO37" s="151"/>
+      <c r="AP37" s="151"/>
+      <c r="AQ37" s="151"/>
+      <c r="AR37" s="151"/>
+      <c r="AS37" s="151"/>
+      <c r="AT37" s="151"/>
+      <c r="AU37" s="151"/>
+      <c r="AV37" s="151"/>
+      <c r="AW37" s="151"/>
+      <c r="AX37" s="151"/>
+      <c r="AY37" s="151"/>
+      <c r="AZ37" s="151"/>
+      <c r="BA37" s="151"/>
+      <c r="BB37" s="151"/>
+      <c r="BC37" s="151"/>
+      <c r="BD37" s="151"/>
+      <c r="BE37" s="151"/>
+      <c r="BF37" s="151"/>
+      <c r="BG37" s="151"/>
+      <c r="BH37" s="151"/>
+      <c r="BI37" s="151"/>
+      <c r="BJ37" s="151"/>
+      <c r="BK37" s="151"/>
+      <c r="BL37" s="151"/>
+      <c r="BM37" s="151"/>
+      <c r="BN37" s="151"/>
+      <c r="BO37" s="151"/>
+      <c r="BP37" s="151"/>
+      <c r="BQ37" s="151"/>
+      <c r="BR37" s="152"/>
     </row>
     <row r="38" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="212" t="s">
+      <c r="A38" s="164" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="56"/>
@@ -8307,16 +8295,16 @@
       <c r="BI38" s="126"/>
       <c r="BJ38" s="126"/>
       <c r="BK38" s="127"/>
-      <c r="BL38" s="224"/>
+      <c r="BL38" s="136"/>
       <c r="BM38" s="126"/>
       <c r="BN38" s="126"/>
-      <c r="BO38" s="233"/>
-      <c r="BP38" s="224"/>
+      <c r="BO38" s="146"/>
+      <c r="BP38" s="136"/>
       <c r="BQ38" s="126"/>
-      <c r="BR38" s="226"/>
+      <c r="BR38" s="144"/>
     </row>
     <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="213"/>
+      <c r="A39" s="165"/>
       <c r="B39" s="94"/>
       <c r="C39" s="91"/>
       <c r="D39" s="91"/>
@@ -8379,16 +8367,16 @@
       <c r="BI39" s="129"/>
       <c r="BJ39" s="129"/>
       <c r="BK39" s="130"/>
-      <c r="BL39" s="225"/>
+      <c r="BL39" s="137"/>
       <c r="BM39" s="129"/>
       <c r="BN39" s="129"/>
-      <c r="BO39" s="234"/>
-      <c r="BP39" s="225"/>
+      <c r="BO39" s="147"/>
+      <c r="BP39" s="137"/>
       <c r="BQ39" s="129"/>
-      <c r="BR39" s="227"/>
+      <c r="BR39" s="145"/>
     </row>
     <row r="40" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="214"/>
+      <c r="A40" s="166"/>
       <c r="B40" s="70"/>
       <c r="C40" s="67"/>
       <c r="D40" s="67"/>
@@ -8426,41 +8414,41 @@
       <c r="AJ40" s="68"/>
       <c r="AK40" s="70"/>
       <c r="AL40" s="71"/>
-      <c r="AM40" s="142"/>
-      <c r="AN40" s="143"/>
-      <c r="AO40" s="143"/>
-      <c r="AP40" s="143"/>
-      <c r="AQ40" s="143"/>
-      <c r="AR40" s="143"/>
-      <c r="AS40" s="143"/>
-      <c r="AT40" s="143"/>
-      <c r="AU40" s="143"/>
-      <c r="AV40" s="143"/>
-      <c r="AW40" s="143"/>
-      <c r="AX40" s="143"/>
-      <c r="AY40" s="143"/>
-      <c r="AZ40" s="143"/>
-      <c r="BA40" s="143"/>
-      <c r="BB40" s="143"/>
-      <c r="BC40" s="143"/>
-      <c r="BD40" s="143"/>
-      <c r="BE40" s="143"/>
-      <c r="BF40" s="143"/>
-      <c r="BG40" s="143"/>
-      <c r="BH40" s="143"/>
-      <c r="BI40" s="143"/>
-      <c r="BJ40" s="143"/>
-      <c r="BK40" s="143"/>
-      <c r="BL40" s="143"/>
-      <c r="BM40" s="143"/>
-      <c r="BN40" s="143"/>
-      <c r="BO40" s="143"/>
-      <c r="BP40" s="143"/>
-      <c r="BQ40" s="143"/>
-      <c r="BR40" s="144"/>
+      <c r="AM40" s="150"/>
+      <c r="AN40" s="151"/>
+      <c r="AO40" s="151"/>
+      <c r="AP40" s="151"/>
+      <c r="AQ40" s="151"/>
+      <c r="AR40" s="151"/>
+      <c r="AS40" s="151"/>
+      <c r="AT40" s="151"/>
+      <c r="AU40" s="151"/>
+      <c r="AV40" s="151"/>
+      <c r="AW40" s="151"/>
+      <c r="AX40" s="151"/>
+      <c r="AY40" s="151"/>
+      <c r="AZ40" s="151"/>
+      <c r="BA40" s="151"/>
+      <c r="BB40" s="151"/>
+      <c r="BC40" s="151"/>
+      <c r="BD40" s="151"/>
+      <c r="BE40" s="151"/>
+      <c r="BF40" s="151"/>
+      <c r="BG40" s="151"/>
+      <c r="BH40" s="151"/>
+      <c r="BI40" s="151"/>
+      <c r="BJ40" s="151"/>
+      <c r="BK40" s="151"/>
+      <c r="BL40" s="151"/>
+      <c r="BM40" s="151"/>
+      <c r="BN40" s="151"/>
+      <c r="BO40" s="151"/>
+      <c r="BP40" s="151"/>
+      <c r="BQ40" s="151"/>
+      <c r="BR40" s="152"/>
     </row>
     <row r="41" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="212" t="s">
+      <c r="A41" s="164" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="49"/>
@@ -8525,16 +8513,16 @@
       <c r="BI41" s="126"/>
       <c r="BJ41" s="126"/>
       <c r="BK41" s="127"/>
-      <c r="BL41" s="224"/>
+      <c r="BL41" s="136"/>
       <c r="BM41" s="126"/>
       <c r="BN41" s="126"/>
-      <c r="BO41" s="233"/>
-      <c r="BP41" s="224"/>
+      <c r="BO41" s="146"/>
+      <c r="BP41" s="136"/>
       <c r="BQ41" s="126"/>
-      <c r="BR41" s="226"/>
+      <c r="BR41" s="144"/>
     </row>
     <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="213"/>
+      <c r="A42" s="165"/>
       <c r="B42" s="94"/>
       <c r="C42" s="91"/>
       <c r="D42" s="91"/>
@@ -8597,16 +8585,16 @@
       <c r="BI42" s="129"/>
       <c r="BJ42" s="129"/>
       <c r="BK42" s="130"/>
-      <c r="BL42" s="225"/>
+      <c r="BL42" s="137"/>
       <c r="BM42" s="129"/>
       <c r="BN42" s="129"/>
-      <c r="BO42" s="234"/>
-      <c r="BP42" s="225"/>
+      <c r="BO42" s="147"/>
+      <c r="BP42" s="137"/>
       <c r="BQ42" s="129"/>
-      <c r="BR42" s="227"/>
+      <c r="BR42" s="145"/>
     </row>
     <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="215"/>
+      <c r="A43" s="167"/>
       <c r="B43" s="79"/>
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
@@ -8644,44 +8632,44 @@
       <c r="AJ43" s="82"/>
       <c r="AK43" s="79"/>
       <c r="AL43" s="83"/>
-      <c r="AM43" s="136"/>
-      <c r="AN43" s="137"/>
-      <c r="AO43" s="137"/>
-      <c r="AP43" s="137"/>
-      <c r="AQ43" s="137"/>
-      <c r="AR43" s="137"/>
-      <c r="AS43" s="137"/>
-      <c r="AT43" s="137"/>
-      <c r="AU43" s="137"/>
-      <c r="AV43" s="137"/>
-      <c r="AW43" s="137"/>
-      <c r="AX43" s="137"/>
-      <c r="AY43" s="137"/>
-      <c r="AZ43" s="137"/>
-      <c r="BA43" s="137"/>
-      <c r="BB43" s="137"/>
-      <c r="BC43" s="137"/>
-      <c r="BD43" s="137"/>
-      <c r="BE43" s="137"/>
-      <c r="BF43" s="137"/>
-      <c r="BG43" s="137"/>
-      <c r="BH43" s="137"/>
-      <c r="BI43" s="137"/>
-      <c r="BJ43" s="137"/>
-      <c r="BK43" s="137"/>
-      <c r="BL43" s="137"/>
-      <c r="BM43" s="137"/>
-      <c r="BN43" s="137"/>
-      <c r="BO43" s="137"/>
-      <c r="BP43" s="137"/>
-      <c r="BQ43" s="137"/>
-      <c r="BR43" s="138"/>
+      <c r="AM43" s="209"/>
+      <c r="AN43" s="210"/>
+      <c r="AO43" s="210"/>
+      <c r="AP43" s="210"/>
+      <c r="AQ43" s="210"/>
+      <c r="AR43" s="210"/>
+      <c r="AS43" s="210"/>
+      <c r="AT43" s="210"/>
+      <c r="AU43" s="210"/>
+      <c r="AV43" s="210"/>
+      <c r="AW43" s="210"/>
+      <c r="AX43" s="210"/>
+      <c r="AY43" s="210"/>
+      <c r="AZ43" s="210"/>
+      <c r="BA43" s="210"/>
+      <c r="BB43" s="210"/>
+      <c r="BC43" s="210"/>
+      <c r="BD43" s="210"/>
+      <c r="BE43" s="210"/>
+      <c r="BF43" s="210"/>
+      <c r="BG43" s="210"/>
+      <c r="BH43" s="210"/>
+      <c r="BI43" s="210"/>
+      <c r="BJ43" s="210"/>
+      <c r="BK43" s="210"/>
+      <c r="BL43" s="210"/>
+      <c r="BM43" s="210"/>
+      <c r="BN43" s="210"/>
+      <c r="BO43" s="210"/>
+      <c r="BP43" s="210"/>
+      <c r="BQ43" s="210"/>
+      <c r="BR43" s="211"/>
     </row>
     <row r="44" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="186" t="s">
+      <c r="A44" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="187"/>
+      <c r="B44" s="195"/>
       <c r="C44" s="3" t="s">
         <v>62</v>
       </c>
@@ -8717,11 +8705,11 @@
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
       <c r="AI44" s="78"/>
-      <c r="AJ44" s="188" t="s">
+      <c r="AJ44" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="AK44" s="189"/>
-      <c r="AL44" s="190"/>
+      <c r="AK44" s="197"/>
+      <c r="AL44" s="198"/>
       <c r="AM44" s="32"/>
       <c r="AN44" s="33"/>
       <c r="AO44" s="34"/>
@@ -8853,76 +8841,76 @@
       </c>
       <c r="B47" s="191"/>
       <c r="C47" s="191"/>
-      <c r="D47" s="192" t="s">
+      <c r="D47" s="183" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="193"/>
-      <c r="F47" s="193"/>
+      <c r="E47" s="184"/>
+      <c r="F47" s="184"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="192" t="s">
+      <c r="H47" s="183" t="s">
         <v>66</v>
       </c>
-      <c r="I47" s="193"/>
-      <c r="J47" s="193"/>
+      <c r="I47" s="184"/>
+      <c r="J47" s="184"/>
       <c r="K47" s="15"/>
-      <c r="L47" s="192" t="s">
+      <c r="L47" s="183" t="s">
         <v>67</v>
       </c>
-      <c r="M47" s="193"/>
-      <c r="N47" s="193"/>
+      <c r="M47" s="184"/>
+      <c r="N47" s="184"/>
       <c r="O47" s="15"/>
-      <c r="P47" s="192" t="s">
+      <c r="P47" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="Q47" s="193"/>
-      <c r="R47" s="193"/>
+      <c r="Q47" s="184"/>
+      <c r="R47" s="184"/>
       <c r="S47" s="15"/>
-      <c r="T47" s="192" t="s">
+      <c r="T47" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="U47" s="193"/>
-      <c r="V47" s="193"/>
+      <c r="U47" s="184"/>
+      <c r="V47" s="184"/>
       <c r="W47" s="15"/>
-      <c r="X47" s="192" t="s">
+      <c r="X47" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="Y47" s="193"/>
-      <c r="Z47" s="193"/>
+      <c r="Y47" s="184"/>
+      <c r="Z47" s="184"/>
       <c r="AA47" s="15"/>
-      <c r="AM47" s="194" t="s">
+      <c r="AM47" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="AN47" s="194"/>
-      <c r="AO47" s="194"/>
-      <c r="AP47" s="180"/>
-      <c r="AQ47" s="180"/>
-      <c r="AR47" s="180"/>
-      <c r="AS47" s="180"/>
-      <c r="AT47" s="180"/>
-      <c r="AU47" s="180"/>
-      <c r="AV47" s="180"/>
-      <c r="AW47" s="181"/>
+      <c r="AN47" s="189"/>
+      <c r="AO47" s="189"/>
+      <c r="AP47" s="192"/>
+      <c r="AQ47" s="192"/>
+      <c r="AR47" s="192"/>
+      <c r="AS47" s="192"/>
+      <c r="AT47" s="192"/>
+      <c r="AU47" s="192"/>
+      <c r="AV47" s="192"/>
+      <c r="AW47" s="193"/>
       <c r="AX47" s="11"/>
       <c r="AY47" s="11"/>
       <c r="AZ47" s="11"/>
-      <c r="BC47" s="182" t="s">
+      <c r="BC47" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="BD47" s="182"/>
-      <c r="BE47" s="182"/>
-      <c r="BF47" s="182"/>
-      <c r="BG47" s="182"/>
-      <c r="BH47" s="182"/>
-      <c r="BI47" s="182"/>
-      <c r="BJ47" s="182"/>
-      <c r="BK47" s="183"/>
-      <c r="BL47" s="184"/>
-      <c r="BM47" s="184"/>
-      <c r="BN47" s="184"/>
-      <c r="BO47" s="184"/>
-      <c r="BP47" s="184"/>
-      <c r="BQ47" s="184"/>
-      <c r="BR47" s="185"/>
+      <c r="BD47" s="176"/>
+      <c r="BE47" s="176"/>
+      <c r="BF47" s="176"/>
+      <c r="BG47" s="176"/>
+      <c r="BH47" s="176"/>
+      <c r="BI47" s="176"/>
+      <c r="BJ47" s="176"/>
+      <c r="BK47" s="177"/>
+      <c r="BL47" s="178"/>
+      <c r="BM47" s="178"/>
+      <c r="BN47" s="178"/>
+      <c r="BO47" s="178"/>
+      <c r="BP47" s="178"/>
+      <c r="BQ47" s="178"/>
+      <c r="BR47" s="179"/>
     </row>
     <row r="48" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="191" t="s">
@@ -8930,71 +8918,71 @@
       </c>
       <c r="B48" s="191"/>
       <c r="C48" s="191"/>
-      <c r="D48" s="192" t="s">
+      <c r="D48" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="193"/>
-      <c r="F48" s="193"/>
+      <c r="E48" s="184"/>
+      <c r="F48" s="184"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="192" t="s">
+      <c r="H48" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="I48" s="193"/>
-      <c r="J48" s="193"/>
+      <c r="I48" s="184"/>
+      <c r="J48" s="184"/>
       <c r="K48" s="15"/>
-      <c r="L48" s="192" t="s">
+      <c r="L48" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="M48" s="193"/>
-      <c r="N48" s="193"/>
+      <c r="M48" s="184"/>
+      <c r="N48" s="184"/>
       <c r="O48" s="15"/>
-      <c r="P48" s="192"/>
-      <c r="Q48" s="193"/>
-      <c r="R48" s="193"/>
+      <c r="P48" s="183"/>
+      <c r="Q48" s="184"/>
+      <c r="R48" s="184"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="192"/>
-      <c r="U48" s="193"/>
-      <c r="V48" s="193"/>
+      <c r="T48" s="183"/>
+      <c r="U48" s="184"/>
+      <c r="V48" s="184"/>
       <c r="W48" s="15"/>
-      <c r="X48" s="192"/>
-      <c r="Y48" s="193"/>
-      <c r="Z48" s="193"/>
+      <c r="X48" s="183"/>
+      <c r="Y48" s="184"/>
+      <c r="Z48" s="184"/>
       <c r="AA48" s="15"/>
       <c r="AB48" s="1"/>
-      <c r="AM48" s="194" t="s">
+      <c r="AM48" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="AN48" s="194"/>
-      <c r="AO48" s="194"/>
-      <c r="AP48" s="195"/>
-      <c r="AQ48" s="195"/>
-      <c r="AR48" s="195"/>
-      <c r="AS48" s="195"/>
-      <c r="AT48" s="195"/>
-      <c r="AU48" s="195"/>
-      <c r="AV48" s="195"/>
-      <c r="AW48" s="195"/>
+      <c r="AN48" s="189"/>
+      <c r="AO48" s="189"/>
+      <c r="AP48" s="190"/>
+      <c r="AQ48" s="190"/>
+      <c r="AR48" s="190"/>
+      <c r="AS48" s="190"/>
+      <c r="AT48" s="190"/>
+      <c r="AU48" s="190"/>
+      <c r="AV48" s="190"/>
+      <c r="AW48" s="190"/>
       <c r="AX48" s="11"/>
       <c r="AY48" s="11"/>
       <c r="AZ48" s="11"/>
-      <c r="BC48" s="182" t="s">
+      <c r="BC48" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="BD48" s="182"/>
-      <c r="BE48" s="182"/>
-      <c r="BF48" s="182"/>
-      <c r="BG48" s="182"/>
-      <c r="BH48" s="182"/>
-      <c r="BI48" s="182"/>
-      <c r="BJ48" s="182"/>
-      <c r="BK48" s="183"/>
-      <c r="BL48" s="184"/>
-      <c r="BM48" s="184"/>
-      <c r="BN48" s="184"/>
-      <c r="BO48" s="184"/>
-      <c r="BP48" s="184"/>
-      <c r="BQ48" s="184"/>
-      <c r="BR48" s="185"/>
+      <c r="BD48" s="176"/>
+      <c r="BE48" s="176"/>
+      <c r="BF48" s="176"/>
+      <c r="BG48" s="176"/>
+      <c r="BH48" s="176"/>
+      <c r="BI48" s="176"/>
+      <c r="BJ48" s="176"/>
+      <c r="BK48" s="177"/>
+      <c r="BL48" s="178"/>
+      <c r="BM48" s="178"/>
+      <c r="BN48" s="178"/>
+      <c r="BO48" s="178"/>
+      <c r="BP48" s="178"/>
+      <c r="BQ48" s="178"/>
+      <c r="BR48" s="179"/>
     </row>
     <row r="49" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="191" t="s">
@@ -9002,266 +8990,266 @@
       </c>
       <c r="B49" s="191"/>
       <c r="C49" s="191"/>
-      <c r="D49" s="192" t="s">
+      <c r="D49" s="183" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="193"/>
-      <c r="F49" s="193"/>
+      <c r="E49" s="184"/>
+      <c r="F49" s="184"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="192" t="s">
+      <c r="H49" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="I49" s="193"/>
-      <c r="J49" s="193"/>
+      <c r="I49" s="184"/>
+      <c r="J49" s="184"/>
       <c r="K49" s="15"/>
-      <c r="L49" s="192" t="s">
+      <c r="L49" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="M49" s="193"/>
-      <c r="N49" s="193"/>
+      <c r="M49" s="184"/>
+      <c r="N49" s="184"/>
       <c r="O49" s="15"/>
-      <c r="P49" s="192" t="s">
+      <c r="P49" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="Q49" s="193"/>
-      <c r="R49" s="193"/>
+      <c r="Q49" s="184"/>
+      <c r="R49" s="184"/>
       <c r="S49" s="15"/>
-      <c r="T49" s="192" t="s">
+      <c r="T49" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="U49" s="193"/>
-      <c r="V49" s="193"/>
+      <c r="U49" s="184"/>
+      <c r="V49" s="184"/>
       <c r="W49" s="15"/>
-      <c r="X49" s="192" t="s">
+      <c r="X49" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="Y49" s="193"/>
-      <c r="Z49" s="193"/>
+      <c r="Y49" s="184"/>
+      <c r="Z49" s="184"/>
       <c r="AA49" s="15"/>
       <c r="AJ49" s="4"/>
-      <c r="AM49" s="194" t="s">
+      <c r="AM49" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="AN49" s="194"/>
-      <c r="AO49" s="194"/>
-      <c r="AP49" s="195"/>
-      <c r="AQ49" s="195"/>
-      <c r="AR49" s="195"/>
-      <c r="AS49" s="195"/>
-      <c r="AT49" s="195"/>
-      <c r="AU49" s="195"/>
-      <c r="AV49" s="195"/>
-      <c r="AW49" s="195"/>
+      <c r="AN49" s="189"/>
+      <c r="AO49" s="189"/>
+      <c r="AP49" s="190"/>
+      <c r="AQ49" s="190"/>
+      <c r="AR49" s="190"/>
+      <c r="AS49" s="190"/>
+      <c r="AT49" s="190"/>
+      <c r="AU49" s="190"/>
+      <c r="AV49" s="190"/>
+      <c r="AW49" s="190"/>
       <c r="AX49" s="11"/>
       <c r="AY49" s="11"/>
       <c r="AZ49" s="11"/>
-      <c r="BC49" s="182" t="s">
+      <c r="BC49" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="BD49" s="182"/>
-      <c r="BE49" s="182"/>
-      <c r="BF49" s="182"/>
-      <c r="BG49" s="182"/>
-      <c r="BH49" s="182"/>
-      <c r="BI49" s="182"/>
-      <c r="BJ49" s="182"/>
-      <c r="BK49" s="183"/>
-      <c r="BL49" s="184"/>
-      <c r="BM49" s="184"/>
-      <c r="BN49" s="184"/>
-      <c r="BO49" s="184"/>
-      <c r="BP49" s="184"/>
-      <c r="BQ49" s="184"/>
-      <c r="BR49" s="185"/>
+      <c r="BD49" s="176"/>
+      <c r="BE49" s="176"/>
+      <c r="BF49" s="176"/>
+      <c r="BG49" s="176"/>
+      <c r="BH49" s="176"/>
+      <c r="BI49" s="176"/>
+      <c r="BJ49" s="176"/>
+      <c r="BK49" s="177"/>
+      <c r="BL49" s="178"/>
+      <c r="BM49" s="178"/>
+      <c r="BN49" s="178"/>
+      <c r="BO49" s="178"/>
+      <c r="BP49" s="178"/>
+      <c r="BQ49" s="178"/>
+      <c r="BR49" s="179"/>
     </row>
     <row r="50" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="191"/>
       <c r="B50" s="191"/>
       <c r="C50" s="191"/>
-      <c r="D50" s="192" t="s">
+      <c r="D50" s="183" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="193"/>
-      <c r="F50" s="193"/>
+      <c r="E50" s="184"/>
+      <c r="F50" s="184"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="192" t="s">
+      <c r="H50" s="183" t="s">
         <v>89</v>
       </c>
-      <c r="I50" s="193"/>
-      <c r="J50" s="193"/>
+      <c r="I50" s="184"/>
+      <c r="J50" s="184"/>
       <c r="K50" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L50" s="192" t="s">
+      <c r="L50" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="M50" s="193"/>
-      <c r="N50" s="193"/>
+      <c r="M50" s="184"/>
+      <c r="N50" s="184"/>
       <c r="O50" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="P50" s="192"/>
-      <c r="Q50" s="193"/>
-      <c r="R50" s="193"/>
+      <c r="P50" s="183"/>
+      <c r="Q50" s="184"/>
+      <c r="R50" s="184"/>
       <c r="S50" s="15"/>
-      <c r="T50" s="192"/>
-      <c r="U50" s="193"/>
-      <c r="V50" s="193"/>
+      <c r="T50" s="183"/>
+      <c r="U50" s="184"/>
+      <c r="V50" s="184"/>
       <c r="W50" s="15"/>
-      <c r="X50" s="192"/>
-      <c r="Y50" s="193"/>
-      <c r="Z50" s="193"/>
+      <c r="X50" s="183"/>
+      <c r="Y50" s="184"/>
+      <c r="Z50" s="184"/>
       <c r="AA50" s="15"/>
       <c r="AB50" s="1"/>
-      <c r="AM50" s="194" t="s">
+      <c r="AM50" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="AN50" s="194"/>
-      <c r="AO50" s="194"/>
-      <c r="AP50" s="195"/>
-      <c r="AQ50" s="195"/>
-      <c r="AR50" s="195"/>
-      <c r="AS50" s="195"/>
-      <c r="AT50" s="195"/>
-      <c r="AU50" s="195"/>
-      <c r="AV50" s="195"/>
-      <c r="AW50" s="195"/>
+      <c r="AN50" s="189"/>
+      <c r="AO50" s="189"/>
+      <c r="AP50" s="190"/>
+      <c r="AQ50" s="190"/>
+      <c r="AR50" s="190"/>
+      <c r="AS50" s="190"/>
+      <c r="AT50" s="190"/>
+      <c r="AU50" s="190"/>
+      <c r="AV50" s="190"/>
+      <c r="AW50" s="190"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="11"/>
       <c r="AZ50" s="11"/>
-      <c r="BC50" s="182" t="s">
+      <c r="BC50" s="176" t="s">
         <v>94</v>
       </c>
-      <c r="BD50" s="182"/>
-      <c r="BE50" s="182"/>
-      <c r="BF50" s="182"/>
-      <c r="BG50" s="182"/>
-      <c r="BH50" s="182"/>
-      <c r="BI50" s="182"/>
-      <c r="BJ50" s="182"/>
-      <c r="BK50" s="183"/>
-      <c r="BL50" s="184"/>
-      <c r="BM50" s="184"/>
-      <c r="BN50" s="184"/>
-      <c r="BO50" s="184"/>
-      <c r="BP50" s="184"/>
-      <c r="BQ50" s="184"/>
-      <c r="BR50" s="185"/>
+      <c r="BD50" s="176"/>
+      <c r="BE50" s="176"/>
+      <c r="BF50" s="176"/>
+      <c r="BG50" s="176"/>
+      <c r="BH50" s="176"/>
+      <c r="BI50" s="176"/>
+      <c r="BJ50" s="176"/>
+      <c r="BK50" s="177"/>
+      <c r="BL50" s="178"/>
+      <c r="BM50" s="178"/>
+      <c r="BN50" s="178"/>
+      <c r="BO50" s="178"/>
+      <c r="BP50" s="178"/>
+      <c r="BQ50" s="178"/>
+      <c r="BR50" s="179"/>
     </row>
     <row r="51" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="196" t="s">
+      <c r="A51" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="197"/>
-      <c r="C51" s="198"/>
-      <c r="D51" s="192" t="s">
+      <c r="B51" s="181"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="183" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
+      <c r="E51" s="184"/>
+      <c r="F51" s="184"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="192" t="s">
+      <c r="H51" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="I51" s="193"/>
-      <c r="J51" s="193"/>
+      <c r="I51" s="184"/>
+      <c r="J51" s="184"/>
       <c r="K51" s="15"/>
-      <c r="L51" s="192" t="s">
+      <c r="L51" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="M51" s="193"/>
-      <c r="N51" s="193"/>
+      <c r="M51" s="184"/>
+      <c r="N51" s="184"/>
       <c r="O51" s="15"/>
-      <c r="P51" s="192"/>
-      <c r="Q51" s="193"/>
-      <c r="R51" s="193"/>
+      <c r="P51" s="183"/>
+      <c r="Q51" s="184"/>
+      <c r="R51" s="184"/>
       <c r="S51" s="15"/>
-      <c r="T51" s="192"/>
-      <c r="U51" s="193"/>
-      <c r="V51" s="193"/>
+      <c r="T51" s="183"/>
+      <c r="U51" s="184"/>
+      <c r="V51" s="184"/>
       <c r="W51" s="15"/>
-      <c r="X51" s="192"/>
-      <c r="Y51" s="193"/>
-      <c r="Z51" s="193"/>
+      <c r="X51" s="183"/>
+      <c r="Y51" s="184"/>
+      <c r="Z51" s="184"/>
       <c r="AA51" s="15"/>
       <c r="AB51" s="1"/>
-      <c r="AM51" s="194"/>
-      <c r="AN51" s="194"/>
-      <c r="AO51" s="194"/>
-      <c r="AP51" s="195"/>
-      <c r="AQ51" s="195"/>
-      <c r="AR51" s="195"/>
-      <c r="AS51" s="195"/>
-      <c r="AT51" s="195"/>
-      <c r="AU51" s="195"/>
-      <c r="AV51" s="195"/>
-      <c r="AW51" s="195"/>
+      <c r="AM51" s="189"/>
+      <c r="AN51" s="189"/>
+      <c r="AO51" s="189"/>
+      <c r="AP51" s="190"/>
+      <c r="AQ51" s="190"/>
+      <c r="AR51" s="190"/>
+      <c r="AS51" s="190"/>
+      <c r="AT51" s="190"/>
+      <c r="AU51" s="190"/>
+      <c r="AV51" s="190"/>
+      <c r="AW51" s="190"/>
       <c r="AX51" s="11"/>
       <c r="AY51" s="11"/>
       <c r="AZ51" s="11"/>
-      <c r="BC51" s="182" t="s">
+      <c r="BC51" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="BD51" s="182"/>
-      <c r="BE51" s="182"/>
-      <c r="BF51" s="182"/>
-      <c r="BG51" s="182"/>
-      <c r="BH51" s="182"/>
-      <c r="BI51" s="182"/>
-      <c r="BJ51" s="182"/>
-      <c r="BK51" s="183"/>
-      <c r="BL51" s="184"/>
-      <c r="BM51" s="184"/>
-      <c r="BN51" s="184"/>
-      <c r="BO51" s="184"/>
-      <c r="BP51" s="184"/>
-      <c r="BQ51" s="184"/>
-      <c r="BR51" s="185"/>
+      <c r="BD51" s="176"/>
+      <c r="BE51" s="176"/>
+      <c r="BF51" s="176"/>
+      <c r="BG51" s="176"/>
+      <c r="BH51" s="176"/>
+      <c r="BI51" s="176"/>
+      <c r="BJ51" s="176"/>
+      <c r="BK51" s="177"/>
+      <c r="BL51" s="178"/>
+      <c r="BM51" s="178"/>
+      <c r="BN51" s="178"/>
+      <c r="BO51" s="178"/>
+      <c r="BP51" s="178"/>
+      <c r="BQ51" s="178"/>
+      <c r="BR51" s="179"/>
     </row>
     <row r="52" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="196" t="s">
+      <c r="A52" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="197"/>
-      <c r="C52" s="198"/>
-      <c r="D52" s="192" t="s">
+      <c r="B52" s="181"/>
+      <c r="C52" s="182"/>
+      <c r="D52" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="193"/>
-      <c r="F52" s="193"/>
+      <c r="E52" s="184"/>
+      <c r="F52" s="184"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="192" t="s">
+      <c r="H52" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="I52" s="193"/>
-      <c r="J52" s="193"/>
+      <c r="I52" s="184"/>
+      <c r="J52" s="184"/>
       <c r="K52" s="15"/>
-      <c r="L52" s="192" t="s">
+      <c r="L52" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="M52" s="193"/>
-      <c r="N52" s="193"/>
+      <c r="M52" s="184"/>
+      <c r="N52" s="184"/>
       <c r="O52" s="15"/>
-      <c r="P52" s="192" t="s">
+      <c r="P52" s="183" t="s">
         <v>104</v>
       </c>
-      <c r="Q52" s="193"/>
-      <c r="R52" s="193"/>
+      <c r="Q52" s="184"/>
+      <c r="R52" s="184"/>
       <c r="S52" s="15"/>
-      <c r="T52" s="192" t="s">
+      <c r="T52" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="U52" s="193"/>
-      <c r="V52" s="193"/>
+      <c r="U52" s="184"/>
+      <c r="V52" s="184"/>
       <c r="W52" s="15"/>
-      <c r="X52" s="192" t="s">
+      <c r="X52" s="183" t="s">
         <v>106</v>
       </c>
-      <c r="Y52" s="193"/>
-      <c r="Z52" s="193"/>
+      <c r="Y52" s="184"/>
+      <c r="Z52" s="184"/>
       <c r="AA52" s="15"/>
-      <c r="AI52" s="204"/>
-      <c r="AJ52" s="204"/>
+      <c r="AI52" s="185"/>
+      <c r="AJ52" s="185"/>
       <c r="AK52" s="4"/>
       <c r="BR52" s="112"/>
     </row>
@@ -9377,381 +9365,584 @@
       <c r="A56" s="28">
         <v>1</v>
       </c>
-      <c r="B56" s="199" t="s">
+      <c r="B56" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="199"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="200" t="s">
+      <c r="C56" s="171"/>
+      <c r="D56" s="171"/>
+      <c r="E56" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="F56" s="200"/>
-      <c r="G56" s="200"/>
-      <c r="H56" s="200"/>
-      <c r="I56" s="200"/>
-      <c r="J56" s="200"/>
-      <c r="K56" s="200"/>
+      <c r="F56" s="172"/>
+      <c r="G56" s="172"/>
+      <c r="H56" s="172"/>
+      <c r="I56" s="172"/>
+      <c r="J56" s="172"/>
+      <c r="K56" s="172"/>
       <c r="N56" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="O56" s="201" t="s">
+      <c r="O56" s="173" t="s">
         <v>111</v>
       </c>
-      <c r="P56" s="202"/>
-      <c r="Q56" s="203"/>
-      <c r="R56" s="200" t="s">
+      <c r="P56" s="174"/>
+      <c r="Q56" s="175"/>
+      <c r="R56" s="172" t="s">
         <v>112</v>
       </c>
-      <c r="S56" s="200"/>
-      <c r="T56" s="200"/>
-      <c r="U56" s="200"/>
-      <c r="V56" s="200"/>
-      <c r="W56" s="200"/>
-      <c r="X56" s="200"/>
+      <c r="S56" s="172"/>
+      <c r="T56" s="172"/>
+      <c r="U56" s="172"/>
+      <c r="V56" s="172"/>
+      <c r="W56" s="172"/>
+      <c r="X56" s="172"/>
       <c r="AA56" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="AB56" s="205" t="s">
+      <c r="AB56" s="186" t="s">
         <v>114</v>
       </c>
-      <c r="AC56" s="206"/>
-      <c r="AD56" s="206"/>
-      <c r="AE56" s="206"/>
-      <c r="AF56" s="206"/>
-      <c r="AG56" s="206"/>
-      <c r="AH56" s="206"/>
-      <c r="AI56" s="206"/>
-      <c r="AJ56" s="206"/>
-      <c r="AK56" s="206"/>
-      <c r="AL56" s="206"/>
-      <c r="AM56" s="207"/>
+      <c r="AC56" s="187"/>
+      <c r="AD56" s="187"/>
+      <c r="AE56" s="187"/>
+      <c r="AF56" s="187"/>
+      <c r="AG56" s="187"/>
+      <c r="AH56" s="187"/>
+      <c r="AI56" s="187"/>
+      <c r="AJ56" s="187"/>
+      <c r="AK56" s="187"/>
+      <c r="AL56" s="187"/>
+      <c r="AM56" s="188"/>
     </row>
     <row r="57" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>2</v>
       </c>
-      <c r="B57" s="199" t="s">
+      <c r="B57" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="199"/>
-      <c r="D57" s="199"/>
-      <c r="E57" s="200" t="s">
+      <c r="C57" s="171"/>
+      <c r="D57" s="171"/>
+      <c r="E57" s="172" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="200"/>
-      <c r="G57" s="200"/>
-      <c r="H57" s="200"/>
-      <c r="I57" s="200"/>
-      <c r="J57" s="200"/>
-      <c r="K57" s="200"/>
+      <c r="F57" s="172"/>
+      <c r="G57" s="172"/>
+      <c r="H57" s="172"/>
+      <c r="I57" s="172"/>
+      <c r="J57" s="172"/>
+      <c r="K57" s="172"/>
       <c r="N57" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="O57" s="201" t="s">
+      <c r="O57" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="P57" s="202"/>
-      <c r="Q57" s="203"/>
-      <c r="R57" s="200" t="s">
+      <c r="P57" s="174"/>
+      <c r="Q57" s="175"/>
+      <c r="R57" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="S57" s="200"/>
-      <c r="T57" s="200"/>
-      <c r="U57" s="200"/>
-      <c r="V57" s="200"/>
-      <c r="W57" s="200"/>
-      <c r="X57" s="200"/>
+      <c r="S57" s="172"/>
+      <c r="T57" s="172"/>
+      <c r="U57" s="172"/>
+      <c r="V57" s="172"/>
+      <c r="W57" s="172"/>
+      <c r="X57" s="172"/>
       <c r="AA57" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AB57" s="199" t="s">
+      <c r="AB57" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="AC57" s="199"/>
-      <c r="AD57" s="199"/>
-      <c r="AE57" s="200" t="s">
+      <c r="AC57" s="171"/>
+      <c r="AD57" s="171"/>
+      <c r="AE57" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="AF57" s="200"/>
-      <c r="AG57" s="200"/>
-      <c r="AH57" s="200"/>
-      <c r="AI57" s="200"/>
-      <c r="AJ57" s="200"/>
-      <c r="AK57" s="200"/>
-      <c r="AL57" s="200"/>
-      <c r="AM57" s="200"/>
+      <c r="AF57" s="172"/>
+      <c r="AG57" s="172"/>
+      <c r="AH57" s="172"/>
+      <c r="AI57" s="172"/>
+      <c r="AJ57" s="172"/>
+      <c r="AK57" s="172"/>
+      <c r="AL57" s="172"/>
+      <c r="AM57" s="172"/>
     </row>
     <row r="58" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>3</v>
       </c>
-      <c r="B58" s="199" t="s">
+      <c r="B58" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="199"/>
-      <c r="D58" s="199"/>
-      <c r="E58" s="200" t="s">
+      <c r="C58" s="171"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="172" t="s">
         <v>123</v>
       </c>
-      <c r="F58" s="200"/>
-      <c r="G58" s="200"/>
-      <c r="H58" s="200"/>
-      <c r="I58" s="200"/>
-      <c r="J58" s="200"/>
-      <c r="K58" s="200"/>
+      <c r="F58" s="172"/>
+      <c r="G58" s="172"/>
+      <c r="H58" s="172"/>
+      <c r="I58" s="172"/>
+      <c r="J58" s="172"/>
+      <c r="K58" s="172"/>
       <c r="N58" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="O58" s="201" t="s">
+      <c r="O58" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="P58" s="202"/>
-      <c r="Q58" s="203"/>
-      <c r="R58" s="200" t="s">
+      <c r="P58" s="174"/>
+      <c r="Q58" s="175"/>
+      <c r="R58" s="172" t="s">
         <v>126</v>
       </c>
-      <c r="S58" s="200"/>
-      <c r="T58" s="200"/>
-      <c r="U58" s="200"/>
-      <c r="V58" s="200"/>
-      <c r="W58" s="200"/>
-      <c r="X58" s="200"/>
+      <c r="S58" s="172"/>
+      <c r="T58" s="172"/>
+      <c r="U58" s="172"/>
+      <c r="V58" s="172"/>
+      <c r="W58" s="172"/>
+      <c r="X58" s="172"/>
       <c r="AA58" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="AB58" s="199" t="s">
+      <c r="AB58" s="171" t="s">
         <v>125</v>
       </c>
-      <c r="AC58" s="199"/>
-      <c r="AD58" s="199"/>
-      <c r="AE58" s="200" t="s">
+      <c r="AC58" s="171"/>
+      <c r="AD58" s="171"/>
+      <c r="AE58" s="172" t="s">
         <v>128</v>
       </c>
-      <c r="AF58" s="200"/>
-      <c r="AG58" s="200"/>
-      <c r="AH58" s="200"/>
-      <c r="AI58" s="200"/>
-      <c r="AJ58" s="200"/>
-      <c r="AK58" s="200"/>
-      <c r="AL58" s="200"/>
-      <c r="AM58" s="200"/>
+      <c r="AF58" s="172"/>
+      <c r="AG58" s="172"/>
+      <c r="AH58" s="172"/>
+      <c r="AI58" s="172"/>
+      <c r="AJ58" s="172"/>
+      <c r="AK58" s="172"/>
+      <c r="AL58" s="172"/>
+      <c r="AM58" s="172"/>
       <c r="AN58" s="30"/>
     </row>
     <row r="59" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>4</v>
       </c>
-      <c r="B59" s="199" t="s">
+      <c r="B59" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="199"/>
-      <c r="D59" s="199"/>
-      <c r="E59" s="200" t="s">
+      <c r="C59" s="171"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="172" t="s">
         <v>130</v>
       </c>
-      <c r="F59" s="200"/>
-      <c r="G59" s="200"/>
-      <c r="H59" s="200"/>
-      <c r="I59" s="200"/>
-      <c r="J59" s="200"/>
-      <c r="K59" s="200"/>
+      <c r="F59" s="172"/>
+      <c r="G59" s="172"/>
+      <c r="H59" s="172"/>
+      <c r="I59" s="172"/>
+      <c r="J59" s="172"/>
+      <c r="K59" s="172"/>
       <c r="N59" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="O59" s="201" t="s">
+      <c r="O59" s="173" t="s">
         <v>132</v>
       </c>
-      <c r="P59" s="202"/>
-      <c r="Q59" s="203"/>
-      <c r="R59" s="200" t="s">
+      <c r="P59" s="174"/>
+      <c r="Q59" s="175"/>
+      <c r="R59" s="172" t="s">
         <v>133</v>
       </c>
-      <c r="S59" s="200"/>
-      <c r="T59" s="200"/>
-      <c r="U59" s="200"/>
-      <c r="V59" s="200"/>
-      <c r="W59" s="200"/>
-      <c r="X59" s="200"/>
+      <c r="S59" s="172"/>
+      <c r="T59" s="172"/>
+      <c r="U59" s="172"/>
+      <c r="V59" s="172"/>
+      <c r="W59" s="172"/>
+      <c r="X59" s="172"/>
       <c r="AA59" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AB59" s="199" t="s">
+      <c r="AB59" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="AC59" s="199"/>
-      <c r="AD59" s="199"/>
-      <c r="AE59" s="200" t="s">
+      <c r="AC59" s="171"/>
+      <c r="AD59" s="171"/>
+      <c r="AE59" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="AF59" s="200"/>
-      <c r="AG59" s="200"/>
-      <c r="AH59" s="200"/>
-      <c r="AI59" s="200"/>
-      <c r="AJ59" s="200"/>
-      <c r="AK59" s="200"/>
-      <c r="AL59" s="200"/>
-      <c r="AM59" s="200"/>
+      <c r="AF59" s="172"/>
+      <c r="AG59" s="172"/>
+      <c r="AH59" s="172"/>
+      <c r="AI59" s="172"/>
+      <c r="AJ59" s="172"/>
+      <c r="AK59" s="172"/>
+      <c r="AL59" s="172"/>
+      <c r="AM59" s="172"/>
       <c r="AN59" s="30"/>
     </row>
     <row r="60" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>5</v>
       </c>
-      <c r="B60" s="199" t="s">
+      <c r="B60" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="199"/>
-      <c r="D60" s="199"/>
-      <c r="E60" s="200" t="s">
+      <c r="C60" s="171"/>
+      <c r="D60" s="171"/>
+      <c r="E60" s="172" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="200"/>
-      <c r="G60" s="200"/>
-      <c r="H60" s="200"/>
-      <c r="I60" s="200"/>
-      <c r="J60" s="200"/>
-      <c r="K60" s="200"/>
+      <c r="F60" s="172"/>
+      <c r="G60" s="172"/>
+      <c r="H60" s="172"/>
+      <c r="I60" s="172"/>
+      <c r="J60" s="172"/>
+      <c r="K60" s="172"/>
       <c r="N60" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="O60" s="201" t="s">
+      <c r="O60" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="P60" s="202"/>
-      <c r="Q60" s="203"/>
-      <c r="R60" s="200" t="s">
+      <c r="P60" s="174"/>
+      <c r="Q60" s="175"/>
+      <c r="R60" s="172" t="s">
         <v>140</v>
       </c>
-      <c r="S60" s="200"/>
-      <c r="T60" s="200"/>
-      <c r="U60" s="200"/>
-      <c r="V60" s="200"/>
-      <c r="W60" s="200"/>
-      <c r="X60" s="200"/>
+      <c r="S60" s="172"/>
+      <c r="T60" s="172"/>
+      <c r="U60" s="172"/>
+      <c r="V60" s="172"/>
+      <c r="W60" s="172"/>
+      <c r="X60" s="172"/>
       <c r="AA60" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AB60" s="199" t="s">
+      <c r="AB60" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="AC60" s="199"/>
-      <c r="AD60" s="199"/>
-      <c r="AE60" s="200" t="s">
+      <c r="AC60" s="171"/>
+      <c r="AD60" s="171"/>
+      <c r="AE60" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="AF60" s="200"/>
-      <c r="AG60" s="200"/>
-      <c r="AH60" s="200"/>
-      <c r="AI60" s="200"/>
-      <c r="AJ60" s="200"/>
-      <c r="AK60" s="200"/>
-      <c r="AL60" s="200"/>
-      <c r="AM60" s="200"/>
+      <c r="AF60" s="172"/>
+      <c r="AG60" s="172"/>
+      <c r="AH60" s="172"/>
+      <c r="AI60" s="172"/>
+      <c r="AJ60" s="172"/>
+      <c r="AK60" s="172"/>
+      <c r="AL60" s="172"/>
+      <c r="AM60" s="172"/>
       <c r="AN60" s="30"/>
     </row>
     <row r="61" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>6</v>
       </c>
-      <c r="B61" s="199" t="s">
+      <c r="B61" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="199"/>
-      <c r="D61" s="199"/>
-      <c r="E61" s="200" t="s">
+      <c r="C61" s="171"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="F61" s="200"/>
-      <c r="G61" s="200"/>
-      <c r="H61" s="200"/>
-      <c r="I61" s="200"/>
-      <c r="J61" s="200"/>
-      <c r="K61" s="200"/>
+      <c r="F61" s="172"/>
+      <c r="G61" s="172"/>
+      <c r="H61" s="172"/>
+      <c r="I61" s="172"/>
+      <c r="J61" s="172"/>
+      <c r="K61" s="172"/>
       <c r="N61" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="O61" s="201" t="s">
+      <c r="O61" s="173" t="s">
         <v>146</v>
       </c>
-      <c r="P61" s="202"/>
-      <c r="Q61" s="203"/>
-      <c r="R61" s="200" t="s">
+      <c r="P61" s="174"/>
+      <c r="Q61" s="175"/>
+      <c r="R61" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="S61" s="200"/>
-      <c r="T61" s="200"/>
-      <c r="U61" s="200"/>
-      <c r="V61" s="200"/>
-      <c r="W61" s="200"/>
-      <c r="X61" s="200"/>
+      <c r="S61" s="172"/>
+      <c r="T61" s="172"/>
+      <c r="U61" s="172"/>
+      <c r="V61" s="172"/>
+      <c r="W61" s="172"/>
+      <c r="X61" s="172"/>
       <c r="AA61" s="28"/>
-      <c r="AB61" s="199" t="s">
+      <c r="AB61" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="AC61" s="199"/>
-      <c r="AD61" s="199"/>
-      <c r="AE61" s="200" t="s">
+      <c r="AC61" s="171"/>
+      <c r="AD61" s="171"/>
+      <c r="AE61" s="172" t="s">
         <v>149</v>
       </c>
-      <c r="AF61" s="200"/>
-      <c r="AG61" s="200"/>
-      <c r="AH61" s="200"/>
-      <c r="AI61" s="200"/>
-      <c r="AJ61" s="200"/>
-      <c r="AK61" s="200"/>
-      <c r="AL61" s="200"/>
-      <c r="AM61" s="200"/>
+      <c r="AF61" s="172"/>
+      <c r="AG61" s="172"/>
+      <c r="AH61" s="172"/>
+      <c r="AI61" s="172"/>
+      <c r="AJ61" s="172"/>
+      <c r="AK61" s="172"/>
+      <c r="AL61" s="172"/>
+      <c r="AM61" s="172"/>
     </row>
     <row r="62" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>7</v>
       </c>
-      <c r="B62" s="199" t="s">
+      <c r="B62" s="171" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="199"/>
-      <c r="D62" s="199"/>
-      <c r="E62" s="200" t="s">
+      <c r="C62" s="171"/>
+      <c r="D62" s="171"/>
+      <c r="E62" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="F62" s="200"/>
-      <c r="G62" s="200"/>
-      <c r="H62" s="200"/>
-      <c r="I62" s="200"/>
-      <c r="J62" s="200"/>
-      <c r="K62" s="200"/>
+      <c r="F62" s="172"/>
+      <c r="G62" s="172"/>
+      <c r="H62" s="172"/>
+      <c r="I62" s="172"/>
+      <c r="J62" s="172"/>
+      <c r="K62" s="172"/>
     </row>
     <row r="63" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
       <c r="N63" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="BP35:BP36"/>
-    <mergeCell ref="BP38:BP39"/>
-    <mergeCell ref="BP41:BP42"/>
-    <mergeCell ref="BL26:BL27"/>
-    <mergeCell ref="BL29:BL30"/>
-    <mergeCell ref="BL32:BL33"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="BR32:BR33"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BO14:BO15"/>
-    <mergeCell ref="BO17:BO18"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BO23:BO24"/>
-    <mergeCell ref="BO26:BO27"/>
-    <mergeCell ref="BO29:BO30"/>
-    <mergeCell ref="BO32:BO33"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BP17:BP18"/>
-    <mergeCell ref="BP20:BP21"/>
-    <mergeCell ref="BP23:BP24"/>
-    <mergeCell ref="BP26:BP27"/>
-    <mergeCell ref="BP29:BP30"/>
-    <mergeCell ref="BP32:BP33"/>
+    <mergeCell ref="AM43:BR43"/>
+    <mergeCell ref="AM10:BR10"/>
+    <mergeCell ref="AM13:BR13"/>
+    <mergeCell ref="AM16:BR16"/>
+    <mergeCell ref="AM19:BR19"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AM22:BR22"/>
+    <mergeCell ref="AM25:BR25"/>
+    <mergeCell ref="AM28:BR28"/>
+    <mergeCell ref="AM31:BR31"/>
+    <mergeCell ref="AM34:BR34"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="AM1:BR1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="D3:R3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AP47:AW47"/>
+    <mergeCell ref="BC47:BJ47"/>
+    <mergeCell ref="BK47:BR47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AM47:AO47"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AM49:AO49"/>
+    <mergeCell ref="AP49:AW49"/>
+    <mergeCell ref="BC49:BJ49"/>
+    <mergeCell ref="BK49:BR49"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="AM48:AO48"/>
+    <mergeCell ref="AP48:AW48"/>
+    <mergeCell ref="BC48:BJ48"/>
+    <mergeCell ref="BK48:BR48"/>
+    <mergeCell ref="AM50:AO50"/>
+    <mergeCell ref="AP50:AW50"/>
+    <mergeCell ref="BC50:BJ50"/>
+    <mergeCell ref="BK50:BR50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AM51:AO51"/>
+    <mergeCell ref="AP51:AW51"/>
+    <mergeCell ref="BC51:BJ51"/>
+    <mergeCell ref="BK51:BR51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:K57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="R57:X57"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="AE57:AM57"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="R56:X56"/>
+    <mergeCell ref="AB56:AM56"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:K59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="R59:X59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="AE59:AM59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:K58"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="R58:X58"/>
+    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="AE58:AM58"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:K62"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="R61:X61"/>
+    <mergeCell ref="AB61:AD61"/>
+    <mergeCell ref="AE61:AM61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="R60:X60"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="AE60:AM60"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP2:AZ2"/>
+    <mergeCell ref="AP3:AZ3"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BM2:BR2"/>
+    <mergeCell ref="BM3:BR3"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BM6:BM7"/>
     <mergeCell ref="BR35:BR36"/>
     <mergeCell ref="BR38:BR39"/>
     <mergeCell ref="BR41:BR42"/>
@@ -9776,237 +9967,34 @@
     <mergeCell ref="BL20:BL21"/>
     <mergeCell ref="BL23:BL24"/>
     <mergeCell ref="BO11:BO12"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="BR32:BR33"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BO14:BO15"/>
+    <mergeCell ref="BO17:BO18"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BO23:BO24"/>
+    <mergeCell ref="BO26:BO27"/>
+    <mergeCell ref="BO29:BO30"/>
+    <mergeCell ref="BO32:BO33"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BP17:BP18"/>
+    <mergeCell ref="BP20:BP21"/>
+    <mergeCell ref="BP23:BP24"/>
+    <mergeCell ref="BP26:BP27"/>
+    <mergeCell ref="BP29:BP30"/>
+    <mergeCell ref="BP32:BP33"/>
+    <mergeCell ref="BP35:BP36"/>
+    <mergeCell ref="BP38:BP39"/>
+    <mergeCell ref="BP41:BP42"/>
+    <mergeCell ref="BL26:BL27"/>
+    <mergeCell ref="BL29:BL30"/>
+    <mergeCell ref="BL32:BL33"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="AL6:AL7"/>
     <mergeCell ref="BL35:BL36"/>
     <mergeCell ref="AM37:BR37"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="AP3:AZ3"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BM2:BR2"/>
-    <mergeCell ref="BM3:BR3"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:K62"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:K61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="R61:X61"/>
-    <mergeCell ref="AB61:AD61"/>
-    <mergeCell ref="AE61:AM61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:K60"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="R60:X60"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="AE60:AM60"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:K59"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="R59:X59"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="AE59:AM59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:K58"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="R58:X58"/>
-    <mergeCell ref="AB58:AD58"/>
-    <mergeCell ref="AE58:AM58"/>
-    <mergeCell ref="BC51:BJ51"/>
-    <mergeCell ref="BK51:BR51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:K57"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="R57:X57"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="AE57:AM57"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="R56:X56"/>
-    <mergeCell ref="AB56:AM56"/>
-    <mergeCell ref="AM50:AO50"/>
-    <mergeCell ref="AP50:AW50"/>
-    <mergeCell ref="BC50:BJ50"/>
-    <mergeCell ref="BK50:BR50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AM51:AO51"/>
-    <mergeCell ref="AP51:AW51"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AM49:AO49"/>
-    <mergeCell ref="AP49:AW49"/>
-    <mergeCell ref="BC49:BJ49"/>
-    <mergeCell ref="BK49:BR49"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="AM48:AO48"/>
-    <mergeCell ref="AP48:AW48"/>
-    <mergeCell ref="BC48:BJ48"/>
-    <mergeCell ref="BK48:BR48"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AM47:AO47"/>
-    <mergeCell ref="AP47:AW47"/>
-    <mergeCell ref="BC47:BJ47"/>
-    <mergeCell ref="BK47:BR47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="AM1:BR1"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="AF2:AL2"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="D3:R3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="B4:AL4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AM43:BR43"/>
-    <mergeCell ref="AM10:BR10"/>
-    <mergeCell ref="AM13:BR13"/>
-    <mergeCell ref="AM16:BR16"/>
-    <mergeCell ref="AM19:BR19"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AM22:BR22"/>
-    <mergeCell ref="AM25:BR25"/>
-    <mergeCell ref="AM28:BR28"/>
-    <mergeCell ref="AM31:BR31"/>
-    <mergeCell ref="AM34:BR34"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="BR6:BR7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BD6:BD7"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E974134-F0C1-43F4-95A1-0FD5D1266392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1CF124-A425-46AD-A57E-F092A94B7414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
   <si>
     <t>業　　主：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -257,68 +257,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6.無資料</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>決</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>標</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>實際工期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -339,18 +281,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>履約期限</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合約完工期限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -383,52 +313,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>開</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>變動完工期限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -453,18 +337,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>預定完工日</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>實際完工期限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -748,6 +620,26 @@
   </si>
   <si>
     <t>變動因素                       (停工、停電…等)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決  標  日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>履約期限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>開  工  日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預定完工日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加工期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1988,7 +1880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2377,36 +2269,276 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2419,272 +2551,33 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2759,471 +2652,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13184" name="群組 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470E26C6-8668-EA00-B462-02EA7D9DF719}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2457450" y="16327211"/>
-          <a:ext cx="238125" cy="257175"/>
-          <a:chOff x="342901" y="11210925"/>
-          <a:chExt cx="235895" cy="230951"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14611" name="圖片 16" descr="上午晴無框.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3BEE402-528B-C04D-A89F-FD08320DCFC2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="342901" y="11210925"/>
-            <a:ext cx="235895" cy="126176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14612" name="圖片 17" descr="下午晴無框.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7EB8A0-852C-A7F4-0E0D-C249E47EFB95}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="342901" y="11315700"/>
-            <a:ext cx="235895" cy="126176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13185" name="群組 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271FCCBE-E890-B049-5CA8-A216A65966A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8752114" y="16317686"/>
-          <a:ext cx="238125" cy="247650"/>
-          <a:chOff x="1905001" y="11182350"/>
-          <a:chExt cx="235895" cy="240476"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14609" name="圖片 12" descr="上午颱風.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0588216F-E895-1A01-AE04-FF33AEAE1ECC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1905001" y="11182350"/>
-            <a:ext cx="235895" cy="126176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14610" name="圖片 13" descr="下午颱風.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9253B89B-5401-CF09-0284-26E42ECAF471}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1905001" y="11296650"/>
-            <a:ext cx="235895" cy="126176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13186" name="群組 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD61E3A0-4F13-E6B6-B8A3-A820EF9ABDD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4035879" y="16317686"/>
-          <a:ext cx="238125" cy="247650"/>
-          <a:chOff x="1524001" y="10115550"/>
-          <a:chExt cx="235895" cy="240476"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14607" name="圖片 15" descr="上午雨無框.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFF911A-0F0B-AE09-30B0-4EA23F00D94B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1524001" y="10115550"/>
-            <a:ext cx="235895" cy="126176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14608" name="圖片 16" descr="下午雨無框.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1D6613-B10E-44E2-0B56-08106324CC6F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1524001" y="10229850"/>
-            <a:ext cx="235895" cy="126176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -3251,7 +2679,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3296,161 +2724,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13188" name="群組 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2899B09-6B8A-3027-EE28-97E0AA0BC727}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10340068" y="16317686"/>
-          <a:ext cx="238125" cy="228600"/>
-          <a:chOff x="742951" y="9877425"/>
-          <a:chExt cx="235895" cy="240476"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14605" name="圖片 23" descr="上午豪雨無框.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C628DD-5809-B4F6-FB74-EA9A7EBBC9FE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="742951" y="9877425"/>
-            <a:ext cx="235895" cy="126176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14606" name="圖片 24" descr="下午豪雨無框.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465FB8EE-71CC-2A86-DB95-FE01C62D8A82}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="742951" y="9991725"/>
-            <a:ext cx="235895" cy="126176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3501,7 +2774,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3560,7 +2833,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3635,7 +2908,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3709,7 +2982,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3756,316 +3029,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13192" name="群組 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAE5181-833D-6897-5DD1-188EC05D95AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7183211" y="16317686"/>
-          <a:ext cx="238125" cy="247650"/>
-          <a:chOff x="3943351" y="9629775"/>
-          <a:chExt cx="235895" cy="240476"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14601" name="圖片 33" descr="上午晴無框.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E76758-2199-C4D2-1E53-C568C7C3ABE7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="3943351" y="9629775"/>
-            <a:ext cx="235895" cy="126176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14602" name="圖片 34" descr="下午雨無框.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160A0646-A747-BBB9-182A-ABC8D03480FC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="3943351" y="9744075"/>
-            <a:ext cx="235895" cy="126176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13193" name="群組 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F780D7-DA4B-1AD9-F411-A084C7036C42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5614307" y="16317686"/>
-          <a:ext cx="238125" cy="257175"/>
-          <a:chOff x="4819651" y="9553575"/>
-          <a:chExt cx="235895" cy="240476"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14599" name="圖片 35" descr="下午晴無框.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A0812A-3614-1888-2914-6F6C0DA026CE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="4819651" y="9667875"/>
-            <a:ext cx="235895" cy="126176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14600" name="圖片 36" descr="上午雨無框.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F239DC0E-544D-363E-FF8D-A5DDCE7E35DF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="4819651" y="9553575"/>
-            <a:ext cx="235895" cy="126176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -4093,7 +3056,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4140,161 +3103,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13195" name="群組 636">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D82927-8CBF-8BB2-7063-CB676B79D897}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2466975" y="16671471"/>
-          <a:ext cx="219075" cy="219075"/>
-          <a:chOff x="6715125" y="5295900"/>
-          <a:chExt cx="266700" cy="285750"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14597" name="圖片 460900">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8896B26C-2879-A43B-2294-304813F04152}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="6715125" y="5295900"/>
-            <a:ext cx="266700" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14598" name="圖片 460901">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B30878B-0ED1-E89E-120A-7BB9781296C2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="6715125" y="5429250"/>
-            <a:ext cx="266700" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -4322,7 +3130,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4396,7 +3204,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4950,7 +3758,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5308,384 +4116,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="200"/>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="200"/>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="200"/>
-      <c r="AG1" s="200"/>
-      <c r="AH1" s="200"/>
-      <c r="AI1" s="200"/>
-      <c r="AJ1" s="200"/>
-      <c r="AK1" s="200"/>
-      <c r="AL1" s="201"/>
-      <c r="AM1" s="199" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN1" s="200"/>
-      <c r="AO1" s="200"/>
-      <c r="AP1" s="200"/>
-      <c r="AQ1" s="200"/>
-      <c r="AR1" s="200"/>
-      <c r="AS1" s="200"/>
-      <c r="AT1" s="200"/>
-      <c r="AU1" s="200"/>
-      <c r="AV1" s="200"/>
-      <c r="AW1" s="200"/>
-      <c r="AX1" s="200"/>
-      <c r="AY1" s="200"/>
-      <c r="AZ1" s="200"/>
-      <c r="BA1" s="200"/>
-      <c r="BB1" s="200"/>
-      <c r="BC1" s="200"/>
-      <c r="BD1" s="200"/>
-      <c r="BE1" s="200"/>
-      <c r="BF1" s="200"/>
-      <c r="BG1" s="200"/>
-      <c r="BH1" s="200"/>
-      <c r="BI1" s="200"/>
-      <c r="BJ1" s="200"/>
-      <c r="BK1" s="200"/>
-      <c r="BL1" s="200"/>
-      <c r="BM1" s="200"/>
-      <c r="BN1" s="200"/>
-      <c r="BO1" s="200"/>
-      <c r="BP1" s="200"/>
-      <c r="BQ1" s="200"/>
-      <c r="BR1" s="201"/>
+      <c r="A1" s="167" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="169"/>
+      <c r="AM1" s="167" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
+      <c r="AS1" s="168"/>
+      <c r="AT1" s="168"/>
+      <c r="AU1" s="168"/>
+      <c r="AV1" s="168"/>
+      <c r="AW1" s="168"/>
+      <c r="AX1" s="168"/>
+      <c r="AY1" s="168"/>
+      <c r="AZ1" s="168"/>
+      <c r="BA1" s="168"/>
+      <c r="BB1" s="168"/>
+      <c r="BC1" s="168"/>
+      <c r="BD1" s="168"/>
+      <c r="BE1" s="168"/>
+      <c r="BF1" s="168"/>
+      <c r="BG1" s="168"/>
+      <c r="BH1" s="168"/>
+      <c r="BI1" s="168"/>
+      <c r="BJ1" s="168"/>
+      <c r="BK1" s="168"/>
+      <c r="BL1" s="168"/>
+      <c r="BM1" s="168"/>
+      <c r="BN1" s="168"/>
+      <c r="BO1" s="168"/>
+      <c r="BP1" s="168"/>
+      <c r="BQ1" s="168"/>
+      <c r="BR1" s="169"/>
     </row>
     <row r="2" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="153" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154" t="s">
+      <c r="A2" s="177" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154" t="s">
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="154"/>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="154"/>
-      <c r="AJ2" s="154"/>
-      <c r="AK2" s="154"/>
-      <c r="AL2" s="155"/>
-      <c r="AM2" s="153" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN2" s="154"/>
-      <c r="AO2" s="154"/>
-      <c r="AP2" s="154"/>
-      <c r="AQ2" s="154"/>
-      <c r="AR2" s="154"/>
-      <c r="AS2" s="154"/>
-      <c r="AT2" s="154"/>
-      <c r="AU2" s="154"/>
-      <c r="AV2" s="154"/>
-      <c r="AW2" s="154"/>
-      <c r="AX2" s="154"/>
-      <c r="AY2" s="154"/>
-      <c r="AZ2" s="154"/>
-      <c r="BA2" s="154" t="s">
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="175"/>
+      <c r="AL2" s="176"/>
+      <c r="AM2" s="177" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="175"/>
+      <c r="AV2" s="175"/>
+      <c r="AW2" s="175"/>
+      <c r="AX2" s="175"/>
+      <c r="AY2" s="175"/>
+      <c r="AZ2" s="175"/>
+      <c r="BA2" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="154"/>
-      <c r="BC2" s="154"/>
-      <c r="BD2" s="154"/>
-      <c r="BE2" s="154"/>
-      <c r="BF2" s="154"/>
-      <c r="BG2" s="154"/>
-      <c r="BH2" s="154"/>
-      <c r="BI2" s="154"/>
-      <c r="BJ2" s="154" t="s">
+      <c r="BB2" s="175"/>
+      <c r="BC2" s="175"/>
+      <c r="BD2" s="175"/>
+      <c r="BE2" s="175"/>
+      <c r="BF2" s="175"/>
+      <c r="BG2" s="175"/>
+      <c r="BH2" s="175"/>
+      <c r="BI2" s="175"/>
+      <c r="BJ2" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="154"/>
-      <c r="BL2" s="154"/>
-      <c r="BM2" s="154"/>
-      <c r="BN2" s="154"/>
-      <c r="BO2" s="154"/>
-      <c r="BP2" s="154"/>
-      <c r="BQ2" s="154"/>
-      <c r="BR2" s="155"/>
+      <c r="BK2" s="175"/>
+      <c r="BL2" s="175"/>
+      <c r="BM2" s="175"/>
+      <c r="BN2" s="175"/>
+      <c r="BO2" s="175"/>
+      <c r="BP2" s="175"/>
+      <c r="BQ2" s="175"/>
+      <c r="BR2" s="176"/>
     </row>
     <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="154"/>
-      <c r="S3" s="154" t="s">
+      <c r="A3" s="177" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="154"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="154"/>
-      <c r="W3" s="154"/>
-      <c r="X3" s="154"/>
-      <c r="Y3" s="154"/>
-      <c r="Z3" s="154"/>
-      <c r="AA3" s="154"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="154" t="s">
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="175"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="154"/>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="154"/>
-      <c r="AJ3" s="154"/>
-      <c r="AK3" s="154"/>
-      <c r="AL3" s="155"/>
-      <c r="AM3" s="153" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN3" s="154"/>
-      <c r="AO3" s="154"/>
-      <c r="AP3" s="154"/>
-      <c r="AQ3" s="154"/>
-      <c r="AR3" s="154"/>
-      <c r="AS3" s="154"/>
-      <c r="AT3" s="154"/>
-      <c r="AU3" s="154"/>
-      <c r="AV3" s="154"/>
-      <c r="AW3" s="154"/>
-      <c r="AX3" s="154"/>
-      <c r="AY3" s="154"/>
-      <c r="AZ3" s="154"/>
-      <c r="BA3" s="154" t="s">
+      <c r="AD3" s="175"/>
+      <c r="AE3" s="175"/>
+      <c r="AF3" s="175"/>
+      <c r="AG3" s="175"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="175"/>
+      <c r="AJ3" s="175"/>
+      <c r="AK3" s="175"/>
+      <c r="AL3" s="176"/>
+      <c r="AM3" s="177" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN3" s="175"/>
+      <c r="AO3" s="175"/>
+      <c r="AP3" s="175"/>
+      <c r="AQ3" s="175"/>
+      <c r="AR3" s="175"/>
+      <c r="AS3" s="175"/>
+      <c r="AT3" s="175"/>
+      <c r="AU3" s="175"/>
+      <c r="AV3" s="175"/>
+      <c r="AW3" s="175"/>
+      <c r="AX3" s="175"/>
+      <c r="AY3" s="175"/>
+      <c r="AZ3" s="175"/>
+      <c r="BA3" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="154"/>
-      <c r="BC3" s="154"/>
-      <c r="BD3" s="154"/>
-      <c r="BE3" s="154"/>
-      <c r="BF3" s="154"/>
-      <c r="BG3" s="154"/>
-      <c r="BH3" s="154"/>
-      <c r="BI3" s="154"/>
-      <c r="BJ3" s="154" t="s">
+      <c r="BB3" s="175"/>
+      <c r="BC3" s="175"/>
+      <c r="BD3" s="175"/>
+      <c r="BE3" s="175"/>
+      <c r="BF3" s="175"/>
+      <c r="BG3" s="175"/>
+      <c r="BH3" s="175"/>
+      <c r="BI3" s="175"/>
+      <c r="BJ3" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="BK3" s="154"/>
-      <c r="BL3" s="154"/>
-      <c r="BM3" s="154"/>
-      <c r="BN3" s="154"/>
-      <c r="BO3" s="154"/>
-      <c r="BP3" s="154"/>
-      <c r="BQ3" s="154"/>
-      <c r="BR3" s="155"/>
+      <c r="BK3" s="175"/>
+      <c r="BL3" s="175"/>
+      <c r="BM3" s="175"/>
+      <c r="BN3" s="175"/>
+      <c r="BO3" s="175"/>
+      <c r="BP3" s="175"/>
+      <c r="BQ3" s="175"/>
+      <c r="BR3" s="176"/>
     </row>
     <row r="4" spans="1:70" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="208"/>
-      <c r="B4" s="207"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="207"/>
-      <c r="AG4" s="207"/>
-      <c r="AH4" s="207"/>
-      <c r="AI4" s="207"/>
-      <c r="AJ4" s="207"/>
-      <c r="AK4" s="207"/>
-      <c r="AL4" s="207"/>
+      <c r="A4" s="179"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="178"/>
+      <c r="Y4" s="178"/>
+      <c r="Z4" s="178"/>
+      <c r="AA4" s="178"/>
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="178"/>
+      <c r="AD4" s="178"/>
+      <c r="AE4" s="178"/>
+      <c r="AF4" s="178"/>
+      <c r="AG4" s="178"/>
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="178"/>
+      <c r="AJ4" s="178"/>
+      <c r="AK4" s="178"/>
+      <c r="AL4" s="178"/>
       <c r="AM4" s="115" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN4" s="202" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO4" s="203"/>
-      <c r="AP4" s="204"/>
-      <c r="AQ4" s="202" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR4" s="203"/>
-      <c r="AS4" s="203"/>
-      <c r="AT4" s="203"/>
-      <c r="AU4" s="203"/>
-      <c r="AV4" s="203"/>
-      <c r="AW4" s="203"/>
-      <c r="AX4" s="203"/>
-      <c r="AY4" s="203"/>
-      <c r="AZ4" s="203"/>
-      <c r="BA4" s="203"/>
-      <c r="BB4" s="203"/>
-      <c r="BC4" s="203"/>
-      <c r="BD4" s="204"/>
-      <c r="BE4" s="202" t="s">
-        <v>166</v>
-      </c>
-      <c r="BF4" s="205"/>
-      <c r="BG4" s="203"/>
-      <c r="BH4" s="203"/>
-      <c r="BI4" s="203"/>
-      <c r="BJ4" s="203"/>
-      <c r="BK4" s="204"/>
-      <c r="BL4" s="202" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN4" s="170" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO4" s="171"/>
+      <c r="AP4" s="172"/>
+      <c r="AQ4" s="170" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR4" s="171"/>
+      <c r="AS4" s="171"/>
+      <c r="AT4" s="171"/>
+      <c r="AU4" s="171"/>
+      <c r="AV4" s="171"/>
+      <c r="AW4" s="171"/>
+      <c r="AX4" s="171"/>
+      <c r="AY4" s="171"/>
+      <c r="AZ4" s="171"/>
+      <c r="BA4" s="171"/>
+      <c r="BB4" s="171"/>
+      <c r="BC4" s="171"/>
+      <c r="BD4" s="172"/>
+      <c r="BE4" s="170" t="s">
+        <v>159</v>
+      </c>
+      <c r="BF4" s="173"/>
+      <c r="BG4" s="171"/>
+      <c r="BH4" s="171"/>
+      <c r="BI4" s="171"/>
+      <c r="BJ4" s="171"/>
+      <c r="BK4" s="172"/>
+      <c r="BL4" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="BM4" s="203"/>
-      <c r="BN4" s="203"/>
-      <c r="BO4" s="204"/>
-      <c r="BP4" s="202" t="s">
+      <c r="BM4" s="171"/>
+      <c r="BN4" s="171"/>
+      <c r="BO4" s="172"/>
+      <c r="BP4" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="BQ4" s="203"/>
-      <c r="BR4" s="206"/>
+      <c r="BQ4" s="171"/>
+      <c r="BR4" s="174"/>
     </row>
     <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="208"/>
-      <c r="B5" s="163" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163" t="s">
-        <v>157</v>
-      </c>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="163"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="163" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE5" s="163"/>
-      <c r="AF5" s="163"/>
-      <c r="AG5" s="163"/>
-      <c r="AH5" s="163"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="163"/>
-      <c r="AK5" s="163" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL5" s="163"/>
+      <c r="A5" s="179"/>
+      <c r="B5" s="216" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="216"/>
+      <c r="P5" s="216" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="216"/>
+      <c r="S5" s="216"/>
+      <c r="T5" s="216"/>
+      <c r="U5" s="216"/>
+      <c r="V5" s="216"/>
+      <c r="W5" s="216" t="s">
+        <v>150</v>
+      </c>
+      <c r="X5" s="216"/>
+      <c r="Y5" s="216"/>
+      <c r="Z5" s="216"/>
+      <c r="AA5" s="216"/>
+      <c r="AB5" s="216"/>
+      <c r="AC5" s="216"/>
+      <c r="AD5" s="216" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE5" s="216"/>
+      <c r="AF5" s="216"/>
+      <c r="AG5" s="216"/>
+      <c r="AH5" s="216"/>
+      <c r="AI5" s="216"/>
+      <c r="AJ5" s="216"/>
+      <c r="AK5" s="216" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL5" s="216"/>
       <c r="AM5" s="116" t="s">
         <v>6</v>
       </c>
@@ -5701,45 +4509,45 @@
       <c r="AQ5" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="142" t="s">
+      <c r="AR5" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="143"/>
-      <c r="AT5" s="142" t="s">
+      <c r="AS5" s="215"/>
+      <c r="AT5" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="143"/>
-      <c r="AV5" s="142" t="s">
+      <c r="AU5" s="215"/>
+      <c r="AV5" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="AW5" s="143"/>
-      <c r="AX5" s="142" t="s">
+      <c r="AW5" s="215"/>
+      <c r="AX5" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="143"/>
-      <c r="AZ5" s="142" t="s">
+      <c r="AY5" s="215"/>
+      <c r="AZ5" s="214" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="143"/>
-      <c r="BB5" s="142" t="s">
+      <c r="BA5" s="215"/>
+      <c r="BB5" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="BC5" s="143"/>
+      <c r="BC5" s="215"/>
       <c r="BD5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="BE5" s="158" t="s">
+      <c r="BE5" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="BF5" s="143"/>
-      <c r="BG5" s="159" t="s">
+      <c r="BF5" s="215"/>
+      <c r="BG5" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="BH5" s="160"/>
-      <c r="BI5" s="159" t="s">
+      <c r="BH5" s="223"/>
+      <c r="BI5" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="160"/>
+      <c r="BJ5" s="223"/>
       <c r="BK5" s="106" t="s">
         <v>21</v>
       </c>
@@ -5767,193 +4575,193 @@
     </row>
     <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
-      <c r="B6" s="231" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="232" t="s">
+      <c r="B6" s="203" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="232" t="s">
+      <c r="D6" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="232" t="s">
+      <c r="E6" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="232" t="s">
+      <c r="F6" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="232" t="s">
+      <c r="G6" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="233" t="s">
+      <c r="H6" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="231" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6" s="232" t="s">
+      <c r="I6" s="203" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="232" t="s">
+      <c r="K6" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="232" t="s">
+      <c r="L6" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="232" t="s">
+      <c r="M6" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="232" t="s">
+      <c r="N6" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="233" t="s">
+      <c r="O6" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="231" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q6" s="232" t="s">
+      <c r="P6" s="203" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q6" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="232" t="s">
+      <c r="R6" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="232" t="s">
+      <c r="S6" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="232" t="s">
+      <c r="T6" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="232" t="s">
+      <c r="U6" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="233" t="s">
+      <c r="V6" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="231" t="s">
-        <v>162</v>
-      </c>
-      <c r="X6" s="232" t="s">
+      <c r="W6" s="203" t="s">
+        <v>155</v>
+      </c>
+      <c r="X6" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="232" t="s">
+      <c r="Y6" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="232" t="s">
+      <c r="Z6" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="232" t="s">
+      <c r="AA6" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="232" t="s">
+      <c r="AB6" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="233" t="s">
+      <c r="AC6" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="231" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE6" s="232" t="s">
+      <c r="AD6" s="203" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE6" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="232" t="s">
+      <c r="AF6" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="232" t="s">
+      <c r="AG6" s="201" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="232" t="s">
+      <c r="AH6" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="232" t="s">
+      <c r="AI6" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="233" t="s">
+      <c r="AJ6" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="231" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL6" s="234" t="s">
+      <c r="AK6" s="203" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL6" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="217" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN6" s="217" t="s">
+      <c r="AM6" s="147" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN6" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="AO6" s="138" t="s">
+      <c r="AO6" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="AP6" s="140" t="s">
+      <c r="AP6" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="AQ6" s="215" t="s">
+      <c r="AQ6" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="AR6" s="156" t="s">
+      <c r="AR6" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="AS6" s="157"/>
-      <c r="AT6" s="156" t="s">
+      <c r="AS6" s="152"/>
+      <c r="AT6" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="AU6" s="157"/>
-      <c r="AV6" s="156" t="s">
+      <c r="AU6" s="152"/>
+      <c r="AV6" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="AW6" s="157"/>
-      <c r="AX6" s="156" t="s">
+      <c r="AW6" s="152"/>
+      <c r="AX6" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="AY6" s="157"/>
-      <c r="AZ6" s="156" t="s">
+      <c r="AY6" s="152"/>
+      <c r="AZ6" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="BA6" s="157"/>
-      <c r="BB6" s="156" t="s">
+      <c r="BA6" s="152"/>
+      <c r="BB6" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="BC6" s="157"/>
-      <c r="BD6" s="225" t="s">
+      <c r="BC6" s="152"/>
+      <c r="BD6" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="BE6" s="227" t="s">
+      <c r="BE6" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="BF6" s="228"/>
-      <c r="BG6" s="229" t="s">
+      <c r="BF6" s="164"/>
+      <c r="BG6" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="BH6" s="230"/>
-      <c r="BI6" s="161" t="s">
+      <c r="BH6" s="166"/>
+      <c r="BI6" s="224" t="s">
         <v>31</v>
       </c>
-      <c r="BJ6" s="162"/>
-      <c r="BK6" s="148" t="s">
+      <c r="BJ6" s="225"/>
+      <c r="BK6" s="228" t="s">
         <v>32</v>
       </c>
-      <c r="BL6" s="217" t="s">
+      <c r="BL6" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="BM6" s="138" t="s">
+      <c r="BM6" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="BN6" s="138" t="s">
+      <c r="BN6" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="BO6" s="140" t="s">
+      <c r="BO6" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="BP6" s="219" t="s">
+      <c r="BP6" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="BQ6" s="223" t="s">
+      <c r="BQ6" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="BR6" s="221" t="s">
+      <c r="BR6" s="157" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5961,48 +4769,48 @@
       <c r="A7" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="236"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="236"/>
-      <c r="G7" s="236"/>
-      <c r="H7" s="237"/>
-      <c r="I7" s="235"/>
-      <c r="J7" s="236"/>
-      <c r="K7" s="236"/>
-      <c r="L7" s="236"/>
-      <c r="M7" s="236"/>
-      <c r="N7" s="236"/>
-      <c r="O7" s="237"/>
-      <c r="P7" s="235"/>
-      <c r="Q7" s="236"/>
-      <c r="R7" s="236"/>
-      <c r="S7" s="236"/>
-      <c r="T7" s="236"/>
-      <c r="U7" s="236"/>
-      <c r="V7" s="237"/>
-      <c r="W7" s="235"/>
-      <c r="X7" s="236"/>
-      <c r="Y7" s="236"/>
-      <c r="Z7" s="236"/>
-      <c r="AA7" s="236"/>
-      <c r="AB7" s="236"/>
-      <c r="AC7" s="237"/>
-      <c r="AD7" s="235"/>
-      <c r="AE7" s="236"/>
-      <c r="AF7" s="236"/>
-      <c r="AG7" s="236"/>
-      <c r="AH7" s="236"/>
-      <c r="AI7" s="236"/>
-      <c r="AJ7" s="237"/>
-      <c r="AK7" s="235"/>
-      <c r="AL7" s="238"/>
-      <c r="AM7" s="218"/>
-      <c r="AN7" s="218"/>
-      <c r="AO7" s="139"/>
-      <c r="AP7" s="141"/>
-      <c r="AQ7" s="216"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="213"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="202"/>
+      <c r="U7" s="202"/>
+      <c r="V7" s="213"/>
+      <c r="W7" s="204"/>
+      <c r="X7" s="202"/>
+      <c r="Y7" s="202"/>
+      <c r="Z7" s="202"/>
+      <c r="AA7" s="202"/>
+      <c r="AB7" s="202"/>
+      <c r="AC7" s="213"/>
+      <c r="AD7" s="204"/>
+      <c r="AE7" s="202"/>
+      <c r="AF7" s="202"/>
+      <c r="AG7" s="202"/>
+      <c r="AH7" s="202"/>
+      <c r="AI7" s="202"/>
+      <c r="AJ7" s="213"/>
+      <c r="AK7" s="204"/>
+      <c r="AL7" s="231"/>
+      <c r="AM7" s="148"/>
+      <c r="AN7" s="148"/>
+      <c r="AO7" s="150"/>
+      <c r="AP7" s="156"/>
+      <c r="AQ7" s="146"/>
       <c r="AR7" s="96"/>
       <c r="AS7" s="98" t="s">
         <v>48</v>
@@ -6027,7 +4835,7 @@
       <c r="BC7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="BD7" s="226"/>
+      <c r="BD7" s="162"/>
       <c r="BE7" s="97"/>
       <c r="BF7" s="98" t="s">
         <v>48</v>
@@ -6040,17 +4848,17 @@
       <c r="BJ7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="149"/>
-      <c r="BL7" s="218"/>
-      <c r="BM7" s="139"/>
-      <c r="BN7" s="139"/>
-      <c r="BO7" s="141"/>
-      <c r="BP7" s="220"/>
-      <c r="BQ7" s="224"/>
-      <c r="BR7" s="222"/>
+      <c r="BK7" s="229"/>
+      <c r="BL7" s="148"/>
+      <c r="BM7" s="150"/>
+      <c r="BN7" s="150"/>
+      <c r="BO7" s="156"/>
+      <c r="BP7" s="154"/>
+      <c r="BQ7" s="160"/>
+      <c r="BR7" s="158"/>
     </row>
     <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="206" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="41"/>
@@ -6115,16 +4923,16 @@
       <c r="BI8" s="126"/>
       <c r="BJ8" s="126"/>
       <c r="BK8" s="127"/>
-      <c r="BL8" s="136"/>
+      <c r="BL8" s="217"/>
       <c r="BM8" s="126"/>
       <c r="BN8" s="126"/>
-      <c r="BO8" s="146"/>
-      <c r="BP8" s="136"/>
+      <c r="BO8" s="226"/>
+      <c r="BP8" s="217"/>
       <c r="BQ8" s="126"/>
-      <c r="BR8" s="144"/>
+      <c r="BR8" s="219"/>
     </row>
     <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="165"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="85"/>
       <c r="C9" s="86"/>
       <c r="D9" s="86"/>
@@ -6187,16 +4995,16 @@
       <c r="BI9" s="129"/>
       <c r="BJ9" s="129"/>
       <c r="BK9" s="130"/>
-      <c r="BL9" s="137"/>
+      <c r="BL9" s="218"/>
       <c r="BM9" s="129"/>
       <c r="BN9" s="129"/>
-      <c r="BO9" s="147"/>
-      <c r="BP9" s="137"/>
+      <c r="BO9" s="227"/>
+      <c r="BP9" s="218"/>
       <c r="BQ9" s="129"/>
-      <c r="BR9" s="145"/>
+      <c r="BR9" s="220"/>
     </row>
     <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="166"/>
+      <c r="A10" s="207"/>
       <c r="B10" s="61"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -6234,41 +5042,41 @@
       <c r="AJ10" s="63"/>
       <c r="AK10" s="64"/>
       <c r="AL10" s="65"/>
-      <c r="AM10" s="212"/>
-      <c r="AN10" s="213"/>
-      <c r="AO10" s="213"/>
-      <c r="AP10" s="213"/>
-      <c r="AQ10" s="213"/>
-      <c r="AR10" s="213"/>
-      <c r="AS10" s="213"/>
-      <c r="AT10" s="213"/>
-      <c r="AU10" s="213"/>
-      <c r="AV10" s="213"/>
-      <c r="AW10" s="213"/>
-      <c r="AX10" s="213"/>
-      <c r="AY10" s="213"/>
-      <c r="AZ10" s="213"/>
-      <c r="BA10" s="213"/>
-      <c r="BB10" s="213"/>
-      <c r="BC10" s="213"/>
-      <c r="BD10" s="213"/>
-      <c r="BE10" s="213"/>
-      <c r="BF10" s="213"/>
-      <c r="BG10" s="213"/>
-      <c r="BH10" s="213"/>
-      <c r="BI10" s="213"/>
-      <c r="BJ10" s="213"/>
-      <c r="BK10" s="213"/>
-      <c r="BL10" s="213"/>
-      <c r="BM10" s="213"/>
-      <c r="BN10" s="213"/>
-      <c r="BO10" s="213"/>
-      <c r="BP10" s="213"/>
-      <c r="BQ10" s="213"/>
-      <c r="BR10" s="214"/>
+      <c r="AM10" s="139"/>
+      <c r="AN10" s="140"/>
+      <c r="AO10" s="140"/>
+      <c r="AP10" s="140"/>
+      <c r="AQ10" s="140"/>
+      <c r="AR10" s="140"/>
+      <c r="AS10" s="140"/>
+      <c r="AT10" s="140"/>
+      <c r="AU10" s="140"/>
+      <c r="AV10" s="140"/>
+      <c r="AW10" s="140"/>
+      <c r="AX10" s="140"/>
+      <c r="AY10" s="140"/>
+      <c r="AZ10" s="140"/>
+      <c r="BA10" s="140"/>
+      <c r="BB10" s="140"/>
+      <c r="BC10" s="140"/>
+      <c r="BD10" s="140"/>
+      <c r="BE10" s="140"/>
+      <c r="BF10" s="140"/>
+      <c r="BG10" s="140"/>
+      <c r="BH10" s="140"/>
+      <c r="BI10" s="140"/>
+      <c r="BJ10" s="140"/>
+      <c r="BK10" s="140"/>
+      <c r="BL10" s="140"/>
+      <c r="BM10" s="140"/>
+      <c r="BN10" s="140"/>
+      <c r="BO10" s="140"/>
+      <c r="BP10" s="140"/>
+      <c r="BQ10" s="140"/>
+      <c r="BR10" s="141"/>
     </row>
     <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="205" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="46"/>
@@ -6333,16 +5141,16 @@
       <c r="BI11" s="126"/>
       <c r="BJ11" s="126"/>
       <c r="BK11" s="127"/>
-      <c r="BL11" s="136"/>
+      <c r="BL11" s="217"/>
       <c r="BM11" s="126"/>
       <c r="BN11" s="126"/>
-      <c r="BO11" s="146"/>
-      <c r="BP11" s="136"/>
+      <c r="BO11" s="226"/>
+      <c r="BP11" s="217"/>
       <c r="BQ11" s="126"/>
-      <c r="BR11" s="144"/>
+      <c r="BR11" s="219"/>
     </row>
     <row r="12" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="165"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="90"/>
       <c r="C12" s="91"/>
       <c r="D12" s="91"/>
@@ -6405,16 +5213,16 @@
       <c r="BI12" s="129"/>
       <c r="BJ12" s="129"/>
       <c r="BK12" s="130"/>
-      <c r="BL12" s="137"/>
+      <c r="BL12" s="218"/>
       <c r="BM12" s="129"/>
       <c r="BN12" s="129"/>
-      <c r="BO12" s="147"/>
-      <c r="BP12" s="137"/>
+      <c r="BO12" s="227"/>
+      <c r="BP12" s="218"/>
       <c r="BQ12" s="129"/>
-      <c r="BR12" s="145"/>
+      <c r="BR12" s="220"/>
     </row>
     <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="165"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
       <c r="D13" s="67"/>
@@ -6452,41 +5260,41 @@
       <c r="AJ13" s="68"/>
       <c r="AK13" s="70"/>
       <c r="AL13" s="71"/>
-      <c r="AM13" s="150"/>
-      <c r="AN13" s="151"/>
-      <c r="AO13" s="151"/>
-      <c r="AP13" s="151"/>
-      <c r="AQ13" s="151"/>
-      <c r="AR13" s="151"/>
-      <c r="AS13" s="151"/>
-      <c r="AT13" s="151"/>
-      <c r="AU13" s="151"/>
-      <c r="AV13" s="151"/>
-      <c r="AW13" s="151"/>
-      <c r="AX13" s="151"/>
-      <c r="AY13" s="151"/>
-      <c r="AZ13" s="151"/>
-      <c r="BA13" s="151"/>
-      <c r="BB13" s="151"/>
-      <c r="BC13" s="151"/>
-      <c r="BD13" s="151"/>
-      <c r="BE13" s="151"/>
-      <c r="BF13" s="151"/>
-      <c r="BG13" s="151"/>
-      <c r="BH13" s="151"/>
-      <c r="BI13" s="151"/>
-      <c r="BJ13" s="151"/>
-      <c r="BK13" s="151"/>
-      <c r="BL13" s="151"/>
-      <c r="BM13" s="151"/>
-      <c r="BN13" s="151"/>
-      <c r="BO13" s="151"/>
-      <c r="BP13" s="151"/>
-      <c r="BQ13" s="151"/>
-      <c r="BR13" s="152"/>
+      <c r="AM13" s="142"/>
+      <c r="AN13" s="143"/>
+      <c r="AO13" s="143"/>
+      <c r="AP13" s="143"/>
+      <c r="AQ13" s="143"/>
+      <c r="AR13" s="143"/>
+      <c r="AS13" s="143"/>
+      <c r="AT13" s="143"/>
+      <c r="AU13" s="143"/>
+      <c r="AV13" s="143"/>
+      <c r="AW13" s="143"/>
+      <c r="AX13" s="143"/>
+      <c r="AY13" s="143"/>
+      <c r="AZ13" s="143"/>
+      <c r="BA13" s="143"/>
+      <c r="BB13" s="143"/>
+      <c r="BC13" s="143"/>
+      <c r="BD13" s="143"/>
+      <c r="BE13" s="143"/>
+      <c r="BF13" s="143"/>
+      <c r="BG13" s="143"/>
+      <c r="BH13" s="143"/>
+      <c r="BI13" s="143"/>
+      <c r="BJ13" s="143"/>
+      <c r="BK13" s="143"/>
+      <c r="BL13" s="143"/>
+      <c r="BM13" s="143"/>
+      <c r="BN13" s="143"/>
+      <c r="BO13" s="143"/>
+      <c r="BP13" s="143"/>
+      <c r="BQ13" s="143"/>
+      <c r="BR13" s="144"/>
     </row>
     <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="164" t="s">
+      <c r="A14" s="205" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="49"/>
@@ -6551,16 +5359,16 @@
       <c r="BI14" s="126"/>
       <c r="BJ14" s="126"/>
       <c r="BK14" s="127"/>
-      <c r="BL14" s="136"/>
+      <c r="BL14" s="217"/>
       <c r="BM14" s="126"/>
       <c r="BN14" s="126"/>
-      <c r="BO14" s="146"/>
-      <c r="BP14" s="136"/>
+      <c r="BO14" s="226"/>
+      <c r="BP14" s="217"/>
       <c r="BQ14" s="126"/>
-      <c r="BR14" s="144"/>
+      <c r="BR14" s="219"/>
     </row>
     <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="165"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
       <c r="D15" s="91"/>
@@ -6623,16 +5431,16 @@
       <c r="BI15" s="129"/>
       <c r="BJ15" s="129"/>
       <c r="BK15" s="130"/>
-      <c r="BL15" s="137"/>
+      <c r="BL15" s="218"/>
       <c r="BM15" s="129"/>
       <c r="BN15" s="129"/>
-      <c r="BO15" s="147"/>
-      <c r="BP15" s="137"/>
+      <c r="BO15" s="227"/>
+      <c r="BP15" s="218"/>
       <c r="BQ15" s="129"/>
-      <c r="BR15" s="145"/>
+      <c r="BR15" s="220"/>
     </row>
     <row r="16" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="166"/>
+      <c r="A16" s="207"/>
       <c r="B16" s="72"/>
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
@@ -6670,41 +5478,41 @@
       <c r="AJ16" s="74"/>
       <c r="AK16" s="75"/>
       <c r="AL16" s="76"/>
-      <c r="AM16" s="150"/>
-      <c r="AN16" s="151"/>
-      <c r="AO16" s="151"/>
-      <c r="AP16" s="151"/>
-      <c r="AQ16" s="151"/>
-      <c r="AR16" s="151"/>
-      <c r="AS16" s="151"/>
-      <c r="AT16" s="151"/>
-      <c r="AU16" s="151"/>
-      <c r="AV16" s="151"/>
-      <c r="AW16" s="151"/>
-      <c r="AX16" s="151"/>
-      <c r="AY16" s="151"/>
-      <c r="AZ16" s="151"/>
-      <c r="BA16" s="151"/>
-      <c r="BB16" s="151"/>
-      <c r="BC16" s="151"/>
-      <c r="BD16" s="151"/>
-      <c r="BE16" s="151"/>
-      <c r="BF16" s="151"/>
-      <c r="BG16" s="151"/>
-      <c r="BH16" s="151"/>
-      <c r="BI16" s="151"/>
-      <c r="BJ16" s="151"/>
-      <c r="BK16" s="151"/>
-      <c r="BL16" s="151"/>
-      <c r="BM16" s="151"/>
-      <c r="BN16" s="151"/>
-      <c r="BO16" s="151"/>
-      <c r="BP16" s="151"/>
-      <c r="BQ16" s="151"/>
-      <c r="BR16" s="152"/>
+      <c r="AM16" s="142"/>
+      <c r="AN16" s="143"/>
+      <c r="AO16" s="143"/>
+      <c r="AP16" s="143"/>
+      <c r="AQ16" s="143"/>
+      <c r="AR16" s="143"/>
+      <c r="AS16" s="143"/>
+      <c r="AT16" s="143"/>
+      <c r="AU16" s="143"/>
+      <c r="AV16" s="143"/>
+      <c r="AW16" s="143"/>
+      <c r="AX16" s="143"/>
+      <c r="AY16" s="143"/>
+      <c r="AZ16" s="143"/>
+      <c r="BA16" s="143"/>
+      <c r="BB16" s="143"/>
+      <c r="BC16" s="143"/>
+      <c r="BD16" s="143"/>
+      <c r="BE16" s="143"/>
+      <c r="BF16" s="143"/>
+      <c r="BG16" s="143"/>
+      <c r="BH16" s="143"/>
+      <c r="BI16" s="143"/>
+      <c r="BJ16" s="143"/>
+      <c r="BK16" s="143"/>
+      <c r="BL16" s="143"/>
+      <c r="BM16" s="143"/>
+      <c r="BN16" s="143"/>
+      <c r="BO16" s="143"/>
+      <c r="BP16" s="143"/>
+      <c r="BQ16" s="143"/>
+      <c r="BR16" s="144"/>
     </row>
     <row r="17" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="206" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="44"/>
@@ -6769,16 +5577,16 @@
       <c r="BI17" s="126"/>
       <c r="BJ17" s="126"/>
       <c r="BK17" s="127"/>
-      <c r="BL17" s="136"/>
+      <c r="BL17" s="217"/>
       <c r="BM17" s="126"/>
       <c r="BN17" s="126"/>
-      <c r="BO17" s="146"/>
-      <c r="BP17" s="136"/>
+      <c r="BO17" s="226"/>
+      <c r="BP17" s="217"/>
       <c r="BQ17" s="126"/>
-      <c r="BR17" s="144"/>
+      <c r="BR17" s="219"/>
     </row>
     <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="165"/>
+      <c r="A18" s="206"/>
       <c r="B18" s="94"/>
       <c r="C18" s="91"/>
       <c r="D18" s="91"/>
@@ -6841,16 +5649,16 @@
       <c r="BI18" s="129"/>
       <c r="BJ18" s="129"/>
       <c r="BK18" s="130"/>
-      <c r="BL18" s="137"/>
+      <c r="BL18" s="218"/>
       <c r="BM18" s="129"/>
       <c r="BN18" s="129"/>
-      <c r="BO18" s="147"/>
-      <c r="BP18" s="137"/>
+      <c r="BO18" s="227"/>
+      <c r="BP18" s="218"/>
       <c r="BQ18" s="129"/>
-      <c r="BR18" s="145"/>
+      <c r="BR18" s="220"/>
     </row>
     <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="166"/>
+      <c r="A19" s="207"/>
       <c r="B19" s="70"/>
       <c r="C19" s="67"/>
       <c r="D19" s="67"/>
@@ -6888,41 +5696,41 @@
       <c r="AJ19" s="68"/>
       <c r="AK19" s="70"/>
       <c r="AL19" s="71"/>
-      <c r="AM19" s="150"/>
-      <c r="AN19" s="151"/>
-      <c r="AO19" s="151"/>
-      <c r="AP19" s="151"/>
-      <c r="AQ19" s="151"/>
-      <c r="AR19" s="151"/>
-      <c r="AS19" s="151"/>
-      <c r="AT19" s="151"/>
-      <c r="AU19" s="151"/>
-      <c r="AV19" s="151"/>
-      <c r="AW19" s="151"/>
-      <c r="AX19" s="151"/>
-      <c r="AY19" s="151"/>
-      <c r="AZ19" s="151"/>
-      <c r="BA19" s="151"/>
-      <c r="BB19" s="151"/>
-      <c r="BC19" s="151"/>
-      <c r="BD19" s="151"/>
-      <c r="BE19" s="151"/>
-      <c r="BF19" s="151"/>
-      <c r="BG19" s="151"/>
-      <c r="BH19" s="151"/>
-      <c r="BI19" s="151"/>
-      <c r="BJ19" s="151"/>
-      <c r="BK19" s="151"/>
-      <c r="BL19" s="151"/>
-      <c r="BM19" s="151"/>
-      <c r="BN19" s="151"/>
-      <c r="BO19" s="151"/>
-      <c r="BP19" s="151"/>
-      <c r="BQ19" s="151"/>
-      <c r="BR19" s="152"/>
+      <c r="AM19" s="142"/>
+      <c r="AN19" s="143"/>
+      <c r="AO19" s="143"/>
+      <c r="AP19" s="143"/>
+      <c r="AQ19" s="143"/>
+      <c r="AR19" s="143"/>
+      <c r="AS19" s="143"/>
+      <c r="AT19" s="143"/>
+      <c r="AU19" s="143"/>
+      <c r="AV19" s="143"/>
+      <c r="AW19" s="143"/>
+      <c r="AX19" s="143"/>
+      <c r="AY19" s="143"/>
+      <c r="AZ19" s="143"/>
+      <c r="BA19" s="143"/>
+      <c r="BB19" s="143"/>
+      <c r="BC19" s="143"/>
+      <c r="BD19" s="143"/>
+      <c r="BE19" s="143"/>
+      <c r="BF19" s="143"/>
+      <c r="BG19" s="143"/>
+      <c r="BH19" s="143"/>
+      <c r="BI19" s="143"/>
+      <c r="BJ19" s="143"/>
+      <c r="BK19" s="143"/>
+      <c r="BL19" s="143"/>
+      <c r="BM19" s="143"/>
+      <c r="BN19" s="143"/>
+      <c r="BO19" s="143"/>
+      <c r="BP19" s="143"/>
+      <c r="BQ19" s="143"/>
+      <c r="BR19" s="144"/>
     </row>
     <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="205" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="49"/>
@@ -6987,16 +5795,16 @@
       <c r="BI20" s="126"/>
       <c r="BJ20" s="126"/>
       <c r="BK20" s="127"/>
-      <c r="BL20" s="136"/>
+      <c r="BL20" s="217"/>
       <c r="BM20" s="126"/>
       <c r="BN20" s="126"/>
-      <c r="BO20" s="146"/>
-      <c r="BP20" s="136"/>
+      <c r="BO20" s="226"/>
+      <c r="BP20" s="217"/>
       <c r="BQ20" s="126"/>
-      <c r="BR20" s="144"/>
+      <c r="BR20" s="219"/>
     </row>
     <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="165"/>
+      <c r="A21" s="206"/>
       <c r="B21" s="94"/>
       <c r="C21" s="91"/>
       <c r="D21" s="91"/>
@@ -7059,16 +5867,16 @@
       <c r="BI21" s="129"/>
       <c r="BJ21" s="129"/>
       <c r="BK21" s="130"/>
-      <c r="BL21" s="137"/>
+      <c r="BL21" s="218"/>
       <c r="BM21" s="129"/>
       <c r="BN21" s="129"/>
-      <c r="BO21" s="147"/>
-      <c r="BP21" s="137"/>
+      <c r="BO21" s="227"/>
+      <c r="BP21" s="218"/>
       <c r="BQ21" s="129"/>
-      <c r="BR21" s="145"/>
+      <c r="BR21" s="220"/>
     </row>
     <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="166"/>
+      <c r="A22" s="207"/>
       <c r="B22" s="70"/>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
@@ -7106,41 +5914,41 @@
       <c r="AJ22" s="68"/>
       <c r="AK22" s="70"/>
       <c r="AL22" s="71"/>
-      <c r="AM22" s="150"/>
-      <c r="AN22" s="151"/>
-      <c r="AO22" s="151"/>
-      <c r="AP22" s="151"/>
-      <c r="AQ22" s="151"/>
-      <c r="AR22" s="151"/>
-      <c r="AS22" s="151"/>
-      <c r="AT22" s="151"/>
-      <c r="AU22" s="151"/>
-      <c r="AV22" s="151"/>
-      <c r="AW22" s="151"/>
-      <c r="AX22" s="151"/>
-      <c r="AY22" s="151"/>
-      <c r="AZ22" s="151"/>
-      <c r="BA22" s="151"/>
-      <c r="BB22" s="151"/>
-      <c r="BC22" s="151"/>
-      <c r="BD22" s="151"/>
-      <c r="BE22" s="151"/>
-      <c r="BF22" s="151"/>
-      <c r="BG22" s="151"/>
-      <c r="BH22" s="151"/>
-      <c r="BI22" s="151"/>
-      <c r="BJ22" s="151"/>
-      <c r="BK22" s="151"/>
-      <c r="BL22" s="151"/>
-      <c r="BM22" s="151"/>
-      <c r="BN22" s="151"/>
-      <c r="BO22" s="151"/>
-      <c r="BP22" s="151"/>
-      <c r="BQ22" s="151"/>
-      <c r="BR22" s="152"/>
+      <c r="AM22" s="142"/>
+      <c r="AN22" s="143"/>
+      <c r="AO22" s="143"/>
+      <c r="AP22" s="143"/>
+      <c r="AQ22" s="143"/>
+      <c r="AR22" s="143"/>
+      <c r="AS22" s="143"/>
+      <c r="AT22" s="143"/>
+      <c r="AU22" s="143"/>
+      <c r="AV22" s="143"/>
+      <c r="AW22" s="143"/>
+      <c r="AX22" s="143"/>
+      <c r="AY22" s="143"/>
+      <c r="AZ22" s="143"/>
+      <c r="BA22" s="143"/>
+      <c r="BB22" s="143"/>
+      <c r="BC22" s="143"/>
+      <c r="BD22" s="143"/>
+      <c r="BE22" s="143"/>
+      <c r="BF22" s="143"/>
+      <c r="BG22" s="143"/>
+      <c r="BH22" s="143"/>
+      <c r="BI22" s="143"/>
+      <c r="BJ22" s="143"/>
+      <c r="BK22" s="143"/>
+      <c r="BL22" s="143"/>
+      <c r="BM22" s="143"/>
+      <c r="BN22" s="143"/>
+      <c r="BO22" s="143"/>
+      <c r="BP22" s="143"/>
+      <c r="BQ22" s="143"/>
+      <c r="BR22" s="144"/>
     </row>
     <row r="23" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="164" t="s">
+      <c r="A23" s="205" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="49"/>
@@ -7205,16 +6013,16 @@
       <c r="BI23" s="126"/>
       <c r="BJ23" s="126"/>
       <c r="BK23" s="127"/>
-      <c r="BL23" s="136"/>
+      <c r="BL23" s="217"/>
       <c r="BM23" s="126"/>
       <c r="BN23" s="126"/>
-      <c r="BO23" s="146"/>
-      <c r="BP23" s="136"/>
+      <c r="BO23" s="226"/>
+      <c r="BP23" s="217"/>
       <c r="BQ23" s="126"/>
-      <c r="BR23" s="144"/>
+      <c r="BR23" s="219"/>
     </row>
     <row r="24" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="165"/>
+      <c r="A24" s="206"/>
       <c r="B24" s="94"/>
       <c r="C24" s="91"/>
       <c r="D24" s="91"/>
@@ -7277,16 +6085,16 @@
       <c r="BI24" s="129"/>
       <c r="BJ24" s="129"/>
       <c r="BK24" s="130"/>
-      <c r="BL24" s="137"/>
+      <c r="BL24" s="218"/>
       <c r="BM24" s="129"/>
       <c r="BN24" s="129"/>
-      <c r="BO24" s="147"/>
-      <c r="BP24" s="137"/>
+      <c r="BO24" s="227"/>
+      <c r="BP24" s="218"/>
       <c r="BQ24" s="129"/>
-      <c r="BR24" s="145"/>
+      <c r="BR24" s="220"/>
     </row>
     <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="166"/>
+      <c r="A25" s="207"/>
       <c r="B25" s="75"/>
       <c r="C25" s="73"/>
       <c r="D25" s="73"/>
@@ -7324,41 +6132,41 @@
       <c r="AJ25" s="74"/>
       <c r="AK25" s="75"/>
       <c r="AL25" s="76"/>
-      <c r="AM25" s="150"/>
-      <c r="AN25" s="151"/>
-      <c r="AO25" s="151"/>
-      <c r="AP25" s="151"/>
-      <c r="AQ25" s="151"/>
-      <c r="AR25" s="151"/>
-      <c r="AS25" s="151"/>
-      <c r="AT25" s="151"/>
-      <c r="AU25" s="151"/>
-      <c r="AV25" s="151"/>
-      <c r="AW25" s="151"/>
-      <c r="AX25" s="151"/>
-      <c r="AY25" s="151"/>
-      <c r="AZ25" s="151"/>
-      <c r="BA25" s="151"/>
-      <c r="BB25" s="151"/>
-      <c r="BC25" s="151"/>
-      <c r="BD25" s="151"/>
-      <c r="BE25" s="151"/>
-      <c r="BF25" s="151"/>
-      <c r="BG25" s="151"/>
-      <c r="BH25" s="151"/>
-      <c r="BI25" s="151"/>
-      <c r="BJ25" s="151"/>
-      <c r="BK25" s="151"/>
-      <c r="BL25" s="151"/>
-      <c r="BM25" s="151"/>
-      <c r="BN25" s="151"/>
-      <c r="BO25" s="151"/>
-      <c r="BP25" s="151"/>
-      <c r="BQ25" s="151"/>
-      <c r="BR25" s="152"/>
+      <c r="AM25" s="142"/>
+      <c r="AN25" s="143"/>
+      <c r="AO25" s="143"/>
+      <c r="AP25" s="143"/>
+      <c r="AQ25" s="143"/>
+      <c r="AR25" s="143"/>
+      <c r="AS25" s="143"/>
+      <c r="AT25" s="143"/>
+      <c r="AU25" s="143"/>
+      <c r="AV25" s="143"/>
+      <c r="AW25" s="143"/>
+      <c r="AX25" s="143"/>
+      <c r="AY25" s="143"/>
+      <c r="AZ25" s="143"/>
+      <c r="BA25" s="143"/>
+      <c r="BB25" s="143"/>
+      <c r="BC25" s="143"/>
+      <c r="BD25" s="143"/>
+      <c r="BE25" s="143"/>
+      <c r="BF25" s="143"/>
+      <c r="BG25" s="143"/>
+      <c r="BH25" s="143"/>
+      <c r="BI25" s="143"/>
+      <c r="BJ25" s="143"/>
+      <c r="BK25" s="143"/>
+      <c r="BL25" s="143"/>
+      <c r="BM25" s="143"/>
+      <c r="BN25" s="143"/>
+      <c r="BO25" s="143"/>
+      <c r="BP25" s="143"/>
+      <c r="BQ25" s="143"/>
+      <c r="BR25" s="144"/>
     </row>
     <row r="26" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="164" t="s">
+      <c r="A26" s="205" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="44"/>
@@ -7423,16 +6231,16 @@
       <c r="BI26" s="126"/>
       <c r="BJ26" s="126"/>
       <c r="BK26" s="127"/>
-      <c r="BL26" s="136"/>
+      <c r="BL26" s="217"/>
       <c r="BM26" s="126"/>
       <c r="BN26" s="126"/>
-      <c r="BO26" s="146"/>
-      <c r="BP26" s="136"/>
+      <c r="BO26" s="226"/>
+      <c r="BP26" s="217"/>
       <c r="BQ26" s="126"/>
-      <c r="BR26" s="144"/>
+      <c r="BR26" s="219"/>
     </row>
     <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="165"/>
+      <c r="A27" s="206"/>
       <c r="B27" s="94"/>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
@@ -7495,16 +6303,16 @@
       <c r="BI27" s="129"/>
       <c r="BJ27" s="129"/>
       <c r="BK27" s="130"/>
-      <c r="BL27" s="137"/>
+      <c r="BL27" s="218"/>
       <c r="BM27" s="129"/>
       <c r="BN27" s="129"/>
-      <c r="BO27" s="147"/>
-      <c r="BP27" s="137"/>
+      <c r="BO27" s="227"/>
+      <c r="BP27" s="218"/>
       <c r="BQ27" s="129"/>
-      <c r="BR27" s="145"/>
+      <c r="BR27" s="220"/>
     </row>
     <row r="28" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="166"/>
+      <c r="A28" s="207"/>
       <c r="B28" s="70"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
@@ -7542,41 +6350,41 @@
       <c r="AJ28" s="68"/>
       <c r="AK28" s="70"/>
       <c r="AL28" s="71"/>
-      <c r="AM28" s="150"/>
-      <c r="AN28" s="151"/>
-      <c r="AO28" s="151"/>
-      <c r="AP28" s="151"/>
-      <c r="AQ28" s="151"/>
-      <c r="AR28" s="151"/>
-      <c r="AS28" s="151"/>
-      <c r="AT28" s="151"/>
-      <c r="AU28" s="151"/>
-      <c r="AV28" s="151"/>
-      <c r="AW28" s="151"/>
-      <c r="AX28" s="151"/>
-      <c r="AY28" s="151"/>
-      <c r="AZ28" s="151"/>
-      <c r="BA28" s="151"/>
-      <c r="BB28" s="151"/>
-      <c r="BC28" s="151"/>
-      <c r="BD28" s="151"/>
-      <c r="BE28" s="151"/>
-      <c r="BF28" s="151"/>
-      <c r="BG28" s="151"/>
-      <c r="BH28" s="151"/>
-      <c r="BI28" s="151"/>
-      <c r="BJ28" s="151"/>
-      <c r="BK28" s="151"/>
-      <c r="BL28" s="151"/>
-      <c r="BM28" s="151"/>
-      <c r="BN28" s="151"/>
-      <c r="BO28" s="151"/>
-      <c r="BP28" s="151"/>
-      <c r="BQ28" s="151"/>
-      <c r="BR28" s="152"/>
+      <c r="AM28" s="142"/>
+      <c r="AN28" s="143"/>
+      <c r="AO28" s="143"/>
+      <c r="AP28" s="143"/>
+      <c r="AQ28" s="143"/>
+      <c r="AR28" s="143"/>
+      <c r="AS28" s="143"/>
+      <c r="AT28" s="143"/>
+      <c r="AU28" s="143"/>
+      <c r="AV28" s="143"/>
+      <c r="AW28" s="143"/>
+      <c r="AX28" s="143"/>
+      <c r="AY28" s="143"/>
+      <c r="AZ28" s="143"/>
+      <c r="BA28" s="143"/>
+      <c r="BB28" s="143"/>
+      <c r="BC28" s="143"/>
+      <c r="BD28" s="143"/>
+      <c r="BE28" s="143"/>
+      <c r="BF28" s="143"/>
+      <c r="BG28" s="143"/>
+      <c r="BH28" s="143"/>
+      <c r="BI28" s="143"/>
+      <c r="BJ28" s="143"/>
+      <c r="BK28" s="143"/>
+      <c r="BL28" s="143"/>
+      <c r="BM28" s="143"/>
+      <c r="BN28" s="143"/>
+      <c r="BO28" s="143"/>
+      <c r="BP28" s="143"/>
+      <c r="BQ28" s="143"/>
+      <c r="BR28" s="144"/>
     </row>
     <row r="29" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="168" t="s">
+      <c r="A29" s="209" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="46"/>
@@ -7641,16 +6449,16 @@
       <c r="BI29" s="126"/>
       <c r="BJ29" s="126"/>
       <c r="BK29" s="127"/>
-      <c r="BL29" s="136"/>
+      <c r="BL29" s="217"/>
       <c r="BM29" s="126"/>
       <c r="BN29" s="126"/>
-      <c r="BO29" s="146"/>
-      <c r="BP29" s="136"/>
+      <c r="BO29" s="226"/>
+      <c r="BP29" s="217"/>
       <c r="BQ29" s="126"/>
-      <c r="BR29" s="144"/>
+      <c r="BR29" s="219"/>
     </row>
     <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="169"/>
+      <c r="A30" s="210"/>
       <c r="B30" s="90"/>
       <c r="C30" s="91"/>
       <c r="D30" s="91"/>
@@ -7713,16 +6521,16 @@
       <c r="BI30" s="129"/>
       <c r="BJ30" s="129"/>
       <c r="BK30" s="130"/>
-      <c r="BL30" s="137"/>
+      <c r="BL30" s="218"/>
       <c r="BM30" s="129"/>
       <c r="BN30" s="129"/>
-      <c r="BO30" s="147"/>
-      <c r="BP30" s="137"/>
+      <c r="BO30" s="227"/>
+      <c r="BP30" s="218"/>
       <c r="BQ30" s="129"/>
-      <c r="BR30" s="145"/>
+      <c r="BR30" s="220"/>
     </row>
     <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="170"/>
+      <c r="A31" s="211"/>
       <c r="B31" s="72"/>
       <c r="C31" s="73"/>
       <c r="D31" s="73"/>
@@ -7760,41 +6568,41 @@
       <c r="AJ31" s="74"/>
       <c r="AK31" s="75"/>
       <c r="AL31" s="76"/>
-      <c r="AM31" s="150"/>
-      <c r="AN31" s="151"/>
-      <c r="AO31" s="151"/>
-      <c r="AP31" s="151"/>
-      <c r="AQ31" s="151"/>
-      <c r="AR31" s="151"/>
-      <c r="AS31" s="151"/>
-      <c r="AT31" s="151"/>
-      <c r="AU31" s="151"/>
-      <c r="AV31" s="151"/>
-      <c r="AW31" s="151"/>
-      <c r="AX31" s="151"/>
-      <c r="AY31" s="151"/>
-      <c r="AZ31" s="151"/>
-      <c r="BA31" s="151"/>
-      <c r="BB31" s="151"/>
-      <c r="BC31" s="151"/>
-      <c r="BD31" s="151"/>
-      <c r="BE31" s="151"/>
-      <c r="BF31" s="151"/>
-      <c r="BG31" s="151"/>
-      <c r="BH31" s="151"/>
-      <c r="BI31" s="151"/>
-      <c r="BJ31" s="151"/>
-      <c r="BK31" s="151"/>
-      <c r="BL31" s="151"/>
-      <c r="BM31" s="151"/>
-      <c r="BN31" s="151"/>
-      <c r="BO31" s="151"/>
-      <c r="BP31" s="151"/>
-      <c r="BQ31" s="151"/>
-      <c r="BR31" s="152"/>
+      <c r="AM31" s="142"/>
+      <c r="AN31" s="143"/>
+      <c r="AO31" s="143"/>
+      <c r="AP31" s="143"/>
+      <c r="AQ31" s="143"/>
+      <c r="AR31" s="143"/>
+      <c r="AS31" s="143"/>
+      <c r="AT31" s="143"/>
+      <c r="AU31" s="143"/>
+      <c r="AV31" s="143"/>
+      <c r="AW31" s="143"/>
+      <c r="AX31" s="143"/>
+      <c r="AY31" s="143"/>
+      <c r="AZ31" s="143"/>
+      <c r="BA31" s="143"/>
+      <c r="BB31" s="143"/>
+      <c r="BC31" s="143"/>
+      <c r="BD31" s="143"/>
+      <c r="BE31" s="143"/>
+      <c r="BF31" s="143"/>
+      <c r="BG31" s="143"/>
+      <c r="BH31" s="143"/>
+      <c r="BI31" s="143"/>
+      <c r="BJ31" s="143"/>
+      <c r="BK31" s="143"/>
+      <c r="BL31" s="143"/>
+      <c r="BM31" s="143"/>
+      <c r="BN31" s="143"/>
+      <c r="BO31" s="143"/>
+      <c r="BP31" s="143"/>
+      <c r="BQ31" s="143"/>
+      <c r="BR31" s="144"/>
     </row>
     <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="168" t="s">
+      <c r="A32" s="209" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="44"/>
@@ -7859,16 +6667,16 @@
       <c r="BI32" s="126"/>
       <c r="BJ32" s="126"/>
       <c r="BK32" s="127"/>
-      <c r="BL32" s="136"/>
+      <c r="BL32" s="217"/>
       <c r="BM32" s="126"/>
       <c r="BN32" s="126"/>
-      <c r="BO32" s="146"/>
-      <c r="BP32" s="136"/>
+      <c r="BO32" s="226"/>
+      <c r="BP32" s="217"/>
       <c r="BQ32" s="126"/>
-      <c r="BR32" s="144"/>
+      <c r="BR32" s="219"/>
     </row>
     <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="169"/>
+      <c r="A33" s="210"/>
       <c r="B33" s="94"/>
       <c r="C33" s="91"/>
       <c r="D33" s="91"/>
@@ -7931,16 +6739,16 @@
       <c r="BI33" s="129"/>
       <c r="BJ33" s="129"/>
       <c r="BK33" s="130"/>
-      <c r="BL33" s="137"/>
+      <c r="BL33" s="218"/>
       <c r="BM33" s="129"/>
       <c r="BN33" s="129"/>
-      <c r="BO33" s="147"/>
-      <c r="BP33" s="137"/>
+      <c r="BO33" s="227"/>
+      <c r="BP33" s="218"/>
       <c r="BQ33" s="129"/>
-      <c r="BR33" s="145"/>
+      <c r="BR33" s="220"/>
     </row>
     <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="170"/>
+      <c r="A34" s="211"/>
       <c r="B34" s="70"/>
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
@@ -7978,41 +6786,41 @@
       <c r="AJ34" s="68"/>
       <c r="AK34" s="70"/>
       <c r="AL34" s="71"/>
-      <c r="AM34" s="150"/>
-      <c r="AN34" s="151"/>
-      <c r="AO34" s="151"/>
-      <c r="AP34" s="151"/>
-      <c r="AQ34" s="151"/>
-      <c r="AR34" s="151"/>
-      <c r="AS34" s="151"/>
-      <c r="AT34" s="151"/>
-      <c r="AU34" s="151"/>
-      <c r="AV34" s="151"/>
-      <c r="AW34" s="151"/>
-      <c r="AX34" s="151"/>
-      <c r="AY34" s="151"/>
-      <c r="AZ34" s="151"/>
-      <c r="BA34" s="151"/>
-      <c r="BB34" s="151"/>
-      <c r="BC34" s="151"/>
-      <c r="BD34" s="151"/>
-      <c r="BE34" s="151"/>
-      <c r="BF34" s="151"/>
-      <c r="BG34" s="151"/>
-      <c r="BH34" s="151"/>
-      <c r="BI34" s="151"/>
-      <c r="BJ34" s="151"/>
-      <c r="BK34" s="151"/>
-      <c r="BL34" s="151"/>
-      <c r="BM34" s="151"/>
-      <c r="BN34" s="151"/>
-      <c r="BO34" s="151"/>
-      <c r="BP34" s="151"/>
-      <c r="BQ34" s="151"/>
-      <c r="BR34" s="152"/>
+      <c r="AM34" s="142"/>
+      <c r="AN34" s="143"/>
+      <c r="AO34" s="143"/>
+      <c r="AP34" s="143"/>
+      <c r="AQ34" s="143"/>
+      <c r="AR34" s="143"/>
+      <c r="AS34" s="143"/>
+      <c r="AT34" s="143"/>
+      <c r="AU34" s="143"/>
+      <c r="AV34" s="143"/>
+      <c r="AW34" s="143"/>
+      <c r="AX34" s="143"/>
+      <c r="AY34" s="143"/>
+      <c r="AZ34" s="143"/>
+      <c r="BA34" s="143"/>
+      <c r="BB34" s="143"/>
+      <c r="BC34" s="143"/>
+      <c r="BD34" s="143"/>
+      <c r="BE34" s="143"/>
+      <c r="BF34" s="143"/>
+      <c r="BG34" s="143"/>
+      <c r="BH34" s="143"/>
+      <c r="BI34" s="143"/>
+      <c r="BJ34" s="143"/>
+      <c r="BK34" s="143"/>
+      <c r="BL34" s="143"/>
+      <c r="BM34" s="143"/>
+      <c r="BN34" s="143"/>
+      <c r="BO34" s="143"/>
+      <c r="BP34" s="143"/>
+      <c r="BQ34" s="143"/>
+      <c r="BR34" s="144"/>
     </row>
     <row r="35" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="164" t="s">
+      <c r="A35" s="205" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="51"/>
@@ -8077,16 +6885,16 @@
       <c r="BI35" s="126"/>
       <c r="BJ35" s="126"/>
       <c r="BK35" s="127"/>
-      <c r="BL35" s="136"/>
+      <c r="BL35" s="217"/>
       <c r="BM35" s="126"/>
       <c r="BN35" s="126"/>
-      <c r="BO35" s="146"/>
-      <c r="BP35" s="136"/>
+      <c r="BO35" s="226"/>
+      <c r="BP35" s="217"/>
       <c r="BQ35" s="126"/>
-      <c r="BR35" s="144"/>
+      <c r="BR35" s="219"/>
     </row>
     <row r="36" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="165"/>
+      <c r="A36" s="206"/>
       <c r="B36" s="94"/>
       <c r="C36" s="91"/>
       <c r="D36" s="91"/>
@@ -8149,16 +6957,16 @@
       <c r="BI36" s="129"/>
       <c r="BJ36" s="129"/>
       <c r="BK36" s="130"/>
-      <c r="BL36" s="137"/>
+      <c r="BL36" s="218"/>
       <c r="BM36" s="129"/>
       <c r="BN36" s="129"/>
-      <c r="BO36" s="147"/>
-      <c r="BP36" s="137"/>
+      <c r="BO36" s="227"/>
+      <c r="BP36" s="218"/>
       <c r="BQ36" s="129"/>
-      <c r="BR36" s="145"/>
+      <c r="BR36" s="220"/>
     </row>
     <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="166"/>
+      <c r="A37" s="207"/>
       <c r="B37" s="75"/>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -8196,41 +7004,41 @@
       <c r="AJ37" s="74"/>
       <c r="AK37" s="75"/>
       <c r="AL37" s="76"/>
-      <c r="AM37" s="150"/>
-      <c r="AN37" s="151"/>
-      <c r="AO37" s="151"/>
-      <c r="AP37" s="151"/>
-      <c r="AQ37" s="151"/>
-      <c r="AR37" s="151"/>
-      <c r="AS37" s="151"/>
-      <c r="AT37" s="151"/>
-      <c r="AU37" s="151"/>
-      <c r="AV37" s="151"/>
-      <c r="AW37" s="151"/>
-      <c r="AX37" s="151"/>
-      <c r="AY37" s="151"/>
-      <c r="AZ37" s="151"/>
-      <c r="BA37" s="151"/>
-      <c r="BB37" s="151"/>
-      <c r="BC37" s="151"/>
-      <c r="BD37" s="151"/>
-      <c r="BE37" s="151"/>
-      <c r="BF37" s="151"/>
-      <c r="BG37" s="151"/>
-      <c r="BH37" s="151"/>
-      <c r="BI37" s="151"/>
-      <c r="BJ37" s="151"/>
-      <c r="BK37" s="151"/>
-      <c r="BL37" s="151"/>
-      <c r="BM37" s="151"/>
-      <c r="BN37" s="151"/>
-      <c r="BO37" s="151"/>
-      <c r="BP37" s="151"/>
-      <c r="BQ37" s="151"/>
-      <c r="BR37" s="152"/>
+      <c r="AM37" s="142"/>
+      <c r="AN37" s="143"/>
+      <c r="AO37" s="143"/>
+      <c r="AP37" s="143"/>
+      <c r="AQ37" s="143"/>
+      <c r="AR37" s="143"/>
+      <c r="AS37" s="143"/>
+      <c r="AT37" s="143"/>
+      <c r="AU37" s="143"/>
+      <c r="AV37" s="143"/>
+      <c r="AW37" s="143"/>
+      <c r="AX37" s="143"/>
+      <c r="AY37" s="143"/>
+      <c r="AZ37" s="143"/>
+      <c r="BA37" s="143"/>
+      <c r="BB37" s="143"/>
+      <c r="BC37" s="143"/>
+      <c r="BD37" s="143"/>
+      <c r="BE37" s="143"/>
+      <c r="BF37" s="143"/>
+      <c r="BG37" s="143"/>
+      <c r="BH37" s="143"/>
+      <c r="BI37" s="143"/>
+      <c r="BJ37" s="143"/>
+      <c r="BK37" s="143"/>
+      <c r="BL37" s="143"/>
+      <c r="BM37" s="143"/>
+      <c r="BN37" s="143"/>
+      <c r="BO37" s="143"/>
+      <c r="BP37" s="143"/>
+      <c r="BQ37" s="143"/>
+      <c r="BR37" s="144"/>
     </row>
     <row r="38" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="164" t="s">
+      <c r="A38" s="205" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="56"/>
@@ -8295,16 +7103,16 @@
       <c r="BI38" s="126"/>
       <c r="BJ38" s="126"/>
       <c r="BK38" s="127"/>
-      <c r="BL38" s="136"/>
+      <c r="BL38" s="217"/>
       <c r="BM38" s="126"/>
       <c r="BN38" s="126"/>
-      <c r="BO38" s="146"/>
-      <c r="BP38" s="136"/>
+      <c r="BO38" s="226"/>
+      <c r="BP38" s="217"/>
       <c r="BQ38" s="126"/>
-      <c r="BR38" s="144"/>
+      <c r="BR38" s="219"/>
     </row>
     <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="165"/>
+      <c r="A39" s="206"/>
       <c r="B39" s="94"/>
       <c r="C39" s="91"/>
       <c r="D39" s="91"/>
@@ -8367,16 +7175,16 @@
       <c r="BI39" s="129"/>
       <c r="BJ39" s="129"/>
       <c r="BK39" s="130"/>
-      <c r="BL39" s="137"/>
+      <c r="BL39" s="218"/>
       <c r="BM39" s="129"/>
       <c r="BN39" s="129"/>
-      <c r="BO39" s="147"/>
-      <c r="BP39" s="137"/>
+      <c r="BO39" s="227"/>
+      <c r="BP39" s="218"/>
       <c r="BQ39" s="129"/>
-      <c r="BR39" s="145"/>
+      <c r="BR39" s="220"/>
     </row>
     <row r="40" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="166"/>
+      <c r="A40" s="207"/>
       <c r="B40" s="70"/>
       <c r="C40" s="67"/>
       <c r="D40" s="67"/>
@@ -8414,41 +7222,41 @@
       <c r="AJ40" s="68"/>
       <c r="AK40" s="70"/>
       <c r="AL40" s="71"/>
-      <c r="AM40" s="150"/>
-      <c r="AN40" s="151"/>
-      <c r="AO40" s="151"/>
-      <c r="AP40" s="151"/>
-      <c r="AQ40" s="151"/>
-      <c r="AR40" s="151"/>
-      <c r="AS40" s="151"/>
-      <c r="AT40" s="151"/>
-      <c r="AU40" s="151"/>
-      <c r="AV40" s="151"/>
-      <c r="AW40" s="151"/>
-      <c r="AX40" s="151"/>
-      <c r="AY40" s="151"/>
-      <c r="AZ40" s="151"/>
-      <c r="BA40" s="151"/>
-      <c r="BB40" s="151"/>
-      <c r="BC40" s="151"/>
-      <c r="BD40" s="151"/>
-      <c r="BE40" s="151"/>
-      <c r="BF40" s="151"/>
-      <c r="BG40" s="151"/>
-      <c r="BH40" s="151"/>
-      <c r="BI40" s="151"/>
-      <c r="BJ40" s="151"/>
-      <c r="BK40" s="151"/>
-      <c r="BL40" s="151"/>
-      <c r="BM40" s="151"/>
-      <c r="BN40" s="151"/>
-      <c r="BO40" s="151"/>
-      <c r="BP40" s="151"/>
-      <c r="BQ40" s="151"/>
-      <c r="BR40" s="152"/>
+      <c r="AM40" s="142"/>
+      <c r="AN40" s="143"/>
+      <c r="AO40" s="143"/>
+      <c r="AP40" s="143"/>
+      <c r="AQ40" s="143"/>
+      <c r="AR40" s="143"/>
+      <c r="AS40" s="143"/>
+      <c r="AT40" s="143"/>
+      <c r="AU40" s="143"/>
+      <c r="AV40" s="143"/>
+      <c r="AW40" s="143"/>
+      <c r="AX40" s="143"/>
+      <c r="AY40" s="143"/>
+      <c r="AZ40" s="143"/>
+      <c r="BA40" s="143"/>
+      <c r="BB40" s="143"/>
+      <c r="BC40" s="143"/>
+      <c r="BD40" s="143"/>
+      <c r="BE40" s="143"/>
+      <c r="BF40" s="143"/>
+      <c r="BG40" s="143"/>
+      <c r="BH40" s="143"/>
+      <c r="BI40" s="143"/>
+      <c r="BJ40" s="143"/>
+      <c r="BK40" s="143"/>
+      <c r="BL40" s="143"/>
+      <c r="BM40" s="143"/>
+      <c r="BN40" s="143"/>
+      <c r="BO40" s="143"/>
+      <c r="BP40" s="143"/>
+      <c r="BQ40" s="143"/>
+      <c r="BR40" s="144"/>
     </row>
     <row r="41" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="164" t="s">
+      <c r="A41" s="205" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="49"/>
@@ -8513,16 +7321,16 @@
       <c r="BI41" s="126"/>
       <c r="BJ41" s="126"/>
       <c r="BK41" s="127"/>
-      <c r="BL41" s="136"/>
+      <c r="BL41" s="217"/>
       <c r="BM41" s="126"/>
       <c r="BN41" s="126"/>
-      <c r="BO41" s="146"/>
-      <c r="BP41" s="136"/>
+      <c r="BO41" s="226"/>
+      <c r="BP41" s="217"/>
       <c r="BQ41" s="126"/>
-      <c r="BR41" s="144"/>
+      <c r="BR41" s="219"/>
     </row>
     <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="165"/>
+      <c r="A42" s="206"/>
       <c r="B42" s="94"/>
       <c r="C42" s="91"/>
       <c r="D42" s="91"/>
@@ -8585,16 +7393,16 @@
       <c r="BI42" s="129"/>
       <c r="BJ42" s="129"/>
       <c r="BK42" s="130"/>
-      <c r="BL42" s="137"/>
+      <c r="BL42" s="218"/>
       <c r="BM42" s="129"/>
       <c r="BN42" s="129"/>
-      <c r="BO42" s="147"/>
-      <c r="BP42" s="137"/>
+      <c r="BO42" s="227"/>
+      <c r="BP42" s="218"/>
       <c r="BQ42" s="129"/>
-      <c r="BR42" s="145"/>
+      <c r="BR42" s="220"/>
     </row>
     <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="167"/>
+      <c r="A43" s="208"/>
       <c r="B43" s="79"/>
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
@@ -8632,44 +7440,44 @@
       <c r="AJ43" s="82"/>
       <c r="AK43" s="79"/>
       <c r="AL43" s="83"/>
-      <c r="AM43" s="209"/>
-      <c r="AN43" s="210"/>
-      <c r="AO43" s="210"/>
-      <c r="AP43" s="210"/>
-      <c r="AQ43" s="210"/>
-      <c r="AR43" s="210"/>
-      <c r="AS43" s="210"/>
-      <c r="AT43" s="210"/>
-      <c r="AU43" s="210"/>
-      <c r="AV43" s="210"/>
-      <c r="AW43" s="210"/>
-      <c r="AX43" s="210"/>
-      <c r="AY43" s="210"/>
-      <c r="AZ43" s="210"/>
-      <c r="BA43" s="210"/>
-      <c r="BB43" s="210"/>
-      <c r="BC43" s="210"/>
-      <c r="BD43" s="210"/>
-      <c r="BE43" s="210"/>
-      <c r="BF43" s="210"/>
-      <c r="BG43" s="210"/>
-      <c r="BH43" s="210"/>
-      <c r="BI43" s="210"/>
-      <c r="BJ43" s="210"/>
-      <c r="BK43" s="210"/>
-      <c r="BL43" s="210"/>
-      <c r="BM43" s="210"/>
-      <c r="BN43" s="210"/>
-      <c r="BO43" s="210"/>
-      <c r="BP43" s="210"/>
-      <c r="BQ43" s="210"/>
-      <c r="BR43" s="211"/>
+      <c r="AM43" s="136"/>
+      <c r="AN43" s="137"/>
+      <c r="AO43" s="137"/>
+      <c r="AP43" s="137"/>
+      <c r="AQ43" s="137"/>
+      <c r="AR43" s="137"/>
+      <c r="AS43" s="137"/>
+      <c r="AT43" s="137"/>
+      <c r="AU43" s="137"/>
+      <c r="AV43" s="137"/>
+      <c r="AW43" s="137"/>
+      <c r="AX43" s="137"/>
+      <c r="AY43" s="137"/>
+      <c r="AZ43" s="137"/>
+      <c r="BA43" s="137"/>
+      <c r="BB43" s="137"/>
+      <c r="BC43" s="137"/>
+      <c r="BD43" s="137"/>
+      <c r="BE43" s="137"/>
+      <c r="BF43" s="137"/>
+      <c r="BG43" s="137"/>
+      <c r="BH43" s="137"/>
+      <c r="BI43" s="137"/>
+      <c r="BJ43" s="137"/>
+      <c r="BK43" s="137"/>
+      <c r="BL43" s="137"/>
+      <c r="BM43" s="137"/>
+      <c r="BN43" s="137"/>
+      <c r="BO43" s="137"/>
+      <c r="BP43" s="137"/>
+      <c r="BQ43" s="137"/>
+      <c r="BR43" s="138"/>
     </row>
     <row r="44" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="194" t="s">
+      <c r="A44" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="195"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="3" t="s">
         <v>62</v>
       </c>
@@ -8705,11 +7513,11 @@
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
       <c r="AI44" s="78"/>
-      <c r="AJ44" s="196" t="s">
+      <c r="AJ44" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="AK44" s="197"/>
-      <c r="AL44" s="198"/>
+      <c r="AK44" s="183"/>
+      <c r="AL44" s="184"/>
       <c r="AM44" s="32"/>
       <c r="AN44" s="33"/>
       <c r="AO44" s="34"/>
@@ -8833,424 +7641,427 @@
       <c r="O46" s="2"/>
       <c r="V46" s="10"/>
       <c r="W46" s="10"/>
-      <c r="BR46" s="113"/>
+      <c r="BR46" s="112"/>
     </row>
     <row r="47" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="191" t="s">
+      <c r="A47" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="191"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="183" t="s">
+      <c r="B47" s="185"/>
+      <c r="C47" s="185"/>
+      <c r="D47" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="184"/>
-      <c r="F47" s="184"/>
+      <c r="E47" s="187"/>
+      <c r="F47" s="187"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="183" t="s">
+      <c r="H47" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="I47" s="184"/>
-      <c r="J47" s="184"/>
+      <c r="I47" s="187"/>
+      <c r="J47" s="187"/>
       <c r="K47" s="15"/>
-      <c r="L47" s="183" t="s">
+      <c r="L47" s="186"/>
+      <c r="M47" s="187"/>
+      <c r="N47" s="187"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="186"/>
+      <c r="Q47" s="187"/>
+      <c r="R47" s="187"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="186"/>
+      <c r="U47" s="187"/>
+      <c r="V47" s="187"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="M47" s="184"/>
-      <c r="N47" s="184"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="183" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q47" s="184"/>
-      <c r="R47" s="184"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="183" t="s">
-        <v>69</v>
-      </c>
-      <c r="U47" s="184"/>
-      <c r="V47" s="184"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="183" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y47" s="184"/>
-      <c r="Z47" s="184"/>
+      <c r="Y47" s="187"/>
+      <c r="Z47" s="187"/>
       <c r="AA47" s="15"/>
-      <c r="AM47" s="189" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN47" s="189"/>
-      <c r="AO47" s="189"/>
-      <c r="AP47" s="192"/>
-      <c r="AQ47" s="192"/>
-      <c r="AR47" s="192"/>
-      <c r="AS47" s="192"/>
-      <c r="AT47" s="192"/>
-      <c r="AU47" s="192"/>
-      <c r="AV47" s="192"/>
-      <c r="AW47" s="193"/>
+      <c r="AM47" s="232" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN47" s="232"/>
+      <c r="AO47" s="232"/>
+      <c r="AP47" s="188"/>
+      <c r="AQ47" s="188"/>
+      <c r="AR47" s="188"/>
+      <c r="AS47" s="188"/>
+      <c r="AT47" s="238"/>
+      <c r="AU47" s="232" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV47" s="232"/>
+      <c r="AW47" s="232"/>
       <c r="AX47" s="11"/>
       <c r="AY47" s="11"/>
       <c r="AZ47" s="11"/>
-      <c r="BC47" s="176" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD47" s="176"/>
-      <c r="BE47" s="176"/>
-      <c r="BF47" s="176"/>
-      <c r="BG47" s="176"/>
-      <c r="BH47" s="176"/>
-      <c r="BI47" s="176"/>
-      <c r="BJ47" s="176"/>
-      <c r="BK47" s="177"/>
-      <c r="BL47" s="178"/>
-      <c r="BM47" s="178"/>
-      <c r="BN47" s="178"/>
-      <c r="BO47" s="178"/>
-      <c r="BP47" s="178"/>
-      <c r="BQ47" s="178"/>
-      <c r="BR47" s="179"/>
+      <c r="BC47" s="233" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD47" s="234"/>
+      <c r="BE47" s="234"/>
+      <c r="BF47" s="235"/>
+      <c r="BG47" s="232"/>
+      <c r="BH47" s="232"/>
+      <c r="BI47" s="232"/>
+      <c r="BJ47" s="232"/>
+      <c r="BK47" s="236"/>
+      <c r="BL47" s="236"/>
+      <c r="BM47" s="236"/>
+      <c r="BN47" s="236"/>
+      <c r="BO47" s="236"/>
+      <c r="BP47" s="236"/>
+      <c r="BQ47" s="236"/>
+      <c r="BR47" s="114"/>
     </row>
     <row r="48" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="191" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="191"/>
-      <c r="C48" s="191"/>
-      <c r="D48" s="183" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="184"/>
-      <c r="F48" s="184"/>
+      <c r="A48" s="185" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="185"/>
+      <c r="C48" s="185"/>
+      <c r="D48" s="186" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="187"/>
+      <c r="F48" s="187"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="183" t="s">
-        <v>75</v>
-      </c>
-      <c r="I48" s="184"/>
-      <c r="J48" s="184"/>
+      <c r="H48" s="186" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" s="187"/>
+      <c r="J48" s="187"/>
       <c r="K48" s="15"/>
-      <c r="L48" s="183" t="s">
-        <v>76</v>
-      </c>
-      <c r="M48" s="184"/>
-      <c r="N48" s="184"/>
+      <c r="L48" s="186" t="s">
+        <v>72</v>
+      </c>
+      <c r="M48" s="187"/>
+      <c r="N48" s="187"/>
       <c r="O48" s="15"/>
-      <c r="P48" s="183"/>
-      <c r="Q48" s="184"/>
-      <c r="R48" s="184"/>
+      <c r="P48" s="186"/>
+      <c r="Q48" s="187"/>
+      <c r="R48" s="187"/>
       <c r="S48" s="15"/>
-      <c r="T48" s="183"/>
-      <c r="U48" s="184"/>
-      <c r="V48" s="184"/>
+      <c r="T48" s="186"/>
+      <c r="U48" s="187"/>
+      <c r="V48" s="187"/>
       <c r="W48" s="15"/>
-      <c r="X48" s="183"/>
-      <c r="Y48" s="184"/>
-      <c r="Z48" s="184"/>
+      <c r="X48" s="186"/>
+      <c r="Y48" s="187"/>
+      <c r="Z48" s="187"/>
       <c r="AA48" s="15"/>
       <c r="AB48" s="1"/>
-      <c r="AM48" s="189" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN48" s="189"/>
-      <c r="AO48" s="189"/>
-      <c r="AP48" s="190"/>
-      <c r="AQ48" s="190"/>
-      <c r="AR48" s="190"/>
-      <c r="AS48" s="190"/>
-      <c r="AT48" s="190"/>
-      <c r="AU48" s="190"/>
-      <c r="AV48" s="190"/>
-      <c r="AW48" s="190"/>
+      <c r="AM48" s="232" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN48" s="232"/>
+      <c r="AO48" s="232"/>
+      <c r="AP48" s="188"/>
+      <c r="AQ48" s="188"/>
+      <c r="AR48" s="188"/>
+      <c r="AS48" s="188"/>
+      <c r="AT48" s="238"/>
+      <c r="AU48" s="238"/>
+      <c r="AV48" s="238"/>
+      <c r="AW48" s="238"/>
       <c r="AX48" s="11"/>
       <c r="AY48" s="11"/>
       <c r="AZ48" s="11"/>
-      <c r="BC48" s="176" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD48" s="176"/>
-      <c r="BE48" s="176"/>
-      <c r="BF48" s="176"/>
-      <c r="BG48" s="176"/>
-      <c r="BH48" s="176"/>
-      <c r="BI48" s="176"/>
-      <c r="BJ48" s="176"/>
-      <c r="BK48" s="177"/>
-      <c r="BL48" s="178"/>
-      <c r="BM48" s="178"/>
-      <c r="BN48" s="178"/>
-      <c r="BO48" s="178"/>
-      <c r="BP48" s="178"/>
-      <c r="BQ48" s="178"/>
-      <c r="BR48" s="179"/>
+      <c r="BC48" s="233" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD48" s="234"/>
+      <c r="BE48" s="234"/>
+      <c r="BF48" s="235"/>
+      <c r="BG48" s="232"/>
+      <c r="BH48" s="232"/>
+      <c r="BI48" s="232"/>
+      <c r="BJ48" s="232"/>
+      <c r="BK48" s="236"/>
+      <c r="BL48" s="236"/>
+      <c r="BM48" s="236"/>
+      <c r="BN48" s="236"/>
+      <c r="BO48" s="236"/>
+      <c r="BP48" s="236"/>
+      <c r="BQ48" s="236"/>
+      <c r="BR48" s="114"/>
     </row>
     <row r="49" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="191" t="s">
+      <c r="A49" s="185" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="185"/>
+      <c r="C49" s="185"/>
+      <c r="D49" s="186" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="187"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="186" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49" s="187"/>
+      <c r="J49" s="187"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="186" t="s">
+        <v>77</v>
+      </c>
+      <c r="M49" s="187"/>
+      <c r="N49" s="187"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="186" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="187"/>
+      <c r="R49" s="187"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="186" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="191"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="183" t="s">
+      <c r="U49" s="187"/>
+      <c r="V49" s="187"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="184"/>
-      <c r="F49" s="184"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="183" t="s">
-        <v>81</v>
-      </c>
-      <c r="I49" s="184"/>
-      <c r="J49" s="184"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="183" t="s">
-        <v>82</v>
-      </c>
-      <c r="M49" s="184"/>
-      <c r="N49" s="184"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q49" s="184"/>
-      <c r="R49" s="184"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="183" t="s">
-        <v>84</v>
-      </c>
-      <c r="U49" s="184"/>
-      <c r="V49" s="184"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="183" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y49" s="184"/>
-      <c r="Z49" s="184"/>
+      <c r="Y49" s="187"/>
+      <c r="Z49" s="187"/>
       <c r="AA49" s="15"/>
       <c r="AJ49" s="4"/>
-      <c r="AM49" s="189" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN49" s="189"/>
-      <c r="AO49" s="189"/>
-      <c r="AP49" s="190"/>
-      <c r="AQ49" s="190"/>
-      <c r="AR49" s="190"/>
-      <c r="AS49" s="190"/>
-      <c r="AT49" s="190"/>
-      <c r="AU49" s="190"/>
-      <c r="AV49" s="190"/>
-      <c r="AW49" s="190"/>
+      <c r="AM49" s="232" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN49" s="232"/>
+      <c r="AO49" s="232"/>
+      <c r="AP49" s="188"/>
+      <c r="AQ49" s="188"/>
+      <c r="AR49" s="188"/>
+      <c r="AS49" s="188"/>
+      <c r="AT49" s="238"/>
+      <c r="AU49" s="238"/>
+      <c r="AV49" s="238"/>
+      <c r="AW49" s="238"/>
       <c r="AX49" s="11"/>
       <c r="AY49" s="11"/>
       <c r="AZ49" s="11"/>
-      <c r="BC49" s="176" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD49" s="176"/>
-      <c r="BE49" s="176"/>
-      <c r="BF49" s="176"/>
-      <c r="BG49" s="176"/>
-      <c r="BH49" s="176"/>
-      <c r="BI49" s="176"/>
-      <c r="BJ49" s="176"/>
-      <c r="BK49" s="177"/>
-      <c r="BL49" s="178"/>
-      <c r="BM49" s="178"/>
-      <c r="BN49" s="178"/>
-      <c r="BO49" s="178"/>
-      <c r="BP49" s="178"/>
-      <c r="BQ49" s="178"/>
-      <c r="BR49" s="179"/>
+      <c r="BC49" s="233" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD49" s="234"/>
+      <c r="BE49" s="234"/>
+      <c r="BF49" s="235"/>
+      <c r="BG49" s="232"/>
+      <c r="BH49" s="232"/>
+      <c r="BI49" s="232"/>
+      <c r="BJ49" s="232"/>
+      <c r="BK49" s="236"/>
+      <c r="BL49" s="236"/>
+      <c r="BM49" s="236"/>
+      <c r="BN49" s="236"/>
+      <c r="BO49" s="236"/>
+      <c r="BP49" s="236"/>
+      <c r="BQ49" s="236"/>
+      <c r="BR49" s="114"/>
     </row>
     <row r="50" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="191"/>
-      <c r="B50" s="191"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="183" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="184"/>
-      <c r="F50" s="184"/>
+      <c r="A50" s="185"/>
+      <c r="B50" s="185"/>
+      <c r="C50" s="185"/>
+      <c r="D50" s="186" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="187"/>
+      <c r="F50" s="187"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="183" t="s">
-        <v>89</v>
-      </c>
-      <c r="I50" s="184"/>
-      <c r="J50" s="184"/>
+      <c r="H50" s="186" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="187"/>
+      <c r="J50" s="187"/>
       <c r="K50" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="L50" s="183" t="s">
-        <v>91</v>
-      </c>
-      <c r="M50" s="184"/>
-      <c r="N50" s="184"/>
+        <v>84</v>
+      </c>
+      <c r="L50" s="186" t="s">
+        <v>85</v>
+      </c>
+      <c r="M50" s="187"/>
+      <c r="N50" s="187"/>
       <c r="O50" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="P50" s="183"/>
-      <c r="Q50" s="184"/>
-      <c r="R50" s="184"/>
+        <v>86</v>
+      </c>
+      <c r="P50" s="186"/>
+      <c r="Q50" s="187"/>
+      <c r="R50" s="187"/>
       <c r="S50" s="15"/>
-      <c r="T50" s="183"/>
-      <c r="U50" s="184"/>
-      <c r="V50" s="184"/>
+      <c r="T50" s="186"/>
+      <c r="U50" s="187"/>
+      <c r="V50" s="187"/>
       <c r="W50" s="15"/>
-      <c r="X50" s="183"/>
-      <c r="Y50" s="184"/>
-      <c r="Z50" s="184"/>
+      <c r="X50" s="186"/>
+      <c r="Y50" s="187"/>
+      <c r="Z50" s="187"/>
       <c r="AA50" s="15"/>
       <c r="AB50" s="1"/>
-      <c r="AM50" s="189" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN50" s="189"/>
-      <c r="AO50" s="189"/>
-      <c r="AP50" s="190"/>
-      <c r="AQ50" s="190"/>
-      <c r="AR50" s="190"/>
-      <c r="AS50" s="190"/>
-      <c r="AT50" s="190"/>
-      <c r="AU50" s="190"/>
-      <c r="AV50" s="190"/>
-      <c r="AW50" s="190"/>
+      <c r="AM50" s="232" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN50" s="232"/>
+      <c r="AO50" s="232"/>
+      <c r="AP50" s="188"/>
+      <c r="AQ50" s="188"/>
+      <c r="AR50" s="188"/>
+      <c r="AS50" s="188"/>
+      <c r="AT50" s="238"/>
+      <c r="AU50" s="238"/>
+      <c r="AV50" s="238"/>
+      <c r="AW50" s="238"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="11"/>
       <c r="AZ50" s="11"/>
-      <c r="BC50" s="176" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD50" s="176"/>
-      <c r="BE50" s="176"/>
-      <c r="BF50" s="176"/>
-      <c r="BG50" s="176"/>
-      <c r="BH50" s="176"/>
-      <c r="BI50" s="176"/>
-      <c r="BJ50" s="176"/>
-      <c r="BK50" s="177"/>
-      <c r="BL50" s="178"/>
-      <c r="BM50" s="178"/>
-      <c r="BN50" s="178"/>
-      <c r="BO50" s="178"/>
-      <c r="BP50" s="178"/>
-      <c r="BQ50" s="178"/>
-      <c r="BR50" s="179"/>
+      <c r="BC50" s="233" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD50" s="234"/>
+      <c r="BE50" s="234"/>
+      <c r="BF50" s="235"/>
+      <c r="BG50" s="232"/>
+      <c r="BH50" s="232"/>
+      <c r="BI50" s="232"/>
+      <c r="BJ50" s="232"/>
+      <c r="BK50" s="236"/>
+      <c r="BL50" s="236"/>
+      <c r="BM50" s="236"/>
+      <c r="BN50" s="236"/>
+      <c r="BO50" s="236"/>
+      <c r="BP50" s="236"/>
+      <c r="BQ50" s="236"/>
+      <c r="BR50" s="114"/>
     </row>
     <row r="51" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="180" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="181"/>
-      <c r="C51" s="182"/>
-      <c r="D51" s="183" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="184"/>
-      <c r="F51" s="184"/>
+      <c r="A51" s="189" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="190"/>
+      <c r="C51" s="191"/>
+      <c r="D51" s="186" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="187"/>
+      <c r="F51" s="187"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="183" t="s">
-        <v>97</v>
-      </c>
-      <c r="I51" s="184"/>
-      <c r="J51" s="184"/>
+      <c r="H51" s="186" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51" s="187"/>
+      <c r="J51" s="187"/>
       <c r="K51" s="15"/>
-      <c r="L51" s="183" t="s">
-        <v>98</v>
-      </c>
-      <c r="M51" s="184"/>
-      <c r="N51" s="184"/>
+      <c r="L51" s="186" t="s">
+        <v>91</v>
+      </c>
+      <c r="M51" s="187"/>
+      <c r="N51" s="187"/>
       <c r="O51" s="15"/>
-      <c r="P51" s="183"/>
-      <c r="Q51" s="184"/>
-      <c r="R51" s="184"/>
+      <c r="P51" s="186"/>
+      <c r="Q51" s="187"/>
+      <c r="R51" s="187"/>
       <c r="S51" s="15"/>
-      <c r="T51" s="183"/>
-      <c r="U51" s="184"/>
-      <c r="V51" s="184"/>
+      <c r="T51" s="186"/>
+      <c r="U51" s="187"/>
+      <c r="V51" s="187"/>
       <c r="W51" s="15"/>
-      <c r="X51" s="183"/>
-      <c r="Y51" s="184"/>
-      <c r="Z51" s="184"/>
+      <c r="X51" s="186"/>
+      <c r="Y51" s="187"/>
+      <c r="Z51" s="187"/>
       <c r="AA51" s="15"/>
       <c r="AB51" s="1"/>
-      <c r="AM51" s="189"/>
-      <c r="AN51" s="189"/>
-      <c r="AO51" s="189"/>
-      <c r="AP51" s="190"/>
-      <c r="AQ51" s="190"/>
-      <c r="AR51" s="190"/>
-      <c r="AS51" s="190"/>
-      <c r="AT51" s="190"/>
-      <c r="AU51" s="190"/>
-      <c r="AV51" s="190"/>
-      <c r="AW51" s="190"/>
+      <c r="AM51" s="239"/>
+      <c r="AN51" s="239"/>
+      <c r="AO51" s="239"/>
+      <c r="AP51" s="238"/>
+      <c r="AQ51" s="238"/>
+      <c r="AR51" s="238"/>
+      <c r="AS51" s="238"/>
+      <c r="AT51" s="238"/>
+      <c r="AU51" s="238"/>
+      <c r="AV51" s="238"/>
+      <c r="AW51" s="238"/>
       <c r="AX51" s="11"/>
       <c r="AY51" s="11"/>
       <c r="AZ51" s="11"/>
-      <c r="BC51" s="176" t="s">
-        <v>99</v>
-      </c>
-      <c r="BD51" s="176"/>
-      <c r="BE51" s="176"/>
-      <c r="BF51" s="176"/>
-      <c r="BG51" s="176"/>
-      <c r="BH51" s="176"/>
-      <c r="BI51" s="176"/>
-      <c r="BJ51" s="176"/>
-      <c r="BK51" s="177"/>
-      <c r="BL51" s="178"/>
-      <c r="BM51" s="178"/>
-      <c r="BN51" s="178"/>
-      <c r="BO51" s="178"/>
-      <c r="BP51" s="178"/>
-      <c r="BQ51" s="178"/>
-      <c r="BR51" s="179"/>
+      <c r="BC51" s="233" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD51" s="234"/>
+      <c r="BE51" s="234"/>
+      <c r="BF51" s="235"/>
+      <c r="BG51" s="232"/>
+      <c r="BH51" s="232"/>
+      <c r="BI51" s="232"/>
+      <c r="BJ51" s="232"/>
+      <c r="BK51" s="236"/>
+      <c r="BL51" s="236"/>
+      <c r="BM51" s="236"/>
+      <c r="BN51" s="236"/>
+      <c r="BO51" s="236"/>
+      <c r="BP51" s="236"/>
+      <c r="BQ51" s="236"/>
+      <c r="BR51" s="114"/>
     </row>
     <row r="52" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="180" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="181"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="183" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="184"/>
-      <c r="F52" s="184"/>
+      <c r="A52" s="189" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="190"/>
+      <c r="C52" s="191"/>
+      <c r="D52" s="186" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="187"/>
+      <c r="F52" s="187"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="183" t="s">
-        <v>102</v>
-      </c>
-      <c r="I52" s="184"/>
-      <c r="J52" s="184"/>
+      <c r="H52" s="186" t="s">
+        <v>95</v>
+      </c>
+      <c r="I52" s="187"/>
+      <c r="J52" s="187"/>
       <c r="K52" s="15"/>
-      <c r="L52" s="183" t="s">
-        <v>103</v>
-      </c>
-      <c r="M52" s="184"/>
-      <c r="N52" s="184"/>
+      <c r="L52" s="186" t="s">
+        <v>96</v>
+      </c>
+      <c r="M52" s="187"/>
+      <c r="N52" s="187"/>
       <c r="O52" s="15"/>
-      <c r="P52" s="183" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q52" s="184"/>
-      <c r="R52" s="184"/>
+      <c r="P52" s="186" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q52" s="187"/>
+      <c r="R52" s="187"/>
       <c r="S52" s="15"/>
-      <c r="T52" s="183" t="s">
-        <v>105</v>
-      </c>
-      <c r="U52" s="184"/>
-      <c r="V52" s="184"/>
+      <c r="T52" s="186" t="s">
+        <v>98</v>
+      </c>
+      <c r="U52" s="187"/>
+      <c r="V52" s="187"/>
       <c r="W52" s="15"/>
-      <c r="X52" s="183" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y52" s="184"/>
-      <c r="Z52" s="184"/>
+      <c r="X52" s="186" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y52" s="187"/>
+      <c r="Z52" s="187"/>
       <c r="AA52" s="15"/>
-      <c r="AI52" s="185"/>
-      <c r="AJ52" s="185"/>
+      <c r="AI52" s="197"/>
+      <c r="AJ52" s="197"/>
       <c r="AK52" s="4"/>
+      <c r="BK52" s="237"/>
+      <c r="BL52" s="237"/>
+      <c r="BM52" s="237"/>
+      <c r="BN52" s="237"/>
+      <c r="BO52" s="237"/>
+      <c r="BP52" s="237"/>
+      <c r="BQ52" s="237"/>
       <c r="BR52" s="112"/>
     </row>
     <row r="53" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9356,7 +8167,7 @@
     </row>
     <row r="55" spans="1:70" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
@@ -9365,355 +8176,611 @@
       <c r="A56" s="28">
         <v>1</v>
       </c>
-      <c r="B56" s="171" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="171"/>
-      <c r="D56" s="171"/>
-      <c r="E56" s="172" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" s="172"/>
-      <c r="G56" s="172"/>
-      <c r="H56" s="172"/>
-      <c r="I56" s="172"/>
-      <c r="J56" s="172"/>
-      <c r="K56" s="172"/>
+      <c r="B56" s="192" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="192"/>
+      <c r="D56" s="192"/>
+      <c r="E56" s="193" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="193"/>
+      <c r="G56" s="193"/>
+      <c r="H56" s="193"/>
+      <c r="I56" s="193"/>
+      <c r="J56" s="193"/>
+      <c r="K56" s="193"/>
       <c r="N56" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="O56" s="173" t="s">
-        <v>111</v>
-      </c>
-      <c r="P56" s="174"/>
-      <c r="Q56" s="175"/>
-      <c r="R56" s="172" t="s">
-        <v>112</v>
-      </c>
-      <c r="S56" s="172"/>
-      <c r="T56" s="172"/>
-      <c r="U56" s="172"/>
-      <c r="V56" s="172"/>
-      <c r="W56" s="172"/>
-      <c r="X56" s="172"/>
+        <v>103</v>
+      </c>
+      <c r="O56" s="194" t="s">
+        <v>104</v>
+      </c>
+      <c r="P56" s="195"/>
+      <c r="Q56" s="196"/>
+      <c r="R56" s="193" t="s">
+        <v>105</v>
+      </c>
+      <c r="S56" s="193"/>
+      <c r="T56" s="193"/>
+      <c r="U56" s="193"/>
+      <c r="V56" s="193"/>
+      <c r="W56" s="193"/>
+      <c r="X56" s="193"/>
       <c r="AA56" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB56" s="186" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC56" s="187"/>
-      <c r="AD56" s="187"/>
-      <c r="AE56" s="187"/>
-      <c r="AF56" s="187"/>
-      <c r="AG56" s="187"/>
-      <c r="AH56" s="187"/>
-      <c r="AI56" s="187"/>
-      <c r="AJ56" s="187"/>
-      <c r="AK56" s="187"/>
-      <c r="AL56" s="187"/>
-      <c r="AM56" s="188"/>
+        <v>106</v>
+      </c>
+      <c r="AB56" s="198" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC56" s="199"/>
+      <c r="AD56" s="199"/>
+      <c r="AE56" s="199"/>
+      <c r="AF56" s="199"/>
+      <c r="AG56" s="199"/>
+      <c r="AH56" s="199"/>
+      <c r="AI56" s="199"/>
+      <c r="AJ56" s="199"/>
+      <c r="AK56" s="199"/>
+      <c r="AL56" s="199"/>
+      <c r="AM56" s="200"/>
     </row>
     <row r="57" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>2</v>
       </c>
-      <c r="B57" s="171" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="171"/>
-      <c r="D57" s="171"/>
-      <c r="E57" s="172" t="s">
-        <v>116</v>
-      </c>
-      <c r="F57" s="172"/>
-      <c r="G57" s="172"/>
-      <c r="H57" s="172"/>
-      <c r="I57" s="172"/>
-      <c r="J57" s="172"/>
-      <c r="K57" s="172"/>
+      <c r="B57" s="192" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="192"/>
+      <c r="D57" s="192"/>
+      <c r="E57" s="193" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="193"/>
+      <c r="G57" s="193"/>
+      <c r="H57" s="193"/>
+      <c r="I57" s="193"/>
+      <c r="J57" s="193"/>
+      <c r="K57" s="193"/>
       <c r="N57" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="O57" s="173" t="s">
-        <v>118</v>
-      </c>
-      <c r="P57" s="174"/>
-      <c r="Q57" s="175"/>
-      <c r="R57" s="172" t="s">
-        <v>119</v>
-      </c>
-      <c r="S57" s="172"/>
-      <c r="T57" s="172"/>
-      <c r="U57" s="172"/>
-      <c r="V57" s="172"/>
-      <c r="W57" s="172"/>
-      <c r="X57" s="172"/>
+        <v>110</v>
+      </c>
+      <c r="O57" s="194" t="s">
+        <v>111</v>
+      </c>
+      <c r="P57" s="195"/>
+      <c r="Q57" s="196"/>
+      <c r="R57" s="193" t="s">
+        <v>112</v>
+      </c>
+      <c r="S57" s="193"/>
+      <c r="T57" s="193"/>
+      <c r="U57" s="193"/>
+      <c r="V57" s="193"/>
+      <c r="W57" s="193"/>
+      <c r="X57" s="193"/>
       <c r="AA57" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB57" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC57" s="171"/>
-      <c r="AD57" s="171"/>
-      <c r="AE57" s="172" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF57" s="172"/>
-      <c r="AG57" s="172"/>
-      <c r="AH57" s="172"/>
-      <c r="AI57" s="172"/>
-      <c r="AJ57" s="172"/>
-      <c r="AK57" s="172"/>
-      <c r="AL57" s="172"/>
-      <c r="AM57" s="172"/>
+        <v>113</v>
+      </c>
+      <c r="AB57" s="192" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC57" s="192"/>
+      <c r="AD57" s="192"/>
+      <c r="AE57" s="193" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF57" s="193"/>
+      <c r="AG57" s="193"/>
+      <c r="AH57" s="193"/>
+      <c r="AI57" s="193"/>
+      <c r="AJ57" s="193"/>
+      <c r="AK57" s="193"/>
+      <c r="AL57" s="193"/>
+      <c r="AM57" s="193"/>
     </row>
     <row r="58" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>3</v>
       </c>
-      <c r="B58" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="171"/>
-      <c r="D58" s="171"/>
-      <c r="E58" s="172" t="s">
-        <v>123</v>
-      </c>
-      <c r="F58" s="172"/>
-      <c r="G58" s="172"/>
-      <c r="H58" s="172"/>
-      <c r="I58" s="172"/>
-      <c r="J58" s="172"/>
-      <c r="K58" s="172"/>
+      <c r="B58" s="192" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="192"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="193" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="193"/>
+      <c r="G58" s="193"/>
+      <c r="H58" s="193"/>
+      <c r="I58" s="193"/>
+      <c r="J58" s="193"/>
+      <c r="K58" s="193"/>
       <c r="N58" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="O58" s="173" t="s">
-        <v>125</v>
-      </c>
-      <c r="P58" s="174"/>
-      <c r="Q58" s="175"/>
-      <c r="R58" s="172" t="s">
-        <v>126</v>
-      </c>
-      <c r="S58" s="172"/>
-      <c r="T58" s="172"/>
-      <c r="U58" s="172"/>
-      <c r="V58" s="172"/>
-      <c r="W58" s="172"/>
-      <c r="X58" s="172"/>
+        <v>117</v>
+      </c>
+      <c r="O58" s="194" t="s">
+        <v>118</v>
+      </c>
+      <c r="P58" s="195"/>
+      <c r="Q58" s="196"/>
+      <c r="R58" s="193" t="s">
+        <v>119</v>
+      </c>
+      <c r="S58" s="193"/>
+      <c r="T58" s="193"/>
+      <c r="U58" s="193"/>
+      <c r="V58" s="193"/>
+      <c r="W58" s="193"/>
+      <c r="X58" s="193"/>
       <c r="AA58" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB58" s="171" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC58" s="171"/>
-      <c r="AD58" s="171"/>
-      <c r="AE58" s="172" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF58" s="172"/>
-      <c r="AG58" s="172"/>
-      <c r="AH58" s="172"/>
-      <c r="AI58" s="172"/>
-      <c r="AJ58" s="172"/>
-      <c r="AK58" s="172"/>
-      <c r="AL58" s="172"/>
-      <c r="AM58" s="172"/>
+        <v>120</v>
+      </c>
+      <c r="AB58" s="192" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC58" s="192"/>
+      <c r="AD58" s="192"/>
+      <c r="AE58" s="193" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF58" s="193"/>
+      <c r="AG58" s="193"/>
+      <c r="AH58" s="193"/>
+      <c r="AI58" s="193"/>
+      <c r="AJ58" s="193"/>
+      <c r="AK58" s="193"/>
+      <c r="AL58" s="193"/>
+      <c r="AM58" s="193"/>
       <c r="AN58" s="30"/>
     </row>
     <row r="59" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>4</v>
       </c>
-      <c r="B59" s="171" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="171"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="172" t="s">
-        <v>130</v>
-      </c>
-      <c r="F59" s="172"/>
-      <c r="G59" s="172"/>
-      <c r="H59" s="172"/>
-      <c r="I59" s="172"/>
-      <c r="J59" s="172"/>
-      <c r="K59" s="172"/>
+      <c r="B59" s="192" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="192"/>
+      <c r="D59" s="192"/>
+      <c r="E59" s="193" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="193"/>
+      <c r="G59" s="193"/>
+      <c r="H59" s="193"/>
+      <c r="I59" s="193"/>
+      <c r="J59" s="193"/>
+      <c r="K59" s="193"/>
       <c r="N59" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="O59" s="173" t="s">
-        <v>132</v>
-      </c>
-      <c r="P59" s="174"/>
-      <c r="Q59" s="175"/>
-      <c r="R59" s="172" t="s">
-        <v>133</v>
-      </c>
-      <c r="S59" s="172"/>
-      <c r="T59" s="172"/>
-      <c r="U59" s="172"/>
-      <c r="V59" s="172"/>
-      <c r="W59" s="172"/>
-      <c r="X59" s="172"/>
+        <v>124</v>
+      </c>
+      <c r="O59" s="194" t="s">
+        <v>125</v>
+      </c>
+      <c r="P59" s="195"/>
+      <c r="Q59" s="196"/>
+      <c r="R59" s="193" t="s">
+        <v>126</v>
+      </c>
+      <c r="S59" s="193"/>
+      <c r="T59" s="193"/>
+      <c r="U59" s="193"/>
+      <c r="V59" s="193"/>
+      <c r="W59" s="193"/>
+      <c r="X59" s="193"/>
       <c r="AA59" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB59" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC59" s="171"/>
-      <c r="AD59" s="171"/>
-      <c r="AE59" s="172" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF59" s="172"/>
-      <c r="AG59" s="172"/>
-      <c r="AH59" s="172"/>
-      <c r="AI59" s="172"/>
-      <c r="AJ59" s="172"/>
-      <c r="AK59" s="172"/>
-      <c r="AL59" s="172"/>
-      <c r="AM59" s="172"/>
+        <v>127</v>
+      </c>
+      <c r="AB59" s="192" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC59" s="192"/>
+      <c r="AD59" s="192"/>
+      <c r="AE59" s="193" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF59" s="193"/>
+      <c r="AG59" s="193"/>
+      <c r="AH59" s="193"/>
+      <c r="AI59" s="193"/>
+      <c r="AJ59" s="193"/>
+      <c r="AK59" s="193"/>
+      <c r="AL59" s="193"/>
+      <c r="AM59" s="193"/>
       <c r="AN59" s="30"/>
     </row>
     <row r="60" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>5</v>
       </c>
-      <c r="B60" s="171" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="171"/>
-      <c r="D60" s="171"/>
-      <c r="E60" s="172" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" s="172"/>
-      <c r="G60" s="172"/>
-      <c r="H60" s="172"/>
-      <c r="I60" s="172"/>
-      <c r="J60" s="172"/>
-      <c r="K60" s="172"/>
+      <c r="B60" s="192" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="192"/>
+      <c r="D60" s="192"/>
+      <c r="E60" s="193" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="193"/>
+      <c r="G60" s="193"/>
+      <c r="H60" s="193"/>
+      <c r="I60" s="193"/>
+      <c r="J60" s="193"/>
+      <c r="K60" s="193"/>
       <c r="N60" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="O60" s="173" t="s">
-        <v>139</v>
-      </c>
-      <c r="P60" s="174"/>
-      <c r="Q60" s="175"/>
-      <c r="R60" s="172" t="s">
-        <v>140</v>
-      </c>
-      <c r="S60" s="172"/>
-      <c r="T60" s="172"/>
-      <c r="U60" s="172"/>
-      <c r="V60" s="172"/>
-      <c r="W60" s="172"/>
-      <c r="X60" s="172"/>
+        <v>131</v>
+      </c>
+      <c r="O60" s="194" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" s="195"/>
+      <c r="Q60" s="196"/>
+      <c r="R60" s="193" t="s">
+        <v>133</v>
+      </c>
+      <c r="S60" s="193"/>
+      <c r="T60" s="193"/>
+      <c r="U60" s="193"/>
+      <c r="V60" s="193"/>
+      <c r="W60" s="193"/>
+      <c r="X60" s="193"/>
       <c r="AA60" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB60" s="171" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC60" s="171"/>
-      <c r="AD60" s="171"/>
-      <c r="AE60" s="172" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF60" s="172"/>
-      <c r="AG60" s="172"/>
-      <c r="AH60" s="172"/>
-      <c r="AI60" s="172"/>
-      <c r="AJ60" s="172"/>
-      <c r="AK60" s="172"/>
-      <c r="AL60" s="172"/>
-      <c r="AM60" s="172"/>
+        <v>134</v>
+      </c>
+      <c r="AB60" s="192" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC60" s="192"/>
+      <c r="AD60" s="192"/>
+      <c r="AE60" s="193" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF60" s="193"/>
+      <c r="AG60" s="193"/>
+      <c r="AH60" s="193"/>
+      <c r="AI60" s="193"/>
+      <c r="AJ60" s="193"/>
+      <c r="AK60" s="193"/>
+      <c r="AL60" s="193"/>
+      <c r="AM60" s="193"/>
       <c r="AN60" s="30"/>
     </row>
     <row r="61" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>6</v>
       </c>
-      <c r="B61" s="171" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" s="171"/>
-      <c r="D61" s="171"/>
-      <c r="E61" s="172" t="s">
-        <v>144</v>
-      </c>
-      <c r="F61" s="172"/>
-      <c r="G61" s="172"/>
-      <c r="H61" s="172"/>
-      <c r="I61" s="172"/>
-      <c r="J61" s="172"/>
-      <c r="K61" s="172"/>
+      <c r="B61" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="192"/>
+      <c r="D61" s="192"/>
+      <c r="E61" s="193" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" s="193"/>
+      <c r="G61" s="193"/>
+      <c r="H61" s="193"/>
+      <c r="I61" s="193"/>
+      <c r="J61" s="193"/>
+      <c r="K61" s="193"/>
       <c r="N61" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="O61" s="173" t="s">
-        <v>146</v>
-      </c>
-      <c r="P61" s="174"/>
-      <c r="Q61" s="175"/>
-      <c r="R61" s="172" t="s">
-        <v>147</v>
-      </c>
-      <c r="S61" s="172"/>
-      <c r="T61" s="172"/>
-      <c r="U61" s="172"/>
-      <c r="V61" s="172"/>
-      <c r="W61" s="172"/>
-      <c r="X61" s="172"/>
+        <v>138</v>
+      </c>
+      <c r="O61" s="194" t="s">
+        <v>139</v>
+      </c>
+      <c r="P61" s="195"/>
+      <c r="Q61" s="196"/>
+      <c r="R61" s="193" t="s">
+        <v>140</v>
+      </c>
+      <c r="S61" s="193"/>
+      <c r="T61" s="193"/>
+      <c r="U61" s="193"/>
+      <c r="V61" s="193"/>
+      <c r="W61" s="193"/>
+      <c r="X61" s="193"/>
       <c r="AA61" s="28"/>
-      <c r="AB61" s="171" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC61" s="171"/>
-      <c r="AD61" s="171"/>
-      <c r="AE61" s="172" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF61" s="172"/>
-      <c r="AG61" s="172"/>
-      <c r="AH61" s="172"/>
-      <c r="AI61" s="172"/>
-      <c r="AJ61" s="172"/>
-      <c r="AK61" s="172"/>
-      <c r="AL61" s="172"/>
-      <c r="AM61" s="172"/>
+      <c r="AB61" s="192" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC61" s="192"/>
+      <c r="AD61" s="192"/>
+      <c r="AE61" s="193" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF61" s="193"/>
+      <c r="AG61" s="193"/>
+      <c r="AH61" s="193"/>
+      <c r="AI61" s="193"/>
+      <c r="AJ61" s="193"/>
+      <c r="AK61" s="193"/>
+      <c r="AL61" s="193"/>
+      <c r="AM61" s="193"/>
     </row>
     <row r="62" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>7</v>
       </c>
-      <c r="B62" s="171" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="171"/>
-      <c r="D62" s="171"/>
-      <c r="E62" s="172" t="s">
-        <v>151</v>
-      </c>
-      <c r="F62" s="172"/>
-      <c r="G62" s="172"/>
-      <c r="H62" s="172"/>
-      <c r="I62" s="172"/>
-      <c r="J62" s="172"/>
-      <c r="K62" s="172"/>
+      <c r="B62" s="192" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="192"/>
+      <c r="D62" s="192"/>
+      <c r="E62" s="193" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="193"/>
+      <c r="G62" s="193"/>
+      <c r="H62" s="193"/>
+      <c r="I62" s="193"/>
+      <c r="J62" s="193"/>
+      <c r="K62" s="193"/>
     </row>
     <row r="63" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
       <c r="N63" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="281">
+  <mergeCells count="280">
+    <mergeCell ref="AP50:AS50"/>
+    <mergeCell ref="AU47:AW47"/>
+    <mergeCell ref="BC47:BF47"/>
+    <mergeCell ref="BC48:BF48"/>
+    <mergeCell ref="BC49:BF49"/>
+    <mergeCell ref="BC50:BF50"/>
+    <mergeCell ref="BC51:BF51"/>
+    <mergeCell ref="BG47:BJ47"/>
+    <mergeCell ref="BG48:BJ48"/>
+    <mergeCell ref="BG49:BJ49"/>
+    <mergeCell ref="BG50:BJ50"/>
+    <mergeCell ref="BG51:BJ51"/>
+    <mergeCell ref="BP35:BP36"/>
+    <mergeCell ref="BP38:BP39"/>
+    <mergeCell ref="BP41:BP42"/>
+    <mergeCell ref="BL26:BL27"/>
+    <mergeCell ref="BL29:BL30"/>
+    <mergeCell ref="BL32:BL33"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="BL35:BL36"/>
+    <mergeCell ref="AM37:BR37"/>
+    <mergeCell ref="BR32:BR33"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BO14:BO15"/>
+    <mergeCell ref="BO17:BO18"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BO23:BO24"/>
+    <mergeCell ref="BO26:BO27"/>
+    <mergeCell ref="BO29:BO30"/>
+    <mergeCell ref="BO32:BO33"/>
+    <mergeCell ref="BP17:BP18"/>
+    <mergeCell ref="BP20:BP21"/>
+    <mergeCell ref="BP23:BP24"/>
+    <mergeCell ref="BP26:BP27"/>
+    <mergeCell ref="BP29:BP30"/>
+    <mergeCell ref="BP32:BP33"/>
+    <mergeCell ref="BR35:BR36"/>
+    <mergeCell ref="BR38:BR39"/>
+    <mergeCell ref="BR41:BR42"/>
+    <mergeCell ref="BP11:BP12"/>
+    <mergeCell ref="BP14:BP15"/>
+    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="BR14:BR15"/>
+    <mergeCell ref="BR17:BR18"/>
+    <mergeCell ref="BR20:BR21"/>
+    <mergeCell ref="BR23:BR24"/>
+    <mergeCell ref="BR26:BR27"/>
+    <mergeCell ref="BR29:BR30"/>
+    <mergeCell ref="AM40:BR40"/>
+    <mergeCell ref="BL38:BL39"/>
+    <mergeCell ref="BL41:BL42"/>
+    <mergeCell ref="BO35:BO36"/>
+    <mergeCell ref="BO38:BO39"/>
+    <mergeCell ref="BO41:BO42"/>
+    <mergeCell ref="BL11:BL12"/>
+    <mergeCell ref="BL14:BL15"/>
+    <mergeCell ref="BL17:BL18"/>
+    <mergeCell ref="BL20:BL21"/>
+    <mergeCell ref="BL23:BL24"/>
+    <mergeCell ref="BO11:BO12"/>
+    <mergeCell ref="AP3:AZ3"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BM2:BR2"/>
+    <mergeCell ref="BM3:BR3"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:K62"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="R61:X61"/>
+    <mergeCell ref="AB61:AD61"/>
+    <mergeCell ref="AE61:AM61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="R60:X60"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="AE60:AM60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:K59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="R59:X59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="AE59:AM59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:K58"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="R58:X58"/>
+    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="AE58:AM58"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:K57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="R57:X57"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="AE57:AM57"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="R56:X56"/>
+    <mergeCell ref="AB56:AM56"/>
+    <mergeCell ref="AM50:AO50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="X50:Z50"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="X49:Z49"/>
+    <mergeCell ref="AM49:AO49"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="AM48:AO48"/>
+    <mergeCell ref="AP48:AS48"/>
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AM47:AO47"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="AM1:BR1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="D3:R3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP2:AZ2"/>
     <mergeCell ref="AM43:BR43"/>
     <mergeCell ref="AM10:BR10"/>
     <mergeCell ref="AM13:BR13"/>
@@ -9738,263 +8805,6 @@
     <mergeCell ref="BD6:BD7"/>
     <mergeCell ref="BE6:BF6"/>
     <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="AM1:BR1"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="AF2:AL2"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="D3:R3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="B4:AL4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AP47:AW47"/>
-    <mergeCell ref="BC47:BJ47"/>
-    <mergeCell ref="BK47:BR47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AM47:AO47"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AM49:AO49"/>
-    <mergeCell ref="AP49:AW49"/>
-    <mergeCell ref="BC49:BJ49"/>
-    <mergeCell ref="BK49:BR49"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="AM48:AO48"/>
-    <mergeCell ref="AP48:AW48"/>
-    <mergeCell ref="BC48:BJ48"/>
-    <mergeCell ref="BK48:BR48"/>
-    <mergeCell ref="AM50:AO50"/>
-    <mergeCell ref="AP50:AW50"/>
-    <mergeCell ref="BC50:BJ50"/>
-    <mergeCell ref="BK50:BR50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AM51:AO51"/>
-    <mergeCell ref="AP51:AW51"/>
-    <mergeCell ref="BC51:BJ51"/>
-    <mergeCell ref="BK51:BR51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:K57"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="R57:X57"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="AE57:AM57"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="R56:X56"/>
-    <mergeCell ref="AB56:AM56"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:K59"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="R59:X59"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="AE59:AM59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:K58"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="R58:X58"/>
-    <mergeCell ref="AB58:AD58"/>
-    <mergeCell ref="AE58:AM58"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:K62"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:K61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="R61:X61"/>
-    <mergeCell ref="AB61:AD61"/>
-    <mergeCell ref="AE61:AM61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:K60"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="R60:X60"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="AE60:AM60"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="AP3:AZ3"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BM2:BR2"/>
-    <mergeCell ref="BM3:BR3"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BR35:BR36"/>
-    <mergeCell ref="BR38:BR39"/>
-    <mergeCell ref="BR41:BR42"/>
-    <mergeCell ref="BP11:BP12"/>
-    <mergeCell ref="BP14:BP15"/>
-    <mergeCell ref="BR11:BR12"/>
-    <mergeCell ref="BR14:BR15"/>
-    <mergeCell ref="BR17:BR18"/>
-    <mergeCell ref="BR20:BR21"/>
-    <mergeCell ref="BR23:BR24"/>
-    <mergeCell ref="BR26:BR27"/>
-    <mergeCell ref="BR29:BR30"/>
-    <mergeCell ref="AM40:BR40"/>
-    <mergeCell ref="BL38:BL39"/>
-    <mergeCell ref="BL41:BL42"/>
-    <mergeCell ref="BO35:BO36"/>
-    <mergeCell ref="BO38:BO39"/>
-    <mergeCell ref="BO41:BO42"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="BL14:BL15"/>
-    <mergeCell ref="BL17:BL18"/>
-    <mergeCell ref="BL20:BL21"/>
-    <mergeCell ref="BL23:BL24"/>
-    <mergeCell ref="BO11:BO12"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="BR32:BR33"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BO14:BO15"/>
-    <mergeCell ref="BO17:BO18"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BO23:BO24"/>
-    <mergeCell ref="BO26:BO27"/>
-    <mergeCell ref="BO29:BO30"/>
-    <mergeCell ref="BO32:BO33"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BP17:BP18"/>
-    <mergeCell ref="BP20:BP21"/>
-    <mergeCell ref="BP23:BP24"/>
-    <mergeCell ref="BP26:BP27"/>
-    <mergeCell ref="BP29:BP30"/>
-    <mergeCell ref="BP32:BP33"/>
-    <mergeCell ref="BP35:BP36"/>
-    <mergeCell ref="BP38:BP39"/>
-    <mergeCell ref="BP41:BP42"/>
-    <mergeCell ref="BL26:BL27"/>
-    <mergeCell ref="BL29:BL30"/>
-    <mergeCell ref="BL32:BL33"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="BL35:BL36"/>
-    <mergeCell ref="AM37:BR37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1CF124-A425-46AD-A57E-F092A94B7414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1009DB67-1830-48D2-A746-816406DD3688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$BR$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$BR$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="166">
   <si>
     <t>業　　主：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -640,6 +640,10 @@
   </si>
   <si>
     <t>追加工期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>當月天數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1880,7 +1884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1915,7 +1919,6 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2269,6 +2272,9 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2401,6 +2407,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2419,12 +2434,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2443,6 +2452,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2452,9 +2464,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2518,6 +2527,12 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2539,12 +2554,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2557,9 +2566,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="distributed"/>
     </xf>
@@ -2569,15 +2575,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="distributed"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2656,13 +2661,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2730,13 +2735,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2754,7 +2759,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10359118" y="15629164"/>
+          <a:off x="10359118" y="15316200"/>
           <a:ext cx="238125" cy="238125"/>
           <a:chOff x="9526" y="10410825"/>
           <a:chExt cx="235895" cy="230951"/>
@@ -2885,13 +2890,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2959,13 +2964,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3033,13 +3038,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3107,13 +3112,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3181,13 +3186,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3255,13 +3260,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3279,7 +3284,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4045404" y="17359993"/>
+          <a:off x="4045404" y="17047029"/>
           <a:ext cx="257175" cy="266700"/>
           <a:chOff x="4879731" y="12448442"/>
           <a:chExt cx="304984" cy="307273"/>
@@ -3365,13 +3370,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3389,7 +3394,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5595257" y="17379043"/>
+          <a:off x="5595257" y="17066079"/>
           <a:ext cx="266700" cy="257175"/>
           <a:chOff x="5478249" y="12555140"/>
           <a:chExt cx="304984" cy="307273"/>
@@ -3477,13 +3482,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3501,7 +3506,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7164161" y="17388568"/>
+          <a:off x="7164161" y="17075604"/>
           <a:ext cx="257175" cy="247650"/>
           <a:chOff x="7148696" y="12475368"/>
           <a:chExt cx="304984" cy="307273"/>
@@ -3630,13 +3635,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3654,7 +3659,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8761639" y="17379043"/>
+          <a:off x="8761639" y="17066079"/>
           <a:ext cx="266700" cy="247650"/>
           <a:chOff x="8671084" y="12102363"/>
           <a:chExt cx="265325" cy="244078"/>
@@ -3735,13 +3740,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4098,12 +4103,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BR63"/>
+  <dimension ref="A1:BR62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC8" sqref="AC8:AC10"/>
-      <selection pane="bottomLeft" sqref="A1:AL1"/>
+      <selection pane="bottomLeft" activeCell="AM6" sqref="AM6:AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4398,7 +4403,7 @@
       <c r="AJ4" s="178"/>
       <c r="AK4" s="178"/>
       <c r="AL4" s="178"/>
-      <c r="AM4" s="115" t="s">
+      <c r="AM4" s="114" t="s">
         <v>156</v>
       </c>
       <c r="AN4" s="170" t="s">
@@ -4445,249 +4450,249 @@
     </row>
     <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="179"/>
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="217" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216" t="s">
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="216"/>
-      <c r="P5" s="216" t="s">
+      <c r="J5" s="217"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="217" t="s">
         <v>149</v>
       </c>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="216"/>
-      <c r="S5" s="216"/>
-      <c r="T5" s="216"/>
-      <c r="U5" s="216"/>
-      <c r="V5" s="216"/>
-      <c r="W5" s="216" t="s">
+      <c r="Q5" s="217"/>
+      <c r="R5" s="217"/>
+      <c r="S5" s="217"/>
+      <c r="T5" s="217"/>
+      <c r="U5" s="217"/>
+      <c r="V5" s="217"/>
+      <c r="W5" s="217" t="s">
         <v>150</v>
       </c>
-      <c r="X5" s="216"/>
-      <c r="Y5" s="216"/>
-      <c r="Z5" s="216"/>
-      <c r="AA5" s="216"/>
-      <c r="AB5" s="216"/>
-      <c r="AC5" s="216"/>
-      <c r="AD5" s="216" t="s">
+      <c r="X5" s="217"/>
+      <c r="Y5" s="217"/>
+      <c r="Z5" s="217"/>
+      <c r="AA5" s="217"/>
+      <c r="AB5" s="217"/>
+      <c r="AC5" s="217"/>
+      <c r="AD5" s="217" t="s">
         <v>151</v>
       </c>
-      <c r="AE5" s="216"/>
-      <c r="AF5" s="216"/>
-      <c r="AG5" s="216"/>
-      <c r="AH5" s="216"/>
-      <c r="AI5" s="216"/>
-      <c r="AJ5" s="216"/>
-      <c r="AK5" s="216" t="s">
+      <c r="AE5" s="217"/>
+      <c r="AF5" s="217"/>
+      <c r="AG5" s="217"/>
+      <c r="AH5" s="217"/>
+      <c r="AI5" s="217"/>
+      <c r="AJ5" s="217"/>
+      <c r="AK5" s="217" t="s">
         <v>152</v>
       </c>
-      <c r="AL5" s="216"/>
-      <c r="AM5" s="116" t="s">
+      <c r="AL5" s="217"/>
+      <c r="AM5" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="AN5" s="102" t="s">
+      <c r="AN5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="AO5" s="103" t="s">
+      <c r="AO5" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="104" t="s">
+      <c r="AP5" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="AQ5" s="105" t="s">
+      <c r="AQ5" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="214" t="s">
+      <c r="AR5" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="215"/>
-      <c r="AT5" s="214" t="s">
+      <c r="AS5" s="216"/>
+      <c r="AT5" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="215"/>
-      <c r="AV5" s="214" t="s">
+      <c r="AU5" s="216"/>
+      <c r="AV5" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="AW5" s="215"/>
-      <c r="AX5" s="214" t="s">
+      <c r="AW5" s="216"/>
+      <c r="AX5" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="215"/>
-      <c r="AZ5" s="214" t="s">
+      <c r="AY5" s="216"/>
+      <c r="AZ5" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="215"/>
-      <c r="BB5" s="214" t="s">
+      <c r="BA5" s="216"/>
+      <c r="BB5" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="BC5" s="215"/>
-      <c r="BD5" s="104" t="s">
+      <c r="BC5" s="216"/>
+      <c r="BD5" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="BE5" s="221" t="s">
+      <c r="BE5" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="BF5" s="215"/>
-      <c r="BG5" s="222" t="s">
+      <c r="BF5" s="216"/>
+      <c r="BG5" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="BH5" s="223"/>
-      <c r="BI5" s="222" t="s">
+      <c r="BH5" s="226"/>
+      <c r="BI5" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="223"/>
-      <c r="BK5" s="106" t="s">
+      <c r="BJ5" s="226"/>
+      <c r="BK5" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="BL5" s="102" t="s">
+      <c r="BL5" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="BM5" s="107" t="s">
+      <c r="BM5" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="BN5" s="107" t="s">
+      <c r="BN5" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="BO5" s="108" t="s">
+      <c r="BO5" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="BP5" s="109" t="s">
+      <c r="BP5" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="BQ5" s="110" t="s">
+      <c r="BQ5" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="BR5" s="111" t="s">
+      <c r="BR5" s="110" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="203" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="204" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="201" t="s">
+      <c r="D6" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="201" t="s">
+      <c r="E6" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="201" t="s">
+      <c r="F6" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="201" t="s">
+      <c r="G6" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="212" t="s">
+      <c r="H6" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="203" t="s">
+      <c r="I6" s="204" t="s">
         <v>155</v>
       </c>
-      <c r="J6" s="201" t="s">
+      <c r="J6" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="201" t="s">
+      <c r="K6" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="201" t="s">
+      <c r="L6" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="201" t="s">
+      <c r="M6" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="201" t="s">
+      <c r="N6" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="212" t="s">
+      <c r="O6" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="203" t="s">
+      <c r="P6" s="204" t="s">
         <v>155</v>
       </c>
-      <c r="Q6" s="201" t="s">
+      <c r="Q6" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="201" t="s">
+      <c r="R6" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="201" t="s">
+      <c r="S6" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="201" t="s">
+      <c r="T6" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="201" t="s">
+      <c r="U6" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="212" t="s">
+      <c r="V6" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="203" t="s">
+      <c r="W6" s="204" t="s">
         <v>155</v>
       </c>
-      <c r="X6" s="201" t="s">
+      <c r="X6" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="201" t="s">
+      <c r="Y6" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="201" t="s">
+      <c r="Z6" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="201" t="s">
+      <c r="AA6" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="201" t="s">
+      <c r="AB6" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="212" t="s">
+      <c r="AC6" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="203" t="s">
+      <c r="AD6" s="204" t="s">
         <v>155</v>
       </c>
-      <c r="AE6" s="201" t="s">
+      <c r="AE6" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="201" t="s">
+      <c r="AF6" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="201" t="s">
+      <c r="AG6" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="201" t="s">
+      <c r="AH6" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="201" t="s">
+      <c r="AI6" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="212" t="s">
+      <c r="AJ6" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="203" t="s">
+      <c r="AK6" s="204" t="s">
         <v>155</v>
       </c>
-      <c r="AL6" s="230" t="s">
+      <c r="AL6" s="231" t="s">
         <v>49</v>
       </c>
       <c r="AM6" s="147" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="AN6" s="147" t="s">
         <v>29</v>
@@ -4736,11 +4741,11 @@
         <v>40</v>
       </c>
       <c r="BH6" s="166"/>
-      <c r="BI6" s="224" t="s">
+      <c r="BI6" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="BJ6" s="225"/>
-      <c r="BK6" s="228" t="s">
+      <c r="BJ6" s="228"/>
+      <c r="BK6" s="229" t="s">
         <v>32</v>
       </c>
       <c r="BL6" s="147" t="s">
@@ -4766,89 +4771,89 @@
       </c>
     </row>
     <row r="7" spans="1:70" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="202"/>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="213"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="213"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
-      <c r="T7" s="202"/>
-      <c r="U7" s="202"/>
-      <c r="V7" s="213"/>
-      <c r="W7" s="204"/>
-      <c r="X7" s="202"/>
-      <c r="Y7" s="202"/>
-      <c r="Z7" s="202"/>
-      <c r="AA7" s="202"/>
-      <c r="AB7" s="202"/>
-      <c r="AC7" s="213"/>
-      <c r="AD7" s="204"/>
-      <c r="AE7" s="202"/>
-      <c r="AF7" s="202"/>
-      <c r="AG7" s="202"/>
-      <c r="AH7" s="202"/>
-      <c r="AI7" s="202"/>
-      <c r="AJ7" s="213"/>
-      <c r="AK7" s="204"/>
-      <c r="AL7" s="231"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="205"/>
+      <c r="J7" s="203"/>
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="214"/>
+      <c r="P7" s="205"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="214"/>
+      <c r="W7" s="205"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="214"/>
+      <c r="AD7" s="205"/>
+      <c r="AE7" s="203"/>
+      <c r="AF7" s="203"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="203"/>
+      <c r="AJ7" s="214"/>
+      <c r="AK7" s="205"/>
+      <c r="AL7" s="232"/>
       <c r="AM7" s="148"/>
       <c r="AN7" s="148"/>
       <c r="AO7" s="150"/>
       <c r="AP7" s="156"/>
       <c r="AQ7" s="146"/>
-      <c r="AR7" s="96"/>
-      <c r="AS7" s="98" t="s">
+      <c r="AR7" s="95"/>
+      <c r="AS7" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="AT7" s="96"/>
-      <c r="AU7" s="98" t="s">
+      <c r="AT7" s="95"/>
+      <c r="AU7" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="98" t="s">
+      <c r="AV7" s="97"/>
+      <c r="AW7" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="AX7" s="99"/>
-      <c r="AY7" s="98" t="s">
+      <c r="AX7" s="98"/>
+      <c r="AY7" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="AZ7" s="99"/>
-      <c r="BA7" s="98" t="s">
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="BB7" s="99"/>
-      <c r="BC7" s="98" t="s">
+      <c r="BB7" s="98"/>
+      <c r="BC7" s="97" t="s">
         <v>48</v>
       </c>
       <c r="BD7" s="162"/>
-      <c r="BE7" s="97"/>
-      <c r="BF7" s="98" t="s">
+      <c r="BE7" s="96"/>
+      <c r="BF7" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="BG7" s="100"/>
-      <c r="BH7" s="98" t="s">
+      <c r="BG7" s="99"/>
+      <c r="BH7" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="BI7" s="101"/>
-      <c r="BJ7" s="98" t="s">
+      <c r="BI7" s="100"/>
+      <c r="BJ7" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="229"/>
+      <c r="BK7" s="230"/>
       <c r="BL7" s="148"/>
       <c r="BM7" s="150"/>
       <c r="BN7" s="150"/>
@@ -4858,190 +4863,190 @@
       <c r="BR7" s="158"/>
     </row>
     <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="206" t="s">
+      <c r="A8" s="207" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="117"/>
-      <c r="AN8" s="118"/>
-      <c r="AO8" s="119"/>
-      <c r="AP8" s="120"/>
-      <c r="AQ8" s="125"/>
-      <c r="AR8" s="126"/>
-      <c r="AS8" s="126"/>
-      <c r="AT8" s="126"/>
-      <c r="AU8" s="126"/>
-      <c r="AV8" s="126"/>
-      <c r="AW8" s="126"/>
-      <c r="AX8" s="126"/>
-      <c r="AY8" s="126"/>
-      <c r="AZ8" s="126"/>
-      <c r="BA8" s="126"/>
-      <c r="BB8" s="126"/>
-      <c r="BC8" s="126"/>
-      <c r="BD8" s="127"/>
-      <c r="BE8" s="125"/>
-      <c r="BF8" s="126"/>
-      <c r="BG8" s="126"/>
-      <c r="BH8" s="126"/>
-      <c r="BI8" s="126"/>
-      <c r="BJ8" s="126"/>
-      <c r="BK8" s="127"/>
-      <c r="BL8" s="217"/>
-      <c r="BM8" s="126"/>
-      <c r="BN8" s="126"/>
-      <c r="BO8" s="226"/>
-      <c r="BP8" s="217"/>
-      <c r="BQ8" s="126"/>
-      <c r="BR8" s="219"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="117"/>
+      <c r="AO8" s="118"/>
+      <c r="AP8" s="119"/>
+      <c r="AQ8" s="124"/>
+      <c r="AR8" s="125"/>
+      <c r="AS8" s="125"/>
+      <c r="AT8" s="125"/>
+      <c r="AU8" s="125"/>
+      <c r="AV8" s="125"/>
+      <c r="AW8" s="125"/>
+      <c r="AX8" s="125"/>
+      <c r="AY8" s="125"/>
+      <c r="AZ8" s="125"/>
+      <c r="BA8" s="125"/>
+      <c r="BB8" s="125"/>
+      <c r="BC8" s="125"/>
+      <c r="BD8" s="126"/>
+      <c r="BE8" s="124"/>
+      <c r="BF8" s="125"/>
+      <c r="BG8" s="125"/>
+      <c r="BH8" s="125"/>
+      <c r="BI8" s="125"/>
+      <c r="BJ8" s="125"/>
+      <c r="BK8" s="126"/>
+      <c r="BL8" s="218"/>
+      <c r="BM8" s="125"/>
+      <c r="BN8" s="125"/>
+      <c r="BO8" s="220"/>
+      <c r="BP8" s="218"/>
+      <c r="BQ8" s="125"/>
+      <c r="BR8" s="222"/>
     </row>
     <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="206"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="88"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="121"/>
-      <c r="AN9" s="122"/>
-      <c r="AO9" s="123"/>
-      <c r="AP9" s="124"/>
-      <c r="AQ9" s="128"/>
-      <c r="AR9" s="129"/>
-      <c r="AS9" s="129"/>
-      <c r="AT9" s="129"/>
-      <c r="AU9" s="129"/>
-      <c r="AV9" s="129"/>
-      <c r="AW9" s="129"/>
-      <c r="AX9" s="129"/>
-      <c r="AY9" s="129"/>
-      <c r="AZ9" s="129"/>
-      <c r="BA9" s="129"/>
-      <c r="BB9" s="129"/>
-      <c r="BC9" s="129"/>
-      <c r="BD9" s="130"/>
-      <c r="BE9" s="128"/>
-      <c r="BF9" s="129"/>
-      <c r="BG9" s="129"/>
-      <c r="BH9" s="129"/>
-      <c r="BI9" s="129"/>
-      <c r="BJ9" s="129"/>
-      <c r="BK9" s="130"/>
-      <c r="BL9" s="218"/>
-      <c r="BM9" s="129"/>
-      <c r="BN9" s="129"/>
-      <c r="BO9" s="227"/>
-      <c r="BP9" s="218"/>
-      <c r="BQ9" s="129"/>
-      <c r="BR9" s="220"/>
+      <c r="A9" s="207"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="85"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="85"/>
+      <c r="AI9" s="85"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="88"/>
+      <c r="AM9" s="120"/>
+      <c r="AN9" s="121"/>
+      <c r="AO9" s="122"/>
+      <c r="AP9" s="123"/>
+      <c r="AQ9" s="127"/>
+      <c r="AR9" s="128"/>
+      <c r="AS9" s="128"/>
+      <c r="AT9" s="128"/>
+      <c r="AU9" s="128"/>
+      <c r="AV9" s="128"/>
+      <c r="AW9" s="128"/>
+      <c r="AX9" s="128"/>
+      <c r="AY9" s="128"/>
+      <c r="AZ9" s="128"/>
+      <c r="BA9" s="128"/>
+      <c r="BB9" s="128"/>
+      <c r="BC9" s="128"/>
+      <c r="BD9" s="129"/>
+      <c r="BE9" s="127"/>
+      <c r="BF9" s="128"/>
+      <c r="BG9" s="128"/>
+      <c r="BH9" s="128"/>
+      <c r="BI9" s="128"/>
+      <c r="BJ9" s="128"/>
+      <c r="BK9" s="129"/>
+      <c r="BL9" s="219"/>
+      <c r="BM9" s="128"/>
+      <c r="BN9" s="128"/>
+      <c r="BO9" s="221"/>
+      <c r="BP9" s="219"/>
+      <c r="BQ9" s="128"/>
+      <c r="BR9" s="223"/>
     </row>
     <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="207"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="63"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="65"/>
+      <c r="A10" s="208"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="64"/>
       <c r="AM10" s="139"/>
       <c r="AN10" s="140"/>
       <c r="AO10" s="140"/>
@@ -5076,190 +5081,190 @@
       <c r="BR10" s="141"/>
     </row>
     <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="205" t="s">
+      <c r="A11" s="206" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="118"/>
-      <c r="AO11" s="119"/>
-      <c r="AP11" s="120"/>
-      <c r="AQ11" s="125"/>
-      <c r="AR11" s="126"/>
-      <c r="AS11" s="126"/>
-      <c r="AT11" s="126"/>
-      <c r="AU11" s="126"/>
-      <c r="AV11" s="126"/>
-      <c r="AW11" s="126"/>
-      <c r="AX11" s="126"/>
-      <c r="AY11" s="126"/>
-      <c r="AZ11" s="126"/>
-      <c r="BA11" s="126"/>
-      <c r="BB11" s="126"/>
-      <c r="BC11" s="126"/>
-      <c r="BD11" s="127"/>
-      <c r="BE11" s="125"/>
-      <c r="BF11" s="126"/>
-      <c r="BG11" s="126"/>
-      <c r="BH11" s="126"/>
-      <c r="BI11" s="126"/>
-      <c r="BJ11" s="126"/>
-      <c r="BK11" s="127"/>
-      <c r="BL11" s="217"/>
-      <c r="BM11" s="126"/>
-      <c r="BN11" s="126"/>
-      <c r="BO11" s="226"/>
-      <c r="BP11" s="217"/>
-      <c r="BQ11" s="126"/>
-      <c r="BR11" s="219"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="117"/>
+      <c r="AO11" s="118"/>
+      <c r="AP11" s="119"/>
+      <c r="AQ11" s="124"/>
+      <c r="AR11" s="125"/>
+      <c r="AS11" s="125"/>
+      <c r="AT11" s="125"/>
+      <c r="AU11" s="125"/>
+      <c r="AV11" s="125"/>
+      <c r="AW11" s="125"/>
+      <c r="AX11" s="125"/>
+      <c r="AY11" s="125"/>
+      <c r="AZ11" s="125"/>
+      <c r="BA11" s="125"/>
+      <c r="BB11" s="125"/>
+      <c r="BC11" s="125"/>
+      <c r="BD11" s="126"/>
+      <c r="BE11" s="124"/>
+      <c r="BF11" s="125"/>
+      <c r="BG11" s="125"/>
+      <c r="BH11" s="125"/>
+      <c r="BI11" s="125"/>
+      <c r="BJ11" s="125"/>
+      <c r="BK11" s="126"/>
+      <c r="BL11" s="218"/>
+      <c r="BM11" s="125"/>
+      <c r="BN11" s="125"/>
+      <c r="BO11" s="220"/>
+      <c r="BP11" s="218"/>
+      <c r="BQ11" s="125"/>
+      <c r="BR11" s="222"/>
     </row>
     <row r="12" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="206"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="91"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="91"/>
-      <c r="Z12" s="91"/>
-      <c r="AA12" s="91"/>
-      <c r="AB12" s="91"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="91"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="91"/>
-      <c r="AH12" s="91"/>
-      <c r="AI12" s="91"/>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="94"/>
-      <c r="AL12" s="95"/>
-      <c r="AM12" s="131"/>
-      <c r="AN12" s="122"/>
-      <c r="AO12" s="123"/>
-      <c r="AP12" s="124"/>
-      <c r="AQ12" s="128"/>
-      <c r="AR12" s="129"/>
-      <c r="AS12" s="129"/>
-      <c r="AT12" s="129"/>
-      <c r="AU12" s="129"/>
-      <c r="AV12" s="129"/>
-      <c r="AW12" s="129"/>
-      <c r="AX12" s="129"/>
-      <c r="AY12" s="129"/>
-      <c r="AZ12" s="129"/>
-      <c r="BA12" s="129"/>
-      <c r="BB12" s="129"/>
-      <c r="BC12" s="129"/>
-      <c r="BD12" s="130"/>
-      <c r="BE12" s="128"/>
-      <c r="BF12" s="129"/>
-      <c r="BG12" s="129"/>
-      <c r="BH12" s="129"/>
-      <c r="BI12" s="129"/>
-      <c r="BJ12" s="129"/>
-      <c r="BK12" s="130"/>
-      <c r="BL12" s="218"/>
-      <c r="BM12" s="129"/>
-      <c r="BN12" s="129"/>
-      <c r="BO12" s="227"/>
-      <c r="BP12" s="218"/>
-      <c r="BQ12" s="129"/>
-      <c r="BR12" s="220"/>
+      <c r="A12" s="207"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="91"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="130"/>
+      <c r="AN12" s="121"/>
+      <c r="AO12" s="122"/>
+      <c r="AP12" s="123"/>
+      <c r="AQ12" s="127"/>
+      <c r="AR12" s="128"/>
+      <c r="AS12" s="128"/>
+      <c r="AT12" s="128"/>
+      <c r="AU12" s="128"/>
+      <c r="AV12" s="128"/>
+      <c r="AW12" s="128"/>
+      <c r="AX12" s="128"/>
+      <c r="AY12" s="128"/>
+      <c r="AZ12" s="128"/>
+      <c r="BA12" s="128"/>
+      <c r="BB12" s="128"/>
+      <c r="BC12" s="128"/>
+      <c r="BD12" s="129"/>
+      <c r="BE12" s="127"/>
+      <c r="BF12" s="128"/>
+      <c r="BG12" s="128"/>
+      <c r="BH12" s="128"/>
+      <c r="BI12" s="128"/>
+      <c r="BJ12" s="128"/>
+      <c r="BK12" s="129"/>
+      <c r="BL12" s="219"/>
+      <c r="BM12" s="128"/>
+      <c r="BN12" s="128"/>
+      <c r="BO12" s="221"/>
+      <c r="BP12" s="219"/>
+      <c r="BQ12" s="128"/>
+      <c r="BR12" s="223"/>
     </row>
     <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="206"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="70"/>
-      <c r="AL13" s="71"/>
+      <c r="A13" s="207"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="67"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="70"/>
       <c r="AM13" s="142"/>
       <c r="AN13" s="143"/>
       <c r="AO13" s="143"/>
@@ -5294,190 +5299,190 @@
       <c r="BR13" s="144"/>
     </row>
     <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="205" t="s">
+      <c r="A14" s="206" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="117"/>
-      <c r="AN14" s="118"/>
-      <c r="AO14" s="119"/>
-      <c r="AP14" s="120"/>
-      <c r="AQ14" s="125"/>
-      <c r="AR14" s="126"/>
-      <c r="AS14" s="126"/>
-      <c r="AT14" s="126"/>
-      <c r="AU14" s="126"/>
-      <c r="AV14" s="126"/>
-      <c r="AW14" s="126"/>
-      <c r="AX14" s="126"/>
-      <c r="AY14" s="126"/>
-      <c r="AZ14" s="126"/>
-      <c r="BA14" s="126"/>
-      <c r="BB14" s="126"/>
-      <c r="BC14" s="126"/>
-      <c r="BD14" s="127"/>
-      <c r="BE14" s="125"/>
-      <c r="BF14" s="126"/>
-      <c r="BG14" s="126"/>
-      <c r="BH14" s="126"/>
-      <c r="BI14" s="126"/>
-      <c r="BJ14" s="126"/>
-      <c r="BK14" s="127"/>
-      <c r="BL14" s="217"/>
-      <c r="BM14" s="126"/>
-      <c r="BN14" s="126"/>
-      <c r="BO14" s="226"/>
-      <c r="BP14" s="217"/>
-      <c r="BQ14" s="126"/>
-      <c r="BR14" s="219"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="116"/>
+      <c r="AN14" s="117"/>
+      <c r="AO14" s="118"/>
+      <c r="AP14" s="119"/>
+      <c r="AQ14" s="124"/>
+      <c r="AR14" s="125"/>
+      <c r="AS14" s="125"/>
+      <c r="AT14" s="125"/>
+      <c r="AU14" s="125"/>
+      <c r="AV14" s="125"/>
+      <c r="AW14" s="125"/>
+      <c r="AX14" s="125"/>
+      <c r="AY14" s="125"/>
+      <c r="AZ14" s="125"/>
+      <c r="BA14" s="125"/>
+      <c r="BB14" s="125"/>
+      <c r="BC14" s="125"/>
+      <c r="BD14" s="126"/>
+      <c r="BE14" s="124"/>
+      <c r="BF14" s="125"/>
+      <c r="BG14" s="125"/>
+      <c r="BH14" s="125"/>
+      <c r="BI14" s="125"/>
+      <c r="BJ14" s="125"/>
+      <c r="BK14" s="126"/>
+      <c r="BL14" s="218"/>
+      <c r="BM14" s="125"/>
+      <c r="BN14" s="125"/>
+      <c r="BO14" s="220"/>
+      <c r="BP14" s="218"/>
+      <c r="BQ14" s="125"/>
+      <c r="BR14" s="222"/>
     </row>
     <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="206"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="91"/>
-      <c r="Y15" s="91"/>
-      <c r="Z15" s="91"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="91"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="91"/>
-      <c r="AH15" s="91"/>
-      <c r="AI15" s="91"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="94"/>
-      <c r="AL15" s="95"/>
-      <c r="AM15" s="131"/>
-      <c r="AN15" s="122"/>
-      <c r="AO15" s="123"/>
-      <c r="AP15" s="124"/>
-      <c r="AQ15" s="128"/>
-      <c r="AR15" s="129"/>
-      <c r="AS15" s="129"/>
-      <c r="AT15" s="129"/>
-      <c r="AU15" s="129"/>
-      <c r="AV15" s="129"/>
-      <c r="AW15" s="129"/>
-      <c r="AX15" s="129"/>
-      <c r="AY15" s="129"/>
-      <c r="AZ15" s="129"/>
-      <c r="BA15" s="129"/>
-      <c r="BB15" s="129"/>
-      <c r="BC15" s="129"/>
-      <c r="BD15" s="130"/>
-      <c r="BE15" s="128"/>
-      <c r="BF15" s="129"/>
-      <c r="BG15" s="129"/>
-      <c r="BH15" s="129"/>
-      <c r="BI15" s="129"/>
-      <c r="BJ15" s="129"/>
-      <c r="BK15" s="130"/>
-      <c r="BL15" s="218"/>
-      <c r="BM15" s="129"/>
-      <c r="BN15" s="129"/>
-      <c r="BO15" s="227"/>
-      <c r="BP15" s="218"/>
-      <c r="BQ15" s="129"/>
-      <c r="BR15" s="220"/>
+      <c r="A15" s="207"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="91"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="130"/>
+      <c r="AN15" s="121"/>
+      <c r="AO15" s="122"/>
+      <c r="AP15" s="123"/>
+      <c r="AQ15" s="127"/>
+      <c r="AR15" s="128"/>
+      <c r="AS15" s="128"/>
+      <c r="AT15" s="128"/>
+      <c r="AU15" s="128"/>
+      <c r="AV15" s="128"/>
+      <c r="AW15" s="128"/>
+      <c r="AX15" s="128"/>
+      <c r="AY15" s="128"/>
+      <c r="AZ15" s="128"/>
+      <c r="BA15" s="128"/>
+      <c r="BB15" s="128"/>
+      <c r="BC15" s="128"/>
+      <c r="BD15" s="129"/>
+      <c r="BE15" s="127"/>
+      <c r="BF15" s="128"/>
+      <c r="BG15" s="128"/>
+      <c r="BH15" s="128"/>
+      <c r="BI15" s="128"/>
+      <c r="BJ15" s="128"/>
+      <c r="BK15" s="129"/>
+      <c r="BL15" s="219"/>
+      <c r="BM15" s="128"/>
+      <c r="BN15" s="128"/>
+      <c r="BO15" s="221"/>
+      <c r="BP15" s="219"/>
+      <c r="BQ15" s="128"/>
+      <c r="BR15" s="223"/>
     </row>
     <row r="16" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="207"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="74"/>
-      <c r="AK16" s="75"/>
-      <c r="AL16" s="76"/>
+      <c r="A16" s="208"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="74"/>
+      <c r="AL16" s="75"/>
       <c r="AM16" s="142"/>
       <c r="AN16" s="143"/>
       <c r="AO16" s="143"/>
@@ -5512,190 +5517,190 @@
       <c r="BR16" s="144"/>
     </row>
     <row r="17" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="206" t="s">
+      <c r="A17" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="43"/>
-      <c r="AK17" s="44"/>
-      <c r="AL17" s="45"/>
-      <c r="AM17" s="117"/>
-      <c r="AN17" s="118"/>
-      <c r="AO17" s="119"/>
-      <c r="AP17" s="120"/>
-      <c r="AQ17" s="125"/>
-      <c r="AR17" s="126"/>
-      <c r="AS17" s="126"/>
-      <c r="AT17" s="126"/>
-      <c r="AU17" s="126"/>
-      <c r="AV17" s="126"/>
-      <c r="AW17" s="126"/>
-      <c r="AX17" s="126"/>
-      <c r="AY17" s="126"/>
-      <c r="AZ17" s="126"/>
-      <c r="BA17" s="126"/>
-      <c r="BB17" s="126"/>
-      <c r="BC17" s="126"/>
-      <c r="BD17" s="127"/>
-      <c r="BE17" s="125"/>
-      <c r="BF17" s="126"/>
-      <c r="BG17" s="126"/>
-      <c r="BH17" s="126"/>
-      <c r="BI17" s="126"/>
-      <c r="BJ17" s="126"/>
-      <c r="BK17" s="127"/>
-      <c r="BL17" s="217"/>
-      <c r="BM17" s="126"/>
-      <c r="BN17" s="126"/>
-      <c r="BO17" s="226"/>
-      <c r="BP17" s="217"/>
-      <c r="BQ17" s="126"/>
-      <c r="BR17" s="219"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="43"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="116"/>
+      <c r="AN17" s="117"/>
+      <c r="AO17" s="118"/>
+      <c r="AP17" s="119"/>
+      <c r="AQ17" s="124"/>
+      <c r="AR17" s="125"/>
+      <c r="AS17" s="125"/>
+      <c r="AT17" s="125"/>
+      <c r="AU17" s="125"/>
+      <c r="AV17" s="125"/>
+      <c r="AW17" s="125"/>
+      <c r="AX17" s="125"/>
+      <c r="AY17" s="125"/>
+      <c r="AZ17" s="125"/>
+      <c r="BA17" s="125"/>
+      <c r="BB17" s="125"/>
+      <c r="BC17" s="125"/>
+      <c r="BD17" s="126"/>
+      <c r="BE17" s="124"/>
+      <c r="BF17" s="125"/>
+      <c r="BG17" s="125"/>
+      <c r="BH17" s="125"/>
+      <c r="BI17" s="125"/>
+      <c r="BJ17" s="125"/>
+      <c r="BK17" s="126"/>
+      <c r="BL17" s="218"/>
+      <c r="BM17" s="125"/>
+      <c r="BN17" s="125"/>
+      <c r="BO17" s="220"/>
+      <c r="BP17" s="218"/>
+      <c r="BQ17" s="125"/>
+      <c r="BR17" s="222"/>
     </row>
     <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="206"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="91"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="91"/>
-      <c r="Z18" s="91"/>
-      <c r="AA18" s="91"/>
-      <c r="AB18" s="91"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="91"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="91"/>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="91"/>
-      <c r="AJ18" s="92"/>
-      <c r="AK18" s="94"/>
-      <c r="AL18" s="95"/>
-      <c r="AM18" s="132"/>
-      <c r="AN18" s="133"/>
-      <c r="AO18" s="134"/>
-      <c r="AP18" s="135"/>
-      <c r="AQ18" s="128"/>
-      <c r="AR18" s="129"/>
-      <c r="AS18" s="129"/>
-      <c r="AT18" s="129"/>
-      <c r="AU18" s="129"/>
-      <c r="AV18" s="129"/>
-      <c r="AW18" s="129"/>
-      <c r="AX18" s="129"/>
-      <c r="AY18" s="129"/>
-      <c r="AZ18" s="129"/>
-      <c r="BA18" s="129"/>
-      <c r="BB18" s="129"/>
-      <c r="BC18" s="129"/>
-      <c r="BD18" s="130"/>
-      <c r="BE18" s="128"/>
-      <c r="BF18" s="129"/>
-      <c r="BG18" s="129"/>
-      <c r="BH18" s="129"/>
-      <c r="BI18" s="129"/>
-      <c r="BJ18" s="129"/>
-      <c r="BK18" s="130"/>
-      <c r="BL18" s="218"/>
-      <c r="BM18" s="129"/>
-      <c r="BN18" s="129"/>
-      <c r="BO18" s="227"/>
-      <c r="BP18" s="218"/>
-      <c r="BQ18" s="129"/>
-      <c r="BR18" s="220"/>
+      <c r="A18" s="207"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="91"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="91"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="131"/>
+      <c r="AN18" s="132"/>
+      <c r="AO18" s="133"/>
+      <c r="AP18" s="134"/>
+      <c r="AQ18" s="127"/>
+      <c r="AR18" s="128"/>
+      <c r="AS18" s="128"/>
+      <c r="AT18" s="128"/>
+      <c r="AU18" s="128"/>
+      <c r="AV18" s="128"/>
+      <c r="AW18" s="128"/>
+      <c r="AX18" s="128"/>
+      <c r="AY18" s="128"/>
+      <c r="AZ18" s="128"/>
+      <c r="BA18" s="128"/>
+      <c r="BB18" s="128"/>
+      <c r="BC18" s="128"/>
+      <c r="BD18" s="129"/>
+      <c r="BE18" s="127"/>
+      <c r="BF18" s="128"/>
+      <c r="BG18" s="128"/>
+      <c r="BH18" s="128"/>
+      <c r="BI18" s="128"/>
+      <c r="BJ18" s="128"/>
+      <c r="BK18" s="129"/>
+      <c r="BL18" s="219"/>
+      <c r="BM18" s="128"/>
+      <c r="BN18" s="128"/>
+      <c r="BO18" s="221"/>
+      <c r="BP18" s="219"/>
+      <c r="BQ18" s="128"/>
+      <c r="BR18" s="223"/>
     </row>
     <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="207"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="67"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="67"/>
-      <c r="AI19" s="67"/>
-      <c r="AJ19" s="68"/>
-      <c r="AK19" s="70"/>
-      <c r="AL19" s="71"/>
+      <c r="A19" s="208"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="69"/>
+      <c r="AL19" s="70"/>
       <c r="AM19" s="142"/>
       <c r="AN19" s="143"/>
       <c r="AO19" s="143"/>
@@ -5730,190 +5735,190 @@
       <c r="BR19" s="144"/>
     </row>
     <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="205" t="s">
+      <c r="A20" s="206" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="49"/>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="119"/>
-      <c r="AP20" s="120"/>
-      <c r="AQ20" s="125"/>
-      <c r="AR20" s="126"/>
-      <c r="AS20" s="126"/>
-      <c r="AT20" s="126"/>
-      <c r="AU20" s="126"/>
-      <c r="AV20" s="126"/>
-      <c r="AW20" s="126"/>
-      <c r="AX20" s="126"/>
-      <c r="AY20" s="126"/>
-      <c r="AZ20" s="126"/>
-      <c r="BA20" s="126"/>
-      <c r="BB20" s="126"/>
-      <c r="BC20" s="126"/>
-      <c r="BD20" s="127"/>
-      <c r="BE20" s="125"/>
-      <c r="BF20" s="126"/>
-      <c r="BG20" s="126"/>
-      <c r="BH20" s="126"/>
-      <c r="BI20" s="126"/>
-      <c r="BJ20" s="126"/>
-      <c r="BK20" s="127"/>
-      <c r="BL20" s="217"/>
-      <c r="BM20" s="126"/>
-      <c r="BN20" s="126"/>
-      <c r="BO20" s="226"/>
-      <c r="BP20" s="217"/>
-      <c r="BQ20" s="126"/>
-      <c r="BR20" s="219"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="49"/>
+      <c r="AM20" s="116"/>
+      <c r="AN20" s="117"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="119"/>
+      <c r="AQ20" s="124"/>
+      <c r="AR20" s="125"/>
+      <c r="AS20" s="125"/>
+      <c r="AT20" s="125"/>
+      <c r="AU20" s="125"/>
+      <c r="AV20" s="125"/>
+      <c r="AW20" s="125"/>
+      <c r="AX20" s="125"/>
+      <c r="AY20" s="125"/>
+      <c r="AZ20" s="125"/>
+      <c r="BA20" s="125"/>
+      <c r="BB20" s="125"/>
+      <c r="BC20" s="125"/>
+      <c r="BD20" s="126"/>
+      <c r="BE20" s="124"/>
+      <c r="BF20" s="125"/>
+      <c r="BG20" s="125"/>
+      <c r="BH20" s="125"/>
+      <c r="BI20" s="125"/>
+      <c r="BJ20" s="125"/>
+      <c r="BK20" s="126"/>
+      <c r="BL20" s="218"/>
+      <c r="BM20" s="125"/>
+      <c r="BN20" s="125"/>
+      <c r="BO20" s="220"/>
+      <c r="BP20" s="218"/>
+      <c r="BQ20" s="125"/>
+      <c r="BR20" s="222"/>
     </row>
     <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="206"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="91"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="91"/>
-      <c r="AB21" s="91"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="91"/>
-      <c r="AJ21" s="92"/>
-      <c r="AK21" s="94"/>
-      <c r="AL21" s="95"/>
-      <c r="AM21" s="121"/>
-      <c r="AN21" s="122"/>
-      <c r="AO21" s="123"/>
-      <c r="AP21" s="124"/>
-      <c r="AQ21" s="128"/>
-      <c r="AR21" s="129"/>
-      <c r="AS21" s="129"/>
-      <c r="AT21" s="129"/>
-      <c r="AU21" s="129"/>
-      <c r="AV21" s="129"/>
-      <c r="AW21" s="129"/>
-      <c r="AX21" s="129"/>
-      <c r="AY21" s="129"/>
-      <c r="AZ21" s="129"/>
-      <c r="BA21" s="129"/>
-      <c r="BB21" s="129"/>
-      <c r="BC21" s="129"/>
-      <c r="BD21" s="130"/>
-      <c r="BE21" s="128"/>
-      <c r="BF21" s="129"/>
-      <c r="BG21" s="129"/>
-      <c r="BH21" s="129"/>
-      <c r="BI21" s="129"/>
-      <c r="BJ21" s="129"/>
-      <c r="BK21" s="130"/>
-      <c r="BL21" s="218"/>
-      <c r="BM21" s="129"/>
-      <c r="BN21" s="129"/>
-      <c r="BO21" s="227"/>
-      <c r="BP21" s="218"/>
-      <c r="BQ21" s="129"/>
-      <c r="BR21" s="220"/>
+      <c r="A21" s="207"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="91"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="91"/>
+      <c r="AK21" s="93"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="120"/>
+      <c r="AN21" s="121"/>
+      <c r="AO21" s="122"/>
+      <c r="AP21" s="123"/>
+      <c r="AQ21" s="127"/>
+      <c r="AR21" s="128"/>
+      <c r="AS21" s="128"/>
+      <c r="AT21" s="128"/>
+      <c r="AU21" s="128"/>
+      <c r="AV21" s="128"/>
+      <c r="AW21" s="128"/>
+      <c r="AX21" s="128"/>
+      <c r="AY21" s="128"/>
+      <c r="AZ21" s="128"/>
+      <c r="BA21" s="128"/>
+      <c r="BB21" s="128"/>
+      <c r="BC21" s="128"/>
+      <c r="BD21" s="129"/>
+      <c r="BE21" s="127"/>
+      <c r="BF21" s="128"/>
+      <c r="BG21" s="128"/>
+      <c r="BH21" s="128"/>
+      <c r="BI21" s="128"/>
+      <c r="BJ21" s="128"/>
+      <c r="BK21" s="129"/>
+      <c r="BL21" s="219"/>
+      <c r="BM21" s="128"/>
+      <c r="BN21" s="128"/>
+      <c r="BO21" s="221"/>
+      <c r="BP21" s="219"/>
+      <c r="BQ21" s="128"/>
+      <c r="BR21" s="223"/>
     </row>
     <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="207"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="68"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
-      <c r="AG22" s="67"/>
-      <c r="AH22" s="67"/>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="68"/>
-      <c r="AK22" s="70"/>
-      <c r="AL22" s="71"/>
+      <c r="A22" s="208"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="67"/>
+      <c r="AK22" s="69"/>
+      <c r="AL22" s="70"/>
       <c r="AM22" s="142"/>
       <c r="AN22" s="143"/>
       <c r="AO22" s="143"/>
@@ -5948,190 +5953,190 @@
       <c r="BR22" s="144"/>
     </row>
     <row r="23" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="205" t="s">
+      <c r="A23" s="206" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="48"/>
-      <c r="AK23" s="49"/>
-      <c r="AL23" s="50"/>
-      <c r="AM23" s="117"/>
-      <c r="AN23" s="118"/>
-      <c r="AO23" s="119"/>
-      <c r="AP23" s="120"/>
-      <c r="AQ23" s="125"/>
-      <c r="AR23" s="126"/>
-      <c r="AS23" s="126"/>
-      <c r="AT23" s="126"/>
-      <c r="AU23" s="126"/>
-      <c r="AV23" s="126"/>
-      <c r="AW23" s="126"/>
-      <c r="AX23" s="126"/>
-      <c r="AY23" s="126"/>
-      <c r="AZ23" s="126"/>
-      <c r="BA23" s="126"/>
-      <c r="BB23" s="126"/>
-      <c r="BC23" s="126"/>
-      <c r="BD23" s="127"/>
-      <c r="BE23" s="125"/>
-      <c r="BF23" s="126"/>
-      <c r="BG23" s="126"/>
-      <c r="BH23" s="126"/>
-      <c r="BI23" s="126"/>
-      <c r="BJ23" s="126"/>
-      <c r="BK23" s="127"/>
-      <c r="BL23" s="217"/>
-      <c r="BM23" s="126"/>
-      <c r="BN23" s="126"/>
-      <c r="BO23" s="226"/>
-      <c r="BP23" s="217"/>
-      <c r="BQ23" s="126"/>
-      <c r="BR23" s="219"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="116"/>
+      <c r="AN23" s="117"/>
+      <c r="AO23" s="118"/>
+      <c r="AP23" s="119"/>
+      <c r="AQ23" s="124"/>
+      <c r="AR23" s="125"/>
+      <c r="AS23" s="125"/>
+      <c r="AT23" s="125"/>
+      <c r="AU23" s="125"/>
+      <c r="AV23" s="125"/>
+      <c r="AW23" s="125"/>
+      <c r="AX23" s="125"/>
+      <c r="AY23" s="125"/>
+      <c r="AZ23" s="125"/>
+      <c r="BA23" s="125"/>
+      <c r="BB23" s="125"/>
+      <c r="BC23" s="125"/>
+      <c r="BD23" s="126"/>
+      <c r="BE23" s="124"/>
+      <c r="BF23" s="125"/>
+      <c r="BG23" s="125"/>
+      <c r="BH23" s="125"/>
+      <c r="BI23" s="125"/>
+      <c r="BJ23" s="125"/>
+      <c r="BK23" s="126"/>
+      <c r="BL23" s="218"/>
+      <c r="BM23" s="125"/>
+      <c r="BN23" s="125"/>
+      <c r="BO23" s="220"/>
+      <c r="BP23" s="218"/>
+      <c r="BQ23" s="125"/>
+      <c r="BR23" s="222"/>
     </row>
     <row r="24" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="206"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="91"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="91"/>
-      <c r="AA24" s="91"/>
-      <c r="AB24" s="91"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="91"/>
-      <c r="AF24" s="91"/>
-      <c r="AG24" s="91"/>
-      <c r="AH24" s="91"/>
-      <c r="AI24" s="91"/>
-      <c r="AJ24" s="92"/>
-      <c r="AK24" s="94"/>
-      <c r="AL24" s="95"/>
-      <c r="AM24" s="121"/>
-      <c r="AN24" s="122"/>
-      <c r="AO24" s="123"/>
-      <c r="AP24" s="124"/>
-      <c r="AQ24" s="128"/>
-      <c r="AR24" s="129"/>
-      <c r="AS24" s="129"/>
-      <c r="AT24" s="129"/>
-      <c r="AU24" s="129"/>
-      <c r="AV24" s="129"/>
-      <c r="AW24" s="129"/>
-      <c r="AX24" s="129"/>
-      <c r="AY24" s="129"/>
-      <c r="AZ24" s="129"/>
-      <c r="BA24" s="129"/>
-      <c r="BB24" s="129"/>
-      <c r="BC24" s="129"/>
-      <c r="BD24" s="130"/>
-      <c r="BE24" s="128"/>
-      <c r="BF24" s="129"/>
-      <c r="BG24" s="129"/>
-      <c r="BH24" s="129"/>
-      <c r="BI24" s="129"/>
-      <c r="BJ24" s="129"/>
-      <c r="BK24" s="130"/>
-      <c r="BL24" s="218"/>
-      <c r="BM24" s="129"/>
-      <c r="BN24" s="129"/>
-      <c r="BO24" s="227"/>
-      <c r="BP24" s="218"/>
-      <c r="BQ24" s="129"/>
-      <c r="BR24" s="220"/>
+      <c r="A24" s="207"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="91"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="91"/>
+      <c r="AK24" s="93"/>
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="120"/>
+      <c r="AN24" s="121"/>
+      <c r="AO24" s="122"/>
+      <c r="AP24" s="123"/>
+      <c r="AQ24" s="127"/>
+      <c r="AR24" s="128"/>
+      <c r="AS24" s="128"/>
+      <c r="AT24" s="128"/>
+      <c r="AU24" s="128"/>
+      <c r="AV24" s="128"/>
+      <c r="AW24" s="128"/>
+      <c r="AX24" s="128"/>
+      <c r="AY24" s="128"/>
+      <c r="AZ24" s="128"/>
+      <c r="BA24" s="128"/>
+      <c r="BB24" s="128"/>
+      <c r="BC24" s="128"/>
+      <c r="BD24" s="129"/>
+      <c r="BE24" s="127"/>
+      <c r="BF24" s="128"/>
+      <c r="BG24" s="128"/>
+      <c r="BH24" s="128"/>
+      <c r="BI24" s="128"/>
+      <c r="BJ24" s="128"/>
+      <c r="BK24" s="129"/>
+      <c r="BL24" s="219"/>
+      <c r="BM24" s="128"/>
+      <c r="BN24" s="128"/>
+      <c r="BO24" s="221"/>
+      <c r="BP24" s="219"/>
+      <c r="BQ24" s="128"/>
+      <c r="BR24" s="223"/>
     </row>
     <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="207"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="73"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="73"/>
-      <c r="AG25" s="73"/>
-      <c r="AH25" s="73"/>
-      <c r="AI25" s="73"/>
-      <c r="AJ25" s="74"/>
-      <c r="AK25" s="75"/>
-      <c r="AL25" s="76"/>
+      <c r="A25" s="208"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="72"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="74"/>
+      <c r="AL25" s="75"/>
       <c r="AM25" s="142"/>
       <c r="AN25" s="143"/>
       <c r="AO25" s="143"/>
@@ -6166,190 +6171,190 @@
       <c r="BR25" s="144"/>
     </row>
     <row r="26" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="205" t="s">
+      <c r="A26" s="206" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="118"/>
-      <c r="AO26" s="119"/>
-      <c r="AP26" s="120"/>
-      <c r="AQ26" s="125"/>
-      <c r="AR26" s="126"/>
-      <c r="AS26" s="126"/>
-      <c r="AT26" s="126"/>
-      <c r="AU26" s="126"/>
-      <c r="AV26" s="126"/>
-      <c r="AW26" s="126"/>
-      <c r="AX26" s="126"/>
-      <c r="AY26" s="126"/>
-      <c r="AZ26" s="126"/>
-      <c r="BA26" s="126"/>
-      <c r="BB26" s="126"/>
-      <c r="BC26" s="126"/>
-      <c r="BD26" s="127"/>
-      <c r="BE26" s="125"/>
-      <c r="BF26" s="126"/>
-      <c r="BG26" s="126"/>
-      <c r="BH26" s="126"/>
-      <c r="BI26" s="126"/>
-      <c r="BJ26" s="126"/>
-      <c r="BK26" s="127"/>
-      <c r="BL26" s="217"/>
-      <c r="BM26" s="126"/>
-      <c r="BN26" s="126"/>
-      <c r="BO26" s="226"/>
-      <c r="BP26" s="217"/>
-      <c r="BQ26" s="126"/>
-      <c r="BR26" s="219"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="116"/>
+      <c r="AN26" s="117"/>
+      <c r="AO26" s="118"/>
+      <c r="AP26" s="119"/>
+      <c r="AQ26" s="124"/>
+      <c r="AR26" s="125"/>
+      <c r="AS26" s="125"/>
+      <c r="AT26" s="125"/>
+      <c r="AU26" s="125"/>
+      <c r="AV26" s="125"/>
+      <c r="AW26" s="125"/>
+      <c r="AX26" s="125"/>
+      <c r="AY26" s="125"/>
+      <c r="AZ26" s="125"/>
+      <c r="BA26" s="125"/>
+      <c r="BB26" s="125"/>
+      <c r="BC26" s="125"/>
+      <c r="BD26" s="126"/>
+      <c r="BE26" s="124"/>
+      <c r="BF26" s="125"/>
+      <c r="BG26" s="125"/>
+      <c r="BH26" s="125"/>
+      <c r="BI26" s="125"/>
+      <c r="BJ26" s="125"/>
+      <c r="BK26" s="126"/>
+      <c r="BL26" s="218"/>
+      <c r="BM26" s="125"/>
+      <c r="BN26" s="125"/>
+      <c r="BO26" s="220"/>
+      <c r="BP26" s="218"/>
+      <c r="BQ26" s="125"/>
+      <c r="BR26" s="222"/>
     </row>
     <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="206"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="91"/>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="91"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="91"/>
-      <c r="AH27" s="91"/>
-      <c r="AI27" s="91"/>
-      <c r="AJ27" s="92"/>
-      <c r="AK27" s="94"/>
-      <c r="AL27" s="95"/>
-      <c r="AM27" s="121"/>
-      <c r="AN27" s="122"/>
-      <c r="AO27" s="123"/>
-      <c r="AP27" s="124"/>
-      <c r="AQ27" s="128"/>
-      <c r="AR27" s="129"/>
-      <c r="AS27" s="129"/>
-      <c r="AT27" s="129"/>
-      <c r="AU27" s="129"/>
-      <c r="AV27" s="129"/>
-      <c r="AW27" s="129"/>
-      <c r="AX27" s="129"/>
-      <c r="AY27" s="129"/>
-      <c r="AZ27" s="129"/>
-      <c r="BA27" s="129"/>
-      <c r="BB27" s="129"/>
-      <c r="BC27" s="129"/>
-      <c r="BD27" s="130"/>
-      <c r="BE27" s="128"/>
-      <c r="BF27" s="129"/>
-      <c r="BG27" s="129"/>
-      <c r="BH27" s="129"/>
-      <c r="BI27" s="129"/>
-      <c r="BJ27" s="129"/>
-      <c r="BK27" s="130"/>
-      <c r="BL27" s="218"/>
-      <c r="BM27" s="129"/>
-      <c r="BN27" s="129"/>
-      <c r="BO27" s="227"/>
-      <c r="BP27" s="218"/>
-      <c r="BQ27" s="129"/>
-      <c r="BR27" s="220"/>
+      <c r="A27" s="207"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="91"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="91"/>
+      <c r="AK27" s="93"/>
+      <c r="AL27" s="94"/>
+      <c r="AM27" s="120"/>
+      <c r="AN27" s="121"/>
+      <c r="AO27" s="122"/>
+      <c r="AP27" s="123"/>
+      <c r="AQ27" s="127"/>
+      <c r="AR27" s="128"/>
+      <c r="AS27" s="128"/>
+      <c r="AT27" s="128"/>
+      <c r="AU27" s="128"/>
+      <c r="AV27" s="128"/>
+      <c r="AW27" s="128"/>
+      <c r="AX27" s="128"/>
+      <c r="AY27" s="128"/>
+      <c r="AZ27" s="128"/>
+      <c r="BA27" s="128"/>
+      <c r="BB27" s="128"/>
+      <c r="BC27" s="128"/>
+      <c r="BD27" s="129"/>
+      <c r="BE27" s="127"/>
+      <c r="BF27" s="128"/>
+      <c r="BG27" s="128"/>
+      <c r="BH27" s="128"/>
+      <c r="BI27" s="128"/>
+      <c r="BJ27" s="128"/>
+      <c r="BK27" s="129"/>
+      <c r="BL27" s="219"/>
+      <c r="BM27" s="128"/>
+      <c r="BN27" s="128"/>
+      <c r="BO27" s="221"/>
+      <c r="BP27" s="219"/>
+      <c r="BQ27" s="128"/>
+      <c r="BR27" s="223"/>
     </row>
     <row r="28" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="207"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="67"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="67"/>
-      <c r="AF28" s="67"/>
-      <c r="AG28" s="67"/>
-      <c r="AH28" s="67"/>
-      <c r="AI28" s="67"/>
-      <c r="AJ28" s="68"/>
-      <c r="AK28" s="70"/>
-      <c r="AL28" s="71"/>
+      <c r="A28" s="208"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="67"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="67"/>
+      <c r="AK28" s="69"/>
+      <c r="AL28" s="70"/>
       <c r="AM28" s="142"/>
       <c r="AN28" s="143"/>
       <c r="AO28" s="143"/>
@@ -6384,190 +6389,190 @@
       <c r="BR28" s="144"/>
     </row>
     <row r="29" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="209" t="s">
+      <c r="A29" s="210" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="47"/>
-      <c r="AH29" s="47"/>
-      <c r="AI29" s="47"/>
-      <c r="AJ29" s="48"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="50"/>
-      <c r="AM29" s="117"/>
-      <c r="AN29" s="118"/>
-      <c r="AO29" s="119"/>
-      <c r="AP29" s="120"/>
-      <c r="AQ29" s="125"/>
-      <c r="AR29" s="126"/>
-      <c r="AS29" s="126"/>
-      <c r="AT29" s="126"/>
-      <c r="AU29" s="126"/>
-      <c r="AV29" s="126"/>
-      <c r="AW29" s="126"/>
-      <c r="AX29" s="126"/>
-      <c r="AY29" s="126"/>
-      <c r="AZ29" s="126"/>
-      <c r="BA29" s="126"/>
-      <c r="BB29" s="126"/>
-      <c r="BC29" s="126"/>
-      <c r="BD29" s="127"/>
-      <c r="BE29" s="125"/>
-      <c r="BF29" s="126"/>
-      <c r="BG29" s="126"/>
-      <c r="BH29" s="126"/>
-      <c r="BI29" s="126"/>
-      <c r="BJ29" s="126"/>
-      <c r="BK29" s="127"/>
-      <c r="BL29" s="217"/>
-      <c r="BM29" s="126"/>
-      <c r="BN29" s="126"/>
-      <c r="BO29" s="226"/>
-      <c r="BP29" s="217"/>
-      <c r="BQ29" s="126"/>
-      <c r="BR29" s="219"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="46"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="48"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="116"/>
+      <c r="AN29" s="117"/>
+      <c r="AO29" s="118"/>
+      <c r="AP29" s="119"/>
+      <c r="AQ29" s="124"/>
+      <c r="AR29" s="125"/>
+      <c r="AS29" s="125"/>
+      <c r="AT29" s="125"/>
+      <c r="AU29" s="125"/>
+      <c r="AV29" s="125"/>
+      <c r="AW29" s="125"/>
+      <c r="AX29" s="125"/>
+      <c r="AY29" s="125"/>
+      <c r="AZ29" s="125"/>
+      <c r="BA29" s="125"/>
+      <c r="BB29" s="125"/>
+      <c r="BC29" s="125"/>
+      <c r="BD29" s="126"/>
+      <c r="BE29" s="124"/>
+      <c r="BF29" s="125"/>
+      <c r="BG29" s="125"/>
+      <c r="BH29" s="125"/>
+      <c r="BI29" s="125"/>
+      <c r="BJ29" s="125"/>
+      <c r="BK29" s="126"/>
+      <c r="BL29" s="218"/>
+      <c r="BM29" s="125"/>
+      <c r="BN29" s="125"/>
+      <c r="BO29" s="220"/>
+      <c r="BP29" s="218"/>
+      <c r="BQ29" s="125"/>
+      <c r="BR29" s="222"/>
     </row>
     <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="210"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="91"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="91"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="91"/>
-      <c r="AH30" s="91"/>
-      <c r="AI30" s="91"/>
-      <c r="AJ30" s="92"/>
-      <c r="AK30" s="94"/>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="121"/>
-      <c r="AN30" s="122"/>
-      <c r="AO30" s="123"/>
-      <c r="AP30" s="124"/>
-      <c r="AQ30" s="128"/>
-      <c r="AR30" s="129"/>
-      <c r="AS30" s="129"/>
-      <c r="AT30" s="129"/>
-      <c r="AU30" s="129"/>
-      <c r="AV30" s="129"/>
-      <c r="AW30" s="129"/>
-      <c r="AX30" s="129"/>
-      <c r="AY30" s="129"/>
-      <c r="AZ30" s="129"/>
-      <c r="BA30" s="129"/>
-      <c r="BB30" s="129"/>
-      <c r="BC30" s="129"/>
-      <c r="BD30" s="130"/>
-      <c r="BE30" s="128"/>
-      <c r="BF30" s="129"/>
-      <c r="BG30" s="129"/>
-      <c r="BH30" s="129"/>
-      <c r="BI30" s="129"/>
-      <c r="BJ30" s="129"/>
-      <c r="BK30" s="130"/>
-      <c r="BL30" s="218"/>
-      <c r="BM30" s="129"/>
-      <c r="BN30" s="129"/>
-      <c r="BO30" s="227"/>
-      <c r="BP30" s="218"/>
-      <c r="BQ30" s="129"/>
-      <c r="BR30" s="220"/>
+      <c r="A30" s="211"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="90"/>
+      <c r="AC30" s="91"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="90"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="90"/>
+      <c r="AI30" s="90"/>
+      <c r="AJ30" s="91"/>
+      <c r="AK30" s="93"/>
+      <c r="AL30" s="94"/>
+      <c r="AM30" s="120"/>
+      <c r="AN30" s="121"/>
+      <c r="AO30" s="122"/>
+      <c r="AP30" s="123"/>
+      <c r="AQ30" s="127"/>
+      <c r="AR30" s="128"/>
+      <c r="AS30" s="128"/>
+      <c r="AT30" s="128"/>
+      <c r="AU30" s="128"/>
+      <c r="AV30" s="128"/>
+      <c r="AW30" s="128"/>
+      <c r="AX30" s="128"/>
+      <c r="AY30" s="128"/>
+      <c r="AZ30" s="128"/>
+      <c r="BA30" s="128"/>
+      <c r="BB30" s="128"/>
+      <c r="BC30" s="128"/>
+      <c r="BD30" s="129"/>
+      <c r="BE30" s="127"/>
+      <c r="BF30" s="128"/>
+      <c r="BG30" s="128"/>
+      <c r="BH30" s="128"/>
+      <c r="BI30" s="128"/>
+      <c r="BJ30" s="128"/>
+      <c r="BK30" s="129"/>
+      <c r="BL30" s="219"/>
+      <c r="BM30" s="128"/>
+      <c r="BN30" s="128"/>
+      <c r="BO30" s="221"/>
+      <c r="BP30" s="219"/>
+      <c r="BQ30" s="128"/>
+      <c r="BR30" s="223"/>
     </row>
     <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="211"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="73"/>
-      <c r="AB31" s="73"/>
-      <c r="AC31" s="74"/>
-      <c r="AD31" s="72"/>
-      <c r="AE31" s="73"/>
-      <c r="AF31" s="73"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="73"/>
-      <c r="AI31" s="73"/>
-      <c r="AJ31" s="74"/>
-      <c r="AK31" s="75"/>
-      <c r="AL31" s="76"/>
+      <c r="A31" s="212"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="72"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="72"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="72"/>
+      <c r="AH31" s="72"/>
+      <c r="AI31" s="72"/>
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="74"/>
+      <c r="AL31" s="75"/>
       <c r="AM31" s="142"/>
       <c r="AN31" s="143"/>
       <c r="AO31" s="143"/>
@@ -6602,190 +6607,190 @@
       <c r="BR31" s="144"/>
     </row>
     <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="209" t="s">
+      <c r="A32" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="42"/>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="43"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="117"/>
-      <c r="AN32" s="118"/>
-      <c r="AO32" s="119"/>
-      <c r="AP32" s="120"/>
-      <c r="AQ32" s="125"/>
-      <c r="AR32" s="126"/>
-      <c r="AS32" s="126"/>
-      <c r="AT32" s="126"/>
-      <c r="AU32" s="126"/>
-      <c r="AV32" s="126"/>
-      <c r="AW32" s="126"/>
-      <c r="AX32" s="126"/>
-      <c r="AY32" s="126"/>
-      <c r="AZ32" s="126"/>
-      <c r="BA32" s="126"/>
-      <c r="BB32" s="126"/>
-      <c r="BC32" s="126"/>
-      <c r="BD32" s="127"/>
-      <c r="BE32" s="125"/>
-      <c r="BF32" s="126"/>
-      <c r="BG32" s="126"/>
-      <c r="BH32" s="126"/>
-      <c r="BI32" s="126"/>
-      <c r="BJ32" s="126"/>
-      <c r="BK32" s="127"/>
-      <c r="BL32" s="217"/>
-      <c r="BM32" s="126"/>
-      <c r="BN32" s="126"/>
-      <c r="BO32" s="226"/>
-      <c r="BP32" s="217"/>
-      <c r="BQ32" s="126"/>
-      <c r="BR32" s="219"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="42"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="116"/>
+      <c r="AN32" s="117"/>
+      <c r="AO32" s="118"/>
+      <c r="AP32" s="119"/>
+      <c r="AQ32" s="124"/>
+      <c r="AR32" s="125"/>
+      <c r="AS32" s="125"/>
+      <c r="AT32" s="125"/>
+      <c r="AU32" s="125"/>
+      <c r="AV32" s="125"/>
+      <c r="AW32" s="125"/>
+      <c r="AX32" s="125"/>
+      <c r="AY32" s="125"/>
+      <c r="AZ32" s="125"/>
+      <c r="BA32" s="125"/>
+      <c r="BB32" s="125"/>
+      <c r="BC32" s="125"/>
+      <c r="BD32" s="126"/>
+      <c r="BE32" s="124"/>
+      <c r="BF32" s="125"/>
+      <c r="BG32" s="125"/>
+      <c r="BH32" s="125"/>
+      <c r="BI32" s="125"/>
+      <c r="BJ32" s="125"/>
+      <c r="BK32" s="126"/>
+      <c r="BL32" s="218"/>
+      <c r="BM32" s="125"/>
+      <c r="BN32" s="125"/>
+      <c r="BO32" s="220"/>
+      <c r="BP32" s="218"/>
+      <c r="BQ32" s="125"/>
+      <c r="BR32" s="222"/>
     </row>
     <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="210"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="91"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="91"/>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="90"/>
-      <c r="AE33" s="91"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="91"/>
-      <c r="AH33" s="91"/>
-      <c r="AI33" s="91"/>
-      <c r="AJ33" s="92"/>
-      <c r="AK33" s="94"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="121"/>
-      <c r="AN33" s="122"/>
-      <c r="AO33" s="123"/>
-      <c r="AP33" s="124"/>
-      <c r="AQ33" s="128"/>
-      <c r="AR33" s="129"/>
-      <c r="AS33" s="129"/>
-      <c r="AT33" s="129"/>
-      <c r="AU33" s="129"/>
-      <c r="AV33" s="129"/>
-      <c r="AW33" s="129"/>
-      <c r="AX33" s="129"/>
-      <c r="AY33" s="129"/>
-      <c r="AZ33" s="129"/>
-      <c r="BA33" s="129"/>
-      <c r="BB33" s="129"/>
-      <c r="BC33" s="129"/>
-      <c r="BD33" s="130"/>
-      <c r="BE33" s="128"/>
-      <c r="BF33" s="129"/>
-      <c r="BG33" s="129"/>
-      <c r="BH33" s="129"/>
-      <c r="BI33" s="129"/>
-      <c r="BJ33" s="129"/>
-      <c r="BK33" s="130"/>
-      <c r="BL33" s="218"/>
-      <c r="BM33" s="129"/>
-      <c r="BN33" s="129"/>
-      <c r="BO33" s="227"/>
-      <c r="BP33" s="218"/>
-      <c r="BQ33" s="129"/>
-      <c r="BR33" s="220"/>
+      <c r="A33" s="211"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="90"/>
+      <c r="AB33" s="90"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="89"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="90"/>
+      <c r="AG33" s="90"/>
+      <c r="AH33" s="90"/>
+      <c r="AI33" s="90"/>
+      <c r="AJ33" s="91"/>
+      <c r="AK33" s="93"/>
+      <c r="AL33" s="94"/>
+      <c r="AM33" s="120"/>
+      <c r="AN33" s="121"/>
+      <c r="AO33" s="122"/>
+      <c r="AP33" s="123"/>
+      <c r="AQ33" s="127"/>
+      <c r="AR33" s="128"/>
+      <c r="AS33" s="128"/>
+      <c r="AT33" s="128"/>
+      <c r="AU33" s="128"/>
+      <c r="AV33" s="128"/>
+      <c r="AW33" s="128"/>
+      <c r="AX33" s="128"/>
+      <c r="AY33" s="128"/>
+      <c r="AZ33" s="128"/>
+      <c r="BA33" s="128"/>
+      <c r="BB33" s="128"/>
+      <c r="BC33" s="128"/>
+      <c r="BD33" s="129"/>
+      <c r="BE33" s="127"/>
+      <c r="BF33" s="128"/>
+      <c r="BG33" s="128"/>
+      <c r="BH33" s="128"/>
+      <c r="BI33" s="128"/>
+      <c r="BJ33" s="128"/>
+      <c r="BK33" s="129"/>
+      <c r="BL33" s="219"/>
+      <c r="BM33" s="128"/>
+      <c r="BN33" s="128"/>
+      <c r="BO33" s="221"/>
+      <c r="BP33" s="219"/>
+      <c r="BQ33" s="128"/>
+      <c r="BR33" s="223"/>
     </row>
     <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="211"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="67"/>
-      <c r="AF34" s="67"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="67"/>
-      <c r="AI34" s="67"/>
-      <c r="AJ34" s="68"/>
-      <c r="AK34" s="70"/>
-      <c r="AL34" s="71"/>
+      <c r="A34" s="212"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="67"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="67"/>
+      <c r="AK34" s="69"/>
+      <c r="AL34" s="70"/>
       <c r="AM34" s="142"/>
       <c r="AN34" s="143"/>
       <c r="AO34" s="143"/>
@@ -6820,190 +6825,190 @@
       <c r="BR34" s="144"/>
     </row>
     <row r="35" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="205" t="s">
+      <c r="A35" s="206" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="53"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
-      <c r="AH35" s="52"/>
-      <c r="AI35" s="52"/>
-      <c r="AJ35" s="53"/>
-      <c r="AK35" s="51"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="117"/>
-      <c r="AN35" s="118"/>
-      <c r="AO35" s="119"/>
-      <c r="AP35" s="120"/>
-      <c r="AQ35" s="125"/>
-      <c r="AR35" s="126"/>
-      <c r="AS35" s="126"/>
-      <c r="AT35" s="126"/>
-      <c r="AU35" s="126"/>
-      <c r="AV35" s="126"/>
-      <c r="AW35" s="126"/>
-      <c r="AX35" s="126"/>
-      <c r="AY35" s="126"/>
-      <c r="AZ35" s="126"/>
-      <c r="BA35" s="126"/>
-      <c r="BB35" s="126"/>
-      <c r="BC35" s="126"/>
-      <c r="BD35" s="127"/>
-      <c r="BE35" s="125"/>
-      <c r="BF35" s="126"/>
-      <c r="BG35" s="126"/>
-      <c r="BH35" s="126"/>
-      <c r="BI35" s="126"/>
-      <c r="BJ35" s="126"/>
-      <c r="BK35" s="127"/>
-      <c r="BL35" s="217"/>
-      <c r="BM35" s="126"/>
-      <c r="BN35" s="126"/>
-      <c r="BO35" s="226"/>
-      <c r="BP35" s="217"/>
-      <c r="BQ35" s="126"/>
-      <c r="BR35" s="219"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="53"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="50"/>
+      <c r="AL35" s="54"/>
+      <c r="AM35" s="116"/>
+      <c r="AN35" s="117"/>
+      <c r="AO35" s="118"/>
+      <c r="AP35" s="119"/>
+      <c r="AQ35" s="124"/>
+      <c r="AR35" s="125"/>
+      <c r="AS35" s="125"/>
+      <c r="AT35" s="125"/>
+      <c r="AU35" s="125"/>
+      <c r="AV35" s="125"/>
+      <c r="AW35" s="125"/>
+      <c r="AX35" s="125"/>
+      <c r="AY35" s="125"/>
+      <c r="AZ35" s="125"/>
+      <c r="BA35" s="125"/>
+      <c r="BB35" s="125"/>
+      <c r="BC35" s="125"/>
+      <c r="BD35" s="126"/>
+      <c r="BE35" s="124"/>
+      <c r="BF35" s="125"/>
+      <c r="BG35" s="125"/>
+      <c r="BH35" s="125"/>
+      <c r="BI35" s="125"/>
+      <c r="BJ35" s="125"/>
+      <c r="BK35" s="126"/>
+      <c r="BL35" s="218"/>
+      <c r="BM35" s="125"/>
+      <c r="BN35" s="125"/>
+      <c r="BO35" s="220"/>
+      <c r="BP35" s="218"/>
+      <c r="BQ35" s="125"/>
+      <c r="BR35" s="222"/>
     </row>
     <row r="36" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="206"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="91"/>
-      <c r="T36" s="91"/>
-      <c r="U36" s="91"/>
-      <c r="V36" s="92"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="91"/>
-      <c r="Y36" s="91"/>
-      <c r="Z36" s="91"/>
-      <c r="AA36" s="91"/>
-      <c r="AB36" s="91"/>
-      <c r="AC36" s="92"/>
-      <c r="AD36" s="90"/>
-      <c r="AE36" s="91"/>
-      <c r="AF36" s="91"/>
-      <c r="AG36" s="91"/>
-      <c r="AH36" s="91"/>
-      <c r="AI36" s="91"/>
-      <c r="AJ36" s="92"/>
-      <c r="AK36" s="94"/>
-      <c r="AL36" s="95"/>
-      <c r="AM36" s="121"/>
-      <c r="AN36" s="122"/>
-      <c r="AO36" s="123"/>
-      <c r="AP36" s="124"/>
-      <c r="AQ36" s="128"/>
-      <c r="AR36" s="129"/>
-      <c r="AS36" s="129"/>
-      <c r="AT36" s="129"/>
-      <c r="AU36" s="129"/>
-      <c r="AV36" s="129"/>
-      <c r="AW36" s="129"/>
-      <c r="AX36" s="129"/>
-      <c r="AY36" s="129"/>
-      <c r="AZ36" s="129"/>
-      <c r="BA36" s="129"/>
-      <c r="BB36" s="129"/>
-      <c r="BC36" s="129"/>
-      <c r="BD36" s="130"/>
-      <c r="BE36" s="128"/>
-      <c r="BF36" s="129"/>
-      <c r="BG36" s="129"/>
-      <c r="BH36" s="129"/>
-      <c r="BI36" s="129"/>
-      <c r="BJ36" s="129"/>
-      <c r="BK36" s="130"/>
-      <c r="BL36" s="218"/>
-      <c r="BM36" s="129"/>
-      <c r="BN36" s="129"/>
-      <c r="BO36" s="227"/>
-      <c r="BP36" s="218"/>
-      <c r="BQ36" s="129"/>
-      <c r="BR36" s="220"/>
+      <c r="A36" s="207"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="90"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="90"/>
+      <c r="AA36" s="90"/>
+      <c r="AB36" s="90"/>
+      <c r="AC36" s="91"/>
+      <c r="AD36" s="89"/>
+      <c r="AE36" s="90"/>
+      <c r="AF36" s="90"/>
+      <c r="AG36" s="90"/>
+      <c r="AH36" s="90"/>
+      <c r="AI36" s="90"/>
+      <c r="AJ36" s="91"/>
+      <c r="AK36" s="93"/>
+      <c r="AL36" s="94"/>
+      <c r="AM36" s="120"/>
+      <c r="AN36" s="121"/>
+      <c r="AO36" s="122"/>
+      <c r="AP36" s="123"/>
+      <c r="AQ36" s="127"/>
+      <c r="AR36" s="128"/>
+      <c r="AS36" s="128"/>
+      <c r="AT36" s="128"/>
+      <c r="AU36" s="128"/>
+      <c r="AV36" s="128"/>
+      <c r="AW36" s="128"/>
+      <c r="AX36" s="128"/>
+      <c r="AY36" s="128"/>
+      <c r="AZ36" s="128"/>
+      <c r="BA36" s="128"/>
+      <c r="BB36" s="128"/>
+      <c r="BC36" s="128"/>
+      <c r="BD36" s="129"/>
+      <c r="BE36" s="127"/>
+      <c r="BF36" s="128"/>
+      <c r="BG36" s="128"/>
+      <c r="BH36" s="128"/>
+      <c r="BI36" s="128"/>
+      <c r="BJ36" s="128"/>
+      <c r="BK36" s="129"/>
+      <c r="BL36" s="219"/>
+      <c r="BM36" s="128"/>
+      <c r="BN36" s="128"/>
+      <c r="BO36" s="221"/>
+      <c r="BP36" s="219"/>
+      <c r="BQ36" s="128"/>
+      <c r="BR36" s="223"/>
     </row>
     <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="207"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
-      <c r="Z37" s="73"/>
-      <c r="AA37" s="73"/>
-      <c r="AB37" s="73"/>
-      <c r="AC37" s="74"/>
-      <c r="AD37" s="72"/>
-      <c r="AE37" s="73"/>
-      <c r="AF37" s="73"/>
-      <c r="AG37" s="73"/>
-      <c r="AH37" s="73"/>
-      <c r="AI37" s="73"/>
-      <c r="AJ37" s="74"/>
-      <c r="AK37" s="75"/>
-      <c r="AL37" s="76"/>
+      <c r="A37" s="208"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="72"/>
+      <c r="Y37" s="72"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="73"/>
+      <c r="AD37" s="71"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="72"/>
+      <c r="AH37" s="72"/>
+      <c r="AI37" s="72"/>
+      <c r="AJ37" s="73"/>
+      <c r="AK37" s="74"/>
+      <c r="AL37" s="75"/>
       <c r="AM37" s="142"/>
       <c r="AN37" s="143"/>
       <c r="AO37" s="143"/>
@@ -7038,190 +7043,190 @@
       <c r="BR37" s="144"/>
     </row>
     <row r="38" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="205" t="s">
+      <c r="A38" s="206" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="58"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="57"/>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="57"/>
-      <c r="AA38" s="57"/>
-      <c r="AB38" s="57"/>
-      <c r="AC38" s="58"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="57"/>
-      <c r="AG38" s="57"/>
-      <c r="AH38" s="57"/>
-      <c r="AI38" s="57"/>
-      <c r="AJ38" s="58"/>
-      <c r="AK38" s="56"/>
-      <c r="AL38" s="60"/>
-      <c r="AM38" s="117"/>
-      <c r="AN38" s="118"/>
-      <c r="AO38" s="119"/>
-      <c r="AP38" s="120"/>
-      <c r="AQ38" s="125"/>
-      <c r="AR38" s="126"/>
-      <c r="AS38" s="126"/>
-      <c r="AT38" s="126"/>
-      <c r="AU38" s="126"/>
-      <c r="AV38" s="126"/>
-      <c r="AW38" s="126"/>
-      <c r="AX38" s="126"/>
-      <c r="AY38" s="126"/>
-      <c r="AZ38" s="126"/>
-      <c r="BA38" s="126"/>
-      <c r="BB38" s="126"/>
-      <c r="BC38" s="126"/>
-      <c r="BD38" s="127"/>
-      <c r="BE38" s="125"/>
-      <c r="BF38" s="126"/>
-      <c r="BG38" s="126"/>
-      <c r="BH38" s="126"/>
-      <c r="BI38" s="126"/>
-      <c r="BJ38" s="126"/>
-      <c r="BK38" s="127"/>
-      <c r="BL38" s="217"/>
-      <c r="BM38" s="126"/>
-      <c r="BN38" s="126"/>
-      <c r="BO38" s="226"/>
-      <c r="BP38" s="217"/>
-      <c r="BQ38" s="126"/>
-      <c r="BR38" s="219"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="57"/>
+      <c r="AD38" s="58"/>
+      <c r="AE38" s="56"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="56"/>
+      <c r="AJ38" s="57"/>
+      <c r="AK38" s="55"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="116"/>
+      <c r="AN38" s="117"/>
+      <c r="AO38" s="118"/>
+      <c r="AP38" s="119"/>
+      <c r="AQ38" s="124"/>
+      <c r="AR38" s="125"/>
+      <c r="AS38" s="125"/>
+      <c r="AT38" s="125"/>
+      <c r="AU38" s="125"/>
+      <c r="AV38" s="125"/>
+      <c r="AW38" s="125"/>
+      <c r="AX38" s="125"/>
+      <c r="AY38" s="125"/>
+      <c r="AZ38" s="125"/>
+      <c r="BA38" s="125"/>
+      <c r="BB38" s="125"/>
+      <c r="BC38" s="125"/>
+      <c r="BD38" s="126"/>
+      <c r="BE38" s="124"/>
+      <c r="BF38" s="125"/>
+      <c r="BG38" s="125"/>
+      <c r="BH38" s="125"/>
+      <c r="BI38" s="125"/>
+      <c r="BJ38" s="125"/>
+      <c r="BK38" s="126"/>
+      <c r="BL38" s="218"/>
+      <c r="BM38" s="125"/>
+      <c r="BN38" s="125"/>
+      <c r="BO38" s="220"/>
+      <c r="BP38" s="218"/>
+      <c r="BQ38" s="125"/>
+      <c r="BR38" s="222"/>
     </row>
     <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="206"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
-      <c r="T39" s="91"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="90"/>
-      <c r="X39" s="91"/>
-      <c r="Y39" s="91"/>
-      <c r="Z39" s="91"/>
-      <c r="AA39" s="91"/>
-      <c r="AB39" s="91"/>
-      <c r="AC39" s="92"/>
-      <c r="AD39" s="90"/>
-      <c r="AE39" s="91"/>
-      <c r="AF39" s="91"/>
-      <c r="AG39" s="91"/>
-      <c r="AH39" s="91"/>
-      <c r="AI39" s="91"/>
-      <c r="AJ39" s="92"/>
-      <c r="AK39" s="94"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="131"/>
-      <c r="AN39" s="122"/>
-      <c r="AO39" s="123"/>
-      <c r="AP39" s="124"/>
-      <c r="AQ39" s="128"/>
-      <c r="AR39" s="129"/>
-      <c r="AS39" s="129"/>
-      <c r="AT39" s="129"/>
-      <c r="AU39" s="129"/>
-      <c r="AV39" s="129"/>
-      <c r="AW39" s="129"/>
-      <c r="AX39" s="129"/>
-      <c r="AY39" s="129"/>
-      <c r="AZ39" s="129"/>
-      <c r="BA39" s="129"/>
-      <c r="BB39" s="129"/>
-      <c r="BC39" s="129"/>
-      <c r="BD39" s="130"/>
-      <c r="BE39" s="128"/>
-      <c r="BF39" s="129"/>
-      <c r="BG39" s="129"/>
-      <c r="BH39" s="129"/>
-      <c r="BI39" s="129"/>
-      <c r="BJ39" s="129"/>
-      <c r="BK39" s="130"/>
-      <c r="BL39" s="218"/>
-      <c r="BM39" s="129"/>
-      <c r="BN39" s="129"/>
-      <c r="BO39" s="227"/>
-      <c r="BP39" s="218"/>
-      <c r="BQ39" s="129"/>
-      <c r="BR39" s="220"/>
+      <c r="A39" s="207"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="91"/>
+      <c r="W39" s="89"/>
+      <c r="X39" s="90"/>
+      <c r="Y39" s="90"/>
+      <c r="Z39" s="90"/>
+      <c r="AA39" s="90"/>
+      <c r="AB39" s="90"/>
+      <c r="AC39" s="91"/>
+      <c r="AD39" s="89"/>
+      <c r="AE39" s="90"/>
+      <c r="AF39" s="90"/>
+      <c r="AG39" s="90"/>
+      <c r="AH39" s="90"/>
+      <c r="AI39" s="90"/>
+      <c r="AJ39" s="91"/>
+      <c r="AK39" s="93"/>
+      <c r="AL39" s="94"/>
+      <c r="AM39" s="130"/>
+      <c r="AN39" s="121"/>
+      <c r="AO39" s="122"/>
+      <c r="AP39" s="123"/>
+      <c r="AQ39" s="127"/>
+      <c r="AR39" s="128"/>
+      <c r="AS39" s="128"/>
+      <c r="AT39" s="128"/>
+      <c r="AU39" s="128"/>
+      <c r="AV39" s="128"/>
+      <c r="AW39" s="128"/>
+      <c r="AX39" s="128"/>
+      <c r="AY39" s="128"/>
+      <c r="AZ39" s="128"/>
+      <c r="BA39" s="128"/>
+      <c r="BB39" s="128"/>
+      <c r="BC39" s="128"/>
+      <c r="BD39" s="129"/>
+      <c r="BE39" s="127"/>
+      <c r="BF39" s="128"/>
+      <c r="BG39" s="128"/>
+      <c r="BH39" s="128"/>
+      <c r="BI39" s="128"/>
+      <c r="BJ39" s="128"/>
+      <c r="BK39" s="129"/>
+      <c r="BL39" s="219"/>
+      <c r="BM39" s="128"/>
+      <c r="BN39" s="128"/>
+      <c r="BO39" s="221"/>
+      <c r="BP39" s="219"/>
+      <c r="BQ39" s="128"/>
+      <c r="BR39" s="223"/>
     </row>
     <row r="40" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="207"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
-      <c r="T40" s="67"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="67"/>
-      <c r="AF40" s="67"/>
-      <c r="AG40" s="67"/>
-      <c r="AH40" s="67"/>
-      <c r="AI40" s="67"/>
-      <c r="AJ40" s="68"/>
-      <c r="AK40" s="70"/>
-      <c r="AL40" s="71"/>
+      <c r="A40" s="208"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="67"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="67"/>
+      <c r="AK40" s="69"/>
+      <c r="AL40" s="70"/>
       <c r="AM40" s="142"/>
       <c r="AN40" s="143"/>
       <c r="AO40" s="143"/>
@@ -7256,190 +7261,190 @@
       <c r="BR40" s="144"/>
     </row>
     <row r="41" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="205" t="s">
+      <c r="A41" s="206" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="46"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="47"/>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="48"/>
-      <c r="AD41" s="46"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="47"/>
-      <c r="AH41" s="47"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="48"/>
-      <c r="AK41" s="49"/>
-      <c r="AL41" s="50"/>
-      <c r="AM41" s="117"/>
-      <c r="AN41" s="118"/>
-      <c r="AO41" s="119"/>
-      <c r="AP41" s="120"/>
-      <c r="AQ41" s="125"/>
-      <c r="AR41" s="126"/>
-      <c r="AS41" s="126"/>
-      <c r="AT41" s="126"/>
-      <c r="AU41" s="126"/>
-      <c r="AV41" s="126"/>
-      <c r="AW41" s="126"/>
-      <c r="AX41" s="126"/>
-      <c r="AY41" s="126"/>
-      <c r="AZ41" s="126"/>
-      <c r="BA41" s="126"/>
-      <c r="BB41" s="126"/>
-      <c r="BC41" s="126"/>
-      <c r="BD41" s="127"/>
-      <c r="BE41" s="125"/>
-      <c r="BF41" s="126"/>
-      <c r="BG41" s="126"/>
-      <c r="BH41" s="126"/>
-      <c r="BI41" s="126"/>
-      <c r="BJ41" s="126"/>
-      <c r="BK41" s="127"/>
-      <c r="BL41" s="217"/>
-      <c r="BM41" s="126"/>
-      <c r="BN41" s="126"/>
-      <c r="BO41" s="226"/>
-      <c r="BP41" s="217"/>
-      <c r="BQ41" s="126"/>
-      <c r="BR41" s="219"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AA41" s="46"/>
+      <c r="AB41" s="46"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="46"/>
+      <c r="AF41" s="46"/>
+      <c r="AG41" s="46"/>
+      <c r="AH41" s="46"/>
+      <c r="AI41" s="46"/>
+      <c r="AJ41" s="47"/>
+      <c r="AK41" s="48"/>
+      <c r="AL41" s="49"/>
+      <c r="AM41" s="116"/>
+      <c r="AN41" s="117"/>
+      <c r="AO41" s="118"/>
+      <c r="AP41" s="119"/>
+      <c r="AQ41" s="124"/>
+      <c r="AR41" s="125"/>
+      <c r="AS41" s="125"/>
+      <c r="AT41" s="125"/>
+      <c r="AU41" s="125"/>
+      <c r="AV41" s="125"/>
+      <c r="AW41" s="125"/>
+      <c r="AX41" s="125"/>
+      <c r="AY41" s="125"/>
+      <c r="AZ41" s="125"/>
+      <c r="BA41" s="125"/>
+      <c r="BB41" s="125"/>
+      <c r="BC41" s="125"/>
+      <c r="BD41" s="126"/>
+      <c r="BE41" s="124"/>
+      <c r="BF41" s="125"/>
+      <c r="BG41" s="125"/>
+      <c r="BH41" s="125"/>
+      <c r="BI41" s="125"/>
+      <c r="BJ41" s="125"/>
+      <c r="BK41" s="126"/>
+      <c r="BL41" s="218"/>
+      <c r="BM41" s="125"/>
+      <c r="BN41" s="125"/>
+      <c r="BO41" s="220"/>
+      <c r="BP41" s="218"/>
+      <c r="BQ41" s="125"/>
+      <c r="BR41" s="222"/>
     </row>
     <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="206"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="92"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="91"/>
-      <c r="T42" s="91"/>
-      <c r="U42" s="91"/>
-      <c r="V42" s="92"/>
-      <c r="W42" s="90"/>
-      <c r="X42" s="91"/>
-      <c r="Y42" s="91"/>
-      <c r="Z42" s="91"/>
-      <c r="AA42" s="91"/>
-      <c r="AB42" s="91"/>
-      <c r="AC42" s="92"/>
-      <c r="AD42" s="90"/>
-      <c r="AE42" s="91"/>
-      <c r="AF42" s="91"/>
-      <c r="AG42" s="91"/>
-      <c r="AH42" s="91"/>
-      <c r="AI42" s="91"/>
-      <c r="AJ42" s="92"/>
-      <c r="AK42" s="94"/>
-      <c r="AL42" s="95"/>
-      <c r="AM42" s="121"/>
-      <c r="AN42" s="122"/>
-      <c r="AO42" s="123"/>
-      <c r="AP42" s="124"/>
-      <c r="AQ42" s="128"/>
-      <c r="AR42" s="129"/>
-      <c r="AS42" s="129"/>
-      <c r="AT42" s="129"/>
-      <c r="AU42" s="129"/>
-      <c r="AV42" s="129"/>
-      <c r="AW42" s="129"/>
-      <c r="AX42" s="129"/>
-      <c r="AY42" s="129"/>
-      <c r="AZ42" s="129"/>
-      <c r="BA42" s="129"/>
-      <c r="BB42" s="129"/>
-      <c r="BC42" s="129"/>
-      <c r="BD42" s="130"/>
-      <c r="BE42" s="128"/>
-      <c r="BF42" s="129"/>
-      <c r="BG42" s="129"/>
-      <c r="BH42" s="129"/>
-      <c r="BI42" s="129"/>
-      <c r="BJ42" s="129"/>
-      <c r="BK42" s="130"/>
-      <c r="BL42" s="218"/>
-      <c r="BM42" s="129"/>
-      <c r="BN42" s="129"/>
-      <c r="BO42" s="227"/>
-      <c r="BP42" s="218"/>
-      <c r="BQ42" s="129"/>
-      <c r="BR42" s="220"/>
+      <c r="A42" s="207"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="90"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="91"/>
+      <c r="W42" s="89"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="90"/>
+      <c r="AC42" s="91"/>
+      <c r="AD42" s="89"/>
+      <c r="AE42" s="90"/>
+      <c r="AF42" s="90"/>
+      <c r="AG42" s="90"/>
+      <c r="AH42" s="90"/>
+      <c r="AI42" s="90"/>
+      <c r="AJ42" s="91"/>
+      <c r="AK42" s="93"/>
+      <c r="AL42" s="94"/>
+      <c r="AM42" s="120"/>
+      <c r="AN42" s="121"/>
+      <c r="AO42" s="122"/>
+      <c r="AP42" s="123"/>
+      <c r="AQ42" s="127"/>
+      <c r="AR42" s="128"/>
+      <c r="AS42" s="128"/>
+      <c r="AT42" s="128"/>
+      <c r="AU42" s="128"/>
+      <c r="AV42" s="128"/>
+      <c r="AW42" s="128"/>
+      <c r="AX42" s="128"/>
+      <c r="AY42" s="128"/>
+      <c r="AZ42" s="128"/>
+      <c r="BA42" s="128"/>
+      <c r="BB42" s="128"/>
+      <c r="BC42" s="128"/>
+      <c r="BD42" s="129"/>
+      <c r="BE42" s="127"/>
+      <c r="BF42" s="128"/>
+      <c r="BG42" s="128"/>
+      <c r="BH42" s="128"/>
+      <c r="BI42" s="128"/>
+      <c r="BJ42" s="128"/>
+      <c r="BK42" s="129"/>
+      <c r="BL42" s="219"/>
+      <c r="BM42" s="128"/>
+      <c r="BN42" s="128"/>
+      <c r="BO42" s="221"/>
+      <c r="BP42" s="219"/>
+      <c r="BQ42" s="128"/>
+      <c r="BR42" s="223"/>
     </row>
     <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="208"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="79"/>
-      <c r="Q43" s="80"/>
-      <c r="R43" s="80"/>
-      <c r="S43" s="80"/>
-      <c r="T43" s="80"/>
-      <c r="U43" s="80"/>
-      <c r="V43" s="81"/>
-      <c r="W43" s="79"/>
-      <c r="X43" s="80"/>
-      <c r="Y43" s="80"/>
-      <c r="Z43" s="80"/>
-      <c r="AA43" s="80"/>
-      <c r="AB43" s="80"/>
-      <c r="AC43" s="81"/>
-      <c r="AD43" s="79"/>
-      <c r="AE43" s="80"/>
-      <c r="AF43" s="80"/>
-      <c r="AG43" s="80"/>
-      <c r="AH43" s="80"/>
-      <c r="AI43" s="80"/>
-      <c r="AJ43" s="82"/>
-      <c r="AK43" s="79"/>
-      <c r="AL43" s="83"/>
+      <c r="A43" s="209"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="79"/>
+      <c r="R43" s="79"/>
+      <c r="S43" s="79"/>
+      <c r="T43" s="79"/>
+      <c r="U43" s="79"/>
+      <c r="V43" s="80"/>
+      <c r="W43" s="78"/>
+      <c r="X43" s="79"/>
+      <c r="Y43" s="79"/>
+      <c r="Z43" s="79"/>
+      <c r="AA43" s="79"/>
+      <c r="AB43" s="79"/>
+      <c r="AC43" s="80"/>
+      <c r="AD43" s="78"/>
+      <c r="AE43" s="79"/>
+      <c r="AF43" s="79"/>
+      <c r="AG43" s="79"/>
+      <c r="AH43" s="79"/>
+      <c r="AI43" s="79"/>
+      <c r="AJ43" s="81"/>
+      <c r="AK43" s="78"/>
+      <c r="AL43" s="82"/>
       <c r="AM43" s="136"/>
       <c r="AN43" s="137"/>
       <c r="AO43" s="137"/>
@@ -7474,10 +7479,10 @@
       <c r="BR43" s="138"/>
     </row>
     <row r="44" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="180" t="s">
+      <c r="A44" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="181"/>
+      <c r="B44" s="184"/>
       <c r="C44" s="3" t="s">
         <v>62</v>
       </c>
@@ -7512,44 +7517,44 @@
       <c r="AF44" s="10"/>
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
-      <c r="AI44" s="78"/>
-      <c r="AJ44" s="182" t="s">
+      <c r="AI44" s="77"/>
+      <c r="AJ44" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="AK44" s="183"/>
-      <c r="AL44" s="184"/>
-      <c r="AM44" s="32"/>
-      <c r="AN44" s="33"/>
-      <c r="AO44" s="34"/>
-      <c r="AP44" s="36"/>
-      <c r="AQ44" s="37"/>
-      <c r="AR44" s="35"/>
-      <c r="AS44" s="35"/>
-      <c r="AT44" s="35"/>
-      <c r="AU44" s="35"/>
-      <c r="AV44" s="35"/>
-      <c r="AW44" s="35"/>
-      <c r="AX44" s="35"/>
-      <c r="AY44" s="35"/>
-      <c r="AZ44" s="35"/>
-      <c r="BA44" s="35"/>
-      <c r="BB44" s="35"/>
-      <c r="BC44" s="35"/>
-      <c r="BD44" s="36"/>
-      <c r="BE44" s="37"/>
-      <c r="BF44" s="35"/>
-      <c r="BG44" s="35"/>
-      <c r="BH44" s="35"/>
-      <c r="BI44" s="35"/>
-      <c r="BJ44" s="35"/>
-      <c r="BK44" s="36"/>
-      <c r="BL44" s="37"/>
-      <c r="BM44" s="35"/>
-      <c r="BN44" s="35"/>
-      <c r="BO44" s="36"/>
-      <c r="BP44" s="37"/>
-      <c r="BQ44" s="35"/>
-      <c r="BR44" s="38"/>
+      <c r="AK44" s="186"/>
+      <c r="AL44" s="187"/>
+      <c r="AM44" s="31"/>
+      <c r="AN44" s="32"/>
+      <c r="AO44" s="33"/>
+      <c r="AP44" s="35"/>
+      <c r="AQ44" s="36"/>
+      <c r="AR44" s="34"/>
+      <c r="AS44" s="34"/>
+      <c r="AT44" s="34"/>
+      <c r="AU44" s="34"/>
+      <c r="AV44" s="34"/>
+      <c r="AW44" s="34"/>
+      <c r="AX44" s="34"/>
+      <c r="AY44" s="34"/>
+      <c r="AZ44" s="34"/>
+      <c r="BA44" s="34"/>
+      <c r="BB44" s="34"/>
+      <c r="BC44" s="34"/>
+      <c r="BD44" s="35"/>
+      <c r="BE44" s="36"/>
+      <c r="BF44" s="34"/>
+      <c r="BG44" s="34"/>
+      <c r="BH44" s="34"/>
+      <c r="BI44" s="34"/>
+      <c r="BJ44" s="34"/>
+      <c r="BK44" s="35"/>
+      <c r="BL44" s="36"/>
+      <c r="BM44" s="34"/>
+      <c r="BN44" s="34"/>
+      <c r="BO44" s="35"/>
+      <c r="BP44" s="36"/>
+      <c r="BQ44" s="34"/>
+      <c r="BR44" s="37"/>
     </row>
     <row r="45" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
@@ -7621,922 +7626,898 @@
       <c r="BO45" s="13"/>
       <c r="BP45" s="13"/>
       <c r="BQ45" s="13"/>
-      <c r="BR45" s="114"/>
+      <c r="BR45" s="113"/>
     </row>
-    <row r="46" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="BR46" s="112"/>
+    <row r="46" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="188" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="188"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="180" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="181"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="180" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" s="181"/>
+      <c r="J46" s="181"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="180"/>
+      <c r="M46" s="181"/>
+      <c r="N46" s="181"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="180"/>
+      <c r="Q46" s="181"/>
+      <c r="R46" s="181"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="180"/>
+      <c r="U46" s="181"/>
+      <c r="V46" s="181"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="180" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y46" s="181"/>
+      <c r="Z46" s="181"/>
+      <c r="AA46" s="14"/>
+      <c r="AM46" s="182" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN46" s="182"/>
+      <c r="AO46" s="182"/>
+      <c r="AP46" s="189"/>
+      <c r="AQ46" s="189"/>
+      <c r="AR46" s="189"/>
+      <c r="AS46" s="189"/>
+      <c r="AT46" s="11"/>
+      <c r="AU46" s="182" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV46" s="182"/>
+      <c r="AW46" s="182"/>
+      <c r="AX46" s="236"/>
+      <c r="AY46" s="237"/>
+      <c r="AZ46" s="237"/>
+      <c r="BA46" s="238"/>
+      <c r="BC46" s="233" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD46" s="234"/>
+      <c r="BE46" s="234"/>
+      <c r="BF46" s="235"/>
+      <c r="BG46" s="182"/>
+      <c r="BH46" s="182"/>
+      <c r="BI46" s="182"/>
+      <c r="BJ46" s="182"/>
+      <c r="BK46" s="13"/>
+      <c r="BL46" s="13"/>
+      <c r="BM46" s="13"/>
+      <c r="BN46" s="13"/>
+      <c r="BO46" s="13"/>
+      <c r="BP46" s="13"/>
+      <c r="BQ46" s="13"/>
+      <c r="BR46" s="113"/>
     </row>
-    <row r="47" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="185" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="185"/>
-      <c r="C47" s="185"/>
-      <c r="D47" s="186" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="187"/>
-      <c r="F47" s="187"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="186" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" s="187"/>
-      <c r="J47" s="187"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="186"/>
-      <c r="M47" s="187"/>
-      <c r="N47" s="187"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="186"/>
-      <c r="Q47" s="187"/>
-      <c r="R47" s="187"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="186"/>
-      <c r="U47" s="187"/>
-      <c r="V47" s="187"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="186" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y47" s="187"/>
-      <c r="Z47" s="187"/>
-      <c r="AA47" s="15"/>
-      <c r="AM47" s="232" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN47" s="232"/>
-      <c r="AO47" s="232"/>
-      <c r="AP47" s="188"/>
-      <c r="AQ47" s="188"/>
-      <c r="AR47" s="188"/>
-      <c r="AS47" s="188"/>
-      <c r="AT47" s="238"/>
-      <c r="AU47" s="232" t="s">
-        <v>164</v>
-      </c>
-      <c r="AV47" s="232"/>
-      <c r="AW47" s="232"/>
+    <row r="47" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="188" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="188"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="180" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="180" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" s="181"/>
+      <c r="J47" s="181"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="180" t="s">
+        <v>72</v>
+      </c>
+      <c r="M47" s="181"/>
+      <c r="N47" s="181"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="180"/>
+      <c r="Q47" s="181"/>
+      <c r="R47" s="181"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="180"/>
+      <c r="U47" s="181"/>
+      <c r="V47" s="181"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="180"/>
+      <c r="Y47" s="181"/>
+      <c r="Z47" s="181"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="1"/>
+      <c r="AM47" s="182" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN47" s="182"/>
+      <c r="AO47" s="182"/>
+      <c r="AP47" s="189"/>
+      <c r="AQ47" s="189"/>
+      <c r="AR47" s="189"/>
+      <c r="AS47" s="189"/>
+      <c r="AT47" s="11"/>
+      <c r="AU47" s="11"/>
+      <c r="AV47" s="11"/>
+      <c r="AW47" s="11"/>
       <c r="AX47" s="11"/>
       <c r="AY47" s="11"/>
       <c r="AZ47" s="11"/>
       <c r="BC47" s="233" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="BD47" s="234"/>
       <c r="BE47" s="234"/>
       <c r="BF47" s="235"/>
-      <c r="BG47" s="232"/>
-      <c r="BH47" s="232"/>
-      <c r="BI47" s="232"/>
-      <c r="BJ47" s="232"/>
-      <c r="BK47" s="236"/>
-      <c r="BL47" s="236"/>
-      <c r="BM47" s="236"/>
-      <c r="BN47" s="236"/>
-      <c r="BO47" s="236"/>
-      <c r="BP47" s="236"/>
-      <c r="BQ47" s="236"/>
-      <c r="BR47" s="114"/>
+      <c r="BG47" s="182"/>
+      <c r="BH47" s="182"/>
+      <c r="BI47" s="182"/>
+      <c r="BJ47" s="182"/>
+      <c r="BK47" s="13"/>
+      <c r="BL47" s="13"/>
+      <c r="BM47" s="13"/>
+      <c r="BN47" s="13"/>
+      <c r="BO47" s="13"/>
+      <c r="BP47" s="13"/>
+      <c r="BQ47" s="13"/>
+      <c r="BR47" s="113"/>
     </row>
-    <row r="48" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="185" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="185"/>
-      <c r="C48" s="185"/>
-      <c r="D48" s="186" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="187"/>
-      <c r="F48" s="187"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="186" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48" s="187"/>
-      <c r="J48" s="187"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="186" t="s">
-        <v>72</v>
-      </c>
-      <c r="M48" s="187"/>
-      <c r="N48" s="187"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="186"/>
-      <c r="Q48" s="187"/>
-      <c r="R48" s="187"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="186"/>
-      <c r="U48" s="187"/>
-      <c r="V48" s="187"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="186"/>
-      <c r="Y48" s="187"/>
-      <c r="Z48" s="187"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="1"/>
-      <c r="AM48" s="232" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN48" s="232"/>
-      <c r="AO48" s="232"/>
-      <c r="AP48" s="188"/>
-      <c r="AQ48" s="188"/>
-      <c r="AR48" s="188"/>
-      <c r="AS48" s="188"/>
-      <c r="AT48" s="238"/>
-      <c r="AU48" s="238"/>
-      <c r="AV48" s="238"/>
-      <c r="AW48" s="238"/>
+    <row r="48" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="188" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="188"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="180" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="181"/>
+      <c r="F48" s="181"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="180" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="181"/>
+      <c r="J48" s="181"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="180" t="s">
+        <v>77</v>
+      </c>
+      <c r="M48" s="181"/>
+      <c r="N48" s="181"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="180" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q48" s="181"/>
+      <c r="R48" s="181"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="180" t="s">
+        <v>79</v>
+      </c>
+      <c r="U48" s="181"/>
+      <c r="V48" s="181"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="180" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y48" s="181"/>
+      <c r="Z48" s="181"/>
+      <c r="AA48" s="14"/>
+      <c r="AJ48" s="4"/>
+      <c r="AM48" s="182" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN48" s="182"/>
+      <c r="AO48" s="182"/>
+      <c r="AP48" s="189"/>
+      <c r="AQ48" s="189"/>
+      <c r="AR48" s="189"/>
+      <c r="AS48" s="189"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="11"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="11"/>
       <c r="AX48" s="11"/>
       <c r="AY48" s="11"/>
       <c r="AZ48" s="11"/>
       <c r="BC48" s="233" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="BD48" s="234"/>
       <c r="BE48" s="234"/>
       <c r="BF48" s="235"/>
-      <c r="BG48" s="232"/>
-      <c r="BH48" s="232"/>
-      <c r="BI48" s="232"/>
-      <c r="BJ48" s="232"/>
-      <c r="BK48" s="236"/>
-      <c r="BL48" s="236"/>
-      <c r="BM48" s="236"/>
-      <c r="BN48" s="236"/>
-      <c r="BO48" s="236"/>
-      <c r="BP48" s="236"/>
-      <c r="BQ48" s="236"/>
-      <c r="BR48" s="114"/>
+      <c r="BG48" s="182"/>
+      <c r="BH48" s="182"/>
+      <c r="BI48" s="182"/>
+      <c r="BJ48" s="182"/>
+      <c r="BK48" s="13"/>
+      <c r="BL48" s="13"/>
+      <c r="BM48" s="13"/>
+      <c r="BN48" s="13"/>
+      <c r="BO48" s="13"/>
+      <c r="BP48" s="13"/>
+      <c r="BQ48" s="13"/>
+      <c r="BR48" s="113"/>
     </row>
-    <row r="49" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="185" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="185"/>
-      <c r="C49" s="185"/>
-      <c r="D49" s="186" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="187"/>
-      <c r="F49" s="187"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="186" t="s">
-        <v>76</v>
-      </c>
-      <c r="I49" s="187"/>
-      <c r="J49" s="187"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="186" t="s">
-        <v>77</v>
-      </c>
-      <c r="M49" s="187"/>
-      <c r="N49" s="187"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="186" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q49" s="187"/>
-      <c r="R49" s="187"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="186" t="s">
-        <v>79</v>
-      </c>
-      <c r="U49" s="187"/>
-      <c r="V49" s="187"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="186" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y49" s="187"/>
-      <c r="Z49" s="187"/>
-      <c r="AA49" s="15"/>
-      <c r="AJ49" s="4"/>
-      <c r="AM49" s="232" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN49" s="232"/>
-      <c r="AO49" s="232"/>
-      <c r="AP49" s="188"/>
-      <c r="AQ49" s="188"/>
-      <c r="AR49" s="188"/>
-      <c r="AS49" s="188"/>
-      <c r="AT49" s="238"/>
-      <c r="AU49" s="238"/>
-      <c r="AV49" s="238"/>
-      <c r="AW49" s="238"/>
+    <row r="49" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="188"/>
+      <c r="B49" s="188"/>
+      <c r="C49" s="188"/>
+      <c r="D49" s="180" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="181"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="180" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" s="181"/>
+      <c r="J49" s="181"/>
+      <c r="K49" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L49" s="180" t="s">
+        <v>85</v>
+      </c>
+      <c r="M49" s="181"/>
+      <c r="N49" s="181"/>
+      <c r="O49" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P49" s="180"/>
+      <c r="Q49" s="181"/>
+      <c r="R49" s="181"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="180"/>
+      <c r="U49" s="181"/>
+      <c r="V49" s="181"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="180"/>
+      <c r="Y49" s="181"/>
+      <c r="Z49" s="181"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="1"/>
+      <c r="AM49" s="182" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN49" s="182"/>
+      <c r="AO49" s="182"/>
+      <c r="AP49" s="189"/>
+      <c r="AQ49" s="189"/>
+      <c r="AR49" s="189"/>
+      <c r="AS49" s="189"/>
+      <c r="AT49" s="11"/>
+      <c r="AU49" s="11"/>
+      <c r="AV49" s="11"/>
+      <c r="AW49" s="11"/>
       <c r="AX49" s="11"/>
       <c r="AY49" s="11"/>
       <c r="AZ49" s="11"/>
       <c r="BC49" s="233" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="BD49" s="234"/>
       <c r="BE49" s="234"/>
       <c r="BF49" s="235"/>
-      <c r="BG49" s="232"/>
-      <c r="BH49" s="232"/>
-      <c r="BI49" s="232"/>
-      <c r="BJ49" s="232"/>
-      <c r="BK49" s="236"/>
-      <c r="BL49" s="236"/>
-      <c r="BM49" s="236"/>
-      <c r="BN49" s="236"/>
-      <c r="BO49" s="236"/>
-      <c r="BP49" s="236"/>
-      <c r="BQ49" s="236"/>
-      <c r="BR49" s="114"/>
+      <c r="BG49" s="182"/>
+      <c r="BH49" s="182"/>
+      <c r="BI49" s="182"/>
+      <c r="BJ49" s="182"/>
+      <c r="BK49" s="13"/>
+      <c r="BL49" s="13"/>
+      <c r="BM49" s="13"/>
+      <c r="BN49" s="13"/>
+      <c r="BO49" s="13"/>
+      <c r="BP49" s="13"/>
+      <c r="BQ49" s="13"/>
+      <c r="BR49" s="113"/>
     </row>
     <row r="50" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="185"/>
-      <c r="B50" s="185"/>
-      <c r="C50" s="185"/>
-      <c r="D50" s="186" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="187"/>
-      <c r="F50" s="187"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="186" t="s">
-        <v>83</v>
-      </c>
-      <c r="I50" s="187"/>
-      <c r="J50" s="187"/>
-      <c r="K50" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="L50" s="186" t="s">
-        <v>85</v>
-      </c>
-      <c r="M50" s="187"/>
-      <c r="N50" s="187"/>
-      <c r="O50" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="P50" s="186"/>
-      <c r="Q50" s="187"/>
-      <c r="R50" s="187"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="186"/>
-      <c r="U50" s="187"/>
-      <c r="V50" s="187"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="186"/>
-      <c r="Y50" s="187"/>
-      <c r="Z50" s="187"/>
-      <c r="AA50" s="15"/>
+      <c r="A50" s="190" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="191"/>
+      <c r="C50" s="192"/>
+      <c r="D50" s="180" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="181"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="180" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="181"/>
+      <c r="J50" s="181"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="180" t="s">
+        <v>91</v>
+      </c>
+      <c r="M50" s="181"/>
+      <c r="N50" s="181"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="180"/>
+      <c r="Q50" s="181"/>
+      <c r="R50" s="181"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="180"/>
+      <c r="U50" s="181"/>
+      <c r="V50" s="181"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="180"/>
+      <c r="Y50" s="181"/>
+      <c r="Z50" s="181"/>
+      <c r="AA50" s="14"/>
       <c r="AB50" s="1"/>
-      <c r="AM50" s="232" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN50" s="232"/>
-      <c r="AO50" s="232"/>
-      <c r="AP50" s="188"/>
-      <c r="AQ50" s="188"/>
-      <c r="AR50" s="188"/>
-      <c r="AS50" s="188"/>
-      <c r="AT50" s="238"/>
-      <c r="AU50" s="238"/>
-      <c r="AV50" s="238"/>
-      <c r="AW50" s="238"/>
+      <c r="AM50" s="135"/>
+      <c r="AN50" s="135"/>
+      <c r="AO50" s="135"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="11"/>
+      <c r="AT50" s="11"/>
+      <c r="AU50" s="11"/>
+      <c r="AV50" s="11"/>
+      <c r="AW50" s="11"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="11"/>
       <c r="AZ50" s="11"/>
       <c r="BC50" s="233" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="BD50" s="234"/>
       <c r="BE50" s="234"/>
       <c r="BF50" s="235"/>
-      <c r="BG50" s="232"/>
-      <c r="BH50" s="232"/>
-      <c r="BI50" s="232"/>
-      <c r="BJ50" s="232"/>
-      <c r="BK50" s="236"/>
-      <c r="BL50" s="236"/>
-      <c r="BM50" s="236"/>
-      <c r="BN50" s="236"/>
-      <c r="BO50" s="236"/>
-      <c r="BP50" s="236"/>
-      <c r="BQ50" s="236"/>
-      <c r="BR50" s="114"/>
+      <c r="BG50" s="182"/>
+      <c r="BH50" s="182"/>
+      <c r="BI50" s="182"/>
+      <c r="BJ50" s="182"/>
+      <c r="BK50" s="13"/>
+      <c r="BL50" s="13"/>
+      <c r="BM50" s="13"/>
+      <c r="BN50" s="13"/>
+      <c r="BO50" s="13"/>
+      <c r="BP50" s="13"/>
+      <c r="BQ50" s="13"/>
+      <c r="BR50" s="113"/>
     </row>
-    <row r="51" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="189" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="190"/>
-      <c r="C51" s="191"/>
-      <c r="D51" s="186" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="187"/>
-      <c r="F51" s="187"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="186" t="s">
-        <v>90</v>
-      </c>
-      <c r="I51" s="187"/>
-      <c r="J51" s="187"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="186" t="s">
-        <v>91</v>
-      </c>
-      <c r="M51" s="187"/>
-      <c r="N51" s="187"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="186"/>
-      <c r="Q51" s="187"/>
-      <c r="R51" s="187"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="186"/>
-      <c r="U51" s="187"/>
-      <c r="V51" s="187"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="186"/>
-      <c r="Y51" s="187"/>
-      <c r="Z51" s="187"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="1"/>
-      <c r="AM51" s="239"/>
-      <c r="AN51" s="239"/>
-      <c r="AO51" s="239"/>
-      <c r="AP51" s="238"/>
-      <c r="AQ51" s="238"/>
-      <c r="AR51" s="238"/>
-      <c r="AS51" s="238"/>
-      <c r="AT51" s="238"/>
-      <c r="AU51" s="238"/>
-      <c r="AV51" s="238"/>
-      <c r="AW51" s="238"/>
-      <c r="AX51" s="11"/>
-      <c r="AY51" s="11"/>
-      <c r="AZ51" s="11"/>
-      <c r="BC51" s="233" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD51" s="234"/>
-      <c r="BE51" s="234"/>
-      <c r="BF51" s="235"/>
-      <c r="BG51" s="232"/>
-      <c r="BH51" s="232"/>
-      <c r="BI51" s="232"/>
-      <c r="BJ51" s="232"/>
-      <c r="BK51" s="236"/>
-      <c r="BL51" s="236"/>
-      <c r="BM51" s="236"/>
-      <c r="BN51" s="236"/>
-      <c r="BO51" s="236"/>
-      <c r="BP51" s="236"/>
-      <c r="BQ51" s="236"/>
-      <c r="BR51" s="114"/>
+    <row r="51" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="190" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="191"/>
+      <c r="C51" s="192"/>
+      <c r="D51" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="181"/>
+      <c r="F51" s="181"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="180" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="181"/>
+      <c r="J51" s="181"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="180" t="s">
+        <v>96</v>
+      </c>
+      <c r="M51" s="181"/>
+      <c r="N51" s="181"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="180" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q51" s="181"/>
+      <c r="R51" s="181"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="U51" s="181"/>
+      <c r="V51" s="181"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="180" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y51" s="181"/>
+      <c r="Z51" s="181"/>
+      <c r="AA51" s="14"/>
+      <c r="AI51" s="195"/>
+      <c r="AJ51" s="195"/>
+      <c r="AK51" s="4"/>
+      <c r="BR51" s="111"/>
     </row>
     <row r="52" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="189" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="190"/>
-      <c r="C52" s="191"/>
-      <c r="D52" s="186" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="187"/>
-      <c r="F52" s="187"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="186" t="s">
-        <v>95</v>
-      </c>
-      <c r="I52" s="187"/>
-      <c r="J52" s="187"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="186" t="s">
-        <v>96</v>
-      </c>
-      <c r="M52" s="187"/>
-      <c r="N52" s="187"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="186" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q52" s="187"/>
-      <c r="R52" s="187"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="186" t="s">
-        <v>98</v>
-      </c>
-      <c r="U52" s="187"/>
-      <c r="V52" s="187"/>
-      <c r="W52" s="15"/>
-      <c r="X52" s="186" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y52" s="187"/>
-      <c r="Z52" s="187"/>
-      <c r="AA52" s="15"/>
-      <c r="AI52" s="197"/>
-      <c r="AJ52" s="197"/>
-      <c r="AK52" s="4"/>
-      <c r="BK52" s="237"/>
-      <c r="BL52" s="237"/>
-      <c r="BM52" s="237"/>
-      <c r="BN52" s="237"/>
-      <c r="BO52" s="237"/>
-      <c r="BP52" s="237"/>
-      <c r="BQ52" s="237"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="21"/>
+      <c r="AC52" s="21"/>
+      <c r="AD52" s="22"/>
+      <c r="AE52" s="22"/>
+      <c r="AF52" s="22"/>
+      <c r="AG52" s="22"/>
+      <c r="AH52" s="22"/>
+      <c r="AI52" s="22"/>
+      <c r="AJ52" s="22"/>
+      <c r="AK52" s="22"/>
+      <c r="AL52" s="21"/>
+      <c r="AM52" s="21"/>
+      <c r="AN52" s="21"/>
+      <c r="AO52" s="21"/>
+      <c r="AP52" s="21"/>
+      <c r="AQ52" s="21"/>
+      <c r="AR52" s="21"/>
+      <c r="AS52" s="21"/>
+      <c r="AT52" s="21"/>
+      <c r="AU52" s="21"/>
+      <c r="AV52" s="21"/>
+      <c r="AW52" s="21"/>
+      <c r="AX52" s="21"/>
+      <c r="AY52" s="21"/>
+      <c r="AZ52" s="21"/>
+      <c r="BA52" s="21"/>
+      <c r="BB52" s="21"/>
+      <c r="BC52" s="21"/>
+      <c r="BD52" s="21"/>
+      <c r="BE52" s="21"/>
+      <c r="BF52" s="21"/>
+      <c r="BG52" s="21"/>
+      <c r="BH52" s="21"/>
+      <c r="BI52" s="21"/>
+      <c r="BJ52" s="21"/>
+      <c r="BK52" s="21"/>
+      <c r="BL52" s="21"/>
+      <c r="BM52" s="21"/>
+      <c r="BN52" s="21"/>
+      <c r="BO52" s="21"/>
+      <c r="BP52" s="21"/>
+      <c r="BQ52" s="21"/>
       <c r="BR52" s="112"/>
     </row>
-    <row r="53" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="20"/>
-      <c r="AA53" s="21"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="23"/>
-      <c r="AE53" s="23"/>
-      <c r="AF53" s="23"/>
-      <c r="AG53" s="23"/>
-      <c r="AH53" s="23"/>
-      <c r="AI53" s="23"/>
-      <c r="AJ53" s="23"/>
-      <c r="AK53" s="23"/>
-      <c r="AL53" s="22"/>
-      <c r="AM53" s="22"/>
-      <c r="AN53" s="22"/>
-      <c r="AO53" s="22"/>
-      <c r="AP53" s="22"/>
-      <c r="AQ53" s="22"/>
-      <c r="AR53" s="22"/>
-      <c r="AS53" s="22"/>
-      <c r="AT53" s="22"/>
-      <c r="AU53" s="22"/>
-      <c r="AV53" s="22"/>
-      <c r="AW53" s="22"/>
-      <c r="AX53" s="22"/>
-      <c r="AY53" s="22"/>
-      <c r="AZ53" s="22"/>
-      <c r="BA53" s="22"/>
-      <c r="BB53" s="22"/>
-      <c r="BC53" s="22"/>
-      <c r="BD53" s="22"/>
-      <c r="BE53" s="22"/>
-      <c r="BF53" s="22"/>
-      <c r="BG53" s="22"/>
-      <c r="BH53" s="22"/>
-      <c r="BI53" s="22"/>
-      <c r="BJ53" s="22"/>
-      <c r="BK53" s="22"/>
-      <c r="BL53" s="22"/>
-      <c r="BM53" s="22"/>
-      <c r="BN53" s="22"/>
-      <c r="BO53" s="22"/>
-      <c r="BP53" s="22"/>
-      <c r="BQ53" s="22"/>
-      <c r="BR53" s="113"/>
+    <row r="53" spans="1:70" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="24"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="24"/>
+      <c r="AG53" s="24"/>
+      <c r="AH53" s="24"/>
+      <c r="AI53" s="24"/>
+      <c r="AJ53" s="24"/>
     </row>
-    <row r="54" spans="1:70" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="25"/>
-      <c r="U54" s="25"/>
-      <c r="V54" s="25"/>
-      <c r="W54" s="25"/>
-      <c r="X54" s="25"/>
-      <c r="Y54" s="25"/>
-      <c r="Z54" s="25"/>
-      <c r="AA54" s="25"/>
-      <c r="AB54" s="25"/>
-      <c r="AC54" s="25"/>
-      <c r="AD54" s="25"/>
-      <c r="AE54" s="25"/>
-      <c r="AF54" s="25"/>
-      <c r="AG54" s="25"/>
-      <c r="AH54" s="25"/>
-      <c r="AI54" s="25"/>
-      <c r="AJ54" s="25"/>
+    <row r="54" spans="1:70" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
     </row>
-    <row r="55" spans="1:70" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
+    <row r="55" spans="1:70" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="27">
+        <v>1</v>
+      </c>
+      <c r="B55" s="193" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="193"/>
+      <c r="D55" s="193"/>
+      <c r="E55" s="194" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="194"/>
+      <c r="G55" s="194"/>
+      <c r="H55" s="194"/>
+      <c r="I55" s="194"/>
+      <c r="J55" s="194"/>
+      <c r="K55" s="194"/>
+      <c r="N55" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="O55" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="P55" s="197"/>
+      <c r="Q55" s="198"/>
+      <c r="R55" s="194" t="s">
+        <v>105</v>
+      </c>
+      <c r="S55" s="194"/>
+      <c r="T55" s="194"/>
+      <c r="U55" s="194"/>
+      <c r="V55" s="194"/>
+      <c r="W55" s="194"/>
+      <c r="X55" s="194"/>
+      <c r="AA55" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB55" s="199" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC55" s="200"/>
+      <c r="AD55" s="200"/>
+      <c r="AE55" s="200"/>
+      <c r="AF55" s="200"/>
+      <c r="AG55" s="200"/>
+      <c r="AH55" s="200"/>
+      <c r="AI55" s="200"/>
+      <c r="AJ55" s="200"/>
+      <c r="AK55" s="200"/>
+      <c r="AL55" s="200"/>
+      <c r="AM55" s="201"/>
     </row>
-    <row r="56" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28">
-        <v>1</v>
-      </c>
-      <c r="B56" s="192" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="192"/>
-      <c r="D56" s="192"/>
-      <c r="E56" s="193" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" s="193"/>
-      <c r="G56" s="193"/>
-      <c r="H56" s="193"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="193"/>
-      <c r="K56" s="193"/>
-      <c r="N56" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="O56" s="194" t="s">
-        <v>104</v>
-      </c>
-      <c r="P56" s="195"/>
-      <c r="Q56" s="196"/>
-      <c r="R56" s="193" t="s">
-        <v>105</v>
-      </c>
-      <c r="S56" s="193"/>
-      <c r="T56" s="193"/>
-      <c r="U56" s="193"/>
-      <c r="V56" s="193"/>
-      <c r="W56" s="193"/>
-      <c r="X56" s="193"/>
-      <c r="AA56" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB56" s="198" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC56" s="199"/>
-      <c r="AD56" s="199"/>
-      <c r="AE56" s="199"/>
-      <c r="AF56" s="199"/>
-      <c r="AG56" s="199"/>
-      <c r="AH56" s="199"/>
-      <c r="AI56" s="199"/>
-      <c r="AJ56" s="199"/>
-      <c r="AK56" s="199"/>
-      <c r="AL56" s="199"/>
-      <c r="AM56" s="200"/>
+    <row r="56" spans="1:70" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="27">
+        <v>2</v>
+      </c>
+      <c r="B56" s="193" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="193"/>
+      <c r="D56" s="193"/>
+      <c r="E56" s="194" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="194"/>
+      <c r="G56" s="194"/>
+      <c r="H56" s="194"/>
+      <c r="I56" s="194"/>
+      <c r="J56" s="194"/>
+      <c r="K56" s="194"/>
+      <c r="N56" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="O56" s="196" t="s">
+        <v>111</v>
+      </c>
+      <c r="P56" s="197"/>
+      <c r="Q56" s="198"/>
+      <c r="R56" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="S56" s="194"/>
+      <c r="T56" s="194"/>
+      <c r="U56" s="194"/>
+      <c r="V56" s="194"/>
+      <c r="W56" s="194"/>
+      <c r="X56" s="194"/>
+      <c r="AA56" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB56" s="193" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC56" s="193"/>
+      <c r="AD56" s="193"/>
+      <c r="AE56" s="194" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF56" s="194"/>
+      <c r="AG56" s="194"/>
+      <c r="AH56" s="194"/>
+      <c r="AI56" s="194"/>
+      <c r="AJ56" s="194"/>
+      <c r="AK56" s="194"/>
+      <c r="AL56" s="194"/>
+      <c r="AM56" s="194"/>
     </row>
-    <row r="57" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28">
-        <v>2</v>
-      </c>
-      <c r="B57" s="192" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="192"/>
-      <c r="D57" s="192"/>
-      <c r="E57" s="193" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57" s="193"/>
-      <c r="G57" s="193"/>
-      <c r="H57" s="193"/>
-      <c r="I57" s="193"/>
-      <c r="J57" s="193"/>
-      <c r="K57" s="193"/>
-      <c r="N57" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="O57" s="194" t="s">
-        <v>111</v>
-      </c>
-      <c r="P57" s="195"/>
-      <c r="Q57" s="196"/>
-      <c r="R57" s="193" t="s">
-        <v>112</v>
-      </c>
-      <c r="S57" s="193"/>
-      <c r="T57" s="193"/>
-      <c r="U57" s="193"/>
-      <c r="V57" s="193"/>
-      <c r="W57" s="193"/>
-      <c r="X57" s="193"/>
-      <c r="AA57" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB57" s="192" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC57" s="192"/>
-      <c r="AD57" s="192"/>
-      <c r="AE57" s="193" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF57" s="193"/>
-      <c r="AG57" s="193"/>
-      <c r="AH57" s="193"/>
-      <c r="AI57" s="193"/>
-      <c r="AJ57" s="193"/>
-      <c r="AK57" s="193"/>
-      <c r="AL57" s="193"/>
-      <c r="AM57" s="193"/>
+    <row r="57" spans="1:70" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="27">
+        <v>3</v>
+      </c>
+      <c r="B57" s="193" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="193"/>
+      <c r="D57" s="193"/>
+      <c r="E57" s="194" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="194"/>
+      <c r="G57" s="194"/>
+      <c r="H57" s="194"/>
+      <c r="I57" s="194"/>
+      <c r="J57" s="194"/>
+      <c r="K57" s="194"/>
+      <c r="N57" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O57" s="196" t="s">
+        <v>118</v>
+      </c>
+      <c r="P57" s="197"/>
+      <c r="Q57" s="198"/>
+      <c r="R57" s="194" t="s">
+        <v>119</v>
+      </c>
+      <c r="S57" s="194"/>
+      <c r="T57" s="194"/>
+      <c r="U57" s="194"/>
+      <c r="V57" s="194"/>
+      <c r="W57" s="194"/>
+      <c r="X57" s="194"/>
+      <c r="AA57" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB57" s="193" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC57" s="193"/>
+      <c r="AD57" s="193"/>
+      <c r="AE57" s="194" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF57" s="194"/>
+      <c r="AG57" s="194"/>
+      <c r="AH57" s="194"/>
+      <c r="AI57" s="194"/>
+      <c r="AJ57" s="194"/>
+      <c r="AK57" s="194"/>
+      <c r="AL57" s="194"/>
+      <c r="AM57" s="194"/>
+      <c r="AN57" s="29"/>
     </row>
-    <row r="58" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="28">
-        <v>3</v>
-      </c>
-      <c r="B58" s="192" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="192"/>
-      <c r="D58" s="192"/>
-      <c r="E58" s="193" t="s">
-        <v>116</v>
-      </c>
-      <c r="F58" s="193"/>
-      <c r="G58" s="193"/>
-      <c r="H58" s="193"/>
-      <c r="I58" s="193"/>
-      <c r="J58" s="193"/>
-      <c r="K58" s="193"/>
-      <c r="N58" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="O58" s="194" t="s">
-        <v>118</v>
-      </c>
-      <c r="P58" s="195"/>
-      <c r="Q58" s="196"/>
-      <c r="R58" s="193" t="s">
-        <v>119</v>
-      </c>
-      <c r="S58" s="193"/>
-      <c r="T58" s="193"/>
-      <c r="U58" s="193"/>
-      <c r="V58" s="193"/>
-      <c r="W58" s="193"/>
-      <c r="X58" s="193"/>
-      <c r="AA58" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB58" s="192" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC58" s="192"/>
-      <c r="AD58" s="192"/>
-      <c r="AE58" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF58" s="193"/>
-      <c r="AG58" s="193"/>
-      <c r="AH58" s="193"/>
-      <c r="AI58" s="193"/>
-      <c r="AJ58" s="193"/>
-      <c r="AK58" s="193"/>
-      <c r="AL58" s="193"/>
-      <c r="AM58" s="193"/>
-      <c r="AN58" s="30"/>
+    <row r="58" spans="1:70" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="27">
+        <v>4</v>
+      </c>
+      <c r="B58" s="193" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="193"/>
+      <c r="D58" s="193"/>
+      <c r="E58" s="194" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="194"/>
+      <c r="G58" s="194"/>
+      <c r="H58" s="194"/>
+      <c r="I58" s="194"/>
+      <c r="J58" s="194"/>
+      <c r="K58" s="194"/>
+      <c r="N58" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="O58" s="196" t="s">
+        <v>125</v>
+      </c>
+      <c r="P58" s="197"/>
+      <c r="Q58" s="198"/>
+      <c r="R58" s="194" t="s">
+        <v>126</v>
+      </c>
+      <c r="S58" s="194"/>
+      <c r="T58" s="194"/>
+      <c r="U58" s="194"/>
+      <c r="V58" s="194"/>
+      <c r="W58" s="194"/>
+      <c r="X58" s="194"/>
+      <c r="AA58" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB58" s="193" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC58" s="193"/>
+      <c r="AD58" s="193"/>
+      <c r="AE58" s="194" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF58" s="194"/>
+      <c r="AG58" s="194"/>
+      <c r="AH58" s="194"/>
+      <c r="AI58" s="194"/>
+      <c r="AJ58" s="194"/>
+      <c r="AK58" s="194"/>
+      <c r="AL58" s="194"/>
+      <c r="AM58" s="194"/>
+      <c r="AN58" s="29"/>
     </row>
-    <row r="59" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28">
-        <v>4</v>
-      </c>
-      <c r="B59" s="192" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="192"/>
-      <c r="D59" s="192"/>
-      <c r="E59" s="193" t="s">
-        <v>123</v>
-      </c>
-      <c r="F59" s="193"/>
-      <c r="G59" s="193"/>
-      <c r="H59" s="193"/>
-      <c r="I59" s="193"/>
-      <c r="J59" s="193"/>
-      <c r="K59" s="193"/>
-      <c r="N59" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="O59" s="194" t="s">
-        <v>125</v>
-      </c>
-      <c r="P59" s="195"/>
-      <c r="Q59" s="196"/>
-      <c r="R59" s="193" t="s">
-        <v>126</v>
-      </c>
-      <c r="S59" s="193"/>
-      <c r="T59" s="193"/>
-      <c r="U59" s="193"/>
-      <c r="V59" s="193"/>
-      <c r="W59" s="193"/>
-      <c r="X59" s="193"/>
-      <c r="AA59" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB59" s="192" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC59" s="192"/>
-      <c r="AD59" s="192"/>
-      <c r="AE59" s="193" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF59" s="193"/>
-      <c r="AG59" s="193"/>
-      <c r="AH59" s="193"/>
-      <c r="AI59" s="193"/>
-      <c r="AJ59" s="193"/>
-      <c r="AK59" s="193"/>
-      <c r="AL59" s="193"/>
-      <c r="AM59" s="193"/>
-      <c r="AN59" s="30"/>
+    <row r="59" spans="1:70" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="27">
+        <v>5</v>
+      </c>
+      <c r="B59" s="193" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="193"/>
+      <c r="D59" s="193"/>
+      <c r="E59" s="194" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="194"/>
+      <c r="G59" s="194"/>
+      <c r="H59" s="194"/>
+      <c r="I59" s="194"/>
+      <c r="J59" s="194"/>
+      <c r="K59" s="194"/>
+      <c r="N59" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="O59" s="196" t="s">
+        <v>132</v>
+      </c>
+      <c r="P59" s="197"/>
+      <c r="Q59" s="198"/>
+      <c r="R59" s="194" t="s">
+        <v>133</v>
+      </c>
+      <c r="S59" s="194"/>
+      <c r="T59" s="194"/>
+      <c r="U59" s="194"/>
+      <c r="V59" s="194"/>
+      <c r="W59" s="194"/>
+      <c r="X59" s="194"/>
+      <c r="AA59" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB59" s="193" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC59" s="193"/>
+      <c r="AD59" s="193"/>
+      <c r="AE59" s="194" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF59" s="194"/>
+      <c r="AG59" s="194"/>
+      <c r="AH59" s="194"/>
+      <c r="AI59" s="194"/>
+      <c r="AJ59" s="194"/>
+      <c r="AK59" s="194"/>
+      <c r="AL59" s="194"/>
+      <c r="AM59" s="194"/>
+      <c r="AN59" s="29"/>
     </row>
-    <row r="60" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="28">
-        <v>5</v>
-      </c>
-      <c r="B60" s="192" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="192"/>
-      <c r="D60" s="192"/>
-      <c r="E60" s="193" t="s">
-        <v>130</v>
-      </c>
-      <c r="F60" s="193"/>
-      <c r="G60" s="193"/>
-      <c r="H60" s="193"/>
-      <c r="I60" s="193"/>
-      <c r="J60" s="193"/>
-      <c r="K60" s="193"/>
-      <c r="N60" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="O60" s="194" t="s">
-        <v>132</v>
-      </c>
-      <c r="P60" s="195"/>
-      <c r="Q60" s="196"/>
-      <c r="R60" s="193" t="s">
-        <v>133</v>
-      </c>
-      <c r="S60" s="193"/>
-      <c r="T60" s="193"/>
-      <c r="U60" s="193"/>
-      <c r="V60" s="193"/>
-      <c r="W60" s="193"/>
-      <c r="X60" s="193"/>
-      <c r="AA60" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB60" s="192" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC60" s="192"/>
-      <c r="AD60" s="192"/>
-      <c r="AE60" s="193" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF60" s="193"/>
-      <c r="AG60" s="193"/>
-      <c r="AH60" s="193"/>
-      <c r="AI60" s="193"/>
-      <c r="AJ60" s="193"/>
-      <c r="AK60" s="193"/>
-      <c r="AL60" s="193"/>
-      <c r="AM60" s="193"/>
-      <c r="AN60" s="30"/>
+    <row r="60" spans="1:70" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="27">
+        <v>6</v>
+      </c>
+      <c r="B60" s="193" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="193"/>
+      <c r="D60" s="193"/>
+      <c r="E60" s="194" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="194"/>
+      <c r="G60" s="194"/>
+      <c r="H60" s="194"/>
+      <c r="I60" s="194"/>
+      <c r="J60" s="194"/>
+      <c r="K60" s="194"/>
+      <c r="N60" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="O60" s="196" t="s">
+        <v>139</v>
+      </c>
+      <c r="P60" s="197"/>
+      <c r="Q60" s="198"/>
+      <c r="R60" s="194" t="s">
+        <v>140</v>
+      </c>
+      <c r="S60" s="194"/>
+      <c r="T60" s="194"/>
+      <c r="U60" s="194"/>
+      <c r="V60" s="194"/>
+      <c r="W60" s="194"/>
+      <c r="X60" s="194"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="193" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC60" s="193"/>
+      <c r="AD60" s="193"/>
+      <c r="AE60" s="194" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF60" s="194"/>
+      <c r="AG60" s="194"/>
+      <c r="AH60" s="194"/>
+      <c r="AI60" s="194"/>
+      <c r="AJ60" s="194"/>
+      <c r="AK60" s="194"/>
+      <c r="AL60" s="194"/>
+      <c r="AM60" s="194"/>
     </row>
-    <row r="61" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28">
-        <v>6</v>
-      </c>
-      <c r="B61" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="192"/>
-      <c r="D61" s="192"/>
-      <c r="E61" s="193" t="s">
-        <v>137</v>
-      </c>
-      <c r="F61" s="193"/>
-      <c r="G61" s="193"/>
-      <c r="H61" s="193"/>
-      <c r="I61" s="193"/>
-      <c r="J61" s="193"/>
-      <c r="K61" s="193"/>
-      <c r="N61" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="O61" s="194" t="s">
-        <v>139</v>
-      </c>
-      <c r="P61" s="195"/>
-      <c r="Q61" s="196"/>
-      <c r="R61" s="193" t="s">
-        <v>140</v>
-      </c>
-      <c r="S61" s="193"/>
-      <c r="T61" s="193"/>
-      <c r="U61" s="193"/>
-      <c r="V61" s="193"/>
-      <c r="W61" s="193"/>
-      <c r="X61" s="193"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="192" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC61" s="192"/>
-      <c r="AD61" s="192"/>
-      <c r="AE61" s="193" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF61" s="193"/>
-      <c r="AG61" s="193"/>
-      <c r="AH61" s="193"/>
-      <c r="AI61" s="193"/>
-      <c r="AJ61" s="193"/>
-      <c r="AK61" s="193"/>
-      <c r="AL61" s="193"/>
-      <c r="AM61" s="193"/>
+    <row r="61" spans="1:70" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="27">
+        <v>7</v>
+      </c>
+      <c r="B61" s="193" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="193"/>
+      <c r="D61" s="193"/>
+      <c r="E61" s="194" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" s="194"/>
+      <c r="G61" s="194"/>
+      <c r="H61" s="194"/>
+      <c r="I61" s="194"/>
+      <c r="J61" s="194"/>
+      <c r="K61" s="194"/>
     </row>
-    <row r="62" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="28">
-        <v>7</v>
-      </c>
-      <c r="B62" s="192" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="192"/>
-      <c r="D62" s="192"/>
-      <c r="E62" s="193" t="s">
-        <v>144</v>
-      </c>
-      <c r="F62" s="193"/>
-      <c r="G62" s="193"/>
-      <c r="H62" s="193"/>
-      <c r="I62" s="193"/>
-      <c r="J62" s="193"/>
-      <c r="K62" s="193"/>
-    </row>
-    <row r="63" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="N63" s="31"/>
+    <row r="62" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="N62" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="280">
-    <mergeCell ref="AP50:AS50"/>
-    <mergeCell ref="AU47:AW47"/>
+  <mergeCells count="281">
+    <mergeCell ref="AP49:AS49"/>
+    <mergeCell ref="AU46:AW46"/>
+    <mergeCell ref="BC46:BF46"/>
     <mergeCell ref="BC47:BF47"/>
     <mergeCell ref="BC48:BF48"/>
     <mergeCell ref="BC49:BF49"/>
     <mergeCell ref="BC50:BF50"/>
-    <mergeCell ref="BC51:BF51"/>
+    <mergeCell ref="BG46:BJ46"/>
     <mergeCell ref="BG47:BJ47"/>
     <mergeCell ref="BG48:BJ48"/>
     <mergeCell ref="BG49:BJ49"/>
     <mergeCell ref="BG50:BJ50"/>
-    <mergeCell ref="BG51:BJ51"/>
+    <mergeCell ref="AP46:AS46"/>
+    <mergeCell ref="AX46:BA46"/>
     <mergeCell ref="BP35:BP36"/>
     <mergeCell ref="BP38:BP39"/>
     <mergeCell ref="BP41:BP42"/>
@@ -8669,14 +8650,8 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:K62"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="E61:K61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="R61:X61"/>
-    <mergeCell ref="AB61:AD61"/>
-    <mergeCell ref="AE61:AM61"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="E60:K60"/>
     <mergeCell ref="O60:Q60"/>
@@ -8695,68 +8670,73 @@
     <mergeCell ref="R58:X58"/>
     <mergeCell ref="AB58:AD58"/>
     <mergeCell ref="AE58:AM58"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="P52:R52"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="E57:K57"/>
     <mergeCell ref="O57:Q57"/>
     <mergeCell ref="R57:X57"/>
     <mergeCell ref="AB57:AD57"/>
     <mergeCell ref="AE57:AM57"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="R56:X56"/>
-    <mergeCell ref="AB56:AM56"/>
-    <mergeCell ref="AM50:AO50"/>
+    <mergeCell ref="AB56:AD56"/>
+    <mergeCell ref="AE56:AM56"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:K55"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="R55:X55"/>
+    <mergeCell ref="AB55:AM55"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="D51:F51"/>
     <mergeCell ref="H51:J51"/>
     <mergeCell ref="L51:N51"/>
     <mergeCell ref="P51:R51"/>
-    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="R56:X56"/>
+    <mergeCell ref="AM49:AO49"/>
+    <mergeCell ref="A50:C50"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="H50:J50"/>
     <mergeCell ref="L50:N50"/>
     <mergeCell ref="P50:R50"/>
     <mergeCell ref="T50:V50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="A49:C50"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="H49:J49"/>
     <mergeCell ref="L49:N49"/>
     <mergeCell ref="P49:R49"/>
-    <mergeCell ref="X51:Z51"/>
     <mergeCell ref="T49:V49"/>
     <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="AM49:AO49"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="AM48:AO48"/>
-    <mergeCell ref="AP48:AS48"/>
-    <mergeCell ref="AP49:AS49"/>
-    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A48:C49"/>
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="L48:N48"/>
     <mergeCell ref="P48:R48"/>
+    <mergeCell ref="X50:Z50"/>
     <mergeCell ref="T48:V48"/>
-    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="AM48:AO48"/>
     <mergeCell ref="X47:Z47"/>
     <mergeCell ref="AM47:AO47"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AP48:AS48"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="L47:N47"/>
     <mergeCell ref="P47:R47"/>
-    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="AM46:AO46"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="P46:R46"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="AM1:BR1"/>
     <mergeCell ref="AN4:AP4"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C83A3A-3DBB-47A0-8628-1538DB6883E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C544B1C-DB09-406A-A40A-5BEDC382B549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -246,10 +246,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6.無資料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>實際工期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -641,6 +637,10 @@
   </si>
   <si>
     <t>國定假日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無資料</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1890,7 +1890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2120,38 +2120,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
@@ -2287,6 +2257,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2394,6 +2400,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2451,63 +2463,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2542,12 +2566,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2606,34 +2624,6 @@
     </xf>
     <xf numFmtId="177" fontId="7" fillId="3" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4388,652 +4378,652 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="214"/>
-      <c r="T1" s="214"/>
-      <c r="U1" s="214"/>
-      <c r="V1" s="214"/>
-      <c r="W1" s="214"/>
-      <c r="X1" s="214"/>
-      <c r="Y1" s="214"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="214"/>
-      <c r="AB1" s="214"/>
-      <c r="AC1" s="214"/>
-      <c r="AD1" s="214"/>
-      <c r="AE1" s="214"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="214"/>
-      <c r="AH1" s="214"/>
-      <c r="AI1" s="214"/>
-      <c r="AJ1" s="214"/>
-      <c r="AK1" s="214"/>
-      <c r="AL1" s="215"/>
-      <c r="AM1" s="213" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN1" s="214"/>
-      <c r="AO1" s="214"/>
-      <c r="AP1" s="214"/>
-      <c r="AQ1" s="214"/>
-      <c r="AR1" s="214"/>
-      <c r="AS1" s="214"/>
-      <c r="AT1" s="214"/>
-      <c r="AU1" s="214"/>
-      <c r="AV1" s="214"/>
-      <c r="AW1" s="214"/>
-      <c r="AX1" s="214"/>
-      <c r="AY1" s="214"/>
-      <c r="AZ1" s="214"/>
-      <c r="BA1" s="214"/>
-      <c r="BB1" s="214"/>
-      <c r="BC1" s="214"/>
-      <c r="BD1" s="214"/>
-      <c r="BE1" s="214"/>
-      <c r="BF1" s="214"/>
-      <c r="BG1" s="214"/>
-      <c r="BH1" s="214"/>
-      <c r="BI1" s="214"/>
-      <c r="BJ1" s="214"/>
-      <c r="BK1" s="214"/>
-      <c r="BL1" s="214"/>
-      <c r="BM1" s="214"/>
-      <c r="BN1" s="214"/>
-      <c r="BO1" s="214"/>
-      <c r="BP1" s="214"/>
-      <c r="BQ1" s="214"/>
-      <c r="BR1" s="215"/>
+      <c r="A1" s="221" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
+      <c r="N1" s="222"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="222"/>
+      <c r="S1" s="222"/>
+      <c r="T1" s="222"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
+      <c r="X1" s="222"/>
+      <c r="Y1" s="222"/>
+      <c r="Z1" s="222"/>
+      <c r="AA1" s="222"/>
+      <c r="AB1" s="222"/>
+      <c r="AC1" s="222"/>
+      <c r="AD1" s="222"/>
+      <c r="AE1" s="222"/>
+      <c r="AF1" s="222"/>
+      <c r="AG1" s="222"/>
+      <c r="AH1" s="222"/>
+      <c r="AI1" s="222"/>
+      <c r="AJ1" s="222"/>
+      <c r="AK1" s="222"/>
+      <c r="AL1" s="223"/>
+      <c r="AM1" s="221" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN1" s="222"/>
+      <c r="AO1" s="222"/>
+      <c r="AP1" s="222"/>
+      <c r="AQ1" s="222"/>
+      <c r="AR1" s="222"/>
+      <c r="AS1" s="222"/>
+      <c r="AT1" s="222"/>
+      <c r="AU1" s="222"/>
+      <c r="AV1" s="222"/>
+      <c r="AW1" s="222"/>
+      <c r="AX1" s="222"/>
+      <c r="AY1" s="222"/>
+      <c r="AZ1" s="222"/>
+      <c r="BA1" s="222"/>
+      <c r="BB1" s="222"/>
+      <c r="BC1" s="222"/>
+      <c r="BD1" s="222"/>
+      <c r="BE1" s="222"/>
+      <c r="BF1" s="222"/>
+      <c r="BG1" s="222"/>
+      <c r="BH1" s="222"/>
+      <c r="BI1" s="222"/>
+      <c r="BJ1" s="222"/>
+      <c r="BK1" s="222"/>
+      <c r="BL1" s="222"/>
+      <c r="BM1" s="222"/>
+      <c r="BN1" s="222"/>
+      <c r="BO1" s="222"/>
+      <c r="BP1" s="222"/>
+      <c r="BQ1" s="222"/>
+      <c r="BR1" s="223"/>
     </row>
     <row r="2" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="221" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162" t="s">
+      <c r="A2" s="229" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162" t="s">
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="162"/>
-      <c r="AG2" s="162"/>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="162"/>
-      <c r="AJ2" s="162"/>
-      <c r="AK2" s="162"/>
-      <c r="AL2" s="163"/>
-      <c r="AM2" s="221" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN2" s="162"/>
-      <c r="AO2" s="162"/>
-      <c r="AP2" s="162"/>
-      <c r="AQ2" s="162"/>
-      <c r="AR2" s="162"/>
-      <c r="AS2" s="162"/>
-      <c r="AT2" s="162"/>
-      <c r="AU2" s="162"/>
-      <c r="AV2" s="162"/>
-      <c r="AW2" s="162"/>
-      <c r="AX2" s="162"/>
-      <c r="AY2" s="162"/>
-      <c r="AZ2" s="162"/>
-      <c r="BA2" s="162" t="s">
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="164"/>
+      <c r="AG2" s="164"/>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="164"/>
+      <c r="AJ2" s="164"/>
+      <c r="AK2" s="164"/>
+      <c r="AL2" s="165"/>
+      <c r="AM2" s="229" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN2" s="164"/>
+      <c r="AO2" s="164"/>
+      <c r="AP2" s="164"/>
+      <c r="AQ2" s="164"/>
+      <c r="AR2" s="164"/>
+      <c r="AS2" s="164"/>
+      <c r="AT2" s="164"/>
+      <c r="AU2" s="164"/>
+      <c r="AV2" s="164"/>
+      <c r="AW2" s="164"/>
+      <c r="AX2" s="164"/>
+      <c r="AY2" s="164"/>
+      <c r="AZ2" s="164"/>
+      <c r="BA2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="162"/>
-      <c r="BC2" s="162"/>
-      <c r="BD2" s="162"/>
-      <c r="BE2" s="162"/>
-      <c r="BF2" s="162"/>
-      <c r="BG2" s="162"/>
-      <c r="BH2" s="162"/>
-      <c r="BI2" s="162"/>
-      <c r="BJ2" s="162" t="s">
+      <c r="BB2" s="164"/>
+      <c r="BC2" s="164"/>
+      <c r="BD2" s="164"/>
+      <c r="BE2" s="164"/>
+      <c r="BF2" s="164"/>
+      <c r="BG2" s="164"/>
+      <c r="BH2" s="164"/>
+      <c r="BI2" s="164"/>
+      <c r="BJ2" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="162"/>
-      <c r="BL2" s="162"/>
-      <c r="BM2" s="162"/>
-      <c r="BN2" s="162"/>
-      <c r="BO2" s="162"/>
-      <c r="BP2" s="162"/>
-      <c r="BQ2" s="162"/>
-      <c r="BR2" s="163"/>
+      <c r="BK2" s="164"/>
+      <c r="BL2" s="164"/>
+      <c r="BM2" s="164"/>
+      <c r="BN2" s="164"/>
+      <c r="BO2" s="164"/>
+      <c r="BP2" s="164"/>
+      <c r="BQ2" s="164"/>
+      <c r="BR2" s="165"/>
     </row>
     <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="221" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162" t="s">
+      <c r="A3" s="229" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="164"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="162" t="s">
+      <c r="T3" s="164"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="164"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="162"/>
-      <c r="AE3" s="162"/>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="162"/>
-      <c r="AJ3" s="162"/>
-      <c r="AK3" s="162"/>
-      <c r="AL3" s="163"/>
-      <c r="AM3" s="221" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN3" s="162"/>
-      <c r="AO3" s="162"/>
-      <c r="AP3" s="162"/>
-      <c r="AQ3" s="162"/>
-      <c r="AR3" s="162"/>
-      <c r="AS3" s="162"/>
-      <c r="AT3" s="162"/>
-      <c r="AU3" s="162"/>
-      <c r="AV3" s="162"/>
-      <c r="AW3" s="162"/>
-      <c r="AX3" s="162"/>
-      <c r="AY3" s="162"/>
-      <c r="AZ3" s="162"/>
-      <c r="BA3" s="162" t="s">
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="164"/>
+      <c r="AF3" s="164"/>
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="164"/>
+      <c r="AJ3" s="164"/>
+      <c r="AK3" s="164"/>
+      <c r="AL3" s="165"/>
+      <c r="AM3" s="229" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN3" s="164"/>
+      <c r="AO3" s="164"/>
+      <c r="AP3" s="164"/>
+      <c r="AQ3" s="164"/>
+      <c r="AR3" s="164"/>
+      <c r="AS3" s="164"/>
+      <c r="AT3" s="164"/>
+      <c r="AU3" s="164"/>
+      <c r="AV3" s="164"/>
+      <c r="AW3" s="164"/>
+      <c r="AX3" s="164"/>
+      <c r="AY3" s="164"/>
+      <c r="AZ3" s="164"/>
+      <c r="BA3" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="162"/>
-      <c r="BC3" s="162"/>
-      <c r="BD3" s="162"/>
-      <c r="BE3" s="162"/>
-      <c r="BF3" s="162"/>
-      <c r="BG3" s="162"/>
-      <c r="BH3" s="162"/>
-      <c r="BI3" s="162"/>
-      <c r="BJ3" s="162" t="s">
+      <c r="BB3" s="164"/>
+      <c r="BC3" s="164"/>
+      <c r="BD3" s="164"/>
+      <c r="BE3" s="164"/>
+      <c r="BF3" s="164"/>
+      <c r="BG3" s="164"/>
+      <c r="BH3" s="164"/>
+      <c r="BI3" s="164"/>
+      <c r="BJ3" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="BK3" s="162"/>
-      <c r="BL3" s="162"/>
-      <c r="BM3" s="162"/>
-      <c r="BN3" s="162"/>
-      <c r="BO3" s="162"/>
-      <c r="BP3" s="162"/>
-      <c r="BQ3" s="162"/>
-      <c r="BR3" s="163"/>
+      <c r="BK3" s="164"/>
+      <c r="BL3" s="164"/>
+      <c r="BM3" s="164"/>
+      <c r="BN3" s="164"/>
+      <c r="BO3" s="164"/>
+      <c r="BP3" s="164"/>
+      <c r="BQ3" s="164"/>
+      <c r="BR3" s="165"/>
     </row>
     <row r="4" spans="1:70" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="223"/>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="222"/>
-      <c r="O4" s="222"/>
-      <c r="P4" s="222"/>
-      <c r="Q4" s="222"/>
-      <c r="R4" s="222"/>
-      <c r="S4" s="222"/>
-      <c r="T4" s="222"/>
-      <c r="U4" s="222"/>
-      <c r="V4" s="222"/>
-      <c r="W4" s="222"/>
-      <c r="X4" s="222"/>
-      <c r="Y4" s="222"/>
-      <c r="Z4" s="222"/>
-      <c r="AA4" s="222"/>
-      <c r="AB4" s="222"/>
-      <c r="AC4" s="222"/>
-      <c r="AD4" s="222"/>
-      <c r="AE4" s="222"/>
-      <c r="AF4" s="222"/>
-      <c r="AG4" s="222"/>
-      <c r="AH4" s="222"/>
-      <c r="AI4" s="222"/>
-      <c r="AJ4" s="222"/>
-      <c r="AK4" s="222"/>
-      <c r="AL4" s="222"/>
-      <c r="AM4" s="111" t="s">
+      <c r="A4" s="231"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="230"/>
+      <c r="J4" s="230"/>
+      <c r="K4" s="230"/>
+      <c r="L4" s="230"/>
+      <c r="M4" s="230"/>
+      <c r="N4" s="230"/>
+      <c r="O4" s="230"/>
+      <c r="P4" s="230"/>
+      <c r="Q4" s="230"/>
+      <c r="R4" s="230"/>
+      <c r="S4" s="230"/>
+      <c r="T4" s="230"/>
+      <c r="U4" s="230"/>
+      <c r="V4" s="230"/>
+      <c r="W4" s="230"/>
+      <c r="X4" s="230"/>
+      <c r="Y4" s="230"/>
+      <c r="Z4" s="230"/>
+      <c r="AA4" s="230"/>
+      <c r="AB4" s="230"/>
+      <c r="AC4" s="230"/>
+      <c r="AD4" s="230"/>
+      <c r="AE4" s="230"/>
+      <c r="AF4" s="230"/>
+      <c r="AG4" s="230"/>
+      <c r="AH4" s="230"/>
+      <c r="AI4" s="230"/>
+      <c r="AJ4" s="230"/>
+      <c r="AK4" s="230"/>
+      <c r="AL4" s="230"/>
+      <c r="AM4" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN4" s="224" t="s">
         <v>129</v>
       </c>
-      <c r="AN4" s="216" t="s">
+      <c r="AO4" s="225"/>
+      <c r="AP4" s="226"/>
+      <c r="AQ4" s="224" t="s">
         <v>130</v>
       </c>
-      <c r="AO4" s="217"/>
-      <c r="AP4" s="218"/>
-      <c r="AQ4" s="216" t="s">
+      <c r="AR4" s="225"/>
+      <c r="AS4" s="225"/>
+      <c r="AT4" s="225"/>
+      <c r="AU4" s="225"/>
+      <c r="AV4" s="225"/>
+      <c r="AW4" s="225"/>
+      <c r="AX4" s="225"/>
+      <c r="AY4" s="225"/>
+      <c r="AZ4" s="225"/>
+      <c r="BA4" s="225"/>
+      <c r="BB4" s="225"/>
+      <c r="BC4" s="225"/>
+      <c r="BD4" s="226"/>
+      <c r="BE4" s="224" t="s">
         <v>131</v>
       </c>
-      <c r="AR4" s="217"/>
-      <c r="AS4" s="217"/>
-      <c r="AT4" s="217"/>
-      <c r="AU4" s="217"/>
-      <c r="AV4" s="217"/>
-      <c r="AW4" s="217"/>
-      <c r="AX4" s="217"/>
-      <c r="AY4" s="217"/>
-      <c r="AZ4" s="217"/>
-      <c r="BA4" s="217"/>
-      <c r="BB4" s="217"/>
-      <c r="BC4" s="217"/>
-      <c r="BD4" s="218"/>
-      <c r="BE4" s="216" t="s">
-        <v>132</v>
-      </c>
-      <c r="BF4" s="219"/>
-      <c r="BG4" s="217"/>
-      <c r="BH4" s="217"/>
-      <c r="BI4" s="217"/>
-      <c r="BJ4" s="217"/>
-      <c r="BK4" s="218"/>
-      <c r="BL4" s="216" t="s">
+      <c r="BF4" s="227"/>
+      <c r="BG4" s="225"/>
+      <c r="BH4" s="225"/>
+      <c r="BI4" s="225"/>
+      <c r="BJ4" s="225"/>
+      <c r="BK4" s="226"/>
+      <c r="BL4" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="BM4" s="217"/>
-      <c r="BN4" s="217"/>
-      <c r="BO4" s="218"/>
-      <c r="BP4" s="216" t="s">
+      <c r="BM4" s="225"/>
+      <c r="BN4" s="225"/>
+      <c r="BO4" s="226"/>
+      <c r="BP4" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="BQ4" s="217"/>
-      <c r="BR4" s="220"/>
+      <c r="BQ4" s="225"/>
+      <c r="BR4" s="228"/>
     </row>
     <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="223"/>
-      <c r="B5" s="181" t="s">
+      <c r="A5" s="231"/>
+      <c r="B5" s="185" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181" t="s">
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="185" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181" t="s">
+      <c r="Q5" s="185"/>
+      <c r="R5" s="185"/>
+      <c r="S5" s="185"/>
+      <c r="T5" s="185"/>
+      <c r="U5" s="185"/>
+      <c r="V5" s="185"/>
+      <c r="W5" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181" t="s">
+      <c r="X5" s="185"/>
+      <c r="Y5" s="185"/>
+      <c r="Z5" s="185"/>
+      <c r="AA5" s="185"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="185"/>
+      <c r="AD5" s="185" t="s">
         <v>123</v>
       </c>
-      <c r="X5" s="181"/>
-      <c r="Y5" s="181"/>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181" t="s">
+      <c r="AE5" s="185"/>
+      <c r="AF5" s="185"/>
+      <c r="AG5" s="185"/>
+      <c r="AH5" s="185"/>
+      <c r="AI5" s="185"/>
+      <c r="AJ5" s="185"/>
+      <c r="AK5" s="185" t="s">
         <v>124</v>
       </c>
-      <c r="AE5" s="181"/>
-      <c r="AF5" s="181"/>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL5" s="181"/>
-      <c r="AM5" s="112" t="s">
+      <c r="AL5" s="185"/>
+      <c r="AM5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="AN5" s="98" t="s">
+      <c r="AN5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="AO5" s="99" t="s">
+      <c r="AO5" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="100" t="s">
+      <c r="AP5" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="AQ5" s="101" t="s">
+      <c r="AQ5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="164" t="s">
+      <c r="AR5" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="165"/>
-      <c r="AT5" s="164" t="s">
+      <c r="AS5" s="167"/>
+      <c r="AT5" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="165"/>
-      <c r="AV5" s="164" t="s">
+      <c r="AU5" s="167"/>
+      <c r="AV5" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="AW5" s="165"/>
-      <c r="AX5" s="164" t="s">
+      <c r="AW5" s="167"/>
+      <c r="AX5" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="165"/>
-      <c r="AZ5" s="164" t="s">
+      <c r="AY5" s="167"/>
+      <c r="AZ5" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="165"/>
-      <c r="BB5" s="164" t="s">
+      <c r="BA5" s="167"/>
+      <c r="BB5" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="BC5" s="165"/>
-      <c r="BD5" s="100" t="s">
+      <c r="BC5" s="167"/>
+      <c r="BD5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BE5" s="168" t="s">
+      <c r="BE5" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="BF5" s="165"/>
-      <c r="BG5" s="169" t="s">
+      <c r="BF5" s="167"/>
+      <c r="BG5" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="BH5" s="170"/>
-      <c r="BI5" s="169" t="s">
+      <c r="BH5" s="172"/>
+      <c r="BI5" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="170"/>
-      <c r="BK5" s="102" t="s">
+      <c r="BJ5" s="172"/>
+      <c r="BK5" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="BL5" s="98" t="s">
+      <c r="BL5" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="BM5" s="103" t="s">
+      <c r="BM5" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="BN5" s="103" t="s">
+      <c r="BN5" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="BO5" s="104" t="s">
+      <c r="BO5" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="BP5" s="105" t="s">
+      <c r="BP5" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="BQ5" s="106" t="s">
+      <c r="BQ5" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="BR5" s="107" t="s">
+      <c r="BR5" s="97" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
-      <c r="B6" s="179" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="177" t="s">
+      <c r="B6" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="177" t="s">
+      <c r="D6" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="177" t="s">
+      <c r="E6" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="177" t="s">
+      <c r="F6" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="177" t="s">
+      <c r="G6" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="175" t="s">
+      <c r="H6" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="179" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="177" t="s">
+      <c r="I6" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="177" t="s">
+      <c r="K6" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="177" t="s">
+      <c r="L6" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="177" t="s">
+      <c r="M6" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="177" t="s">
+      <c r="N6" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="175" t="s">
+      <c r="O6" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="179" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q6" s="177" t="s">
+      <c r="P6" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q6" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="177" t="s">
+      <c r="R6" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="177" t="s">
+      <c r="S6" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="177" t="s">
+      <c r="T6" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="177" t="s">
+      <c r="U6" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="175" t="s">
+      <c r="V6" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="179" t="s">
-        <v>128</v>
-      </c>
-      <c r="X6" s="177" t="s">
+      <c r="W6" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="X6" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="177" t="s">
+      <c r="Y6" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="177" t="s">
+      <c r="Z6" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="177" t="s">
+      <c r="AA6" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="177" t="s">
+      <c r="AB6" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="175" t="s">
+      <c r="AC6" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="179" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE6" s="177" t="s">
+      <c r="AD6" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE6" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="177" t="s">
+      <c r="AF6" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="177" t="s">
+      <c r="AG6" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="177" t="s">
+      <c r="AH6" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="177" t="s">
+      <c r="AI6" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="175" t="s">
+      <c r="AJ6" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="179" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL6" s="153" t="s">
+      <c r="AK6" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL6" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="226" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN6" s="226" t="s">
+      <c r="AM6" s="232" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN6" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="AO6" s="149" t="s">
+      <c r="AO6" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="AP6" s="151" t="s">
+      <c r="AP6" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="AQ6" s="224" t="s">
+      <c r="AQ6" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="AR6" s="166" t="s">
+      <c r="AR6" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="AS6" s="167"/>
-      <c r="AT6" s="166" t="s">
+      <c r="AS6" s="169"/>
+      <c r="AT6" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="AU6" s="167"/>
-      <c r="AV6" s="166" t="s">
+      <c r="AU6" s="169"/>
+      <c r="AV6" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="AW6" s="167"/>
-      <c r="AX6" s="166" t="s">
+      <c r="AW6" s="169"/>
+      <c r="AX6" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="AY6" s="167"/>
-      <c r="AZ6" s="166" t="s">
+      <c r="AY6" s="169"/>
+      <c r="AZ6" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="BA6" s="167"/>
-      <c r="BB6" s="166" t="s">
+      <c r="BA6" s="169"/>
+      <c r="BB6" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="BC6" s="167"/>
-      <c r="BD6" s="234" t="s">
+      <c r="BC6" s="169"/>
+      <c r="BD6" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="BE6" s="236" t="s">
+      <c r="BE6" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="BF6" s="237"/>
-      <c r="BG6" s="238" t="s">
+      <c r="BF6" s="243"/>
+      <c r="BG6" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="BH6" s="239"/>
-      <c r="BI6" s="171" t="s">
+      <c r="BH6" s="245"/>
+      <c r="BI6" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="BJ6" s="172"/>
-      <c r="BK6" s="173" t="s">
+      <c r="BJ6" s="174"/>
+      <c r="BK6" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="BL6" s="226" t="s">
+      <c r="BL6" s="232" t="s">
         <v>41</v>
       </c>
-      <c r="BM6" s="149" t="s">
+      <c r="BM6" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="BN6" s="149" t="s">
+      <c r="BN6" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="BO6" s="151" t="s">
+      <c r="BO6" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="BP6" s="228" t="s">
+      <c r="BP6" s="234" t="s">
         <v>44</v>
       </c>
-      <c r="BQ6" s="232" t="s">
+      <c r="BQ6" s="238" t="s">
         <v>45</v>
       </c>
-      <c r="BR6" s="230" t="s">
+      <c r="BR6" s="236" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5041,96 +5031,96 @@
       <c r="A7" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="178"/>
-      <c r="T7" s="178"/>
-      <c r="U7" s="178"/>
-      <c r="V7" s="176"/>
-      <c r="W7" s="180"/>
-      <c r="X7" s="178"/>
-      <c r="Y7" s="178"/>
-      <c r="Z7" s="178"/>
-      <c r="AA7" s="178"/>
-      <c r="AB7" s="178"/>
-      <c r="AC7" s="176"/>
-      <c r="AD7" s="180"/>
-      <c r="AE7" s="178"/>
-      <c r="AF7" s="178"/>
-      <c r="AG7" s="178"/>
-      <c r="AH7" s="178"/>
-      <c r="AI7" s="178"/>
-      <c r="AJ7" s="176"/>
-      <c r="AK7" s="180"/>
-      <c r="AL7" s="154"/>
-      <c r="AM7" s="227"/>
-      <c r="AN7" s="227"/>
-      <c r="AO7" s="150"/>
-      <c r="AP7" s="152"/>
-      <c r="AQ7" s="225"/>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="94" t="s">
+      <c r="B7" s="184"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="184"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
+      <c r="AB7" s="182"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="184"/>
+      <c r="AE7" s="182"/>
+      <c r="AF7" s="182"/>
+      <c r="AG7" s="182"/>
+      <c r="AH7" s="182"/>
+      <c r="AI7" s="182"/>
+      <c r="AJ7" s="180"/>
+      <c r="AK7" s="184"/>
+      <c r="AL7" s="156"/>
+      <c r="AM7" s="233"/>
+      <c r="AN7" s="233"/>
+      <c r="AO7" s="152"/>
+      <c r="AP7" s="154"/>
+      <c r="AQ7" s="178"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="94" t="s">
+      <c r="AT7" s="82"/>
+      <c r="AU7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="AV7" s="94"/>
-      <c r="AW7" s="94" t="s">
+      <c r="AV7" s="84"/>
+      <c r="AW7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="94" t="s">
+      <c r="AX7" s="85"/>
+      <c r="AY7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="94" t="s">
+      <c r="AZ7" s="85"/>
+      <c r="BA7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BB7" s="95"/>
-      <c r="BC7" s="94" t="s">
+      <c r="BB7" s="85"/>
+      <c r="BC7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BD7" s="235"/>
-      <c r="BE7" s="93"/>
-      <c r="BF7" s="94" t="s">
+      <c r="BD7" s="241"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BG7" s="96"/>
-      <c r="BH7" s="94" t="s">
+      <c r="BG7" s="86"/>
+      <c r="BH7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BI7" s="97"/>
-      <c r="BJ7" s="94" t="s">
+      <c r="BI7" s="87"/>
+      <c r="BJ7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="174"/>
-      <c r="BL7" s="227"/>
-      <c r="BM7" s="150"/>
-      <c r="BN7" s="150"/>
-      <c r="BO7" s="152"/>
-      <c r="BP7" s="229"/>
-      <c r="BQ7" s="233"/>
-      <c r="BR7" s="231"/>
+      <c r="BK7" s="176"/>
+      <c r="BL7" s="233"/>
+      <c r="BM7" s="152"/>
+      <c r="BN7" s="152"/>
+      <c r="BO7" s="154"/>
+      <c r="BP7" s="235"/>
+      <c r="BQ7" s="239"/>
+      <c r="BR7" s="237"/>
     </row>
     <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="187" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="37"/>
@@ -5170,113 +5160,113 @@
       <c r="AJ8" s="39"/>
       <c r="AK8" s="40"/>
       <c r="AL8" s="41"/>
-      <c r="AM8" s="113"/>
-      <c r="AN8" s="114"/>
-      <c r="AO8" s="115"/>
-      <c r="AP8" s="116"/>
-      <c r="AQ8" s="121"/>
-      <c r="AR8" s="122"/>
-      <c r="AS8" s="122"/>
-      <c r="AT8" s="122"/>
-      <c r="AU8" s="122"/>
-      <c r="AV8" s="122"/>
-      <c r="AW8" s="122"/>
-      <c r="AX8" s="122"/>
-      <c r="AY8" s="122"/>
-      <c r="AZ8" s="122"/>
-      <c r="BA8" s="122"/>
-      <c r="BB8" s="122"/>
-      <c r="BC8" s="122"/>
-      <c r="BD8" s="123"/>
-      <c r="BE8" s="121"/>
-      <c r="BF8" s="122"/>
-      <c r="BG8" s="122"/>
-      <c r="BH8" s="122"/>
-      <c r="BI8" s="122"/>
-      <c r="BJ8" s="122"/>
-      <c r="BK8" s="123"/>
-      <c r="BL8" s="147"/>
-      <c r="BM8" s="122"/>
-      <c r="BN8" s="122"/>
-      <c r="BO8" s="160"/>
-      <c r="BP8" s="147"/>
-      <c r="BQ8" s="122"/>
-      <c r="BR8" s="158"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="106"/>
+      <c r="AQ8" s="111"/>
+      <c r="AR8" s="112"/>
+      <c r="AS8" s="112"/>
+      <c r="AT8" s="112"/>
+      <c r="AU8" s="112"/>
+      <c r="AV8" s="112"/>
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="112"/>
+      <c r="AY8" s="112"/>
+      <c r="AZ8" s="112"/>
+      <c r="BA8" s="112"/>
+      <c r="BB8" s="112"/>
+      <c r="BC8" s="112"/>
+      <c r="BD8" s="113"/>
+      <c r="BE8" s="111"/>
+      <c r="BF8" s="112"/>
+      <c r="BG8" s="112"/>
+      <c r="BH8" s="112"/>
+      <c r="BI8" s="112"/>
+      <c r="BJ8" s="112"/>
+      <c r="BK8" s="113"/>
+      <c r="BL8" s="149"/>
+      <c r="BM8" s="112"/>
+      <c r="BN8" s="112"/>
+      <c r="BO8" s="162"/>
+      <c r="BP8" s="149"/>
+      <c r="BQ8" s="112"/>
+      <c r="BR8" s="160"/>
     </row>
     <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="183"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="81"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="84"/>
-      <c r="AL9" s="85"/>
-      <c r="AM9" s="117"/>
-      <c r="AN9" s="118"/>
-      <c r="AO9" s="119"/>
-      <c r="AP9" s="120"/>
-      <c r="AQ9" s="124"/>
-      <c r="AR9" s="125"/>
-      <c r="AS9" s="125"/>
-      <c r="AT9" s="125"/>
-      <c r="AU9" s="125"/>
-      <c r="AV9" s="125"/>
-      <c r="AW9" s="125"/>
-      <c r="AX9" s="125"/>
-      <c r="AY9" s="125"/>
-      <c r="AZ9" s="125"/>
-      <c r="BA9" s="125"/>
-      <c r="BB9" s="125"/>
-      <c r="BC9" s="125"/>
-      <c r="BD9" s="126"/>
-      <c r="BE9" s="124"/>
-      <c r="BF9" s="125"/>
-      <c r="BG9" s="125"/>
-      <c r="BH9" s="125"/>
-      <c r="BI9" s="125"/>
-      <c r="BJ9" s="125"/>
-      <c r="BK9" s="126"/>
-      <c r="BL9" s="148"/>
-      <c r="BM9" s="125"/>
-      <c r="BN9" s="125"/>
-      <c r="BO9" s="161"/>
-      <c r="BP9" s="148"/>
-      <c r="BQ9" s="125"/>
-      <c r="BR9" s="159"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="133"/>
+      <c r="AB9" s="133"/>
+      <c r="AC9" s="134"/>
+      <c r="AD9" s="132"/>
+      <c r="AE9" s="133"/>
+      <c r="AF9" s="133"/>
+      <c r="AG9" s="133"/>
+      <c r="AH9" s="133"/>
+      <c r="AI9" s="133"/>
+      <c r="AJ9" s="134"/>
+      <c r="AK9" s="135"/>
+      <c r="AL9" s="136"/>
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="109"/>
+      <c r="AP9" s="110"/>
+      <c r="AQ9" s="114"/>
+      <c r="AR9" s="115"/>
+      <c r="AS9" s="115"/>
+      <c r="AT9" s="115"/>
+      <c r="AU9" s="115"/>
+      <c r="AV9" s="115"/>
+      <c r="AW9" s="115"/>
+      <c r="AX9" s="115"/>
+      <c r="AY9" s="115"/>
+      <c r="AZ9" s="115"/>
+      <c r="BA9" s="115"/>
+      <c r="BB9" s="115"/>
+      <c r="BC9" s="115"/>
+      <c r="BD9" s="116"/>
+      <c r="BE9" s="114"/>
+      <c r="BF9" s="115"/>
+      <c r="BG9" s="115"/>
+      <c r="BH9" s="115"/>
+      <c r="BI9" s="115"/>
+      <c r="BJ9" s="115"/>
+      <c r="BK9" s="116"/>
+      <c r="BL9" s="150"/>
+      <c r="BM9" s="115"/>
+      <c r="BN9" s="115"/>
+      <c r="BO9" s="163"/>
+      <c r="BP9" s="150"/>
+      <c r="BQ9" s="115"/>
+      <c r="BR9" s="161"/>
     </row>
     <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="184"/>
+      <c r="A10" s="188"/>
       <c r="B10" s="57"/>
       <c r="C10" s="58"/>
       <c r="D10" s="58"/>
@@ -5314,41 +5304,41 @@
       <c r="AJ10" s="59"/>
       <c r="AK10" s="60"/>
       <c r="AL10" s="61"/>
-      <c r="AM10" s="243"/>
-      <c r="AN10" s="244"/>
-      <c r="AO10" s="244"/>
-      <c r="AP10" s="244"/>
-      <c r="AQ10" s="244"/>
-      <c r="AR10" s="244"/>
-      <c r="AS10" s="244"/>
-      <c r="AT10" s="244"/>
-      <c r="AU10" s="244"/>
-      <c r="AV10" s="244"/>
-      <c r="AW10" s="244"/>
-      <c r="AX10" s="244"/>
-      <c r="AY10" s="244"/>
-      <c r="AZ10" s="244"/>
-      <c r="BA10" s="244"/>
-      <c r="BB10" s="244"/>
-      <c r="BC10" s="244"/>
-      <c r="BD10" s="244"/>
-      <c r="BE10" s="244"/>
-      <c r="BF10" s="244"/>
-      <c r="BG10" s="244"/>
-      <c r="BH10" s="244"/>
-      <c r="BI10" s="244"/>
-      <c r="BJ10" s="244"/>
-      <c r="BK10" s="244"/>
-      <c r="BL10" s="244"/>
-      <c r="BM10" s="244"/>
-      <c r="BN10" s="244"/>
-      <c r="BO10" s="244"/>
-      <c r="BP10" s="244"/>
-      <c r="BQ10" s="244"/>
-      <c r="BR10" s="245"/>
+      <c r="AM10" s="249"/>
+      <c r="AN10" s="250"/>
+      <c r="AO10" s="250"/>
+      <c r="AP10" s="250"/>
+      <c r="AQ10" s="250"/>
+      <c r="AR10" s="250"/>
+      <c r="AS10" s="250"/>
+      <c r="AT10" s="250"/>
+      <c r="AU10" s="250"/>
+      <c r="AV10" s="250"/>
+      <c r="AW10" s="250"/>
+      <c r="AX10" s="250"/>
+      <c r="AY10" s="250"/>
+      <c r="AZ10" s="250"/>
+      <c r="BA10" s="250"/>
+      <c r="BB10" s="250"/>
+      <c r="BC10" s="250"/>
+      <c r="BD10" s="250"/>
+      <c r="BE10" s="250"/>
+      <c r="BF10" s="250"/>
+      <c r="BG10" s="250"/>
+      <c r="BH10" s="250"/>
+      <c r="BI10" s="250"/>
+      <c r="BJ10" s="250"/>
+      <c r="BK10" s="250"/>
+      <c r="BL10" s="250"/>
+      <c r="BM10" s="250"/>
+      <c r="BN10" s="250"/>
+      <c r="BO10" s="250"/>
+      <c r="BP10" s="250"/>
+      <c r="BQ10" s="250"/>
+      <c r="BR10" s="251"/>
     </row>
     <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="186" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="42"/>
@@ -5388,113 +5378,113 @@
       <c r="AJ11" s="44"/>
       <c r="AK11" s="45"/>
       <c r="AL11" s="46"/>
-      <c r="AM11" s="113"/>
-      <c r="AN11" s="114"/>
-      <c r="AO11" s="115"/>
-      <c r="AP11" s="116"/>
-      <c r="AQ11" s="121"/>
-      <c r="AR11" s="122"/>
-      <c r="AS11" s="122"/>
-      <c r="AT11" s="122"/>
-      <c r="AU11" s="122"/>
-      <c r="AV11" s="122"/>
-      <c r="AW11" s="122"/>
-      <c r="AX11" s="122"/>
-      <c r="AY11" s="122"/>
-      <c r="AZ11" s="122"/>
-      <c r="BA11" s="122"/>
-      <c r="BB11" s="122"/>
-      <c r="BC11" s="122"/>
-      <c r="BD11" s="123"/>
-      <c r="BE11" s="121"/>
-      <c r="BF11" s="122"/>
-      <c r="BG11" s="122"/>
-      <c r="BH11" s="122"/>
-      <c r="BI11" s="122"/>
-      <c r="BJ11" s="122"/>
-      <c r="BK11" s="123"/>
-      <c r="BL11" s="147"/>
-      <c r="BM11" s="122"/>
-      <c r="BN11" s="122"/>
-      <c r="BO11" s="160"/>
-      <c r="BP11" s="147"/>
-      <c r="BQ11" s="122"/>
-      <c r="BR11" s="158"/>
+      <c r="AM11" s="103"/>
+      <c r="AN11" s="104"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="106"/>
+      <c r="AQ11" s="111"/>
+      <c r="AR11" s="112"/>
+      <c r="AS11" s="112"/>
+      <c r="AT11" s="112"/>
+      <c r="AU11" s="112"/>
+      <c r="AV11" s="112"/>
+      <c r="AW11" s="112"/>
+      <c r="AX11" s="112"/>
+      <c r="AY11" s="112"/>
+      <c r="AZ11" s="112"/>
+      <c r="BA11" s="112"/>
+      <c r="BB11" s="112"/>
+      <c r="BC11" s="112"/>
+      <c r="BD11" s="113"/>
+      <c r="BE11" s="111"/>
+      <c r="BF11" s="112"/>
+      <c r="BG11" s="112"/>
+      <c r="BH11" s="112"/>
+      <c r="BI11" s="112"/>
+      <c r="BJ11" s="112"/>
+      <c r="BK11" s="113"/>
+      <c r="BL11" s="149"/>
+      <c r="BM11" s="112"/>
+      <c r="BN11" s="112"/>
+      <c r="BO11" s="162"/>
+      <c r="BP11" s="149"/>
+      <c r="BQ11" s="112"/>
+      <c r="BR11" s="160"/>
     </row>
     <row r="12" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="183"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="87"/>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="87"/>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="87"/>
-      <c r="AJ12" s="88"/>
-      <c r="AK12" s="90"/>
-      <c r="AL12" s="91"/>
-      <c r="AM12" s="127"/>
-      <c r="AN12" s="118"/>
-      <c r="AO12" s="119"/>
-      <c r="AP12" s="120"/>
-      <c r="AQ12" s="124"/>
-      <c r="AR12" s="125"/>
-      <c r="AS12" s="125"/>
-      <c r="AT12" s="125"/>
-      <c r="AU12" s="125"/>
-      <c r="AV12" s="125"/>
-      <c r="AW12" s="125"/>
-      <c r="AX12" s="125"/>
-      <c r="AY12" s="125"/>
-      <c r="AZ12" s="125"/>
-      <c r="BA12" s="125"/>
-      <c r="BB12" s="125"/>
-      <c r="BC12" s="125"/>
-      <c r="BD12" s="126"/>
-      <c r="BE12" s="124"/>
-      <c r="BF12" s="125"/>
-      <c r="BG12" s="125"/>
-      <c r="BH12" s="125"/>
-      <c r="BI12" s="125"/>
-      <c r="BJ12" s="125"/>
-      <c r="BK12" s="126"/>
-      <c r="BL12" s="148"/>
-      <c r="BM12" s="125"/>
-      <c r="BN12" s="125"/>
-      <c r="BO12" s="161"/>
-      <c r="BP12" s="148"/>
-      <c r="BQ12" s="125"/>
-      <c r="BR12" s="159"/>
+      <c r="A12" s="187"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="138"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="137"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="137"/>
+      <c r="AH12" s="137"/>
+      <c r="AI12" s="137"/>
+      <c r="AJ12" s="138"/>
+      <c r="AK12" s="139"/>
+      <c r="AL12" s="140"/>
+      <c r="AM12" s="117"/>
+      <c r="AN12" s="108"/>
+      <c r="AO12" s="109"/>
+      <c r="AP12" s="110"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="115"/>
+      <c r="AS12" s="115"/>
+      <c r="AT12" s="115"/>
+      <c r="AU12" s="115"/>
+      <c r="AV12" s="115"/>
+      <c r="AW12" s="115"/>
+      <c r="AX12" s="115"/>
+      <c r="AY12" s="115"/>
+      <c r="AZ12" s="115"/>
+      <c r="BA12" s="115"/>
+      <c r="BB12" s="115"/>
+      <c r="BC12" s="115"/>
+      <c r="BD12" s="116"/>
+      <c r="BE12" s="114"/>
+      <c r="BF12" s="115"/>
+      <c r="BG12" s="115"/>
+      <c r="BH12" s="115"/>
+      <c r="BI12" s="115"/>
+      <c r="BJ12" s="115"/>
+      <c r="BK12" s="116"/>
+      <c r="BL12" s="150"/>
+      <c r="BM12" s="115"/>
+      <c r="BN12" s="115"/>
+      <c r="BO12" s="163"/>
+      <c r="BP12" s="150"/>
+      <c r="BQ12" s="115"/>
+      <c r="BR12" s="161"/>
     </row>
     <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="183"/>
+      <c r="A13" s="187"/>
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
@@ -5532,41 +5522,41 @@
       <c r="AJ13" s="64"/>
       <c r="AK13" s="66"/>
       <c r="AL13" s="67"/>
-      <c r="AM13" s="155"/>
-      <c r="AN13" s="156"/>
-      <c r="AO13" s="156"/>
-      <c r="AP13" s="156"/>
-      <c r="AQ13" s="156"/>
-      <c r="AR13" s="156"/>
-      <c r="AS13" s="156"/>
-      <c r="AT13" s="156"/>
-      <c r="AU13" s="156"/>
-      <c r="AV13" s="156"/>
-      <c r="AW13" s="156"/>
-      <c r="AX13" s="156"/>
-      <c r="AY13" s="156"/>
-      <c r="AZ13" s="156"/>
-      <c r="BA13" s="156"/>
-      <c r="BB13" s="156"/>
-      <c r="BC13" s="156"/>
-      <c r="BD13" s="156"/>
-      <c r="BE13" s="156"/>
-      <c r="BF13" s="156"/>
-      <c r="BG13" s="156"/>
-      <c r="BH13" s="156"/>
-      <c r="BI13" s="156"/>
-      <c r="BJ13" s="156"/>
-      <c r="BK13" s="156"/>
-      <c r="BL13" s="156"/>
-      <c r="BM13" s="156"/>
-      <c r="BN13" s="156"/>
-      <c r="BO13" s="156"/>
-      <c r="BP13" s="156"/>
-      <c r="BQ13" s="156"/>
-      <c r="BR13" s="157"/>
+      <c r="AM13" s="157"/>
+      <c r="AN13" s="158"/>
+      <c r="AO13" s="158"/>
+      <c r="AP13" s="158"/>
+      <c r="AQ13" s="158"/>
+      <c r="AR13" s="158"/>
+      <c r="AS13" s="158"/>
+      <c r="AT13" s="158"/>
+      <c r="AU13" s="158"/>
+      <c r="AV13" s="158"/>
+      <c r="AW13" s="158"/>
+      <c r="AX13" s="158"/>
+      <c r="AY13" s="158"/>
+      <c r="AZ13" s="158"/>
+      <c r="BA13" s="158"/>
+      <c r="BB13" s="158"/>
+      <c r="BC13" s="158"/>
+      <c r="BD13" s="158"/>
+      <c r="BE13" s="158"/>
+      <c r="BF13" s="158"/>
+      <c r="BG13" s="158"/>
+      <c r="BH13" s="158"/>
+      <c r="BI13" s="158"/>
+      <c r="BJ13" s="158"/>
+      <c r="BK13" s="158"/>
+      <c r="BL13" s="158"/>
+      <c r="BM13" s="158"/>
+      <c r="BN13" s="158"/>
+      <c r="BO13" s="158"/>
+      <c r="BP13" s="158"/>
+      <c r="BQ13" s="158"/>
+      <c r="BR13" s="159"/>
     </row>
     <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="186" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="45"/>
@@ -5606,113 +5596,113 @@
       <c r="AJ14" s="44"/>
       <c r="AK14" s="45"/>
       <c r="AL14" s="46"/>
-      <c r="AM14" s="113"/>
-      <c r="AN14" s="114"/>
-      <c r="AO14" s="115"/>
-      <c r="AP14" s="116"/>
-      <c r="AQ14" s="121"/>
-      <c r="AR14" s="122"/>
-      <c r="AS14" s="122"/>
-      <c r="AT14" s="122"/>
-      <c r="AU14" s="122"/>
-      <c r="AV14" s="122"/>
-      <c r="AW14" s="122"/>
-      <c r="AX14" s="122"/>
-      <c r="AY14" s="122"/>
-      <c r="AZ14" s="122"/>
-      <c r="BA14" s="122"/>
-      <c r="BB14" s="122"/>
-      <c r="BC14" s="122"/>
-      <c r="BD14" s="123"/>
-      <c r="BE14" s="121"/>
-      <c r="BF14" s="122"/>
-      <c r="BG14" s="122"/>
-      <c r="BH14" s="122"/>
-      <c r="BI14" s="122"/>
-      <c r="BJ14" s="122"/>
-      <c r="BK14" s="123"/>
-      <c r="BL14" s="147"/>
-      <c r="BM14" s="122"/>
-      <c r="BN14" s="122"/>
-      <c r="BO14" s="160"/>
-      <c r="BP14" s="147"/>
-      <c r="BQ14" s="122"/>
-      <c r="BR14" s="158"/>
+      <c r="AM14" s="103"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="106"/>
+      <c r="AQ14" s="111"/>
+      <c r="AR14" s="112"/>
+      <c r="AS14" s="112"/>
+      <c r="AT14" s="112"/>
+      <c r="AU14" s="112"/>
+      <c r="AV14" s="112"/>
+      <c r="AW14" s="112"/>
+      <c r="AX14" s="112"/>
+      <c r="AY14" s="112"/>
+      <c r="AZ14" s="112"/>
+      <c r="BA14" s="112"/>
+      <c r="BB14" s="112"/>
+      <c r="BC14" s="112"/>
+      <c r="BD14" s="113"/>
+      <c r="BE14" s="111"/>
+      <c r="BF14" s="112"/>
+      <c r="BG14" s="112"/>
+      <c r="BH14" s="112"/>
+      <c r="BI14" s="112"/>
+      <c r="BJ14" s="112"/>
+      <c r="BK14" s="113"/>
+      <c r="BL14" s="149"/>
+      <c r="BM14" s="112"/>
+      <c r="BN14" s="112"/>
+      <c r="BO14" s="162"/>
+      <c r="BP14" s="149"/>
+      <c r="BQ14" s="112"/>
+      <c r="BR14" s="160"/>
     </row>
     <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="183"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="88"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="88"/>
-      <c r="AK15" s="90"/>
-      <c r="AL15" s="91"/>
-      <c r="AM15" s="127"/>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="119"/>
-      <c r="AP15" s="120"/>
-      <c r="AQ15" s="124"/>
-      <c r="AR15" s="125"/>
-      <c r="AS15" s="125"/>
-      <c r="AT15" s="125"/>
-      <c r="AU15" s="125"/>
-      <c r="AV15" s="125"/>
-      <c r="AW15" s="125"/>
-      <c r="AX15" s="125"/>
-      <c r="AY15" s="125"/>
-      <c r="AZ15" s="125"/>
-      <c r="BA15" s="125"/>
-      <c r="BB15" s="125"/>
-      <c r="BC15" s="125"/>
-      <c r="BD15" s="126"/>
-      <c r="BE15" s="124"/>
-      <c r="BF15" s="125"/>
-      <c r="BG15" s="125"/>
-      <c r="BH15" s="125"/>
-      <c r="BI15" s="125"/>
-      <c r="BJ15" s="125"/>
-      <c r="BK15" s="126"/>
-      <c r="BL15" s="148"/>
-      <c r="BM15" s="125"/>
-      <c r="BN15" s="125"/>
-      <c r="BO15" s="161"/>
-      <c r="BP15" s="148"/>
-      <c r="BQ15" s="125"/>
-      <c r="BR15" s="159"/>
+      <c r="A15" s="187"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="138"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="138"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="137"/>
+      <c r="AH15" s="137"/>
+      <c r="AI15" s="137"/>
+      <c r="AJ15" s="138"/>
+      <c r="AK15" s="139"/>
+      <c r="AL15" s="140"/>
+      <c r="AM15" s="117"/>
+      <c r="AN15" s="108"/>
+      <c r="AO15" s="109"/>
+      <c r="AP15" s="110"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="115"/>
+      <c r="AS15" s="115"/>
+      <c r="AT15" s="115"/>
+      <c r="AU15" s="115"/>
+      <c r="AV15" s="115"/>
+      <c r="AW15" s="115"/>
+      <c r="AX15" s="115"/>
+      <c r="AY15" s="115"/>
+      <c r="AZ15" s="115"/>
+      <c r="BA15" s="115"/>
+      <c r="BB15" s="115"/>
+      <c r="BC15" s="115"/>
+      <c r="BD15" s="116"/>
+      <c r="BE15" s="114"/>
+      <c r="BF15" s="115"/>
+      <c r="BG15" s="115"/>
+      <c r="BH15" s="115"/>
+      <c r="BI15" s="115"/>
+      <c r="BJ15" s="115"/>
+      <c r="BK15" s="116"/>
+      <c r="BL15" s="150"/>
+      <c r="BM15" s="115"/>
+      <c r="BN15" s="115"/>
+      <c r="BO15" s="163"/>
+      <c r="BP15" s="150"/>
+      <c r="BQ15" s="115"/>
+      <c r="BR15" s="161"/>
     </row>
     <row r="16" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="184"/>
+      <c r="A16" s="188"/>
       <c r="B16" s="68"/>
       <c r="C16" s="69"/>
       <c r="D16" s="69"/>
@@ -5750,41 +5740,41 @@
       <c r="AJ16" s="70"/>
       <c r="AK16" s="71"/>
       <c r="AL16" s="72"/>
-      <c r="AM16" s="155"/>
-      <c r="AN16" s="156"/>
-      <c r="AO16" s="156"/>
-      <c r="AP16" s="156"/>
-      <c r="AQ16" s="156"/>
-      <c r="AR16" s="156"/>
-      <c r="AS16" s="156"/>
-      <c r="AT16" s="156"/>
-      <c r="AU16" s="156"/>
-      <c r="AV16" s="156"/>
-      <c r="AW16" s="156"/>
-      <c r="AX16" s="156"/>
-      <c r="AY16" s="156"/>
-      <c r="AZ16" s="156"/>
-      <c r="BA16" s="156"/>
-      <c r="BB16" s="156"/>
-      <c r="BC16" s="156"/>
-      <c r="BD16" s="156"/>
-      <c r="BE16" s="156"/>
-      <c r="BF16" s="156"/>
-      <c r="BG16" s="156"/>
-      <c r="BH16" s="156"/>
-      <c r="BI16" s="156"/>
-      <c r="BJ16" s="156"/>
-      <c r="BK16" s="156"/>
-      <c r="BL16" s="156"/>
-      <c r="BM16" s="156"/>
-      <c r="BN16" s="156"/>
-      <c r="BO16" s="156"/>
-      <c r="BP16" s="156"/>
-      <c r="BQ16" s="156"/>
-      <c r="BR16" s="157"/>
+      <c r="AM16" s="157"/>
+      <c r="AN16" s="158"/>
+      <c r="AO16" s="158"/>
+      <c r="AP16" s="158"/>
+      <c r="AQ16" s="158"/>
+      <c r="AR16" s="158"/>
+      <c r="AS16" s="158"/>
+      <c r="AT16" s="158"/>
+      <c r="AU16" s="158"/>
+      <c r="AV16" s="158"/>
+      <c r="AW16" s="158"/>
+      <c r="AX16" s="158"/>
+      <c r="AY16" s="158"/>
+      <c r="AZ16" s="158"/>
+      <c r="BA16" s="158"/>
+      <c r="BB16" s="158"/>
+      <c r="BC16" s="158"/>
+      <c r="BD16" s="158"/>
+      <c r="BE16" s="158"/>
+      <c r="BF16" s="158"/>
+      <c r="BG16" s="158"/>
+      <c r="BH16" s="158"/>
+      <c r="BI16" s="158"/>
+      <c r="BJ16" s="158"/>
+      <c r="BK16" s="158"/>
+      <c r="BL16" s="158"/>
+      <c r="BM16" s="158"/>
+      <c r="BN16" s="158"/>
+      <c r="BO16" s="158"/>
+      <c r="BP16" s="158"/>
+      <c r="BQ16" s="158"/>
+      <c r="BR16" s="159"/>
     </row>
     <row r="17" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="183" t="s">
+      <c r="A17" s="187" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="40"/>
@@ -5824,113 +5814,113 @@
       <c r="AJ17" s="39"/>
       <c r="AK17" s="40"/>
       <c r="AL17" s="41"/>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="114"/>
-      <c r="AO17" s="115"/>
-      <c r="AP17" s="116"/>
-      <c r="AQ17" s="121"/>
-      <c r="AR17" s="122"/>
-      <c r="AS17" s="122"/>
-      <c r="AT17" s="122"/>
-      <c r="AU17" s="122"/>
-      <c r="AV17" s="122"/>
-      <c r="AW17" s="122"/>
-      <c r="AX17" s="122"/>
-      <c r="AY17" s="122"/>
-      <c r="AZ17" s="122"/>
-      <c r="BA17" s="122"/>
-      <c r="BB17" s="122"/>
-      <c r="BC17" s="122"/>
-      <c r="BD17" s="123"/>
-      <c r="BE17" s="121"/>
-      <c r="BF17" s="122"/>
-      <c r="BG17" s="122"/>
-      <c r="BH17" s="122"/>
-      <c r="BI17" s="122"/>
-      <c r="BJ17" s="122"/>
-      <c r="BK17" s="123"/>
-      <c r="BL17" s="147"/>
-      <c r="BM17" s="122"/>
-      <c r="BN17" s="122"/>
-      <c r="BO17" s="160"/>
-      <c r="BP17" s="147"/>
-      <c r="BQ17" s="122"/>
-      <c r="BR17" s="158"/>
+      <c r="AM17" s="103"/>
+      <c r="AN17" s="104"/>
+      <c r="AO17" s="105"/>
+      <c r="AP17" s="106"/>
+      <c r="AQ17" s="111"/>
+      <c r="AR17" s="112"/>
+      <c r="AS17" s="112"/>
+      <c r="AT17" s="112"/>
+      <c r="AU17" s="112"/>
+      <c r="AV17" s="112"/>
+      <c r="AW17" s="112"/>
+      <c r="AX17" s="112"/>
+      <c r="AY17" s="112"/>
+      <c r="AZ17" s="112"/>
+      <c r="BA17" s="112"/>
+      <c r="BB17" s="112"/>
+      <c r="BC17" s="112"/>
+      <c r="BD17" s="113"/>
+      <c r="BE17" s="111"/>
+      <c r="BF17" s="112"/>
+      <c r="BG17" s="112"/>
+      <c r="BH17" s="112"/>
+      <c r="BI17" s="112"/>
+      <c r="BJ17" s="112"/>
+      <c r="BK17" s="113"/>
+      <c r="BL17" s="149"/>
+      <c r="BM17" s="112"/>
+      <c r="BN17" s="112"/>
+      <c r="BO17" s="162"/>
+      <c r="BP17" s="149"/>
+      <c r="BQ17" s="112"/>
+      <c r="BR17" s="160"/>
     </row>
     <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="183"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="87"/>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="87"/>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="88"/>
-      <c r="AK18" s="90"/>
-      <c r="AL18" s="91"/>
-      <c r="AM18" s="128"/>
-      <c r="AN18" s="129"/>
-      <c r="AO18" s="130"/>
-      <c r="AP18" s="131"/>
-      <c r="AQ18" s="124"/>
-      <c r="AR18" s="125"/>
-      <c r="AS18" s="125"/>
-      <c r="AT18" s="125"/>
-      <c r="AU18" s="125"/>
-      <c r="AV18" s="125"/>
-      <c r="AW18" s="125"/>
-      <c r="AX18" s="125"/>
-      <c r="AY18" s="125"/>
-      <c r="AZ18" s="125"/>
-      <c r="BA18" s="125"/>
-      <c r="BB18" s="125"/>
-      <c r="BC18" s="125"/>
-      <c r="BD18" s="126"/>
-      <c r="BE18" s="124"/>
-      <c r="BF18" s="125"/>
-      <c r="BG18" s="125"/>
-      <c r="BH18" s="125"/>
-      <c r="BI18" s="125"/>
-      <c r="BJ18" s="125"/>
-      <c r="BK18" s="126"/>
-      <c r="BL18" s="148"/>
-      <c r="BM18" s="125"/>
-      <c r="BN18" s="125"/>
-      <c r="BO18" s="161"/>
-      <c r="BP18" s="148"/>
-      <c r="BQ18" s="125"/>
-      <c r="BR18" s="159"/>
+      <c r="A18" s="187"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="138"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="138"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="137"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="137"/>
+      <c r="AH18" s="137"/>
+      <c r="AI18" s="137"/>
+      <c r="AJ18" s="138"/>
+      <c r="AK18" s="139"/>
+      <c r="AL18" s="140"/>
+      <c r="AM18" s="118"/>
+      <c r="AN18" s="119"/>
+      <c r="AO18" s="120"/>
+      <c r="AP18" s="121"/>
+      <c r="AQ18" s="114"/>
+      <c r="AR18" s="115"/>
+      <c r="AS18" s="115"/>
+      <c r="AT18" s="115"/>
+      <c r="AU18" s="115"/>
+      <c r="AV18" s="115"/>
+      <c r="AW18" s="115"/>
+      <c r="AX18" s="115"/>
+      <c r="AY18" s="115"/>
+      <c r="AZ18" s="115"/>
+      <c r="BA18" s="115"/>
+      <c r="BB18" s="115"/>
+      <c r="BC18" s="115"/>
+      <c r="BD18" s="116"/>
+      <c r="BE18" s="114"/>
+      <c r="BF18" s="115"/>
+      <c r="BG18" s="115"/>
+      <c r="BH18" s="115"/>
+      <c r="BI18" s="115"/>
+      <c r="BJ18" s="115"/>
+      <c r="BK18" s="116"/>
+      <c r="BL18" s="150"/>
+      <c r="BM18" s="115"/>
+      <c r="BN18" s="115"/>
+      <c r="BO18" s="163"/>
+      <c r="BP18" s="150"/>
+      <c r="BQ18" s="115"/>
+      <c r="BR18" s="161"/>
     </row>
     <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="184"/>
+      <c r="A19" s="188"/>
       <c r="B19" s="66"/>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
@@ -5968,41 +5958,41 @@
       <c r="AJ19" s="64"/>
       <c r="AK19" s="66"/>
       <c r="AL19" s="67"/>
-      <c r="AM19" s="155"/>
-      <c r="AN19" s="156"/>
-      <c r="AO19" s="156"/>
-      <c r="AP19" s="156"/>
-      <c r="AQ19" s="156"/>
-      <c r="AR19" s="156"/>
-      <c r="AS19" s="156"/>
-      <c r="AT19" s="156"/>
-      <c r="AU19" s="156"/>
-      <c r="AV19" s="156"/>
-      <c r="AW19" s="156"/>
-      <c r="AX19" s="156"/>
-      <c r="AY19" s="156"/>
-      <c r="AZ19" s="156"/>
-      <c r="BA19" s="156"/>
-      <c r="BB19" s="156"/>
-      <c r="BC19" s="156"/>
-      <c r="BD19" s="156"/>
-      <c r="BE19" s="156"/>
-      <c r="BF19" s="156"/>
-      <c r="BG19" s="156"/>
-      <c r="BH19" s="156"/>
-      <c r="BI19" s="156"/>
-      <c r="BJ19" s="156"/>
-      <c r="BK19" s="156"/>
-      <c r="BL19" s="156"/>
-      <c r="BM19" s="156"/>
-      <c r="BN19" s="156"/>
-      <c r="BO19" s="156"/>
-      <c r="BP19" s="156"/>
-      <c r="BQ19" s="156"/>
-      <c r="BR19" s="157"/>
+      <c r="AM19" s="157"/>
+      <c r="AN19" s="158"/>
+      <c r="AO19" s="158"/>
+      <c r="AP19" s="158"/>
+      <c r="AQ19" s="158"/>
+      <c r="AR19" s="158"/>
+      <c r="AS19" s="158"/>
+      <c r="AT19" s="158"/>
+      <c r="AU19" s="158"/>
+      <c r="AV19" s="158"/>
+      <c r="AW19" s="158"/>
+      <c r="AX19" s="158"/>
+      <c r="AY19" s="158"/>
+      <c r="AZ19" s="158"/>
+      <c r="BA19" s="158"/>
+      <c r="BB19" s="158"/>
+      <c r="BC19" s="158"/>
+      <c r="BD19" s="158"/>
+      <c r="BE19" s="158"/>
+      <c r="BF19" s="158"/>
+      <c r="BG19" s="158"/>
+      <c r="BH19" s="158"/>
+      <c r="BI19" s="158"/>
+      <c r="BJ19" s="158"/>
+      <c r="BK19" s="158"/>
+      <c r="BL19" s="158"/>
+      <c r="BM19" s="158"/>
+      <c r="BN19" s="158"/>
+      <c r="BO19" s="158"/>
+      <c r="BP19" s="158"/>
+      <c r="BQ19" s="158"/>
+      <c r="BR19" s="159"/>
     </row>
     <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="182" t="s">
+      <c r="A20" s="186" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="45"/>
@@ -6042,113 +6032,113 @@
       <c r="AJ20" s="44"/>
       <c r="AK20" s="45"/>
       <c r="AL20" s="46"/>
-      <c r="AM20" s="113"/>
-      <c r="AN20" s="114"/>
-      <c r="AO20" s="115"/>
-      <c r="AP20" s="116"/>
-      <c r="AQ20" s="121"/>
-      <c r="AR20" s="122"/>
-      <c r="AS20" s="122"/>
-      <c r="AT20" s="122"/>
-      <c r="AU20" s="122"/>
-      <c r="AV20" s="122"/>
-      <c r="AW20" s="122"/>
-      <c r="AX20" s="122"/>
-      <c r="AY20" s="122"/>
-      <c r="AZ20" s="122"/>
-      <c r="BA20" s="122"/>
-      <c r="BB20" s="122"/>
-      <c r="BC20" s="122"/>
-      <c r="BD20" s="123"/>
-      <c r="BE20" s="121"/>
-      <c r="BF20" s="122"/>
-      <c r="BG20" s="122"/>
-      <c r="BH20" s="122"/>
-      <c r="BI20" s="122"/>
-      <c r="BJ20" s="122"/>
-      <c r="BK20" s="123"/>
-      <c r="BL20" s="147"/>
-      <c r="BM20" s="122"/>
-      <c r="BN20" s="122"/>
-      <c r="BO20" s="160"/>
-      <c r="BP20" s="147"/>
-      <c r="BQ20" s="122"/>
-      <c r="BR20" s="158"/>
+      <c r="AM20" s="103"/>
+      <c r="AN20" s="104"/>
+      <c r="AO20" s="105"/>
+      <c r="AP20" s="106"/>
+      <c r="AQ20" s="111"/>
+      <c r="AR20" s="112"/>
+      <c r="AS20" s="112"/>
+      <c r="AT20" s="112"/>
+      <c r="AU20" s="112"/>
+      <c r="AV20" s="112"/>
+      <c r="AW20" s="112"/>
+      <c r="AX20" s="112"/>
+      <c r="AY20" s="112"/>
+      <c r="AZ20" s="112"/>
+      <c r="BA20" s="112"/>
+      <c r="BB20" s="112"/>
+      <c r="BC20" s="112"/>
+      <c r="BD20" s="113"/>
+      <c r="BE20" s="111"/>
+      <c r="BF20" s="112"/>
+      <c r="BG20" s="112"/>
+      <c r="BH20" s="112"/>
+      <c r="BI20" s="112"/>
+      <c r="BJ20" s="112"/>
+      <c r="BK20" s="113"/>
+      <c r="BL20" s="149"/>
+      <c r="BM20" s="112"/>
+      <c r="BN20" s="112"/>
+      <c r="BO20" s="162"/>
+      <c r="BP20" s="149"/>
+      <c r="BQ20" s="112"/>
+      <c r="BR20" s="160"/>
     </row>
     <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="183"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="88"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="87"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="88"/>
-      <c r="AK21" s="90"/>
-      <c r="AL21" s="91"/>
-      <c r="AM21" s="117"/>
-      <c r="AN21" s="118"/>
-      <c r="AO21" s="119"/>
-      <c r="AP21" s="120"/>
-      <c r="AQ21" s="124"/>
-      <c r="AR21" s="125"/>
-      <c r="AS21" s="125"/>
-      <c r="AT21" s="125"/>
-      <c r="AU21" s="125"/>
-      <c r="AV21" s="125"/>
-      <c r="AW21" s="125"/>
-      <c r="AX21" s="125"/>
-      <c r="AY21" s="125"/>
-      <c r="AZ21" s="125"/>
-      <c r="BA21" s="125"/>
-      <c r="BB21" s="125"/>
-      <c r="BC21" s="125"/>
-      <c r="BD21" s="126"/>
-      <c r="BE21" s="124"/>
-      <c r="BF21" s="125"/>
-      <c r="BG21" s="125"/>
-      <c r="BH21" s="125"/>
-      <c r="BI21" s="125"/>
-      <c r="BJ21" s="125"/>
-      <c r="BK21" s="126"/>
-      <c r="BL21" s="148"/>
-      <c r="BM21" s="125"/>
-      <c r="BN21" s="125"/>
-      <c r="BO21" s="161"/>
-      <c r="BP21" s="148"/>
-      <c r="BQ21" s="125"/>
-      <c r="BR21" s="159"/>
+      <c r="A21" s="187"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="138"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="138"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="137"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="137"/>
+      <c r="AH21" s="137"/>
+      <c r="AI21" s="137"/>
+      <c r="AJ21" s="138"/>
+      <c r="AK21" s="139"/>
+      <c r="AL21" s="140"/>
+      <c r="AM21" s="107"/>
+      <c r="AN21" s="108"/>
+      <c r="AO21" s="109"/>
+      <c r="AP21" s="110"/>
+      <c r="AQ21" s="114"/>
+      <c r="AR21" s="115"/>
+      <c r="AS21" s="115"/>
+      <c r="AT21" s="115"/>
+      <c r="AU21" s="115"/>
+      <c r="AV21" s="115"/>
+      <c r="AW21" s="115"/>
+      <c r="AX21" s="115"/>
+      <c r="AY21" s="115"/>
+      <c r="AZ21" s="115"/>
+      <c r="BA21" s="115"/>
+      <c r="BB21" s="115"/>
+      <c r="BC21" s="115"/>
+      <c r="BD21" s="116"/>
+      <c r="BE21" s="114"/>
+      <c r="BF21" s="115"/>
+      <c r="BG21" s="115"/>
+      <c r="BH21" s="115"/>
+      <c r="BI21" s="115"/>
+      <c r="BJ21" s="115"/>
+      <c r="BK21" s="116"/>
+      <c r="BL21" s="150"/>
+      <c r="BM21" s="115"/>
+      <c r="BN21" s="115"/>
+      <c r="BO21" s="163"/>
+      <c r="BP21" s="150"/>
+      <c r="BQ21" s="115"/>
+      <c r="BR21" s="161"/>
     </row>
     <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
+      <c r="A22" s="188"/>
       <c r="B22" s="66"/>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
@@ -6186,41 +6176,41 @@
       <c r="AJ22" s="64"/>
       <c r="AK22" s="66"/>
       <c r="AL22" s="67"/>
-      <c r="AM22" s="155"/>
-      <c r="AN22" s="156"/>
-      <c r="AO22" s="156"/>
-      <c r="AP22" s="156"/>
-      <c r="AQ22" s="156"/>
-      <c r="AR22" s="156"/>
-      <c r="AS22" s="156"/>
-      <c r="AT22" s="156"/>
-      <c r="AU22" s="156"/>
-      <c r="AV22" s="156"/>
-      <c r="AW22" s="156"/>
-      <c r="AX22" s="156"/>
-      <c r="AY22" s="156"/>
-      <c r="AZ22" s="156"/>
-      <c r="BA22" s="156"/>
-      <c r="BB22" s="156"/>
-      <c r="BC22" s="156"/>
-      <c r="BD22" s="156"/>
-      <c r="BE22" s="156"/>
-      <c r="BF22" s="156"/>
-      <c r="BG22" s="156"/>
-      <c r="BH22" s="156"/>
-      <c r="BI22" s="156"/>
-      <c r="BJ22" s="156"/>
-      <c r="BK22" s="156"/>
-      <c r="BL22" s="156"/>
-      <c r="BM22" s="156"/>
-      <c r="BN22" s="156"/>
-      <c r="BO22" s="156"/>
-      <c r="BP22" s="156"/>
-      <c r="BQ22" s="156"/>
-      <c r="BR22" s="157"/>
+      <c r="AM22" s="157"/>
+      <c r="AN22" s="158"/>
+      <c r="AO22" s="158"/>
+      <c r="AP22" s="158"/>
+      <c r="AQ22" s="158"/>
+      <c r="AR22" s="158"/>
+      <c r="AS22" s="158"/>
+      <c r="AT22" s="158"/>
+      <c r="AU22" s="158"/>
+      <c r="AV22" s="158"/>
+      <c r="AW22" s="158"/>
+      <c r="AX22" s="158"/>
+      <c r="AY22" s="158"/>
+      <c r="AZ22" s="158"/>
+      <c r="BA22" s="158"/>
+      <c r="BB22" s="158"/>
+      <c r="BC22" s="158"/>
+      <c r="BD22" s="158"/>
+      <c r="BE22" s="158"/>
+      <c r="BF22" s="158"/>
+      <c r="BG22" s="158"/>
+      <c r="BH22" s="158"/>
+      <c r="BI22" s="158"/>
+      <c r="BJ22" s="158"/>
+      <c r="BK22" s="158"/>
+      <c r="BL22" s="158"/>
+      <c r="BM22" s="158"/>
+      <c r="BN22" s="158"/>
+      <c r="BO22" s="158"/>
+      <c r="BP22" s="158"/>
+      <c r="BQ22" s="158"/>
+      <c r="BR22" s="159"/>
     </row>
     <row r="23" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="182" t="s">
+      <c r="A23" s="186" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="45"/>
@@ -6260,113 +6250,113 @@
       <c r="AJ23" s="44"/>
       <c r="AK23" s="45"/>
       <c r="AL23" s="46"/>
-      <c r="AM23" s="113"/>
-      <c r="AN23" s="114"/>
-      <c r="AO23" s="115"/>
-      <c r="AP23" s="116"/>
-      <c r="AQ23" s="121"/>
-      <c r="AR23" s="122"/>
-      <c r="AS23" s="122"/>
-      <c r="AT23" s="122"/>
-      <c r="AU23" s="122"/>
-      <c r="AV23" s="122"/>
-      <c r="AW23" s="122"/>
-      <c r="AX23" s="122"/>
-      <c r="AY23" s="122"/>
-      <c r="AZ23" s="122"/>
-      <c r="BA23" s="122"/>
-      <c r="BB23" s="122"/>
-      <c r="BC23" s="122"/>
-      <c r="BD23" s="123"/>
-      <c r="BE23" s="121"/>
-      <c r="BF23" s="122"/>
-      <c r="BG23" s="122"/>
-      <c r="BH23" s="122"/>
-      <c r="BI23" s="122"/>
-      <c r="BJ23" s="122"/>
-      <c r="BK23" s="123"/>
-      <c r="BL23" s="147"/>
-      <c r="BM23" s="122"/>
-      <c r="BN23" s="122"/>
-      <c r="BO23" s="160"/>
-      <c r="BP23" s="147"/>
-      <c r="BQ23" s="122"/>
-      <c r="BR23" s="158"/>
+      <c r="AM23" s="103"/>
+      <c r="AN23" s="104"/>
+      <c r="AO23" s="105"/>
+      <c r="AP23" s="106"/>
+      <c r="AQ23" s="111"/>
+      <c r="AR23" s="112"/>
+      <c r="AS23" s="112"/>
+      <c r="AT23" s="112"/>
+      <c r="AU23" s="112"/>
+      <c r="AV23" s="112"/>
+      <c r="AW23" s="112"/>
+      <c r="AX23" s="112"/>
+      <c r="AY23" s="112"/>
+      <c r="AZ23" s="112"/>
+      <c r="BA23" s="112"/>
+      <c r="BB23" s="112"/>
+      <c r="BC23" s="112"/>
+      <c r="BD23" s="113"/>
+      <c r="BE23" s="111"/>
+      <c r="BF23" s="112"/>
+      <c r="BG23" s="112"/>
+      <c r="BH23" s="112"/>
+      <c r="BI23" s="112"/>
+      <c r="BJ23" s="112"/>
+      <c r="BK23" s="113"/>
+      <c r="BL23" s="149"/>
+      <c r="BM23" s="112"/>
+      <c r="BN23" s="112"/>
+      <c r="BO23" s="162"/>
+      <c r="BP23" s="149"/>
+      <c r="BQ23" s="112"/>
+      <c r="BR23" s="160"/>
     </row>
     <row r="24" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="183"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="88"/>
-      <c r="AD24" s="86"/>
-      <c r="AE24" s="87"/>
-      <c r="AF24" s="87"/>
-      <c r="AG24" s="87"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="87"/>
-      <c r="AJ24" s="88"/>
-      <c r="AK24" s="90"/>
-      <c r="AL24" s="91"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="118"/>
-      <c r="AO24" s="119"/>
-      <c r="AP24" s="120"/>
-      <c r="AQ24" s="124"/>
-      <c r="AR24" s="125"/>
-      <c r="AS24" s="125"/>
-      <c r="AT24" s="125"/>
-      <c r="AU24" s="125"/>
-      <c r="AV24" s="125"/>
-      <c r="AW24" s="125"/>
-      <c r="AX24" s="125"/>
-      <c r="AY24" s="125"/>
-      <c r="AZ24" s="125"/>
-      <c r="BA24" s="125"/>
-      <c r="BB24" s="125"/>
-      <c r="BC24" s="125"/>
-      <c r="BD24" s="126"/>
-      <c r="BE24" s="124"/>
-      <c r="BF24" s="125"/>
-      <c r="BG24" s="125"/>
-      <c r="BH24" s="125"/>
-      <c r="BI24" s="125"/>
-      <c r="BJ24" s="125"/>
-      <c r="BK24" s="126"/>
-      <c r="BL24" s="148"/>
-      <c r="BM24" s="125"/>
-      <c r="BN24" s="125"/>
-      <c r="BO24" s="161"/>
-      <c r="BP24" s="148"/>
-      <c r="BQ24" s="125"/>
-      <c r="BR24" s="159"/>
+      <c r="A24" s="187"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="133"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="138"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="138"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="137"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="137"/>
+      <c r="AH24" s="137"/>
+      <c r="AI24" s="137"/>
+      <c r="AJ24" s="138"/>
+      <c r="AK24" s="139"/>
+      <c r="AL24" s="140"/>
+      <c r="AM24" s="107"/>
+      <c r="AN24" s="108"/>
+      <c r="AO24" s="109"/>
+      <c r="AP24" s="110"/>
+      <c r="AQ24" s="114"/>
+      <c r="AR24" s="115"/>
+      <c r="AS24" s="115"/>
+      <c r="AT24" s="115"/>
+      <c r="AU24" s="115"/>
+      <c r="AV24" s="115"/>
+      <c r="AW24" s="115"/>
+      <c r="AX24" s="115"/>
+      <c r="AY24" s="115"/>
+      <c r="AZ24" s="115"/>
+      <c r="BA24" s="115"/>
+      <c r="BB24" s="115"/>
+      <c r="BC24" s="115"/>
+      <c r="BD24" s="116"/>
+      <c r="BE24" s="114"/>
+      <c r="BF24" s="115"/>
+      <c r="BG24" s="115"/>
+      <c r="BH24" s="115"/>
+      <c r="BI24" s="115"/>
+      <c r="BJ24" s="115"/>
+      <c r="BK24" s="116"/>
+      <c r="BL24" s="150"/>
+      <c r="BM24" s="115"/>
+      <c r="BN24" s="115"/>
+      <c r="BO24" s="163"/>
+      <c r="BP24" s="150"/>
+      <c r="BQ24" s="115"/>
+      <c r="BR24" s="161"/>
     </row>
     <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="184"/>
+      <c r="A25" s="188"/>
       <c r="B25" s="71"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
@@ -6404,41 +6394,41 @@
       <c r="AJ25" s="70"/>
       <c r="AK25" s="71"/>
       <c r="AL25" s="72"/>
-      <c r="AM25" s="155"/>
-      <c r="AN25" s="156"/>
-      <c r="AO25" s="156"/>
-      <c r="AP25" s="156"/>
-      <c r="AQ25" s="156"/>
-      <c r="AR25" s="156"/>
-      <c r="AS25" s="156"/>
-      <c r="AT25" s="156"/>
-      <c r="AU25" s="156"/>
-      <c r="AV25" s="156"/>
-      <c r="AW25" s="156"/>
-      <c r="AX25" s="156"/>
-      <c r="AY25" s="156"/>
-      <c r="AZ25" s="156"/>
-      <c r="BA25" s="156"/>
-      <c r="BB25" s="156"/>
-      <c r="BC25" s="156"/>
-      <c r="BD25" s="156"/>
-      <c r="BE25" s="156"/>
-      <c r="BF25" s="156"/>
-      <c r="BG25" s="156"/>
-      <c r="BH25" s="156"/>
-      <c r="BI25" s="156"/>
-      <c r="BJ25" s="156"/>
-      <c r="BK25" s="156"/>
-      <c r="BL25" s="156"/>
-      <c r="BM25" s="156"/>
-      <c r="BN25" s="156"/>
-      <c r="BO25" s="156"/>
-      <c r="BP25" s="156"/>
-      <c r="BQ25" s="156"/>
-      <c r="BR25" s="157"/>
+      <c r="AM25" s="157"/>
+      <c r="AN25" s="158"/>
+      <c r="AO25" s="158"/>
+      <c r="AP25" s="158"/>
+      <c r="AQ25" s="158"/>
+      <c r="AR25" s="158"/>
+      <c r="AS25" s="158"/>
+      <c r="AT25" s="158"/>
+      <c r="AU25" s="158"/>
+      <c r="AV25" s="158"/>
+      <c r="AW25" s="158"/>
+      <c r="AX25" s="158"/>
+      <c r="AY25" s="158"/>
+      <c r="AZ25" s="158"/>
+      <c r="BA25" s="158"/>
+      <c r="BB25" s="158"/>
+      <c r="BC25" s="158"/>
+      <c r="BD25" s="158"/>
+      <c r="BE25" s="158"/>
+      <c r="BF25" s="158"/>
+      <c r="BG25" s="158"/>
+      <c r="BH25" s="158"/>
+      <c r="BI25" s="158"/>
+      <c r="BJ25" s="158"/>
+      <c r="BK25" s="158"/>
+      <c r="BL25" s="158"/>
+      <c r="BM25" s="158"/>
+      <c r="BN25" s="158"/>
+      <c r="BO25" s="158"/>
+      <c r="BP25" s="158"/>
+      <c r="BQ25" s="158"/>
+      <c r="BR25" s="159"/>
     </row>
     <row r="26" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="182" t="s">
+      <c r="A26" s="186" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="40"/>
@@ -6478,113 +6468,113 @@
       <c r="AJ26" s="39"/>
       <c r="AK26" s="40"/>
       <c r="AL26" s="41"/>
-      <c r="AM26" s="113"/>
-      <c r="AN26" s="114"/>
-      <c r="AO26" s="115"/>
-      <c r="AP26" s="116"/>
-      <c r="AQ26" s="121"/>
-      <c r="AR26" s="122"/>
-      <c r="AS26" s="122"/>
-      <c r="AT26" s="122"/>
-      <c r="AU26" s="122"/>
-      <c r="AV26" s="122"/>
-      <c r="AW26" s="122"/>
-      <c r="AX26" s="122"/>
-      <c r="AY26" s="122"/>
-      <c r="AZ26" s="122"/>
-      <c r="BA26" s="122"/>
-      <c r="BB26" s="122"/>
-      <c r="BC26" s="122"/>
-      <c r="BD26" s="123"/>
-      <c r="BE26" s="121"/>
-      <c r="BF26" s="122"/>
-      <c r="BG26" s="122"/>
-      <c r="BH26" s="122"/>
-      <c r="BI26" s="122"/>
-      <c r="BJ26" s="122"/>
-      <c r="BK26" s="123"/>
-      <c r="BL26" s="147"/>
-      <c r="BM26" s="122"/>
-      <c r="BN26" s="122"/>
-      <c r="BO26" s="160"/>
-      <c r="BP26" s="147"/>
-      <c r="BQ26" s="122"/>
-      <c r="BR26" s="158"/>
+      <c r="AM26" s="103"/>
+      <c r="AN26" s="104"/>
+      <c r="AO26" s="105"/>
+      <c r="AP26" s="106"/>
+      <c r="AQ26" s="111"/>
+      <c r="AR26" s="112"/>
+      <c r="AS26" s="112"/>
+      <c r="AT26" s="112"/>
+      <c r="AU26" s="112"/>
+      <c r="AV26" s="112"/>
+      <c r="AW26" s="112"/>
+      <c r="AX26" s="112"/>
+      <c r="AY26" s="112"/>
+      <c r="AZ26" s="112"/>
+      <c r="BA26" s="112"/>
+      <c r="BB26" s="112"/>
+      <c r="BC26" s="112"/>
+      <c r="BD26" s="113"/>
+      <c r="BE26" s="111"/>
+      <c r="BF26" s="112"/>
+      <c r="BG26" s="112"/>
+      <c r="BH26" s="112"/>
+      <c r="BI26" s="112"/>
+      <c r="BJ26" s="112"/>
+      <c r="BK26" s="113"/>
+      <c r="BL26" s="149"/>
+      <c r="BM26" s="112"/>
+      <c r="BN26" s="112"/>
+      <c r="BO26" s="162"/>
+      <c r="BP26" s="149"/>
+      <c r="BQ26" s="112"/>
+      <c r="BR26" s="160"/>
     </row>
     <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="183"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="87"/>
-      <c r="AC27" s="88"/>
-      <c r="AD27" s="86"/>
-      <c r="AE27" s="87"/>
-      <c r="AF27" s="87"/>
-      <c r="AG27" s="87"/>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="88"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="91"/>
-      <c r="AM27" s="117"/>
-      <c r="AN27" s="118"/>
-      <c r="AO27" s="119"/>
-      <c r="AP27" s="120"/>
-      <c r="AQ27" s="124"/>
-      <c r="AR27" s="125"/>
-      <c r="AS27" s="125"/>
-      <c r="AT27" s="125"/>
-      <c r="AU27" s="125"/>
-      <c r="AV27" s="125"/>
-      <c r="AW27" s="125"/>
-      <c r="AX27" s="125"/>
-      <c r="AY27" s="125"/>
-      <c r="AZ27" s="125"/>
-      <c r="BA27" s="125"/>
-      <c r="BB27" s="125"/>
-      <c r="BC27" s="125"/>
-      <c r="BD27" s="126"/>
-      <c r="BE27" s="124"/>
-      <c r="BF27" s="125"/>
-      <c r="BG27" s="125"/>
-      <c r="BH27" s="125"/>
-      <c r="BI27" s="125"/>
-      <c r="BJ27" s="125"/>
-      <c r="BK27" s="126"/>
-      <c r="BL27" s="148"/>
-      <c r="BM27" s="125"/>
-      <c r="BN27" s="125"/>
-      <c r="BO27" s="161"/>
-      <c r="BP27" s="148"/>
-      <c r="BQ27" s="125"/>
-      <c r="BR27" s="159"/>
+      <c r="A27" s="187"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="138"/>
+      <c r="W27" s="81"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="138"/>
+      <c r="AD27" s="81"/>
+      <c r="AE27" s="137"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="137"/>
+      <c r="AH27" s="137"/>
+      <c r="AI27" s="137"/>
+      <c r="AJ27" s="138"/>
+      <c r="AK27" s="139"/>
+      <c r="AL27" s="140"/>
+      <c r="AM27" s="107"/>
+      <c r="AN27" s="108"/>
+      <c r="AO27" s="109"/>
+      <c r="AP27" s="110"/>
+      <c r="AQ27" s="114"/>
+      <c r="AR27" s="115"/>
+      <c r="AS27" s="115"/>
+      <c r="AT27" s="115"/>
+      <c r="AU27" s="115"/>
+      <c r="AV27" s="115"/>
+      <c r="AW27" s="115"/>
+      <c r="AX27" s="115"/>
+      <c r="AY27" s="115"/>
+      <c r="AZ27" s="115"/>
+      <c r="BA27" s="115"/>
+      <c r="BB27" s="115"/>
+      <c r="BC27" s="115"/>
+      <c r="BD27" s="116"/>
+      <c r="BE27" s="114"/>
+      <c r="BF27" s="115"/>
+      <c r="BG27" s="115"/>
+      <c r="BH27" s="115"/>
+      <c r="BI27" s="115"/>
+      <c r="BJ27" s="115"/>
+      <c r="BK27" s="116"/>
+      <c r="BL27" s="150"/>
+      <c r="BM27" s="115"/>
+      <c r="BN27" s="115"/>
+      <c r="BO27" s="163"/>
+      <c r="BP27" s="150"/>
+      <c r="BQ27" s="115"/>
+      <c r="BR27" s="161"/>
     </row>
     <row r="28" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="184"/>
+      <c r="A28" s="188"/>
       <c r="B28" s="66"/>
       <c r="C28" s="63"/>
       <c r="D28" s="63"/>
@@ -6622,41 +6612,41 @@
       <c r="AJ28" s="64"/>
       <c r="AK28" s="66"/>
       <c r="AL28" s="67"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="156"/>
-      <c r="AO28" s="156"/>
-      <c r="AP28" s="156"/>
-      <c r="AQ28" s="156"/>
-      <c r="AR28" s="156"/>
-      <c r="AS28" s="156"/>
-      <c r="AT28" s="156"/>
-      <c r="AU28" s="156"/>
-      <c r="AV28" s="156"/>
-      <c r="AW28" s="156"/>
-      <c r="AX28" s="156"/>
-      <c r="AY28" s="156"/>
-      <c r="AZ28" s="156"/>
-      <c r="BA28" s="156"/>
-      <c r="BB28" s="156"/>
-      <c r="BC28" s="156"/>
-      <c r="BD28" s="156"/>
-      <c r="BE28" s="156"/>
-      <c r="BF28" s="156"/>
-      <c r="BG28" s="156"/>
-      <c r="BH28" s="156"/>
-      <c r="BI28" s="156"/>
-      <c r="BJ28" s="156"/>
-      <c r="BK28" s="156"/>
-      <c r="BL28" s="156"/>
-      <c r="BM28" s="156"/>
-      <c r="BN28" s="156"/>
-      <c r="BO28" s="156"/>
-      <c r="BP28" s="156"/>
-      <c r="BQ28" s="156"/>
-      <c r="BR28" s="157"/>
+      <c r="AM28" s="157"/>
+      <c r="AN28" s="158"/>
+      <c r="AO28" s="158"/>
+      <c r="AP28" s="158"/>
+      <c r="AQ28" s="158"/>
+      <c r="AR28" s="158"/>
+      <c r="AS28" s="158"/>
+      <c r="AT28" s="158"/>
+      <c r="AU28" s="158"/>
+      <c r="AV28" s="158"/>
+      <c r="AW28" s="158"/>
+      <c r="AX28" s="158"/>
+      <c r="AY28" s="158"/>
+      <c r="AZ28" s="158"/>
+      <c r="BA28" s="158"/>
+      <c r="BB28" s="158"/>
+      <c r="BC28" s="158"/>
+      <c r="BD28" s="158"/>
+      <c r="BE28" s="158"/>
+      <c r="BF28" s="158"/>
+      <c r="BG28" s="158"/>
+      <c r="BH28" s="158"/>
+      <c r="BI28" s="158"/>
+      <c r="BJ28" s="158"/>
+      <c r="BK28" s="158"/>
+      <c r="BL28" s="158"/>
+      <c r="BM28" s="158"/>
+      <c r="BN28" s="158"/>
+      <c r="BO28" s="158"/>
+      <c r="BP28" s="158"/>
+      <c r="BQ28" s="158"/>
+      <c r="BR28" s="159"/>
     </row>
     <row r="29" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="186" t="s">
+      <c r="A29" s="190" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="42"/>
@@ -6696,113 +6686,113 @@
       <c r="AJ29" s="44"/>
       <c r="AK29" s="45"/>
       <c r="AL29" s="46"/>
-      <c r="AM29" s="113"/>
-      <c r="AN29" s="114"/>
-      <c r="AO29" s="115"/>
-      <c r="AP29" s="116"/>
-      <c r="AQ29" s="121"/>
-      <c r="AR29" s="122"/>
-      <c r="AS29" s="122"/>
-      <c r="AT29" s="122"/>
-      <c r="AU29" s="122"/>
-      <c r="AV29" s="122"/>
-      <c r="AW29" s="122"/>
-      <c r="AX29" s="122"/>
-      <c r="AY29" s="122"/>
-      <c r="AZ29" s="122"/>
-      <c r="BA29" s="122"/>
-      <c r="BB29" s="122"/>
-      <c r="BC29" s="122"/>
-      <c r="BD29" s="123"/>
-      <c r="BE29" s="121"/>
-      <c r="BF29" s="122"/>
-      <c r="BG29" s="122"/>
-      <c r="BH29" s="122"/>
-      <c r="BI29" s="122"/>
-      <c r="BJ29" s="122"/>
-      <c r="BK29" s="123"/>
-      <c r="BL29" s="147"/>
-      <c r="BM29" s="122"/>
-      <c r="BN29" s="122"/>
-      <c r="BO29" s="160"/>
-      <c r="BP29" s="147"/>
-      <c r="BQ29" s="122"/>
-      <c r="BR29" s="158"/>
+      <c r="AM29" s="103"/>
+      <c r="AN29" s="104"/>
+      <c r="AO29" s="105"/>
+      <c r="AP29" s="106"/>
+      <c r="AQ29" s="111"/>
+      <c r="AR29" s="112"/>
+      <c r="AS29" s="112"/>
+      <c r="AT29" s="112"/>
+      <c r="AU29" s="112"/>
+      <c r="AV29" s="112"/>
+      <c r="AW29" s="112"/>
+      <c r="AX29" s="112"/>
+      <c r="AY29" s="112"/>
+      <c r="AZ29" s="112"/>
+      <c r="BA29" s="112"/>
+      <c r="BB29" s="112"/>
+      <c r="BC29" s="112"/>
+      <c r="BD29" s="113"/>
+      <c r="BE29" s="111"/>
+      <c r="BF29" s="112"/>
+      <c r="BG29" s="112"/>
+      <c r="BH29" s="112"/>
+      <c r="BI29" s="112"/>
+      <c r="BJ29" s="112"/>
+      <c r="BK29" s="113"/>
+      <c r="BL29" s="149"/>
+      <c r="BM29" s="112"/>
+      <c r="BN29" s="112"/>
+      <c r="BO29" s="162"/>
+      <c r="BP29" s="149"/>
+      <c r="BQ29" s="112"/>
+      <c r="BR29" s="160"/>
     </row>
     <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="187"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="86"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="88"/>
-      <c r="AD30" s="86"/>
-      <c r="AE30" s="87"/>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="87"/>
-      <c r="AH30" s="87"/>
-      <c r="AI30" s="87"/>
-      <c r="AJ30" s="88"/>
-      <c r="AK30" s="90"/>
-      <c r="AL30" s="91"/>
-      <c r="AM30" s="117"/>
-      <c r="AN30" s="118"/>
-      <c r="AO30" s="119"/>
-      <c r="AP30" s="120"/>
-      <c r="AQ30" s="124"/>
-      <c r="AR30" s="125"/>
-      <c r="AS30" s="125"/>
-      <c r="AT30" s="125"/>
-      <c r="AU30" s="125"/>
-      <c r="AV30" s="125"/>
-      <c r="AW30" s="125"/>
-      <c r="AX30" s="125"/>
-      <c r="AY30" s="125"/>
-      <c r="AZ30" s="125"/>
-      <c r="BA30" s="125"/>
-      <c r="BB30" s="125"/>
-      <c r="BC30" s="125"/>
-      <c r="BD30" s="126"/>
-      <c r="BE30" s="124"/>
-      <c r="BF30" s="125"/>
-      <c r="BG30" s="125"/>
-      <c r="BH30" s="125"/>
-      <c r="BI30" s="125"/>
-      <c r="BJ30" s="125"/>
-      <c r="BK30" s="126"/>
-      <c r="BL30" s="148"/>
-      <c r="BM30" s="125"/>
-      <c r="BN30" s="125"/>
-      <c r="BO30" s="161"/>
-      <c r="BP30" s="148"/>
-      <c r="BQ30" s="125"/>
-      <c r="BR30" s="159"/>
+      <c r="A30" s="191"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="138"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="137"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="138"/>
+      <c r="W30" s="81"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="138"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="137"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="137"/>
+      <c r="AH30" s="137"/>
+      <c r="AI30" s="137"/>
+      <c r="AJ30" s="138"/>
+      <c r="AK30" s="139"/>
+      <c r="AL30" s="140"/>
+      <c r="AM30" s="107"/>
+      <c r="AN30" s="108"/>
+      <c r="AO30" s="109"/>
+      <c r="AP30" s="110"/>
+      <c r="AQ30" s="114"/>
+      <c r="AR30" s="115"/>
+      <c r="AS30" s="115"/>
+      <c r="AT30" s="115"/>
+      <c r="AU30" s="115"/>
+      <c r="AV30" s="115"/>
+      <c r="AW30" s="115"/>
+      <c r="AX30" s="115"/>
+      <c r="AY30" s="115"/>
+      <c r="AZ30" s="115"/>
+      <c r="BA30" s="115"/>
+      <c r="BB30" s="115"/>
+      <c r="BC30" s="115"/>
+      <c r="BD30" s="116"/>
+      <c r="BE30" s="114"/>
+      <c r="BF30" s="115"/>
+      <c r="BG30" s="115"/>
+      <c r="BH30" s="115"/>
+      <c r="BI30" s="115"/>
+      <c r="BJ30" s="115"/>
+      <c r="BK30" s="116"/>
+      <c r="BL30" s="150"/>
+      <c r="BM30" s="115"/>
+      <c r="BN30" s="115"/>
+      <c r="BO30" s="163"/>
+      <c r="BP30" s="150"/>
+      <c r="BQ30" s="115"/>
+      <c r="BR30" s="161"/>
     </row>
     <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="188"/>
+      <c r="A31" s="192"/>
       <c r="B31" s="68"/>
       <c r="C31" s="69"/>
       <c r="D31" s="69"/>
@@ -6840,41 +6830,41 @@
       <c r="AJ31" s="70"/>
       <c r="AK31" s="71"/>
       <c r="AL31" s="72"/>
-      <c r="AM31" s="155"/>
-      <c r="AN31" s="156"/>
-      <c r="AO31" s="156"/>
-      <c r="AP31" s="156"/>
-      <c r="AQ31" s="156"/>
-      <c r="AR31" s="156"/>
-      <c r="AS31" s="156"/>
-      <c r="AT31" s="156"/>
-      <c r="AU31" s="156"/>
-      <c r="AV31" s="156"/>
-      <c r="AW31" s="156"/>
-      <c r="AX31" s="156"/>
-      <c r="AY31" s="156"/>
-      <c r="AZ31" s="156"/>
-      <c r="BA31" s="156"/>
-      <c r="BB31" s="156"/>
-      <c r="BC31" s="156"/>
-      <c r="BD31" s="156"/>
-      <c r="BE31" s="156"/>
-      <c r="BF31" s="156"/>
-      <c r="BG31" s="156"/>
-      <c r="BH31" s="156"/>
-      <c r="BI31" s="156"/>
-      <c r="BJ31" s="156"/>
-      <c r="BK31" s="156"/>
-      <c r="BL31" s="156"/>
-      <c r="BM31" s="156"/>
-      <c r="BN31" s="156"/>
-      <c r="BO31" s="156"/>
-      <c r="BP31" s="156"/>
-      <c r="BQ31" s="156"/>
-      <c r="BR31" s="157"/>
+      <c r="AM31" s="157"/>
+      <c r="AN31" s="158"/>
+      <c r="AO31" s="158"/>
+      <c r="AP31" s="158"/>
+      <c r="AQ31" s="158"/>
+      <c r="AR31" s="158"/>
+      <c r="AS31" s="158"/>
+      <c r="AT31" s="158"/>
+      <c r="AU31" s="158"/>
+      <c r="AV31" s="158"/>
+      <c r="AW31" s="158"/>
+      <c r="AX31" s="158"/>
+      <c r="AY31" s="158"/>
+      <c r="AZ31" s="158"/>
+      <c r="BA31" s="158"/>
+      <c r="BB31" s="158"/>
+      <c r="BC31" s="158"/>
+      <c r="BD31" s="158"/>
+      <c r="BE31" s="158"/>
+      <c r="BF31" s="158"/>
+      <c r="BG31" s="158"/>
+      <c r="BH31" s="158"/>
+      <c r="BI31" s="158"/>
+      <c r="BJ31" s="158"/>
+      <c r="BK31" s="158"/>
+      <c r="BL31" s="158"/>
+      <c r="BM31" s="158"/>
+      <c r="BN31" s="158"/>
+      <c r="BO31" s="158"/>
+      <c r="BP31" s="158"/>
+      <c r="BQ31" s="158"/>
+      <c r="BR31" s="159"/>
     </row>
     <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="190" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="40"/>
@@ -6914,113 +6904,113 @@
       <c r="AJ32" s="39"/>
       <c r="AK32" s="40"/>
       <c r="AL32" s="41"/>
-      <c r="AM32" s="113"/>
-      <c r="AN32" s="114"/>
-      <c r="AO32" s="115"/>
-      <c r="AP32" s="116"/>
-      <c r="AQ32" s="121"/>
-      <c r="AR32" s="122"/>
-      <c r="AS32" s="122"/>
-      <c r="AT32" s="122"/>
-      <c r="AU32" s="122"/>
-      <c r="AV32" s="122"/>
-      <c r="AW32" s="122"/>
-      <c r="AX32" s="122"/>
-      <c r="AY32" s="122"/>
-      <c r="AZ32" s="122"/>
-      <c r="BA32" s="122"/>
-      <c r="BB32" s="122"/>
-      <c r="BC32" s="122"/>
-      <c r="BD32" s="123"/>
-      <c r="BE32" s="121"/>
-      <c r="BF32" s="122"/>
-      <c r="BG32" s="122"/>
-      <c r="BH32" s="122"/>
-      <c r="BI32" s="122"/>
-      <c r="BJ32" s="122"/>
-      <c r="BK32" s="123"/>
-      <c r="BL32" s="147"/>
-      <c r="BM32" s="122"/>
-      <c r="BN32" s="122"/>
-      <c r="BO32" s="160"/>
-      <c r="BP32" s="147"/>
-      <c r="BQ32" s="122"/>
-      <c r="BR32" s="158"/>
+      <c r="AM32" s="103"/>
+      <c r="AN32" s="104"/>
+      <c r="AO32" s="105"/>
+      <c r="AP32" s="106"/>
+      <c r="AQ32" s="111"/>
+      <c r="AR32" s="112"/>
+      <c r="AS32" s="112"/>
+      <c r="AT32" s="112"/>
+      <c r="AU32" s="112"/>
+      <c r="AV32" s="112"/>
+      <c r="AW32" s="112"/>
+      <c r="AX32" s="112"/>
+      <c r="AY32" s="112"/>
+      <c r="AZ32" s="112"/>
+      <c r="BA32" s="112"/>
+      <c r="BB32" s="112"/>
+      <c r="BC32" s="112"/>
+      <c r="BD32" s="113"/>
+      <c r="BE32" s="111"/>
+      <c r="BF32" s="112"/>
+      <c r="BG32" s="112"/>
+      <c r="BH32" s="112"/>
+      <c r="BI32" s="112"/>
+      <c r="BJ32" s="112"/>
+      <c r="BK32" s="113"/>
+      <c r="BL32" s="149"/>
+      <c r="BM32" s="112"/>
+      <c r="BN32" s="112"/>
+      <c r="BO32" s="162"/>
+      <c r="BP32" s="149"/>
+      <c r="BQ32" s="112"/>
+      <c r="BR32" s="160"/>
     </row>
     <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="187"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="86"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="87"/>
-      <c r="AB33" s="87"/>
-      <c r="AC33" s="88"/>
-      <c r="AD33" s="86"/>
-      <c r="AE33" s="87"/>
-      <c r="AF33" s="87"/>
-      <c r="AG33" s="87"/>
-      <c r="AH33" s="87"/>
-      <c r="AI33" s="87"/>
-      <c r="AJ33" s="88"/>
-      <c r="AK33" s="90"/>
-      <c r="AL33" s="91"/>
-      <c r="AM33" s="117"/>
-      <c r="AN33" s="118"/>
-      <c r="AO33" s="119"/>
-      <c r="AP33" s="120"/>
-      <c r="AQ33" s="124"/>
-      <c r="AR33" s="125"/>
-      <c r="AS33" s="125"/>
-      <c r="AT33" s="125"/>
-      <c r="AU33" s="125"/>
-      <c r="AV33" s="125"/>
-      <c r="AW33" s="125"/>
-      <c r="AX33" s="125"/>
-      <c r="AY33" s="125"/>
-      <c r="AZ33" s="125"/>
-      <c r="BA33" s="125"/>
-      <c r="BB33" s="125"/>
-      <c r="BC33" s="125"/>
-      <c r="BD33" s="126"/>
-      <c r="BE33" s="124"/>
-      <c r="BF33" s="125"/>
-      <c r="BG33" s="125"/>
-      <c r="BH33" s="125"/>
-      <c r="BI33" s="125"/>
-      <c r="BJ33" s="125"/>
-      <c r="BK33" s="126"/>
-      <c r="BL33" s="148"/>
-      <c r="BM33" s="125"/>
-      <c r="BN33" s="125"/>
-      <c r="BO33" s="161"/>
-      <c r="BP33" s="148"/>
-      <c r="BQ33" s="125"/>
-      <c r="BR33" s="159"/>
+      <c r="A33" s="191"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="137"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="137"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="138"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="138"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="137"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="137"/>
+      <c r="AH33" s="137"/>
+      <c r="AI33" s="137"/>
+      <c r="AJ33" s="138"/>
+      <c r="AK33" s="139"/>
+      <c r="AL33" s="140"/>
+      <c r="AM33" s="107"/>
+      <c r="AN33" s="108"/>
+      <c r="AO33" s="109"/>
+      <c r="AP33" s="110"/>
+      <c r="AQ33" s="114"/>
+      <c r="AR33" s="115"/>
+      <c r="AS33" s="115"/>
+      <c r="AT33" s="115"/>
+      <c r="AU33" s="115"/>
+      <c r="AV33" s="115"/>
+      <c r="AW33" s="115"/>
+      <c r="AX33" s="115"/>
+      <c r="AY33" s="115"/>
+      <c r="AZ33" s="115"/>
+      <c r="BA33" s="115"/>
+      <c r="BB33" s="115"/>
+      <c r="BC33" s="115"/>
+      <c r="BD33" s="116"/>
+      <c r="BE33" s="114"/>
+      <c r="BF33" s="115"/>
+      <c r="BG33" s="115"/>
+      <c r="BH33" s="115"/>
+      <c r="BI33" s="115"/>
+      <c r="BJ33" s="115"/>
+      <c r="BK33" s="116"/>
+      <c r="BL33" s="150"/>
+      <c r="BM33" s="115"/>
+      <c r="BN33" s="115"/>
+      <c r="BO33" s="163"/>
+      <c r="BP33" s="150"/>
+      <c r="BQ33" s="115"/>
+      <c r="BR33" s="161"/>
     </row>
     <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="188"/>
+      <c r="A34" s="192"/>
       <c r="B34" s="66"/>
       <c r="C34" s="63"/>
       <c r="D34" s="63"/>
@@ -7058,41 +7048,41 @@
       <c r="AJ34" s="64"/>
       <c r="AK34" s="66"/>
       <c r="AL34" s="67"/>
-      <c r="AM34" s="155"/>
-      <c r="AN34" s="156"/>
-      <c r="AO34" s="156"/>
-      <c r="AP34" s="156"/>
-      <c r="AQ34" s="156"/>
-      <c r="AR34" s="156"/>
-      <c r="AS34" s="156"/>
-      <c r="AT34" s="156"/>
-      <c r="AU34" s="156"/>
-      <c r="AV34" s="156"/>
-      <c r="AW34" s="156"/>
-      <c r="AX34" s="156"/>
-      <c r="AY34" s="156"/>
-      <c r="AZ34" s="156"/>
-      <c r="BA34" s="156"/>
-      <c r="BB34" s="156"/>
-      <c r="BC34" s="156"/>
-      <c r="BD34" s="156"/>
-      <c r="BE34" s="156"/>
-      <c r="BF34" s="156"/>
-      <c r="BG34" s="156"/>
-      <c r="BH34" s="156"/>
-      <c r="BI34" s="156"/>
-      <c r="BJ34" s="156"/>
-      <c r="BK34" s="156"/>
-      <c r="BL34" s="156"/>
-      <c r="BM34" s="156"/>
-      <c r="BN34" s="156"/>
-      <c r="BO34" s="156"/>
-      <c r="BP34" s="156"/>
-      <c r="BQ34" s="156"/>
-      <c r="BR34" s="157"/>
+      <c r="AM34" s="157"/>
+      <c r="AN34" s="158"/>
+      <c r="AO34" s="158"/>
+      <c r="AP34" s="158"/>
+      <c r="AQ34" s="158"/>
+      <c r="AR34" s="158"/>
+      <c r="AS34" s="158"/>
+      <c r="AT34" s="158"/>
+      <c r="AU34" s="158"/>
+      <c r="AV34" s="158"/>
+      <c r="AW34" s="158"/>
+      <c r="AX34" s="158"/>
+      <c r="AY34" s="158"/>
+      <c r="AZ34" s="158"/>
+      <c r="BA34" s="158"/>
+      <c r="BB34" s="158"/>
+      <c r="BC34" s="158"/>
+      <c r="BD34" s="158"/>
+      <c r="BE34" s="158"/>
+      <c r="BF34" s="158"/>
+      <c r="BG34" s="158"/>
+      <c r="BH34" s="158"/>
+      <c r="BI34" s="158"/>
+      <c r="BJ34" s="158"/>
+      <c r="BK34" s="158"/>
+      <c r="BL34" s="158"/>
+      <c r="BM34" s="158"/>
+      <c r="BN34" s="158"/>
+      <c r="BO34" s="158"/>
+      <c r="BP34" s="158"/>
+      <c r="BQ34" s="158"/>
+      <c r="BR34" s="159"/>
     </row>
     <row r="35" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="182" t="s">
+      <c r="A35" s="186" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="47"/>
@@ -7132,113 +7122,113 @@
       <c r="AJ35" s="49"/>
       <c r="AK35" s="47"/>
       <c r="AL35" s="51"/>
-      <c r="AM35" s="113"/>
-      <c r="AN35" s="114"/>
-      <c r="AO35" s="115"/>
-      <c r="AP35" s="116"/>
-      <c r="AQ35" s="121"/>
-      <c r="AR35" s="122"/>
-      <c r="AS35" s="122"/>
-      <c r="AT35" s="122"/>
-      <c r="AU35" s="122"/>
-      <c r="AV35" s="122"/>
-      <c r="AW35" s="122"/>
-      <c r="AX35" s="122"/>
-      <c r="AY35" s="122"/>
-      <c r="AZ35" s="122"/>
-      <c r="BA35" s="122"/>
-      <c r="BB35" s="122"/>
-      <c r="BC35" s="122"/>
-      <c r="BD35" s="123"/>
-      <c r="BE35" s="121"/>
-      <c r="BF35" s="122"/>
-      <c r="BG35" s="122"/>
-      <c r="BH35" s="122"/>
-      <c r="BI35" s="122"/>
-      <c r="BJ35" s="122"/>
-      <c r="BK35" s="123"/>
-      <c r="BL35" s="147"/>
-      <c r="BM35" s="122"/>
-      <c r="BN35" s="122"/>
-      <c r="BO35" s="160"/>
-      <c r="BP35" s="147"/>
-      <c r="BQ35" s="122"/>
-      <c r="BR35" s="158"/>
+      <c r="AM35" s="103"/>
+      <c r="AN35" s="104"/>
+      <c r="AO35" s="105"/>
+      <c r="AP35" s="106"/>
+      <c r="AQ35" s="111"/>
+      <c r="AR35" s="112"/>
+      <c r="AS35" s="112"/>
+      <c r="AT35" s="112"/>
+      <c r="AU35" s="112"/>
+      <c r="AV35" s="112"/>
+      <c r="AW35" s="112"/>
+      <c r="AX35" s="112"/>
+      <c r="AY35" s="112"/>
+      <c r="AZ35" s="112"/>
+      <c r="BA35" s="112"/>
+      <c r="BB35" s="112"/>
+      <c r="BC35" s="112"/>
+      <c r="BD35" s="113"/>
+      <c r="BE35" s="111"/>
+      <c r="BF35" s="112"/>
+      <c r="BG35" s="112"/>
+      <c r="BH35" s="112"/>
+      <c r="BI35" s="112"/>
+      <c r="BJ35" s="112"/>
+      <c r="BK35" s="113"/>
+      <c r="BL35" s="149"/>
+      <c r="BM35" s="112"/>
+      <c r="BN35" s="112"/>
+      <c r="BO35" s="162"/>
+      <c r="BP35" s="149"/>
+      <c r="BQ35" s="112"/>
+      <c r="BR35" s="160"/>
     </row>
     <row r="36" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="183"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="87"/>
-      <c r="V36" s="88"/>
-      <c r="W36" s="86"/>
-      <c r="X36" s="87"/>
-      <c r="Y36" s="87"/>
-      <c r="Z36" s="87"/>
-      <c r="AA36" s="87"/>
-      <c r="AB36" s="87"/>
-      <c r="AC36" s="88"/>
-      <c r="AD36" s="86"/>
-      <c r="AE36" s="87"/>
-      <c r="AF36" s="87"/>
-      <c r="AG36" s="87"/>
-      <c r="AH36" s="87"/>
-      <c r="AI36" s="87"/>
-      <c r="AJ36" s="88"/>
-      <c r="AK36" s="90"/>
-      <c r="AL36" s="91"/>
-      <c r="AM36" s="117"/>
-      <c r="AN36" s="118"/>
-      <c r="AO36" s="119"/>
-      <c r="AP36" s="120"/>
-      <c r="AQ36" s="124"/>
-      <c r="AR36" s="125"/>
-      <c r="AS36" s="125"/>
-      <c r="AT36" s="125"/>
-      <c r="AU36" s="125"/>
-      <c r="AV36" s="125"/>
-      <c r="AW36" s="125"/>
-      <c r="AX36" s="125"/>
-      <c r="AY36" s="125"/>
-      <c r="AZ36" s="125"/>
-      <c r="BA36" s="125"/>
-      <c r="BB36" s="125"/>
-      <c r="BC36" s="125"/>
-      <c r="BD36" s="126"/>
-      <c r="BE36" s="124"/>
-      <c r="BF36" s="125"/>
-      <c r="BG36" s="125"/>
-      <c r="BH36" s="125"/>
-      <c r="BI36" s="125"/>
-      <c r="BJ36" s="125"/>
-      <c r="BK36" s="126"/>
-      <c r="BL36" s="148"/>
-      <c r="BM36" s="125"/>
-      <c r="BN36" s="125"/>
-      <c r="BO36" s="161"/>
-      <c r="BP36" s="148"/>
-      <c r="BQ36" s="125"/>
-      <c r="BR36" s="159"/>
+      <c r="A36" s="187"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="137"/>
+      <c r="M36" s="137"/>
+      <c r="N36" s="137"/>
+      <c r="O36" s="138"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="137"/>
+      <c r="R36" s="137"/>
+      <c r="S36" s="137"/>
+      <c r="T36" s="137"/>
+      <c r="U36" s="137"/>
+      <c r="V36" s="138"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="137"/>
+      <c r="Y36" s="137"/>
+      <c r="Z36" s="137"/>
+      <c r="AA36" s="137"/>
+      <c r="AB36" s="137"/>
+      <c r="AC36" s="138"/>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="137"/>
+      <c r="AF36" s="137"/>
+      <c r="AG36" s="137"/>
+      <c r="AH36" s="137"/>
+      <c r="AI36" s="137"/>
+      <c r="AJ36" s="138"/>
+      <c r="AK36" s="139"/>
+      <c r="AL36" s="140"/>
+      <c r="AM36" s="107"/>
+      <c r="AN36" s="108"/>
+      <c r="AO36" s="109"/>
+      <c r="AP36" s="110"/>
+      <c r="AQ36" s="114"/>
+      <c r="AR36" s="115"/>
+      <c r="AS36" s="115"/>
+      <c r="AT36" s="115"/>
+      <c r="AU36" s="115"/>
+      <c r="AV36" s="115"/>
+      <c r="AW36" s="115"/>
+      <c r="AX36" s="115"/>
+      <c r="AY36" s="115"/>
+      <c r="AZ36" s="115"/>
+      <c r="BA36" s="115"/>
+      <c r="BB36" s="115"/>
+      <c r="BC36" s="115"/>
+      <c r="BD36" s="116"/>
+      <c r="BE36" s="114"/>
+      <c r="BF36" s="115"/>
+      <c r="BG36" s="115"/>
+      <c r="BH36" s="115"/>
+      <c r="BI36" s="115"/>
+      <c r="BJ36" s="115"/>
+      <c r="BK36" s="116"/>
+      <c r="BL36" s="150"/>
+      <c r="BM36" s="115"/>
+      <c r="BN36" s="115"/>
+      <c r="BO36" s="163"/>
+      <c r="BP36" s="150"/>
+      <c r="BQ36" s="115"/>
+      <c r="BR36" s="161"/>
     </row>
     <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="184"/>
+      <c r="A37" s="188"/>
       <c r="B37" s="71"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
@@ -7276,41 +7266,41 @@
       <c r="AJ37" s="70"/>
       <c r="AK37" s="71"/>
       <c r="AL37" s="72"/>
-      <c r="AM37" s="155"/>
-      <c r="AN37" s="156"/>
-      <c r="AO37" s="156"/>
-      <c r="AP37" s="156"/>
-      <c r="AQ37" s="156"/>
-      <c r="AR37" s="156"/>
-      <c r="AS37" s="156"/>
-      <c r="AT37" s="156"/>
-      <c r="AU37" s="156"/>
-      <c r="AV37" s="156"/>
-      <c r="AW37" s="156"/>
-      <c r="AX37" s="156"/>
-      <c r="AY37" s="156"/>
-      <c r="AZ37" s="156"/>
-      <c r="BA37" s="156"/>
-      <c r="BB37" s="156"/>
-      <c r="BC37" s="156"/>
-      <c r="BD37" s="156"/>
-      <c r="BE37" s="156"/>
-      <c r="BF37" s="156"/>
-      <c r="BG37" s="156"/>
-      <c r="BH37" s="156"/>
-      <c r="BI37" s="156"/>
-      <c r="BJ37" s="156"/>
-      <c r="BK37" s="156"/>
-      <c r="BL37" s="156"/>
-      <c r="BM37" s="156"/>
-      <c r="BN37" s="156"/>
-      <c r="BO37" s="156"/>
-      <c r="BP37" s="156"/>
-      <c r="BQ37" s="156"/>
-      <c r="BR37" s="157"/>
+      <c r="AM37" s="157"/>
+      <c r="AN37" s="158"/>
+      <c r="AO37" s="158"/>
+      <c r="AP37" s="158"/>
+      <c r="AQ37" s="158"/>
+      <c r="AR37" s="158"/>
+      <c r="AS37" s="158"/>
+      <c r="AT37" s="158"/>
+      <c r="AU37" s="158"/>
+      <c r="AV37" s="158"/>
+      <c r="AW37" s="158"/>
+      <c r="AX37" s="158"/>
+      <c r="AY37" s="158"/>
+      <c r="AZ37" s="158"/>
+      <c r="BA37" s="158"/>
+      <c r="BB37" s="158"/>
+      <c r="BC37" s="158"/>
+      <c r="BD37" s="158"/>
+      <c r="BE37" s="158"/>
+      <c r="BF37" s="158"/>
+      <c r="BG37" s="158"/>
+      <c r="BH37" s="158"/>
+      <c r="BI37" s="158"/>
+      <c r="BJ37" s="158"/>
+      <c r="BK37" s="158"/>
+      <c r="BL37" s="158"/>
+      <c r="BM37" s="158"/>
+      <c r="BN37" s="158"/>
+      <c r="BO37" s="158"/>
+      <c r="BP37" s="158"/>
+      <c r="BQ37" s="158"/>
+      <c r="BR37" s="159"/>
     </row>
     <row r="38" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="182" t="s">
+      <c r="A38" s="186" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="52"/>
@@ -7350,113 +7340,113 @@
       <c r="AJ38" s="54"/>
       <c r="AK38" s="52"/>
       <c r="AL38" s="56"/>
-      <c r="AM38" s="113"/>
-      <c r="AN38" s="114"/>
-      <c r="AO38" s="115"/>
-      <c r="AP38" s="116"/>
-      <c r="AQ38" s="121"/>
-      <c r="AR38" s="122"/>
-      <c r="AS38" s="122"/>
-      <c r="AT38" s="122"/>
-      <c r="AU38" s="122"/>
-      <c r="AV38" s="122"/>
-      <c r="AW38" s="122"/>
-      <c r="AX38" s="122"/>
-      <c r="AY38" s="122"/>
-      <c r="AZ38" s="122"/>
-      <c r="BA38" s="122"/>
-      <c r="BB38" s="122"/>
-      <c r="BC38" s="122"/>
-      <c r="BD38" s="123"/>
-      <c r="BE38" s="121"/>
-      <c r="BF38" s="122"/>
-      <c r="BG38" s="122"/>
-      <c r="BH38" s="122"/>
-      <c r="BI38" s="122"/>
-      <c r="BJ38" s="122"/>
-      <c r="BK38" s="123"/>
-      <c r="BL38" s="147"/>
-      <c r="BM38" s="122"/>
-      <c r="BN38" s="122"/>
-      <c r="BO38" s="160"/>
-      <c r="BP38" s="147"/>
-      <c r="BQ38" s="122"/>
-      <c r="BR38" s="158"/>
+      <c r="AM38" s="103"/>
+      <c r="AN38" s="104"/>
+      <c r="AO38" s="105"/>
+      <c r="AP38" s="106"/>
+      <c r="AQ38" s="111"/>
+      <c r="AR38" s="112"/>
+      <c r="AS38" s="112"/>
+      <c r="AT38" s="112"/>
+      <c r="AU38" s="112"/>
+      <c r="AV38" s="112"/>
+      <c r="AW38" s="112"/>
+      <c r="AX38" s="112"/>
+      <c r="AY38" s="112"/>
+      <c r="AZ38" s="112"/>
+      <c r="BA38" s="112"/>
+      <c r="BB38" s="112"/>
+      <c r="BC38" s="112"/>
+      <c r="BD38" s="113"/>
+      <c r="BE38" s="111"/>
+      <c r="BF38" s="112"/>
+      <c r="BG38" s="112"/>
+      <c r="BH38" s="112"/>
+      <c r="BI38" s="112"/>
+      <c r="BJ38" s="112"/>
+      <c r="BK38" s="113"/>
+      <c r="BL38" s="149"/>
+      <c r="BM38" s="112"/>
+      <c r="BN38" s="112"/>
+      <c r="BO38" s="162"/>
+      <c r="BP38" s="149"/>
+      <c r="BQ38" s="112"/>
+      <c r="BR38" s="160"/>
     </row>
     <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="183"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="88"/>
-      <c r="W39" s="86"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="87"/>
-      <c r="Z39" s="87"/>
-      <c r="AA39" s="87"/>
-      <c r="AB39" s="87"/>
-      <c r="AC39" s="88"/>
-      <c r="AD39" s="86"/>
-      <c r="AE39" s="87"/>
-      <c r="AF39" s="87"/>
-      <c r="AG39" s="87"/>
-      <c r="AH39" s="87"/>
-      <c r="AI39" s="87"/>
-      <c r="AJ39" s="88"/>
-      <c r="AK39" s="90"/>
-      <c r="AL39" s="91"/>
-      <c r="AM39" s="127"/>
-      <c r="AN39" s="118"/>
-      <c r="AO39" s="119"/>
-      <c r="AP39" s="120"/>
-      <c r="AQ39" s="124"/>
-      <c r="AR39" s="125"/>
-      <c r="AS39" s="125"/>
-      <c r="AT39" s="125"/>
-      <c r="AU39" s="125"/>
-      <c r="AV39" s="125"/>
-      <c r="AW39" s="125"/>
-      <c r="AX39" s="125"/>
-      <c r="AY39" s="125"/>
-      <c r="AZ39" s="125"/>
-      <c r="BA39" s="125"/>
-      <c r="BB39" s="125"/>
-      <c r="BC39" s="125"/>
-      <c r="BD39" s="126"/>
-      <c r="BE39" s="124"/>
-      <c r="BF39" s="125"/>
-      <c r="BG39" s="125"/>
-      <c r="BH39" s="125"/>
-      <c r="BI39" s="125"/>
-      <c r="BJ39" s="125"/>
-      <c r="BK39" s="126"/>
-      <c r="BL39" s="148"/>
-      <c r="BM39" s="125"/>
-      <c r="BN39" s="125"/>
-      <c r="BO39" s="161"/>
-      <c r="BP39" s="148"/>
-      <c r="BQ39" s="125"/>
-      <c r="BR39" s="159"/>
+      <c r="A39" s="187"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="137"/>
+      <c r="L39" s="137"/>
+      <c r="M39" s="137"/>
+      <c r="N39" s="137"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="137"/>
+      <c r="R39" s="137"/>
+      <c r="S39" s="137"/>
+      <c r="T39" s="137"/>
+      <c r="U39" s="137"/>
+      <c r="V39" s="138"/>
+      <c r="W39" s="81"/>
+      <c r="X39" s="137"/>
+      <c r="Y39" s="137"/>
+      <c r="Z39" s="137"/>
+      <c r="AA39" s="137"/>
+      <c r="AB39" s="137"/>
+      <c r="AC39" s="138"/>
+      <c r="AD39" s="81"/>
+      <c r="AE39" s="137"/>
+      <c r="AF39" s="137"/>
+      <c r="AG39" s="137"/>
+      <c r="AH39" s="137"/>
+      <c r="AI39" s="137"/>
+      <c r="AJ39" s="138"/>
+      <c r="AK39" s="139"/>
+      <c r="AL39" s="140"/>
+      <c r="AM39" s="117"/>
+      <c r="AN39" s="108"/>
+      <c r="AO39" s="109"/>
+      <c r="AP39" s="110"/>
+      <c r="AQ39" s="114"/>
+      <c r="AR39" s="115"/>
+      <c r="AS39" s="115"/>
+      <c r="AT39" s="115"/>
+      <c r="AU39" s="115"/>
+      <c r="AV39" s="115"/>
+      <c r="AW39" s="115"/>
+      <c r="AX39" s="115"/>
+      <c r="AY39" s="115"/>
+      <c r="AZ39" s="115"/>
+      <c r="BA39" s="115"/>
+      <c r="BB39" s="115"/>
+      <c r="BC39" s="115"/>
+      <c r="BD39" s="116"/>
+      <c r="BE39" s="114"/>
+      <c r="BF39" s="115"/>
+      <c r="BG39" s="115"/>
+      <c r="BH39" s="115"/>
+      <c r="BI39" s="115"/>
+      <c r="BJ39" s="115"/>
+      <c r="BK39" s="116"/>
+      <c r="BL39" s="150"/>
+      <c r="BM39" s="115"/>
+      <c r="BN39" s="115"/>
+      <c r="BO39" s="163"/>
+      <c r="BP39" s="150"/>
+      <c r="BQ39" s="115"/>
+      <c r="BR39" s="161"/>
     </row>
     <row r="40" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="184"/>
+      <c r="A40" s="188"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63"/>
       <c r="D40" s="63"/>
@@ -7494,41 +7484,41 @@
       <c r="AJ40" s="64"/>
       <c r="AK40" s="66"/>
       <c r="AL40" s="67"/>
-      <c r="AM40" s="155"/>
-      <c r="AN40" s="156"/>
-      <c r="AO40" s="156"/>
-      <c r="AP40" s="156"/>
-      <c r="AQ40" s="156"/>
-      <c r="AR40" s="156"/>
-      <c r="AS40" s="156"/>
-      <c r="AT40" s="156"/>
-      <c r="AU40" s="156"/>
-      <c r="AV40" s="156"/>
-      <c r="AW40" s="156"/>
-      <c r="AX40" s="156"/>
-      <c r="AY40" s="156"/>
-      <c r="AZ40" s="156"/>
-      <c r="BA40" s="156"/>
-      <c r="BB40" s="156"/>
-      <c r="BC40" s="156"/>
-      <c r="BD40" s="156"/>
-      <c r="BE40" s="156"/>
-      <c r="BF40" s="156"/>
-      <c r="BG40" s="156"/>
-      <c r="BH40" s="156"/>
-      <c r="BI40" s="156"/>
-      <c r="BJ40" s="156"/>
-      <c r="BK40" s="156"/>
-      <c r="BL40" s="156"/>
-      <c r="BM40" s="156"/>
-      <c r="BN40" s="156"/>
-      <c r="BO40" s="156"/>
-      <c r="BP40" s="156"/>
-      <c r="BQ40" s="156"/>
-      <c r="BR40" s="157"/>
+      <c r="AM40" s="157"/>
+      <c r="AN40" s="158"/>
+      <c r="AO40" s="158"/>
+      <c r="AP40" s="158"/>
+      <c r="AQ40" s="158"/>
+      <c r="AR40" s="158"/>
+      <c r="AS40" s="158"/>
+      <c r="AT40" s="158"/>
+      <c r="AU40" s="158"/>
+      <c r="AV40" s="158"/>
+      <c r="AW40" s="158"/>
+      <c r="AX40" s="158"/>
+      <c r="AY40" s="158"/>
+      <c r="AZ40" s="158"/>
+      <c r="BA40" s="158"/>
+      <c r="BB40" s="158"/>
+      <c r="BC40" s="158"/>
+      <c r="BD40" s="158"/>
+      <c r="BE40" s="158"/>
+      <c r="BF40" s="158"/>
+      <c r="BG40" s="158"/>
+      <c r="BH40" s="158"/>
+      <c r="BI40" s="158"/>
+      <c r="BJ40" s="158"/>
+      <c r="BK40" s="158"/>
+      <c r="BL40" s="158"/>
+      <c r="BM40" s="158"/>
+      <c r="BN40" s="158"/>
+      <c r="BO40" s="158"/>
+      <c r="BP40" s="158"/>
+      <c r="BQ40" s="158"/>
+      <c r="BR40" s="159"/>
     </row>
     <row r="41" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="182" t="s">
+      <c r="A41" s="186" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="45"/>
@@ -7568,113 +7558,113 @@
       <c r="AJ41" s="44"/>
       <c r="AK41" s="45"/>
       <c r="AL41" s="46"/>
-      <c r="AM41" s="113"/>
-      <c r="AN41" s="114"/>
-      <c r="AO41" s="115"/>
-      <c r="AP41" s="116"/>
-      <c r="AQ41" s="121"/>
-      <c r="AR41" s="122"/>
-      <c r="AS41" s="122"/>
-      <c r="AT41" s="122"/>
-      <c r="AU41" s="122"/>
-      <c r="AV41" s="122"/>
-      <c r="AW41" s="122"/>
-      <c r="AX41" s="122"/>
-      <c r="AY41" s="122"/>
-      <c r="AZ41" s="122"/>
-      <c r="BA41" s="122"/>
-      <c r="BB41" s="122"/>
-      <c r="BC41" s="122"/>
-      <c r="BD41" s="123"/>
-      <c r="BE41" s="121"/>
-      <c r="BF41" s="122"/>
-      <c r="BG41" s="122"/>
-      <c r="BH41" s="122"/>
-      <c r="BI41" s="122"/>
-      <c r="BJ41" s="122"/>
-      <c r="BK41" s="123"/>
-      <c r="BL41" s="147"/>
-      <c r="BM41" s="122"/>
-      <c r="BN41" s="122"/>
-      <c r="BO41" s="160"/>
-      <c r="BP41" s="147"/>
-      <c r="BQ41" s="122"/>
-      <c r="BR41" s="158"/>
+      <c r="AM41" s="103"/>
+      <c r="AN41" s="104"/>
+      <c r="AO41" s="105"/>
+      <c r="AP41" s="106"/>
+      <c r="AQ41" s="111"/>
+      <c r="AR41" s="112"/>
+      <c r="AS41" s="112"/>
+      <c r="AT41" s="112"/>
+      <c r="AU41" s="112"/>
+      <c r="AV41" s="112"/>
+      <c r="AW41" s="112"/>
+      <c r="AX41" s="112"/>
+      <c r="AY41" s="112"/>
+      <c r="AZ41" s="112"/>
+      <c r="BA41" s="112"/>
+      <c r="BB41" s="112"/>
+      <c r="BC41" s="112"/>
+      <c r="BD41" s="113"/>
+      <c r="BE41" s="111"/>
+      <c r="BF41" s="112"/>
+      <c r="BG41" s="112"/>
+      <c r="BH41" s="112"/>
+      <c r="BI41" s="112"/>
+      <c r="BJ41" s="112"/>
+      <c r="BK41" s="113"/>
+      <c r="BL41" s="149"/>
+      <c r="BM41" s="112"/>
+      <c r="BN41" s="112"/>
+      <c r="BO41" s="162"/>
+      <c r="BP41" s="149"/>
+      <c r="BQ41" s="112"/>
+      <c r="BR41" s="160"/>
     </row>
     <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="183"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="87"/>
-      <c r="U42" s="87"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="86"/>
-      <c r="X42" s="87"/>
-      <c r="Y42" s="87"/>
-      <c r="Z42" s="87"/>
-      <c r="AA42" s="87"/>
-      <c r="AB42" s="87"/>
-      <c r="AC42" s="88"/>
-      <c r="AD42" s="86"/>
-      <c r="AE42" s="87"/>
-      <c r="AF42" s="87"/>
-      <c r="AG42" s="87"/>
-      <c r="AH42" s="87"/>
-      <c r="AI42" s="87"/>
-      <c r="AJ42" s="88"/>
-      <c r="AK42" s="90"/>
-      <c r="AL42" s="91"/>
-      <c r="AM42" s="117"/>
-      <c r="AN42" s="118"/>
-      <c r="AO42" s="119"/>
-      <c r="AP42" s="120"/>
-      <c r="AQ42" s="124"/>
-      <c r="AR42" s="125"/>
-      <c r="AS42" s="125"/>
-      <c r="AT42" s="125"/>
-      <c r="AU42" s="125"/>
-      <c r="AV42" s="125"/>
-      <c r="AW42" s="125"/>
-      <c r="AX42" s="125"/>
-      <c r="AY42" s="125"/>
-      <c r="AZ42" s="125"/>
-      <c r="BA42" s="125"/>
-      <c r="BB42" s="125"/>
-      <c r="BC42" s="125"/>
-      <c r="BD42" s="126"/>
-      <c r="BE42" s="124"/>
-      <c r="BF42" s="125"/>
-      <c r="BG42" s="125"/>
-      <c r="BH42" s="125"/>
-      <c r="BI42" s="125"/>
-      <c r="BJ42" s="125"/>
-      <c r="BK42" s="126"/>
-      <c r="BL42" s="148"/>
-      <c r="BM42" s="125"/>
-      <c r="BN42" s="125"/>
-      <c r="BO42" s="161"/>
-      <c r="BP42" s="148"/>
-      <c r="BQ42" s="125"/>
-      <c r="BR42" s="159"/>
+      <c r="A42" s="187"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="137"/>
+      <c r="L42" s="137"/>
+      <c r="M42" s="137"/>
+      <c r="N42" s="137"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="137"/>
+      <c r="R42" s="137"/>
+      <c r="S42" s="137"/>
+      <c r="T42" s="137"/>
+      <c r="U42" s="137"/>
+      <c r="V42" s="138"/>
+      <c r="W42" s="81"/>
+      <c r="X42" s="137"/>
+      <c r="Y42" s="137"/>
+      <c r="Z42" s="137"/>
+      <c r="AA42" s="137"/>
+      <c r="AB42" s="137"/>
+      <c r="AC42" s="138"/>
+      <c r="AD42" s="81"/>
+      <c r="AE42" s="137"/>
+      <c r="AF42" s="137"/>
+      <c r="AG42" s="137"/>
+      <c r="AH42" s="137"/>
+      <c r="AI42" s="137"/>
+      <c r="AJ42" s="138"/>
+      <c r="AK42" s="139"/>
+      <c r="AL42" s="140"/>
+      <c r="AM42" s="107"/>
+      <c r="AN42" s="108"/>
+      <c r="AO42" s="109"/>
+      <c r="AP42" s="110"/>
+      <c r="AQ42" s="114"/>
+      <c r="AR42" s="115"/>
+      <c r="AS42" s="115"/>
+      <c r="AT42" s="115"/>
+      <c r="AU42" s="115"/>
+      <c r="AV42" s="115"/>
+      <c r="AW42" s="115"/>
+      <c r="AX42" s="115"/>
+      <c r="AY42" s="115"/>
+      <c r="AZ42" s="115"/>
+      <c r="BA42" s="115"/>
+      <c r="BB42" s="115"/>
+      <c r="BC42" s="115"/>
+      <c r="BD42" s="116"/>
+      <c r="BE42" s="114"/>
+      <c r="BF42" s="115"/>
+      <c r="BG42" s="115"/>
+      <c r="BH42" s="115"/>
+      <c r="BI42" s="115"/>
+      <c r="BJ42" s="115"/>
+      <c r="BK42" s="116"/>
+      <c r="BL42" s="150"/>
+      <c r="BM42" s="115"/>
+      <c r="BN42" s="115"/>
+      <c r="BO42" s="163"/>
+      <c r="BP42" s="150"/>
+      <c r="BQ42" s="115"/>
+      <c r="BR42" s="161"/>
     </row>
     <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="185"/>
+      <c r="A43" s="189"/>
       <c r="B43" s="75"/>
       <c r="C43" s="76"/>
       <c r="D43" s="76"/>
@@ -7712,44 +7702,44 @@
       <c r="AJ43" s="78"/>
       <c r="AK43" s="75"/>
       <c r="AL43" s="79"/>
-      <c r="AM43" s="240"/>
-      <c r="AN43" s="241"/>
-      <c r="AO43" s="241"/>
-      <c r="AP43" s="241"/>
-      <c r="AQ43" s="241"/>
-      <c r="AR43" s="241"/>
-      <c r="AS43" s="241"/>
-      <c r="AT43" s="241"/>
-      <c r="AU43" s="241"/>
-      <c r="AV43" s="241"/>
-      <c r="AW43" s="241"/>
-      <c r="AX43" s="241"/>
-      <c r="AY43" s="241"/>
-      <c r="AZ43" s="241"/>
-      <c r="BA43" s="241"/>
-      <c r="BB43" s="241"/>
-      <c r="BC43" s="241"/>
-      <c r="BD43" s="241"/>
-      <c r="BE43" s="241"/>
-      <c r="BF43" s="241"/>
-      <c r="BG43" s="241"/>
-      <c r="BH43" s="241"/>
-      <c r="BI43" s="241"/>
-      <c r="BJ43" s="241"/>
-      <c r="BK43" s="241"/>
-      <c r="BL43" s="241"/>
-      <c r="BM43" s="241"/>
-      <c r="BN43" s="241"/>
-      <c r="BO43" s="241"/>
-      <c r="BP43" s="241"/>
-      <c r="BQ43" s="241"/>
-      <c r="BR43" s="242"/>
+      <c r="AM43" s="246"/>
+      <c r="AN43" s="247"/>
+      <c r="AO43" s="247"/>
+      <c r="AP43" s="247"/>
+      <c r="AQ43" s="247"/>
+      <c r="AR43" s="247"/>
+      <c r="AS43" s="247"/>
+      <c r="AT43" s="247"/>
+      <c r="AU43" s="247"/>
+      <c r="AV43" s="247"/>
+      <c r="AW43" s="247"/>
+      <c r="AX43" s="247"/>
+      <c r="AY43" s="247"/>
+      <c r="AZ43" s="247"/>
+      <c r="BA43" s="247"/>
+      <c r="BB43" s="247"/>
+      <c r="BC43" s="247"/>
+      <c r="BD43" s="247"/>
+      <c r="BE43" s="247"/>
+      <c r="BF43" s="247"/>
+      <c r="BG43" s="247"/>
+      <c r="BH43" s="247"/>
+      <c r="BI43" s="247"/>
+      <c r="BJ43" s="247"/>
+      <c r="BK43" s="247"/>
+      <c r="BL43" s="247"/>
+      <c r="BM43" s="247"/>
+      <c r="BN43" s="247"/>
+      <c r="BO43" s="247"/>
+      <c r="BP43" s="247"/>
+      <c r="BQ43" s="247"/>
+      <c r="BR43" s="248"/>
     </row>
     <row r="44" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="211" t="s">
+      <c r="A44" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="212"/>
+      <c r="B44" s="215"/>
       <c r="C44" s="3"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -7783,11 +7773,11 @@
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
       <c r="AI44" s="74"/>
-      <c r="AJ44" s="253" t="s">
+      <c r="AJ44" s="216" t="s">
         <v>62</v>
       </c>
-      <c r="AK44" s="254"/>
-      <c r="AL44" s="255"/>
+      <c r="AK44" s="217"/>
+      <c r="AL44" s="218"/>
       <c r="AM44" s="28"/>
       <c r="AN44" s="29"/>
       <c r="AO44" s="30"/>
@@ -7891,78 +7881,75 @@
       <c r="BO45" s="13"/>
       <c r="BP45" s="13"/>
       <c r="BQ45" s="13"/>
-      <c r="BR45" s="110"/>
+      <c r="BR45" s="100"/>
     </row>
     <row r="46" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="210" t="s">
+      <c r="A46" s="219" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="210"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="194" t="s">
+      <c r="B46" s="219"/>
+      <c r="C46" s="219"/>
+      <c r="D46" s="212" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="213"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="212" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="195"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="194" t="s">
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="212" t="s">
+        <v>156</v>
+      </c>
+      <c r="M46" s="213"/>
+      <c r="N46" s="213"/>
+      <c r="O46" s="124"/>
+      <c r="P46" s="212" t="s">
         <v>164</v>
       </c>
-      <c r="I46" s="195"/>
-      <c r="J46" s="195"/>
-      <c r="K46" s="134"/>
-      <c r="L46" s="194" t="s">
-        <v>157</v>
-      </c>
-      <c r="M46" s="195"/>
-      <c r="N46" s="195"/>
-      <c r="O46" s="134"/>
-      <c r="P46" s="194" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q46" s="195"/>
-      <c r="R46" s="195"/>
-      <c r="S46" s="134"/>
-      <c r="T46" s="249"/>
-      <c r="U46" s="249"/>
-      <c r="V46" s="249"/>
-      <c r="W46" s="250"/>
-      <c r="X46" s="252"/>
-      <c r="Y46" s="252"/>
-      <c r="Z46" s="252"/>
-      <c r="AA46" s="250"/>
+      <c r="Q46" s="213"/>
+      <c r="R46" s="213"/>
+      <c r="S46" s="124"/>
+      <c r="T46" s="127"/>
+      <c r="U46" s="127"/>
+      <c r="V46" s="127"/>
+      <c r="W46" s="126"/>
+      <c r="AA46" s="126"/>
       <c r="AB46" s="21"/>
       <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
-      <c r="AM46" s="140" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN46" s="140"/>
-      <c r="AO46" s="140"/>
-      <c r="AP46" s="139"/>
-      <c r="AQ46" s="139"/>
-      <c r="AR46" s="139"/>
-      <c r="AS46" s="139"/>
+      <c r="AM46" s="142" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN46" s="142"/>
+      <c r="AO46" s="142"/>
+      <c r="AP46" s="141"/>
+      <c r="AQ46" s="141"/>
+      <c r="AR46" s="141"/>
+      <c r="AS46" s="141"/>
       <c r="AT46" s="11"/>
-      <c r="AU46" s="140" t="s">
-        <v>137</v>
-      </c>
-      <c r="AV46" s="140"/>
-      <c r="AW46" s="140"/>
-      <c r="AX46" s="144"/>
-      <c r="AY46" s="145"/>
-      <c r="AZ46" s="145"/>
-      <c r="BA46" s="146"/>
-      <c r="BC46" s="141" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD46" s="142"/>
-      <c r="BE46" s="142"/>
-      <c r="BF46" s="143"/>
-      <c r="BG46" s="140"/>
-      <c r="BH46" s="140"/>
-      <c r="BI46" s="140"/>
-      <c r="BJ46" s="140"/>
+      <c r="AU46" s="142" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV46" s="142"/>
+      <c r="AW46" s="142"/>
+      <c r="AX46" s="146"/>
+      <c r="AY46" s="147"/>
+      <c r="AZ46" s="147"/>
+      <c r="BA46" s="148"/>
+      <c r="BC46" s="143" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD46" s="144"/>
+      <c r="BE46" s="144"/>
+      <c r="BF46" s="145"/>
+      <c r="BG46" s="142"/>
+      <c r="BH46" s="142"/>
+      <c r="BI46" s="142"/>
+      <c r="BJ46" s="142"/>
       <c r="BK46" s="13"/>
       <c r="BL46" s="13"/>
       <c r="BM46" s="13"/>
@@ -7970,65 +7957,65 @@
       <c r="BO46" s="13"/>
       <c r="BP46" s="13"/>
       <c r="BQ46" s="13"/>
-      <c r="BR46" s="110"/>
+      <c r="BR46" s="100"/>
     </row>
     <row r="47" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="210" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="210"/>
-      <c r="C47" s="210"/>
-      <c r="D47" s="194" t="s">
+      <c r="A47" s="219" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="219"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="212" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="213"/>
+      <c r="F47" s="213"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="212" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="195"/>
-      <c r="F47" s="195"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="194" t="s">
-        <v>141</v>
-      </c>
-      <c r="I47" s="195"/>
-      <c r="J47" s="195"/>
-      <c r="K47" s="134"/>
-      <c r="L47" s="194" t="s">
-        <v>153</v>
-      </c>
-      <c r="M47" s="195"/>
-      <c r="N47" s="195"/>
-      <c r="O47" s="134"/>
-      <c r="P47" s="194" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q47" s="195"/>
-      <c r="R47" s="195"/>
-      <c r="S47" s="134"/>
-      <c r="T47" s="194" t="s">
+      <c r="I47" s="213"/>
+      <c r="J47" s="213"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="212" t="s">
+        <v>152</v>
+      </c>
+      <c r="M47" s="213"/>
+      <c r="N47" s="213"/>
+      <c r="O47" s="124"/>
+      <c r="P47" s="212" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q47" s="213"/>
+      <c r="R47" s="213"/>
+      <c r="S47" s="124"/>
+      <c r="T47" s="212" t="s">
+        <v>146</v>
+      </c>
+      <c r="U47" s="213"/>
+      <c r="V47" s="213"/>
+      <c r="W47" s="124"/>
+      <c r="X47" s="212" t="s">
         <v>147</v>
       </c>
-      <c r="U47" s="195"/>
-      <c r="V47" s="195"/>
-      <c r="W47" s="134"/>
-      <c r="X47" s="194" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y47" s="195"/>
-      <c r="Z47" s="195"/>
-      <c r="AA47" s="134"/>
-      <c r="AB47" s="194" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC47" s="195"/>
-      <c r="AD47" s="196"/>
-      <c r="AE47" s="138"/>
-      <c r="AM47" s="140" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN47" s="140"/>
-      <c r="AO47" s="140"/>
-      <c r="AP47" s="139"/>
-      <c r="AQ47" s="139"/>
-      <c r="AR47" s="139"/>
-      <c r="AS47" s="139"/>
+      <c r="Y47" s="213"/>
+      <c r="Z47" s="213"/>
+      <c r="AA47" s="124"/>
+      <c r="AB47" s="212" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC47" s="213"/>
+      <c r="AD47" s="220"/>
+      <c r="AE47" s="128"/>
+      <c r="AM47" s="142" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN47" s="142"/>
+      <c r="AO47" s="142"/>
+      <c r="AP47" s="141"/>
+      <c r="AQ47" s="141"/>
+      <c r="AR47" s="141"/>
+      <c r="AS47" s="141"/>
       <c r="AT47" s="11"/>
       <c r="AU47" s="11"/>
       <c r="AV47" s="11"/>
@@ -8036,16 +8023,16 @@
       <c r="AX47" s="11"/>
       <c r="AY47" s="11"/>
       <c r="AZ47" s="11"/>
-      <c r="BC47" s="141" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD47" s="142"/>
-      <c r="BE47" s="142"/>
-      <c r="BF47" s="143"/>
-      <c r="BG47" s="140"/>
-      <c r="BH47" s="140"/>
-      <c r="BI47" s="140"/>
-      <c r="BJ47" s="140"/>
+      <c r="BC47" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD47" s="144"/>
+      <c r="BE47" s="144"/>
+      <c r="BF47" s="145"/>
+      <c r="BG47" s="142"/>
+      <c r="BH47" s="142"/>
+      <c r="BI47" s="142"/>
+      <c r="BJ47" s="142"/>
       <c r="BK47" s="13"/>
       <c r="BL47" s="13"/>
       <c r="BM47" s="13"/>
@@ -8053,64 +8040,64 @@
       <c r="BO47" s="13"/>
       <c r="BP47" s="13"/>
       <c r="BQ47" s="13"/>
-      <c r="BR47" s="110"/>
+      <c r="BR47" s="100"/>
     </row>
     <row r="48" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="210"/>
-      <c r="B48" s="210"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="194" t="s">
+      <c r="A48" s="219"/>
+      <c r="B48" s="219"/>
+      <c r="C48" s="219"/>
+      <c r="D48" s="212" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="213"/>
+      <c r="F48" s="213"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="212" t="s">
+        <v>141</v>
+      </c>
+      <c r="I48" s="213"/>
+      <c r="J48" s="213"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="212" t="s">
+        <v>153</v>
+      </c>
+      <c r="M48" s="213"/>
+      <c r="N48" s="213"/>
+      <c r="O48" s="124"/>
+      <c r="P48" s="212" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="195"/>
-      <c r="F48" s="195"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="194" t="s">
-        <v>142</v>
-      </c>
-      <c r="I48" s="195"/>
-      <c r="J48" s="195"/>
-      <c r="K48" s="134"/>
-      <c r="L48" s="194" t="s">
+      <c r="Q48" s="213"/>
+      <c r="R48" s="213"/>
+      <c r="S48" s="124"/>
+      <c r="T48" s="212" t="s">
+        <v>145</v>
+      </c>
+      <c r="U48" s="213"/>
+      <c r="V48" s="213"/>
+      <c r="W48" s="124"/>
+      <c r="X48" s="212" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y48" s="213"/>
+      <c r="Z48" s="213"/>
+      <c r="AA48" s="124"/>
+      <c r="AB48" s="212" t="s">
         <v>154</v>
       </c>
-      <c r="M48" s="195"/>
-      <c r="N48" s="195"/>
-      <c r="O48" s="134"/>
-      <c r="P48" s="194" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q48" s="195"/>
-      <c r="R48" s="195"/>
-      <c r="S48" s="134"/>
-      <c r="T48" s="194" t="s">
-        <v>146</v>
-      </c>
-      <c r="U48" s="195"/>
-      <c r="V48" s="195"/>
-      <c r="W48" s="134"/>
-      <c r="X48" s="194" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y48" s="195"/>
-      <c r="Z48" s="195"/>
-      <c r="AA48" s="134"/>
-      <c r="AB48" s="194" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC48" s="195"/>
-      <c r="AD48" s="196"/>
-      <c r="AE48" s="138"/>
+      <c r="AC48" s="213"/>
+      <c r="AD48" s="220"/>
+      <c r="AE48" s="128"/>
       <c r="AJ48" s="4"/>
-      <c r="AM48" s="140" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN48" s="140"/>
-      <c r="AO48" s="140"/>
-      <c r="AP48" s="139"/>
-      <c r="AQ48" s="139"/>
-      <c r="AR48" s="139"/>
-      <c r="AS48" s="139"/>
+      <c r="AM48" s="142" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN48" s="142"/>
+      <c r="AO48" s="142"/>
+      <c r="AP48" s="141"/>
+      <c r="AQ48" s="141"/>
+      <c r="AR48" s="141"/>
+      <c r="AS48" s="141"/>
       <c r="AT48" s="11"/>
       <c r="AU48" s="11"/>
       <c r="AV48" s="11"/>
@@ -8118,16 +8105,16 @@
       <c r="AX48" s="11"/>
       <c r="AY48" s="11"/>
       <c r="AZ48" s="11"/>
-      <c r="BC48" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD48" s="142"/>
-      <c r="BE48" s="142"/>
-      <c r="BF48" s="143"/>
-      <c r="BG48" s="140"/>
-      <c r="BH48" s="140"/>
-      <c r="BI48" s="140"/>
-      <c r="BJ48" s="140"/>
+      <c r="BC48" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD48" s="144"/>
+      <c r="BE48" s="144"/>
+      <c r="BF48" s="145"/>
+      <c r="BG48" s="142"/>
+      <c r="BH48" s="142"/>
+      <c r="BI48" s="142"/>
+      <c r="BJ48" s="142"/>
       <c r="BK48" s="13"/>
       <c r="BL48" s="13"/>
       <c r="BM48" s="13"/>
@@ -8135,53 +8122,53 @@
       <c r="BO48" s="13"/>
       <c r="BP48" s="13"/>
       <c r="BQ48" s="13"/>
-      <c r="BR48" s="110"/>
+      <c r="BR48" s="100"/>
     </row>
     <row r="49" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="197" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="198"/>
-      <c r="C49" s="199"/>
-      <c r="D49" s="194" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="195"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="I49" s="195"/>
-      <c r="J49" s="195"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="194" t="s">
-        <v>139</v>
-      </c>
-      <c r="M49" s="195"/>
-      <c r="N49" s="195"/>
-      <c r="O49" s="134"/>
-      <c r="P49" s="137"/>
-      <c r="Q49" s="137"/>
-      <c r="R49" s="137"/>
-      <c r="S49" s="136"/>
-      <c r="T49" s="137"/>
-      <c r="U49" s="137"/>
-      <c r="V49" s="137"/>
-      <c r="W49" s="136"/>
-      <c r="X49" s="137"/>
-      <c r="Y49" s="137"/>
-      <c r="Z49" s="137"/>
-      <c r="AA49" s="136"/>
-      <c r="AM49" s="140" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN49" s="140"/>
-      <c r="AO49" s="140"/>
-      <c r="AP49" s="139"/>
-      <c r="AQ49" s="139"/>
-      <c r="AR49" s="139"/>
-      <c r="AS49" s="139"/>
+      <c r="A49" s="198" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="199"/>
+      <c r="C49" s="200"/>
+      <c r="D49" s="212" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="213"/>
+      <c r="F49" s="213"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="212" t="s">
+        <v>148</v>
+      </c>
+      <c r="I49" s="213"/>
+      <c r="J49" s="213"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="212" t="s">
+        <v>138</v>
+      </c>
+      <c r="M49" s="213"/>
+      <c r="N49" s="213"/>
+      <c r="O49" s="124"/>
+      <c r="P49" s="127"/>
+      <c r="Q49" s="127"/>
+      <c r="R49" s="127"/>
+      <c r="S49" s="126"/>
+      <c r="T49" s="127"/>
+      <c r="U49" s="127"/>
+      <c r="V49" s="127"/>
+      <c r="W49" s="126"/>
+      <c r="X49" s="127"/>
+      <c r="Y49" s="127"/>
+      <c r="Z49" s="127"/>
+      <c r="AA49" s="126"/>
+      <c r="AM49" s="142" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN49" s="142"/>
+      <c r="AO49" s="142"/>
+      <c r="AP49" s="141"/>
+      <c r="AQ49" s="141"/>
+      <c r="AR49" s="141"/>
+      <c r="AS49" s="141"/>
       <c r="AT49" s="11"/>
       <c r="AU49" s="11"/>
       <c r="AV49" s="11"/>
@@ -8189,16 +8176,16 @@
       <c r="AX49" s="11"/>
       <c r="AY49" s="11"/>
       <c r="AZ49" s="11"/>
-      <c r="BC49" s="141" t="s">
-        <v>69</v>
-      </c>
-      <c r="BD49" s="142"/>
-      <c r="BE49" s="142"/>
-      <c r="BF49" s="143"/>
-      <c r="BG49" s="140"/>
-      <c r="BH49" s="140"/>
-      <c r="BI49" s="140"/>
-      <c r="BJ49" s="140"/>
+      <c r="BC49" s="143" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD49" s="144"/>
+      <c r="BE49" s="144"/>
+      <c r="BF49" s="145"/>
+      <c r="BG49" s="142"/>
+      <c r="BH49" s="142"/>
+      <c r="BI49" s="142"/>
+      <c r="BJ49" s="142"/>
       <c r="BK49" s="13"/>
       <c r="BL49" s="13"/>
       <c r="BM49" s="13"/>
@@ -8206,48 +8193,48 @@
       <c r="BO49" s="13"/>
       <c r="BP49" s="13"/>
       <c r="BQ49" s="13"/>
-      <c r="BR49" s="110"/>
+      <c r="BR49" s="100"/>
     </row>
     <row r="50" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="200"/>
-      <c r="B50" s="201"/>
-      <c r="C50" s="202"/>
-      <c r="D50" s="194" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="195"/>
-      <c r="F50" s="195"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="194" t="s">
-        <v>150</v>
-      </c>
-      <c r="I50" s="195"/>
-      <c r="J50" s="195"/>
-      <c r="K50" s="134"/>
-      <c r="L50" s="194" t="s">
-        <v>139</v>
-      </c>
-      <c r="M50" s="195"/>
-      <c r="N50" s="195"/>
-      <c r="O50" s="134"/>
-      <c r="P50" s="137"/>
-      <c r="Q50" s="137"/>
-      <c r="R50" s="137"/>
-      <c r="S50" s="136"/>
-      <c r="T50" s="137"/>
-      <c r="U50" s="137"/>
-      <c r="V50" s="137"/>
-      <c r="W50" s="136"/>
-      <c r="X50" s="137"/>
-      <c r="Y50" s="137"/>
-      <c r="Z50" s="137"/>
-      <c r="AA50" s="136"/>
-      <c r="AB50" s="135"/>
+      <c r="A50" s="201"/>
+      <c r="B50" s="202"/>
+      <c r="C50" s="203"/>
+      <c r="D50" s="212" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="213"/>
+      <c r="F50" s="213"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="212" t="s">
+        <v>149</v>
+      </c>
+      <c r="I50" s="213"/>
+      <c r="J50" s="213"/>
+      <c r="K50" s="124"/>
+      <c r="L50" s="212" t="s">
+        <v>138</v>
+      </c>
+      <c r="M50" s="213"/>
+      <c r="N50" s="213"/>
+      <c r="O50" s="124"/>
+      <c r="P50" s="127"/>
+      <c r="Q50" s="127"/>
+      <c r="R50" s="127"/>
+      <c r="S50" s="126"/>
+      <c r="T50" s="127"/>
+      <c r="U50" s="127"/>
+      <c r="V50" s="127"/>
+      <c r="W50" s="126"/>
+      <c r="X50" s="127"/>
+      <c r="Y50" s="127"/>
+      <c r="Z50" s="127"/>
+      <c r="AA50" s="126"/>
+      <c r="AB50" s="125"/>
       <c r="AC50" s="21"/>
       <c r="AD50" s="21"/>
-      <c r="AM50" s="132"/>
-      <c r="AN50" s="132"/>
-      <c r="AO50" s="132"/>
+      <c r="AM50" s="122"/>
+      <c r="AN50" s="122"/>
+      <c r="AO50" s="122"/>
       <c r="AP50" s="11"/>
       <c r="AQ50" s="11"/>
       <c r="AR50" s="11"/>
@@ -8259,16 +8246,16 @@
       <c r="AX50" s="11"/>
       <c r="AY50" s="11"/>
       <c r="AZ50" s="11"/>
-      <c r="BC50" s="141" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD50" s="142"/>
-      <c r="BE50" s="142"/>
-      <c r="BF50" s="143"/>
-      <c r="BG50" s="140"/>
-      <c r="BH50" s="140"/>
-      <c r="BI50" s="140"/>
-      <c r="BJ50" s="140"/>
+      <c r="BC50" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD50" s="144"/>
+      <c r="BE50" s="144"/>
+      <c r="BF50" s="145"/>
+      <c r="BG50" s="142"/>
+      <c r="BH50" s="142"/>
+      <c r="BI50" s="142"/>
+      <c r="BJ50" s="142"/>
       <c r="BK50" s="13"/>
       <c r="BL50" s="13"/>
       <c r="BM50" s="13"/>
@@ -8276,54 +8263,54 @@
       <c r="BO50" s="13"/>
       <c r="BP50" s="13"/>
       <c r="BQ50" s="13"/>
-      <c r="BR50" s="110"/>
+      <c r="BR50" s="100"/>
     </row>
     <row r="51" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="207" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="208"/>
-      <c r="C51" s="209"/>
-      <c r="D51" s="194" t="s">
+      <c r="A51" s="209" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="210"/>
+      <c r="C51" s="211"/>
+      <c r="D51" s="212" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="213"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="212" t="s">
         <v>158</v>
       </c>
-      <c r="E51" s="195"/>
-      <c r="F51" s="195"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="194" t="s">
+      <c r="I51" s="213"/>
+      <c r="J51" s="213"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="212" t="s">
         <v>159</v>
       </c>
-      <c r="I51" s="195"/>
-      <c r="J51" s="195"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="194" t="s">
+      <c r="M51" s="213"/>
+      <c r="N51" s="213"/>
+      <c r="O51" s="124"/>
+      <c r="P51" s="204" t="s">
         <v>160</v>
       </c>
-      <c r="M51" s="195"/>
-      <c r="N51" s="195"/>
-      <c r="O51" s="134"/>
-      <c r="P51" s="246" t="s">
+      <c r="Q51" s="204"/>
+      <c r="R51" s="204"/>
+      <c r="S51" s="129"/>
+      <c r="T51" s="204" t="s">
         <v>161</v>
       </c>
-      <c r="Q51" s="246"/>
-      <c r="R51" s="246"/>
-      <c r="S51" s="247"/>
-      <c r="T51" s="246" t="s">
-        <v>162</v>
-      </c>
-      <c r="U51" s="246"/>
-      <c r="V51" s="246"/>
-      <c r="W51" s="248"/>
-      <c r="X51" s="251"/>
-      <c r="Y51" s="249"/>
-      <c r="Z51" s="249"/>
-      <c r="AA51" s="250"/>
-      <c r="AB51" s="135"/>
+      <c r="U51" s="204"/>
+      <c r="V51" s="204"/>
+      <c r="W51" s="130"/>
+      <c r="X51" s="131"/>
+      <c r="Y51" s="127"/>
+      <c r="Z51" s="127"/>
+      <c r="AA51" s="126"/>
+      <c r="AB51" s="125"/>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
-      <c r="AM51" s="132"/>
-      <c r="AN51" s="132"/>
-      <c r="AO51" s="132"/>
+      <c r="AM51" s="122"/>
+      <c r="AN51" s="122"/>
+      <c r="AO51" s="122"/>
       <c r="AP51" s="11"/>
       <c r="AQ51" s="11"/>
       <c r="AR51" s="11"/>
@@ -8335,14 +8322,14 @@
       <c r="AX51" s="11"/>
       <c r="AY51" s="11"/>
       <c r="AZ51" s="11"/>
-      <c r="BC51" s="133"/>
-      <c r="BD51" s="133"/>
-      <c r="BE51" s="133"/>
-      <c r="BF51" s="133"/>
-      <c r="BG51" s="133"/>
-      <c r="BH51" s="133"/>
-      <c r="BI51" s="133"/>
-      <c r="BJ51" s="133"/>
+      <c r="BC51" s="123"/>
+      <c r="BD51" s="123"/>
+      <c r="BE51" s="123"/>
+      <c r="BF51" s="123"/>
+      <c r="BG51" s="123"/>
+      <c r="BH51" s="123"/>
+      <c r="BI51" s="123"/>
+      <c r="BJ51" s="123"/>
       <c r="BK51" s="13"/>
       <c r="BL51" s="13"/>
       <c r="BM51" s="13"/>
@@ -8350,7 +8337,7 @@
       <c r="BO51" s="13"/>
       <c r="BP51" s="13"/>
       <c r="BQ51" s="13"/>
-      <c r="BR51" s="110"/>
+      <c r="BR51" s="100"/>
     </row>
     <row r="52" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
@@ -8367,10 +8354,10 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="AI52" s="203"/>
-      <c r="AJ52" s="203"/>
+      <c r="AI52" s="205"/>
+      <c r="AJ52" s="205"/>
       <c r="AK52" s="4"/>
-      <c r="BR52" s="108"/>
+      <c r="BR52" s="98"/>
     </row>
     <row r="53" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
@@ -8442,7 +8429,7 @@
       <c r="BO53" s="18"/>
       <c r="BP53" s="18"/>
       <c r="BQ53" s="18"/>
-      <c r="BR53" s="109"/>
+      <c r="BR53" s="99"/>
     </row>
     <row r="54" spans="1:70" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J54" s="20"/>
@@ -8475,7 +8462,7 @@
     </row>
     <row r="55" spans="1:70" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -8484,359 +8471,363 @@
       <c r="A56" s="24">
         <v>1</v>
       </c>
-      <c r="B56" s="189" t="s">
+      <c r="B56" s="193" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="193"/>
+      <c r="D56" s="193"/>
+      <c r="E56" s="194" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="189"/>
-      <c r="D56" s="189"/>
-      <c r="E56" s="190" t="s">
+      <c r="F56" s="194"/>
+      <c r="G56" s="194"/>
+      <c r="H56" s="194"/>
+      <c r="I56" s="194"/>
+      <c r="J56" s="194"/>
+      <c r="K56" s="194"/>
+      <c r="N56" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F56" s="190"/>
-      <c r="G56" s="190"/>
-      <c r="H56" s="190"/>
-      <c r="I56" s="190"/>
-      <c r="J56" s="190"/>
-      <c r="K56" s="190"/>
-      <c r="N56" s="24" t="s">
+      <c r="O56" s="195" t="s">
         <v>76</v>
       </c>
-      <c r="O56" s="191" t="s">
+      <c r="P56" s="196"/>
+      <c r="Q56" s="197"/>
+      <c r="R56" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="P56" s="192"/>
-      <c r="Q56" s="193"/>
-      <c r="R56" s="190" t="s">
+      <c r="S56" s="194"/>
+      <c r="T56" s="194"/>
+      <c r="U56" s="194"/>
+      <c r="V56" s="194"/>
+      <c r="W56" s="194"/>
+      <c r="X56" s="194"/>
+      <c r="AA56" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="S56" s="190"/>
-      <c r="T56" s="190"/>
-      <c r="U56" s="190"/>
-      <c r="V56" s="190"/>
-      <c r="W56" s="190"/>
-      <c r="X56" s="190"/>
-      <c r="AA56" s="24" t="s">
+      <c r="AB56" s="206" t="s">
         <v>79</v>
       </c>
-      <c r="AB56" s="204" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC56" s="205"/>
-      <c r="AD56" s="205"/>
-      <c r="AE56" s="205"/>
-      <c r="AF56" s="205"/>
-      <c r="AG56" s="205"/>
-      <c r="AH56" s="205"/>
-      <c r="AI56" s="205"/>
-      <c r="AJ56" s="205"/>
-      <c r="AK56" s="205"/>
-      <c r="AL56" s="205"/>
-      <c r="AM56" s="206"/>
+      <c r="AC56" s="207"/>
+      <c r="AD56" s="207"/>
+      <c r="AE56" s="207"/>
+      <c r="AF56" s="207"/>
+      <c r="AG56" s="207"/>
+      <c r="AH56" s="207"/>
+      <c r="AI56" s="207"/>
+      <c r="AJ56" s="207"/>
+      <c r="AK56" s="207"/>
+      <c r="AL56" s="207"/>
+      <c r="AM56" s="208"/>
     </row>
     <row r="57" spans="1:70" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>2</v>
       </c>
-      <c r="B57" s="189" t="s">
+      <c r="B57" s="193" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="193"/>
+      <c r="D57" s="193"/>
+      <c r="E57" s="194" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="189"/>
-      <c r="D57" s="189"/>
-      <c r="E57" s="190" t="s">
+      <c r="F57" s="194"/>
+      <c r="G57" s="194"/>
+      <c r="H57" s="194"/>
+      <c r="I57" s="194"/>
+      <c r="J57" s="194"/>
+      <c r="K57" s="194"/>
+      <c r="N57" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="190"/>
-      <c r="G57" s="190"/>
-      <c r="H57" s="190"/>
-      <c r="I57" s="190"/>
-      <c r="J57" s="190"/>
-      <c r="K57" s="190"/>
-      <c r="N57" s="24" t="s">
+      <c r="O57" s="195" t="s">
         <v>83</v>
       </c>
-      <c r="O57" s="191" t="s">
+      <c r="P57" s="196"/>
+      <c r="Q57" s="197"/>
+      <c r="R57" s="194" t="s">
         <v>84</v>
       </c>
-      <c r="P57" s="192"/>
-      <c r="Q57" s="193"/>
-      <c r="R57" s="190" t="s">
+      <c r="S57" s="194"/>
+      <c r="T57" s="194"/>
+      <c r="U57" s="194"/>
+      <c r="V57" s="194"/>
+      <c r="W57" s="194"/>
+      <c r="X57" s="194"/>
+      <c r="AA57" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="S57" s="190"/>
-      <c r="T57" s="190"/>
-      <c r="U57" s="190"/>
-      <c r="V57" s="190"/>
-      <c r="W57" s="190"/>
-      <c r="X57" s="190"/>
-      <c r="AA57" s="24" t="s">
+      <c r="AB57" s="193" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC57" s="193"/>
+      <c r="AD57" s="193"/>
+      <c r="AE57" s="194" t="s">
         <v>86</v>
       </c>
-      <c r="AB57" s="189" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC57" s="189"/>
-      <c r="AD57" s="189"/>
-      <c r="AE57" s="190" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF57" s="190"/>
-      <c r="AG57" s="190"/>
-      <c r="AH57" s="190"/>
-      <c r="AI57" s="190"/>
-      <c r="AJ57" s="190"/>
-      <c r="AK57" s="190"/>
-      <c r="AL57" s="190"/>
-      <c r="AM57" s="190"/>
+      <c r="AF57" s="194"/>
+      <c r="AG57" s="194"/>
+      <c r="AH57" s="194"/>
+      <c r="AI57" s="194"/>
+      <c r="AJ57" s="194"/>
+      <c r="AK57" s="194"/>
+      <c r="AL57" s="194"/>
+      <c r="AM57" s="194"/>
     </row>
     <row r="58" spans="1:70" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>3</v>
       </c>
-      <c r="B58" s="189" t="s">
+      <c r="B58" s="193" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="193"/>
+      <c r="D58" s="193"/>
+      <c r="E58" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="189"/>
-      <c r="D58" s="189"/>
-      <c r="E58" s="190" t="s">
+      <c r="F58" s="194"/>
+      <c r="G58" s="194"/>
+      <c r="H58" s="194"/>
+      <c r="I58" s="194"/>
+      <c r="J58" s="194"/>
+      <c r="K58" s="194"/>
+      <c r="N58" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F58" s="190"/>
-      <c r="G58" s="190"/>
-      <c r="H58" s="190"/>
-      <c r="I58" s="190"/>
-      <c r="J58" s="190"/>
-      <c r="K58" s="190"/>
-      <c r="N58" s="24" t="s">
+      <c r="O58" s="195" t="s">
         <v>90</v>
       </c>
-      <c r="O58" s="191" t="s">
+      <c r="P58" s="196"/>
+      <c r="Q58" s="197"/>
+      <c r="R58" s="194" t="s">
         <v>91</v>
       </c>
-      <c r="P58" s="192"/>
-      <c r="Q58" s="193"/>
-      <c r="R58" s="190" t="s">
+      <c r="S58" s="194"/>
+      <c r="T58" s="194"/>
+      <c r="U58" s="194"/>
+      <c r="V58" s="194"/>
+      <c r="W58" s="194"/>
+      <c r="X58" s="194"/>
+      <c r="AA58" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="S58" s="190"/>
-      <c r="T58" s="190"/>
-      <c r="U58" s="190"/>
-      <c r="V58" s="190"/>
-      <c r="W58" s="190"/>
-      <c r="X58" s="190"/>
-      <c r="AA58" s="24" t="s">
+      <c r="AB58" s="193" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC58" s="193"/>
+      <c r="AD58" s="193"/>
+      <c r="AE58" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="AB58" s="189" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC58" s="189"/>
-      <c r="AD58" s="189"/>
-      <c r="AE58" s="190" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF58" s="190"/>
-      <c r="AG58" s="190"/>
-      <c r="AH58" s="190"/>
-      <c r="AI58" s="190"/>
-      <c r="AJ58" s="190"/>
-      <c r="AK58" s="190"/>
-      <c r="AL58" s="190"/>
-      <c r="AM58" s="190"/>
+      <c r="AF58" s="194"/>
+      <c r="AG58" s="194"/>
+      <c r="AH58" s="194"/>
+      <c r="AI58" s="194"/>
+      <c r="AJ58" s="194"/>
+      <c r="AK58" s="194"/>
+      <c r="AL58" s="194"/>
+      <c r="AM58" s="194"/>
       <c r="AN58" s="26"/>
     </row>
     <row r="59" spans="1:70" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>4</v>
       </c>
-      <c r="B59" s="189" t="s">
+      <c r="B59" s="193" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="193"/>
+      <c r="D59" s="193"/>
+      <c r="E59" s="194" t="s">
         <v>95</v>
       </c>
-      <c r="C59" s="189"/>
-      <c r="D59" s="189"/>
-      <c r="E59" s="190" t="s">
+      <c r="F59" s="194"/>
+      <c r="G59" s="194"/>
+      <c r="H59" s="194"/>
+      <c r="I59" s="194"/>
+      <c r="J59" s="194"/>
+      <c r="K59" s="194"/>
+      <c r="N59" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="190"/>
-      <c r="G59" s="190"/>
-      <c r="H59" s="190"/>
-      <c r="I59" s="190"/>
-      <c r="J59" s="190"/>
-      <c r="K59" s="190"/>
-      <c r="N59" s="24" t="s">
+      <c r="O59" s="195" t="s">
         <v>97</v>
       </c>
-      <c r="O59" s="191" t="s">
+      <c r="P59" s="196"/>
+      <c r="Q59" s="197"/>
+      <c r="R59" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="P59" s="192"/>
-      <c r="Q59" s="193"/>
-      <c r="R59" s="190" t="s">
+      <c r="S59" s="194"/>
+      <c r="T59" s="194"/>
+      <c r="U59" s="194"/>
+      <c r="V59" s="194"/>
+      <c r="W59" s="194"/>
+      <c r="X59" s="194"/>
+      <c r="AA59" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="S59" s="190"/>
-      <c r="T59" s="190"/>
-      <c r="U59" s="190"/>
-      <c r="V59" s="190"/>
-      <c r="W59" s="190"/>
-      <c r="X59" s="190"/>
-      <c r="AA59" s="24" t="s">
+      <c r="AB59" s="193" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC59" s="193"/>
+      <c r="AD59" s="193"/>
+      <c r="AE59" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="AB59" s="189" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC59" s="189"/>
-      <c r="AD59" s="189"/>
-      <c r="AE59" s="190" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF59" s="190"/>
-      <c r="AG59" s="190"/>
-      <c r="AH59" s="190"/>
-      <c r="AI59" s="190"/>
-      <c r="AJ59" s="190"/>
-      <c r="AK59" s="190"/>
-      <c r="AL59" s="190"/>
-      <c r="AM59" s="190"/>
+      <c r="AF59" s="194"/>
+      <c r="AG59" s="194"/>
+      <c r="AH59" s="194"/>
+      <c r="AI59" s="194"/>
+      <c r="AJ59" s="194"/>
+      <c r="AK59" s="194"/>
+      <c r="AL59" s="194"/>
+      <c r="AM59" s="194"/>
       <c r="AN59" s="26"/>
     </row>
     <row r="60" spans="1:70" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>5</v>
       </c>
-      <c r="B60" s="189" t="s">
+      <c r="B60" s="193" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="193"/>
+      <c r="D60" s="193"/>
+      <c r="E60" s="194" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="189"/>
-      <c r="D60" s="189"/>
-      <c r="E60" s="190" t="s">
+      <c r="F60" s="194"/>
+      <c r="G60" s="194"/>
+      <c r="H60" s="194"/>
+      <c r="I60" s="194"/>
+      <c r="J60" s="194"/>
+      <c r="K60" s="194"/>
+      <c r="N60" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F60" s="190"/>
-      <c r="G60" s="190"/>
-      <c r="H60" s="190"/>
-      <c r="I60" s="190"/>
-      <c r="J60" s="190"/>
-      <c r="K60" s="190"/>
-      <c r="N60" s="24" t="s">
+      <c r="O60" s="195" t="s">
         <v>104</v>
       </c>
-      <c r="O60" s="191" t="s">
+      <c r="P60" s="196"/>
+      <c r="Q60" s="197"/>
+      <c r="R60" s="194" t="s">
         <v>105</v>
       </c>
-      <c r="P60" s="192"/>
-      <c r="Q60" s="193"/>
-      <c r="R60" s="190" t="s">
+      <c r="S60" s="194"/>
+      <c r="T60" s="194"/>
+      <c r="U60" s="194"/>
+      <c r="V60" s="194"/>
+      <c r="W60" s="194"/>
+      <c r="X60" s="194"/>
+      <c r="AA60" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="S60" s="190"/>
-      <c r="T60" s="190"/>
-      <c r="U60" s="190"/>
-      <c r="V60" s="190"/>
-      <c r="W60" s="190"/>
-      <c r="X60" s="190"/>
-      <c r="AA60" s="24" t="s">
+      <c r="AB60" s="193" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC60" s="193"/>
+      <c r="AD60" s="193"/>
+      <c r="AE60" s="194" t="s">
         <v>107</v>
       </c>
-      <c r="AB60" s="189" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC60" s="189"/>
-      <c r="AD60" s="189"/>
-      <c r="AE60" s="190" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF60" s="190"/>
-      <c r="AG60" s="190"/>
-      <c r="AH60" s="190"/>
-      <c r="AI60" s="190"/>
-      <c r="AJ60" s="190"/>
-      <c r="AK60" s="190"/>
-      <c r="AL60" s="190"/>
-      <c r="AM60" s="190"/>
+      <c r="AF60" s="194"/>
+      <c r="AG60" s="194"/>
+      <c r="AH60" s="194"/>
+      <c r="AI60" s="194"/>
+      <c r="AJ60" s="194"/>
+      <c r="AK60" s="194"/>
+      <c r="AL60" s="194"/>
+      <c r="AM60" s="194"/>
       <c r="AN60" s="26"/>
     </row>
     <row r="61" spans="1:70" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>6</v>
       </c>
-      <c r="B61" s="189" t="s">
+      <c r="B61" s="193" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="193"/>
+      <c r="D61" s="193"/>
+      <c r="E61" s="194" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="189"/>
-      <c r="D61" s="189"/>
-      <c r="E61" s="190" t="s">
+      <c r="F61" s="194"/>
+      <c r="G61" s="194"/>
+      <c r="H61" s="194"/>
+      <c r="I61" s="194"/>
+      <c r="J61" s="194"/>
+      <c r="K61" s="194"/>
+      <c r="N61" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="190"/>
-      <c r="G61" s="190"/>
-      <c r="H61" s="190"/>
-      <c r="I61" s="190"/>
-      <c r="J61" s="190"/>
-      <c r="K61" s="190"/>
-      <c r="N61" s="24" t="s">
+      <c r="O61" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="O61" s="191" t="s">
+      <c r="P61" s="196"/>
+      <c r="Q61" s="197"/>
+      <c r="R61" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="P61" s="192"/>
-      <c r="Q61" s="193"/>
-      <c r="R61" s="190" t="s">
+      <c r="S61" s="194"/>
+      <c r="T61" s="194"/>
+      <c r="U61" s="194"/>
+      <c r="V61" s="194"/>
+      <c r="W61" s="194"/>
+      <c r="X61" s="194"/>
+      <c r="AA61" s="24"/>
+      <c r="AB61" s="193" t="s">
         <v>113</v>
       </c>
-      <c r="S61" s="190"/>
-      <c r="T61" s="190"/>
-      <c r="U61" s="190"/>
-      <c r="V61" s="190"/>
-      <c r="W61" s="190"/>
-      <c r="X61" s="190"/>
-      <c r="AA61" s="24"/>
-      <c r="AB61" s="189" t="s">
+      <c r="AC61" s="193"/>
+      <c r="AD61" s="193"/>
+      <c r="AE61" s="194" t="s">
         <v>114</v>
       </c>
-      <c r="AC61" s="189"/>
-      <c r="AD61" s="189"/>
-      <c r="AE61" s="190" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF61" s="190"/>
-      <c r="AG61" s="190"/>
-      <c r="AH61" s="190"/>
-      <c r="AI61" s="190"/>
-      <c r="AJ61" s="190"/>
-      <c r="AK61" s="190"/>
-      <c r="AL61" s="190"/>
-      <c r="AM61" s="190"/>
+      <c r="AF61" s="194"/>
+      <c r="AG61" s="194"/>
+      <c r="AH61" s="194"/>
+      <c r="AI61" s="194"/>
+      <c r="AJ61" s="194"/>
+      <c r="AK61" s="194"/>
+      <c r="AL61" s="194"/>
+      <c r="AM61" s="194"/>
     </row>
     <row r="62" spans="1:70" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>7</v>
       </c>
-      <c r="B62" s="189" t="s">
+      <c r="B62" s="193" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="193"/>
+      <c r="D62" s="193"/>
+      <c r="E62" s="194" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="189"/>
-      <c r="D62" s="189"/>
-      <c r="E62" s="190" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62" s="190"/>
-      <c r="G62" s="190"/>
-      <c r="H62" s="190"/>
-      <c r="I62" s="190"/>
-      <c r="J62" s="190"/>
-      <c r="K62" s="190"/>
+      <c r="F62" s="194"/>
+      <c r="G62" s="194"/>
+      <c r="H62" s="194"/>
+      <c r="I62" s="194"/>
+      <c r="J62" s="194"/>
+      <c r="K62" s="194"/>
     </row>
     <row r="63" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
       <c r="N63" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="273">
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="AB47:AD47"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="BP29:BP30"/>
+    <mergeCell ref="BP32:BP33"/>
+    <mergeCell ref="BR35:BR36"/>
     <mergeCell ref="AM43:BR43"/>
     <mergeCell ref="AM10:BR10"/>
     <mergeCell ref="AM13:BR13"/>
@@ -8846,20 +8837,6 @@
     <mergeCell ref="AM34:BR34"/>
     <mergeCell ref="P46:R46"/>
     <mergeCell ref="AM46:AO46"/>
-    <mergeCell ref="AP48:AS48"/>
-    <mergeCell ref="AM49:AO49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AM22:BR22"/>
     <mergeCell ref="AM25:BR25"/>
     <mergeCell ref="AM28:BR28"/>
     <mergeCell ref="BP6:BP7"/>
@@ -8872,6 +8849,7 @@
     <mergeCell ref="BG6:BH6"/>
     <mergeCell ref="BL23:BL24"/>
     <mergeCell ref="BO11:BO12"/>
+    <mergeCell ref="BL26:BL27"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="AM1:BR1"/>
     <mergeCell ref="AN4:AP4"/>
@@ -8914,6 +8892,10 @@
     <mergeCell ref="X47:Z47"/>
     <mergeCell ref="AM48:AO48"/>
     <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="AB47:AD47"/>
+    <mergeCell ref="AP48:AS48"/>
     <mergeCell ref="A49:C50"/>
     <mergeCell ref="AB57:AD57"/>
     <mergeCell ref="AE57:AM57"/>
@@ -8933,8 +8915,11 @@
     <mergeCell ref="E57:K57"/>
     <mergeCell ref="O57:Q57"/>
     <mergeCell ref="R57:X57"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="AM49:AO49"/>
+    <mergeCell ref="D49:F49"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="E59:K59"/>
     <mergeCell ref="O59:Q59"/>
@@ -9044,9 +9029,8 @@
     <mergeCell ref="AR5:AS5"/>
     <mergeCell ref="BK6:BK7"/>
     <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="BP29:BP30"/>
-    <mergeCell ref="BP32:BP33"/>
-    <mergeCell ref="BR35:BR36"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="BR38:BR39"/>
     <mergeCell ref="BR41:BR42"/>
     <mergeCell ref="BP11:BP12"/>
@@ -9071,7 +9055,6 @@
     <mergeCell ref="BP35:BP36"/>
     <mergeCell ref="BP38:BP39"/>
     <mergeCell ref="BP41:BP42"/>
-    <mergeCell ref="BL26:BL27"/>
     <mergeCell ref="BL29:BL30"/>
     <mergeCell ref="BL32:BL33"/>
     <mergeCell ref="BN6:BN7"/>
@@ -9092,6 +9075,10 @@
     <mergeCell ref="BP20:BP21"/>
     <mergeCell ref="BP23:BP24"/>
     <mergeCell ref="BP26:BP27"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AM22:BR22"/>
     <mergeCell ref="AP49:AS49"/>
     <mergeCell ref="AU46:AW46"/>
     <mergeCell ref="BC46:BF46"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C544B1C-DB09-406A-A40A-5BEDC382B549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAF3CE8-7CD0-4E3D-8211-1AA2246D5D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -1890,7 +1890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2292,11 +2292,320 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="distributed"/>
@@ -2308,322 +2617,19 @@
       <alignment horizontal="distributed" vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="3" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4378,384 +4384,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="175" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222"/>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="222"/>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="222"/>
-      <c r="AA1" s="222"/>
-      <c r="AB1" s="222"/>
-      <c r="AC1" s="222"/>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="222"/>
-      <c r="AG1" s="222"/>
-      <c r="AH1" s="222"/>
-      <c r="AI1" s="222"/>
-      <c r="AJ1" s="222"/>
-      <c r="AK1" s="222"/>
-      <c r="AL1" s="223"/>
-      <c r="AM1" s="221" t="s">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
+      <c r="AD1" s="176"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="176"/>
+      <c r="AJ1" s="176"/>
+      <c r="AK1" s="176"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="AN1" s="222"/>
-      <c r="AO1" s="222"/>
-      <c r="AP1" s="222"/>
-      <c r="AQ1" s="222"/>
-      <c r="AR1" s="222"/>
-      <c r="AS1" s="222"/>
-      <c r="AT1" s="222"/>
-      <c r="AU1" s="222"/>
-      <c r="AV1" s="222"/>
-      <c r="AW1" s="222"/>
-      <c r="AX1" s="222"/>
-      <c r="AY1" s="222"/>
-      <c r="AZ1" s="222"/>
-      <c r="BA1" s="222"/>
-      <c r="BB1" s="222"/>
-      <c r="BC1" s="222"/>
-      <c r="BD1" s="222"/>
-      <c r="BE1" s="222"/>
-      <c r="BF1" s="222"/>
-      <c r="BG1" s="222"/>
-      <c r="BH1" s="222"/>
-      <c r="BI1" s="222"/>
-      <c r="BJ1" s="222"/>
-      <c r="BK1" s="222"/>
-      <c r="BL1" s="222"/>
-      <c r="BM1" s="222"/>
-      <c r="BN1" s="222"/>
-      <c r="BO1" s="222"/>
-      <c r="BP1" s="222"/>
-      <c r="BQ1" s="222"/>
-      <c r="BR1" s="223"/>
+      <c r="AN1" s="176"/>
+      <c r="AO1" s="176"/>
+      <c r="AP1" s="176"/>
+      <c r="AQ1" s="176"/>
+      <c r="AR1" s="176"/>
+      <c r="AS1" s="176"/>
+      <c r="AT1" s="176"/>
+      <c r="AU1" s="176"/>
+      <c r="AV1" s="176"/>
+      <c r="AW1" s="176"/>
+      <c r="AX1" s="176"/>
+      <c r="AY1" s="176"/>
+      <c r="AZ1" s="176"/>
+      <c r="BA1" s="176"/>
+      <c r="BB1" s="176"/>
+      <c r="BC1" s="176"/>
+      <c r="BD1" s="176"/>
+      <c r="BE1" s="176"/>
+      <c r="BF1" s="176"/>
+      <c r="BG1" s="176"/>
+      <c r="BH1" s="176"/>
+      <c r="BI1" s="176"/>
+      <c r="BJ1" s="176"/>
+      <c r="BK1" s="176"/>
+      <c r="BL1" s="176"/>
+      <c r="BM1" s="176"/>
+      <c r="BN1" s="176"/>
+      <c r="BO1" s="176"/>
+      <c r="BP1" s="176"/>
+      <c r="BQ1" s="176"/>
+      <c r="BR1" s="177"/>
     </row>
     <row r="2" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164" t="s">
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="183"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="164"/>
-      <c r="AH2" s="164"/>
-      <c r="AI2" s="164"/>
-      <c r="AJ2" s="164"/>
-      <c r="AK2" s="164"/>
-      <c r="AL2" s="165"/>
-      <c r="AM2" s="229" t="s">
+      <c r="AD2" s="183"/>
+      <c r="AE2" s="183"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="183"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="183"/>
+      <c r="AJ2" s="183"/>
+      <c r="AK2" s="183"/>
+      <c r="AL2" s="184"/>
+      <c r="AM2" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="AN2" s="164"/>
-      <c r="AO2" s="164"/>
-      <c r="AP2" s="164"/>
-      <c r="AQ2" s="164"/>
-      <c r="AR2" s="164"/>
-      <c r="AS2" s="164"/>
-      <c r="AT2" s="164"/>
-      <c r="AU2" s="164"/>
-      <c r="AV2" s="164"/>
-      <c r="AW2" s="164"/>
-      <c r="AX2" s="164"/>
-      <c r="AY2" s="164"/>
-      <c r="AZ2" s="164"/>
-      <c r="BA2" s="164" t="s">
+      <c r="AN2" s="183"/>
+      <c r="AO2" s="183"/>
+      <c r="AP2" s="183"/>
+      <c r="AQ2" s="183"/>
+      <c r="AR2" s="183"/>
+      <c r="AS2" s="183"/>
+      <c r="AT2" s="183"/>
+      <c r="AU2" s="183"/>
+      <c r="AV2" s="183"/>
+      <c r="AW2" s="183"/>
+      <c r="AX2" s="183"/>
+      <c r="AY2" s="183"/>
+      <c r="AZ2" s="183"/>
+      <c r="BA2" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="164"/>
-      <c r="BC2" s="164"/>
-      <c r="BD2" s="164"/>
-      <c r="BE2" s="164"/>
-      <c r="BF2" s="164"/>
-      <c r="BG2" s="164"/>
-      <c r="BH2" s="164"/>
-      <c r="BI2" s="164"/>
-      <c r="BJ2" s="164" t="s">
+      <c r="BB2" s="183"/>
+      <c r="BC2" s="183"/>
+      <c r="BD2" s="183"/>
+      <c r="BE2" s="183"/>
+      <c r="BF2" s="183"/>
+      <c r="BG2" s="183"/>
+      <c r="BH2" s="183"/>
+      <c r="BI2" s="183"/>
+      <c r="BJ2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="164"/>
-      <c r="BL2" s="164"/>
-      <c r="BM2" s="164"/>
-      <c r="BN2" s="164"/>
-      <c r="BO2" s="164"/>
-      <c r="BP2" s="164"/>
-      <c r="BQ2" s="164"/>
-      <c r="BR2" s="165"/>
+      <c r="BK2" s="183"/>
+      <c r="BL2" s="183"/>
+      <c r="BM2" s="183"/>
+      <c r="BN2" s="183"/>
+      <c r="BO2" s="183"/>
+      <c r="BP2" s="183"/>
+      <c r="BQ2" s="183"/>
+      <c r="BR2" s="184"/>
     </row>
     <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="229" t="s">
+      <c r="A3" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164" t="s">
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164" t="s">
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="164"/>
-      <c r="AJ3" s="164"/>
-      <c r="AK3" s="164"/>
-      <c r="AL3" s="165"/>
-      <c r="AM3" s="229" t="s">
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="183"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="183"/>
+      <c r="AJ3" s="183"/>
+      <c r="AK3" s="183"/>
+      <c r="AL3" s="184"/>
+      <c r="AM3" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="AN3" s="164"/>
-      <c r="AO3" s="164"/>
-      <c r="AP3" s="164"/>
-      <c r="AQ3" s="164"/>
-      <c r="AR3" s="164"/>
-      <c r="AS3" s="164"/>
-      <c r="AT3" s="164"/>
-      <c r="AU3" s="164"/>
-      <c r="AV3" s="164"/>
-      <c r="AW3" s="164"/>
-      <c r="AX3" s="164"/>
-      <c r="AY3" s="164"/>
-      <c r="AZ3" s="164"/>
-      <c r="BA3" s="164" t="s">
+      <c r="AN3" s="183"/>
+      <c r="AO3" s="183"/>
+      <c r="AP3" s="183"/>
+      <c r="AQ3" s="183"/>
+      <c r="AR3" s="183"/>
+      <c r="AS3" s="183"/>
+      <c r="AT3" s="183"/>
+      <c r="AU3" s="183"/>
+      <c r="AV3" s="183"/>
+      <c r="AW3" s="183"/>
+      <c r="AX3" s="183"/>
+      <c r="AY3" s="183"/>
+      <c r="AZ3" s="183"/>
+      <c r="BA3" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="164"/>
-      <c r="BC3" s="164"/>
-      <c r="BD3" s="164"/>
-      <c r="BE3" s="164"/>
-      <c r="BF3" s="164"/>
-      <c r="BG3" s="164"/>
-      <c r="BH3" s="164"/>
-      <c r="BI3" s="164"/>
-      <c r="BJ3" s="164" t="s">
+      <c r="BB3" s="183"/>
+      <c r="BC3" s="183"/>
+      <c r="BD3" s="183"/>
+      <c r="BE3" s="183"/>
+      <c r="BF3" s="183"/>
+      <c r="BG3" s="183"/>
+      <c r="BH3" s="183"/>
+      <c r="BI3" s="183"/>
+      <c r="BJ3" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="BK3" s="164"/>
-      <c r="BL3" s="164"/>
-      <c r="BM3" s="164"/>
-      <c r="BN3" s="164"/>
-      <c r="BO3" s="164"/>
-      <c r="BP3" s="164"/>
-      <c r="BQ3" s="164"/>
-      <c r="BR3" s="165"/>
+      <c r="BK3" s="183"/>
+      <c r="BL3" s="183"/>
+      <c r="BM3" s="183"/>
+      <c r="BN3" s="183"/>
+      <c r="BO3" s="183"/>
+      <c r="BP3" s="183"/>
+      <c r="BQ3" s="183"/>
+      <c r="BR3" s="184"/>
     </row>
     <row r="4" spans="1:70" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="231"/>
-      <c r="B4" s="230"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="230"/>
-      <c r="M4" s="230"/>
-      <c r="N4" s="230"/>
-      <c r="O4" s="230"/>
-      <c r="P4" s="230"/>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="230"/>
-      <c r="S4" s="230"/>
-      <c r="T4" s="230"/>
-      <c r="U4" s="230"/>
-      <c r="V4" s="230"/>
-      <c r="W4" s="230"/>
-      <c r="X4" s="230"/>
-      <c r="Y4" s="230"/>
-      <c r="Z4" s="230"/>
-      <c r="AA4" s="230"/>
-      <c r="AB4" s="230"/>
-      <c r="AC4" s="230"/>
-      <c r="AD4" s="230"/>
-      <c r="AE4" s="230"/>
-      <c r="AF4" s="230"/>
-      <c r="AG4" s="230"/>
-      <c r="AH4" s="230"/>
-      <c r="AI4" s="230"/>
-      <c r="AJ4" s="230"/>
-      <c r="AK4" s="230"/>
-      <c r="AL4" s="230"/>
+      <c r="A4" s="187"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="186"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="186"/>
+      <c r="P4" s="186"/>
+      <c r="Q4" s="186"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="186"/>
+      <c r="U4" s="186"/>
+      <c r="V4" s="186"/>
+      <c r="W4" s="186"/>
+      <c r="X4" s="186"/>
+      <c r="Y4" s="186"/>
+      <c r="Z4" s="186"/>
+      <c r="AA4" s="186"/>
+      <c r="AB4" s="186"/>
+      <c r="AC4" s="186"/>
+      <c r="AD4" s="186"/>
+      <c r="AE4" s="186"/>
+      <c r="AF4" s="186"/>
+      <c r="AG4" s="186"/>
+      <c r="AH4" s="186"/>
+      <c r="AI4" s="186"/>
+      <c r="AJ4" s="186"/>
+      <c r="AK4" s="186"/>
+      <c r="AL4" s="186"/>
       <c r="AM4" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="AN4" s="224" t="s">
+      <c r="AN4" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="AO4" s="225"/>
-      <c r="AP4" s="226"/>
-      <c r="AQ4" s="224" t="s">
+      <c r="AO4" s="179"/>
+      <c r="AP4" s="180"/>
+      <c r="AQ4" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="AR4" s="225"/>
-      <c r="AS4" s="225"/>
-      <c r="AT4" s="225"/>
-      <c r="AU4" s="225"/>
-      <c r="AV4" s="225"/>
-      <c r="AW4" s="225"/>
-      <c r="AX4" s="225"/>
-      <c r="AY4" s="225"/>
-      <c r="AZ4" s="225"/>
-      <c r="BA4" s="225"/>
-      <c r="BB4" s="225"/>
-      <c r="BC4" s="225"/>
-      <c r="BD4" s="226"/>
-      <c r="BE4" s="224" t="s">
+      <c r="AR4" s="179"/>
+      <c r="AS4" s="179"/>
+      <c r="AT4" s="179"/>
+      <c r="AU4" s="179"/>
+      <c r="AV4" s="179"/>
+      <c r="AW4" s="179"/>
+      <c r="AX4" s="179"/>
+      <c r="AY4" s="179"/>
+      <c r="AZ4" s="179"/>
+      <c r="BA4" s="179"/>
+      <c r="BB4" s="179"/>
+      <c r="BC4" s="179"/>
+      <c r="BD4" s="180"/>
+      <c r="BE4" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="BF4" s="227"/>
-      <c r="BG4" s="225"/>
-      <c r="BH4" s="225"/>
-      <c r="BI4" s="225"/>
-      <c r="BJ4" s="225"/>
-      <c r="BK4" s="226"/>
-      <c r="BL4" s="224" t="s">
+      <c r="BF4" s="181"/>
+      <c r="BG4" s="179"/>
+      <c r="BH4" s="179"/>
+      <c r="BI4" s="179"/>
+      <c r="BJ4" s="179"/>
+      <c r="BK4" s="180"/>
+      <c r="BL4" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="BM4" s="225"/>
-      <c r="BN4" s="225"/>
-      <c r="BO4" s="226"/>
-      <c r="BP4" s="224" t="s">
+      <c r="BM4" s="179"/>
+      <c r="BN4" s="179"/>
+      <c r="BO4" s="180"/>
+      <c r="BP4" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="BQ4" s="225"/>
-      <c r="BR4" s="228"/>
+      <c r="BQ4" s="179"/>
+      <c r="BR4" s="182"/>
     </row>
     <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="231"/>
-      <c r="B5" s="185" t="s">
+      <c r="A5" s="187"/>
+      <c r="B5" s="232" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185" t="s">
+      <c r="C5" s="232"/>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="232"/>
+      <c r="I5" s="232" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="185"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="185" t="s">
+      <c r="J5" s="232"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="232"/>
+      <c r="M5" s="232"/>
+      <c r="N5" s="232"/>
+      <c r="O5" s="232"/>
+      <c r="P5" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="185"/>
-      <c r="S5" s="185"/>
-      <c r="T5" s="185"/>
-      <c r="U5" s="185"/>
-      <c r="V5" s="185"/>
-      <c r="W5" s="185" t="s">
+      <c r="Q5" s="232"/>
+      <c r="R5" s="232"/>
+      <c r="S5" s="232"/>
+      <c r="T5" s="232"/>
+      <c r="U5" s="232"/>
+      <c r="V5" s="232"/>
+      <c r="W5" s="232" t="s">
         <v>122</v>
       </c>
-      <c r="X5" s="185"/>
-      <c r="Y5" s="185"/>
-      <c r="Z5" s="185"/>
-      <c r="AA5" s="185"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="185"/>
-      <c r="AD5" s="185" t="s">
+      <c r="X5" s="232"/>
+      <c r="Y5" s="232"/>
+      <c r="Z5" s="232"/>
+      <c r="AA5" s="232"/>
+      <c r="AB5" s="232"/>
+      <c r="AC5" s="232"/>
+      <c r="AD5" s="232" t="s">
         <v>123</v>
       </c>
-      <c r="AE5" s="185"/>
-      <c r="AF5" s="185"/>
-      <c r="AG5" s="185"/>
-      <c r="AH5" s="185"/>
-      <c r="AI5" s="185"/>
-      <c r="AJ5" s="185"/>
-      <c r="AK5" s="185" t="s">
+      <c r="AE5" s="232"/>
+      <c r="AF5" s="232"/>
+      <c r="AG5" s="232"/>
+      <c r="AH5" s="232"/>
+      <c r="AI5" s="232"/>
+      <c r="AJ5" s="232"/>
+      <c r="AK5" s="232" t="s">
         <v>124</v>
       </c>
-      <c r="AL5" s="185"/>
+      <c r="AL5" s="232"/>
       <c r="AM5" s="102" t="s">
         <v>6</v>
       </c>
@@ -4771,45 +4777,45 @@
       <c r="AQ5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="166" t="s">
+      <c r="AR5" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="167"/>
-      <c r="AT5" s="166" t="s">
+      <c r="AS5" s="229"/>
+      <c r="AT5" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="167"/>
-      <c r="AV5" s="166" t="s">
+      <c r="AU5" s="229"/>
+      <c r="AV5" s="228" t="s">
         <v>13</v>
       </c>
-      <c r="AW5" s="167"/>
-      <c r="AX5" s="166" t="s">
+      <c r="AW5" s="229"/>
+      <c r="AX5" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="167"/>
-      <c r="AZ5" s="166" t="s">
+      <c r="AY5" s="229"/>
+      <c r="AZ5" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="167"/>
-      <c r="BB5" s="166" t="s">
+      <c r="BA5" s="229"/>
+      <c r="BB5" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="BC5" s="167"/>
+      <c r="BC5" s="229"/>
       <c r="BD5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BE5" s="170" t="s">
+      <c r="BE5" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="BF5" s="167"/>
-      <c r="BG5" s="171" t="s">
+      <c r="BF5" s="229"/>
+      <c r="BG5" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="BH5" s="172"/>
-      <c r="BI5" s="171" t="s">
+      <c r="BH5" s="235"/>
+      <c r="BI5" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="172"/>
+      <c r="BJ5" s="235"/>
       <c r="BK5" s="92" t="s">
         <v>21</v>
       </c>
@@ -4837,193 +4843,193 @@
     </row>
     <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
-      <c r="B6" s="183" t="s">
+      <c r="B6" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="181" t="s">
+      <c r="D6" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="181" t="s">
+      <c r="E6" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="181" t="s">
+      <c r="F6" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="181" t="s">
+      <c r="G6" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="179" t="s">
+      <c r="H6" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="183" t="s">
+      <c r="I6" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="181" t="s">
+      <c r="J6" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="181" t="s">
+      <c r="K6" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="181" t="s">
+      <c r="L6" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="181" t="s">
+      <c r="M6" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="181" t="s">
+      <c r="N6" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="179" t="s">
+      <c r="O6" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="183" t="s">
+      <c r="P6" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="Q6" s="181" t="s">
+      <c r="Q6" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="181" t="s">
+      <c r="R6" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="181" t="s">
+      <c r="S6" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="181" t="s">
+      <c r="T6" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="181" t="s">
+      <c r="U6" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="179" t="s">
+      <c r="V6" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="183" t="s">
+      <c r="W6" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="X6" s="181" t="s">
+      <c r="X6" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="181" t="s">
+      <c r="Y6" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="181" t="s">
+      <c r="Z6" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="181" t="s">
+      <c r="AA6" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="181" t="s">
+      <c r="AB6" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="179" t="s">
+      <c r="AC6" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="183" t="s">
+      <c r="AD6" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="AE6" s="181" t="s">
+      <c r="AE6" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="181" t="s">
+      <c r="AF6" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="181" t="s">
+      <c r="AG6" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="181" t="s">
+      <c r="AH6" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="181" t="s">
+      <c r="AI6" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="179" t="s">
+      <c r="AJ6" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="183" t="s">
+      <c r="AK6" s="217" t="s">
         <v>127</v>
       </c>
-      <c r="AL6" s="155" t="s">
+      <c r="AL6" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="232" t="s">
+      <c r="AM6" s="163" t="s">
         <v>137</v>
       </c>
-      <c r="AN6" s="232" t="s">
+      <c r="AN6" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="AO6" s="151" t="s">
+      <c r="AO6" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="AP6" s="153" t="s">
+      <c r="AP6" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="AQ6" s="177" t="s">
+      <c r="AQ6" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="AR6" s="168" t="s">
+      <c r="AR6" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="AS6" s="169"/>
-      <c r="AT6" s="168" t="s">
+      <c r="AS6" s="231"/>
+      <c r="AT6" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="AU6" s="169"/>
-      <c r="AV6" s="168" t="s">
+      <c r="AU6" s="231"/>
+      <c r="AV6" s="230" t="s">
         <v>36</v>
       </c>
-      <c r="AW6" s="169"/>
-      <c r="AX6" s="168" t="s">
+      <c r="AW6" s="231"/>
+      <c r="AX6" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="AY6" s="169"/>
-      <c r="AZ6" s="168" t="s">
+      <c r="AY6" s="231"/>
+      <c r="AZ6" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="BA6" s="169"/>
-      <c r="BB6" s="168" t="s">
+      <c r="BA6" s="231"/>
+      <c r="BB6" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="BC6" s="169"/>
-      <c r="BD6" s="240" t="s">
+      <c r="BC6" s="231"/>
+      <c r="BD6" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="BE6" s="242" t="s">
+      <c r="BE6" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="BF6" s="243"/>
-      <c r="BG6" s="244" t="s">
+      <c r="BF6" s="170"/>
+      <c r="BG6" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="BH6" s="245"/>
-      <c r="BI6" s="173" t="s">
+      <c r="BH6" s="172"/>
+      <c r="BI6" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="BJ6" s="174"/>
-      <c r="BK6" s="175" t="s">
+      <c r="BJ6" s="237"/>
+      <c r="BK6" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="BL6" s="232" t="s">
+      <c r="BL6" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="BM6" s="151" t="s">
+      <c r="BM6" s="238" t="s">
         <v>32</v>
       </c>
-      <c r="BN6" s="151" t="s">
+      <c r="BN6" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="BO6" s="153" t="s">
+      <c r="BO6" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="BP6" s="234" t="s">
+      <c r="BP6" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="BQ6" s="238" t="s">
+      <c r="BQ6" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="BR6" s="236" t="s">
+      <c r="BR6" s="161" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5031,48 +5037,48 @@
       <c r="A7" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
-      <c r="L7" s="182"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="182"/>
-      <c r="R7" s="182"/>
-      <c r="S7" s="182"/>
-      <c r="T7" s="182"/>
-      <c r="U7" s="182"/>
-      <c r="V7" s="180"/>
-      <c r="W7" s="184"/>
-      <c r="X7" s="182"/>
-      <c r="Y7" s="182"/>
-      <c r="Z7" s="182"/>
-      <c r="AA7" s="182"/>
-      <c r="AB7" s="182"/>
-      <c r="AC7" s="180"/>
-      <c r="AD7" s="184"/>
-      <c r="AE7" s="182"/>
-      <c r="AF7" s="182"/>
-      <c r="AG7" s="182"/>
-      <c r="AH7" s="182"/>
-      <c r="AI7" s="182"/>
-      <c r="AJ7" s="180"/>
-      <c r="AK7" s="184"/>
-      <c r="AL7" s="156"/>
-      <c r="AM7" s="233"/>
-      <c r="AN7" s="233"/>
-      <c r="AO7" s="152"/>
-      <c r="AP7" s="154"/>
-      <c r="AQ7" s="178"/>
+      <c r="B7" s="218"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="216"/>
+      <c r="O7" s="227"/>
+      <c r="P7" s="218"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="216"/>
+      <c r="S7" s="216"/>
+      <c r="T7" s="216"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="227"/>
+      <c r="W7" s="218"/>
+      <c r="X7" s="216"/>
+      <c r="Y7" s="216"/>
+      <c r="Z7" s="216"/>
+      <c r="AA7" s="216"/>
+      <c r="AB7" s="216"/>
+      <c r="AC7" s="227"/>
+      <c r="AD7" s="218"/>
+      <c r="AE7" s="216"/>
+      <c r="AF7" s="216"/>
+      <c r="AG7" s="216"/>
+      <c r="AH7" s="216"/>
+      <c r="AI7" s="216"/>
+      <c r="AJ7" s="227"/>
+      <c r="AK7" s="218"/>
+      <c r="AL7" s="245"/>
+      <c r="AM7" s="164"/>
+      <c r="AN7" s="164"/>
+      <c r="AO7" s="239"/>
+      <c r="AP7" s="160"/>
+      <c r="AQ7" s="243"/>
       <c r="AR7" s="82"/>
       <c r="AS7" s="84" t="s">
         <v>48</v>
@@ -5097,7 +5103,7 @@
       <c r="BC7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BD7" s="241"/>
+      <c r="BD7" s="168"/>
       <c r="BE7" s="83"/>
       <c r="BF7" s="84" t="s">
         <v>48</v>
@@ -5110,17 +5116,17 @@
       <c r="BJ7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="176"/>
-      <c r="BL7" s="233"/>
-      <c r="BM7" s="152"/>
-      <c r="BN7" s="152"/>
-      <c r="BO7" s="154"/>
-      <c r="BP7" s="235"/>
-      <c r="BQ7" s="239"/>
-      <c r="BR7" s="237"/>
+      <c r="BK7" s="241"/>
+      <c r="BL7" s="164"/>
+      <c r="BM7" s="239"/>
+      <c r="BN7" s="239"/>
+      <c r="BO7" s="160"/>
+      <c r="BP7" s="158"/>
+      <c r="BQ7" s="166"/>
+      <c r="BR7" s="162"/>
     </row>
     <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="220" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="37"/>
@@ -5185,16 +5191,16 @@
       <c r="BI8" s="112"/>
       <c r="BJ8" s="112"/>
       <c r="BK8" s="113"/>
-      <c r="BL8" s="149"/>
+      <c r="BL8" s="143"/>
       <c r="BM8" s="112"/>
       <c r="BN8" s="112"/>
-      <c r="BO8" s="162"/>
-      <c r="BP8" s="149"/>
+      <c r="BO8" s="173"/>
+      <c r="BP8" s="143"/>
       <c r="BQ8" s="112"/>
-      <c r="BR8" s="160"/>
+      <c r="BR8" s="145"/>
     </row>
     <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="187"/>
+      <c r="A9" s="220"/>
       <c r="B9" s="132"/>
       <c r="C9" s="133"/>
       <c r="D9" s="133"/>
@@ -5257,16 +5263,16 @@
       <c r="BI9" s="115"/>
       <c r="BJ9" s="115"/>
       <c r="BK9" s="116"/>
-      <c r="BL9" s="150"/>
+      <c r="BL9" s="144"/>
       <c r="BM9" s="115"/>
       <c r="BN9" s="115"/>
-      <c r="BO9" s="163"/>
-      <c r="BP9" s="150"/>
+      <c r="BO9" s="174"/>
+      <c r="BP9" s="144"/>
       <c r="BQ9" s="115"/>
-      <c r="BR9" s="161"/>
+      <c r="BR9" s="146"/>
     </row>
     <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="188"/>
+      <c r="A10" s="221"/>
       <c r="B10" s="57"/>
       <c r="C10" s="58"/>
       <c r="D10" s="58"/>
@@ -5304,41 +5310,41 @@
       <c r="AJ10" s="59"/>
       <c r="AK10" s="60"/>
       <c r="AL10" s="61"/>
-      <c r="AM10" s="249"/>
-      <c r="AN10" s="250"/>
-      <c r="AO10" s="250"/>
-      <c r="AP10" s="250"/>
-      <c r="AQ10" s="250"/>
-      <c r="AR10" s="250"/>
-      <c r="AS10" s="250"/>
-      <c r="AT10" s="250"/>
-      <c r="AU10" s="250"/>
-      <c r="AV10" s="250"/>
-      <c r="AW10" s="250"/>
-      <c r="AX10" s="250"/>
-      <c r="AY10" s="250"/>
-      <c r="AZ10" s="250"/>
-      <c r="BA10" s="250"/>
-      <c r="BB10" s="250"/>
-      <c r="BC10" s="250"/>
-      <c r="BD10" s="250"/>
-      <c r="BE10" s="250"/>
-      <c r="BF10" s="250"/>
-      <c r="BG10" s="250"/>
-      <c r="BH10" s="250"/>
-      <c r="BI10" s="250"/>
-      <c r="BJ10" s="250"/>
-      <c r="BK10" s="250"/>
-      <c r="BL10" s="250"/>
-      <c r="BM10" s="250"/>
-      <c r="BN10" s="250"/>
-      <c r="BO10" s="250"/>
-      <c r="BP10" s="250"/>
-      <c r="BQ10" s="250"/>
-      <c r="BR10" s="251"/>
+      <c r="AM10" s="150"/>
+      <c r="AN10" s="151"/>
+      <c r="AO10" s="151"/>
+      <c r="AP10" s="151"/>
+      <c r="AQ10" s="151"/>
+      <c r="AR10" s="151"/>
+      <c r="AS10" s="151"/>
+      <c r="AT10" s="151"/>
+      <c r="AU10" s="151"/>
+      <c r="AV10" s="151"/>
+      <c r="AW10" s="151"/>
+      <c r="AX10" s="151"/>
+      <c r="AY10" s="151"/>
+      <c r="AZ10" s="151"/>
+      <c r="BA10" s="151"/>
+      <c r="BB10" s="151"/>
+      <c r="BC10" s="151"/>
+      <c r="BD10" s="151"/>
+      <c r="BE10" s="151"/>
+      <c r="BF10" s="151"/>
+      <c r="BG10" s="151"/>
+      <c r="BH10" s="151"/>
+      <c r="BI10" s="151"/>
+      <c r="BJ10" s="151"/>
+      <c r="BK10" s="151"/>
+      <c r="BL10" s="151"/>
+      <c r="BM10" s="151"/>
+      <c r="BN10" s="151"/>
+      <c r="BO10" s="151"/>
+      <c r="BP10" s="151"/>
+      <c r="BQ10" s="151"/>
+      <c r="BR10" s="152"/>
     </row>
     <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="219" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="42"/>
@@ -5403,16 +5409,16 @@
       <c r="BI11" s="112"/>
       <c r="BJ11" s="112"/>
       <c r="BK11" s="113"/>
-      <c r="BL11" s="149"/>
+      <c r="BL11" s="143"/>
       <c r="BM11" s="112"/>
       <c r="BN11" s="112"/>
-      <c r="BO11" s="162"/>
-      <c r="BP11" s="149"/>
+      <c r="BO11" s="173"/>
+      <c r="BP11" s="143"/>
       <c r="BQ11" s="112"/>
-      <c r="BR11" s="160"/>
+      <c r="BR11" s="145"/>
     </row>
     <row r="12" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="187"/>
+      <c r="A12" s="220"/>
       <c r="B12" s="81"/>
       <c r="C12" s="137"/>
       <c r="D12" s="137"/>
@@ -5475,16 +5481,16 @@
       <c r="BI12" s="115"/>
       <c r="BJ12" s="115"/>
       <c r="BK12" s="116"/>
-      <c r="BL12" s="150"/>
+      <c r="BL12" s="144"/>
       <c r="BM12" s="115"/>
       <c r="BN12" s="115"/>
-      <c r="BO12" s="163"/>
-      <c r="BP12" s="150"/>
+      <c r="BO12" s="174"/>
+      <c r="BP12" s="144"/>
       <c r="BQ12" s="115"/>
-      <c r="BR12" s="161"/>
+      <c r="BR12" s="146"/>
     </row>
     <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="187"/>
+      <c r="A13" s="220"/>
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
@@ -5522,41 +5528,41 @@
       <c r="AJ13" s="64"/>
       <c r="AK13" s="66"/>
       <c r="AL13" s="67"/>
-      <c r="AM13" s="157"/>
-      <c r="AN13" s="158"/>
-      <c r="AO13" s="158"/>
-      <c r="AP13" s="158"/>
-      <c r="AQ13" s="158"/>
-      <c r="AR13" s="158"/>
-      <c r="AS13" s="158"/>
-      <c r="AT13" s="158"/>
-      <c r="AU13" s="158"/>
-      <c r="AV13" s="158"/>
-      <c r="AW13" s="158"/>
-      <c r="AX13" s="158"/>
-      <c r="AY13" s="158"/>
-      <c r="AZ13" s="158"/>
-      <c r="BA13" s="158"/>
-      <c r="BB13" s="158"/>
-      <c r="BC13" s="158"/>
-      <c r="BD13" s="158"/>
-      <c r="BE13" s="158"/>
-      <c r="BF13" s="158"/>
-      <c r="BG13" s="158"/>
-      <c r="BH13" s="158"/>
-      <c r="BI13" s="158"/>
-      <c r="BJ13" s="158"/>
-      <c r="BK13" s="158"/>
-      <c r="BL13" s="158"/>
-      <c r="BM13" s="158"/>
-      <c r="BN13" s="158"/>
-      <c r="BO13" s="158"/>
-      <c r="BP13" s="158"/>
-      <c r="BQ13" s="158"/>
-      <c r="BR13" s="159"/>
+      <c r="AM13" s="153"/>
+      <c r="AN13" s="154"/>
+      <c r="AO13" s="154"/>
+      <c r="AP13" s="154"/>
+      <c r="AQ13" s="154"/>
+      <c r="AR13" s="154"/>
+      <c r="AS13" s="154"/>
+      <c r="AT13" s="154"/>
+      <c r="AU13" s="154"/>
+      <c r="AV13" s="154"/>
+      <c r="AW13" s="154"/>
+      <c r="AX13" s="154"/>
+      <c r="AY13" s="154"/>
+      <c r="AZ13" s="154"/>
+      <c r="BA13" s="154"/>
+      <c r="BB13" s="154"/>
+      <c r="BC13" s="154"/>
+      <c r="BD13" s="154"/>
+      <c r="BE13" s="154"/>
+      <c r="BF13" s="154"/>
+      <c r="BG13" s="154"/>
+      <c r="BH13" s="154"/>
+      <c r="BI13" s="154"/>
+      <c r="BJ13" s="154"/>
+      <c r="BK13" s="154"/>
+      <c r="BL13" s="154"/>
+      <c r="BM13" s="154"/>
+      <c r="BN13" s="154"/>
+      <c r="BO13" s="154"/>
+      <c r="BP13" s="154"/>
+      <c r="BQ13" s="154"/>
+      <c r="BR13" s="155"/>
     </row>
     <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="186" t="s">
+      <c r="A14" s="219" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="45"/>
@@ -5621,16 +5627,16 @@
       <c r="BI14" s="112"/>
       <c r="BJ14" s="112"/>
       <c r="BK14" s="113"/>
-      <c r="BL14" s="149"/>
+      <c r="BL14" s="143"/>
       <c r="BM14" s="112"/>
       <c r="BN14" s="112"/>
-      <c r="BO14" s="162"/>
-      <c r="BP14" s="149"/>
+      <c r="BO14" s="173"/>
+      <c r="BP14" s="143"/>
       <c r="BQ14" s="112"/>
-      <c r="BR14" s="160"/>
+      <c r="BR14" s="145"/>
     </row>
     <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="187"/>
+      <c r="A15" s="220"/>
       <c r="B15" s="81"/>
       <c r="C15" s="137"/>
       <c r="D15" s="137"/>
@@ -5693,16 +5699,16 @@
       <c r="BI15" s="115"/>
       <c r="BJ15" s="115"/>
       <c r="BK15" s="116"/>
-      <c r="BL15" s="150"/>
+      <c r="BL15" s="144"/>
       <c r="BM15" s="115"/>
       <c r="BN15" s="115"/>
-      <c r="BO15" s="163"/>
-      <c r="BP15" s="150"/>
+      <c r="BO15" s="174"/>
+      <c r="BP15" s="144"/>
       <c r="BQ15" s="115"/>
-      <c r="BR15" s="161"/>
+      <c r="BR15" s="146"/>
     </row>
     <row r="16" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="188"/>
+      <c r="A16" s="221"/>
       <c r="B16" s="68"/>
       <c r="C16" s="69"/>
       <c r="D16" s="69"/>
@@ -5740,41 +5746,41 @@
       <c r="AJ16" s="70"/>
       <c r="AK16" s="71"/>
       <c r="AL16" s="72"/>
-      <c r="AM16" s="157"/>
-      <c r="AN16" s="158"/>
-      <c r="AO16" s="158"/>
-      <c r="AP16" s="158"/>
-      <c r="AQ16" s="158"/>
-      <c r="AR16" s="158"/>
-      <c r="AS16" s="158"/>
-      <c r="AT16" s="158"/>
-      <c r="AU16" s="158"/>
-      <c r="AV16" s="158"/>
-      <c r="AW16" s="158"/>
-      <c r="AX16" s="158"/>
-      <c r="AY16" s="158"/>
-      <c r="AZ16" s="158"/>
-      <c r="BA16" s="158"/>
-      <c r="BB16" s="158"/>
-      <c r="BC16" s="158"/>
-      <c r="BD16" s="158"/>
-      <c r="BE16" s="158"/>
-      <c r="BF16" s="158"/>
-      <c r="BG16" s="158"/>
-      <c r="BH16" s="158"/>
-      <c r="BI16" s="158"/>
-      <c r="BJ16" s="158"/>
-      <c r="BK16" s="158"/>
-      <c r="BL16" s="158"/>
-      <c r="BM16" s="158"/>
-      <c r="BN16" s="158"/>
-      <c r="BO16" s="158"/>
-      <c r="BP16" s="158"/>
-      <c r="BQ16" s="158"/>
-      <c r="BR16" s="159"/>
+      <c r="AM16" s="153"/>
+      <c r="AN16" s="154"/>
+      <c r="AO16" s="154"/>
+      <c r="AP16" s="154"/>
+      <c r="AQ16" s="154"/>
+      <c r="AR16" s="154"/>
+      <c r="AS16" s="154"/>
+      <c r="AT16" s="154"/>
+      <c r="AU16" s="154"/>
+      <c r="AV16" s="154"/>
+      <c r="AW16" s="154"/>
+      <c r="AX16" s="154"/>
+      <c r="AY16" s="154"/>
+      <c r="AZ16" s="154"/>
+      <c r="BA16" s="154"/>
+      <c r="BB16" s="154"/>
+      <c r="BC16" s="154"/>
+      <c r="BD16" s="154"/>
+      <c r="BE16" s="154"/>
+      <c r="BF16" s="154"/>
+      <c r="BG16" s="154"/>
+      <c r="BH16" s="154"/>
+      <c r="BI16" s="154"/>
+      <c r="BJ16" s="154"/>
+      <c r="BK16" s="154"/>
+      <c r="BL16" s="154"/>
+      <c r="BM16" s="154"/>
+      <c r="BN16" s="154"/>
+      <c r="BO16" s="154"/>
+      <c r="BP16" s="154"/>
+      <c r="BQ16" s="154"/>
+      <c r="BR16" s="155"/>
     </row>
     <row r="17" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="187" t="s">
+      <c r="A17" s="220" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="40"/>
@@ -5839,16 +5845,16 @@
       <c r="BI17" s="112"/>
       <c r="BJ17" s="112"/>
       <c r="BK17" s="113"/>
-      <c r="BL17" s="149"/>
+      <c r="BL17" s="143"/>
       <c r="BM17" s="112"/>
       <c r="BN17" s="112"/>
-      <c r="BO17" s="162"/>
-      <c r="BP17" s="149"/>
+      <c r="BO17" s="173"/>
+      <c r="BP17" s="143"/>
       <c r="BQ17" s="112"/>
-      <c r="BR17" s="160"/>
+      <c r="BR17" s="145"/>
     </row>
     <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="187"/>
+      <c r="A18" s="220"/>
       <c r="B18" s="139"/>
       <c r="C18" s="137"/>
       <c r="D18" s="137"/>
@@ -5911,16 +5917,16 @@
       <c r="BI18" s="115"/>
       <c r="BJ18" s="115"/>
       <c r="BK18" s="116"/>
-      <c r="BL18" s="150"/>
+      <c r="BL18" s="144"/>
       <c r="BM18" s="115"/>
       <c r="BN18" s="115"/>
-      <c r="BO18" s="163"/>
-      <c r="BP18" s="150"/>
+      <c r="BO18" s="174"/>
+      <c r="BP18" s="144"/>
       <c r="BQ18" s="115"/>
-      <c r="BR18" s="161"/>
+      <c r="BR18" s="146"/>
     </row>
     <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="188"/>
+      <c r="A19" s="221"/>
       <c r="B19" s="66"/>
       <c r="C19" s="63"/>
       <c r="D19" s="63"/>
@@ -5958,41 +5964,41 @@
       <c r="AJ19" s="64"/>
       <c r="AK19" s="66"/>
       <c r="AL19" s="67"/>
-      <c r="AM19" s="157"/>
-      <c r="AN19" s="158"/>
-      <c r="AO19" s="158"/>
-      <c r="AP19" s="158"/>
-      <c r="AQ19" s="158"/>
-      <c r="AR19" s="158"/>
-      <c r="AS19" s="158"/>
-      <c r="AT19" s="158"/>
-      <c r="AU19" s="158"/>
-      <c r="AV19" s="158"/>
-      <c r="AW19" s="158"/>
-      <c r="AX19" s="158"/>
-      <c r="AY19" s="158"/>
-      <c r="AZ19" s="158"/>
-      <c r="BA19" s="158"/>
-      <c r="BB19" s="158"/>
-      <c r="BC19" s="158"/>
-      <c r="BD19" s="158"/>
-      <c r="BE19" s="158"/>
-      <c r="BF19" s="158"/>
-      <c r="BG19" s="158"/>
-      <c r="BH19" s="158"/>
-      <c r="BI19" s="158"/>
-      <c r="BJ19" s="158"/>
-      <c r="BK19" s="158"/>
-      <c r="BL19" s="158"/>
-      <c r="BM19" s="158"/>
-      <c r="BN19" s="158"/>
-      <c r="BO19" s="158"/>
-      <c r="BP19" s="158"/>
-      <c r="BQ19" s="158"/>
-      <c r="BR19" s="159"/>
+      <c r="AM19" s="153"/>
+      <c r="AN19" s="154"/>
+      <c r="AO19" s="154"/>
+      <c r="AP19" s="154"/>
+      <c r="AQ19" s="154"/>
+      <c r="AR19" s="154"/>
+      <c r="AS19" s="154"/>
+      <c r="AT19" s="154"/>
+      <c r="AU19" s="154"/>
+      <c r="AV19" s="154"/>
+      <c r="AW19" s="154"/>
+      <c r="AX19" s="154"/>
+      <c r="AY19" s="154"/>
+      <c r="AZ19" s="154"/>
+      <c r="BA19" s="154"/>
+      <c r="BB19" s="154"/>
+      <c r="BC19" s="154"/>
+      <c r="BD19" s="154"/>
+      <c r="BE19" s="154"/>
+      <c r="BF19" s="154"/>
+      <c r="BG19" s="154"/>
+      <c r="BH19" s="154"/>
+      <c r="BI19" s="154"/>
+      <c r="BJ19" s="154"/>
+      <c r="BK19" s="154"/>
+      <c r="BL19" s="154"/>
+      <c r="BM19" s="154"/>
+      <c r="BN19" s="154"/>
+      <c r="BO19" s="154"/>
+      <c r="BP19" s="154"/>
+      <c r="BQ19" s="154"/>
+      <c r="BR19" s="155"/>
     </row>
     <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="186" t="s">
+      <c r="A20" s="219" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="45"/>
@@ -6057,16 +6063,16 @@
       <c r="BI20" s="112"/>
       <c r="BJ20" s="112"/>
       <c r="BK20" s="113"/>
-      <c r="BL20" s="149"/>
+      <c r="BL20" s="143"/>
       <c r="BM20" s="112"/>
       <c r="BN20" s="112"/>
-      <c r="BO20" s="162"/>
-      <c r="BP20" s="149"/>
+      <c r="BO20" s="173"/>
+      <c r="BP20" s="143"/>
       <c r="BQ20" s="112"/>
-      <c r="BR20" s="160"/>
+      <c r="BR20" s="145"/>
     </row>
     <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="187"/>
+      <c r="A21" s="220"/>
       <c r="B21" s="139"/>
       <c r="C21" s="137"/>
       <c r="D21" s="137"/>
@@ -6129,16 +6135,16 @@
       <c r="BI21" s="115"/>
       <c r="BJ21" s="115"/>
       <c r="BK21" s="116"/>
-      <c r="BL21" s="150"/>
+      <c r="BL21" s="144"/>
       <c r="BM21" s="115"/>
       <c r="BN21" s="115"/>
-      <c r="BO21" s="163"/>
-      <c r="BP21" s="150"/>
+      <c r="BO21" s="174"/>
+      <c r="BP21" s="144"/>
       <c r="BQ21" s="115"/>
-      <c r="BR21" s="161"/>
+      <c r="BR21" s="146"/>
     </row>
     <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="188"/>
+      <c r="A22" s="221"/>
       <c r="B22" s="66"/>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
@@ -6176,41 +6182,41 @@
       <c r="AJ22" s="64"/>
       <c r="AK22" s="66"/>
       <c r="AL22" s="67"/>
-      <c r="AM22" s="157"/>
-      <c r="AN22" s="158"/>
-      <c r="AO22" s="158"/>
-      <c r="AP22" s="158"/>
-      <c r="AQ22" s="158"/>
-      <c r="AR22" s="158"/>
-      <c r="AS22" s="158"/>
-      <c r="AT22" s="158"/>
-      <c r="AU22" s="158"/>
-      <c r="AV22" s="158"/>
-      <c r="AW22" s="158"/>
-      <c r="AX22" s="158"/>
-      <c r="AY22" s="158"/>
-      <c r="AZ22" s="158"/>
-      <c r="BA22" s="158"/>
-      <c r="BB22" s="158"/>
-      <c r="BC22" s="158"/>
-      <c r="BD22" s="158"/>
-      <c r="BE22" s="158"/>
-      <c r="BF22" s="158"/>
-      <c r="BG22" s="158"/>
-      <c r="BH22" s="158"/>
-      <c r="BI22" s="158"/>
-      <c r="BJ22" s="158"/>
-      <c r="BK22" s="158"/>
-      <c r="BL22" s="158"/>
-      <c r="BM22" s="158"/>
-      <c r="BN22" s="158"/>
-      <c r="BO22" s="158"/>
-      <c r="BP22" s="158"/>
-      <c r="BQ22" s="158"/>
-      <c r="BR22" s="159"/>
+      <c r="AM22" s="153"/>
+      <c r="AN22" s="154"/>
+      <c r="AO22" s="154"/>
+      <c r="AP22" s="154"/>
+      <c r="AQ22" s="154"/>
+      <c r="AR22" s="154"/>
+      <c r="AS22" s="154"/>
+      <c r="AT22" s="154"/>
+      <c r="AU22" s="154"/>
+      <c r="AV22" s="154"/>
+      <c r="AW22" s="154"/>
+      <c r="AX22" s="154"/>
+      <c r="AY22" s="154"/>
+      <c r="AZ22" s="154"/>
+      <c r="BA22" s="154"/>
+      <c r="BB22" s="154"/>
+      <c r="BC22" s="154"/>
+      <c r="BD22" s="154"/>
+      <c r="BE22" s="154"/>
+      <c r="BF22" s="154"/>
+      <c r="BG22" s="154"/>
+      <c r="BH22" s="154"/>
+      <c r="BI22" s="154"/>
+      <c r="BJ22" s="154"/>
+      <c r="BK22" s="154"/>
+      <c r="BL22" s="154"/>
+      <c r="BM22" s="154"/>
+      <c r="BN22" s="154"/>
+      <c r="BO22" s="154"/>
+      <c r="BP22" s="154"/>
+      <c r="BQ22" s="154"/>
+      <c r="BR22" s="155"/>
     </row>
     <row r="23" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="186" t="s">
+      <c r="A23" s="219" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="45"/>
@@ -6275,16 +6281,16 @@
       <c r="BI23" s="112"/>
       <c r="BJ23" s="112"/>
       <c r="BK23" s="113"/>
-      <c r="BL23" s="149"/>
+      <c r="BL23" s="143"/>
       <c r="BM23" s="112"/>
       <c r="BN23" s="112"/>
-      <c r="BO23" s="162"/>
-      <c r="BP23" s="149"/>
+      <c r="BO23" s="173"/>
+      <c r="BP23" s="143"/>
       <c r="BQ23" s="112"/>
-      <c r="BR23" s="160"/>
+      <c r="BR23" s="145"/>
     </row>
     <row r="24" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="187"/>
+      <c r="A24" s="220"/>
       <c r="B24" s="139"/>
       <c r="C24" s="137"/>
       <c r="D24" s="137"/>
@@ -6347,16 +6353,16 @@
       <c r="BI24" s="115"/>
       <c r="BJ24" s="115"/>
       <c r="BK24" s="116"/>
-      <c r="BL24" s="150"/>
+      <c r="BL24" s="144"/>
       <c r="BM24" s="115"/>
       <c r="BN24" s="115"/>
-      <c r="BO24" s="163"/>
-      <c r="BP24" s="150"/>
+      <c r="BO24" s="174"/>
+      <c r="BP24" s="144"/>
       <c r="BQ24" s="115"/>
-      <c r="BR24" s="161"/>
+      <c r="BR24" s="146"/>
     </row>
     <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="188"/>
+      <c r="A25" s="221"/>
       <c r="B25" s="71"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
@@ -6394,41 +6400,41 @@
       <c r="AJ25" s="70"/>
       <c r="AK25" s="71"/>
       <c r="AL25" s="72"/>
-      <c r="AM25" s="157"/>
-      <c r="AN25" s="158"/>
-      <c r="AO25" s="158"/>
-      <c r="AP25" s="158"/>
-      <c r="AQ25" s="158"/>
-      <c r="AR25" s="158"/>
-      <c r="AS25" s="158"/>
-      <c r="AT25" s="158"/>
-      <c r="AU25" s="158"/>
-      <c r="AV25" s="158"/>
-      <c r="AW25" s="158"/>
-      <c r="AX25" s="158"/>
-      <c r="AY25" s="158"/>
-      <c r="AZ25" s="158"/>
-      <c r="BA25" s="158"/>
-      <c r="BB25" s="158"/>
-      <c r="BC25" s="158"/>
-      <c r="BD25" s="158"/>
-      <c r="BE25" s="158"/>
-      <c r="BF25" s="158"/>
-      <c r="BG25" s="158"/>
-      <c r="BH25" s="158"/>
-      <c r="BI25" s="158"/>
-      <c r="BJ25" s="158"/>
-      <c r="BK25" s="158"/>
-      <c r="BL25" s="158"/>
-      <c r="BM25" s="158"/>
-      <c r="BN25" s="158"/>
-      <c r="BO25" s="158"/>
-      <c r="BP25" s="158"/>
-      <c r="BQ25" s="158"/>
-      <c r="BR25" s="159"/>
+      <c r="AM25" s="153"/>
+      <c r="AN25" s="154"/>
+      <c r="AO25" s="154"/>
+      <c r="AP25" s="154"/>
+      <c r="AQ25" s="154"/>
+      <c r="AR25" s="154"/>
+      <c r="AS25" s="154"/>
+      <c r="AT25" s="154"/>
+      <c r="AU25" s="154"/>
+      <c r="AV25" s="154"/>
+      <c r="AW25" s="154"/>
+      <c r="AX25" s="154"/>
+      <c r="AY25" s="154"/>
+      <c r="AZ25" s="154"/>
+      <c r="BA25" s="154"/>
+      <c r="BB25" s="154"/>
+      <c r="BC25" s="154"/>
+      <c r="BD25" s="154"/>
+      <c r="BE25" s="154"/>
+      <c r="BF25" s="154"/>
+      <c r="BG25" s="154"/>
+      <c r="BH25" s="154"/>
+      <c r="BI25" s="154"/>
+      <c r="BJ25" s="154"/>
+      <c r="BK25" s="154"/>
+      <c r="BL25" s="154"/>
+      <c r="BM25" s="154"/>
+      <c r="BN25" s="154"/>
+      <c r="BO25" s="154"/>
+      <c r="BP25" s="154"/>
+      <c r="BQ25" s="154"/>
+      <c r="BR25" s="155"/>
     </row>
     <row r="26" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="186" t="s">
+      <c r="A26" s="219" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="40"/>
@@ -6493,16 +6499,16 @@
       <c r="BI26" s="112"/>
       <c r="BJ26" s="112"/>
       <c r="BK26" s="113"/>
-      <c r="BL26" s="149"/>
+      <c r="BL26" s="143"/>
       <c r="BM26" s="112"/>
       <c r="BN26" s="112"/>
-      <c r="BO26" s="162"/>
-      <c r="BP26" s="149"/>
+      <c r="BO26" s="173"/>
+      <c r="BP26" s="143"/>
       <c r="BQ26" s="112"/>
-      <c r="BR26" s="160"/>
+      <c r="BR26" s="145"/>
     </row>
     <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="187"/>
+      <c r="A27" s="220"/>
       <c r="B27" s="139"/>
       <c r="C27" s="137"/>
       <c r="D27" s="137"/>
@@ -6565,16 +6571,16 @@
       <c r="BI27" s="115"/>
       <c r="BJ27" s="115"/>
       <c r="BK27" s="116"/>
-      <c r="BL27" s="150"/>
+      <c r="BL27" s="144"/>
       <c r="BM27" s="115"/>
       <c r="BN27" s="115"/>
-      <c r="BO27" s="163"/>
-      <c r="BP27" s="150"/>
+      <c r="BO27" s="174"/>
+      <c r="BP27" s="144"/>
       <c r="BQ27" s="115"/>
-      <c r="BR27" s="161"/>
+      <c r="BR27" s="146"/>
     </row>
     <row r="28" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="188"/>
+      <c r="A28" s="221"/>
       <c r="B28" s="66"/>
       <c r="C28" s="63"/>
       <c r="D28" s="63"/>
@@ -6612,41 +6618,41 @@
       <c r="AJ28" s="64"/>
       <c r="AK28" s="66"/>
       <c r="AL28" s="67"/>
-      <c r="AM28" s="157"/>
-      <c r="AN28" s="158"/>
-      <c r="AO28" s="158"/>
-      <c r="AP28" s="158"/>
-      <c r="AQ28" s="158"/>
-      <c r="AR28" s="158"/>
-      <c r="AS28" s="158"/>
-      <c r="AT28" s="158"/>
-      <c r="AU28" s="158"/>
-      <c r="AV28" s="158"/>
-      <c r="AW28" s="158"/>
-      <c r="AX28" s="158"/>
-      <c r="AY28" s="158"/>
-      <c r="AZ28" s="158"/>
-      <c r="BA28" s="158"/>
-      <c r="BB28" s="158"/>
-      <c r="BC28" s="158"/>
-      <c r="BD28" s="158"/>
-      <c r="BE28" s="158"/>
-      <c r="BF28" s="158"/>
-      <c r="BG28" s="158"/>
-      <c r="BH28" s="158"/>
-      <c r="BI28" s="158"/>
-      <c r="BJ28" s="158"/>
-      <c r="BK28" s="158"/>
-      <c r="BL28" s="158"/>
-      <c r="BM28" s="158"/>
-      <c r="BN28" s="158"/>
-      <c r="BO28" s="158"/>
-      <c r="BP28" s="158"/>
-      <c r="BQ28" s="158"/>
-      <c r="BR28" s="159"/>
+      <c r="AM28" s="153"/>
+      <c r="AN28" s="154"/>
+      <c r="AO28" s="154"/>
+      <c r="AP28" s="154"/>
+      <c r="AQ28" s="154"/>
+      <c r="AR28" s="154"/>
+      <c r="AS28" s="154"/>
+      <c r="AT28" s="154"/>
+      <c r="AU28" s="154"/>
+      <c r="AV28" s="154"/>
+      <c r="AW28" s="154"/>
+      <c r="AX28" s="154"/>
+      <c r="AY28" s="154"/>
+      <c r="AZ28" s="154"/>
+      <c r="BA28" s="154"/>
+      <c r="BB28" s="154"/>
+      <c r="BC28" s="154"/>
+      <c r="BD28" s="154"/>
+      <c r="BE28" s="154"/>
+      <c r="BF28" s="154"/>
+      <c r="BG28" s="154"/>
+      <c r="BH28" s="154"/>
+      <c r="BI28" s="154"/>
+      <c r="BJ28" s="154"/>
+      <c r="BK28" s="154"/>
+      <c r="BL28" s="154"/>
+      <c r="BM28" s="154"/>
+      <c r="BN28" s="154"/>
+      <c r="BO28" s="154"/>
+      <c r="BP28" s="154"/>
+      <c r="BQ28" s="154"/>
+      <c r="BR28" s="155"/>
     </row>
     <row r="29" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="190" t="s">
+      <c r="A29" s="223" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="42"/>
@@ -6711,16 +6717,16 @@
       <c r="BI29" s="112"/>
       <c r="BJ29" s="112"/>
       <c r="BK29" s="113"/>
-      <c r="BL29" s="149"/>
+      <c r="BL29" s="143"/>
       <c r="BM29" s="112"/>
       <c r="BN29" s="112"/>
-      <c r="BO29" s="162"/>
-      <c r="BP29" s="149"/>
+      <c r="BO29" s="173"/>
+      <c r="BP29" s="143"/>
       <c r="BQ29" s="112"/>
-      <c r="BR29" s="160"/>
+      <c r="BR29" s="145"/>
     </row>
     <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="191"/>
+      <c r="A30" s="224"/>
       <c r="B30" s="81"/>
       <c r="C30" s="137"/>
       <c r="D30" s="137"/>
@@ -6783,16 +6789,16 @@
       <c r="BI30" s="115"/>
       <c r="BJ30" s="115"/>
       <c r="BK30" s="116"/>
-      <c r="BL30" s="150"/>
+      <c r="BL30" s="144"/>
       <c r="BM30" s="115"/>
       <c r="BN30" s="115"/>
-      <c r="BO30" s="163"/>
-      <c r="BP30" s="150"/>
+      <c r="BO30" s="174"/>
+      <c r="BP30" s="144"/>
       <c r="BQ30" s="115"/>
-      <c r="BR30" s="161"/>
+      <c r="BR30" s="146"/>
     </row>
     <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="192"/>
+      <c r="A31" s="225"/>
       <c r="B31" s="68"/>
       <c r="C31" s="69"/>
       <c r="D31" s="69"/>
@@ -6830,41 +6836,41 @@
       <c r="AJ31" s="70"/>
       <c r="AK31" s="71"/>
       <c r="AL31" s="72"/>
-      <c r="AM31" s="157"/>
-      <c r="AN31" s="158"/>
-      <c r="AO31" s="158"/>
-      <c r="AP31" s="158"/>
-      <c r="AQ31" s="158"/>
-      <c r="AR31" s="158"/>
-      <c r="AS31" s="158"/>
-      <c r="AT31" s="158"/>
-      <c r="AU31" s="158"/>
-      <c r="AV31" s="158"/>
-      <c r="AW31" s="158"/>
-      <c r="AX31" s="158"/>
-      <c r="AY31" s="158"/>
-      <c r="AZ31" s="158"/>
-      <c r="BA31" s="158"/>
-      <c r="BB31" s="158"/>
-      <c r="BC31" s="158"/>
-      <c r="BD31" s="158"/>
-      <c r="BE31" s="158"/>
-      <c r="BF31" s="158"/>
-      <c r="BG31" s="158"/>
-      <c r="BH31" s="158"/>
-      <c r="BI31" s="158"/>
-      <c r="BJ31" s="158"/>
-      <c r="BK31" s="158"/>
-      <c r="BL31" s="158"/>
-      <c r="BM31" s="158"/>
-      <c r="BN31" s="158"/>
-      <c r="BO31" s="158"/>
-      <c r="BP31" s="158"/>
-      <c r="BQ31" s="158"/>
-      <c r="BR31" s="159"/>
+      <c r="AM31" s="153"/>
+      <c r="AN31" s="154"/>
+      <c r="AO31" s="154"/>
+      <c r="AP31" s="154"/>
+      <c r="AQ31" s="154"/>
+      <c r="AR31" s="154"/>
+      <c r="AS31" s="154"/>
+      <c r="AT31" s="154"/>
+      <c r="AU31" s="154"/>
+      <c r="AV31" s="154"/>
+      <c r="AW31" s="154"/>
+      <c r="AX31" s="154"/>
+      <c r="AY31" s="154"/>
+      <c r="AZ31" s="154"/>
+      <c r="BA31" s="154"/>
+      <c r="BB31" s="154"/>
+      <c r="BC31" s="154"/>
+      <c r="BD31" s="154"/>
+      <c r="BE31" s="154"/>
+      <c r="BF31" s="154"/>
+      <c r="BG31" s="154"/>
+      <c r="BH31" s="154"/>
+      <c r="BI31" s="154"/>
+      <c r="BJ31" s="154"/>
+      <c r="BK31" s="154"/>
+      <c r="BL31" s="154"/>
+      <c r="BM31" s="154"/>
+      <c r="BN31" s="154"/>
+      <c r="BO31" s="154"/>
+      <c r="BP31" s="154"/>
+      <c r="BQ31" s="154"/>
+      <c r="BR31" s="155"/>
     </row>
     <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="190" t="s">
+      <c r="A32" s="223" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="40"/>
@@ -6929,16 +6935,16 @@
       <c r="BI32" s="112"/>
       <c r="BJ32" s="112"/>
       <c r="BK32" s="113"/>
-      <c r="BL32" s="149"/>
+      <c r="BL32" s="143"/>
       <c r="BM32" s="112"/>
       <c r="BN32" s="112"/>
-      <c r="BO32" s="162"/>
-      <c r="BP32" s="149"/>
+      <c r="BO32" s="173"/>
+      <c r="BP32" s="143"/>
       <c r="BQ32" s="112"/>
-      <c r="BR32" s="160"/>
+      <c r="BR32" s="145"/>
     </row>
     <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="191"/>
+      <c r="A33" s="224"/>
       <c r="B33" s="139"/>
       <c r="C33" s="137"/>
       <c r="D33" s="137"/>
@@ -7001,16 +7007,16 @@
       <c r="BI33" s="115"/>
       <c r="BJ33" s="115"/>
       <c r="BK33" s="116"/>
-      <c r="BL33" s="150"/>
+      <c r="BL33" s="144"/>
       <c r="BM33" s="115"/>
       <c r="BN33" s="115"/>
-      <c r="BO33" s="163"/>
-      <c r="BP33" s="150"/>
+      <c r="BO33" s="174"/>
+      <c r="BP33" s="144"/>
       <c r="BQ33" s="115"/>
-      <c r="BR33" s="161"/>
+      <c r="BR33" s="146"/>
     </row>
     <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="192"/>
+      <c r="A34" s="225"/>
       <c r="B34" s="66"/>
       <c r="C34" s="63"/>
       <c r="D34" s="63"/>
@@ -7048,41 +7054,41 @@
       <c r="AJ34" s="64"/>
       <c r="AK34" s="66"/>
       <c r="AL34" s="67"/>
-      <c r="AM34" s="157"/>
-      <c r="AN34" s="158"/>
-      <c r="AO34" s="158"/>
-      <c r="AP34" s="158"/>
-      <c r="AQ34" s="158"/>
-      <c r="AR34" s="158"/>
-      <c r="AS34" s="158"/>
-      <c r="AT34" s="158"/>
-      <c r="AU34" s="158"/>
-      <c r="AV34" s="158"/>
-      <c r="AW34" s="158"/>
-      <c r="AX34" s="158"/>
-      <c r="AY34" s="158"/>
-      <c r="AZ34" s="158"/>
-      <c r="BA34" s="158"/>
-      <c r="BB34" s="158"/>
-      <c r="BC34" s="158"/>
-      <c r="BD34" s="158"/>
-      <c r="BE34" s="158"/>
-      <c r="BF34" s="158"/>
-      <c r="BG34" s="158"/>
-      <c r="BH34" s="158"/>
-      <c r="BI34" s="158"/>
-      <c r="BJ34" s="158"/>
-      <c r="BK34" s="158"/>
-      <c r="BL34" s="158"/>
-      <c r="BM34" s="158"/>
-      <c r="BN34" s="158"/>
-      <c r="BO34" s="158"/>
-      <c r="BP34" s="158"/>
-      <c r="BQ34" s="158"/>
-      <c r="BR34" s="159"/>
+      <c r="AM34" s="153"/>
+      <c r="AN34" s="154"/>
+      <c r="AO34" s="154"/>
+      <c r="AP34" s="154"/>
+      <c r="AQ34" s="154"/>
+      <c r="AR34" s="154"/>
+      <c r="AS34" s="154"/>
+      <c r="AT34" s="154"/>
+      <c r="AU34" s="154"/>
+      <c r="AV34" s="154"/>
+      <c r="AW34" s="154"/>
+      <c r="AX34" s="154"/>
+      <c r="AY34" s="154"/>
+      <c r="AZ34" s="154"/>
+      <c r="BA34" s="154"/>
+      <c r="BB34" s="154"/>
+      <c r="BC34" s="154"/>
+      <c r="BD34" s="154"/>
+      <c r="BE34" s="154"/>
+      <c r="BF34" s="154"/>
+      <c r="BG34" s="154"/>
+      <c r="BH34" s="154"/>
+      <c r="BI34" s="154"/>
+      <c r="BJ34" s="154"/>
+      <c r="BK34" s="154"/>
+      <c r="BL34" s="154"/>
+      <c r="BM34" s="154"/>
+      <c r="BN34" s="154"/>
+      <c r="BO34" s="154"/>
+      <c r="BP34" s="154"/>
+      <c r="BQ34" s="154"/>
+      <c r="BR34" s="155"/>
     </row>
     <row r="35" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="186" t="s">
+      <c r="A35" s="219" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="47"/>
@@ -7147,16 +7153,16 @@
       <c r="BI35" s="112"/>
       <c r="BJ35" s="112"/>
       <c r="BK35" s="113"/>
-      <c r="BL35" s="149"/>
+      <c r="BL35" s="143"/>
       <c r="BM35" s="112"/>
       <c r="BN35" s="112"/>
-      <c r="BO35" s="162"/>
-      <c r="BP35" s="149"/>
+      <c r="BO35" s="173"/>
+      <c r="BP35" s="143"/>
       <c r="BQ35" s="112"/>
-      <c r="BR35" s="160"/>
+      <c r="BR35" s="145"/>
     </row>
     <row r="36" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="187"/>
+      <c r="A36" s="220"/>
       <c r="B36" s="139"/>
       <c r="C36" s="137"/>
       <c r="D36" s="137"/>
@@ -7219,16 +7225,16 @@
       <c r="BI36" s="115"/>
       <c r="BJ36" s="115"/>
       <c r="BK36" s="116"/>
-      <c r="BL36" s="150"/>
+      <c r="BL36" s="144"/>
       <c r="BM36" s="115"/>
       <c r="BN36" s="115"/>
-      <c r="BO36" s="163"/>
-      <c r="BP36" s="150"/>
+      <c r="BO36" s="174"/>
+      <c r="BP36" s="144"/>
       <c r="BQ36" s="115"/>
-      <c r="BR36" s="161"/>
+      <c r="BR36" s="146"/>
     </row>
     <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="188"/>
+      <c r="A37" s="221"/>
       <c r="B37" s="71"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
@@ -7266,41 +7272,41 @@
       <c r="AJ37" s="70"/>
       <c r="AK37" s="71"/>
       <c r="AL37" s="72"/>
-      <c r="AM37" s="157"/>
-      <c r="AN37" s="158"/>
-      <c r="AO37" s="158"/>
-      <c r="AP37" s="158"/>
-      <c r="AQ37" s="158"/>
-      <c r="AR37" s="158"/>
-      <c r="AS37" s="158"/>
-      <c r="AT37" s="158"/>
-      <c r="AU37" s="158"/>
-      <c r="AV37" s="158"/>
-      <c r="AW37" s="158"/>
-      <c r="AX37" s="158"/>
-      <c r="AY37" s="158"/>
-      <c r="AZ37" s="158"/>
-      <c r="BA37" s="158"/>
-      <c r="BB37" s="158"/>
-      <c r="BC37" s="158"/>
-      <c r="BD37" s="158"/>
-      <c r="BE37" s="158"/>
-      <c r="BF37" s="158"/>
-      <c r="BG37" s="158"/>
-      <c r="BH37" s="158"/>
-      <c r="BI37" s="158"/>
-      <c r="BJ37" s="158"/>
-      <c r="BK37" s="158"/>
-      <c r="BL37" s="158"/>
-      <c r="BM37" s="158"/>
-      <c r="BN37" s="158"/>
-      <c r="BO37" s="158"/>
-      <c r="BP37" s="158"/>
-      <c r="BQ37" s="158"/>
-      <c r="BR37" s="159"/>
+      <c r="AM37" s="153"/>
+      <c r="AN37" s="154"/>
+      <c r="AO37" s="154"/>
+      <c r="AP37" s="154"/>
+      <c r="AQ37" s="154"/>
+      <c r="AR37" s="154"/>
+      <c r="AS37" s="154"/>
+      <c r="AT37" s="154"/>
+      <c r="AU37" s="154"/>
+      <c r="AV37" s="154"/>
+      <c r="AW37" s="154"/>
+      <c r="AX37" s="154"/>
+      <c r="AY37" s="154"/>
+      <c r="AZ37" s="154"/>
+      <c r="BA37" s="154"/>
+      <c r="BB37" s="154"/>
+      <c r="BC37" s="154"/>
+      <c r="BD37" s="154"/>
+      <c r="BE37" s="154"/>
+      <c r="BF37" s="154"/>
+      <c r="BG37" s="154"/>
+      <c r="BH37" s="154"/>
+      <c r="BI37" s="154"/>
+      <c r="BJ37" s="154"/>
+      <c r="BK37" s="154"/>
+      <c r="BL37" s="154"/>
+      <c r="BM37" s="154"/>
+      <c r="BN37" s="154"/>
+      <c r="BO37" s="154"/>
+      <c r="BP37" s="154"/>
+      <c r="BQ37" s="154"/>
+      <c r="BR37" s="155"/>
     </row>
     <row r="38" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="186" t="s">
+      <c r="A38" s="219" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="52"/>
@@ -7365,16 +7371,16 @@
       <c r="BI38" s="112"/>
       <c r="BJ38" s="112"/>
       <c r="BK38" s="113"/>
-      <c r="BL38" s="149"/>
+      <c r="BL38" s="143"/>
       <c r="BM38" s="112"/>
       <c r="BN38" s="112"/>
-      <c r="BO38" s="162"/>
-      <c r="BP38" s="149"/>
+      <c r="BO38" s="173"/>
+      <c r="BP38" s="143"/>
       <c r="BQ38" s="112"/>
-      <c r="BR38" s="160"/>
+      <c r="BR38" s="145"/>
     </row>
     <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="187"/>
+      <c r="A39" s="220"/>
       <c r="B39" s="139"/>
       <c r="C39" s="137"/>
       <c r="D39" s="137"/>
@@ -7437,16 +7443,16 @@
       <c r="BI39" s="115"/>
       <c r="BJ39" s="115"/>
       <c r="BK39" s="116"/>
-      <c r="BL39" s="150"/>
+      <c r="BL39" s="144"/>
       <c r="BM39" s="115"/>
       <c r="BN39" s="115"/>
-      <c r="BO39" s="163"/>
-      <c r="BP39" s="150"/>
+      <c r="BO39" s="174"/>
+      <c r="BP39" s="144"/>
       <c r="BQ39" s="115"/>
-      <c r="BR39" s="161"/>
+      <c r="BR39" s="146"/>
     </row>
     <row r="40" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="188"/>
+      <c r="A40" s="221"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63"/>
       <c r="D40" s="63"/>
@@ -7484,41 +7490,41 @@
       <c r="AJ40" s="64"/>
       <c r="AK40" s="66"/>
       <c r="AL40" s="67"/>
-      <c r="AM40" s="157"/>
-      <c r="AN40" s="158"/>
-      <c r="AO40" s="158"/>
-      <c r="AP40" s="158"/>
-      <c r="AQ40" s="158"/>
-      <c r="AR40" s="158"/>
-      <c r="AS40" s="158"/>
-      <c r="AT40" s="158"/>
-      <c r="AU40" s="158"/>
-      <c r="AV40" s="158"/>
-      <c r="AW40" s="158"/>
-      <c r="AX40" s="158"/>
-      <c r="AY40" s="158"/>
-      <c r="AZ40" s="158"/>
-      <c r="BA40" s="158"/>
-      <c r="BB40" s="158"/>
-      <c r="BC40" s="158"/>
-      <c r="BD40" s="158"/>
-      <c r="BE40" s="158"/>
-      <c r="BF40" s="158"/>
-      <c r="BG40" s="158"/>
-      <c r="BH40" s="158"/>
-      <c r="BI40" s="158"/>
-      <c r="BJ40" s="158"/>
-      <c r="BK40" s="158"/>
-      <c r="BL40" s="158"/>
-      <c r="BM40" s="158"/>
-      <c r="BN40" s="158"/>
-      <c r="BO40" s="158"/>
-      <c r="BP40" s="158"/>
-      <c r="BQ40" s="158"/>
-      <c r="BR40" s="159"/>
+      <c r="AM40" s="153"/>
+      <c r="AN40" s="154"/>
+      <c r="AO40" s="154"/>
+      <c r="AP40" s="154"/>
+      <c r="AQ40" s="154"/>
+      <c r="AR40" s="154"/>
+      <c r="AS40" s="154"/>
+      <c r="AT40" s="154"/>
+      <c r="AU40" s="154"/>
+      <c r="AV40" s="154"/>
+      <c r="AW40" s="154"/>
+      <c r="AX40" s="154"/>
+      <c r="AY40" s="154"/>
+      <c r="AZ40" s="154"/>
+      <c r="BA40" s="154"/>
+      <c r="BB40" s="154"/>
+      <c r="BC40" s="154"/>
+      <c r="BD40" s="154"/>
+      <c r="BE40" s="154"/>
+      <c r="BF40" s="154"/>
+      <c r="BG40" s="154"/>
+      <c r="BH40" s="154"/>
+      <c r="BI40" s="154"/>
+      <c r="BJ40" s="154"/>
+      <c r="BK40" s="154"/>
+      <c r="BL40" s="154"/>
+      <c r="BM40" s="154"/>
+      <c r="BN40" s="154"/>
+      <c r="BO40" s="154"/>
+      <c r="BP40" s="154"/>
+      <c r="BQ40" s="154"/>
+      <c r="BR40" s="155"/>
     </row>
     <row r="41" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="219" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="45"/>
@@ -7583,16 +7589,16 @@
       <c r="BI41" s="112"/>
       <c r="BJ41" s="112"/>
       <c r="BK41" s="113"/>
-      <c r="BL41" s="149"/>
+      <c r="BL41" s="143"/>
       <c r="BM41" s="112"/>
       <c r="BN41" s="112"/>
-      <c r="BO41" s="162"/>
-      <c r="BP41" s="149"/>
+      <c r="BO41" s="173"/>
+      <c r="BP41" s="143"/>
       <c r="BQ41" s="112"/>
-      <c r="BR41" s="160"/>
+      <c r="BR41" s="145"/>
     </row>
     <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="187"/>
+      <c r="A42" s="220"/>
       <c r="B42" s="139"/>
       <c r="C42" s="137"/>
       <c r="D42" s="137"/>
@@ -7655,16 +7661,16 @@
       <c r="BI42" s="115"/>
       <c r="BJ42" s="115"/>
       <c r="BK42" s="116"/>
-      <c r="BL42" s="150"/>
+      <c r="BL42" s="144"/>
       <c r="BM42" s="115"/>
       <c r="BN42" s="115"/>
-      <c r="BO42" s="163"/>
-      <c r="BP42" s="150"/>
+      <c r="BO42" s="174"/>
+      <c r="BP42" s="144"/>
       <c r="BQ42" s="115"/>
-      <c r="BR42" s="161"/>
+      <c r="BR42" s="146"/>
     </row>
     <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="189"/>
+      <c r="A43" s="222"/>
       <c r="B43" s="75"/>
       <c r="C43" s="76"/>
       <c r="D43" s="76"/>
@@ -7702,44 +7708,44 @@
       <c r="AJ43" s="78"/>
       <c r="AK43" s="75"/>
       <c r="AL43" s="79"/>
-      <c r="AM43" s="246"/>
-      <c r="AN43" s="247"/>
-      <c r="AO43" s="247"/>
-      <c r="AP43" s="247"/>
-      <c r="AQ43" s="247"/>
-      <c r="AR43" s="247"/>
-      <c r="AS43" s="247"/>
-      <c r="AT43" s="247"/>
-      <c r="AU43" s="247"/>
-      <c r="AV43" s="247"/>
-      <c r="AW43" s="247"/>
-      <c r="AX43" s="247"/>
-      <c r="AY43" s="247"/>
-      <c r="AZ43" s="247"/>
-      <c r="BA43" s="247"/>
-      <c r="BB43" s="247"/>
-      <c r="BC43" s="247"/>
-      <c r="BD43" s="247"/>
-      <c r="BE43" s="247"/>
-      <c r="BF43" s="247"/>
-      <c r="BG43" s="247"/>
-      <c r="BH43" s="247"/>
-      <c r="BI43" s="247"/>
-      <c r="BJ43" s="247"/>
-      <c r="BK43" s="247"/>
-      <c r="BL43" s="247"/>
-      <c r="BM43" s="247"/>
-      <c r="BN43" s="247"/>
-      <c r="BO43" s="247"/>
-      <c r="BP43" s="247"/>
-      <c r="BQ43" s="247"/>
-      <c r="BR43" s="248"/>
+      <c r="AM43" s="147"/>
+      <c r="AN43" s="148"/>
+      <c r="AO43" s="148"/>
+      <c r="AP43" s="148"/>
+      <c r="AQ43" s="148"/>
+      <c r="AR43" s="148"/>
+      <c r="AS43" s="148"/>
+      <c r="AT43" s="148"/>
+      <c r="AU43" s="148"/>
+      <c r="AV43" s="148"/>
+      <c r="AW43" s="148"/>
+      <c r="AX43" s="148"/>
+      <c r="AY43" s="148"/>
+      <c r="AZ43" s="148"/>
+      <c r="BA43" s="148"/>
+      <c r="BB43" s="148"/>
+      <c r="BC43" s="148"/>
+      <c r="BD43" s="148"/>
+      <c r="BE43" s="148"/>
+      <c r="BF43" s="148"/>
+      <c r="BG43" s="148"/>
+      <c r="BH43" s="148"/>
+      <c r="BI43" s="148"/>
+      <c r="BJ43" s="148"/>
+      <c r="BK43" s="148"/>
+      <c r="BL43" s="148"/>
+      <c r="BM43" s="148"/>
+      <c r="BN43" s="148"/>
+      <c r="BO43" s="148"/>
+      <c r="BP43" s="148"/>
+      <c r="BQ43" s="148"/>
+      <c r="BR43" s="149"/>
     </row>
     <row r="44" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="214" t="s">
+      <c r="A44" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="215"/>
+      <c r="B44" s="189"/>
       <c r="C44" s="3"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -7773,11 +7779,11 @@
       <c r="AG44" s="10"/>
       <c r="AH44" s="10"/>
       <c r="AI44" s="74"/>
-      <c r="AJ44" s="216" t="s">
+      <c r="AJ44" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="AK44" s="217"/>
-      <c r="AL44" s="218"/>
+      <c r="AK44" s="191"/>
+      <c r="AL44" s="192"/>
       <c r="AM44" s="28"/>
       <c r="AN44" s="29"/>
       <c r="AO44" s="30"/>
@@ -7884,34 +7890,34 @@
       <c r="BR45" s="100"/>
     </row>
     <row r="46" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="219" t="s">
+      <c r="A46" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="219"/>
-      <c r="C46" s="219"/>
-      <c r="D46" s="212" t="s">
+      <c r="B46" s="193"/>
+      <c r="C46" s="193"/>
+      <c r="D46" s="141" t="s">
         <v>162</v>
       </c>
-      <c r="E46" s="213"/>
-      <c r="F46" s="213"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
       <c r="G46" s="124"/>
-      <c r="H46" s="212" t="s">
+      <c r="H46" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="I46" s="213"/>
-      <c r="J46" s="213"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="142"/>
       <c r="K46" s="124"/>
-      <c r="L46" s="212" t="s">
+      <c r="L46" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="M46" s="213"/>
-      <c r="N46" s="213"/>
+      <c r="M46" s="142"/>
+      <c r="N46" s="142"/>
       <c r="O46" s="124"/>
-      <c r="P46" s="212" t="s">
+      <c r="P46" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="Q46" s="213"/>
-      <c r="R46" s="213"/>
+      <c r="Q46" s="142"/>
+      <c r="R46" s="142"/>
       <c r="S46" s="124"/>
       <c r="T46" s="127"/>
       <c r="U46" s="127"/>
@@ -7921,35 +7927,35 @@
       <c r="AB46" s="21"/>
       <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
-      <c r="AM46" s="142" t="s">
+      <c r="AM46" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="AN46" s="142"/>
-      <c r="AO46" s="142"/>
-      <c r="AP46" s="141"/>
-      <c r="AQ46" s="141"/>
-      <c r="AR46" s="141"/>
-      <c r="AS46" s="141"/>
+      <c r="AN46" s="156"/>
+      <c r="AO46" s="156"/>
+      <c r="AP46" s="194"/>
+      <c r="AQ46" s="194"/>
+      <c r="AR46" s="194"/>
+      <c r="AS46" s="194"/>
       <c r="AT46" s="11"/>
-      <c r="AU46" s="142" t="s">
+      <c r="AU46" s="156" t="s">
         <v>136</v>
       </c>
-      <c r="AV46" s="142"/>
-      <c r="AW46" s="142"/>
-      <c r="AX46" s="146"/>
-      <c r="AY46" s="147"/>
-      <c r="AZ46" s="147"/>
-      <c r="BA46" s="148"/>
-      <c r="BC46" s="143" t="s">
+      <c r="AV46" s="156"/>
+      <c r="AW46" s="156"/>
+      <c r="AX46" s="249"/>
+      <c r="AY46" s="250"/>
+      <c r="AZ46" s="250"/>
+      <c r="BA46" s="251"/>
+      <c r="BC46" s="246" t="s">
         <v>64</v>
       </c>
-      <c r="BD46" s="144"/>
-      <c r="BE46" s="144"/>
-      <c r="BF46" s="145"/>
-      <c r="BG46" s="142"/>
-      <c r="BH46" s="142"/>
-      <c r="BI46" s="142"/>
-      <c r="BJ46" s="142"/>
+      <c r="BD46" s="247"/>
+      <c r="BE46" s="247"/>
+      <c r="BF46" s="248"/>
+      <c r="BG46" s="156"/>
+      <c r="BH46" s="156"/>
+      <c r="BI46" s="156"/>
+      <c r="BJ46" s="156"/>
       <c r="BK46" s="13"/>
       <c r="BL46" s="13"/>
       <c r="BM46" s="13"/>
@@ -7960,79 +7966,80 @@
       <c r="BR46" s="100"/>
     </row>
     <row r="47" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="219" t="s">
+      <c r="A47" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="219"/>
-      <c r="C47" s="219"/>
-      <c r="D47" s="212" t="s">
+      <c r="B47" s="193"/>
+      <c r="C47" s="193"/>
+      <c r="D47" s="141" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="213"/>
-      <c r="F47" s="213"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
       <c r="G47" s="124"/>
-      <c r="H47" s="212" t="s">
+      <c r="H47" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="I47" s="213"/>
-      <c r="J47" s="213"/>
+      <c r="I47" s="142"/>
+      <c r="J47" s="142"/>
       <c r="K47" s="124"/>
-      <c r="L47" s="212" t="s">
+      <c r="L47" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="M47" s="213"/>
-      <c r="N47" s="213"/>
+      <c r="M47" s="142"/>
+      <c r="N47" s="142"/>
       <c r="O47" s="124"/>
-      <c r="P47" s="212" t="s">
+      <c r="P47" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="Q47" s="213"/>
-      <c r="R47" s="213"/>
+      <c r="Q47" s="142"/>
+      <c r="R47" s="142"/>
       <c r="S47" s="124"/>
-      <c r="T47" s="212" t="s">
+      <c r="T47" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="U47" s="213"/>
-      <c r="V47" s="213"/>
+      <c r="U47" s="142"/>
+      <c r="V47" s="142"/>
       <c r="W47" s="124"/>
-      <c r="X47" s="212" t="s">
+      <c r="X47" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="Y47" s="213"/>
-      <c r="Z47" s="213"/>
+      <c r="Y47" s="142"/>
+      <c r="Z47" s="142"/>
       <c r="AA47" s="124"/>
-      <c r="AB47" s="212" t="s">
+      <c r="AB47" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="AC47" s="213"/>
-      <c r="AD47" s="220"/>
+      <c r="AC47" s="142"/>
+      <c r="AD47" s="195"/>
       <c r="AE47" s="128"/>
-      <c r="AM47" s="142" t="s">
+      <c r="AM47" s="156" t="s">
         <v>133</v>
       </c>
-      <c r="AN47" s="142"/>
-      <c r="AO47" s="142"/>
-      <c r="AP47" s="141"/>
-      <c r="AQ47" s="141"/>
-      <c r="AR47" s="141"/>
-      <c r="AS47" s="141"/>
+      <c r="AN47" s="156"/>
+      <c r="AO47" s="156"/>
+      <c r="AP47" s="194"/>
+      <c r="AQ47" s="194"/>
+      <c r="AR47" s="194"/>
+      <c r="AS47" s="194"/>
       <c r="AT47" s="11"/>
       <c r="AU47" s="11"/>
       <c r="AV47" s="11"/>
       <c r="AW47" s="11"/>
-      <c r="AX47" s="11"/>
-      <c r="AY47" s="11"/>
-      <c r="AZ47" s="11"/>
-      <c r="BC47" s="143" t="s">
+      <c r="AX47" s="252"/>
+      <c r="AY47" s="252"/>
+      <c r="AZ47" s="252"/>
+      <c r="BA47" s="253"/>
+      <c r="BC47" s="246" t="s">
         <v>65</v>
       </c>
-      <c r="BD47" s="144"/>
-      <c r="BE47" s="144"/>
-      <c r="BF47" s="145"/>
-      <c r="BG47" s="142"/>
-      <c r="BH47" s="142"/>
-      <c r="BI47" s="142"/>
-      <c r="BJ47" s="142"/>
+      <c r="BD47" s="247"/>
+      <c r="BE47" s="247"/>
+      <c r="BF47" s="248"/>
+      <c r="BG47" s="156"/>
+      <c r="BH47" s="156"/>
+      <c r="BI47" s="156"/>
+      <c r="BJ47" s="156"/>
       <c r="BK47" s="13"/>
       <c r="BL47" s="13"/>
       <c r="BM47" s="13"/>
@@ -8043,78 +8050,79 @@
       <c r="BR47" s="100"/>
     </row>
     <row r="48" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="219"/>
-      <c r="B48" s="219"/>
-      <c r="C48" s="219"/>
-      <c r="D48" s="212" t="s">
+      <c r="A48" s="193"/>
+      <c r="B48" s="193"/>
+      <c r="C48" s="193"/>
+      <c r="D48" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="E48" s="213"/>
-      <c r="F48" s="213"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
       <c r="G48" s="124"/>
-      <c r="H48" s="212" t="s">
+      <c r="H48" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="I48" s="213"/>
-      <c r="J48" s="213"/>
+      <c r="I48" s="142"/>
+      <c r="J48" s="142"/>
       <c r="K48" s="124"/>
-      <c r="L48" s="212" t="s">
+      <c r="L48" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="M48" s="213"/>
-      <c r="N48" s="213"/>
+      <c r="M48" s="142"/>
+      <c r="N48" s="142"/>
       <c r="O48" s="124"/>
-      <c r="P48" s="212" t="s">
+      <c r="P48" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="Q48" s="213"/>
-      <c r="R48" s="213"/>
+      <c r="Q48" s="142"/>
+      <c r="R48" s="142"/>
       <c r="S48" s="124"/>
-      <c r="T48" s="212" t="s">
+      <c r="T48" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="U48" s="213"/>
-      <c r="V48" s="213"/>
+      <c r="U48" s="142"/>
+      <c r="V48" s="142"/>
       <c r="W48" s="124"/>
-      <c r="X48" s="212" t="s">
+      <c r="X48" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="Y48" s="213"/>
-      <c r="Z48" s="213"/>
+      <c r="Y48" s="142"/>
+      <c r="Z48" s="142"/>
       <c r="AA48" s="124"/>
-      <c r="AB48" s="212" t="s">
+      <c r="AB48" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="AC48" s="213"/>
-      <c r="AD48" s="220"/>
+      <c r="AC48" s="142"/>
+      <c r="AD48" s="195"/>
       <c r="AE48" s="128"/>
       <c r="AJ48" s="4"/>
-      <c r="AM48" s="142" t="s">
+      <c r="AM48" s="156" t="s">
         <v>134</v>
       </c>
-      <c r="AN48" s="142"/>
-      <c r="AO48" s="142"/>
-      <c r="AP48" s="141"/>
-      <c r="AQ48" s="141"/>
-      <c r="AR48" s="141"/>
-      <c r="AS48" s="141"/>
+      <c r="AN48" s="156"/>
+      <c r="AO48" s="156"/>
+      <c r="AP48" s="194"/>
+      <c r="AQ48" s="194"/>
+      <c r="AR48" s="194"/>
+      <c r="AS48" s="194"/>
       <c r="AT48" s="11"/>
       <c r="AU48" s="11"/>
       <c r="AV48" s="11"/>
       <c r="AW48" s="11"/>
-      <c r="AX48" s="11"/>
-      <c r="AY48" s="11"/>
-      <c r="AZ48" s="11"/>
-      <c r="BC48" s="143" t="s">
+      <c r="AX48" s="252"/>
+      <c r="AY48" s="252"/>
+      <c r="AZ48" s="252"/>
+      <c r="BA48" s="253"/>
+      <c r="BC48" s="246" t="s">
         <v>67</v>
       </c>
-      <c r="BD48" s="144"/>
-      <c r="BE48" s="144"/>
-      <c r="BF48" s="145"/>
-      <c r="BG48" s="142"/>
-      <c r="BH48" s="142"/>
-      <c r="BI48" s="142"/>
-      <c r="BJ48" s="142"/>
+      <c r="BD48" s="247"/>
+      <c r="BE48" s="247"/>
+      <c r="BF48" s="248"/>
+      <c r="BG48" s="156"/>
+      <c r="BH48" s="156"/>
+      <c r="BI48" s="156"/>
+      <c r="BJ48" s="156"/>
       <c r="BK48" s="13"/>
       <c r="BL48" s="13"/>
       <c r="BM48" s="13"/>
@@ -8125,28 +8133,28 @@
       <c r="BR48" s="100"/>
     </row>
     <row r="49" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="198" t="s">
+      <c r="A49" s="196" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="199"/>
-      <c r="C49" s="200"/>
-      <c r="D49" s="212" t="s">
+      <c r="B49" s="197"/>
+      <c r="C49" s="198"/>
+      <c r="D49" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="213"/>
-      <c r="F49" s="213"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
       <c r="G49" s="124"/>
-      <c r="H49" s="212" t="s">
+      <c r="H49" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="I49" s="213"/>
-      <c r="J49" s="213"/>
+      <c r="I49" s="142"/>
+      <c r="J49" s="142"/>
       <c r="K49" s="124"/>
-      <c r="L49" s="212" t="s">
+      <c r="L49" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="M49" s="213"/>
-      <c r="N49" s="213"/>
+      <c r="M49" s="142"/>
+      <c r="N49" s="142"/>
       <c r="O49" s="124"/>
       <c r="P49" s="127"/>
       <c r="Q49" s="127"/>
@@ -8160,32 +8168,33 @@
       <c r="Y49" s="127"/>
       <c r="Z49" s="127"/>
       <c r="AA49" s="126"/>
-      <c r="AM49" s="142" t="s">
+      <c r="AM49" s="156" t="s">
         <v>135</v>
       </c>
-      <c r="AN49" s="142"/>
-      <c r="AO49" s="142"/>
-      <c r="AP49" s="141"/>
-      <c r="AQ49" s="141"/>
-      <c r="AR49" s="141"/>
-      <c r="AS49" s="141"/>
+      <c r="AN49" s="156"/>
+      <c r="AO49" s="156"/>
+      <c r="AP49" s="194"/>
+      <c r="AQ49" s="194"/>
+      <c r="AR49" s="194"/>
+      <c r="AS49" s="194"/>
       <c r="AT49" s="11"/>
       <c r="AU49" s="11"/>
       <c r="AV49" s="11"/>
       <c r="AW49" s="11"/>
-      <c r="AX49" s="11"/>
-      <c r="AY49" s="11"/>
-      <c r="AZ49" s="11"/>
-      <c r="BC49" s="143" t="s">
+      <c r="AX49" s="252"/>
+      <c r="AY49" s="252"/>
+      <c r="AZ49" s="252"/>
+      <c r="BA49" s="253"/>
+      <c r="BC49" s="246" t="s">
         <v>68</v>
       </c>
-      <c r="BD49" s="144"/>
-      <c r="BE49" s="144"/>
-      <c r="BF49" s="145"/>
-      <c r="BG49" s="142"/>
-      <c r="BH49" s="142"/>
-      <c r="BI49" s="142"/>
-      <c r="BJ49" s="142"/>
+      <c r="BD49" s="247"/>
+      <c r="BE49" s="247"/>
+      <c r="BF49" s="248"/>
+      <c r="BG49" s="156"/>
+      <c r="BH49" s="156"/>
+      <c r="BI49" s="156"/>
+      <c r="BJ49" s="156"/>
       <c r="BK49" s="13"/>
       <c r="BL49" s="13"/>
       <c r="BM49" s="13"/>
@@ -8196,26 +8205,26 @@
       <c r="BR49" s="100"/>
     </row>
     <row r="50" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="201"/>
-      <c r="B50" s="202"/>
-      <c r="C50" s="203"/>
-      <c r="D50" s="212" t="s">
+      <c r="A50" s="199"/>
+      <c r="B50" s="200"/>
+      <c r="C50" s="201"/>
+      <c r="D50" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="213"/>
-      <c r="F50" s="213"/>
+      <c r="E50" s="142"/>
+      <c r="F50" s="142"/>
       <c r="G50" s="124"/>
-      <c r="H50" s="212" t="s">
+      <c r="H50" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="I50" s="213"/>
-      <c r="J50" s="213"/>
+      <c r="I50" s="142"/>
+      <c r="J50" s="142"/>
       <c r="K50" s="124"/>
-      <c r="L50" s="212" t="s">
+      <c r="L50" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="M50" s="213"/>
-      <c r="N50" s="213"/>
+      <c r="M50" s="142"/>
+      <c r="N50" s="142"/>
       <c r="O50" s="124"/>
       <c r="P50" s="127"/>
       <c r="Q50" s="127"/>
@@ -8243,19 +8252,20 @@
       <c r="AU50" s="11"/>
       <c r="AV50" s="11"/>
       <c r="AW50" s="11"/>
-      <c r="AX50" s="11"/>
-      <c r="AY50" s="11"/>
-      <c r="AZ50" s="11"/>
-      <c r="BC50" s="143" t="s">
+      <c r="AX50" s="252"/>
+      <c r="AY50" s="252"/>
+      <c r="AZ50" s="252"/>
+      <c r="BA50" s="253"/>
+      <c r="BC50" s="246" t="s">
         <v>70</v>
       </c>
-      <c r="BD50" s="144"/>
-      <c r="BE50" s="144"/>
-      <c r="BF50" s="145"/>
-      <c r="BG50" s="142"/>
-      <c r="BH50" s="142"/>
-      <c r="BI50" s="142"/>
-      <c r="BJ50" s="142"/>
+      <c r="BD50" s="247"/>
+      <c r="BE50" s="247"/>
+      <c r="BF50" s="248"/>
+      <c r="BG50" s="156"/>
+      <c r="BH50" s="156"/>
+      <c r="BI50" s="156"/>
+      <c r="BJ50" s="156"/>
       <c r="BK50" s="13"/>
       <c r="BL50" s="13"/>
       <c r="BM50" s="13"/>
@@ -8266,28 +8276,28 @@
       <c r="BR50" s="100"/>
     </row>
     <row r="51" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="209" t="s">
+      <c r="A51" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="210"/>
-      <c r="C51" s="211"/>
-      <c r="D51" s="212" t="s">
+      <c r="B51" s="213"/>
+      <c r="C51" s="214"/>
+      <c r="D51" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="E51" s="213"/>
-      <c r="F51" s="213"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
       <c r="G51" s="124"/>
-      <c r="H51" s="212" t="s">
+      <c r="H51" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="I51" s="213"/>
-      <c r="J51" s="213"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
       <c r="K51" s="124"/>
-      <c r="L51" s="212" t="s">
+      <c r="L51" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="M51" s="213"/>
-      <c r="N51" s="213"/>
+      <c r="M51" s="142"/>
+      <c r="N51" s="142"/>
       <c r="O51" s="124"/>
       <c r="P51" s="204" t="s">
         <v>160</v>
@@ -8319,9 +8329,10 @@
       <c r="AU51" s="11"/>
       <c r="AV51" s="11"/>
       <c r="AW51" s="11"/>
-      <c r="AX51" s="11"/>
-      <c r="AY51" s="11"/>
-      <c r="AZ51" s="11"/>
+      <c r="AX51" s="252"/>
+      <c r="AY51" s="252"/>
+      <c r="AZ51" s="252"/>
+      <c r="BA51" s="253"/>
       <c r="BC51" s="123"/>
       <c r="BD51" s="123"/>
       <c r="BE51" s="123"/>
@@ -8357,6 +8368,10 @@
       <c r="AI52" s="205"/>
       <c r="AJ52" s="205"/>
       <c r="AK52" s="4"/>
+      <c r="AX52" s="253"/>
+      <c r="AY52" s="253"/>
+      <c r="AZ52" s="253"/>
+      <c r="BA52" s="253"/>
       <c r="BR52" s="98"/>
     </row>
     <row r="53" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8409,10 +8424,10 @@
       <c r="AU53" s="18"/>
       <c r="AV53" s="18"/>
       <c r="AW53" s="18"/>
-      <c r="AX53" s="18"/>
-      <c r="AY53" s="18"/>
-      <c r="AZ53" s="18"/>
-      <c r="BA53" s="18"/>
+      <c r="AX53" s="17"/>
+      <c r="AY53" s="17"/>
+      <c r="AZ53" s="17"/>
+      <c r="BA53" s="17"/>
       <c r="BB53" s="18"/>
       <c r="BC53" s="18"/>
       <c r="BD53" s="18"/>
@@ -8471,385 +8486,540 @@
       <c r="A56" s="24">
         <v>1</v>
       </c>
-      <c r="B56" s="193" t="s">
+      <c r="B56" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="193"/>
-      <c r="D56" s="193"/>
-      <c r="E56" s="194" t="s">
+      <c r="C56" s="202"/>
+      <c r="D56" s="202"/>
+      <c r="E56" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="F56" s="194"/>
-      <c r="G56" s="194"/>
-      <c r="H56" s="194"/>
-      <c r="I56" s="194"/>
-      <c r="J56" s="194"/>
-      <c r="K56" s="194"/>
+      <c r="F56" s="203"/>
+      <c r="G56" s="203"/>
+      <c r="H56" s="203"/>
+      <c r="I56" s="203"/>
+      <c r="J56" s="203"/>
+      <c r="K56" s="203"/>
       <c r="N56" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="O56" s="195" t="s">
+      <c r="O56" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="P56" s="196"/>
-      <c r="Q56" s="197"/>
-      <c r="R56" s="194" t="s">
+      <c r="P56" s="207"/>
+      <c r="Q56" s="208"/>
+      <c r="R56" s="203" t="s">
         <v>77</v>
       </c>
-      <c r="S56" s="194"/>
-      <c r="T56" s="194"/>
-      <c r="U56" s="194"/>
-      <c r="V56" s="194"/>
-      <c r="W56" s="194"/>
-      <c r="X56" s="194"/>
+      <c r="S56" s="203"/>
+      <c r="T56" s="203"/>
+      <c r="U56" s="203"/>
+      <c r="V56" s="203"/>
+      <c r="W56" s="203"/>
+      <c r="X56" s="203"/>
       <c r="AA56" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="AB56" s="206" t="s">
+      <c r="AB56" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="AC56" s="207"/>
-      <c r="AD56" s="207"/>
-      <c r="AE56" s="207"/>
-      <c r="AF56" s="207"/>
-      <c r="AG56" s="207"/>
-      <c r="AH56" s="207"/>
-      <c r="AI56" s="207"/>
-      <c r="AJ56" s="207"/>
-      <c r="AK56" s="207"/>
-      <c r="AL56" s="207"/>
-      <c r="AM56" s="208"/>
+      <c r="AC56" s="210"/>
+      <c r="AD56" s="210"/>
+      <c r="AE56" s="210"/>
+      <c r="AF56" s="210"/>
+      <c r="AG56" s="210"/>
+      <c r="AH56" s="210"/>
+      <c r="AI56" s="210"/>
+      <c r="AJ56" s="210"/>
+      <c r="AK56" s="210"/>
+      <c r="AL56" s="210"/>
+      <c r="AM56" s="211"/>
     </row>
     <row r="57" spans="1:70" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>2</v>
       </c>
-      <c r="B57" s="193" t="s">
+      <c r="B57" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="193"/>
-      <c r="D57" s="193"/>
-      <c r="E57" s="194" t="s">
+      <c r="C57" s="202"/>
+      <c r="D57" s="202"/>
+      <c r="E57" s="203" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="194"/>
-      <c r="G57" s="194"/>
-      <c r="H57" s="194"/>
-      <c r="I57" s="194"/>
-      <c r="J57" s="194"/>
-      <c r="K57" s="194"/>
+      <c r="F57" s="203"/>
+      <c r="G57" s="203"/>
+      <c r="H57" s="203"/>
+      <c r="I57" s="203"/>
+      <c r="J57" s="203"/>
+      <c r="K57" s="203"/>
       <c r="N57" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="O57" s="195" t="s">
+      <c r="O57" s="206" t="s">
         <v>83</v>
       </c>
-      <c r="P57" s="196"/>
-      <c r="Q57" s="197"/>
-      <c r="R57" s="194" t="s">
+      <c r="P57" s="207"/>
+      <c r="Q57" s="208"/>
+      <c r="R57" s="203" t="s">
         <v>84</v>
       </c>
-      <c r="S57" s="194"/>
-      <c r="T57" s="194"/>
-      <c r="U57" s="194"/>
-      <c r="V57" s="194"/>
-      <c r="W57" s="194"/>
-      <c r="X57" s="194"/>
+      <c r="S57" s="203"/>
+      <c r="T57" s="203"/>
+      <c r="U57" s="203"/>
+      <c r="V57" s="203"/>
+      <c r="W57" s="203"/>
+      <c r="X57" s="203"/>
       <c r="AA57" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="AB57" s="193" t="s">
+      <c r="AB57" s="202" t="s">
         <v>83</v>
       </c>
-      <c r="AC57" s="193"/>
-      <c r="AD57" s="193"/>
-      <c r="AE57" s="194" t="s">
+      <c r="AC57" s="202"/>
+      <c r="AD57" s="202"/>
+      <c r="AE57" s="203" t="s">
         <v>86</v>
       </c>
-      <c r="AF57" s="194"/>
-      <c r="AG57" s="194"/>
-      <c r="AH57" s="194"/>
-      <c r="AI57" s="194"/>
-      <c r="AJ57" s="194"/>
-      <c r="AK57" s="194"/>
-      <c r="AL57" s="194"/>
-      <c r="AM57" s="194"/>
+      <c r="AF57" s="203"/>
+      <c r="AG57" s="203"/>
+      <c r="AH57" s="203"/>
+      <c r="AI57" s="203"/>
+      <c r="AJ57" s="203"/>
+      <c r="AK57" s="203"/>
+      <c r="AL57" s="203"/>
+      <c r="AM57" s="203"/>
     </row>
     <row r="58" spans="1:70" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>3</v>
       </c>
-      <c r="B58" s="193" t="s">
+      <c r="B58" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="193"/>
-      <c r="D58" s="193"/>
-      <c r="E58" s="194" t="s">
+      <c r="C58" s="202"/>
+      <c r="D58" s="202"/>
+      <c r="E58" s="203" t="s">
         <v>88</v>
       </c>
-      <c r="F58" s="194"/>
-      <c r="G58" s="194"/>
-      <c r="H58" s="194"/>
-      <c r="I58" s="194"/>
-      <c r="J58" s="194"/>
-      <c r="K58" s="194"/>
+      <c r="F58" s="203"/>
+      <c r="G58" s="203"/>
+      <c r="H58" s="203"/>
+      <c r="I58" s="203"/>
+      <c r="J58" s="203"/>
+      <c r="K58" s="203"/>
       <c r="N58" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="O58" s="195" t="s">
+      <c r="O58" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="P58" s="196"/>
-      <c r="Q58" s="197"/>
-      <c r="R58" s="194" t="s">
+      <c r="P58" s="207"/>
+      <c r="Q58" s="208"/>
+      <c r="R58" s="203" t="s">
         <v>91</v>
       </c>
-      <c r="S58" s="194"/>
-      <c r="T58" s="194"/>
-      <c r="U58" s="194"/>
-      <c r="V58" s="194"/>
-      <c r="W58" s="194"/>
-      <c r="X58" s="194"/>
+      <c r="S58" s="203"/>
+      <c r="T58" s="203"/>
+      <c r="U58" s="203"/>
+      <c r="V58" s="203"/>
+      <c r="W58" s="203"/>
+      <c r="X58" s="203"/>
       <c r="AA58" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AB58" s="193" t="s">
+      <c r="AB58" s="202" t="s">
         <v>90</v>
       </c>
-      <c r="AC58" s="193"/>
-      <c r="AD58" s="193"/>
-      <c r="AE58" s="194" t="s">
+      <c r="AC58" s="202"/>
+      <c r="AD58" s="202"/>
+      <c r="AE58" s="203" t="s">
         <v>93</v>
       </c>
-      <c r="AF58" s="194"/>
-      <c r="AG58" s="194"/>
-      <c r="AH58" s="194"/>
-      <c r="AI58" s="194"/>
-      <c r="AJ58" s="194"/>
-      <c r="AK58" s="194"/>
-      <c r="AL58" s="194"/>
-      <c r="AM58" s="194"/>
+      <c r="AF58" s="203"/>
+      <c r="AG58" s="203"/>
+      <c r="AH58" s="203"/>
+      <c r="AI58" s="203"/>
+      <c r="AJ58" s="203"/>
+      <c r="AK58" s="203"/>
+      <c r="AL58" s="203"/>
+      <c r="AM58" s="203"/>
       <c r="AN58" s="26"/>
     </row>
     <row r="59" spans="1:70" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>4</v>
       </c>
-      <c r="B59" s="193" t="s">
+      <c r="B59" s="202" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="193"/>
-      <c r="D59" s="193"/>
-      <c r="E59" s="194" t="s">
+      <c r="C59" s="202"/>
+      <c r="D59" s="202"/>
+      <c r="E59" s="203" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="194"/>
-      <c r="G59" s="194"/>
-      <c r="H59" s="194"/>
-      <c r="I59" s="194"/>
-      <c r="J59" s="194"/>
-      <c r="K59" s="194"/>
+      <c r="F59" s="203"/>
+      <c r="G59" s="203"/>
+      <c r="H59" s="203"/>
+      <c r="I59" s="203"/>
+      <c r="J59" s="203"/>
+      <c r="K59" s="203"/>
       <c r="N59" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="O59" s="195" t="s">
+      <c r="O59" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="P59" s="196"/>
-      <c r="Q59" s="197"/>
-      <c r="R59" s="194" t="s">
+      <c r="P59" s="207"/>
+      <c r="Q59" s="208"/>
+      <c r="R59" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="S59" s="194"/>
-      <c r="T59" s="194"/>
-      <c r="U59" s="194"/>
-      <c r="V59" s="194"/>
-      <c r="W59" s="194"/>
-      <c r="X59" s="194"/>
+      <c r="S59" s="203"/>
+      <c r="T59" s="203"/>
+      <c r="U59" s="203"/>
+      <c r="V59" s="203"/>
+      <c r="W59" s="203"/>
+      <c r="X59" s="203"/>
       <c r="AA59" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="AB59" s="193" t="s">
+      <c r="AB59" s="202" t="s">
         <v>97</v>
       </c>
-      <c r="AC59" s="193"/>
-      <c r="AD59" s="193"/>
-      <c r="AE59" s="194" t="s">
+      <c r="AC59" s="202"/>
+      <c r="AD59" s="202"/>
+      <c r="AE59" s="203" t="s">
         <v>100</v>
       </c>
-      <c r="AF59" s="194"/>
-      <c r="AG59" s="194"/>
-      <c r="AH59" s="194"/>
-      <c r="AI59" s="194"/>
-      <c r="AJ59" s="194"/>
-      <c r="AK59" s="194"/>
-      <c r="AL59" s="194"/>
-      <c r="AM59" s="194"/>
+      <c r="AF59" s="203"/>
+      <c r="AG59" s="203"/>
+      <c r="AH59" s="203"/>
+      <c r="AI59" s="203"/>
+      <c r="AJ59" s="203"/>
+      <c r="AK59" s="203"/>
+      <c r="AL59" s="203"/>
+      <c r="AM59" s="203"/>
       <c r="AN59" s="26"/>
     </row>
     <row r="60" spans="1:70" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>5</v>
       </c>
-      <c r="B60" s="193" t="s">
+      <c r="B60" s="202" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="193"/>
-      <c r="D60" s="193"/>
-      <c r="E60" s="194" t="s">
+      <c r="C60" s="202"/>
+      <c r="D60" s="202"/>
+      <c r="E60" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="194"/>
-      <c r="G60" s="194"/>
-      <c r="H60" s="194"/>
-      <c r="I60" s="194"/>
-      <c r="J60" s="194"/>
-      <c r="K60" s="194"/>
+      <c r="F60" s="203"/>
+      <c r="G60" s="203"/>
+      <c r="H60" s="203"/>
+      <c r="I60" s="203"/>
+      <c r="J60" s="203"/>
+      <c r="K60" s="203"/>
       <c r="N60" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O60" s="195" t="s">
+      <c r="O60" s="206" t="s">
         <v>104</v>
       </c>
-      <c r="P60" s="196"/>
-      <c r="Q60" s="197"/>
-      <c r="R60" s="194" t="s">
+      <c r="P60" s="207"/>
+      <c r="Q60" s="208"/>
+      <c r="R60" s="203" t="s">
         <v>105</v>
       </c>
-      <c r="S60" s="194"/>
-      <c r="T60" s="194"/>
-      <c r="U60" s="194"/>
-      <c r="V60" s="194"/>
-      <c r="W60" s="194"/>
-      <c r="X60" s="194"/>
+      <c r="S60" s="203"/>
+      <c r="T60" s="203"/>
+      <c r="U60" s="203"/>
+      <c r="V60" s="203"/>
+      <c r="W60" s="203"/>
+      <c r="X60" s="203"/>
       <c r="AA60" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="AB60" s="193" t="s">
+      <c r="AB60" s="202" t="s">
         <v>104</v>
       </c>
-      <c r="AC60" s="193"/>
-      <c r="AD60" s="193"/>
-      <c r="AE60" s="194" t="s">
+      <c r="AC60" s="202"/>
+      <c r="AD60" s="202"/>
+      <c r="AE60" s="203" t="s">
         <v>107</v>
       </c>
-      <c r="AF60" s="194"/>
-      <c r="AG60" s="194"/>
-      <c r="AH60" s="194"/>
-      <c r="AI60" s="194"/>
-      <c r="AJ60" s="194"/>
-      <c r="AK60" s="194"/>
-      <c r="AL60" s="194"/>
-      <c r="AM60" s="194"/>
+      <c r="AF60" s="203"/>
+      <c r="AG60" s="203"/>
+      <c r="AH60" s="203"/>
+      <c r="AI60" s="203"/>
+      <c r="AJ60" s="203"/>
+      <c r="AK60" s="203"/>
+      <c r="AL60" s="203"/>
+      <c r="AM60" s="203"/>
       <c r="AN60" s="26"/>
     </row>
     <row r="61" spans="1:70" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>6</v>
       </c>
-      <c r="B61" s="193" t="s">
+      <c r="B61" s="202" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="193"/>
-      <c r="D61" s="193"/>
-      <c r="E61" s="194" t="s">
+      <c r="C61" s="202"/>
+      <c r="D61" s="202"/>
+      <c r="E61" s="203" t="s">
         <v>109</v>
       </c>
-      <c r="F61" s="194"/>
-      <c r="G61" s="194"/>
-      <c r="H61" s="194"/>
-      <c r="I61" s="194"/>
-      <c r="J61" s="194"/>
-      <c r="K61" s="194"/>
+      <c r="F61" s="203"/>
+      <c r="G61" s="203"/>
+      <c r="H61" s="203"/>
+      <c r="I61" s="203"/>
+      <c r="J61" s="203"/>
+      <c r="K61" s="203"/>
       <c r="N61" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="O61" s="195" t="s">
+      <c r="O61" s="206" t="s">
         <v>111</v>
       </c>
-      <c r="P61" s="196"/>
-      <c r="Q61" s="197"/>
-      <c r="R61" s="194" t="s">
+      <c r="P61" s="207"/>
+      <c r="Q61" s="208"/>
+      <c r="R61" s="203" t="s">
         <v>112</v>
       </c>
-      <c r="S61" s="194"/>
-      <c r="T61" s="194"/>
-      <c r="U61" s="194"/>
-      <c r="V61" s="194"/>
-      <c r="W61" s="194"/>
-      <c r="X61" s="194"/>
+      <c r="S61" s="203"/>
+      <c r="T61" s="203"/>
+      <c r="U61" s="203"/>
+      <c r="V61" s="203"/>
+      <c r="W61" s="203"/>
+      <c r="X61" s="203"/>
       <c r="AA61" s="24"/>
-      <c r="AB61" s="193" t="s">
+      <c r="AB61" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="AC61" s="193"/>
-      <c r="AD61" s="193"/>
-      <c r="AE61" s="194" t="s">
+      <c r="AC61" s="202"/>
+      <c r="AD61" s="202"/>
+      <c r="AE61" s="203" t="s">
         <v>114</v>
       </c>
-      <c r="AF61" s="194"/>
-      <c r="AG61" s="194"/>
-      <c r="AH61" s="194"/>
-      <c r="AI61" s="194"/>
-      <c r="AJ61" s="194"/>
-      <c r="AK61" s="194"/>
-      <c r="AL61" s="194"/>
-      <c r="AM61" s="194"/>
+      <c r="AF61" s="203"/>
+      <c r="AG61" s="203"/>
+      <c r="AH61" s="203"/>
+      <c r="AI61" s="203"/>
+      <c r="AJ61" s="203"/>
+      <c r="AK61" s="203"/>
+      <c r="AL61" s="203"/>
+      <c r="AM61" s="203"/>
     </row>
     <row r="62" spans="1:70" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>7</v>
       </c>
-      <c r="B62" s="193" t="s">
+      <c r="B62" s="202" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="193"/>
-      <c r="D62" s="193"/>
-      <c r="E62" s="194" t="s">
+      <c r="C62" s="202"/>
+      <c r="D62" s="202"/>
+      <c r="E62" s="203" t="s">
         <v>116</v>
       </c>
-      <c r="F62" s="194"/>
-      <c r="G62" s="194"/>
-      <c r="H62" s="194"/>
-      <c r="I62" s="194"/>
-      <c r="J62" s="194"/>
-      <c r="K62" s="194"/>
+      <c r="F62" s="203"/>
+      <c r="G62" s="203"/>
+      <c r="H62" s="203"/>
+      <c r="I62" s="203"/>
+      <c r="J62" s="203"/>
+      <c r="K62" s="203"/>
     </row>
     <row r="63" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
       <c r="N63" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="273">
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="BP29:BP30"/>
-    <mergeCell ref="BP32:BP33"/>
-    <mergeCell ref="BR35:BR36"/>
-    <mergeCell ref="AM43:BR43"/>
-    <mergeCell ref="AM10:BR10"/>
-    <mergeCell ref="AM13:BR13"/>
-    <mergeCell ref="AM16:BR16"/>
-    <mergeCell ref="AM19:BR19"/>
-    <mergeCell ref="AM31:BR31"/>
-    <mergeCell ref="AM34:BR34"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="AM46:AO46"/>
-    <mergeCell ref="AM25:BR25"/>
-    <mergeCell ref="AM28:BR28"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="BR6:BR7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BD6:BD7"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BL23:BL24"/>
-    <mergeCell ref="BO11:BO12"/>
-    <mergeCell ref="BL26:BL27"/>
+    <mergeCell ref="BC50:BF50"/>
+    <mergeCell ref="BG46:BJ46"/>
+    <mergeCell ref="BG47:BJ47"/>
+    <mergeCell ref="BG48:BJ48"/>
+    <mergeCell ref="BG49:BJ49"/>
+    <mergeCell ref="BG50:BJ50"/>
+    <mergeCell ref="AP46:AS46"/>
+    <mergeCell ref="AX46:BA46"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="BL35:BL36"/>
+    <mergeCell ref="AM37:BR37"/>
+    <mergeCell ref="BR32:BR33"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BO14:BO15"/>
+    <mergeCell ref="BO17:BO18"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BO23:BO24"/>
+    <mergeCell ref="BO26:BO27"/>
+    <mergeCell ref="BO29:BO30"/>
+    <mergeCell ref="BO32:BO33"/>
+    <mergeCell ref="BP17:BP18"/>
+    <mergeCell ref="BP20:BP21"/>
+    <mergeCell ref="BP23:BP24"/>
+    <mergeCell ref="BP26:BP27"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AM22:BR22"/>
+    <mergeCell ref="AP3:AZ3"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BM2:BR2"/>
+    <mergeCell ref="BM3:BR3"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:K62"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="R61:X61"/>
+    <mergeCell ref="AB61:AD61"/>
+    <mergeCell ref="AE61:AM61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="R60:X60"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="AE60:AM60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:K59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="R59:X59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="AE59:AM59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:K58"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="R58:X58"/>
+    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="AE58:AM58"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="AE57:AM57"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="R56:X56"/>
+    <mergeCell ref="AB56:AM56"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:K57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="R57:X57"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="AM49:AO49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="AM47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="X48:Z48"/>
+    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="X47:Z47"/>
+    <mergeCell ref="AM48:AO48"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="AB47:AD47"/>
+    <mergeCell ref="AP48:AS48"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="AM1:BR1"/>
     <mergeCell ref="AN4:AP4"/>
@@ -8874,165 +9044,16 @@
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AM3:AO3"/>
     <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="AM47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="AM48:AO48"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="AB47:AD47"/>
-    <mergeCell ref="AP48:AS48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="AE57:AM57"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="O56:Q56"/>
-    <mergeCell ref="R56:X56"/>
-    <mergeCell ref="AB56:AM56"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:K57"/>
-    <mergeCell ref="O57:Q57"/>
-    <mergeCell ref="R57:X57"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="AM49:AO49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:K59"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="R59:X59"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="AE59:AM59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:K58"/>
-    <mergeCell ref="O58:Q58"/>
-    <mergeCell ref="R58:X58"/>
-    <mergeCell ref="AB58:AD58"/>
-    <mergeCell ref="AE58:AM58"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:K62"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:K61"/>
-    <mergeCell ref="O61:Q61"/>
-    <mergeCell ref="R61:X61"/>
-    <mergeCell ref="AB61:AD61"/>
-    <mergeCell ref="AE61:AM61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:K60"/>
-    <mergeCell ref="O60:Q60"/>
-    <mergeCell ref="R60:X60"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="AE60:AM60"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AP3:AZ3"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BM2:BR2"/>
-    <mergeCell ref="BM3:BR3"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="BR38:BR39"/>
-    <mergeCell ref="BR41:BR42"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BL23:BL24"/>
+    <mergeCell ref="BO11:BO12"/>
     <mergeCell ref="BP11:BP12"/>
     <mergeCell ref="BP14:BP15"/>
     <mergeCell ref="BR11:BR12"/>
@@ -9040,6 +9061,25 @@
     <mergeCell ref="BR17:BR18"/>
     <mergeCell ref="BR20:BR21"/>
     <mergeCell ref="BR23:BR24"/>
+    <mergeCell ref="BL11:BL12"/>
+    <mergeCell ref="BL14:BL15"/>
+    <mergeCell ref="BL17:BL18"/>
+    <mergeCell ref="BL20:BL21"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="AM10:BR10"/>
+    <mergeCell ref="AM13:BR13"/>
+    <mergeCell ref="AM16:BR16"/>
+    <mergeCell ref="AM19:BR19"/>
+    <mergeCell ref="AM31:BR31"/>
+    <mergeCell ref="AM34:BR34"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="AM46:AO46"/>
+    <mergeCell ref="AM25:BR25"/>
+    <mergeCell ref="AM28:BR28"/>
+    <mergeCell ref="BL26:BL27"/>
+    <mergeCell ref="BR38:BR39"/>
+    <mergeCell ref="BR41:BR42"/>
     <mergeCell ref="BR26:BR27"/>
     <mergeCell ref="BR29:BR30"/>
     <mergeCell ref="AM40:BR40"/>
@@ -9048,51 +9088,26 @@
     <mergeCell ref="BO35:BO36"/>
     <mergeCell ref="BO38:BO39"/>
     <mergeCell ref="BO41:BO42"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="BL14:BL15"/>
-    <mergeCell ref="BL17:BL18"/>
-    <mergeCell ref="BL20:BL21"/>
     <mergeCell ref="BP35:BP36"/>
     <mergeCell ref="BP38:BP39"/>
     <mergeCell ref="BP41:BP42"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="BP29:BP30"/>
+    <mergeCell ref="BP32:BP33"/>
+    <mergeCell ref="BR35:BR36"/>
+    <mergeCell ref="AM43:BR43"/>
     <mergeCell ref="BL29:BL30"/>
     <mergeCell ref="BL32:BL33"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="BL35:BL36"/>
-    <mergeCell ref="AM37:BR37"/>
-    <mergeCell ref="BR32:BR33"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BO14:BO15"/>
-    <mergeCell ref="BO17:BO18"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BO23:BO24"/>
-    <mergeCell ref="BO26:BO27"/>
-    <mergeCell ref="BO29:BO30"/>
-    <mergeCell ref="BO32:BO33"/>
-    <mergeCell ref="BP17:BP18"/>
-    <mergeCell ref="BP20:BP21"/>
-    <mergeCell ref="BP23:BP24"/>
-    <mergeCell ref="BP26:BP27"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AM22:BR22"/>
     <mergeCell ref="AP49:AS49"/>
     <mergeCell ref="AU46:AW46"/>
     <mergeCell ref="BC46:BF46"/>
     <mergeCell ref="BC47:BF47"/>
     <mergeCell ref="BC48:BF48"/>
     <mergeCell ref="BC49:BF49"/>
-    <mergeCell ref="BC50:BF50"/>
-    <mergeCell ref="BG46:BJ46"/>
-    <mergeCell ref="BG47:BJ47"/>
-    <mergeCell ref="BG48:BJ48"/>
-    <mergeCell ref="BG49:BJ49"/>
-    <mergeCell ref="BG50:BJ50"/>
-    <mergeCell ref="AP46:AS46"/>
-    <mergeCell ref="AX46:BA46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AD8317-4C5D-4267-859E-129475FC3617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A796661-FD4B-43E8-B52E-7E0F555BE432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="167">
   <si>
     <t>業　　主：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,591 +72,598 @@
     <t>B0</t>
   </si>
   <si>
+    <t>F1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期例假</t>
+  </si>
+  <si>
+    <t>國定例假</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>不計工期</t>
+  </si>
+  <si>
+    <t>晴天</t>
+  </si>
+  <si>
+    <t>雨天</t>
+  </si>
+  <si>
+    <t>豪雨</t>
+  </si>
+  <si>
+    <t>颱風</t>
+  </si>
+  <si>
+    <t>酷熱</t>
+  </si>
+  <si>
+    <t>雨後泥濘</t>
+  </si>
+  <si>
+    <t>停工</t>
+  </si>
+  <si>
+    <t>停電</t>
+  </si>
+  <si>
+    <t>合約工期</t>
+  </si>
+  <si>
+    <t>使用工期</t>
+  </si>
+  <si>
+    <t>剩餘工期</t>
+  </si>
+  <si>
+    <t>總天數</t>
+  </si>
+  <si>
+    <t>使用天數</t>
+  </si>
+  <si>
+    <t>剩餘天數</t>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例 假 日：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天候因素：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人為因素：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工期相關：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相關說明：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本日止當月晴天天數及總天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本日止當月總天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>應扣除工期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　〃　　雨天天數及總天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例假日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　〃　　例假日合計天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等於B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　〃　　豪雨天數及總天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本日止當月停工合計天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ｃ扣除與例假日重疊天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颱風</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　〃　　颱風天數及總天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天候因素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2(雨)~6(泥濘)合計天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ｄ扣除與例假日、停工重疊天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷熱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　〃　　酷熱天數及總天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人為因素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本日止當月人為因素合計天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ｅ扣除與例假日、停工、天候重疊天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨後泥濘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　〃　　泥濘天數及總天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天數－應扣除工期小計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小計＝ｂ＋ｃ＋ｄ＋ｅ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　〃　　其他狀況天數及總天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴雨表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>案    號：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一週</t>
+  </si>
+  <si>
+    <t>第二週</t>
+  </si>
+  <si>
+    <t>第三週</t>
+  </si>
+  <si>
+    <t>第四週</t>
+  </si>
+  <si>
+    <t>第五週</t>
+  </si>
+  <si>
+    <t>第六週</t>
+  </si>
+  <si>
+    <t>工期計算表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程名稱：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>當月       天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定因素        (固定例假日)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>變動因素                                                         (天候)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>當月天數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午晴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午晴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午颱風</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午颱風</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午酷熱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午酷熱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午泥濘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午停電</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午停電</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午停工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午停工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午豪雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午豪雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午泥濘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>補班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>開工日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合約完工日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>變動完工日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際完工日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驗收完成日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期例假日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>國定假日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無資料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度合計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部合計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>D0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>E1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>E0</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期例假</t>
-  </si>
-  <si>
-    <t>國定例假</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>不計工期</t>
-  </si>
-  <si>
-    <t>晴天</t>
-  </si>
-  <si>
-    <t>雨天</t>
-  </si>
-  <si>
-    <t>豪雨</t>
-  </si>
-  <si>
-    <t>颱風</t>
-  </si>
-  <si>
-    <t>酷熱</t>
-  </si>
-  <si>
-    <t>雨後泥濘</t>
-  </si>
-  <si>
-    <t>停工</t>
-  </si>
-  <si>
-    <t>停電</t>
-  </si>
-  <si>
-    <t>合約工期</t>
-  </si>
-  <si>
-    <t>使用工期</t>
-  </si>
-  <si>
-    <t>剩餘工期</t>
-  </si>
-  <si>
-    <t>總天數</t>
-  </si>
-  <si>
-    <t>使用天數</t>
-  </si>
-  <si>
-    <t>剩餘天數</t>
-  </si>
-  <si>
-    <t>月份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>五</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>六</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>七</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>九</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>例 假 日：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>變動因素 停工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>變動因素                       (停電…等)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>決  標  日</t>
+  </si>
+  <si>
+    <t>追加工期</t>
   </si>
   <si>
     <t>實際工期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>履約期限</t>
   </si>
   <si>
     <t>合約完工期限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天候因素：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>開  工  日</t>
   </si>
   <si>
     <t>變動完工期限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預定完工日</t>
   </si>
   <si>
     <t>實際完工期限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人為因素：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>逾期/剩餘天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工期相關：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相關說明：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本日止當月晴天天數及總天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本日止當月總天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>應扣除工期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>　　〃　　雨天天數及總天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>例假日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>　　〃　　例假日合計天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等於B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪雨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>　　〃　　豪雨天數及總天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本日止當月停工合計天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ｃ扣除與例假日重疊天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颱風</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>　　〃　　颱風天數及總天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天候因素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2(雨)~6(泥濘)合計天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ｄ扣除與例假日、停工重疊天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酷熱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>　　〃　　酷熱天數及總天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人為因素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本日止當月人為因素合計天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ｅ扣除與例假日、停工、天候重疊天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨後泥濘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>　　〃　　泥濘天數及總天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天數－應扣除工期小計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小計＝ｂ＋ｃ＋ｄ＋ｅ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>　　〃　　其他狀況天數及總天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴雨表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>案    號：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一週</t>
-  </si>
-  <si>
-    <t>第二週</t>
-  </si>
-  <si>
-    <t>第三週</t>
-  </si>
-  <si>
-    <t>第四週</t>
-  </si>
-  <si>
-    <t>第五週</t>
-  </si>
-  <si>
-    <t>第六週</t>
-  </si>
-  <si>
-    <t>工期計算表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程名稱：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>當月       天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定因素        (固定例假日)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>變動因素                                                         (天候)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>變動因素                       (停工、停電…等)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>決  標  日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>履約期限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>開  工  日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>預定完工日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>追加工期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>當月天數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午晴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午雨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午雨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午晴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午颱風</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午颱風</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午酷熱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午酷熱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午泥濘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午停電</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午停電</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午停工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午停工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午豪雨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午豪雨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午泥濘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>補班</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>開工日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合約完工日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>變動完工日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>實際完工日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>驗收完成日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星期例假日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>國定假日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>無資料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年度合計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部合計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1632,32 +1639,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1705,14 +1686,105 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="hair">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="hair">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1721,52 +1793,35 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1777,6 +1832,61 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1787,11 +1897,26 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@